--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/Documents/QoS/Den Haag/BRP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/OneDrive - Gemeente Den Haag/BRP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848A4B34-C0B7-EB45-89F5-164D06FAD936}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{848A4B34-C0B7-EB45-89F5-164D06FAD936}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{52C16413-46B3-5F4B-86C4-2B2F19113D32}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29740" windowHeight="17800" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test autorisatieprofielen" sheetId="1" r:id="rId1"/>
+    <sheet name="Mapping API-GBA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1161,10 +1161,10 @@
   <dimension ref="A1:BW272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D225" sqref="D225"/>
+      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5595,12 +5595,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100693BD51F8350324485FD573DEA5308EA" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="3a5ad946f0818aa27759232261042403">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bcfd11aa4d094f7496148c95fffd8c5">
     <xsd:element name="properties">
@@ -5714,6 +5708,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E1EA3A-64D8-4C02-BC91-1B1F72624C50}">
   <ds:schemaRefs>
@@ -5723,21 +5723,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1ED0FDE-263A-4F6E-9471-50CE8FD4814D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CCE2042-532F-4C03-816B-30C6EAF92BA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5751,4 +5736,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1ED0FDE-263A-4F6E-9471-50CE8FD4814D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/OneDrive - Gemeente Den Haag/BRP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/GitHub/Bevragingen-ingeschreven-personen/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{848A4B34-C0B7-EB45-89F5-164D06FAD936}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{52C16413-46B3-5F4B-86C4-2B2F19113D32}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B1871D-20C4-8A4B-965B-073F306C2812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29740" windowHeight="17800" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <author>Frank Samwel</author>
   </authors>
   <commentList>
-    <comment ref="B96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C219" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C218" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="200">
   <si>
     <t>_links</t>
   </si>
@@ -651,6 +651,33 @@
   </si>
   <si>
     <t>afgeleid van 07.10</t>
+  </si>
+  <si>
+    <t>straat</t>
+  </si>
+  <si>
+    <t>11.15 of 11.10</t>
+  </si>
+  <si>
+    <t>korteNaam</t>
+  </si>
+  <si>
+    <t>11.70 of  09.10</t>
+  </si>
+  <si>
+    <t>13.30 of samengesteld</t>
+  </si>
+  <si>
+    <t>13.40 of samengesteld</t>
+  </si>
+  <si>
+    <t>woonplaats</t>
+  </si>
+  <si>
+    <t>nummeraanduidingIdentificatie</t>
+  </si>
+  <si>
+    <t>adresseerbaarObjectIdentificatie</t>
   </si>
 </sst>
 </file>
@@ -1158,13 +1185,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BW272"/>
+  <dimension ref="A1:BW271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1924,13 +1951,13 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="E50" s="3">
         <v>8</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>172</v>
@@ -1938,13 +1965,13 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="E51" s="3">
         <v>8</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>172</v>
@@ -2022,13 +2049,13 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="E57" s="3">
         <v>8</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>172</v>
@@ -2036,7 +2063,7 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E58" s="3">
         <v>8</v>
@@ -2050,7 +2077,7 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="E59" s="3">
         <v>8</v>
@@ -2078,250 +2105,259 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="E61" s="3">
+        <v>8</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C62" s="6" t="s">
-        <v>10</v>
+      <c r="B62" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E62" s="3">
         <v>8</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C63" s="6" t="s">
-        <v>81</v>
+      <c r="B63" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="E63" s="3">
         <v>8</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C64" s="6" t="s">
-        <v>82</v>
+      <c r="B64" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="E64" s="3">
         <v>8</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C65" s="6" t="s">
-        <v>83</v>
+      <c r="B65" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="E65" s="3">
         <v>8</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>172</v>
       </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="6"/>
+      <c r="AJ65" s="6"/>
+      <c r="AK65" s="6"/>
+      <c r="AL65" s="6"/>
+      <c r="AM65" s="6"/>
+      <c r="AN65" s="6"/>
+      <c r="AO65" s="6"/>
+      <c r="AP65" s="6"/>
+      <c r="AQ65" s="6"/>
+      <c r="AR65" s="6"/>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C66" s="6" t="s">
-        <v>149</v>
+      <c r="B66" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="E66" s="3">
         <v>8</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
-      <c r="AA66" s="6"/>
-      <c r="AB66" s="6"/>
-      <c r="AC66" s="6"/>
-      <c r="AD66" s="6"/>
-      <c r="AE66" s="6"/>
-      <c r="AF66" s="6"/>
-      <c r="AG66" s="6"/>
-      <c r="AH66" s="6"/>
-      <c r="AI66" s="6"/>
-      <c r="AJ66" s="6"/>
-      <c r="AK66" s="6"/>
-      <c r="AL66" s="6"/>
-      <c r="AM66" s="6"/>
-      <c r="AN66" s="6"/>
-      <c r="AO66" s="6"/>
-      <c r="AP66" s="6"/>
-      <c r="AQ66" s="6"/>
-      <c r="AR66" s="6"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E67" s="3">
         <v>8</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E68" s="3">
         <v>8</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B69" s="6" t="s">
-        <v>35</v>
+    <row r="69" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B69" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="E69" s="3">
         <v>8</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B70" s="17" t="s">
-        <v>150</v>
+        <v>163</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="6"/>
+      <c r="AB69" s="6"/>
+      <c r="AC69" s="6"/>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6"/>
+      <c r="AF69" s="6"/>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="6"/>
+      <c r="AI69" s="6"/>
+      <c r="AJ69" s="6"/>
+      <c r="AK69" s="6"/>
+      <c r="AL69" s="6"/>
+      <c r="AM69" s="6"/>
+      <c r="AN69" s="6"/>
+      <c r="AO69" s="6"/>
+      <c r="AP69" s="6"/>
+      <c r="AQ69" s="6"/>
+      <c r="AR69" s="6"/>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B70" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E70" s="3">
         <v>8</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
-      <c r="AA70" s="6"/>
-      <c r="AB70" s="6"/>
-      <c r="AC70" s="6"/>
-      <c r="AD70" s="6"/>
-      <c r="AE70" s="6"/>
-      <c r="AF70" s="6"/>
-      <c r="AG70" s="6"/>
-      <c r="AH70" s="6"/>
-      <c r="AI70" s="6"/>
-      <c r="AJ70" s="6"/>
-      <c r="AK70" s="6"/>
-      <c r="AL70" s="6"/>
-      <c r="AM70" s="6"/>
-      <c r="AN70" s="6"/>
-      <c r="AO70" s="6"/>
-      <c r="AP70" s="6"/>
-      <c r="AQ70" s="6"/>
-      <c r="AR70" s="6"/>
+        <v>108</v>
+      </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B71" s="6" t="s">
-        <v>20</v>
+      <c r="C71" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E71" s="3">
         <v>8</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C72" s="6" t="s">
-        <v>109</v>
+      <c r="B72" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E72" s="3">
         <v>8</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B73" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="3">
-        <v>8</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>111</v>
+      <c r="A73" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
-        <v>46</v>
+      <c r="B74" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" s="3">
+        <v>10</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E75" s="3">
         <v>10</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>172</v>
@@ -2329,82 +2365,82 @@
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E76" s="3">
         <v>10</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B77" s="6" t="s">
-        <v>48</v>
+    <row r="77" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B77" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="E77" s="3">
         <v>10</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B78" s="17" t="s">
-        <v>154</v>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B78" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E78" s="3">
         <v>10</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B79" s="6" t="s">
-        <v>20</v>
+      <c r="C79" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E79" s="3">
         <v>10</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C80" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E80" s="3">
-        <v>10</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>110</v>
+      <c r="A80" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
-        <v>43</v>
+      <c r="B81" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="3">
+        <v>11</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E82" s="3">
         <v>11</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>172</v>
@@ -2412,117 +2448,114 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E83" s="3">
         <v>11</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B84" s="6" t="s">
-        <v>20</v>
+      <c r="C84" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E84" s="3">
         <v>11</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C85" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E85" s="3">
-        <v>11</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>110</v>
+      <c r="A85" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
-        <v>15</v>
+      <c r="B86" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E86" s="3">
+        <v>13</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="E87" s="3">
         <v>13</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="B88" s="6" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="E88" s="3">
         <v>13</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="B89" s="6" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="E89" s="3">
         <v>13</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B90" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E90" s="3">
-        <v>13</v>
+      <c r="A90" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
-        <v>0</v>
+      <c r="B92" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E93" s="3">
-        <v>1</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>172</v>
@@ -2530,10 +2563,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>114</v>
+        <v>53</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>172</v>
@@ -2541,10 +2574,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="E95" s="3">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>172</v>
@@ -2552,13 +2588,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="E96" s="3">
-        <v>8</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>172</v>
@@ -2566,100 +2599,105 @@
     </row>
     <row r="97" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E97" s="3">
-        <v>9</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>172</v>
+        <v>12</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E98" s="3">
-        <v>12</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>145</v>
+        <v>52</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B99" s="6" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B100" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="101" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="18" t="s">
+    <row r="100" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="E101" s="19"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="H101" s="21"/>
-      <c r="I101" s="21"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="21"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
-      <c r="O101" s="21"/>
-      <c r="P101" s="21"/>
-      <c r="Q101" s="21"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="21"/>
-      <c r="T101" s="21"/>
-      <c r="U101" s="21"/>
-      <c r="V101" s="21"/>
-      <c r="W101" s="21"/>
-      <c r="X101" s="21"/>
-      <c r="Y101" s="21"/>
-      <c r="Z101" s="21"/>
-      <c r="AA101" s="21"/>
-      <c r="AB101" s="21"/>
-      <c r="AC101" s="21"/>
-      <c r="AD101" s="21"/>
-      <c r="AE101" s="21"/>
-      <c r="AF101" s="21"/>
-      <c r="AG101" s="21"/>
-      <c r="AH101" s="21"/>
-      <c r="AI101" s="21"/>
-      <c r="AJ101" s="21"/>
-      <c r="AK101" s="21"/>
-      <c r="AL101" s="21"/>
-      <c r="AM101" s="21"/>
-      <c r="AN101" s="21"/>
-      <c r="AO101" s="21"/>
-      <c r="AP101" s="21"/>
-      <c r="AQ101" s="21"/>
-      <c r="AR101" s="21"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="21"/>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="21"/>
+      <c r="S100" s="21"/>
+      <c r="T100" s="21"/>
+      <c r="U100" s="21"/>
+      <c r="V100" s="21"/>
+      <c r="W100" s="21"/>
+      <c r="X100" s="21"/>
+      <c r="Y100" s="21"/>
+      <c r="Z100" s="21"/>
+      <c r="AA100" s="21"/>
+      <c r="AB100" s="21"/>
+      <c r="AC100" s="21"/>
+      <c r="AD100" s="21"/>
+      <c r="AE100" s="21"/>
+      <c r="AF100" s="21"/>
+      <c r="AG100" s="21"/>
+      <c r="AH100" s="21"/>
+      <c r="AI100" s="21"/>
+      <c r="AJ100" s="21"/>
+      <c r="AK100" s="21"/>
+      <c r="AL100" s="21"/>
+      <c r="AM100" s="21"/>
+      <c r="AN100" s="21"/>
+      <c r="AO100" s="21"/>
+      <c r="AP100" s="21"/>
+      <c r="AQ100" s="21"/>
+      <c r="AR100" s="21"/>
+    </row>
+    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
+      <c r="B102" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2667,7 +2705,7 @@
         <v>120</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="G103" s="22" t="s">
         <v>172</v>
@@ -2675,73 +2713,73 @@
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="22" t="s">
+      <c r="E104" s="22"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="22"/>
+    </row>
+    <row r="105" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G104" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B105" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="22"/>
-    </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="F105" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="B106" s="1"/>
-      <c r="C106" s="1" t="s">
-        <v>16</v>
+      <c r="C106" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F106" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="107" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="F106" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B107" s="1"/>
-      <c r="C107" s="17" t="s">
-        <v>151</v>
+      <c r="C107" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G107" s="5" t="s">
+      <c r="F107" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G107" s="15" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="22" t="s">
         <v>120</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G108" s="15" t="s">
         <v>172</v>
@@ -2750,68 +2788,68 @@
     <row r="109" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F109" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>172</v>
-      </c>
+      <c r="F109" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G109" s="15"/>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
-      <c r="C110" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E110" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F110" s="12" t="s">
-        <v>108</v>
+      <c r="F110" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="G110" s="15"/>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C111" s="1"/>
-      <c r="D111" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E111" s="22" t="s">
+      <c r="D111" s="1"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="22"/>
+    </row>
+    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F111" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G111" s="15"/>
-    </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B112" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="22"/>
+      <c r="F112" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="113" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="22" t="s">
         <v>120</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G113" s="15" t="s">
         <v>172</v>
@@ -2820,14 +2858,14 @@
     <row r="114" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="22" t="s">
         <v>120</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G114" s="15" t="s">
         <v>172</v>
@@ -2836,63 +2874,61 @@
     <row r="115" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="22" t="s">
         <v>120</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>172</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G115" s="15"/>
     </row>
     <row r="116" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
-      <c r="C116" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E116" s="22" t="s">
         <v>120</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G116" s="15"/>
     </row>
     <row r="117" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B117" s="1"/>
+      <c r="B117" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C117" s="1"/>
-      <c r="D117" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="D117" s="1"/>
       <c r="E117" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F117" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G117" s="15"/>
+      <c r="F117" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="118" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="F118" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G118" s="15"/>
     </row>
     <row r="119" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2900,185 +2936,187 @@
         <v>120</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G119" s="15"/>
     </row>
     <row r="120" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B120" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D120" s="1"/>
       <c r="E120" s="22" t="s">
         <v>120</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G120" s="15"/>
     </row>
     <row r="121" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B121" s="1"/>
-      <c r="C121" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="B121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F121" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G121" s="15"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="22"/>
     </row>
     <row r="122" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D122" s="1"/>
       <c r="E122" s="22"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="22"/>
-    </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B123" s="1"/>
-      <c r="C123" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D123" s="1"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="124" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="23"/>
-      <c r="C124" s="23" t="s">
+      <c r="G122" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="23"/>
+      <c r="C123" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D124" s="23"/>
-      <c r="E124" s="24" t="s">
+      <c r="D123" s="23"/>
+      <c r="E123" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F124" s="23" t="s">
+      <c r="F123" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G124" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H124" s="21"/>
-      <c r="I124" s="21"/>
-      <c r="J124" s="21"/>
-      <c r="K124" s="21"/>
-      <c r="L124" s="21"/>
-      <c r="M124" s="21"/>
-      <c r="N124" s="21"/>
-      <c r="O124" s="21"/>
-      <c r="P124" s="21"/>
-      <c r="Q124" s="21"/>
-      <c r="R124" s="21"/>
-      <c r="S124" s="21"/>
-      <c r="T124" s="21"/>
-      <c r="U124" s="21"/>
-      <c r="V124" s="21"/>
-      <c r="W124" s="21"/>
-      <c r="X124" s="21"/>
-      <c r="Y124" s="21"/>
-      <c r="Z124" s="21"/>
-      <c r="AA124" s="21"/>
-      <c r="AB124" s="21"/>
-      <c r="AC124" s="21"/>
-      <c r="AD124" s="21"/>
-      <c r="AE124" s="21"/>
-      <c r="AF124" s="21"/>
-      <c r="AG124" s="21"/>
-      <c r="AH124" s="21"/>
-      <c r="AI124" s="21"/>
-      <c r="AJ124" s="21"/>
-      <c r="AK124" s="21"/>
-      <c r="AL124" s="21"/>
-      <c r="AM124" s="21"/>
-      <c r="AN124" s="21"/>
-      <c r="AO124" s="21"/>
-      <c r="AP124" s="21"/>
-      <c r="AQ124" s="21"/>
-      <c r="AR124" s="21"/>
+      <c r="G123" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+      <c r="O123" s="21"/>
+      <c r="P123" s="21"/>
+      <c r="Q123" s="21"/>
+      <c r="R123" s="21"/>
+      <c r="S123" s="21"/>
+      <c r="T123" s="21"/>
+      <c r="U123" s="21"/>
+      <c r="V123" s="21"/>
+      <c r="W123" s="21"/>
+      <c r="X123" s="21"/>
+      <c r="Y123" s="21"/>
+      <c r="Z123" s="21"/>
+      <c r="AA123" s="21"/>
+      <c r="AB123" s="21"/>
+      <c r="AC123" s="21"/>
+      <c r="AD123" s="21"/>
+      <c r="AE123" s="21"/>
+      <c r="AF123" s="21"/>
+      <c r="AG123" s="21"/>
+      <c r="AH123" s="21"/>
+      <c r="AI123" s="21"/>
+      <c r="AJ123" s="21"/>
+      <c r="AK123" s="21"/>
+      <c r="AL123" s="21"/>
+      <c r="AM123" s="21"/>
+      <c r="AN123" s="21"/>
+      <c r="AO123" s="21"/>
+      <c r="AP123" s="21"/>
+      <c r="AQ123" s="21"/>
+      <c r="AR123" s="21"/>
+    </row>
+    <row r="124" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="125" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
-        <v>53</v>
+      <c r="B125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="22" t="s">
+      <c r="E126" s="22"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="22"/>
+    </row>
+    <row r="127" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B127" s="1"/>
+      <c r="C127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G126" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B127" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="22"/>
-    </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B128" s="1"/>
-      <c r="C128" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D128" s="1"/>
+      <c r="F127" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="C128" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="E128" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F128" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="C129" s="17" t="s">
-        <v>151</v>
-      </c>
+      <c r="F128" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="1"/>
       <c r="E129" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G129" s="5" t="s">
+      <c r="F129" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G129" s="15" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G130" s="15" t="s">
         <v>172</v>
@@ -3087,228 +3125,226 @@
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F131" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G131" s="15" t="s">
-        <v>172</v>
-      </c>
+      <c r="F131" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G131" s="15"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
-      <c r="C132" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E132" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F132" s="12" t="s">
-        <v>108</v>
+      <c r="F132" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="G132" s="15"/>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B133" s="1"/>
+      <c r="B133" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C133" s="1"/>
-      <c r="D133" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E133" s="22" t="s">
+      <c r="D133" s="1"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="22"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B134" s="1"/>
+      <c r="C134" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" s="1"/>
+      <c r="E134" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F133" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G133" s="15"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B134" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="22"/>
+      <c r="F134" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="1"/>
       <c r="C135" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G135" s="15" t="s">
-        <v>172</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G135" s="15"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
       <c r="C136" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G136" s="15"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="G137" s="15"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
-      <c r="C138" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E138" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G138" s="15"/>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B139" s="1"/>
+      <c r="B139" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C139" s="1"/>
-      <c r="D139" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="D139" s="1"/>
       <c r="E139" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="G139" s="15"/>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="22" t="s">
+      <c r="E140" s="22"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="15"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="E141" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F140" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G140" s="15"/>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B141" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="15"/>
+      <c r="F141" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
       <c r="C142" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>172</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G142" s="15"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G143" s="15"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G144" s="15"/>
     </row>
     <row r="145" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B145" s="1"/>
-      <c r="C145" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E145" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G145" s="15"/>
     </row>
     <row r="146" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B146" s="1"/>
+      <c r="B146" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C146" s="1"/>
-      <c r="D146" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="D146" s="1"/>
       <c r="E146" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G146" s="15"/>
     </row>
     <row r="147" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3316,170 +3352,172 @@
         <v>118</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G147" s="15"/>
     </row>
     <row r="148" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B148" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D148" s="1"/>
       <c r="E148" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G148" s="15"/>
     </row>
     <row r="149" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B149" s="1"/>
-      <c r="C149" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="B149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F149" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G149" s="15"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="22"/>
     </row>
     <row r="150" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B150" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D150" s="1"/>
       <c r="E150" s="22"/>
       <c r="F150" s="1"/>
-      <c r="G150" s="22"/>
-    </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B151" s="1"/>
-      <c r="C151" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D151" s="1"/>
-      <c r="E151" s="22"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="23"/>
-      <c r="C152" s="23" t="s">
+      <c r="G150" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="23"/>
+      <c r="C151" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D152" s="23"/>
-      <c r="E152" s="24" t="s">
+      <c r="D151" s="23"/>
+      <c r="E151" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F152" s="23" t="s">
+      <c r="F151" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G152" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H152" s="21"/>
-      <c r="I152" s="21"/>
-      <c r="J152" s="21"/>
-      <c r="K152" s="21"/>
-      <c r="L152" s="21"/>
-      <c r="M152" s="21"/>
-      <c r="N152" s="21"/>
-      <c r="O152" s="21"/>
-      <c r="P152" s="21"/>
-      <c r="Q152" s="21"/>
-      <c r="R152" s="21"/>
-      <c r="S152" s="21"/>
-      <c r="T152" s="21"/>
-      <c r="U152" s="21"/>
-      <c r="V152" s="21"/>
-      <c r="W152" s="21"/>
-      <c r="X152" s="21"/>
-      <c r="Y152" s="21"/>
-      <c r="Z152" s="21"/>
-      <c r="AA152" s="21"/>
-      <c r="AB152" s="21"/>
-      <c r="AC152" s="21"/>
-      <c r="AD152" s="21"/>
-      <c r="AE152" s="21"/>
-      <c r="AF152" s="21"/>
-      <c r="AG152" s="21"/>
-      <c r="AH152" s="21"/>
-      <c r="AI152" s="21"/>
-      <c r="AJ152" s="21"/>
-      <c r="AK152" s="21"/>
-      <c r="AL152" s="21"/>
-      <c r="AM152" s="21"/>
-      <c r="AN152" s="21"/>
-      <c r="AO152" s="21"/>
-      <c r="AP152" s="21"/>
-      <c r="AQ152" s="21"/>
-      <c r="AR152" s="21"/>
+      <c r="G151" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H151" s="21"/>
+      <c r="I151" s="21"/>
+      <c r="J151" s="21"/>
+      <c r="K151" s="21"/>
+      <c r="L151" s="21"/>
+      <c r="M151" s="21"/>
+      <c r="N151" s="21"/>
+      <c r="O151" s="21"/>
+      <c r="P151" s="21"/>
+      <c r="Q151" s="21"/>
+      <c r="R151" s="21"/>
+      <c r="S151" s="21"/>
+      <c r="T151" s="21"/>
+      <c r="U151" s="21"/>
+      <c r="V151" s="21"/>
+      <c r="W151" s="21"/>
+      <c r="X151" s="21"/>
+      <c r="Y151" s="21"/>
+      <c r="Z151" s="21"/>
+      <c r="AA151" s="21"/>
+      <c r="AB151" s="21"/>
+      <c r="AC151" s="21"/>
+      <c r="AD151" s="21"/>
+      <c r="AE151" s="21"/>
+      <c r="AF151" s="21"/>
+      <c r="AG151" s="21"/>
+      <c r="AH151" s="21"/>
+      <c r="AI151" s="21"/>
+      <c r="AJ151" s="21"/>
+      <c r="AK151" s="21"/>
+      <c r="AL151" s="21"/>
+      <c r="AM151" s="21"/>
+      <c r="AN151" s="21"/>
+      <c r="AO151" s="21"/>
+      <c r="AP151" s="21"/>
+      <c r="AQ151" s="21"/>
+      <c r="AR151" s="21"/>
+    </row>
+    <row r="152" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="153" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
-        <v>51</v>
+      <c r="B153" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="5">
+        <v>9</v>
+      </c>
+      <c r="F153" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B154" s="16" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
-      <c r="E154" s="5">
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+    </row>
+    <row r="155" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B155" s="16"/>
+      <c r="C155" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" s="16"/>
+      <c r="E155" s="5">
         <v>9</v>
       </c>
-      <c r="F154" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B155" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
-    </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B156" s="16"/>
-      <c r="C156" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D156" s="16"/>
+      <c r="F155" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="156" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B156" s="12"/>
+      <c r="C156" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D156" s="12"/>
       <c r="E156" s="5">
         <v>9</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="157" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B157" s="12"/>
-      <c r="C157" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D157" s="12"/>
+    <row r="157" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B157" s="16"/>
+      <c r="C157" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" s="16"/>
       <c r="E157" s="5">
         <v>9</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>172</v>
@@ -3488,14 +3526,14 @@
     <row r="158" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B158" s="16"/>
       <c r="C158" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D158" s="16"/>
       <c r="E158" s="5">
         <v>9</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>172</v>
@@ -3504,267 +3542,265 @@
     <row r="159" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B159" s="16"/>
       <c r="C159" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D159" s="16"/>
       <c r="E159" s="5">
         <v>9</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G159" s="5" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B160" s="16"/>
-      <c r="C160" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" s="16"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="E160" s="5">
         <v>9</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="161" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B161" s="16"/>
+      <c r="B161" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="C161" s="16"/>
-      <c r="D161" s="16" t="s">
-        <v>109</v>
-      </c>
+      <c r="D161" s="16"/>
       <c r="E161" s="5">
         <v>9</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>110</v>
+        <v>157</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B162" s="16" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
-      <c r="E162" s="5">
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+    </row>
+    <row r="163" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B163" s="16"/>
+      <c r="C163" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" s="16"/>
+      <c r="E163" s="5">
         <v>9</v>
       </c>
-      <c r="F162" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G162" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="163" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B163" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
+      <c r="F163" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="164" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B164" s="16"/>
       <c r="C164" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" s="16"/>
       <c r="E164" s="5">
         <v>9</v>
       </c>
       <c r="F164" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G164" s="5" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B165" s="16"/>
       <c r="C165" s="16" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D165" s="16"/>
       <c r="E165" s="5">
         <v>9</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B166" s="16"/>
       <c r="C166" s="16" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D166" s="16"/>
       <c r="E166" s="5">
         <v>9</v>
       </c>
       <c r="F166" s="16" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B167" s="16"/>
-      <c r="C167" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D167" s="16"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="E167" s="5">
         <v>9</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="168" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B168" s="16"/>
+      <c r="B168" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="C168" s="16"/>
-      <c r="D168" s="16" t="s">
-        <v>109</v>
-      </c>
+      <c r="D168" s="16"/>
       <c r="E168" s="5">
         <v>9</v>
       </c>
       <c r="F168" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="169" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B169" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C169" s="16"/>
+      <c r="B169" s="16"/>
+      <c r="C169" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="D169" s="16"/>
       <c r="E169" s="5">
         <v>9</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="170" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B170" s="16"/>
-      <c r="C170" s="16" t="s">
-        <v>109</v>
-      </c>
+      <c r="B170" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" s="16"/>
       <c r="D170" s="16"/>
-      <c r="E170" s="5">
-        <v>9</v>
-      </c>
-      <c r="F170" s="16" t="s">
-        <v>110</v>
-      </c>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
     </row>
     <row r="171" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B171" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C171" s="16"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="16" t="s">
+        <v>1</v>
+      </c>
       <c r="D171" s="16"/>
       <c r="E171" s="16"/>
       <c r="F171" s="16"/>
     </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B172" s="16"/>
-      <c r="C172" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D172" s="16"/>
-      <c r="E172" s="16"/>
-      <c r="F172" s="16"/>
-    </row>
-    <row r="173" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C173" s="23" t="s">
+    <row r="172" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C172" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="E173" s="21">
+      <c r="E172" s="21">
         <v>9</v>
       </c>
-      <c r="F173" s="18" t="s">
+      <c r="F172" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G173" s="21"/>
-      <c r="H173" s="21"/>
-      <c r="I173" s="21"/>
-      <c r="J173" s="21"/>
-      <c r="K173" s="21"/>
-      <c r="L173" s="21"/>
-      <c r="M173" s="21"/>
-      <c r="N173" s="21"/>
-      <c r="O173" s="21"/>
-      <c r="P173" s="21"/>
-      <c r="Q173" s="21"/>
-      <c r="R173" s="21"/>
-      <c r="S173" s="21"/>
-      <c r="T173" s="21"/>
-      <c r="U173" s="21"/>
-      <c r="V173" s="21"/>
-      <c r="W173" s="21"/>
-      <c r="X173" s="21"/>
-      <c r="Y173" s="21"/>
-      <c r="Z173" s="21"/>
-      <c r="AA173" s="21"/>
-      <c r="AB173" s="21"/>
-      <c r="AC173" s="21"/>
-      <c r="AD173" s="21"/>
-      <c r="AE173" s="21"/>
-      <c r="AF173" s="21"/>
-      <c r="AG173" s="21"/>
-      <c r="AH173" s="21"/>
-      <c r="AI173" s="21"/>
-      <c r="AJ173" s="21"/>
-      <c r="AK173" s="21"/>
-      <c r="AL173" s="21"/>
-      <c r="AM173" s="21"/>
-      <c r="AN173" s="21"/>
-      <c r="AO173" s="21"/>
-      <c r="AP173" s="21"/>
-      <c r="AQ173" s="21"/>
-      <c r="AR173" s="21"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="21"/>
+      <c r="I172" s="21"/>
+      <c r="J172" s="21"/>
+      <c r="K172" s="21"/>
+      <c r="L172" s="21"/>
+      <c r="M172" s="21"/>
+      <c r="N172" s="21"/>
+      <c r="O172" s="21"/>
+      <c r="P172" s="21"/>
+      <c r="Q172" s="21"/>
+      <c r="R172" s="21"/>
+      <c r="S172" s="21"/>
+      <c r="T172" s="21"/>
+      <c r="U172" s="21"/>
+      <c r="V172" s="21"/>
+      <c r="W172" s="21"/>
+      <c r="X172" s="21"/>
+      <c r="Y172" s="21"/>
+      <c r="Z172" s="21"/>
+      <c r="AA172" s="21"/>
+      <c r="AB172" s="21"/>
+      <c r="AC172" s="21"/>
+      <c r="AD172" s="21"/>
+      <c r="AE172" s="21"/>
+      <c r="AF172" s="21"/>
+      <c r="AG172" s="21"/>
+      <c r="AH172" s="21"/>
+      <c r="AI172" s="21"/>
+      <c r="AJ172" s="21"/>
+      <c r="AK172" s="21"/>
+      <c r="AL172" s="21"/>
+      <c r="AM172" s="21"/>
+      <c r="AN172" s="21"/>
+      <c r="AO172" s="21"/>
+      <c r="AP172" s="21"/>
+      <c r="AQ172" s="21"/>
+      <c r="AR172" s="21"/>
+    </row>
+    <row r="173" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="174" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A174" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="B174" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G174" s="22"/>
     </row>
     <row r="175" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
       <c r="E175" s="22" t="s">
         <v>138</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="G175" s="22"/>
     </row>
     <row r="176" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
       <c r="E176" s="22" t="s">
         <v>138</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="G176" s="22"/>
     </row>
     <row r="177" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -3772,13 +3808,13 @@
         <v>138</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G177" s="22"/>
     </row>
     <row r="178" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -3786,13 +3822,13 @@
         <v>138</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G178" s="22"/>
     </row>
     <row r="179" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -3800,13 +3836,13 @@
         <v>138</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G179" s="22"/>
     </row>
     <row r="180" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B180" s="1" t="s">
-        <v>137</v>
+      <c r="B180" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -3814,13 +3850,13 @@
         <v>138</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G180" s="22"/>
     </row>
-    <row r="181" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B181" s="26" t="s">
-        <v>152</v>
+    <row r="181" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B181" s="27" t="s">
+        <v>153</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -3828,42 +3864,42 @@
         <v>138</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="G181" s="22"/>
     </row>
-    <row r="182" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B182" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="22" t="s">
+    <row r="182" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B182" s="16"/>
+      <c r="C182" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D182" s="16"/>
+      <c r="E182" s="5">
+        <v>12</v>
+      </c>
+      <c r="F182" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="183" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G182" s="22"/>
-    </row>
-    <row r="183" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B183" s="16"/>
-      <c r="C183" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D183" s="16"/>
-      <c r="E183" s="5">
-        <v>12</v>
-      </c>
-      <c r="F183" s="16" t="s">
-        <v>110</v>
-      </c>
+      <c r="F183" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G183" s="22"/>
     </row>
     <row r="184" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B184" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D184" s="1"/>
       <c r="E184" s="22" t="s">
         <v>138</v>
@@ -3873,85 +3909,85 @@
       </c>
       <c r="G184" s="22"/>
     </row>
-    <row r="185" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B185" s="1"/>
-      <c r="C185" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D185" s="1"/>
-      <c r="E185" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G185" s="22"/>
-    </row>
-    <row r="186" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="23"/>
-      <c r="C186" s="23" t="s">
+    <row r="185" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B185" s="23"/>
+      <c r="C185" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D186" s="23"/>
-      <c r="E186" s="24" t="s">
+      <c r="D185" s="23"/>
+      <c r="E185" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F186" s="23" t="s">
+      <c r="F185" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G186" s="24"/>
-      <c r="H186" s="21"/>
-      <c r="I186" s="21"/>
-      <c r="J186" s="21"/>
-      <c r="K186" s="21"/>
-      <c r="L186" s="21"/>
-      <c r="M186" s="21"/>
-      <c r="N186" s="21"/>
-      <c r="O186" s="21"/>
-      <c r="P186" s="21"/>
-      <c r="Q186" s="21"/>
-      <c r="R186" s="21"/>
-      <c r="S186" s="21"/>
-      <c r="T186" s="21"/>
-      <c r="U186" s="21"/>
-      <c r="V186" s="21"/>
-      <c r="W186" s="21"/>
-      <c r="X186" s="21"/>
-      <c r="Y186" s="21"/>
-      <c r="Z186" s="21"/>
-      <c r="AA186" s="21"/>
-      <c r="AB186" s="21"/>
-      <c r="AC186" s="21"/>
-      <c r="AD186" s="21"/>
-      <c r="AE186" s="21"/>
-      <c r="AF186" s="21"/>
-      <c r="AG186" s="21"/>
-      <c r="AH186" s="21"/>
-      <c r="AI186" s="21"/>
-      <c r="AJ186" s="21"/>
-      <c r="AK186" s="21"/>
-      <c r="AL186" s="21"/>
-      <c r="AM186" s="21"/>
-      <c r="AN186" s="21"/>
-      <c r="AO186" s="21"/>
-      <c r="AP186" s="21"/>
-      <c r="AQ186" s="21"/>
-      <c r="AR186" s="21"/>
+      <c r="G185" s="24"/>
+      <c r="H185" s="21"/>
+      <c r="I185" s="21"/>
+      <c r="J185" s="21"/>
+      <c r="K185" s="21"/>
+      <c r="L185" s="21"/>
+      <c r="M185" s="21"/>
+      <c r="N185" s="21"/>
+      <c r="O185" s="21"/>
+      <c r="P185" s="21"/>
+      <c r="Q185" s="21"/>
+      <c r="R185" s="21"/>
+      <c r="S185" s="21"/>
+      <c r="T185" s="21"/>
+      <c r="U185" s="21"/>
+      <c r="V185" s="21"/>
+      <c r="W185" s="21"/>
+      <c r="X185" s="21"/>
+      <c r="Y185" s="21"/>
+      <c r="Z185" s="21"/>
+      <c r="AA185" s="21"/>
+      <c r="AB185" s="21"/>
+      <c r="AC185" s="21"/>
+      <c r="AD185" s="21"/>
+      <c r="AE185" s="21"/>
+      <c r="AF185" s="21"/>
+      <c r="AG185" s="21"/>
+      <c r="AH185" s="21"/>
+      <c r="AI185" s="21"/>
+      <c r="AJ185" s="21"/>
+      <c r="AK185" s="21"/>
+      <c r="AL185" s="21"/>
+      <c r="AM185" s="21"/>
+      <c r="AN185" s="21"/>
+      <c r="AO185" s="21"/>
+      <c r="AP185" s="21"/>
+      <c r="AQ185" s="21"/>
+      <c r="AR185" s="21"/>
+    </row>
+    <row r="186" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="187" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A187" s="6" t="s">
-        <v>174</v>
+      <c r="B187" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E187" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="188" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B188" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E188" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>172</v>
@@ -3959,13 +3995,13 @@
     </row>
     <row r="189" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B189" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E189" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>172</v>
@@ -3973,13 +4009,13 @@
     </row>
     <row r="190" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B190" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E190" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>172</v>
@@ -3987,13 +4023,13 @@
     </row>
     <row r="191" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B191" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E191" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>172</v>
@@ -4001,13 +4037,13 @@
     </row>
     <row r="192" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B192" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E192" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>172</v>
@@ -4015,13 +4051,13 @@
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B193" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E193" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>172</v>
@@ -4029,13 +4065,13 @@
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B194" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E194" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>172</v>
@@ -4043,13 +4079,13 @@
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B195" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E195" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>172</v>
@@ -4057,13 +4093,13 @@
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B196" s="6" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E196" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>172</v>
@@ -4071,13 +4107,13 @@
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" s="6" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E197" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>172</v>
@@ -4085,13 +4121,13 @@
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E198" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>172</v>
@@ -4099,13 +4135,13 @@
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" s="6" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="E199" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>172</v>
@@ -4113,13 +4149,13 @@
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B200" s="6" t="s">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="E200" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>172</v>
@@ -4127,13 +4163,13 @@
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" s="6" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E201" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>172</v>
@@ -4141,32 +4177,32 @@
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E202" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C203" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="F202" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B203" s="6" t="s">
-        <v>42</v>
+      <c r="F203" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C204" s="6" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E204" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>172</v>
@@ -4174,13 +4210,13 @@
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C205" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E205" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>172</v>
@@ -4188,13 +4224,13 @@
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C206" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E206" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>172</v>
@@ -4202,204 +4238,204 @@
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C207" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E207" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E207" s="6"/>
+      <c r="F207" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B208" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E208" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="F207" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G207" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C208" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E208" s="6"/>
       <c r="F208" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G208" s="5" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
     </row>
     <row r="209" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B209" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E209" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="210" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B210" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E210" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B211" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E211" s="28" t="s">
+    <row r="211" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B211" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E211" s="6"/>
+      <c r="F211" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="212" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B212" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="F211" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G211" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="212" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B212" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E212" s="6"/>
       <c r="F212" s="4" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
     </row>
     <row r="213" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B213" s="6" t="s">
-        <v>20</v>
+      <c r="C213" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E213" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="214" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C214" s="6" t="s">
-        <v>109</v>
+      <c r="B214" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E214" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B215" s="6" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="E215" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>111</v>
+        <v>180</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="216" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B216" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E216" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="C217" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="218" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C218" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E218" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="F216" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G216" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B217" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C218" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F218" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="219" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C219" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E219" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="F219" s="20" t="s">
+      <c r="F218" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G219" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="H219" s="21"/>
-      <c r="I219" s="21"/>
-      <c r="J219" s="21"/>
-      <c r="K219" s="21"/>
-      <c r="L219" s="21"/>
-      <c r="M219" s="21"/>
-      <c r="N219" s="21"/>
-      <c r="O219" s="21"/>
-      <c r="P219" s="21"/>
-      <c r="Q219" s="21"/>
-      <c r="R219" s="21"/>
-      <c r="S219" s="21"/>
-      <c r="T219" s="21"/>
-      <c r="U219" s="21"/>
-      <c r="V219" s="21"/>
-      <c r="W219" s="21"/>
-      <c r="X219" s="21"/>
-      <c r="Y219" s="21"/>
-      <c r="Z219" s="21"/>
-      <c r="AA219" s="21"/>
-      <c r="AB219" s="21"/>
-      <c r="AC219" s="21"/>
-      <c r="AD219" s="21"/>
-      <c r="AE219" s="21"/>
-      <c r="AF219" s="21"/>
-      <c r="AG219" s="21"/>
-      <c r="AH219" s="21"/>
-      <c r="AI219" s="21"/>
-      <c r="AJ219" s="21"/>
-      <c r="AK219" s="21"/>
-      <c r="AL219" s="21"/>
-      <c r="AM219" s="21"/>
-      <c r="AN219" s="21"/>
-      <c r="AO219" s="21"/>
-      <c r="AP219" s="21"/>
-      <c r="AQ219" s="21"/>
-      <c r="AR219" s="21"/>
+      <c r="G218" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H218" s="21"/>
+      <c r="I218" s="21"/>
+      <c r="J218" s="21"/>
+      <c r="K218" s="21"/>
+      <c r="L218" s="21"/>
+      <c r="M218" s="21"/>
+      <c r="N218" s="21"/>
+      <c r="O218" s="21"/>
+      <c r="P218" s="21"/>
+      <c r="Q218" s="21"/>
+      <c r="R218" s="21"/>
+      <c r="S218" s="21"/>
+      <c r="T218" s="21"/>
+      <c r="U218" s="21"/>
+      <c r="V218" s="21"/>
+      <c r="W218" s="21"/>
+      <c r="X218" s="21"/>
+      <c r="Y218" s="21"/>
+      <c r="Z218" s="21"/>
+      <c r="AA218" s="21"/>
+      <c r="AB218" s="21"/>
+      <c r="AC218" s="21"/>
+      <c r="AD218" s="21"/>
+      <c r="AE218" s="21"/>
+      <c r="AF218" s="21"/>
+      <c r="AG218" s="21"/>
+      <c r="AH218" s="21"/>
+      <c r="AI218" s="21"/>
+      <c r="AJ218" s="21"/>
+      <c r="AK218" s="21"/>
+      <c r="AL218" s="21"/>
+      <c r="AM218" s="21"/>
+      <c r="AN218" s="21"/>
+      <c r="AO218" s="21"/>
+      <c r="AP218" s="21"/>
+      <c r="AQ218" s="21"/>
+      <c r="AR218" s="21"/>
+    </row>
+    <row r="219" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A219" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G219" s="7"/>
     </row>
     <row r="220" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A220" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G220" s="7"/>
+      <c r="B220" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G220" s="5" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="221" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B221" s="6" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>183</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G221" s="5" t="s">
         <v>172</v>
@@ -4407,192 +4443,194 @@
     </row>
     <row r="222" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B222" s="6" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>183</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B223" s="6" t="s">
-        <v>48</v>
+    <row r="223" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B223" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>183</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="224" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B224" s="17" t="s">
-        <v>154</v>
+    <row r="224" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B224" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>183</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G224" s="5" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
     </row>
     <row r="225" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B225" s="6" t="s">
-        <v>20</v>
+      <c r="C225" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>183</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="226" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C226" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B227" s="6" t="s">
+      <c r="B226" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C228" s="18" t="s">
+    <row r="227" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C227" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E228" s="19"/>
-      <c r="F228" s="20" t="s">
+      <c r="E227" s="19"/>
+      <c r="F227" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="G228" s="21"/>
-      <c r="H228" s="21"/>
-      <c r="I228" s="21"/>
-      <c r="J228" s="21"/>
-      <c r="K228" s="21"/>
-      <c r="L228" s="21"/>
-      <c r="M228" s="21"/>
-      <c r="N228" s="21"/>
-      <c r="O228" s="21"/>
-      <c r="P228" s="21"/>
-      <c r="Q228" s="21"/>
-      <c r="R228" s="21"/>
-      <c r="S228" s="21"/>
-      <c r="T228" s="21"/>
-      <c r="U228" s="21"/>
-      <c r="V228" s="21"/>
-      <c r="W228" s="21"/>
-      <c r="X228" s="21"/>
-      <c r="Y228" s="21"/>
-      <c r="Z228" s="21"/>
-      <c r="AA228" s="21"/>
-      <c r="AB228" s="21"/>
-      <c r="AC228" s="21"/>
-      <c r="AD228" s="21"/>
-      <c r="AE228" s="21"/>
-      <c r="AF228" s="21"/>
-      <c r="AG228" s="21"/>
-      <c r="AH228" s="21"/>
-      <c r="AI228" s="21"/>
-      <c r="AJ228" s="21"/>
-      <c r="AK228" s="21"/>
-      <c r="AL228" s="21"/>
-      <c r="AM228" s="21"/>
-      <c r="AN228" s="21"/>
-      <c r="AO228" s="21"/>
-      <c r="AP228" s="21"/>
-      <c r="AQ228" s="21"/>
-      <c r="AR228" s="21"/>
+      <c r="G227" s="21"/>
+      <c r="H227" s="21"/>
+      <c r="I227" s="21"/>
+      <c r="J227" s="21"/>
+      <c r="K227" s="21"/>
+      <c r="L227" s="21"/>
+      <c r="M227" s="21"/>
+      <c r="N227" s="21"/>
+      <c r="O227" s="21"/>
+      <c r="P227" s="21"/>
+      <c r="Q227" s="21"/>
+      <c r="R227" s="21"/>
+      <c r="S227" s="21"/>
+      <c r="T227" s="21"/>
+      <c r="U227" s="21"/>
+      <c r="V227" s="21"/>
+      <c r="W227" s="21"/>
+      <c r="X227" s="21"/>
+      <c r="Y227" s="21"/>
+      <c r="Z227" s="21"/>
+      <c r="AA227" s="21"/>
+      <c r="AB227" s="21"/>
+      <c r="AC227" s="21"/>
+      <c r="AD227" s="21"/>
+      <c r="AE227" s="21"/>
+      <c r="AF227" s="21"/>
+      <c r="AG227" s="21"/>
+      <c r="AH227" s="21"/>
+      <c r="AI227" s="21"/>
+      <c r="AJ227" s="21"/>
+      <c r="AK227" s="21"/>
+      <c r="AL227" s="21"/>
+      <c r="AM227" s="21"/>
+      <c r="AN227" s="21"/>
+      <c r="AO227" s="21"/>
+      <c r="AP227" s="21"/>
+      <c r="AQ227" s="21"/>
+      <c r="AR227" s="21"/>
+    </row>
+    <row r="228" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A228" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="229" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A229" s="6" t="s">
-        <v>52</v>
+      <c r="B229" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G229" s="22" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="230" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B230" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
-      <c r="E230" s="22" t="s">
+      <c r="E230" s="22"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="22"/>
+    </row>
+    <row r="231" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B231" s="1"/>
+      <c r="C231" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" s="1"/>
+      <c r="E231" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G230" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B231" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="22"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="22"/>
-    </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B232" s="1"/>
-      <c r="C232" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D232" s="1"/>
+      <c r="F231" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G231" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="232" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="C232" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="E232" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F232" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G232" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="233" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="C233" s="17" t="s">
-        <v>151</v>
-      </c>
+      <c r="F232" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="233" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B233" s="1"/>
+      <c r="C233" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D233" s="1"/>
       <c r="E233" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F233" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G233" s="5" t="s">
+      <c r="F233" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G233" s="15" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="234" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B234" s="1"/>
       <c r="C234" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G234" s="15" t="s">
         <v>172</v>
@@ -4601,234 +4639,291 @@
     <row r="235" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B235" s="1"/>
       <c r="C235" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F235" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G235" s="15" t="s">
-        <v>172</v>
-      </c>
+      <c r="F235" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G235" s="15"/>
     </row>
     <row r="236" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B236" s="1"/>
-      <c r="C236" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E236" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F236" s="12" t="s">
-        <v>108</v>
+      <c r="F236" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="G236" s="15"/>
     </row>
     <row r="237" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B237" s="1"/>
+      <c r="B237" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C237" s="1"/>
-      <c r="D237" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E237" s="22" t="s">
+      <c r="D237" s="1"/>
+      <c r="E237" s="22"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="22"/>
+    </row>
+    <row r="238" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B238" s="1"/>
+      <c r="C238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" s="1"/>
+      <c r="E238" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F237" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G237" s="15"/>
-    </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B238" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="22"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="22"/>
+      <c r="F238" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G238" s="15" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="239" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B239" s="1"/>
       <c r="C239" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F239" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G239" s="15" t="s">
-        <v>172</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G239" s="15"/>
     </row>
     <row r="240" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B240" s="1"/>
       <c r="C240" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G240" s="15"/>
     </row>
     <row r="241" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B241" s="1"/>
       <c r="C241" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F241" s="14" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="G241" s="15"/>
     </row>
     <row r="242" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B242" s="1"/>
-      <c r="C242" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E242" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F242" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G242" s="15"/>
     </row>
     <row r="243" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B243" s="1"/>
+      <c r="B243" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C243" s="1"/>
-      <c r="D243" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="D243" s="1"/>
       <c r="E243" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="G243" s="15"/>
     </row>
     <row r="244" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B244" s="1" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
-      <c r="E244" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F244" s="14" t="s">
-        <v>58</v>
-      </c>
+      <c r="E244" s="22"/>
+      <c r="F244" s="14"/>
       <c r="G244" s="15"/>
     </row>
     <row r="245" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B245" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D245" s="1"/>
-      <c r="E245" s="22"/>
-      <c r="F245" s="14"/>
-      <c r="G245" s="15"/>
+      <c r="E245" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F245" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G245" s="15" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="246" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B246" s="1"/>
       <c r="C246" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="22" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="F246" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G246" s="15" t="s">
-        <v>172</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G246" s="15"/>
     </row>
     <row r="247" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B247" s="1"/>
       <c r="C247" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G247" s="15"/>
     </row>
     <row r="248" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B248" s="1"/>
       <c r="C248" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F248" s="14" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G248" s="15"/>
     </row>
     <row r="249" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B249" s="1"/>
-      <c r="C249" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E249" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F249" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G249" s="15"/>
     </row>
-    <row r="250" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B250" s="1"/>
+    <row r="250" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="C250" s="1"/>
-      <c r="D250" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E250" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F250" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G250" s="15"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="22"/>
+      <c r="F250" s="14"/>
+      <c r="G250" s="22"/>
+      <c r="Q250" s="31"/>
+      <c r="R250" s="31"/>
+      <c r="S250" s="31"/>
+      <c r="T250" s="31"/>
+      <c r="U250" s="31"/>
+      <c r="V250" s="31"/>
+      <c r="W250" s="31"/>
+      <c r="X250" s="31"/>
+      <c r="Y250" s="31"/>
+      <c r="Z250" s="31"/>
+      <c r="AA250" s="31"/>
+      <c r="AB250" s="31"/>
+      <c r="AC250" s="31"/>
+      <c r="AD250" s="31"/>
+      <c r="AE250" s="31"/>
+      <c r="AF250" s="31"/>
+      <c r="AG250" s="31"/>
+      <c r="AH250" s="31"/>
+      <c r="AI250" s="31"/>
+      <c r="AJ250" s="31"/>
+      <c r="AK250" s="31"/>
+      <c r="AL250" s="31"/>
+      <c r="AM250" s="31"/>
+      <c r="AN250" s="31"/>
+      <c r="AO250" s="31"/>
+      <c r="AP250" s="31"/>
+      <c r="AQ250" s="31"/>
+      <c r="AR250" s="31"/>
+      <c r="AS250" s="31"/>
+      <c r="AT250" s="31"/>
+      <c r="AU250" s="31"/>
+      <c r="AV250" s="31"/>
+      <c r="AW250" s="31"/>
+      <c r="AX250" s="31"/>
+      <c r="AY250" s="31"/>
+      <c r="AZ250" s="31"/>
+      <c r="BA250" s="31"/>
+      <c r="BB250" s="31"/>
+      <c r="BC250" s="31"/>
+      <c r="BD250" s="31"/>
+      <c r="BE250" s="31"/>
+      <c r="BF250" s="31"/>
+      <c r="BG250" s="31"/>
+      <c r="BH250" s="31"/>
+      <c r="BI250" s="31"/>
+      <c r="BJ250" s="31"/>
+      <c r="BK250" s="31"/>
+      <c r="BL250" s="31"/>
+      <c r="BM250" s="31"/>
+      <c r="BN250" s="31"/>
+      <c r="BO250" s="31"/>
+      <c r="BP250" s="31"/>
+      <c r="BQ250" s="31"/>
+      <c r="BR250" s="31"/>
+      <c r="BS250" s="31"/>
+      <c r="BT250" s="31"/>
+      <c r="BU250" s="31"/>
+      <c r="BV250" s="31"/>
+      <c r="BW250" s="31"/>
     </row>
     <row r="251" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B251" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="D251" s="1"/>
       <c r="E251" s="22"/>
-      <c r="F251" s="14"/>
-      <c r="G251" s="22"/>
+      <c r="F251" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G251" s="22" t="s">
+        <v>172</v>
+      </c>
       <c r="Q251" s="31"/>
       <c r="R251" s="31"/>
       <c r="S251" s="31"/>
@@ -4892,12 +4987,14 @@
     <row r="252" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B252" s="1"/>
       <c r="C252" s="1" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="D252" s="1"/>
-      <c r="E252" s="22"/>
+      <c r="E252" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="F252" s="14" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c r="G252" s="22" t="s">
         <v>172</v>
@@ -4965,18 +5062,16 @@
     <row r="253" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B253" s="1"/>
       <c r="C253" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="G253" s="22" t="s">
-        <v>172</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G253" s="22"/>
       <c r="Q253" s="31"/>
       <c r="R253" s="31"/>
       <c r="S253" s="31"/>
@@ -5040,14 +5135,14 @@
     <row r="254" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B254" s="1"/>
       <c r="C254" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F254" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G254" s="22"/>
       <c r="Q254" s="31"/>
@@ -5113,14 +5208,14 @@
     <row r="255" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B255" s="1"/>
       <c r="C255" s="1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F255" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G255" s="22"/>
       <c r="Q255" s="31"/>
@@ -5186,14 +5281,14 @@
     <row r="256" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B256" s="1"/>
       <c r="C256" s="1" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F256" s="14" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="G256" s="22"/>
       <c r="Q256" s="31"/>
@@ -5258,15 +5353,15 @@
     </row>
     <row r="257" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B257" s="1"/>
-      <c r="C257" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E257" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F257" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G257" s="22"/>
       <c r="Q257" s="31"/>
@@ -5329,82 +5424,23 @@
       <c r="BV257" s="31"/>
       <c r="BW257" s="31"/>
     </row>
-    <row r="258" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B258" s="1"/>
+    <row r="258" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B258" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C258" s="1"/>
-      <c r="D258" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="D258" s="1"/>
       <c r="E258" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F258" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G258" s="22"/>
-      <c r="Q258" s="31"/>
-      <c r="R258" s="31"/>
-      <c r="S258" s="31"/>
-      <c r="T258" s="31"/>
-      <c r="U258" s="31"/>
-      <c r="V258" s="31"/>
-      <c r="W258" s="31"/>
-      <c r="X258" s="31"/>
-      <c r="Y258" s="31"/>
-      <c r="Z258" s="31"/>
-      <c r="AA258" s="31"/>
-      <c r="AB258" s="31"/>
-      <c r="AC258" s="31"/>
-      <c r="AD258" s="31"/>
-      <c r="AE258" s="31"/>
-      <c r="AF258" s="31"/>
-      <c r="AG258" s="31"/>
-      <c r="AH258" s="31"/>
-      <c r="AI258" s="31"/>
-      <c r="AJ258" s="31"/>
-      <c r="AK258" s="31"/>
-      <c r="AL258" s="31"/>
-      <c r="AM258" s="31"/>
-      <c r="AN258" s="31"/>
-      <c r="AO258" s="31"/>
-      <c r="AP258" s="31"/>
-      <c r="AQ258" s="31"/>
-      <c r="AR258" s="31"/>
-      <c r="AS258" s="31"/>
-      <c r="AT258" s="31"/>
-      <c r="AU258" s="31"/>
-      <c r="AV258" s="31"/>
-      <c r="AW258" s="31"/>
-      <c r="AX258" s="31"/>
-      <c r="AY258" s="31"/>
-      <c r="AZ258" s="31"/>
-      <c r="BA258" s="31"/>
-      <c r="BB258" s="31"/>
-      <c r="BC258" s="31"/>
-      <c r="BD258" s="31"/>
-      <c r="BE258" s="31"/>
-      <c r="BF258" s="31"/>
-      <c r="BG258" s="31"/>
-      <c r="BH258" s="31"/>
-      <c r="BI258" s="31"/>
-      <c r="BJ258" s="31"/>
-      <c r="BK258" s="31"/>
-      <c r="BL258" s="31"/>
-      <c r="BM258" s="31"/>
-      <c r="BN258" s="31"/>
-      <c r="BO258" s="31"/>
-      <c r="BP258" s="31"/>
-      <c r="BQ258" s="31"/>
-      <c r="BR258" s="31"/>
-      <c r="BS258" s="31"/>
-      <c r="BT258" s="31"/>
-      <c r="BU258" s="31"/>
-      <c r="BV258" s="31"/>
-      <c r="BW258" s="31"/>
+        <v>123</v>
+      </c>
+      <c r="G258" s="15"/>
     </row>
     <row r="259" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B259" s="1" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -5412,112 +5448,105 @@
         <v>118</v>
       </c>
       <c r="F259" s="14" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G259" s="15"/>
     </row>
     <row r="260" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B260" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D260" s="1"/>
       <c r="E260" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F260" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G260" s="15"/>
     </row>
     <row r="261" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B261" s="1"/>
-      <c r="C261" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="B261" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C261" s="1"/>
       <c r="D261" s="1"/>
-      <c r="E261" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F261" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G261" s="15"/>
+      <c r="E261" s="22"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="22"/>
     </row>
     <row r="262" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B262" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D262" s="1"/>
       <c r="E262" s="22"/>
-      <c r="F262" s="1"/>
+      <c r="F262" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="G262" s="22"/>
     </row>
-    <row r="263" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B263" s="1"/>
-      <c r="C263" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D263" s="1"/>
-      <c r="E263" s="22"/>
-      <c r="F263" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G263" s="22"/>
-    </row>
-    <row r="264" spans="2:75" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B264" s="23"/>
-      <c r="C264" s="23" t="s">
+    <row r="263" spans="2:75" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B263" s="23"/>
+      <c r="C263" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D264" s="23"/>
-      <c r="E264" s="24" t="s">
+      <c r="D263" s="23"/>
+      <c r="E263" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F264" s="23" t="s">
+      <c r="F263" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G264" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H264" s="21"/>
-      <c r="I264" s="21"/>
-      <c r="J264" s="21"/>
-      <c r="K264" s="21"/>
-      <c r="L264" s="21"/>
-      <c r="M264" s="21"/>
-      <c r="N264" s="21"/>
-      <c r="O264" s="21"/>
-      <c r="P264" s="21"/>
-      <c r="Q264" s="21"/>
-      <c r="R264" s="21"/>
-      <c r="S264" s="21"/>
-      <c r="T264" s="21"/>
-      <c r="U264" s="21"/>
-      <c r="V264" s="21"/>
-      <c r="W264" s="21"/>
-      <c r="X264" s="21"/>
-      <c r="Y264" s="21"/>
-      <c r="Z264" s="21"/>
-      <c r="AA264" s="21"/>
-      <c r="AB264" s="21"/>
-      <c r="AC264" s="21"/>
-      <c r="AD264" s="21"/>
-      <c r="AE264" s="21"/>
-      <c r="AF264" s="21"/>
-      <c r="AG264" s="21"/>
-      <c r="AH264" s="21"/>
-      <c r="AI264" s="21"/>
-      <c r="AJ264" s="21"/>
-      <c r="AK264" s="21"/>
-      <c r="AL264" s="21"/>
-      <c r="AM264" s="21"/>
-      <c r="AN264" s="21"/>
-      <c r="AO264" s="21"/>
-      <c r="AP264" s="21"/>
-      <c r="AQ264" s="21"/>
-      <c r="AR264" s="21"/>
+      <c r="G263" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H263" s="21"/>
+      <c r="I263" s="21"/>
+      <c r="J263" s="21"/>
+      <c r="K263" s="21"/>
+      <c r="L263" s="21"/>
+      <c r="M263" s="21"/>
+      <c r="N263" s="21"/>
+      <c r="O263" s="21"/>
+      <c r="P263" s="21"/>
+      <c r="Q263" s="21"/>
+      <c r="R263" s="21"/>
+      <c r="S263" s="21"/>
+      <c r="T263" s="21"/>
+      <c r="U263" s="21"/>
+      <c r="V263" s="21"/>
+      <c r="W263" s="21"/>
+      <c r="X263" s="21"/>
+      <c r="Y263" s="21"/>
+      <c r="Z263" s="21"/>
+      <c r="AA263" s="21"/>
+      <c r="AB263" s="21"/>
+      <c r="AC263" s="21"/>
+      <c r="AD263" s="21"/>
+      <c r="AE263" s="21"/>
+      <c r="AF263" s="21"/>
+      <c r="AG263" s="21"/>
+      <c r="AH263" s="21"/>
+      <c r="AI263" s="21"/>
+      <c r="AJ263" s="21"/>
+      <c r="AK263" s="21"/>
+      <c r="AL263" s="21"/>
+      <c r="AM263" s="21"/>
+      <c r="AN263" s="21"/>
+      <c r="AO263" s="21"/>
+      <c r="AP263" s="21"/>
+      <c r="AQ263" s="21"/>
+      <c r="AR263" s="21"/>
+    </row>
+    <row r="264" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="22"/>
+      <c r="F264" s="14"/>
     </row>
     <row r="265" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B265" s="1"/>
@@ -5552,7 +5581,7 @@
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="22"/>
-      <c r="F269" s="14"/>
+      <c r="F269" s="1"/>
     </row>
     <row r="270" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B270" s="1"/>
@@ -5568,16 +5597,9 @@
       <c r="E271" s="22"/>
       <c r="F271" s="1"/>
     </row>
-    <row r="272" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
-      <c r="E272" s="22"/>
-      <c r="F272" s="1"/>
-    </row>
   </sheetData>
-  <sortState ref="A99:CC107">
-    <sortCondition ref="E99:E107"/>
+  <sortState ref="A98:CC106">
+    <sortCondition ref="E98:E106"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5586,12 +5608,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5709,15 +5728,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E1EA3A-64D8-4C02-BC91-1B1F72624C50}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1ED0FDE-263A-4F6E-9471-50CE8FD4814D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5739,16 +5768,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1ED0FDE-263A-4F6E-9471-50CE8FD4814D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E1EA3A-64D8-4C02-BC91-1B1F72624C50}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/GitHub/Bevragingen-ingeschreven-personen/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/Documents/QoS/Den Haag/BRP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B1871D-20C4-8A4B-965B-073F306C2812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684CCA54-9B2E-1441-A829-0A49BCF210A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29740" windowHeight="17800" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,66 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Frank Samwel</author>
-  </authors>
-  <commentList>
-    <comment ref="B95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Frank Samwel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Niet opnemen zolang BAG API niet beschikbaar is</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C218" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Frank Samwel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-niet opnemen zolang de BAG API niet bestaat</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="201">
   <si>
     <t>_links</t>
   </si>
@@ -89,9 +31,6 @@
     <t>naam</t>
   </si>
   <si>
-    <t>identificatiecodeNummeraanduiding</t>
-  </si>
-  <si>
     <t>postcode</t>
   </si>
   <si>
@@ -104,12 +43,6 @@
     <t>huisnummertoevoeging</t>
   </si>
   <si>
-    <t>naamOpenbareRuimte</t>
-  </si>
-  <si>
-    <t>woonplaatsnaam</t>
-  </si>
-  <si>
     <t>land</t>
   </si>
   <si>
@@ -146,9 +79,6 @@
     <t>nationaliteit</t>
   </si>
   <si>
-    <t>nationaliteit []</t>
-  </si>
-  <si>
     <t>aanduidingBijzonderNederlanderschap</t>
   </si>
   <si>
@@ -182,9 +112,6 @@
     <t>locatiebeschrijving</t>
   </si>
   <si>
-    <t>straatnaam</t>
-  </si>
-  <si>
     <t>indicatieVestigingVanuitBuitenland</t>
   </si>
   <si>
@@ -206,9 +133,6 @@
     <t>landVanwaarIngeschreven</t>
   </si>
   <si>
-    <t>verblijfBuitenland</t>
-  </si>
-  <si>
     <t>gezagsverhouding</t>
   </si>
   <si>
@@ -293,9 +217,6 @@
     <t>11.10</t>
   </si>
   <si>
-    <t>11.15</t>
-  </si>
-  <si>
     <t>11.20</t>
   </si>
   <si>
@@ -335,12 +256,6 @@
     <t>13.10</t>
   </si>
   <si>
-    <t>13.30</t>
-  </si>
-  <si>
-    <t>13.40</t>
-  </si>
-  <si>
     <t>13.50</t>
   </si>
   <si>
@@ -578,9 +493,6 @@
     <t>uitgeslotenVanKiesrecht</t>
   </si>
   <si>
-    <t>verblijfplaatsNummeraanduiding</t>
-  </si>
-  <si>
     <t>verblijfstitelhistorie</t>
   </si>
   <si>
@@ -623,9 +535,6 @@
     <t>afgeleid van 10.30 volgende verblijfplaats</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>ontbindingPartnerschap</t>
   </si>
   <si>
@@ -638,9 +547,6 @@
     <t>GBA-V tabel 35 autorisatietabel</t>
   </si>
   <si>
-    <t>identificatiecodeAdresseerbaarObject</t>
-  </si>
-  <si>
     <t>aanduidingNaamgebruik</t>
   </si>
   <si>
@@ -665,12 +571,6 @@
     <t>11.70 of  09.10</t>
   </si>
   <si>
-    <t>13.30 of samengesteld</t>
-  </si>
-  <si>
-    <t>13.40 of samengesteld</t>
-  </si>
-  <si>
     <t>woonplaats</t>
   </si>
   <si>
@@ -678,32 +578,64 @@
   </si>
   <si>
     <t>adresseerbaarObjectIdentificatie</t>
+  </si>
+  <si>
+    <t>regelVoorafgaandAanAanschrijfwijze</t>
+  </si>
+  <si>
+    <t>nationaliteiten []</t>
+  </si>
+  <si>
+    <t>13.30 of samengesteld groep 11 en 12</t>
+  </si>
+  <si>
+    <t>13.40 of samengesteld groep 11 en 12</t>
+  </si>
+  <si>
+    <t>adres</t>
+  </si>
+  <si>
+    <t>13.30 of afgeleid groep 11 en 12</t>
+  </si>
+  <si>
+    <t>13.40 of afgeleid groep 11 en 12</t>
+  </si>
+  <si>
+    <t>adresseerbaarObject</t>
+  </si>
+  <si>
+    <t>nationaliteithistorie</t>
+  </si>
+  <si>
+    <t>4 of 54</t>
+  </si>
+  <si>
+    <t>redenBeeindigen</t>
+  </si>
+  <si>
+    <t>indicatieNationaliteitBeeindigd</t>
+  </si>
+  <si>
+    <t>64.10</t>
+  </si>
+  <si>
+    <t>afgeleid: 64.10 == niet leeg</t>
+  </si>
+  <si>
+    <t>X (alleen 4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -738,7 +670,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -779,71 +711,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1181,17 +1143,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BW271"/>
+  <dimension ref="A1:BW273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="G267" sqref="G267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1199,7 +1161,7 @@
     <col min="1" max="3" width="3.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="39.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="25.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="28" width="3.6640625" style="7" customWidth="1"/>
     <col min="29" max="44" width="9.1640625" style="7"/>
@@ -1208,19 +1170,19 @@
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="G1" s="5" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="E2" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
@@ -1231,16 +1193,16 @@
     </row>
     <row r="4" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -1287,117 +1249,117 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C12" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1439,14 +1401,14 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1487,17 +1449,15 @@
       <c r="AR15" s="6"/>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
+      <c r="B16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="4" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1539,2458 +1499,2495 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>172</v>
+      <c r="A18" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>108</v>
+        <v>55</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C22" s="6" t="s">
-        <v>109</v>
+      <c r="B22" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>13</v>
+      <c r="C23" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>158</v>
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="3">
-        <v>7</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>104</v>
+      <c r="A25" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="E26" s="3">
         <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>14</v>
+      <c r="B27" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="E27" s="3">
         <v>7</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="E28" s="3">
         <v>7</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
-        <v>109</v>
+      <c r="A30" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="5"/>
-    </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>172</v>
-      </c>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E33" s="3">
         <v>4</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>103</v>
+        <v>56</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E34" s="3">
         <v>4</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="3">
         <v>4</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C36" s="6" t="s">
-        <v>109</v>
+      <c r="B36" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E36" s="3">
         <v>4</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="6" t="s">
-        <v>25</v>
+      <c r="C37" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E37" s="3">
         <v>4</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>29</v>
+      <c r="B38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="3">
-        <v>6</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>172</v>
+      <c r="A39" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E40" s="3">
         <v>6</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" s="3">
         <v>6</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>64</v>
+        <v>151</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E42" s="3">
         <v>6</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E43" s="3">
         <v>6</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C44" s="6" t="s">
-        <v>109</v>
+      <c r="B44" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E44" s="3">
         <v>6</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>31</v>
+      <c r="C45" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="3">
-        <v>8</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>172</v>
+      <c r="A46" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E47" s="3">
         <v>8</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E48" s="3">
         <v>8</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E49" s="3">
         <v>8</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="E50" s="3">
         <v>8</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="6" t="s">
-        <v>193</v>
+      <c r="B51" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="E51" s="3">
         <v>8</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="6" t="s">
-        <v>5</v>
+      <c r="B52" s="31" t="s">
+        <v>179</v>
       </c>
       <c r="E52" s="3">
         <v>8</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E53" s="3">
         <v>8</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E54" s="3">
         <v>8</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="6" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E55" s="3">
         <v>8</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E56" s="3">
         <v>8</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="E57" s="3">
         <v>8</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E58" s="3">
         <v>8</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E59" s="3">
         <v>8</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E60" s="3">
         <v>8</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E61" s="3">
         <v>8</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="E62" s="3">
         <v>8</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E63" s="3">
         <v>8</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E64" s="3">
         <v>8</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="E65" s="3">
         <v>8</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
-      <c r="AA65" s="6"/>
-      <c r="AB65" s="6"/>
-      <c r="AC65" s="6"/>
-      <c r="AD65" s="6"/>
-      <c r="AE65" s="6"/>
-      <c r="AF65" s="6"/>
-      <c r="AG65" s="6"/>
-      <c r="AH65" s="6"/>
-      <c r="AI65" s="6"/>
-      <c r="AJ65" s="6"/>
-      <c r="AK65" s="6"/>
-      <c r="AL65" s="6"/>
-      <c r="AM65" s="6"/>
-      <c r="AN65" s="6"/>
-      <c r="AO65" s="6"/>
-      <c r="AP65" s="6"/>
-      <c r="AQ65" s="6"/>
-      <c r="AR65" s="6"/>
+        <v>162</v>
+      </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="E66" s="3">
         <v>8</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="6"/>
+      <c r="AJ66" s="6"/>
+      <c r="AK66" s="6"/>
+      <c r="AL66" s="6"/>
+      <c r="AM66" s="6"/>
+      <c r="AN66" s="6"/>
+      <c r="AO66" s="6"/>
+      <c r="AP66" s="6"/>
+      <c r="AQ66" s="6"/>
+      <c r="AR66" s="6"/>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E67" s="3">
         <v>8</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E68" s="3">
         <v>8</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B69" s="17" t="s">
-        <v>150</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B69" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E69" s="3">
         <v>8</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
-      <c r="Y69" s="6"/>
-      <c r="Z69" s="6"/>
-      <c r="AA69" s="6"/>
-      <c r="AB69" s="6"/>
-      <c r="AC69" s="6"/>
-      <c r="AD69" s="6"/>
-      <c r="AE69" s="6"/>
-      <c r="AF69" s="6"/>
-      <c r="AG69" s="6"/>
-      <c r="AH69" s="6"/>
-      <c r="AI69" s="6"/>
-      <c r="AJ69" s="6"/>
-      <c r="AK69" s="6"/>
-      <c r="AL69" s="6"/>
-      <c r="AM69" s="6"/>
-      <c r="AN69" s="6"/>
-      <c r="AO69" s="6"/>
-      <c r="AP69" s="6"/>
-      <c r="AQ69" s="6"/>
-      <c r="AR69" s="6"/>
-    </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B70" s="6" t="s">
-        <v>20</v>
+        <v>153</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B70" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="E70" s="3">
         <v>8</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
+      <c r="AA70" s="6"/>
+      <c r="AB70" s="6"/>
+      <c r="AC70" s="6"/>
+      <c r="AD70" s="6"/>
+      <c r="AE70" s="6"/>
+      <c r="AF70" s="6"/>
+      <c r="AG70" s="6"/>
+      <c r="AH70" s="6"/>
+      <c r="AI70" s="6"/>
+      <c r="AJ70" s="6"/>
+      <c r="AK70" s="6"/>
+      <c r="AL70" s="6"/>
+      <c r="AM70" s="6"/>
+      <c r="AN70" s="6"/>
+      <c r="AO70" s="6"/>
+      <c r="AP70" s="6"/>
+      <c r="AQ70" s="6"/>
+      <c r="AR70" s="6"/>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C71" s="6" t="s">
-        <v>109</v>
+      <c r="B71" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E71" s="3">
         <v>8</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B72" s="6" t="s">
-        <v>25</v>
+      <c r="C72" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E72" s="3">
         <v>8</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>46</v>
+      <c r="B73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="3">
+        <v>8</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B74" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E74" s="3">
-        <v>10</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>172</v>
+      <c r="A74" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E75" s="3">
         <v>10</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E76" s="3">
         <v>10</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="77" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B77" s="17" t="s">
-        <v>154</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B77" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E77" s="3">
         <v>10</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B78" s="6" t="s">
-        <v>20</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B78" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="E78" s="3">
         <v>10</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>108</v>
+        <v>146</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C79" s="6" t="s">
-        <v>109</v>
+      <c r="B79" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E79" s="3">
         <v>10</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
-        <v>43</v>
+      <c r="C80" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="3">
+        <v>10</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B81" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E81" s="3">
-        <v>11</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>172</v>
+      <c r="A81" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E82" s="3">
         <v>11</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E83" s="3">
         <v>11</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C84" s="6" t="s">
-        <v>109</v>
+      <c r="B84" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E84" s="3">
         <v>11</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
-        <v>15</v>
+      <c r="C85" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" s="3">
+        <v>11</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E86" s="3">
-        <v>13</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>94</v>
+      <c r="A86" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="E87" s="3">
         <v>13</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="B88" s="6" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="E88" s="3">
         <v>13</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="B89" s="6" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="E89" s="3">
         <v>13</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>138</v>
+      <c r="B90" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90" s="3">
+        <v>13</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E92" s="3">
-        <v>1</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E94" s="3">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="E95" s="3">
-        <v>8</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="E96" s="3">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E97" s="3">
-        <v>12</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>145</v>
+        <v>9</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>172</v>
+        <v>44</v>
+      </c>
+      <c r="E98" s="3">
+        <v>12</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B99" s="6" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="100" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="H100" s="21"/>
-      <c r="I100" s="21"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="21"/>
-      <c r="P100" s="21"/>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="21"/>
-      <c r="S100" s="21"/>
-      <c r="T100" s="21"/>
-      <c r="U100" s="21"/>
-      <c r="V100" s="21"/>
-      <c r="W100" s="21"/>
-      <c r="X100" s="21"/>
-      <c r="Y100" s="21"/>
-      <c r="Z100" s="21"/>
-      <c r="AA100" s="21"/>
-      <c r="AB100" s="21"/>
-      <c r="AC100" s="21"/>
-      <c r="AD100" s="21"/>
-      <c r="AE100" s="21"/>
-      <c r="AF100" s="21"/>
-      <c r="AG100" s="21"/>
-      <c r="AH100" s="21"/>
-      <c r="AI100" s="21"/>
-      <c r="AJ100" s="21"/>
-      <c r="AK100" s="21"/>
-      <c r="AL100" s="21"/>
-      <c r="AM100" s="21"/>
-      <c r="AN100" s="21"/>
-      <c r="AO100" s="21"/>
-      <c r="AP100" s="21"/>
-      <c r="AQ100" s="21"/>
-      <c r="AR100" s="21"/>
-    </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B100" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E101" s="19"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="21"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="21"/>
+      <c r="T101" s="21"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="21"/>
+      <c r="W101" s="21"/>
+      <c r="X101" s="21"/>
+      <c r="Y101" s="21"/>
+      <c r="Z101" s="21"/>
+      <c r="AA101" s="21"/>
+      <c r="AB101" s="21"/>
+      <c r="AC101" s="21"/>
+      <c r="AD101" s="21"/>
+      <c r="AE101" s="21"/>
+      <c r="AF101" s="21"/>
+      <c r="AG101" s="21"/>
+      <c r="AH101" s="21"/>
+      <c r="AI101" s="21"/>
+      <c r="AJ101" s="21"/>
+      <c r="AK101" s="21"/>
+      <c r="AL101" s="21"/>
+      <c r="AM101" s="21"/>
+      <c r="AN101" s="21"/>
+      <c r="AO101" s="21"/>
+      <c r="AP101" s="21"/>
+      <c r="AQ101" s="21"/>
+      <c r="AR101" s="21"/>
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B102" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G102" s="22" t="s">
-        <v>172</v>
-      </c>
+      <c r="A102" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="G103" s="22" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="22"/>
+      <c r="E104" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B105" s="1"/>
-      <c r="C105" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="106" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="E105" s="22"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="22"/>
+    </row>
+    <row r="106" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B106" s="1"/>
-      <c r="C106" s="17" t="s">
-        <v>151</v>
+      <c r="C106" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="B107" s="1"/>
-      <c r="C107" s="1" t="s">
-        <v>18</v>
+      <c r="C107" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>172</v>
+        <v>111</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G109" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="C110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="1"/>
       <c r="E110" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="G110" s="15"/>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B111" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="22"/>
+      <c r="D111" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G111" s="15"/>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G112" s="15" t="s">
-        <v>172</v>
-      </c>
+      <c r="E112" s="22"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="22"/>
     </row>
     <row r="113" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G115" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="116" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="C116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="1"/>
       <c r="E116" s="22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G116" s="15"/>
     </row>
     <row r="117" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B117" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E117" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G117" s="15"/>
     </row>
     <row r="118" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G118" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="119" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G119" s="15"/>
     </row>
     <row r="120" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B120" s="1"/>
-      <c r="C120" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="B120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G120" s="15"/>
     </row>
     <row r="121" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G121" s="15"/>
+    </row>
+    <row r="122" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="22"/>
-    </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B122" s="1"/>
-      <c r="C122" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="22"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="123" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="23"/>
-      <c r="C123" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D123" s="23"/>
-      <c r="E123" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="F123" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G123" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="21"/>
-      <c r="M123" s="21"/>
-      <c r="N123" s="21"/>
-      <c r="O123" s="21"/>
-      <c r="P123" s="21"/>
-      <c r="Q123" s="21"/>
-      <c r="R123" s="21"/>
-      <c r="S123" s="21"/>
-      <c r="T123" s="21"/>
-      <c r="U123" s="21"/>
-      <c r="V123" s="21"/>
-      <c r="W123" s="21"/>
-      <c r="X123" s="21"/>
-      <c r="Y123" s="21"/>
-      <c r="Z123" s="21"/>
-      <c r="AA123" s="21"/>
-      <c r="AB123" s="21"/>
-      <c r="AC123" s="21"/>
-      <c r="AD123" s="21"/>
-      <c r="AE123" s="21"/>
-      <c r="AF123" s="21"/>
-      <c r="AG123" s="21"/>
-      <c r="AH123" s="21"/>
-      <c r="AI123" s="21"/>
-      <c r="AJ123" s="21"/>
-      <c r="AK123" s="21"/>
-      <c r="AL123" s="21"/>
-      <c r="AM123" s="21"/>
-      <c r="AN123" s="21"/>
-      <c r="AO123" s="21"/>
-      <c r="AP123" s="21"/>
-      <c r="AQ123" s="21"/>
-      <c r="AR123" s="21"/>
-    </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="G122" s="22"/>
+    </row>
+    <row r="123" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="23"/>
+      <c r="C124" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D124" s="23"/>
+      <c r="E124" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G124" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21"/>
+      <c r="M124" s="21"/>
+      <c r="N124" s="21"/>
+      <c r="O124" s="21"/>
+      <c r="P124" s="21"/>
+      <c r="Q124" s="21"/>
+      <c r="R124" s="21"/>
+      <c r="S124" s="21"/>
+      <c r="T124" s="21"/>
+      <c r="U124" s="21"/>
+      <c r="V124" s="21"/>
+      <c r="W124" s="21"/>
+      <c r="X124" s="21"/>
+      <c r="Y124" s="21"/>
+      <c r="Z124" s="21"/>
+      <c r="AA124" s="21"/>
+      <c r="AB124" s="21"/>
+      <c r="AC124" s="21"/>
+      <c r="AD124" s="21"/>
+      <c r="AE124" s="21"/>
+      <c r="AF124" s="21"/>
+      <c r="AG124" s="21"/>
+      <c r="AH124" s="21"/>
+      <c r="AI124" s="21"/>
+      <c r="AJ124" s="21"/>
+      <c r="AK124" s="21"/>
+      <c r="AL124" s="21"/>
+      <c r="AM124" s="21"/>
+      <c r="AN124" s="21"/>
+      <c r="AO124" s="21"/>
+      <c r="AP124" s="21"/>
+      <c r="AQ124" s="21"/>
+      <c r="AR124" s="21"/>
     </row>
     <row r="125" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B125" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G125" s="22" t="s">
-        <v>172</v>
+      <c r="A125" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="22"/>
+      <c r="E126" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="127" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B127" s="1"/>
-      <c r="C127" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F127" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="128" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="C128" s="17" t="s">
-        <v>151</v>
-      </c>
+      <c r="E127" s="22"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="22"/>
+    </row>
+    <row r="128" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="1"/>
       <c r="E128" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B129" s="1"/>
-      <c r="C129" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D129" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="C129" s="17" t="s">
+        <v>142</v>
+      </c>
       <c r="E129" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G129" s="15" t="s">
-        <v>172</v>
+        <v>109</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F131" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G131" s="15"/>
+        <v>109</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1" t="s">
+      <c r="C132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E132" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>110</v>
+      <c r="F132" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="G132" s="15"/>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B133" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="22"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="22"/>
+      <c r="D133" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G133" s="15"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B134" s="1"/>
-      <c r="C134" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B134" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F134" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G134" s="15" t="s">
-        <v>172</v>
-      </c>
+      <c r="E134" s="22"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="22"/>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="1"/>
       <c r="C135" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G135" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="G135" s="15" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
       <c r="C136" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G136" s="15"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="G137" s="15"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1" t="s">
+      <c r="C138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E138" s="22" t="s">
-        <v>118</v>
-      </c>
       <c r="F138" s="14" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G138" s="15"/>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B139" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B139" s="1"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E139" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="G139" s="15"/>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="22"/>
-      <c r="F140" s="14"/>
+      <c r="E140" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="G140" s="15"/>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B141" s="1"/>
-      <c r="C141" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B141" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F141" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>172</v>
-      </c>
+      <c r="E141" s="22"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="15"/>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
       <c r="C142" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G142" s="15"/>
+        <v>115</v>
+      </c>
+      <c r="G142" s="15" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G143" s="15"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G144" s="15"/>
     </row>
     <row r="145" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1" t="s">
+      <c r="C145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E145" s="22" t="s">
-        <v>118</v>
-      </c>
       <c r="F145" s="14" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G145" s="15"/>
     </row>
     <row r="146" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B146" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E146" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="G146" s="15"/>
     </row>
     <row r="147" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G147" s="15"/>
     </row>
     <row r="148" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B148" s="1"/>
-      <c r="C148" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="B148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G148" s="15"/>
     </row>
     <row r="149" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G149" s="15"/>
+    </row>
+    <row r="150" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B150" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="22"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="22"/>
-    </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B150" s="1"/>
-      <c r="C150" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="22"/>
       <c r="F150" s="1"/>
-      <c r="G150" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="151" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="23"/>
-      <c r="C151" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D151" s="23"/>
-      <c r="E151" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F151" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G151" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H151" s="21"/>
-      <c r="I151" s="21"/>
-      <c r="J151" s="21"/>
-      <c r="K151" s="21"/>
-      <c r="L151" s="21"/>
-      <c r="M151" s="21"/>
-      <c r="N151" s="21"/>
-      <c r="O151" s="21"/>
-      <c r="P151" s="21"/>
-      <c r="Q151" s="21"/>
-      <c r="R151" s="21"/>
-      <c r="S151" s="21"/>
-      <c r="T151" s="21"/>
-      <c r="U151" s="21"/>
-      <c r="V151" s="21"/>
-      <c r="W151" s="21"/>
-      <c r="X151" s="21"/>
-      <c r="Y151" s="21"/>
-      <c r="Z151" s="21"/>
-      <c r="AA151" s="21"/>
-      <c r="AB151" s="21"/>
-      <c r="AC151" s="21"/>
-      <c r="AD151" s="21"/>
-      <c r="AE151" s="21"/>
-      <c r="AF151" s="21"/>
-      <c r="AG151" s="21"/>
-      <c r="AH151" s="21"/>
-      <c r="AI151" s="21"/>
-      <c r="AJ151" s="21"/>
-      <c r="AK151" s="21"/>
-      <c r="AL151" s="21"/>
-      <c r="AM151" s="21"/>
-      <c r="AN151" s="21"/>
-      <c r="AO151" s="21"/>
-      <c r="AP151" s="21"/>
-      <c r="AQ151" s="21"/>
-      <c r="AR151" s="21"/>
-    </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A152" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="G150" s="22"/>
+    </row>
+    <row r="151" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="152" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="23"/>
+      <c r="C152" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D152" s="23"/>
+      <c r="E152" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F152" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G152" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H152" s="21"/>
+      <c r="I152" s="21"/>
+      <c r="J152" s="21"/>
+      <c r="K152" s="21"/>
+      <c r="L152" s="21"/>
+      <c r="M152" s="21"/>
+      <c r="N152" s="21"/>
+      <c r="O152" s="21"/>
+      <c r="P152" s="21"/>
+      <c r="Q152" s="21"/>
+      <c r="R152" s="21"/>
+      <c r="S152" s="21"/>
+      <c r="T152" s="21"/>
+      <c r="U152" s="21"/>
+      <c r="V152" s="21"/>
+      <c r="W152" s="21"/>
+      <c r="X152" s="21"/>
+      <c r="Y152" s="21"/>
+      <c r="Z152" s="21"/>
+      <c r="AA152" s="21"/>
+      <c r="AB152" s="21"/>
+      <c r="AC152" s="21"/>
+      <c r="AD152" s="21"/>
+      <c r="AE152" s="21"/>
+      <c r="AF152" s="21"/>
+      <c r="AG152" s="21"/>
+      <c r="AH152" s="21"/>
+      <c r="AI152" s="21"/>
+      <c r="AJ152" s="21"/>
+      <c r="AK152" s="21"/>
+      <c r="AL152" s="21"/>
+      <c r="AM152" s="21"/>
+      <c r="AN152" s="21"/>
+      <c r="AO152" s="21"/>
+      <c r="AP152" s="21"/>
+      <c r="AQ152" s="21"/>
+      <c r="AR152" s="21"/>
     </row>
     <row r="153" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B153" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="5">
-        <v>9</v>
-      </c>
-      <c r="F153" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>172</v>
+      <c r="A153" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B154" s="16" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="16"/>
+      <c r="E154" s="5">
+        <v>9</v>
+      </c>
+      <c r="F154" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="155" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B155" s="16"/>
-      <c r="C155" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="B155" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="16"/>
       <c r="D155" s="16"/>
-      <c r="E155" s="5">
-        <v>9</v>
-      </c>
-      <c r="F155" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B156" s="12"/>
-      <c r="C156" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D156" s="12"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+    </row>
+    <row r="156" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B156" s="16"/>
+      <c r="C156" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="16"/>
       <c r="E156" s="5">
         <v>9</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B157" s="16"/>
-      <c r="C157" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D157" s="16"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B157" s="12"/>
+      <c r="C157" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D157" s="12"/>
       <c r="E157" s="5">
         <v>9</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B158" s="16"/>
       <c r="C158" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D158" s="16"/>
       <c r="E158" s="5">
         <v>9</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B159" s="16"/>
       <c r="C159" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D159" s="16"/>
       <c r="E159" s="5">
         <v>9</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>108</v>
+        <v>50</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="160" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B160" s="16"/>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16" t="s">
-        <v>109</v>
-      </c>
+      <c r="C160" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="16"/>
       <c r="E160" s="5">
         <v>9</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="161" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B161" s="16" t="s">
-        <v>148</v>
-      </c>
+      <c r="B161" s="16"/>
       <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
+      <c r="D161" s="16" t="s">
+        <v>100</v>
+      </c>
       <c r="E161" s="5">
         <v>9</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G161" s="5" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
     </row>
     <row r="162" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B162" s="16" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
+      <c r="E162" s="5">
+        <v>9</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="163" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B163" s="16"/>
-      <c r="C163" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="B163" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" s="16"/>
       <c r="D163" s="16"/>
-      <c r="E163" s="5">
-        <v>9</v>
-      </c>
-      <c r="F163" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G163" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
     </row>
     <row r="164" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B164" s="16"/>
       <c r="C164" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D164" s="16"/>
       <c r="E164" s="5">
         <v>9</v>
       </c>
       <c r="F164" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B165" s="16"/>
       <c r="C165" s="16" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D165" s="16"/>
       <c r="E165" s="5">
         <v>9</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B166" s="16"/>
       <c r="C166" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D166" s="16"/>
       <c r="E166" s="5">
         <v>9</v>
       </c>
       <c r="F166" s="16" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B167" s="16"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16" t="s">
-        <v>109</v>
-      </c>
+      <c r="C167" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="16"/>
       <c r="E167" s="5">
         <v>9</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B168" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="B168" s="16"/>
       <c r="C168" s="16"/>
-      <c r="D168" s="16"/>
+      <c r="D168" s="16" t="s">
+        <v>100</v>
+      </c>
       <c r="E168" s="5">
         <v>9</v>
       </c>
       <c r="F168" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="169" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B169" s="16"/>
-      <c r="C169" s="16" t="s">
-        <v>109</v>
-      </c>
+      <c r="B169" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" s="16"/>
       <c r="D169" s="16"/>
       <c r="E169" s="5">
         <v>9</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B170" s="16" t="s">
+      <c r="B170" s="16"/>
+      <c r="C170" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D170" s="16"/>
+      <c r="E170" s="5">
+        <v>9</v>
+      </c>
+      <c r="F170" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="171" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B171" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="16"/>
-      <c r="F170" s="16"/>
-    </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B171" s="16"/>
-      <c r="C171" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="C171" s="16"/>
       <c r="D171" s="16"/>
       <c r="E171" s="16"/>
       <c r="F171" s="16"/>
     </row>
-    <row r="172" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C172" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E172" s="21">
+    <row r="172" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B172" s="16"/>
+      <c r="C172" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+    </row>
+    <row r="173" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C173" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E173" s="21">
         <v>9</v>
       </c>
-      <c r="F172" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G172" s="21"/>
-      <c r="H172" s="21"/>
-      <c r="I172" s="21"/>
-      <c r="J172" s="21"/>
-      <c r="K172" s="21"/>
-      <c r="L172" s="21"/>
-      <c r="M172" s="21"/>
-      <c r="N172" s="21"/>
-      <c r="O172" s="21"/>
-      <c r="P172" s="21"/>
-      <c r="Q172" s="21"/>
-      <c r="R172" s="21"/>
-      <c r="S172" s="21"/>
-      <c r="T172" s="21"/>
-      <c r="U172" s="21"/>
-      <c r="V172" s="21"/>
-      <c r="W172" s="21"/>
-      <c r="X172" s="21"/>
-      <c r="Y172" s="21"/>
-      <c r="Z172" s="21"/>
-      <c r="AA172" s="21"/>
-      <c r="AB172" s="21"/>
-      <c r="AC172" s="21"/>
-      <c r="AD172" s="21"/>
-      <c r="AE172" s="21"/>
-      <c r="AF172" s="21"/>
-      <c r="AG172" s="21"/>
-      <c r="AH172" s="21"/>
-      <c r="AI172" s="21"/>
-      <c r="AJ172" s="21"/>
-      <c r="AK172" s="21"/>
-      <c r="AL172" s="21"/>
-      <c r="AM172" s="21"/>
-      <c r="AN172" s="21"/>
-      <c r="AO172" s="21"/>
-      <c r="AP172" s="21"/>
-      <c r="AQ172" s="21"/>
-      <c r="AR172" s="21"/>
-    </row>
-    <row r="173" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A173" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="F173" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G173" s="21"/>
+      <c r="H173" s="21"/>
+      <c r="I173" s="21"/>
+      <c r="J173" s="21"/>
+      <c r="K173" s="21"/>
+      <c r="L173" s="21"/>
+      <c r="M173" s="21"/>
+      <c r="N173" s="21"/>
+      <c r="O173" s="21"/>
+      <c r="P173" s="21"/>
+      <c r="Q173" s="21"/>
+      <c r="R173" s="21"/>
+      <c r="S173" s="21"/>
+      <c r="T173" s="21"/>
+      <c r="U173" s="21"/>
+      <c r="V173" s="21"/>
+      <c r="W173" s="21"/>
+      <c r="X173" s="21"/>
+      <c r="Y173" s="21"/>
+      <c r="Z173" s="21"/>
+      <c r="AA173" s="21"/>
+      <c r="AB173" s="21"/>
+      <c r="AC173" s="21"/>
+      <c r="AD173" s="21"/>
+      <c r="AE173" s="21"/>
+      <c r="AF173" s="21"/>
+      <c r="AG173" s="21"/>
+      <c r="AH173" s="21"/>
+      <c r="AI173" s="21"/>
+      <c r="AJ173" s="21"/>
+      <c r="AK173" s="21"/>
+      <c r="AL173" s="21"/>
+      <c r="AM173" s="21"/>
+      <c r="AN173" s="21"/>
+      <c r="AO173" s="21"/>
+      <c r="AP173" s="21"/>
+      <c r="AQ173" s="21"/>
+      <c r="AR173" s="21"/>
     </row>
     <row r="174" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B174" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G174" s="22"/>
+      <c r="A174" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="175" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
       <c r="E175" s="22" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G175" s="22"/>
     </row>
     <row r="176" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
       <c r="E176" s="22" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="G176" s="22"/>
     </row>
     <row r="177" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="22" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G177" s="22"/>
     </row>
     <row r="178" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="22" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G178" s="22"/>
     </row>
     <row r="179" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="22" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G179" s="22"/>
     </row>
     <row r="180" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B180" s="26" t="s">
-        <v>152</v>
+      <c r="B180" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="22" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G180" s="22"/>
     </row>
-    <row r="181" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B181" s="27" t="s">
-        <v>153</v>
+    <row r="181" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B181" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="22" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="G181" s="22"/>
     </row>
-    <row r="182" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B182" s="16"/>
-      <c r="C182" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D182" s="16"/>
-      <c r="E182" s="5">
+    <row r="182" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B182" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G182" s="22"/>
+    </row>
+    <row r="183" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B183" s="16"/>
+      <c r="C183" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D183" s="16"/>
+      <c r="E183" s="5">
         <v>12</v>
       </c>
-      <c r="F182" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="183" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B183" s="1" t="s">
+      <c r="F183" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="184" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B184" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G183" s="22"/>
-    </row>
-    <row r="184" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B184" s="1"/>
-      <c r="C184" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="22" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G184" s="22"/>
     </row>
-    <row r="185" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="23"/>
-      <c r="C185" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D185" s="23"/>
-      <c r="E185" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F185" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G185" s="24"/>
-      <c r="H185" s="21"/>
-      <c r="I185" s="21"/>
-      <c r="J185" s="21"/>
-      <c r="K185" s="21"/>
-      <c r="L185" s="21"/>
-      <c r="M185" s="21"/>
-      <c r="N185" s="21"/>
-      <c r="O185" s="21"/>
-      <c r="P185" s="21"/>
-      <c r="Q185" s="21"/>
-      <c r="R185" s="21"/>
-      <c r="S185" s="21"/>
-      <c r="T185" s="21"/>
-      <c r="U185" s="21"/>
-      <c r="V185" s="21"/>
-      <c r="W185" s="21"/>
-      <c r="X185" s="21"/>
-      <c r="Y185" s="21"/>
-      <c r="Z185" s="21"/>
-      <c r="AA185" s="21"/>
-      <c r="AB185" s="21"/>
-      <c r="AC185" s="21"/>
-      <c r="AD185" s="21"/>
-      <c r="AE185" s="21"/>
-      <c r="AF185" s="21"/>
-      <c r="AG185" s="21"/>
-      <c r="AH185" s="21"/>
-      <c r="AI185" s="21"/>
-      <c r="AJ185" s="21"/>
-      <c r="AK185" s="21"/>
-      <c r="AL185" s="21"/>
-      <c r="AM185" s="21"/>
-      <c r="AN185" s="21"/>
-      <c r="AO185" s="21"/>
-      <c r="AP185" s="21"/>
-      <c r="AQ185" s="21"/>
-      <c r="AR185" s="21"/>
-    </row>
-    <row r="186" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A186" s="6" t="s">
-        <v>174</v>
-      </c>
+    <row r="185" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B185" s="1"/>
+      <c r="C185" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1"/>
+      <c r="E185" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G185" s="22"/>
+    </row>
+    <row r="186" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="23"/>
+      <c r="C186" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D186" s="23"/>
+      <c r="E186" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F186" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G186" s="24"/>
+      <c r="H186" s="21"/>
+      <c r="I186" s="21"/>
+      <c r="J186" s="21"/>
+      <c r="K186" s="21"/>
+      <c r="L186" s="21"/>
+      <c r="M186" s="21"/>
+      <c r="N186" s="21"/>
+      <c r="O186" s="21"/>
+      <c r="P186" s="21"/>
+      <c r="Q186" s="21"/>
+      <c r="R186" s="21"/>
+      <c r="S186" s="21"/>
+      <c r="T186" s="21"/>
+      <c r="U186" s="21"/>
+      <c r="V186" s="21"/>
+      <c r="W186" s="21"/>
+      <c r="X186" s="21"/>
+      <c r="Y186" s="21"/>
+      <c r="Z186" s="21"/>
+      <c r="AA186" s="21"/>
+      <c r="AB186" s="21"/>
+      <c r="AC186" s="21"/>
+      <c r="AD186" s="21"/>
+      <c r="AE186" s="21"/>
+      <c r="AF186" s="21"/>
+      <c r="AG186" s="21"/>
+      <c r="AH186" s="21"/>
+      <c r="AI186" s="21"/>
+      <c r="AJ186" s="21"/>
+      <c r="AK186" s="21"/>
+      <c r="AL186" s="21"/>
+      <c r="AM186" s="21"/>
+      <c r="AN186" s="21"/>
+      <c r="AO186" s="21"/>
+      <c r="AP186" s="21"/>
+      <c r="AQ186" s="21"/>
+      <c r="AR186" s="21"/>
     </row>
     <row r="187" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B187" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E187" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>172</v>
+      <c r="A187" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="188" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B188" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E188" s="28" t="s">
-        <v>175</v>
+        <v>147</v>
+      </c>
+      <c r="E188" s="3">
+        <v>7</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:44" x14ac:dyDescent="0.2">
@@ -3998,570 +3995,601 @@
         <v>32</v>
       </c>
       <c r="E189" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B190" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E190" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B191" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E191" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B192" s="6" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E192" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B193" s="6" t="s">
-        <v>5</v>
+      <c r="B193" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="E193" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B194" s="6" t="s">
-        <v>6</v>
+      <c r="B194" s="31" t="s">
+        <v>179</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B195" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E195" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B196" s="6" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E196" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E197" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E198" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" s="6" t="s">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="E199" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B200" s="6" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="E200" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" s="6" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="E201" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" s="6" t="s">
-        <v>42</v>
+        <v>184</v>
+      </c>
+      <c r="E202" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C203" s="6" t="s">
-        <v>10</v>
+      <c r="B203" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E203" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C204" s="6" t="s">
-        <v>81</v>
+      <c r="B204" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E204" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C205" s="6" t="s">
-        <v>82</v>
+      <c r="B205" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="E205" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C206" s="6" t="s">
-        <v>83</v>
+      <c r="B206" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E206" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C207" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E207" s="6"/>
+      <c r="B207" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E207" s="28" t="s">
+        <v>165</v>
+      </c>
       <c r="F207" s="4" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B208" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E208" s="28" t="s">
-        <v>175</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E208" s="6"/>
       <c r="F208" s="4" t="s">
-        <v>89</v>
+        <v>166</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="209" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B209" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E209" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
     </row>
     <row r="210" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B210" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E210" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="211" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B211" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E211" s="6"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="211" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B211" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E211" s="28" t="s">
+        <v>165</v>
+      </c>
       <c r="F211" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B212" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E212" s="28" t="s">
-        <v>175</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="212" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B212" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E212" s="6"/>
       <c r="F212" s="4" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
     </row>
     <row r="213" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C213" s="6" t="s">
-        <v>109</v>
+      <c r="B213" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E213" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="214" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B214" s="6" t="s">
-        <v>25</v>
+      <c r="C214" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E214" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="215" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B215" s="6" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="E215" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G215" s="5" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
     </row>
     <row r="216" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B216" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E216" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="217" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B217" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C217" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F217" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="218" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C218" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E218" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="F218" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G218" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="H218" s="21"/>
-      <c r="I218" s="21"/>
-      <c r="J218" s="21"/>
-      <c r="K218" s="21"/>
-      <c r="L218" s="21"/>
-      <c r="M218" s="21"/>
-      <c r="N218" s="21"/>
-      <c r="O218" s="21"/>
-      <c r="P218" s="21"/>
-      <c r="Q218" s="21"/>
-      <c r="R218" s="21"/>
-      <c r="S218" s="21"/>
-      <c r="T218" s="21"/>
-      <c r="U218" s="21"/>
-      <c r="V218" s="21"/>
-      <c r="W218" s="21"/>
-      <c r="X218" s="21"/>
-      <c r="Y218" s="21"/>
-      <c r="Z218" s="21"/>
-      <c r="AA218" s="21"/>
-      <c r="AB218" s="21"/>
-      <c r="AC218" s="21"/>
-      <c r="AD218" s="21"/>
-      <c r="AE218" s="21"/>
-      <c r="AF218" s="21"/>
-      <c r="AG218" s="21"/>
-      <c r="AH218" s="21"/>
-      <c r="AI218" s="21"/>
-      <c r="AJ218" s="21"/>
-      <c r="AK218" s="21"/>
-      <c r="AL218" s="21"/>
-      <c r="AM218" s="21"/>
-      <c r="AN218" s="21"/>
-      <c r="AO218" s="21"/>
-      <c r="AP218" s="21"/>
-      <c r="AQ218" s="21"/>
-      <c r="AR218" s="21"/>
-    </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A219" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G219" s="7"/>
+    <row r="218" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="C218" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E218" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="219" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="21"/>
+      <c r="B219" s="21"/>
+      <c r="C219" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D219" s="21"/>
+      <c r="E219" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F219" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G219" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H219" s="21"/>
+      <c r="I219" s="21"/>
+      <c r="J219" s="21"/>
+      <c r="K219" s="21"/>
+      <c r="L219" s="21"/>
+      <c r="M219" s="21"/>
+      <c r="N219" s="21"/>
+      <c r="O219" s="21"/>
+      <c r="P219" s="21"/>
+      <c r="Q219" s="21"/>
+      <c r="R219" s="21"/>
+      <c r="S219" s="21"/>
+      <c r="T219" s="21"/>
+      <c r="U219" s="21"/>
+      <c r="V219" s="21"/>
+      <c r="W219" s="21"/>
+      <c r="X219" s="21"/>
+      <c r="Y219" s="21"/>
+      <c r="Z219" s="21"/>
+      <c r="AA219" s="21"/>
+      <c r="AB219" s="21"/>
+      <c r="AC219" s="21"/>
+      <c r="AD219" s="21"/>
+      <c r="AE219" s="21"/>
+      <c r="AF219" s="21"/>
+      <c r="AG219" s="21"/>
+      <c r="AH219" s="21"/>
+      <c r="AI219" s="21"/>
+      <c r="AJ219" s="21"/>
+      <c r="AK219" s="21"/>
+      <c r="AL219" s="21"/>
+      <c r="AM219" s="21"/>
+      <c r="AN219" s="21"/>
+      <c r="AO219" s="21"/>
+      <c r="AP219" s="21"/>
+      <c r="AQ219" s="21"/>
+      <c r="AR219" s="21"/>
     </row>
     <row r="220" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B220" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F220" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G220" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="A220" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G220" s="7"/>
     </row>
     <row r="221" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B221" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E221" s="3" t="s">
-        <v>183</v>
+        <v>147</v>
+      </c>
+      <c r="E221" s="3">
+        <v>7</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="222" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B222" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G222" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="223" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B223" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="223" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B223" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="F223" s="4" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="224" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B224" s="6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="225" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C225" s="6" t="s">
-        <v>109</v>
+      <c r="B225" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="226" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B226" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C227" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E227" s="19"/>
-      <c r="F227" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="G227" s="21"/>
-      <c r="H227" s="21"/>
-      <c r="I227" s="21"/>
-      <c r="J227" s="21"/>
-      <c r="K227" s="21"/>
-      <c r="L227" s="21"/>
-      <c r="M227" s="21"/>
-      <c r="N227" s="21"/>
-      <c r="O227" s="21"/>
-      <c r="P227" s="21"/>
-      <c r="Q227" s="21"/>
-      <c r="R227" s="21"/>
-      <c r="S227" s="21"/>
-      <c r="T227" s="21"/>
-      <c r="U227" s="21"/>
-      <c r="V227" s="21"/>
-      <c r="W227" s="21"/>
-      <c r="X227" s="21"/>
-      <c r="Y227" s="21"/>
-      <c r="Z227" s="21"/>
-      <c r="AA227" s="21"/>
-      <c r="AB227" s="21"/>
-      <c r="AC227" s="21"/>
-      <c r="AD227" s="21"/>
-      <c r="AE227" s="21"/>
-      <c r="AF227" s="21"/>
-      <c r="AG227" s="21"/>
-      <c r="AH227" s="21"/>
-      <c r="AI227" s="21"/>
-      <c r="AJ227" s="21"/>
-      <c r="AK227" s="21"/>
-      <c r="AL227" s="21"/>
-      <c r="AM227" s="21"/>
-      <c r="AN227" s="21"/>
-      <c r="AO227" s="21"/>
-      <c r="AP227" s="21"/>
-      <c r="AQ227" s="21"/>
-      <c r="AR227" s="21"/>
+      <c r="C226" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="227" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E227" s="34"/>
+      <c r="F227" s="35"/>
+      <c r="G227" s="36"/>
+      <c r="H227" s="36"/>
+      <c r="I227" s="36"/>
+      <c r="J227" s="36"/>
+      <c r="K227" s="36"/>
+      <c r="L227" s="36"/>
+      <c r="M227" s="36"/>
+      <c r="N227" s="36"/>
+      <c r="O227" s="36"/>
+      <c r="P227" s="36"/>
+      <c r="Q227" s="36"/>
+      <c r="R227" s="36"/>
+      <c r="S227" s="36"/>
+      <c r="T227" s="36"/>
+      <c r="U227" s="36"/>
+      <c r="V227" s="36"/>
+      <c r="W227" s="36"/>
+      <c r="X227" s="36"/>
+      <c r="Y227" s="36"/>
+      <c r="Z227" s="36"/>
+      <c r="AA227" s="36"/>
+      <c r="AB227" s="36"/>
+      <c r="AC227" s="36"/>
+      <c r="AD227" s="36"/>
+      <c r="AE227" s="36"/>
+      <c r="AF227" s="36"/>
+      <c r="AG227" s="36"/>
+      <c r="AH227" s="36"/>
+      <c r="AI227" s="36"/>
+      <c r="AJ227" s="36"/>
+      <c r="AK227" s="36"/>
+      <c r="AL227" s="36"/>
+      <c r="AM227" s="36"/>
+      <c r="AN227" s="36"/>
+      <c r="AO227" s="36"/>
+      <c r="AP227" s="36"/>
+      <c r="AQ227" s="36"/>
+      <c r="AR227" s="36"/>
     </row>
     <row r="228" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A228" s="6" t="s">
-        <v>52</v>
+      <c r="B228" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E228" s="3">
+        <v>7</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="229" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B229" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G229" s="22" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="230" spans="1:44" x14ac:dyDescent="0.2">
@@ -4577,76 +4605,76 @@
     <row r="231" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B231" s="1"/>
       <c r="C231" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F231" s="14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G231" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="232" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="C232" s="17" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E232" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="233" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B233" s="1"/>
       <c r="C233" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F233" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G233" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="234" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B234" s="1"/>
       <c r="C234" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G234" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="235" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B235" s="1"/>
       <c r="C235" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F235" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G235" s="15"/>
     </row>
@@ -4654,19 +4682,19 @@
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E236" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E236" s="22" t="s">
-        <v>118</v>
-      </c>
       <c r="F236" s="14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G236" s="15"/>
     </row>
     <row r="237" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B237" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -4677,58 +4705,58 @@
     <row r="238" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B238" s="1"/>
       <c r="C238" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F238" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G238" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="239" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B239" s="1"/>
       <c r="C239" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F239" s="14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G239" s="15"/>
     </row>
     <row r="240" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B240" s="1"/>
       <c r="C240" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G240" s="15"/>
     </row>
     <row r="241" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B241" s="1"/>
       <c r="C241" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F241" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G241" s="15"/>
     </row>
@@ -4736,33 +4764,33 @@
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E242" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E242" s="22" t="s">
-        <v>118</v>
-      </c>
       <c r="F242" s="14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G242" s="15"/>
     </row>
     <row r="243" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B243" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G243" s="15"/>
     </row>
     <row r="244" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B244" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -4773,58 +4801,58 @@
     <row r="245" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B245" s="1"/>
       <c r="C245" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="22" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F245" s="14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G245" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="246" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B246" s="1"/>
       <c r="C246" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F246" s="14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G246" s="15"/>
     </row>
     <row r="247" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B247" s="1"/>
       <c r="C247" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G247" s="15"/>
     </row>
     <row r="248" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B248" s="1"/>
       <c r="C248" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F248" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G248" s="15"/>
     </row>
@@ -4832,641 +4860,641 @@
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E249" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E249" s="22" t="s">
-        <v>118</v>
-      </c>
       <c r="F249" s="14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G249" s="15"/>
     </row>
-    <row r="250" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B250" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="22"/>
       <c r="F250" s="14"/>
       <c r="G250" s="22"/>
-      <c r="Q250" s="31"/>
-      <c r="R250" s="31"/>
-      <c r="S250" s="31"/>
-      <c r="T250" s="31"/>
-      <c r="U250" s="31"/>
-      <c r="V250" s="31"/>
-      <c r="W250" s="31"/>
-      <c r="X250" s="31"/>
-      <c r="Y250" s="31"/>
-      <c r="Z250" s="31"/>
-      <c r="AA250" s="31"/>
-      <c r="AB250" s="31"/>
-      <c r="AC250" s="31"/>
-      <c r="AD250" s="31"/>
-      <c r="AE250" s="31"/>
-      <c r="AF250" s="31"/>
-      <c r="AG250" s="31"/>
-      <c r="AH250" s="31"/>
-      <c r="AI250" s="31"/>
-      <c r="AJ250" s="31"/>
-      <c r="AK250" s="31"/>
-      <c r="AL250" s="31"/>
-      <c r="AM250" s="31"/>
-      <c r="AN250" s="31"/>
-      <c r="AO250" s="31"/>
-      <c r="AP250" s="31"/>
-      <c r="AQ250" s="31"/>
-      <c r="AR250" s="31"/>
-      <c r="AS250" s="31"/>
-      <c r="AT250" s="31"/>
-      <c r="AU250" s="31"/>
-      <c r="AV250" s="31"/>
-      <c r="AW250" s="31"/>
-      <c r="AX250" s="31"/>
-      <c r="AY250" s="31"/>
-      <c r="AZ250" s="31"/>
-      <c r="BA250" s="31"/>
-      <c r="BB250" s="31"/>
-      <c r="BC250" s="31"/>
-      <c r="BD250" s="31"/>
-      <c r="BE250" s="31"/>
-      <c r="BF250" s="31"/>
-      <c r="BG250" s="31"/>
-      <c r="BH250" s="31"/>
-      <c r="BI250" s="31"/>
-      <c r="BJ250" s="31"/>
-      <c r="BK250" s="31"/>
-      <c r="BL250" s="31"/>
-      <c r="BM250" s="31"/>
-      <c r="BN250" s="31"/>
-      <c r="BO250" s="31"/>
-      <c r="BP250" s="31"/>
-      <c r="BQ250" s="31"/>
-      <c r="BR250" s="31"/>
-      <c r="BS250" s="31"/>
-      <c r="BT250" s="31"/>
-      <c r="BU250" s="31"/>
-      <c r="BV250" s="31"/>
-      <c r="BW250" s="31"/>
-    </row>
-    <row r="251" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q250" s="30"/>
+      <c r="R250" s="30"/>
+      <c r="S250" s="30"/>
+      <c r="T250" s="30"/>
+      <c r="U250" s="30"/>
+      <c r="V250" s="30"/>
+      <c r="W250" s="30"/>
+      <c r="X250" s="30"/>
+      <c r="Y250" s="30"/>
+      <c r="Z250" s="30"/>
+      <c r="AA250" s="30"/>
+      <c r="AB250" s="30"/>
+      <c r="AC250" s="30"/>
+      <c r="AD250" s="30"/>
+      <c r="AE250" s="30"/>
+      <c r="AF250" s="30"/>
+      <c r="AG250" s="30"/>
+      <c r="AH250" s="30"/>
+      <c r="AI250" s="30"/>
+      <c r="AJ250" s="30"/>
+      <c r="AK250" s="30"/>
+      <c r="AL250" s="30"/>
+      <c r="AM250" s="30"/>
+      <c r="AN250" s="30"/>
+      <c r="AO250" s="30"/>
+      <c r="AP250" s="30"/>
+      <c r="AQ250" s="30"/>
+      <c r="AR250" s="30"/>
+      <c r="AS250" s="30"/>
+      <c r="AT250" s="30"/>
+      <c r="AU250" s="30"/>
+      <c r="AV250" s="30"/>
+      <c r="AW250" s="30"/>
+      <c r="AX250" s="30"/>
+      <c r="AY250" s="30"/>
+      <c r="AZ250" s="30"/>
+      <c r="BA250" s="30"/>
+      <c r="BB250" s="30"/>
+      <c r="BC250" s="30"/>
+      <c r="BD250" s="30"/>
+      <c r="BE250" s="30"/>
+      <c r="BF250" s="30"/>
+      <c r="BG250" s="30"/>
+      <c r="BH250" s="30"/>
+      <c r="BI250" s="30"/>
+      <c r="BJ250" s="30"/>
+      <c r="BK250" s="30"/>
+      <c r="BL250" s="30"/>
+      <c r="BM250" s="30"/>
+      <c r="BN250" s="30"/>
+      <c r="BO250" s="30"/>
+      <c r="BP250" s="30"/>
+      <c r="BQ250" s="30"/>
+      <c r="BR250" s="30"/>
+      <c r="BS250" s="30"/>
+      <c r="BT250" s="30"/>
+      <c r="BU250" s="30"/>
+      <c r="BV250" s="30"/>
+      <c r="BW250" s="30"/>
+    </row>
+    <row r="251" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B251" s="1"/>
       <c r="C251" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="22"/>
       <c r="F251" s="14" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G251" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q251" s="31"/>
-      <c r="R251" s="31"/>
-      <c r="S251" s="31"/>
-      <c r="T251" s="31"/>
-      <c r="U251" s="31"/>
-      <c r="V251" s="31"/>
-      <c r="W251" s="31"/>
-      <c r="X251" s="31"/>
-      <c r="Y251" s="31"/>
-      <c r="Z251" s="31"/>
-      <c r="AA251" s="31"/>
-      <c r="AB251" s="31"/>
-      <c r="AC251" s="31"/>
-      <c r="AD251" s="31"/>
-      <c r="AE251" s="31"/>
-      <c r="AF251" s="31"/>
-      <c r="AG251" s="31"/>
-      <c r="AH251" s="31"/>
-      <c r="AI251" s="31"/>
-      <c r="AJ251" s="31"/>
-      <c r="AK251" s="31"/>
-      <c r="AL251" s="31"/>
-      <c r="AM251" s="31"/>
-      <c r="AN251" s="31"/>
-      <c r="AO251" s="31"/>
-      <c r="AP251" s="31"/>
-      <c r="AQ251" s="31"/>
-      <c r="AR251" s="31"/>
-      <c r="AS251" s="31"/>
-      <c r="AT251" s="31"/>
-      <c r="AU251" s="31"/>
-      <c r="AV251" s="31"/>
-      <c r="AW251" s="31"/>
-      <c r="AX251" s="31"/>
-      <c r="AY251" s="31"/>
-      <c r="AZ251" s="31"/>
-      <c r="BA251" s="31"/>
-      <c r="BB251" s="31"/>
-      <c r="BC251" s="31"/>
-      <c r="BD251" s="31"/>
-      <c r="BE251" s="31"/>
-      <c r="BF251" s="31"/>
-      <c r="BG251" s="31"/>
-      <c r="BH251" s="31"/>
-      <c r="BI251" s="31"/>
-      <c r="BJ251" s="31"/>
-      <c r="BK251" s="31"/>
-      <c r="BL251" s="31"/>
-      <c r="BM251" s="31"/>
-      <c r="BN251" s="31"/>
-      <c r="BO251" s="31"/>
-      <c r="BP251" s="31"/>
-      <c r="BQ251" s="31"/>
-      <c r="BR251" s="31"/>
-      <c r="BS251" s="31"/>
-      <c r="BT251" s="31"/>
-      <c r="BU251" s="31"/>
-      <c r="BV251" s="31"/>
-      <c r="BW251" s="31"/>
-    </row>
-    <row r="252" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="Q251" s="30"/>
+      <c r="R251" s="30"/>
+      <c r="S251" s="30"/>
+      <c r="T251" s="30"/>
+      <c r="U251" s="30"/>
+      <c r="V251" s="30"/>
+      <c r="W251" s="30"/>
+      <c r="X251" s="30"/>
+      <c r="Y251" s="30"/>
+      <c r="Z251" s="30"/>
+      <c r="AA251" s="30"/>
+      <c r="AB251" s="30"/>
+      <c r="AC251" s="30"/>
+      <c r="AD251" s="30"/>
+      <c r="AE251" s="30"/>
+      <c r="AF251" s="30"/>
+      <c r="AG251" s="30"/>
+      <c r="AH251" s="30"/>
+      <c r="AI251" s="30"/>
+      <c r="AJ251" s="30"/>
+      <c r="AK251" s="30"/>
+      <c r="AL251" s="30"/>
+      <c r="AM251" s="30"/>
+      <c r="AN251" s="30"/>
+      <c r="AO251" s="30"/>
+      <c r="AP251" s="30"/>
+      <c r="AQ251" s="30"/>
+      <c r="AR251" s="30"/>
+      <c r="AS251" s="30"/>
+      <c r="AT251" s="30"/>
+      <c r="AU251" s="30"/>
+      <c r="AV251" s="30"/>
+      <c r="AW251" s="30"/>
+      <c r="AX251" s="30"/>
+      <c r="AY251" s="30"/>
+      <c r="AZ251" s="30"/>
+      <c r="BA251" s="30"/>
+      <c r="BB251" s="30"/>
+      <c r="BC251" s="30"/>
+      <c r="BD251" s="30"/>
+      <c r="BE251" s="30"/>
+      <c r="BF251" s="30"/>
+      <c r="BG251" s="30"/>
+      <c r="BH251" s="30"/>
+      <c r="BI251" s="30"/>
+      <c r="BJ251" s="30"/>
+      <c r="BK251" s="30"/>
+      <c r="BL251" s="30"/>
+      <c r="BM251" s="30"/>
+      <c r="BN251" s="30"/>
+      <c r="BO251" s="30"/>
+      <c r="BP251" s="30"/>
+      <c r="BQ251" s="30"/>
+      <c r="BR251" s="30"/>
+      <c r="BS251" s="30"/>
+      <c r="BT251" s="30"/>
+      <c r="BU251" s="30"/>
+      <c r="BV251" s="30"/>
+      <c r="BW251" s="30"/>
+    </row>
+    <row r="252" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B252" s="1"/>
       <c r="C252" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F252" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F252" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="G252" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q252" s="31"/>
-      <c r="R252" s="31"/>
-      <c r="S252" s="31"/>
-      <c r="T252" s="31"/>
-      <c r="U252" s="31"/>
-      <c r="V252" s="31"/>
-      <c r="W252" s="31"/>
-      <c r="X252" s="31"/>
-      <c r="Y252" s="31"/>
-      <c r="Z252" s="31"/>
-      <c r="AA252" s="31"/>
-      <c r="AB252" s="31"/>
-      <c r="AC252" s="31"/>
-      <c r="AD252" s="31"/>
-      <c r="AE252" s="31"/>
-      <c r="AF252" s="31"/>
-      <c r="AG252" s="31"/>
-      <c r="AH252" s="31"/>
-      <c r="AI252" s="31"/>
-      <c r="AJ252" s="31"/>
-      <c r="AK252" s="31"/>
-      <c r="AL252" s="31"/>
-      <c r="AM252" s="31"/>
-      <c r="AN252" s="31"/>
-      <c r="AO252" s="31"/>
-      <c r="AP252" s="31"/>
-      <c r="AQ252" s="31"/>
-      <c r="AR252" s="31"/>
-      <c r="AS252" s="31"/>
-      <c r="AT252" s="31"/>
-      <c r="AU252" s="31"/>
-      <c r="AV252" s="31"/>
-      <c r="AW252" s="31"/>
-      <c r="AX252" s="31"/>
-      <c r="AY252" s="31"/>
-      <c r="AZ252" s="31"/>
-      <c r="BA252" s="31"/>
-      <c r="BB252" s="31"/>
-      <c r="BC252" s="31"/>
-      <c r="BD252" s="31"/>
-      <c r="BE252" s="31"/>
-      <c r="BF252" s="31"/>
-      <c r="BG252" s="31"/>
-      <c r="BH252" s="31"/>
-      <c r="BI252" s="31"/>
-      <c r="BJ252" s="31"/>
-      <c r="BK252" s="31"/>
-      <c r="BL252" s="31"/>
-      <c r="BM252" s="31"/>
-      <c r="BN252" s="31"/>
-      <c r="BO252" s="31"/>
-      <c r="BP252" s="31"/>
-      <c r="BQ252" s="31"/>
-      <c r="BR252" s="31"/>
-      <c r="BS252" s="31"/>
-      <c r="BT252" s="31"/>
-      <c r="BU252" s="31"/>
-      <c r="BV252" s="31"/>
-      <c r="BW252" s="31"/>
-    </row>
-    <row r="253" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="Q252" s="30"/>
+      <c r="R252" s="30"/>
+      <c r="S252" s="30"/>
+      <c r="T252" s="30"/>
+      <c r="U252" s="30"/>
+      <c r="V252" s="30"/>
+      <c r="W252" s="30"/>
+      <c r="X252" s="30"/>
+      <c r="Y252" s="30"/>
+      <c r="Z252" s="30"/>
+      <c r="AA252" s="30"/>
+      <c r="AB252" s="30"/>
+      <c r="AC252" s="30"/>
+      <c r="AD252" s="30"/>
+      <c r="AE252" s="30"/>
+      <c r="AF252" s="30"/>
+      <c r="AG252" s="30"/>
+      <c r="AH252" s="30"/>
+      <c r="AI252" s="30"/>
+      <c r="AJ252" s="30"/>
+      <c r="AK252" s="30"/>
+      <c r="AL252" s="30"/>
+      <c r="AM252" s="30"/>
+      <c r="AN252" s="30"/>
+      <c r="AO252" s="30"/>
+      <c r="AP252" s="30"/>
+      <c r="AQ252" s="30"/>
+      <c r="AR252" s="30"/>
+      <c r="AS252" s="30"/>
+      <c r="AT252" s="30"/>
+      <c r="AU252" s="30"/>
+      <c r="AV252" s="30"/>
+      <c r="AW252" s="30"/>
+      <c r="AX252" s="30"/>
+      <c r="AY252" s="30"/>
+      <c r="AZ252" s="30"/>
+      <c r="BA252" s="30"/>
+      <c r="BB252" s="30"/>
+      <c r="BC252" s="30"/>
+      <c r="BD252" s="30"/>
+      <c r="BE252" s="30"/>
+      <c r="BF252" s="30"/>
+      <c r="BG252" s="30"/>
+      <c r="BH252" s="30"/>
+      <c r="BI252" s="30"/>
+      <c r="BJ252" s="30"/>
+      <c r="BK252" s="30"/>
+      <c r="BL252" s="30"/>
+      <c r="BM252" s="30"/>
+      <c r="BN252" s="30"/>
+      <c r="BO252" s="30"/>
+      <c r="BP252" s="30"/>
+      <c r="BQ252" s="30"/>
+      <c r="BR252" s="30"/>
+      <c r="BS252" s="30"/>
+      <c r="BT252" s="30"/>
+      <c r="BU252" s="30"/>
+      <c r="BV252" s="30"/>
+      <c r="BW252" s="30"/>
+    </row>
+    <row r="253" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B253" s="1"/>
       <c r="C253" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G253" s="22"/>
-      <c r="Q253" s="31"/>
-      <c r="R253" s="31"/>
-      <c r="S253" s="31"/>
-      <c r="T253" s="31"/>
-      <c r="U253" s="31"/>
-      <c r="V253" s="31"/>
-      <c r="W253" s="31"/>
-      <c r="X253" s="31"/>
-      <c r="Y253" s="31"/>
-      <c r="Z253" s="31"/>
-      <c r="AA253" s="31"/>
-      <c r="AB253" s="31"/>
-      <c r="AC253" s="31"/>
-      <c r="AD253" s="31"/>
-      <c r="AE253" s="31"/>
-      <c r="AF253" s="31"/>
-      <c r="AG253" s="31"/>
-      <c r="AH253" s="31"/>
-      <c r="AI253" s="31"/>
-      <c r="AJ253" s="31"/>
-      <c r="AK253" s="31"/>
-      <c r="AL253" s="31"/>
-      <c r="AM253" s="31"/>
-      <c r="AN253" s="31"/>
-      <c r="AO253" s="31"/>
-      <c r="AP253" s="31"/>
-      <c r="AQ253" s="31"/>
-      <c r="AR253" s="31"/>
-      <c r="AS253" s="31"/>
-      <c r="AT253" s="31"/>
-      <c r="AU253" s="31"/>
-      <c r="AV253" s="31"/>
-      <c r="AW253" s="31"/>
-      <c r="AX253" s="31"/>
-      <c r="AY253" s="31"/>
-      <c r="AZ253" s="31"/>
-      <c r="BA253" s="31"/>
-      <c r="BB253" s="31"/>
-      <c r="BC253" s="31"/>
-      <c r="BD253" s="31"/>
-      <c r="BE253" s="31"/>
-      <c r="BF253" s="31"/>
-      <c r="BG253" s="31"/>
-      <c r="BH253" s="31"/>
-      <c r="BI253" s="31"/>
-      <c r="BJ253" s="31"/>
-      <c r="BK253" s="31"/>
-      <c r="BL253" s="31"/>
-      <c r="BM253" s="31"/>
-      <c r="BN253" s="31"/>
-      <c r="BO253" s="31"/>
-      <c r="BP253" s="31"/>
-      <c r="BQ253" s="31"/>
-      <c r="BR253" s="31"/>
-      <c r="BS253" s="31"/>
-      <c r="BT253" s="31"/>
-      <c r="BU253" s="31"/>
-      <c r="BV253" s="31"/>
-      <c r="BW253" s="31"/>
-    </row>
-    <row r="254" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q253" s="30"/>
+      <c r="R253" s="30"/>
+      <c r="S253" s="30"/>
+      <c r="T253" s="30"/>
+      <c r="U253" s="30"/>
+      <c r="V253" s="30"/>
+      <c r="W253" s="30"/>
+      <c r="X253" s="30"/>
+      <c r="Y253" s="30"/>
+      <c r="Z253" s="30"/>
+      <c r="AA253" s="30"/>
+      <c r="AB253" s="30"/>
+      <c r="AC253" s="30"/>
+      <c r="AD253" s="30"/>
+      <c r="AE253" s="30"/>
+      <c r="AF253" s="30"/>
+      <c r="AG253" s="30"/>
+      <c r="AH253" s="30"/>
+      <c r="AI253" s="30"/>
+      <c r="AJ253" s="30"/>
+      <c r="AK253" s="30"/>
+      <c r="AL253" s="30"/>
+      <c r="AM253" s="30"/>
+      <c r="AN253" s="30"/>
+      <c r="AO253" s="30"/>
+      <c r="AP253" s="30"/>
+      <c r="AQ253" s="30"/>
+      <c r="AR253" s="30"/>
+      <c r="AS253" s="30"/>
+      <c r="AT253" s="30"/>
+      <c r="AU253" s="30"/>
+      <c r="AV253" s="30"/>
+      <c r="AW253" s="30"/>
+      <c r="AX253" s="30"/>
+      <c r="AY253" s="30"/>
+      <c r="AZ253" s="30"/>
+      <c r="BA253" s="30"/>
+      <c r="BB253" s="30"/>
+      <c r="BC253" s="30"/>
+      <c r="BD253" s="30"/>
+      <c r="BE253" s="30"/>
+      <c r="BF253" s="30"/>
+      <c r="BG253" s="30"/>
+      <c r="BH253" s="30"/>
+      <c r="BI253" s="30"/>
+      <c r="BJ253" s="30"/>
+      <c r="BK253" s="30"/>
+      <c r="BL253" s="30"/>
+      <c r="BM253" s="30"/>
+      <c r="BN253" s="30"/>
+      <c r="BO253" s="30"/>
+      <c r="BP253" s="30"/>
+      <c r="BQ253" s="30"/>
+      <c r="BR253" s="30"/>
+      <c r="BS253" s="30"/>
+      <c r="BT253" s="30"/>
+      <c r="BU253" s="30"/>
+      <c r="BV253" s="30"/>
+      <c r="BW253" s="30"/>
+    </row>
+    <row r="254" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B254" s="1"/>
       <c r="C254" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F254" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G254" s="22"/>
-      <c r="Q254" s="31"/>
-      <c r="R254" s="31"/>
-      <c r="S254" s="31"/>
-      <c r="T254" s="31"/>
-      <c r="U254" s="31"/>
-      <c r="V254" s="31"/>
-      <c r="W254" s="31"/>
-      <c r="X254" s="31"/>
-      <c r="Y254" s="31"/>
-      <c r="Z254" s="31"/>
-      <c r="AA254" s="31"/>
-      <c r="AB254" s="31"/>
-      <c r="AC254" s="31"/>
-      <c r="AD254" s="31"/>
-      <c r="AE254" s="31"/>
-      <c r="AF254" s="31"/>
-      <c r="AG254" s="31"/>
-      <c r="AH254" s="31"/>
-      <c r="AI254" s="31"/>
-      <c r="AJ254" s="31"/>
-      <c r="AK254" s="31"/>
-      <c r="AL254" s="31"/>
-      <c r="AM254" s="31"/>
-      <c r="AN254" s="31"/>
-      <c r="AO254" s="31"/>
-      <c r="AP254" s="31"/>
-      <c r="AQ254" s="31"/>
-      <c r="AR254" s="31"/>
-      <c r="AS254" s="31"/>
-      <c r="AT254" s="31"/>
-      <c r="AU254" s="31"/>
-      <c r="AV254" s="31"/>
-      <c r="AW254" s="31"/>
-      <c r="AX254" s="31"/>
-      <c r="AY254" s="31"/>
-      <c r="AZ254" s="31"/>
-      <c r="BA254" s="31"/>
-      <c r="BB254" s="31"/>
-      <c r="BC254" s="31"/>
-      <c r="BD254" s="31"/>
-      <c r="BE254" s="31"/>
-      <c r="BF254" s="31"/>
-      <c r="BG254" s="31"/>
-      <c r="BH254" s="31"/>
-      <c r="BI254" s="31"/>
-      <c r="BJ254" s="31"/>
-      <c r="BK254" s="31"/>
-      <c r="BL254" s="31"/>
-      <c r="BM254" s="31"/>
-      <c r="BN254" s="31"/>
-      <c r="BO254" s="31"/>
-      <c r="BP254" s="31"/>
-      <c r="BQ254" s="31"/>
-      <c r="BR254" s="31"/>
-      <c r="BS254" s="31"/>
-      <c r="BT254" s="31"/>
-      <c r="BU254" s="31"/>
-      <c r="BV254" s="31"/>
-      <c r="BW254" s="31"/>
-    </row>
-    <row r="255" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q254" s="30"/>
+      <c r="R254" s="30"/>
+      <c r="S254" s="30"/>
+      <c r="T254" s="30"/>
+      <c r="U254" s="30"/>
+      <c r="V254" s="30"/>
+      <c r="W254" s="30"/>
+      <c r="X254" s="30"/>
+      <c r="Y254" s="30"/>
+      <c r="Z254" s="30"/>
+      <c r="AA254" s="30"/>
+      <c r="AB254" s="30"/>
+      <c r="AC254" s="30"/>
+      <c r="AD254" s="30"/>
+      <c r="AE254" s="30"/>
+      <c r="AF254" s="30"/>
+      <c r="AG254" s="30"/>
+      <c r="AH254" s="30"/>
+      <c r="AI254" s="30"/>
+      <c r="AJ254" s="30"/>
+      <c r="AK254" s="30"/>
+      <c r="AL254" s="30"/>
+      <c r="AM254" s="30"/>
+      <c r="AN254" s="30"/>
+      <c r="AO254" s="30"/>
+      <c r="AP254" s="30"/>
+      <c r="AQ254" s="30"/>
+      <c r="AR254" s="30"/>
+      <c r="AS254" s="30"/>
+      <c r="AT254" s="30"/>
+      <c r="AU254" s="30"/>
+      <c r="AV254" s="30"/>
+      <c r="AW254" s="30"/>
+      <c r="AX254" s="30"/>
+      <c r="AY254" s="30"/>
+      <c r="AZ254" s="30"/>
+      <c r="BA254" s="30"/>
+      <c r="BB254" s="30"/>
+      <c r="BC254" s="30"/>
+      <c r="BD254" s="30"/>
+      <c r="BE254" s="30"/>
+      <c r="BF254" s="30"/>
+      <c r="BG254" s="30"/>
+      <c r="BH254" s="30"/>
+      <c r="BI254" s="30"/>
+      <c r="BJ254" s="30"/>
+      <c r="BK254" s="30"/>
+      <c r="BL254" s="30"/>
+      <c r="BM254" s="30"/>
+      <c r="BN254" s="30"/>
+      <c r="BO254" s="30"/>
+      <c r="BP254" s="30"/>
+      <c r="BQ254" s="30"/>
+      <c r="BR254" s="30"/>
+      <c r="BS254" s="30"/>
+      <c r="BT254" s="30"/>
+      <c r="BU254" s="30"/>
+      <c r="BV254" s="30"/>
+      <c r="BW254" s="30"/>
+    </row>
+    <row r="255" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B255" s="1"/>
       <c r="C255" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F255" s="14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G255" s="22"/>
-      <c r="Q255" s="31"/>
-      <c r="R255" s="31"/>
-      <c r="S255" s="31"/>
-      <c r="T255" s="31"/>
-      <c r="U255" s="31"/>
-      <c r="V255" s="31"/>
-      <c r="W255" s="31"/>
-      <c r="X255" s="31"/>
-      <c r="Y255" s="31"/>
-      <c r="Z255" s="31"/>
-      <c r="AA255" s="31"/>
-      <c r="AB255" s="31"/>
-      <c r="AC255" s="31"/>
-      <c r="AD255" s="31"/>
-      <c r="AE255" s="31"/>
-      <c r="AF255" s="31"/>
-      <c r="AG255" s="31"/>
-      <c r="AH255" s="31"/>
-      <c r="AI255" s="31"/>
-      <c r="AJ255" s="31"/>
-      <c r="AK255" s="31"/>
-      <c r="AL255" s="31"/>
-      <c r="AM255" s="31"/>
-      <c r="AN255" s="31"/>
-      <c r="AO255" s="31"/>
-      <c r="AP255" s="31"/>
-      <c r="AQ255" s="31"/>
-      <c r="AR255" s="31"/>
-      <c r="AS255" s="31"/>
-      <c r="AT255" s="31"/>
-      <c r="AU255" s="31"/>
-      <c r="AV255" s="31"/>
-      <c r="AW255" s="31"/>
-      <c r="AX255" s="31"/>
-      <c r="AY255" s="31"/>
-      <c r="AZ255" s="31"/>
-      <c r="BA255" s="31"/>
-      <c r="BB255" s="31"/>
-      <c r="BC255" s="31"/>
-      <c r="BD255" s="31"/>
-      <c r="BE255" s="31"/>
-      <c r="BF255" s="31"/>
-      <c r="BG255" s="31"/>
-      <c r="BH255" s="31"/>
-      <c r="BI255" s="31"/>
-      <c r="BJ255" s="31"/>
-      <c r="BK255" s="31"/>
-      <c r="BL255" s="31"/>
-      <c r="BM255" s="31"/>
-      <c r="BN255" s="31"/>
-      <c r="BO255" s="31"/>
-      <c r="BP255" s="31"/>
-      <c r="BQ255" s="31"/>
-      <c r="BR255" s="31"/>
-      <c r="BS255" s="31"/>
-      <c r="BT255" s="31"/>
-      <c r="BU255" s="31"/>
-      <c r="BV255" s="31"/>
-      <c r="BW255" s="31"/>
-    </row>
-    <row r="256" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q255" s="30"/>
+      <c r="R255" s="30"/>
+      <c r="S255" s="30"/>
+      <c r="T255" s="30"/>
+      <c r="U255" s="30"/>
+      <c r="V255" s="30"/>
+      <c r="W255" s="30"/>
+      <c r="X255" s="30"/>
+      <c r="Y255" s="30"/>
+      <c r="Z255" s="30"/>
+      <c r="AA255" s="30"/>
+      <c r="AB255" s="30"/>
+      <c r="AC255" s="30"/>
+      <c r="AD255" s="30"/>
+      <c r="AE255" s="30"/>
+      <c r="AF255" s="30"/>
+      <c r="AG255" s="30"/>
+      <c r="AH255" s="30"/>
+      <c r="AI255" s="30"/>
+      <c r="AJ255" s="30"/>
+      <c r="AK255" s="30"/>
+      <c r="AL255" s="30"/>
+      <c r="AM255" s="30"/>
+      <c r="AN255" s="30"/>
+      <c r="AO255" s="30"/>
+      <c r="AP255" s="30"/>
+      <c r="AQ255" s="30"/>
+      <c r="AR255" s="30"/>
+      <c r="AS255" s="30"/>
+      <c r="AT255" s="30"/>
+      <c r="AU255" s="30"/>
+      <c r="AV255" s="30"/>
+      <c r="AW255" s="30"/>
+      <c r="AX255" s="30"/>
+      <c r="AY255" s="30"/>
+      <c r="AZ255" s="30"/>
+      <c r="BA255" s="30"/>
+      <c r="BB255" s="30"/>
+      <c r="BC255" s="30"/>
+      <c r="BD255" s="30"/>
+      <c r="BE255" s="30"/>
+      <c r="BF255" s="30"/>
+      <c r="BG255" s="30"/>
+      <c r="BH255" s="30"/>
+      <c r="BI255" s="30"/>
+      <c r="BJ255" s="30"/>
+      <c r="BK255" s="30"/>
+      <c r="BL255" s="30"/>
+      <c r="BM255" s="30"/>
+      <c r="BN255" s="30"/>
+      <c r="BO255" s="30"/>
+      <c r="BP255" s="30"/>
+      <c r="BQ255" s="30"/>
+      <c r="BR255" s="30"/>
+      <c r="BS255" s="30"/>
+      <c r="BT255" s="30"/>
+      <c r="BU255" s="30"/>
+      <c r="BV255" s="30"/>
+      <c r="BW255" s="30"/>
+    </row>
+    <row r="256" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B256" s="1"/>
       <c r="C256" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F256" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G256" s="22"/>
-      <c r="Q256" s="31"/>
-      <c r="R256" s="31"/>
-      <c r="S256" s="31"/>
-      <c r="T256" s="31"/>
-      <c r="U256" s="31"/>
-      <c r="V256" s="31"/>
-      <c r="W256" s="31"/>
-      <c r="X256" s="31"/>
-      <c r="Y256" s="31"/>
-      <c r="Z256" s="31"/>
-      <c r="AA256" s="31"/>
-      <c r="AB256" s="31"/>
-      <c r="AC256" s="31"/>
-      <c r="AD256" s="31"/>
-      <c r="AE256" s="31"/>
-      <c r="AF256" s="31"/>
-      <c r="AG256" s="31"/>
-      <c r="AH256" s="31"/>
-      <c r="AI256" s="31"/>
-      <c r="AJ256" s="31"/>
-      <c r="AK256" s="31"/>
-      <c r="AL256" s="31"/>
-      <c r="AM256" s="31"/>
-      <c r="AN256" s="31"/>
-      <c r="AO256" s="31"/>
-      <c r="AP256" s="31"/>
-      <c r="AQ256" s="31"/>
-      <c r="AR256" s="31"/>
-      <c r="AS256" s="31"/>
-      <c r="AT256" s="31"/>
-      <c r="AU256" s="31"/>
-      <c r="AV256" s="31"/>
-      <c r="AW256" s="31"/>
-      <c r="AX256" s="31"/>
-      <c r="AY256" s="31"/>
-      <c r="AZ256" s="31"/>
-      <c r="BA256" s="31"/>
-      <c r="BB256" s="31"/>
-      <c r="BC256" s="31"/>
-      <c r="BD256" s="31"/>
-      <c r="BE256" s="31"/>
-      <c r="BF256" s="31"/>
-      <c r="BG256" s="31"/>
-      <c r="BH256" s="31"/>
-      <c r="BI256" s="31"/>
-      <c r="BJ256" s="31"/>
-      <c r="BK256" s="31"/>
-      <c r="BL256" s="31"/>
-      <c r="BM256" s="31"/>
-      <c r="BN256" s="31"/>
-      <c r="BO256" s="31"/>
-      <c r="BP256" s="31"/>
-      <c r="BQ256" s="31"/>
-      <c r="BR256" s="31"/>
-      <c r="BS256" s="31"/>
-      <c r="BT256" s="31"/>
-      <c r="BU256" s="31"/>
-      <c r="BV256" s="31"/>
-      <c r="BW256" s="31"/>
-    </row>
-    <row r="257" spans="2:75" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q256" s="30"/>
+      <c r="R256" s="30"/>
+      <c r="S256" s="30"/>
+      <c r="T256" s="30"/>
+      <c r="U256" s="30"/>
+      <c r="V256" s="30"/>
+      <c r="W256" s="30"/>
+      <c r="X256" s="30"/>
+      <c r="Y256" s="30"/>
+      <c r="Z256" s="30"/>
+      <c r="AA256" s="30"/>
+      <c r="AB256" s="30"/>
+      <c r="AC256" s="30"/>
+      <c r="AD256" s="30"/>
+      <c r="AE256" s="30"/>
+      <c r="AF256" s="30"/>
+      <c r="AG256" s="30"/>
+      <c r="AH256" s="30"/>
+      <c r="AI256" s="30"/>
+      <c r="AJ256" s="30"/>
+      <c r="AK256" s="30"/>
+      <c r="AL256" s="30"/>
+      <c r="AM256" s="30"/>
+      <c r="AN256" s="30"/>
+      <c r="AO256" s="30"/>
+      <c r="AP256" s="30"/>
+      <c r="AQ256" s="30"/>
+      <c r="AR256" s="30"/>
+      <c r="AS256" s="30"/>
+      <c r="AT256" s="30"/>
+      <c r="AU256" s="30"/>
+      <c r="AV256" s="30"/>
+      <c r="AW256" s="30"/>
+      <c r="AX256" s="30"/>
+      <c r="AY256" s="30"/>
+      <c r="AZ256" s="30"/>
+      <c r="BA256" s="30"/>
+      <c r="BB256" s="30"/>
+      <c r="BC256" s="30"/>
+      <c r="BD256" s="30"/>
+      <c r="BE256" s="30"/>
+      <c r="BF256" s="30"/>
+      <c r="BG256" s="30"/>
+      <c r="BH256" s="30"/>
+      <c r="BI256" s="30"/>
+      <c r="BJ256" s="30"/>
+      <c r="BK256" s="30"/>
+      <c r="BL256" s="30"/>
+      <c r="BM256" s="30"/>
+      <c r="BN256" s="30"/>
+      <c r="BO256" s="30"/>
+      <c r="BP256" s="30"/>
+      <c r="BQ256" s="30"/>
+      <c r="BR256" s="30"/>
+      <c r="BS256" s="30"/>
+      <c r="BT256" s="30"/>
+      <c r="BU256" s="30"/>
+      <c r="BV256" s="30"/>
+      <c r="BW256" s="30"/>
+    </row>
+    <row r="257" spans="1:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E257" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E257" s="22" t="s">
-        <v>118</v>
-      </c>
       <c r="F257" s="14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G257" s="22"/>
-      <c r="Q257" s="31"/>
-      <c r="R257" s="31"/>
-      <c r="S257" s="31"/>
-      <c r="T257" s="31"/>
-      <c r="U257" s="31"/>
-      <c r="V257" s="31"/>
-      <c r="W257" s="31"/>
-      <c r="X257" s="31"/>
-      <c r="Y257" s="31"/>
-      <c r="Z257" s="31"/>
-      <c r="AA257" s="31"/>
-      <c r="AB257" s="31"/>
-      <c r="AC257" s="31"/>
-      <c r="AD257" s="31"/>
-      <c r="AE257" s="31"/>
-      <c r="AF257" s="31"/>
-      <c r="AG257" s="31"/>
-      <c r="AH257" s="31"/>
-      <c r="AI257" s="31"/>
-      <c r="AJ257" s="31"/>
-      <c r="AK257" s="31"/>
-      <c r="AL257" s="31"/>
-      <c r="AM257" s="31"/>
-      <c r="AN257" s="31"/>
-      <c r="AO257" s="31"/>
-      <c r="AP257" s="31"/>
-      <c r="AQ257" s="31"/>
-      <c r="AR257" s="31"/>
-      <c r="AS257" s="31"/>
-      <c r="AT257" s="31"/>
-      <c r="AU257" s="31"/>
-      <c r="AV257" s="31"/>
-      <c r="AW257" s="31"/>
-      <c r="AX257" s="31"/>
-      <c r="AY257" s="31"/>
-      <c r="AZ257" s="31"/>
-      <c r="BA257" s="31"/>
-      <c r="BB257" s="31"/>
-      <c r="BC257" s="31"/>
-      <c r="BD257" s="31"/>
-      <c r="BE257" s="31"/>
-      <c r="BF257" s="31"/>
-      <c r="BG257" s="31"/>
-      <c r="BH257" s="31"/>
-      <c r="BI257" s="31"/>
-      <c r="BJ257" s="31"/>
-      <c r="BK257" s="31"/>
-      <c r="BL257" s="31"/>
-      <c r="BM257" s="31"/>
-      <c r="BN257" s="31"/>
-      <c r="BO257" s="31"/>
-      <c r="BP257" s="31"/>
-      <c r="BQ257" s="31"/>
-      <c r="BR257" s="31"/>
-      <c r="BS257" s="31"/>
-      <c r="BT257" s="31"/>
-      <c r="BU257" s="31"/>
-      <c r="BV257" s="31"/>
-      <c r="BW257" s="31"/>
-    </row>
-    <row r="258" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="Q257" s="30"/>
+      <c r="R257" s="30"/>
+      <c r="S257" s="30"/>
+      <c r="T257" s="30"/>
+      <c r="U257" s="30"/>
+      <c r="V257" s="30"/>
+      <c r="W257" s="30"/>
+      <c r="X257" s="30"/>
+      <c r="Y257" s="30"/>
+      <c r="Z257" s="30"/>
+      <c r="AA257" s="30"/>
+      <c r="AB257" s="30"/>
+      <c r="AC257" s="30"/>
+      <c r="AD257" s="30"/>
+      <c r="AE257" s="30"/>
+      <c r="AF257" s="30"/>
+      <c r="AG257" s="30"/>
+      <c r="AH257" s="30"/>
+      <c r="AI257" s="30"/>
+      <c r="AJ257" s="30"/>
+      <c r="AK257" s="30"/>
+      <c r="AL257" s="30"/>
+      <c r="AM257" s="30"/>
+      <c r="AN257" s="30"/>
+      <c r="AO257" s="30"/>
+      <c r="AP257" s="30"/>
+      <c r="AQ257" s="30"/>
+      <c r="AR257" s="30"/>
+      <c r="AS257" s="30"/>
+      <c r="AT257" s="30"/>
+      <c r="AU257" s="30"/>
+      <c r="AV257" s="30"/>
+      <c r="AW257" s="30"/>
+      <c r="AX257" s="30"/>
+      <c r="AY257" s="30"/>
+      <c r="AZ257" s="30"/>
+      <c r="BA257" s="30"/>
+      <c r="BB257" s="30"/>
+      <c r="BC257" s="30"/>
+      <c r="BD257" s="30"/>
+      <c r="BE257" s="30"/>
+      <c r="BF257" s="30"/>
+      <c r="BG257" s="30"/>
+      <c r="BH257" s="30"/>
+      <c r="BI257" s="30"/>
+      <c r="BJ257" s="30"/>
+      <c r="BK257" s="30"/>
+      <c r="BL257" s="30"/>
+      <c r="BM257" s="30"/>
+      <c r="BN257" s="30"/>
+      <c r="BO257" s="30"/>
+      <c r="BP257" s="30"/>
+      <c r="BQ257" s="30"/>
+      <c r="BR257" s="30"/>
+      <c r="BS257" s="30"/>
+      <c r="BT257" s="30"/>
+      <c r="BU257" s="30"/>
+      <c r="BV257" s="30"/>
+      <c r="BW257" s="30"/>
+    </row>
+    <row r="258" spans="1:75" x14ac:dyDescent="0.2">
       <c r="B258" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F258" s="14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G258" s="15"/>
     </row>
-    <row r="259" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:75" x14ac:dyDescent="0.2">
       <c r="B259" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F259" s="14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G259" s="15"/>
     </row>
-    <row r="260" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:75" x14ac:dyDescent="0.2">
       <c r="B260" s="1"/>
       <c r="C260" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F260" s="14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G260" s="15"/>
     </row>
-    <row r="261" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:75" x14ac:dyDescent="0.2">
       <c r="B261" s="1" t="s">
         <v>0</v>
       </c>
@@ -5476,134 +5504,194 @@
       <c r="F261" s="1"/>
       <c r="G261" s="22"/>
     </row>
-    <row r="262" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B262" s="1"/>
-      <c r="C262" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D262" s="1"/>
-      <c r="E262" s="22"/>
-      <c r="F262" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G262" s="22"/>
-    </row>
-    <row r="263" spans="2:75" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B263" s="23"/>
-      <c r="C263" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D263" s="23"/>
-      <c r="E263" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F263" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G263" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H263" s="21"/>
-      <c r="I263" s="21"/>
-      <c r="J263" s="21"/>
-      <c r="K263" s="21"/>
-      <c r="L263" s="21"/>
-      <c r="M263" s="21"/>
-      <c r="N263" s="21"/>
-      <c r="O263" s="21"/>
-      <c r="P263" s="21"/>
-      <c r="Q263" s="21"/>
-      <c r="R263" s="21"/>
-      <c r="S263" s="21"/>
-      <c r="T263" s="21"/>
-      <c r="U263" s="21"/>
-      <c r="V263" s="21"/>
-      <c r="W263" s="21"/>
-      <c r="X263" s="21"/>
-      <c r="Y263" s="21"/>
-      <c r="Z263" s="21"/>
-      <c r="AA263" s="21"/>
-      <c r="AB263" s="21"/>
-      <c r="AC263" s="21"/>
-      <c r="AD263" s="21"/>
-      <c r="AE263" s="21"/>
-      <c r="AF263" s="21"/>
-      <c r="AG263" s="21"/>
-      <c r="AH263" s="21"/>
-      <c r="AI263" s="21"/>
-      <c r="AJ263" s="21"/>
-      <c r="AK263" s="21"/>
-      <c r="AL263" s="21"/>
-      <c r="AM263" s="21"/>
-      <c r="AN263" s="21"/>
-      <c r="AO263" s="21"/>
-      <c r="AP263" s="21"/>
-      <c r="AQ263" s="21"/>
-      <c r="AR263" s="21"/>
-    </row>
-    <row r="264" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="22"/>
-      <c r="F264" s="14"/>
-    </row>
-    <row r="265" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
-      <c r="E265" s="22"/>
-      <c r="F265" s="14"/>
-    </row>
-    <row r="266" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
-      <c r="D266" s="1"/>
-      <c r="E266" s="22"/>
-      <c r="F266" s="14"/>
-    </row>
-    <row r="267" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
-      <c r="D267" s="1"/>
-      <c r="E267" s="22"/>
-      <c r="F267" s="14"/>
-    </row>
-    <row r="268" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
-      <c r="E268" s="22"/>
-      <c r="F268" s="14"/>
-    </row>
-    <row r="269" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
-      <c r="E269" s="22"/>
-      <c r="F269" s="1"/>
-    </row>
-    <row r="270" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="22"/>
-      <c r="F270" s="1"/>
-    </row>
-    <row r="271" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
-      <c r="E271" s="22"/>
-      <c r="F271" s="1"/>
+    <row r="262" spans="1:75" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B262" s="23"/>
+      <c r="C262" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D262" s="23"/>
+      <c r="E262" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F262" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G262" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H262" s="21"/>
+      <c r="I262" s="21"/>
+      <c r="J262" s="21"/>
+      <c r="K262" s="21"/>
+      <c r="L262" s="21"/>
+      <c r="M262" s="21"/>
+      <c r="N262" s="21"/>
+      <c r="O262" s="21"/>
+      <c r="P262" s="21"/>
+      <c r="Q262" s="21"/>
+      <c r="R262" s="21"/>
+      <c r="S262" s="21"/>
+      <c r="T262" s="21"/>
+      <c r="U262" s="21"/>
+      <c r="V262" s="21"/>
+      <c r="W262" s="21"/>
+      <c r="X262" s="21"/>
+      <c r="Y262" s="21"/>
+      <c r="Z262" s="21"/>
+      <c r="AA262" s="21"/>
+      <c r="AB262" s="21"/>
+      <c r="AC262" s="21"/>
+      <c r="AD262" s="21"/>
+      <c r="AE262" s="21"/>
+      <c r="AF262" s="21"/>
+      <c r="AG262" s="21"/>
+      <c r="AH262" s="21"/>
+      <c r="AI262" s="21"/>
+      <c r="AJ262" s="21"/>
+      <c r="AK262" s="21"/>
+      <c r="AL262" s="21"/>
+      <c r="AM262" s="21"/>
+      <c r="AN262" s="21"/>
+      <c r="AO262" s="21"/>
+      <c r="AP262" s="21"/>
+      <c r="AQ262" s="21"/>
+      <c r="AR262" s="21"/>
+    </row>
+    <row r="263" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A263" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="22"/>
+      <c r="F263" s="14"/>
+    </row>
+    <row r="264" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="B264" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E264" s="3">
+        <v>7</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="265" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="B265" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G265" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="266" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="B266" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="267" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="B267" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="268" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="B268" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E268" s="3">
+        <v>4</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="269" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="C269" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E269" s="3">
+        <v>4</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="270" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="B270" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="271" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="B271" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E271" s="3">
+        <v>4</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="272" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="B272" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E272" s="3">
+        <v>4</v>
+      </c>
+      <c r="F272" s="37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B273" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E273" s="3">
+        <v>4</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A98:CC106">
-    <sortCondition ref="E98:E106"/>
+  <sortState ref="A99:CC107">
+    <sortCondition ref="E99:E107"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5614,6 +5702,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100693BD51F8350324485FD573DEA5308EA" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="3a5ad946f0818aa27759232261042403">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bcfd11aa4d094f7496148c95fffd8c5">
     <xsd:element name="properties">
@@ -5727,15 +5824,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1ED0FDE-263A-4F6E-9471-50CE8FD4814D}">
   <ds:schemaRefs>
@@ -5752,6 +5840,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E1EA3A-64D8-4C02-BC91-1B1F72624C50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CCE2042-532F-4C03-816B-30C6EAF92BA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5765,12 +5861,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E1EA3A-64D8-4C02-BC91-1B1F72624C50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/Documents/QoS/Den Haag/BRP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/GitHub/Haal-Centraal-BRP-bevragen/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684CCA54-9B2E-1441-A829-0A49BCF210A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5BECA4-1FDF-654D-BBAF-4560C229069F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29740" windowHeight="17800" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="203">
   <si>
     <t>_links</t>
   </si>
@@ -623,6 +623,12 @@
   </si>
   <si>
     <t>X (alleen 4)</t>
+  </si>
+  <si>
+    <t>adellijkeTitelPredikaat</t>
+  </si>
+  <si>
+    <t>02.20</t>
   </si>
 </sst>
 </file>
@@ -1147,13 +1153,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BW273"/>
+  <dimension ref="A1:BW274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E245" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G267" sqref="G267"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1277,13 +1283,13 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>162</v>
@@ -1291,13 +1297,13 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>162</v>
@@ -1305,13 +1311,13 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>176</v>
+      <c r="F10" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>162</v>
@@ -1319,89 +1325,54 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>99</v>
+        <v>176</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C12" s="6" t="s">
-        <v>100</v>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="C13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>16</v>
+      </c>
       <c r="F14" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="4" t="s">
@@ -1450,7 +1421,7 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="4" t="s">
@@ -1498,14 +1469,12 @@
       <c r="AR16" s="6"/>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
+      <c r="B17" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="4" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>162</v>
@@ -1550,32 +1519,69 @@
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>162</v>
@@ -1583,13 +1589,13 @@
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>162</v>
@@ -1597,336 +1603,336 @@
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>99</v>
+        <v>55</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C23" s="6" t="s">
-        <v>100</v>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>10</v>
+      <c r="C24" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="3">
-        <v>7</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="E27" s="3">
         <v>7</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>11</v>
+      <c r="B28" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="E28" s="3">
         <v>7</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="E29" s="3">
         <v>7</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="3">
+        <v>7</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B31" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+    <row r="33" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="5"/>
-      <c r="AQ32" s="5"/>
-      <c r="AR32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="6" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="E33" s="3">
-        <v>4</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="E34" s="3">
         <v>4</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E35" s="3">
         <v>4</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E36" s="3">
         <v>4</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C37" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B37" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E37" s="3">
         <v>4</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="6" t="s">
-        <v>21</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="C38" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E38" s="3">
         <v>4</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="6" t="s">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B41" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E40" s="3">
-        <v>6</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E41" s="3">
         <v>6</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E42" s="3">
         <v>6</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E43" s="3">
         <v>6</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E44" s="3">
         <v>6</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C45" s="6" t="s">
-        <v>100</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E45" s="3">
         <v>6</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="C46" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="6" t="s">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B48" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E47" s="3">
-        <v>8</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="E48" s="3">
         <v>8</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>162</v>
@@ -1934,13 +1940,13 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E49" s="3">
         <v>8</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>162</v>
@@ -1948,27 +1954,27 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E50" s="3">
         <v>8</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="31" t="s">
-        <v>181</v>
+      <c r="B51" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E51" s="3">
         <v>8</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>162</v>
@@ -1976,27 +1982,27 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E52" s="3">
         <v>8</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="6" t="s">
-        <v>4</v>
+      <c r="B53" s="31" t="s">
+        <v>179</v>
       </c>
       <c r="E53" s="3">
         <v>8</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>162</v>
@@ -2004,13 +2010,13 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54" s="3">
         <v>8</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>162</v>
@@ -2018,13 +2024,13 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55" s="3">
         <v>8</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>162</v>
@@ -2032,13 +2038,13 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E56" s="3">
         <v>8</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>162</v>
@@ -2046,13 +2052,13 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E57" s="3">
         <v>8</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>162</v>
@@ -2060,13 +2066,13 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>8</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>162</v>
@@ -2074,13 +2080,13 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E59" s="3">
         <v>8</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>162</v>
@@ -2088,13 +2094,13 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E60" s="3">
         <v>8</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>162</v>
@@ -2102,13 +2108,13 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="E61" s="3">
         <v>8</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>162</v>
@@ -2116,13 +2122,13 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E62" s="3">
         <v>8</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>162</v>
@@ -2130,13 +2136,13 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="E63" s="3">
         <v>8</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>162</v>
@@ -2144,13 +2150,13 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E64" s="3">
         <v>8</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>162</v>
@@ -2158,13 +2164,13 @@
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E65" s="3">
         <v>8</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>162</v>
@@ -2172,203 +2178,203 @@
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="E66" s="3">
         <v>8</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
-      <c r="AA66" s="6"/>
-      <c r="AB66" s="6"/>
-      <c r="AC66" s="6"/>
-      <c r="AD66" s="6"/>
-      <c r="AE66" s="6"/>
-      <c r="AF66" s="6"/>
-      <c r="AG66" s="6"/>
-      <c r="AH66" s="6"/>
-      <c r="AI66" s="6"/>
-      <c r="AJ66" s="6"/>
-      <c r="AK66" s="6"/>
-      <c r="AL66" s="6"/>
-      <c r="AM66" s="6"/>
-      <c r="AN66" s="6"/>
-      <c r="AO66" s="6"/>
-      <c r="AP66" s="6"/>
-      <c r="AQ66" s="6"/>
-      <c r="AR66" s="6"/>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="E67" s="3">
         <v>8</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6"/>
+      <c r="AF67" s="6"/>
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="6"/>
+      <c r="AI67" s="6"/>
+      <c r="AJ67" s="6"/>
+      <c r="AK67" s="6"/>
+      <c r="AL67" s="6"/>
+      <c r="AM67" s="6"/>
+      <c r="AN67" s="6"/>
+      <c r="AO67" s="6"/>
+      <c r="AP67" s="6"/>
+      <c r="AQ67" s="6"/>
+      <c r="AR67" s="6"/>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E68" s="3">
         <v>8</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E69" s="3">
         <v>8</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B70" s="17" t="s">
-        <v>141</v>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B70" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E70" s="3">
         <v>8</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
-      <c r="AA70" s="6"/>
-      <c r="AB70" s="6"/>
-      <c r="AC70" s="6"/>
-      <c r="AD70" s="6"/>
-      <c r="AE70" s="6"/>
-      <c r="AF70" s="6"/>
-      <c r="AG70" s="6"/>
-      <c r="AH70" s="6"/>
-      <c r="AI70" s="6"/>
-      <c r="AJ70" s="6"/>
-      <c r="AK70" s="6"/>
-      <c r="AL70" s="6"/>
-      <c r="AM70" s="6"/>
-      <c r="AN70" s="6"/>
-      <c r="AO70" s="6"/>
-      <c r="AP70" s="6"/>
-      <c r="AQ70" s="6"/>
-      <c r="AR70" s="6"/>
-    </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B71" s="6" t="s">
-        <v>17</v>
+        <v>153</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B71" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="E71" s="3">
         <v>8</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>99</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="6"/>
+      <c r="AB71" s="6"/>
+      <c r="AC71" s="6"/>
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="6"/>
+      <c r="AF71" s="6"/>
+      <c r="AG71" s="6"/>
+      <c r="AH71" s="6"/>
+      <c r="AI71" s="6"/>
+      <c r="AJ71" s="6"/>
+      <c r="AK71" s="6"/>
+      <c r="AL71" s="6"/>
+      <c r="AM71" s="6"/>
+      <c r="AN71" s="6"/>
+      <c r="AO71" s="6"/>
+      <c r="AP71" s="6"/>
+      <c r="AQ71" s="6"/>
+      <c r="AR71" s="6"/>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C72" s="6" t="s">
-        <v>100</v>
+      <c r="B72" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E72" s="3">
         <v>8</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B73" s="6" t="s">
-        <v>21</v>
+      <c r="C73" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E73" s="3">
         <v>8</v>
       </c>
       <c r="F73" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="3">
+        <v>8</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B75" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" s="3">
-        <v>10</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E76" s="3">
         <v>10</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>162</v>
@@ -2376,82 +2382,82 @@
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E77" s="3">
         <v>10</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B78" s="17" t="s">
-        <v>145</v>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B78" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E78" s="3">
         <v>10</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B79" s="6" t="s">
-        <v>17</v>
+    <row r="79" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B79" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="E79" s="3">
         <v>10</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>99</v>
+        <v>146</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C80" s="6" t="s">
-        <v>100</v>
+      <c r="B80" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E80" s="3">
         <v>10</v>
       </c>
       <c r="F80" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C81" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B82" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E82" s="3">
-        <v>11</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E83" s="3">
         <v>11</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>162</v>
@@ -2459,114 +2465,117 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E84" s="3">
         <v>11</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C85" s="6" t="s">
-        <v>100</v>
+      <c r="B85" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E85" s="3">
         <v>11</v>
       </c>
       <c r="F85" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C86" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86" s="3">
+        <v>11</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B87" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E87" s="3">
-        <v>13</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B88" s="6" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="E88" s="3">
         <v>13</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="B89" s="6" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="E89" s="3">
         <v>13</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="B90" s="6" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="E90" s="3">
         <v>13</v>
       </c>
       <c r="F90" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" s="3">
+        <v>13</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B93" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E93" s="3">
-        <v>1</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>162</v>
@@ -2574,10 +2583,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E95" s="3">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>162</v>
@@ -2585,13 +2594,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
-        <v>190</v>
+        <v>47</v>
       </c>
       <c r="E96" s="3">
-        <v>8</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>162</v>
@@ -2599,10 +2605,13 @@
     </row>
     <row r="97" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="E97" s="3">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>162</v>
@@ -2610,105 +2619,100 @@
     </row>
     <row r="98" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E98" s="3">
-        <v>12</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>136</v>
+        <v>9</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B99" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>162</v>
+        <v>44</v>
+      </c>
+      <c r="E99" s="3">
+        <v>12</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B100" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B101" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G100" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="101" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="18" t="s">
+      <c r="G101" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E101" s="19"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="H101" s="21"/>
-      <c r="I101" s="21"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="21"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
-      <c r="O101" s="21"/>
-      <c r="P101" s="21"/>
-      <c r="Q101" s="21"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="21"/>
-      <c r="T101" s="21"/>
-      <c r="U101" s="21"/>
-      <c r="V101" s="21"/>
-      <c r="W101" s="21"/>
-      <c r="X101" s="21"/>
-      <c r="Y101" s="21"/>
-      <c r="Z101" s="21"/>
-      <c r="AA101" s="21"/>
-      <c r="AB101" s="21"/>
-      <c r="AC101" s="21"/>
-      <c r="AD101" s="21"/>
-      <c r="AE101" s="21"/>
-      <c r="AF101" s="21"/>
-      <c r="AG101" s="21"/>
-      <c r="AH101" s="21"/>
-      <c r="AI101" s="21"/>
-      <c r="AJ101" s="21"/>
-      <c r="AK101" s="21"/>
-      <c r="AL101" s="21"/>
-      <c r="AM101" s="21"/>
-      <c r="AN101" s="21"/>
-      <c r="AO101" s="21"/>
-      <c r="AP101" s="21"/>
-      <c r="AQ101" s="21"/>
-      <c r="AR101" s="21"/>
-    </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
+      <c r="E102" s="19"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="21"/>
+      <c r="Q102" s="21"/>
+      <c r="R102" s="21"/>
+      <c r="S102" s="21"/>
+      <c r="T102" s="21"/>
+      <c r="U102" s="21"/>
+      <c r="V102" s="21"/>
+      <c r="W102" s="21"/>
+      <c r="X102" s="21"/>
+      <c r="Y102" s="21"/>
+      <c r="Z102" s="21"/>
+      <c r="AA102" s="21"/>
+      <c r="AB102" s="21"/>
+      <c r="AC102" s="21"/>
+      <c r="AD102" s="21"/>
+      <c r="AE102" s="21"/>
+      <c r="AF102" s="21"/>
+      <c r="AG102" s="21"/>
+      <c r="AH102" s="21"/>
+      <c r="AI102" s="21"/>
+      <c r="AJ102" s="21"/>
+      <c r="AK102" s="21"/>
+      <c r="AL102" s="21"/>
+      <c r="AM102" s="21"/>
+      <c r="AN102" s="21"/>
+      <c r="AO102" s="21"/>
+      <c r="AP102" s="21"/>
+      <c r="AQ102" s="21"/>
+      <c r="AR102" s="21"/>
+    </row>
+    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-    </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B103" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G103" s="22" t="s">
-        <v>162</v>
-      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2716,7 +2720,7 @@
         <v>111</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="G104" s="22" t="s">
         <v>162</v>
@@ -2724,73 +2728,73 @@
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="22"/>
+      <c r="E105" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="106" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B106" s="1"/>
-      <c r="C106" s="1" t="s">
+      <c r="B106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="22"/>
+    </row>
+    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B107" s="1"/>
-      <c r="C107" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="F107" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
-      <c r="C108" s="1" t="s">
-        <v>15</v>
+      <c r="C108" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F108" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G108" s="15" t="s">
+      <c r="F108" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G108" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="22" t="s">
         <v>111</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G109" s="15" t="s">
         <v>162</v>
@@ -2799,68 +2803,68 @@
     <row r="110" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F110" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G110" s="15"/>
+      <c r="F110" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="1"/>
       <c r="E111" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F111" s="14" t="s">
+      <c r="F111" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G111" s="15"/>
+    </row>
+    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F112" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G111" s="15"/>
-    </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B112" s="1" t="s">
+      <c r="G112" s="15"/>
+    </row>
+    <row r="113" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="22"/>
-    </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B113" s="1"/>
-      <c r="C113" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F113" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G113" s="15" t="s">
-        <v>162</v>
-      </c>
+      <c r="E113" s="22"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="22"/>
     </row>
     <row r="114" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="22" t="s">
         <v>111</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G114" s="15" t="s">
         <v>162</v>
@@ -2869,14 +2873,14 @@
     <row r="115" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="22" t="s">
         <v>111</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G115" s="15" t="s">
         <v>162</v>
@@ -2885,61 +2889,63 @@
     <row r="116" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="22" t="s">
         <v>111</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G116" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="117" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="1"/>
       <c r="E117" s="22" t="s">
         <v>111</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G117" s="15"/>
     </row>
     <row r="118" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B118" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E118" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="F118" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G118" s="15"/>
     </row>
     <row r="119" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F119" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G119" s="15"/>
+      <c r="F119" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="120" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2947,187 +2953,185 @@
         <v>111</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G120" s="15"/>
     </row>
     <row r="121" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B121" s="1"/>
-      <c r="C121" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="B121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="22" t="s">
         <v>111</v>
       </c>
       <c r="F121" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G121" s="15"/>
+    </row>
+    <row r="122" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F122" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G121" s="15"/>
-    </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
+      <c r="G122" s="15"/>
+    </row>
+    <row r="123" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="22"/>
-    </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B123" s="1"/>
-      <c r="C123" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="22"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="124" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="23"/>
-      <c r="C124" s="23" t="s">
+      <c r="G123" s="22"/>
+    </row>
+    <row r="124" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="23"/>
+      <c r="C125" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D124" s="23"/>
-      <c r="E124" s="24" t="s">
+      <c r="D125" s="23"/>
+      <c r="E125" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F124" s="23" t="s">
+      <c r="F125" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G124" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="H124" s="21"/>
-      <c r="I124" s="21"/>
-      <c r="J124" s="21"/>
-      <c r="K124" s="21"/>
-      <c r="L124" s="21"/>
-      <c r="M124" s="21"/>
-      <c r="N124" s="21"/>
-      <c r="O124" s="21"/>
-      <c r="P124" s="21"/>
-      <c r="Q124" s="21"/>
-      <c r="R124" s="21"/>
-      <c r="S124" s="21"/>
-      <c r="T124" s="21"/>
-      <c r="U124" s="21"/>
-      <c r="V124" s="21"/>
-      <c r="W124" s="21"/>
-      <c r="X124" s="21"/>
-      <c r="Y124" s="21"/>
-      <c r="Z124" s="21"/>
-      <c r="AA124" s="21"/>
-      <c r="AB124" s="21"/>
-      <c r="AC124" s="21"/>
-      <c r="AD124" s="21"/>
-      <c r="AE124" s="21"/>
-      <c r="AF124" s="21"/>
-      <c r="AG124" s="21"/>
-      <c r="AH124" s="21"/>
-      <c r="AI124" s="21"/>
-      <c r="AJ124" s="21"/>
-      <c r="AK124" s="21"/>
-      <c r="AL124" s="21"/>
-      <c r="AM124" s="21"/>
-      <c r="AN124" s="21"/>
-      <c r="AO124" s="21"/>
-      <c r="AP124" s="21"/>
-      <c r="AQ124" s="21"/>
-      <c r="AR124" s="21"/>
-    </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
+      <c r="G125" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="21"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21"/>
+      <c r="O125" s="21"/>
+      <c r="P125" s="21"/>
+      <c r="Q125" s="21"/>
+      <c r="R125" s="21"/>
+      <c r="S125" s="21"/>
+      <c r="T125" s="21"/>
+      <c r="U125" s="21"/>
+      <c r="V125" s="21"/>
+      <c r="W125" s="21"/>
+      <c r="X125" s="21"/>
+      <c r="Y125" s="21"/>
+      <c r="Z125" s="21"/>
+      <c r="AA125" s="21"/>
+      <c r="AB125" s="21"/>
+      <c r="AC125" s="21"/>
+      <c r="AD125" s="21"/>
+      <c r="AE125" s="21"/>
+      <c r="AF125" s="21"/>
+      <c r="AG125" s="21"/>
+      <c r="AH125" s="21"/>
+      <c r="AI125" s="21"/>
+      <c r="AJ125" s="21"/>
+      <c r="AK125" s="21"/>
+      <c r="AL125" s="21"/>
+      <c r="AM125" s="21"/>
+      <c r="AN125" s="21"/>
+      <c r="AO125" s="21"/>
+      <c r="AP125" s="21"/>
+      <c r="AQ125" s="21"/>
+      <c r="AR125" s="21"/>
+    </row>
+    <row r="126" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G126" s="22" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="22"/>
+      <c r="E127" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="128" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B128" s="1"/>
-      <c r="C128" s="1" t="s">
+      <c r="B128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="22"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D128" s="1"/>
-      <c r="E128" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="C129" s="17" t="s">
-        <v>142</v>
-      </c>
+      <c r="D129" s="1"/>
       <c r="E129" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B130" s="1"/>
-      <c r="C130" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="1"/>
+      <c r="F129" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="C130" s="17" t="s">
+        <v>142</v>
+      </c>
       <c r="E130" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F130" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G130" s="15" t="s">
+      <c r="F130" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G130" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G131" s="15" t="s">
         <v>162</v>
@@ -3136,226 +3140,228 @@
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
       <c r="C132" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F132" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G132" s="15"/>
+      <c r="F132" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="1"/>
       <c r="E133" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F133" s="14" t="s">
+      <c r="F133" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G133" s="15"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F134" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G133" s="15"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B134" s="1" t="s">
+      <c r="G134" s="15"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="22"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B135" s="1"/>
-      <c r="C135" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C135" s="1"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G135" s="15" t="s">
-        <v>162</v>
-      </c>
+      <c r="E135" s="22"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="22"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
       <c r="C136" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G136" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="G136" s="15" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G137" s="15"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
       <c r="C138" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="G138" s="15"/>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C139" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="1"/>
       <c r="E139" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G139" s="15"/>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B140" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="D140" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E140" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="G140" s="15"/>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="14"/>
+      <c r="E141" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="G141" s="15"/>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B142" s="1"/>
-      <c r="C142" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B142" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C142" s="1"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F142" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>162</v>
-      </c>
+      <c r="E142" s="22"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="15"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G143" s="15"/>
+        <v>115</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G144" s="15"/>
     </row>
     <row r="145" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B145" s="1"/>
       <c r="C145" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G145" s="15"/>
     </row>
     <row r="146" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="1"/>
       <c r="E146" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G146" s="15"/>
     </row>
     <row r="147" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B147" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="B147" s="1"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E147" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G147" s="15"/>
     </row>
     <row r="148" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3363,172 +3369,170 @@
         <v>109</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G148" s="15"/>
     </row>
     <row r="149" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B149" s="1"/>
-      <c r="C149" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="B149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F149" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G149" s="15"/>
+    </row>
+    <row r="150" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F150" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G149" s="15"/>
-    </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B150" s="1" t="s">
+      <c r="G150" s="15"/>
+    </row>
+    <row r="151" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B151" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="22"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="22"/>
-    </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B151" s="1"/>
-      <c r="C151" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="22"/>
       <c r="F151" s="1"/>
-      <c r="G151" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="152" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="23"/>
-      <c r="C152" s="23" t="s">
+      <c r="G151" s="22"/>
+    </row>
+    <row r="152" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="22"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="153" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="23"/>
+      <c r="C153" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D152" s="23"/>
-      <c r="E152" s="24" t="s">
+      <c r="D153" s="23"/>
+      <c r="E153" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F152" s="23" t="s">
+      <c r="F153" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G152" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="H152" s="21"/>
-      <c r="I152" s="21"/>
-      <c r="J152" s="21"/>
-      <c r="K152" s="21"/>
-      <c r="L152" s="21"/>
-      <c r="M152" s="21"/>
-      <c r="N152" s="21"/>
-      <c r="O152" s="21"/>
-      <c r="P152" s="21"/>
-      <c r="Q152" s="21"/>
-      <c r="R152" s="21"/>
-      <c r="S152" s="21"/>
-      <c r="T152" s="21"/>
-      <c r="U152" s="21"/>
-      <c r="V152" s="21"/>
-      <c r="W152" s="21"/>
-      <c r="X152" s="21"/>
-      <c r="Y152" s="21"/>
-      <c r="Z152" s="21"/>
-      <c r="AA152" s="21"/>
-      <c r="AB152" s="21"/>
-      <c r="AC152" s="21"/>
-      <c r="AD152" s="21"/>
-      <c r="AE152" s="21"/>
-      <c r="AF152" s="21"/>
-      <c r="AG152" s="21"/>
-      <c r="AH152" s="21"/>
-      <c r="AI152" s="21"/>
-      <c r="AJ152" s="21"/>
-      <c r="AK152" s="21"/>
-      <c r="AL152" s="21"/>
-      <c r="AM152" s="21"/>
-      <c r="AN152" s="21"/>
-      <c r="AO152" s="21"/>
-      <c r="AP152" s="21"/>
-      <c r="AQ152" s="21"/>
-      <c r="AR152" s="21"/>
-    </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
+      <c r="G153" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H153" s="21"/>
+      <c r="I153" s="21"/>
+      <c r="J153" s="21"/>
+      <c r="K153" s="21"/>
+      <c r="L153" s="21"/>
+      <c r="M153" s="21"/>
+      <c r="N153" s="21"/>
+      <c r="O153" s="21"/>
+      <c r="P153" s="21"/>
+      <c r="Q153" s="21"/>
+      <c r="R153" s="21"/>
+      <c r="S153" s="21"/>
+      <c r="T153" s="21"/>
+      <c r="U153" s="21"/>
+      <c r="V153" s="21"/>
+      <c r="W153" s="21"/>
+      <c r="X153" s="21"/>
+      <c r="Y153" s="21"/>
+      <c r="Z153" s="21"/>
+      <c r="AA153" s="21"/>
+      <c r="AB153" s="21"/>
+      <c r="AC153" s="21"/>
+      <c r="AD153" s="21"/>
+      <c r="AE153" s="21"/>
+      <c r="AF153" s="21"/>
+      <c r="AG153" s="21"/>
+      <c r="AH153" s="21"/>
+      <c r="AI153" s="21"/>
+      <c r="AJ153" s="21"/>
+      <c r="AK153" s="21"/>
+      <c r="AL153" s="21"/>
+      <c r="AM153" s="21"/>
+      <c r="AN153" s="21"/>
+      <c r="AO153" s="21"/>
+      <c r="AP153" s="21"/>
+      <c r="AQ153" s="21"/>
+      <c r="AR153" s="21"/>
+    </row>
+    <row r="154" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B154" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="5">
-        <v>9</v>
-      </c>
-      <c r="F154" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B155" s="16" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C155" s="16"/>
       <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
+      <c r="E155" s="5">
+        <v>9</v>
+      </c>
+      <c r="F155" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="156" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B156" s="16"/>
-      <c r="C156" s="16" t="s">
+      <c r="B156" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+    </row>
+    <row r="157" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B157" s="16"/>
+      <c r="C157" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D156" s="16"/>
-      <c r="E156" s="5">
-        <v>9</v>
-      </c>
-      <c r="F156" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G156" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="157" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B157" s="12"/>
-      <c r="C157" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D157" s="12"/>
+      <c r="D157" s="16"/>
       <c r="E157" s="5">
         <v>9</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B158" s="16"/>
-      <c r="C158" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" s="16"/>
+    <row r="158" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B158" s="12"/>
+      <c r="C158" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D158" s="12"/>
       <c r="E158" s="5">
         <v>9</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>162</v>
@@ -3537,14 +3541,14 @@
     <row r="159" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B159" s="16"/>
       <c r="C159" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D159" s="16"/>
       <c r="E159" s="5">
         <v>9</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>162</v>
@@ -3553,265 +3557,267 @@
     <row r="160" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B160" s="16"/>
       <c r="C160" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D160" s="16"/>
       <c r="E160" s="5">
         <v>9</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>99</v>
+        <v>50</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B161" s="16"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16" t="s">
-        <v>100</v>
-      </c>
+      <c r="C161" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="16"/>
       <c r="E161" s="5">
         <v>9</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="162" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B162" s="16" t="s">
-        <v>139</v>
-      </c>
+      <c r="B162" s="16"/>
       <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
+      <c r="D162" s="16" t="s">
+        <v>100</v>
+      </c>
       <c r="E162" s="5">
         <v>9</v>
       </c>
       <c r="F162" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="G162" s="5" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
     </row>
     <row r="163" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B163" s="16" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
+      <c r="E163" s="5">
+        <v>9</v>
+      </c>
+      <c r="F163" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="164" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B164" s="16"/>
-      <c r="C164" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="B164" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" s="16"/>
       <c r="D164" s="16"/>
-      <c r="E164" s="5">
-        <v>9</v>
-      </c>
-      <c r="F164" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G164" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
     </row>
     <row r="165" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B165" s="16"/>
       <c r="C165" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D165" s="16"/>
       <c r="E165" s="5">
         <v>9</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B166" s="16"/>
       <c r="C166" s="16" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D166" s="16"/>
       <c r="E166" s="5">
         <v>9</v>
       </c>
       <c r="F166" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B167" s="16"/>
       <c r="C167" s="16" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D167" s="16"/>
       <c r="E167" s="5">
         <v>9</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B168" s="16"/>
-      <c r="C168" s="16"/>
-      <c r="D168" s="16" t="s">
-        <v>100</v>
-      </c>
+      <c r="C168" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="16"/>
       <c r="E168" s="5">
         <v>9</v>
       </c>
       <c r="F168" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B169" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="B169" s="16"/>
       <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
+      <c r="D169" s="16" t="s">
+        <v>100</v>
+      </c>
       <c r="E169" s="5">
         <v>9</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B170" s="16"/>
-      <c r="C170" s="16" t="s">
-        <v>100</v>
-      </c>
+      <c r="B170" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="16"/>
       <c r="D170" s="16"/>
       <c r="E170" s="5">
         <v>9</v>
       </c>
       <c r="F170" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="171" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B171" s="16"/>
+      <c r="C171" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D171" s="16"/>
+      <c r="E171" s="5">
+        <v>9</v>
+      </c>
+      <c r="F171" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B171" s="16" t="s">
+    <row r="172" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B172" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="16"/>
-      <c r="F171" s="16"/>
-    </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B172" s="16"/>
-      <c r="C172" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="C172" s="16"/>
       <c r="D172" s="16"/>
       <c r="E172" s="16"/>
       <c r="F172" s="16"/>
     </row>
-    <row r="173" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C173" s="23" t="s">
+    <row r="173" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B173" s="16"/>
+      <c r="C173" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16"/>
+    </row>
+    <row r="174" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C174" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="E173" s="21">
+      <c r="E174" s="21">
         <v>9</v>
       </c>
-      <c r="F173" s="18" t="s">
+      <c r="F174" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G173" s="21"/>
-      <c r="H173" s="21"/>
-      <c r="I173" s="21"/>
-      <c r="J173" s="21"/>
-      <c r="K173" s="21"/>
-      <c r="L173" s="21"/>
-      <c r="M173" s="21"/>
-      <c r="N173" s="21"/>
-      <c r="O173" s="21"/>
-      <c r="P173" s="21"/>
-      <c r="Q173" s="21"/>
-      <c r="R173" s="21"/>
-      <c r="S173" s="21"/>
-      <c r="T173" s="21"/>
-      <c r="U173" s="21"/>
-      <c r="V173" s="21"/>
-      <c r="W173" s="21"/>
-      <c r="X173" s="21"/>
-      <c r="Y173" s="21"/>
-      <c r="Z173" s="21"/>
-      <c r="AA173" s="21"/>
-      <c r="AB173" s="21"/>
-      <c r="AC173" s="21"/>
-      <c r="AD173" s="21"/>
-      <c r="AE173" s="21"/>
-      <c r="AF173" s="21"/>
-      <c r="AG173" s="21"/>
-      <c r="AH173" s="21"/>
-      <c r="AI173" s="21"/>
-      <c r="AJ173" s="21"/>
-      <c r="AK173" s="21"/>
-      <c r="AL173" s="21"/>
-      <c r="AM173" s="21"/>
-      <c r="AN173" s="21"/>
-      <c r="AO173" s="21"/>
-      <c r="AP173" s="21"/>
-      <c r="AQ173" s="21"/>
-      <c r="AR173" s="21"/>
-    </row>
-    <row r="174" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A174" s="6" t="s">
+      <c r="G174" s="21"/>
+      <c r="H174" s="21"/>
+      <c r="I174" s="21"/>
+      <c r="J174" s="21"/>
+      <c r="K174" s="21"/>
+      <c r="L174" s="21"/>
+      <c r="M174" s="21"/>
+      <c r="N174" s="21"/>
+      <c r="O174" s="21"/>
+      <c r="P174" s="21"/>
+      <c r="Q174" s="21"/>
+      <c r="R174" s="21"/>
+      <c r="S174" s="21"/>
+      <c r="T174" s="21"/>
+      <c r="U174" s="21"/>
+      <c r="V174" s="21"/>
+      <c r="W174" s="21"/>
+      <c r="X174" s="21"/>
+      <c r="Y174" s="21"/>
+      <c r="Z174" s="21"/>
+      <c r="AA174" s="21"/>
+      <c r="AB174" s="21"/>
+      <c r="AC174" s="21"/>
+      <c r="AD174" s="21"/>
+      <c r="AE174" s="21"/>
+      <c r="AF174" s="21"/>
+      <c r="AG174" s="21"/>
+      <c r="AH174" s="21"/>
+      <c r="AI174" s="21"/>
+      <c r="AJ174" s="21"/>
+      <c r="AK174" s="21"/>
+      <c r="AL174" s="21"/>
+      <c r="AM174" s="21"/>
+      <c r="AN174" s="21"/>
+      <c r="AO174" s="21"/>
+      <c r="AP174" s="21"/>
+      <c r="AQ174" s="21"/>
+      <c r="AR174" s="21"/>
+    </row>
+    <row r="175" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="175" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B175" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G175" s="22"/>
     </row>
     <row r="176" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
       <c r="E176" s="22" t="s">
         <v>129</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="G176" s="22"/>
     </row>
     <row r="177" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
       <c r="E177" s="22" t="s">
         <v>129</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="G177" s="22"/>
     </row>
     <row r="178" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -3819,13 +3825,13 @@
         <v>129</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G178" s="22"/>
     </row>
     <row r="179" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -3833,13 +3839,13 @@
         <v>129</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G179" s="22"/>
     </row>
     <row r="180" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -3847,13 +3853,13 @@
         <v>129</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G180" s="22"/>
     </row>
     <row r="181" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B181" s="26" t="s">
-        <v>143</v>
+      <c r="B181" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -3861,13 +3867,13 @@
         <v>129</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G181" s="22"/>
     </row>
-    <row r="182" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B182" s="27" t="s">
-        <v>144</v>
+    <row r="182" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B182" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -3875,42 +3881,42 @@
         <v>129</v>
       </c>
       <c r="F182" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G182" s="22"/>
+    </row>
+    <row r="183" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B183" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G182" s="22"/>
-    </row>
-    <row r="183" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B183" s="16"/>
-      <c r="C183" s="16" t="s">
+      <c r="G183" s="22"/>
+    </row>
+    <row r="184" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B184" s="16"/>
+      <c r="C184" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D183" s="16"/>
-      <c r="E183" s="5">
+      <c r="D184" s="16"/>
+      <c r="E184" s="5">
         <v>12</v>
       </c>
-      <c r="F183" s="16" t="s">
+      <c r="F184" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="184" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B184" s="1" t="s">
+    <row r="185" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B185" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G184" s="22"/>
-    </row>
-    <row r="185" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B185" s="1"/>
-      <c r="C185" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="22" t="s">
         <v>129</v>
@@ -3920,85 +3926,85 @@
       </c>
       <c r="G185" s="22"/>
     </row>
-    <row r="186" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="23"/>
-      <c r="C186" s="23" t="s">
+    <row r="186" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1"/>
+      <c r="E186" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G186" s="22"/>
+    </row>
+    <row r="187" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B187" s="23"/>
+      <c r="C187" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D186" s="23"/>
-      <c r="E186" s="24" t="s">
+      <c r="D187" s="23"/>
+      <c r="E187" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F186" s="23" t="s">
+      <c r="F187" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G186" s="24"/>
-      <c r="H186" s="21"/>
-      <c r="I186" s="21"/>
-      <c r="J186" s="21"/>
-      <c r="K186" s="21"/>
-      <c r="L186" s="21"/>
-      <c r="M186" s="21"/>
-      <c r="N186" s="21"/>
-      <c r="O186" s="21"/>
-      <c r="P186" s="21"/>
-      <c r="Q186" s="21"/>
-      <c r="R186" s="21"/>
-      <c r="S186" s="21"/>
-      <c r="T186" s="21"/>
-      <c r="U186" s="21"/>
-      <c r="V186" s="21"/>
-      <c r="W186" s="21"/>
-      <c r="X186" s="21"/>
-      <c r="Y186" s="21"/>
-      <c r="Z186" s="21"/>
-      <c r="AA186" s="21"/>
-      <c r="AB186" s="21"/>
-      <c r="AC186" s="21"/>
-      <c r="AD186" s="21"/>
-      <c r="AE186" s="21"/>
-      <c r="AF186" s="21"/>
-      <c r="AG186" s="21"/>
-      <c r="AH186" s="21"/>
-      <c r="AI186" s="21"/>
-      <c r="AJ186" s="21"/>
-      <c r="AK186" s="21"/>
-      <c r="AL186" s="21"/>
-      <c r="AM186" s="21"/>
-      <c r="AN186" s="21"/>
-      <c r="AO186" s="21"/>
-      <c r="AP186" s="21"/>
-      <c r="AQ186" s="21"/>
-      <c r="AR186" s="21"/>
-    </row>
-    <row r="187" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A187" s="6" t="s">
+      <c r="G187" s="24"/>
+      <c r="H187" s="21"/>
+      <c r="I187" s="21"/>
+      <c r="J187" s="21"/>
+      <c r="K187" s="21"/>
+      <c r="L187" s="21"/>
+      <c r="M187" s="21"/>
+      <c r="N187" s="21"/>
+      <c r="O187" s="21"/>
+      <c r="P187" s="21"/>
+      <c r="Q187" s="21"/>
+      <c r="R187" s="21"/>
+      <c r="S187" s="21"/>
+      <c r="T187" s="21"/>
+      <c r="U187" s="21"/>
+      <c r="V187" s="21"/>
+      <c r="W187" s="21"/>
+      <c r="X187" s="21"/>
+      <c r="Y187" s="21"/>
+      <c r="Z187" s="21"/>
+      <c r="AA187" s="21"/>
+      <c r="AB187" s="21"/>
+      <c r="AC187" s="21"/>
+      <c r="AD187" s="21"/>
+      <c r="AE187" s="21"/>
+      <c r="AF187" s="21"/>
+      <c r="AG187" s="21"/>
+      <c r="AH187" s="21"/>
+      <c r="AI187" s="21"/>
+      <c r="AJ187" s="21"/>
+      <c r="AK187" s="21"/>
+      <c r="AL187" s="21"/>
+      <c r="AM187" s="21"/>
+      <c r="AN187" s="21"/>
+      <c r="AO187" s="21"/>
+      <c r="AP187" s="21"/>
+      <c r="AQ187" s="21"/>
+      <c r="AR187" s="21"/>
+    </row>
+    <row r="188" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A188" s="6" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="188" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B188" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E188" s="3">
-        <v>7</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G188" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B189" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E189" s="28" t="s">
-        <v>165</v>
+        <v>147</v>
+      </c>
+      <c r="E189" s="3">
+        <v>7</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>162</v>
@@ -4006,13 +4012,13 @@
     </row>
     <row r="190" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B190" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E190" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>162</v>
@@ -4020,13 +4026,13 @@
     </row>
     <row r="191" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B191" s="6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E191" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>162</v>
@@ -4034,27 +4040,27 @@
     </row>
     <row r="192" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B192" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E192" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B193" s="31" t="s">
-        <v>181</v>
+      <c r="B193" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E193" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>162</v>
@@ -4062,27 +4068,27 @@
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B194" s="31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E194" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B195" s="6" t="s">
-        <v>4</v>
+      <c r="B195" s="31" t="s">
+        <v>179</v>
       </c>
       <c r="E195" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>162</v>
@@ -4090,13 +4096,13 @@
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B196" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E196" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>162</v>
@@ -4104,13 +4110,13 @@
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E197" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>162</v>
@@ -4118,13 +4124,13 @@
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" s="6" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E198" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>162</v>
@@ -4132,13 +4138,13 @@
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" s="6" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E199" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>162</v>
@@ -4146,13 +4152,13 @@
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B200" s="6" t="s">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="E200" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>162</v>
@@ -4160,13 +4166,13 @@
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E201" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>162</v>
@@ -4174,13 +4180,13 @@
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E202" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>162</v>
@@ -4188,13 +4194,13 @@
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B203" s="6" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="E203" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>162</v>
@@ -4202,13 +4208,13 @@
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B204" s="6" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E204" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>162</v>
@@ -4216,13 +4222,13 @@
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B205" s="6" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="E205" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>162</v>
@@ -4230,13 +4236,13 @@
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B206" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E206" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>162</v>
@@ -4244,13 +4250,13 @@
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B207" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E207" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>162</v>
@@ -4258,11 +4264,13 @@
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B208" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E208" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="E208" s="28" t="s">
+        <v>165</v>
+      </c>
       <c r="F208" s="4" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>162</v>
@@ -4270,198 +4278,196 @@
     </row>
     <row r="209" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B209" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E209" s="28" t="s">
-        <v>165</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E209" s="6"/>
       <c r="F209" s="4" t="s">
-        <v>80</v>
+        <v>166</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="210" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B210" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E210" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G210" s="5" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
     </row>
     <row r="211" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B211" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E211" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F211" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="212" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B212" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E212" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F212" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G211" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="212" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B212" s="17" t="s">
+      <c r="G212" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="213" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="B213" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E212" s="6"/>
-      <c r="F212" s="4" t="s">
+      <c r="E213" s="6"/>
+      <c r="F213" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="213" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B213" s="6" t="s">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B214" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E213" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C214" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="E214" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B215" s="6" t="s">
-        <v>21</v>
+      <c r="C215" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E215" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="216" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B216" s="6" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="E216" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G216" s="5" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
     </row>
     <row r="217" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B217" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E217" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="218" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B218" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C218" s="6" t="s">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="C219" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E218" s="28" t="s">
+      <c r="E219" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F218" s="6" t="s">
+      <c r="F219" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="219" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="21"/>
-      <c r="B219" s="21"/>
-      <c r="C219" s="32" t="s">
+    <row r="220" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="21"/>
+      <c r="B220" s="21"/>
+      <c r="C220" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="D219" s="21"/>
-      <c r="E219" s="21" t="s">
+      <c r="D220" s="21"/>
+      <c r="E220" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="F219" s="20" t="s">
+      <c r="F220" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G219" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="H219" s="21"/>
-      <c r="I219" s="21"/>
-      <c r="J219" s="21"/>
-      <c r="K219" s="21"/>
-      <c r="L219" s="21"/>
-      <c r="M219" s="21"/>
-      <c r="N219" s="21"/>
-      <c r="O219" s="21"/>
-      <c r="P219" s="21"/>
-      <c r="Q219" s="21"/>
-      <c r="R219" s="21"/>
-      <c r="S219" s="21"/>
-      <c r="T219" s="21"/>
-      <c r="U219" s="21"/>
-      <c r="V219" s="21"/>
-      <c r="W219" s="21"/>
-      <c r="X219" s="21"/>
-      <c r="Y219" s="21"/>
-      <c r="Z219" s="21"/>
-      <c r="AA219" s="21"/>
-      <c r="AB219" s="21"/>
-      <c r="AC219" s="21"/>
-      <c r="AD219" s="21"/>
-      <c r="AE219" s="21"/>
-      <c r="AF219" s="21"/>
-      <c r="AG219" s="21"/>
-      <c r="AH219" s="21"/>
-      <c r="AI219" s="21"/>
-      <c r="AJ219" s="21"/>
-      <c r="AK219" s="21"/>
-      <c r="AL219" s="21"/>
-      <c r="AM219" s="21"/>
-      <c r="AN219" s="21"/>
-      <c r="AO219" s="21"/>
-      <c r="AP219" s="21"/>
-      <c r="AQ219" s="21"/>
-      <c r="AR219" s="21"/>
-    </row>
-    <row r="220" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A220" s="6" t="s">
+      <c r="G220" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H220" s="21"/>
+      <c r="I220" s="21"/>
+      <c r="J220" s="21"/>
+      <c r="K220" s="21"/>
+      <c r="L220" s="21"/>
+      <c r="M220" s="21"/>
+      <c r="N220" s="21"/>
+      <c r="O220" s="21"/>
+      <c r="P220" s="21"/>
+      <c r="Q220" s="21"/>
+      <c r="R220" s="21"/>
+      <c r="S220" s="21"/>
+      <c r="T220" s="21"/>
+      <c r="U220" s="21"/>
+      <c r="V220" s="21"/>
+      <c r="W220" s="21"/>
+      <c r="X220" s="21"/>
+      <c r="Y220" s="21"/>
+      <c r="Z220" s="21"/>
+      <c r="AA220" s="21"/>
+      <c r="AB220" s="21"/>
+      <c r="AC220" s="21"/>
+      <c r="AD220" s="21"/>
+      <c r="AE220" s="21"/>
+      <c r="AF220" s="21"/>
+      <c r="AG220" s="21"/>
+      <c r="AH220" s="21"/>
+      <c r="AI220" s="21"/>
+      <c r="AJ220" s="21"/>
+      <c r="AK220" s="21"/>
+      <c r="AL220" s="21"/>
+      <c r="AM220" s="21"/>
+      <c r="AN220" s="21"/>
+      <c r="AO220" s="21"/>
+      <c r="AP220" s="21"/>
+      <c r="AQ220" s="21"/>
+      <c r="AR220" s="21"/>
+    </row>
+    <row r="221" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A221" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G220" s="7"/>
-    </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B221" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E221" s="3">
-        <v>7</v>
-      </c>
-      <c r="F221" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G221" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="G221" s="7"/>
     </row>
     <row r="222" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B222" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>172</v>
+        <v>147</v>
+      </c>
+      <c r="E222" s="3">
+        <v>7</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>162</v>
@@ -4469,13 +4475,13 @@
     </row>
     <row r="223" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B223" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>162</v>
@@ -4483,13 +4489,13 @@
     </row>
     <row r="224" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B224" s="6" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>162</v>
@@ -4497,168 +4503,166 @@
     </row>
     <row r="225" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B225" s="6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="226" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C226" s="6" t="s">
-        <v>100</v>
+      <c r="B226" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F226" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="227" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="C227" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F227" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="227" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="33" t="s">
+    <row r="228" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E227" s="34"/>
-      <c r="F227" s="35"/>
-      <c r="G227" s="36"/>
-      <c r="H227" s="36"/>
-      <c r="I227" s="36"/>
-      <c r="J227" s="36"/>
-      <c r="K227" s="36"/>
-      <c r="L227" s="36"/>
-      <c r="M227" s="36"/>
-      <c r="N227" s="36"/>
-      <c r="O227" s="36"/>
-      <c r="P227" s="36"/>
-      <c r="Q227" s="36"/>
-      <c r="R227" s="36"/>
-      <c r="S227" s="36"/>
-      <c r="T227" s="36"/>
-      <c r="U227" s="36"/>
-      <c r="V227" s="36"/>
-      <c r="W227" s="36"/>
-      <c r="X227" s="36"/>
-      <c r="Y227" s="36"/>
-      <c r="Z227" s="36"/>
-      <c r="AA227" s="36"/>
-      <c r="AB227" s="36"/>
-      <c r="AC227" s="36"/>
-      <c r="AD227" s="36"/>
-      <c r="AE227" s="36"/>
-      <c r="AF227" s="36"/>
-      <c r="AG227" s="36"/>
-      <c r="AH227" s="36"/>
-      <c r="AI227" s="36"/>
-      <c r="AJ227" s="36"/>
-      <c r="AK227" s="36"/>
-      <c r="AL227" s="36"/>
-      <c r="AM227" s="36"/>
-      <c r="AN227" s="36"/>
-      <c r="AO227" s="36"/>
-      <c r="AP227" s="36"/>
-      <c r="AQ227" s="36"/>
-      <c r="AR227" s="36"/>
-    </row>
-    <row r="228" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B228" s="6" t="s">
+      <c r="E228" s="34"/>
+      <c r="F228" s="35"/>
+      <c r="G228" s="36"/>
+      <c r="H228" s="36"/>
+      <c r="I228" s="36"/>
+      <c r="J228" s="36"/>
+      <c r="K228" s="36"/>
+      <c r="L228" s="36"/>
+      <c r="M228" s="36"/>
+      <c r="N228" s="36"/>
+      <c r="O228" s="36"/>
+      <c r="P228" s="36"/>
+      <c r="Q228" s="36"/>
+      <c r="R228" s="36"/>
+      <c r="S228" s="36"/>
+      <c r="T228" s="36"/>
+      <c r="U228" s="36"/>
+      <c r="V228" s="36"/>
+      <c r="W228" s="36"/>
+      <c r="X228" s="36"/>
+      <c r="Y228" s="36"/>
+      <c r="Z228" s="36"/>
+      <c r="AA228" s="36"/>
+      <c r="AB228" s="36"/>
+      <c r="AC228" s="36"/>
+      <c r="AD228" s="36"/>
+      <c r="AE228" s="36"/>
+      <c r="AF228" s="36"/>
+      <c r="AG228" s="36"/>
+      <c r="AH228" s="36"/>
+      <c r="AI228" s="36"/>
+      <c r="AJ228" s="36"/>
+      <c r="AK228" s="36"/>
+      <c r="AL228" s="36"/>
+      <c r="AM228" s="36"/>
+      <c r="AN228" s="36"/>
+      <c r="AO228" s="36"/>
+      <c r="AP228" s="36"/>
+      <c r="AQ228" s="36"/>
+      <c r="AR228" s="36"/>
+    </row>
+    <row r="229" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B229" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E228" s="3">
+      <c r="E229" s="3">
         <v>7</v>
       </c>
-      <c r="F228" s="4" t="s">
+      <c r="F229" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G228" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B229" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G229" s="22" t="s">
+      <c r="G229" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="230" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B230" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
-      <c r="E230" s="22"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="22"/>
+      <c r="E230" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G230" s="22" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="231" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B231" s="1"/>
-      <c r="C231" s="1" t="s">
+      <c r="B231" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="22"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="22"/>
+    </row>
+    <row r="232" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B232" s="1"/>
+      <c r="C232" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D231" s="1"/>
-      <c r="E231" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F231" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G231" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="232" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="C232" s="17" t="s">
-        <v>142</v>
-      </c>
+      <c r="D232" s="1"/>
       <c r="E232" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F232" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G232" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="233" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B233" s="1"/>
-      <c r="C233" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D233" s="1"/>
+      <c r="F232" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G232" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="233" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="C233" s="17" t="s">
+        <v>142</v>
+      </c>
       <c r="E233" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F233" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G233" s="15" t="s">
+      <c r="F233" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G233" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="234" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B234" s="1"/>
       <c r="C234" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G234" s="15" t="s">
         <v>162</v>
@@ -4667,291 +4671,234 @@
     <row r="235" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B235" s="1"/>
       <c r="C235" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F235" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G235" s="15"/>
+      <c r="F235" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G235" s="15" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="236" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C236" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" s="1"/>
       <c r="E236" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F236" s="14" t="s">
+      <c r="F236" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G236" s="15"/>
+    </row>
+    <row r="237" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E237" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F237" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G236" s="15"/>
-    </row>
-    <row r="237" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B237" s="1" t="s">
+      <c r="G237" s="15"/>
+    </row>
+    <row r="238" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B238" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="22"/>
-      <c r="F237" s="1"/>
-      <c r="G237" s="22"/>
-    </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B238" s="1"/>
-      <c r="C238" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C238" s="1"/>
       <c r="D238" s="1"/>
-      <c r="E238" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F238" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G238" s="15" t="s">
-        <v>162</v>
-      </c>
+      <c r="E238" s="22"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="22"/>
     </row>
     <row r="239" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B239" s="1"/>
       <c r="C239" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F239" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G239" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="G239" s="15" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="240" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B240" s="1"/>
       <c r="C240" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G240" s="15"/>
     </row>
     <row r="241" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B241" s="1"/>
       <c r="C241" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F241" s="14" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="G241" s="15"/>
     </row>
     <row r="242" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C242" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D242" s="1"/>
       <c r="E242" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F242" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G242" s="15"/>
     </row>
     <row r="243" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B243" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B243" s="1"/>
       <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
+      <c r="D243" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E243" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="G243" s="15"/>
     </row>
     <row r="244" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B244" s="1" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
-      <c r="E244" s="22"/>
-      <c r="F244" s="14"/>
+      <c r="E244" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F244" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="G244" s="15"/>
     </row>
     <row r="245" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B245" s="1"/>
-      <c r="C245" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B245" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C245" s="1"/>
       <c r="D245" s="1"/>
-      <c r="E245" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F245" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G245" s="15" t="s">
-        <v>162</v>
-      </c>
+      <c r="E245" s="22"/>
+      <c r="F245" s="14"/>
+      <c r="G245" s="15"/>
     </row>
     <row r="246" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B246" s="1"/>
       <c r="C246" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="22" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="F246" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G246" s="15"/>
+        <v>115</v>
+      </c>
+      <c r="G246" s="15" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="247" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B247" s="1"/>
       <c r="C247" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G247" s="15"/>
     </row>
     <row r="248" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B248" s="1"/>
       <c r="C248" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F248" s="14" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G248" s="15"/>
     </row>
     <row r="249" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C249" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D249" s="1"/>
       <c r="E249" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F249" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G249" s="15"/>
+    </row>
+    <row r="250" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E250" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F250" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G249" s="15"/>
-    </row>
-    <row r="250" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B250" s="1" t="s">
+      <c r="G250" s="15"/>
+    </row>
+    <row r="251" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B251" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="22"/>
-      <c r="F250" s="14"/>
-      <c r="G250" s="22"/>
-      <c r="Q250" s="30"/>
-      <c r="R250" s="30"/>
-      <c r="S250" s="30"/>
-      <c r="T250" s="30"/>
-      <c r="U250" s="30"/>
-      <c r="V250" s="30"/>
-      <c r="W250" s="30"/>
-      <c r="X250" s="30"/>
-      <c r="Y250" s="30"/>
-      <c r="Z250" s="30"/>
-      <c r="AA250" s="30"/>
-      <c r="AB250" s="30"/>
-      <c r="AC250" s="30"/>
-      <c r="AD250" s="30"/>
-      <c r="AE250" s="30"/>
-      <c r="AF250" s="30"/>
-      <c r="AG250" s="30"/>
-      <c r="AH250" s="30"/>
-      <c r="AI250" s="30"/>
-      <c r="AJ250" s="30"/>
-      <c r="AK250" s="30"/>
-      <c r="AL250" s="30"/>
-      <c r="AM250" s="30"/>
-      <c r="AN250" s="30"/>
-      <c r="AO250" s="30"/>
-      <c r="AP250" s="30"/>
-      <c r="AQ250" s="30"/>
-      <c r="AR250" s="30"/>
-      <c r="AS250" s="30"/>
-      <c r="AT250" s="30"/>
-      <c r="AU250" s="30"/>
-      <c r="AV250" s="30"/>
-      <c r="AW250" s="30"/>
-      <c r="AX250" s="30"/>
-      <c r="AY250" s="30"/>
-      <c r="AZ250" s="30"/>
-      <c r="BA250" s="30"/>
-      <c r="BB250" s="30"/>
-      <c r="BC250" s="30"/>
-      <c r="BD250" s="30"/>
-      <c r="BE250" s="30"/>
-      <c r="BF250" s="30"/>
-      <c r="BG250" s="30"/>
-      <c r="BH250" s="30"/>
-      <c r="BI250" s="30"/>
-      <c r="BJ250" s="30"/>
-      <c r="BK250" s="30"/>
-      <c r="BL250" s="30"/>
-      <c r="BM250" s="30"/>
-      <c r="BN250" s="30"/>
-      <c r="BO250" s="30"/>
-      <c r="BP250" s="30"/>
-      <c r="BQ250" s="30"/>
-      <c r="BR250" s="30"/>
-      <c r="BS250" s="30"/>
-      <c r="BT250" s="30"/>
-      <c r="BU250" s="30"/>
-      <c r="BV250" s="30"/>
-      <c r="BW250" s="30"/>
-    </row>
-    <row r="251" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B251" s="1"/>
-      <c r="C251" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="22"/>
-      <c r="F251" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G251" s="22" t="s">
-        <v>162</v>
-      </c>
+      <c r="F251" s="14"/>
+      <c r="G251" s="22"/>
       <c r="Q251" s="30"/>
       <c r="R251" s="30"/>
       <c r="S251" s="30"/>
@@ -5015,14 +4962,12 @@
     <row r="252" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B252" s="1"/>
       <c r="C252" s="1" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="D252" s="1"/>
-      <c r="E252" s="22" t="s">
-        <v>109</v>
-      </c>
+      <c r="E252" s="22"/>
       <c r="F252" s="14" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="G252" s="22" t="s">
         <v>162</v>
@@ -5090,16 +5035,18 @@
     <row r="253" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B253" s="1"/>
       <c r="C253" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G253" s="22"/>
+        <v>118</v>
+      </c>
+      <c r="G253" s="22" t="s">
+        <v>162</v>
+      </c>
       <c r="Q253" s="30"/>
       <c r="R253" s="30"/>
       <c r="S253" s="30"/>
@@ -5163,14 +5110,14 @@
     <row r="254" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B254" s="1"/>
       <c r="C254" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F254" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G254" s="22"/>
       <c r="Q254" s="30"/>
@@ -5236,14 +5183,14 @@
     <row r="255" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B255" s="1"/>
       <c r="C255" s="1" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F255" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G255" s="22"/>
       <c r="Q255" s="30"/>
@@ -5309,14 +5256,14 @@
     <row r="256" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B256" s="1"/>
       <c r="C256" s="1" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F256" s="14" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="G256" s="22"/>
       <c r="Q256" s="30"/>
@@ -5381,15 +5328,15 @@
     </row>
     <row r="257" spans="1:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C257" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D257" s="1"/>
       <c r="E257" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F257" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G257" s="22"/>
       <c r="Q257" s="30"/>
@@ -5452,23 +5399,82 @@
       <c r="BV257" s="30"/>
       <c r="BW257" s="30"/>
     </row>
-    <row r="258" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B258" s="1" t="s">
-        <v>113</v>
-      </c>
+    <row r="258" spans="1:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B258" s="1"/>
       <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
+      <c r="D258" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E258" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F258" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G258" s="15"/>
+        <v>101</v>
+      </c>
+      <c r="G258" s="22"/>
+      <c r="Q258" s="30"/>
+      <c r="R258" s="30"/>
+      <c r="S258" s="30"/>
+      <c r="T258" s="30"/>
+      <c r="U258" s="30"/>
+      <c r="V258" s="30"/>
+      <c r="W258" s="30"/>
+      <c r="X258" s="30"/>
+      <c r="Y258" s="30"/>
+      <c r="Z258" s="30"/>
+      <c r="AA258" s="30"/>
+      <c r="AB258" s="30"/>
+      <c r="AC258" s="30"/>
+      <c r="AD258" s="30"/>
+      <c r="AE258" s="30"/>
+      <c r="AF258" s="30"/>
+      <c r="AG258" s="30"/>
+      <c r="AH258" s="30"/>
+      <c r="AI258" s="30"/>
+      <c r="AJ258" s="30"/>
+      <c r="AK258" s="30"/>
+      <c r="AL258" s="30"/>
+      <c r="AM258" s="30"/>
+      <c r="AN258" s="30"/>
+      <c r="AO258" s="30"/>
+      <c r="AP258" s="30"/>
+      <c r="AQ258" s="30"/>
+      <c r="AR258" s="30"/>
+      <c r="AS258" s="30"/>
+      <c r="AT258" s="30"/>
+      <c r="AU258" s="30"/>
+      <c r="AV258" s="30"/>
+      <c r="AW258" s="30"/>
+      <c r="AX258" s="30"/>
+      <c r="AY258" s="30"/>
+      <c r="AZ258" s="30"/>
+      <c r="BA258" s="30"/>
+      <c r="BB258" s="30"/>
+      <c r="BC258" s="30"/>
+      <c r="BD258" s="30"/>
+      <c r="BE258" s="30"/>
+      <c r="BF258" s="30"/>
+      <c r="BG258" s="30"/>
+      <c r="BH258" s="30"/>
+      <c r="BI258" s="30"/>
+      <c r="BJ258" s="30"/>
+      <c r="BK258" s="30"/>
+      <c r="BL258" s="30"/>
+      <c r="BM258" s="30"/>
+      <c r="BN258" s="30"/>
+      <c r="BO258" s="30"/>
+      <c r="BP258" s="30"/>
+      <c r="BQ258" s="30"/>
+      <c r="BR258" s="30"/>
+      <c r="BS258" s="30"/>
+      <c r="BT258" s="30"/>
+      <c r="BU258" s="30"/>
+      <c r="BV258" s="30"/>
+      <c r="BW258" s="30"/>
     </row>
     <row r="259" spans="1:75" x14ac:dyDescent="0.2">
       <c r="B259" s="1" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -5476,189 +5482,192 @@
         <v>109</v>
       </c>
       <c r="F259" s="14" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G259" s="15"/>
     </row>
     <row r="260" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B260" s="1"/>
-      <c r="C260" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="B260" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F260" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G260" s="15"/>
+    </row>
+    <row r="261" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="B261" s="1"/>
+      <c r="C261" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D261" s="1"/>
+      <c r="E261" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F261" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G260" s="15"/>
-    </row>
-    <row r="261" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B261" s="1" t="s">
+      <c r="G261" s="15"/>
+    </row>
+    <row r="262" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="B262" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="E261" s="22"/>
-      <c r="F261" s="1"/>
-      <c r="G261" s="22"/>
-    </row>
-    <row r="262" spans="1:75" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B262" s="23"/>
-      <c r="C262" s="23" t="s">
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="22"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="22"/>
+    </row>
+    <row r="263" spans="1:75" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B263" s="23"/>
+      <c r="C263" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D262" s="23"/>
-      <c r="E262" s="24" t="s">
+      <c r="D263" s="23"/>
+      <c r="E263" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F262" s="23" t="s">
+      <c r="F263" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G262" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="H262" s="21"/>
-      <c r="I262" s="21"/>
-      <c r="J262" s="21"/>
-      <c r="K262" s="21"/>
-      <c r="L262" s="21"/>
-      <c r="M262" s="21"/>
-      <c r="N262" s="21"/>
-      <c r="O262" s="21"/>
-      <c r="P262" s="21"/>
-      <c r="Q262" s="21"/>
-      <c r="R262" s="21"/>
-      <c r="S262" s="21"/>
-      <c r="T262" s="21"/>
-      <c r="U262" s="21"/>
-      <c r="V262" s="21"/>
-      <c r="W262" s="21"/>
-      <c r="X262" s="21"/>
-      <c r="Y262" s="21"/>
-      <c r="Z262" s="21"/>
-      <c r="AA262" s="21"/>
-      <c r="AB262" s="21"/>
-      <c r="AC262" s="21"/>
-      <c r="AD262" s="21"/>
-      <c r="AE262" s="21"/>
-      <c r="AF262" s="21"/>
-      <c r="AG262" s="21"/>
-      <c r="AH262" s="21"/>
-      <c r="AI262" s="21"/>
-      <c r="AJ262" s="21"/>
-      <c r="AK262" s="21"/>
-      <c r="AL262" s="21"/>
-      <c r="AM262" s="21"/>
-      <c r="AN262" s="21"/>
-      <c r="AO262" s="21"/>
-      <c r="AP262" s="21"/>
-      <c r="AQ262" s="21"/>
-      <c r="AR262" s="21"/>
-    </row>
-    <row r="263" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A263" s="6" t="s">
+      <c r="G263" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H263" s="21"/>
+      <c r="I263" s="21"/>
+      <c r="J263" s="21"/>
+      <c r="K263" s="21"/>
+      <c r="L263" s="21"/>
+      <c r="M263" s="21"/>
+      <c r="N263" s="21"/>
+      <c r="O263" s="21"/>
+      <c r="P263" s="21"/>
+      <c r="Q263" s="21"/>
+      <c r="R263" s="21"/>
+      <c r="S263" s="21"/>
+      <c r="T263" s="21"/>
+      <c r="U263" s="21"/>
+      <c r="V263" s="21"/>
+      <c r="W263" s="21"/>
+      <c r="X263" s="21"/>
+      <c r="Y263" s="21"/>
+      <c r="Z263" s="21"/>
+      <c r="AA263" s="21"/>
+      <c r="AB263" s="21"/>
+      <c r="AC263" s="21"/>
+      <c r="AD263" s="21"/>
+      <c r="AE263" s="21"/>
+      <c r="AF263" s="21"/>
+      <c r="AG263" s="21"/>
+      <c r="AH263" s="21"/>
+      <c r="AI263" s="21"/>
+      <c r="AJ263" s="21"/>
+      <c r="AK263" s="21"/>
+      <c r="AL263" s="21"/>
+      <c r="AM263" s="21"/>
+      <c r="AN263" s="21"/>
+      <c r="AO263" s="21"/>
+      <c r="AP263" s="21"/>
+      <c r="AQ263" s="21"/>
+      <c r="AR263" s="21"/>
+    </row>
+    <row r="264" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A264" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="E263" s="22"/>
-      <c r="F263" s="14"/>
-    </row>
-    <row r="264" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B264" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E264" s="3">
-        <v>7</v>
-      </c>
-      <c r="F264" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G264" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="22"/>
+      <c r="F264" s="14"/>
     </row>
     <row r="265" spans="1:75" x14ac:dyDescent="0.2">
       <c r="B265" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E265" s="3" t="s">
-        <v>195</v>
+        <v>147</v>
+      </c>
+      <c r="E265" s="3">
+        <v>7</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
     </row>
     <row r="266" spans="1:75" x14ac:dyDescent="0.2">
       <c r="B266" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>195</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>94</v>
+        <v>56</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="267" spans="1:75" x14ac:dyDescent="0.2">
       <c r="B267" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>195</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G267" s="5" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="268" spans="1:75" x14ac:dyDescent="0.2">
       <c r="B268" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G268" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="269" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="B269" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E268" s="3">
-        <v>4</v>
-      </c>
-      <c r="F268" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="269" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="C269" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="E269" s="3">
         <v>4</v>
       </c>
       <c r="F269" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="270" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="C270" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E270" s="3">
+        <v>4</v>
+      </c>
+      <c r="F270" s="4" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="270" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B270" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E270" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F270" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="271" spans="1:75" x14ac:dyDescent="0.2">
       <c r="B271" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E271" s="3">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="F271" s="4" t="s">
         <v>102</v>
@@ -5666,29 +5675,40 @@
     </row>
     <row r="272" spans="1:75" x14ac:dyDescent="0.2">
       <c r="B272" s="6" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="E272" s="3">
         <v>4</v>
       </c>
-      <c r="F272" s="37" t="s">
-        <v>198</v>
+      <c r="F272" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B273" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E273" s="3">
         <v>4</v>
       </c>
-      <c r="F273" s="4" t="s">
+      <c r="F273" s="37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B274" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E274" s="3">
+        <v>4</v>
+      </c>
+      <c r="F274" s="4" t="s">
         <v>199</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A99:CC107">
-    <sortCondition ref="E99:E107"/>
+  <sortState ref="A100:CC108">
+    <sortCondition ref="E100:E108"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5702,15 +5722,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100693BD51F8350324485FD573DEA5308EA" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="3a5ad946f0818aa27759232261042403">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bcfd11aa4d094f7496148c95fffd8c5">
     <xsd:element name="properties">
@@ -5824,6 +5835,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1ED0FDE-263A-4F6E-9471-50CE8FD4814D}">
   <ds:schemaRefs>
@@ -5840,14 +5860,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E1EA3A-64D8-4C02-BC91-1B1F72624C50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CCE2042-532F-4C03-816B-30C6EAF92BA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5861,4 +5873,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E1EA3A-64D8-4C02-BC91-1B1F72624C50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/GitHub/Haal-Centraal-BRP-bevragen/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0cdfa699d55e43c7/VNGRealisatie/Haal Centraal/Haal Centraal-Bevragingen BRP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5BECA4-1FDF-654D-BBAF-4560C229069F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{72DEA0CC-FC63-4E5F-AB47-CF22130E6723}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4F1478E3-5F93-4F29-99AE-0ED897601B28}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29740" windowHeight="17800" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping API-GBA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="203">
   <si>
     <t>_links</t>
   </si>
@@ -743,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -812,6 +812,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1153,33 +1156,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BW274"/>
+  <dimension ref="A1:BW277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="L163" sqref="L163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="3.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="28" width="3.6640625" style="7" customWidth="1"/>
-    <col min="29" max="44" width="9.1640625" style="7"/>
-    <col min="45" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="3" width="3.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="28" width="3.7109375" style="7" customWidth="1"/>
+    <col min="29" max="44" width="9.140625" style="7"/>
+    <col min="45" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="G1" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="E2" s="9" t="s">
         <v>83</v>
@@ -1191,13 +1194,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1248,12 +1251,12 @@
       <c r="AQ4" s="15"/>
       <c r="AR4" s="15"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>142</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>201</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>175</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
         <v>100</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>137</v>
       </c>
@@ -1419,7 +1422,7 @@
       <c r="AQ15" s="6"/>
       <c r="AR15" s="6"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>138</v>
       </c>
@@ -1468,7 +1471,7 @@
       <c r="AQ16" s="6"/>
       <c r="AR16" s="6"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>186</v>
       </c>
@@ -1517,7 +1520,7 @@
       <c r="AQ17" s="6"/>
       <c r="AR17" s="6"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>139</v>
       </c>
@@ -1568,12 +1571,12 @@
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6"/>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
         <v>100</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
@@ -1651,12 +1654,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>24</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>119</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>147</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>17</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>100</v>
       </c>
@@ -1725,7 +1728,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>187</v>
       </c>
@@ -1770,7 +1773,7 @@
       <c r="AQ33" s="5"/>
       <c r="AR33" s="5"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>18</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>20</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>19</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>17</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
         <v>100</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>21</v>
       </c>
@@ -1842,12 +1845,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>24</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>26</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>23</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>7</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>17</v>
       </c>
@@ -1908,7 +1911,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C46" s="6" t="s">
         <v>100</v>
       </c>
@@ -1919,12 +1922,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>32</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>35</v>
       </c>
@@ -1952,7 +1955,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>28</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>34</v>
       </c>
@@ -1980,7 +1983,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="31" t="s">
         <v>181</v>
       </c>
@@ -1994,7 +1997,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="31" t="s">
         <v>179</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>4</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>5</v>
       </c>
@@ -2036,7 +2039,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>6</v>
       </c>
@@ -2050,7 +2053,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>31</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>3</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>183</v>
       </c>
@@ -2092,7 +2095,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>185</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>184</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>29</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>7</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>74</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>75</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>76</v>
       </c>
@@ -2190,7 +2193,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>140</v>
       </c>
@@ -2241,7 +2244,7 @@
       <c r="AQ67" s="6"/>
       <c r="AR67" s="6"/>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>36</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
         <v>33</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>30</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="17" t="s">
         <v>141</v>
       </c>
@@ -2328,7 +2331,7 @@
       <c r="AQ71" s="6"/>
       <c r="AR71" s="6"/>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>17</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C73" s="6" t="s">
         <v>100</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
         <v>21</v>
       </c>
@@ -2361,12 +2364,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>41</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
         <v>8</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
         <v>42</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="17" t="s">
         <v>145</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>17</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C81" s="6" t="s">
         <v>100</v>
       </c>
@@ -2444,12 +2447,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
         <v>39</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>38</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
         <v>17</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C86" s="6" t="s">
         <v>100</v>
       </c>
@@ -2499,12 +2502,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
         <v>155</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
         <v>81</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>107</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>82</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>44</v>
       </c>
@@ -2562,12 +2565,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
         <v>1</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B95" s="6" t="s">
         <v>43</v>
       </c>
@@ -2592,7 +2595,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>47</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>190</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>45</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
         <v>44</v>
       </c>
@@ -2639,7 +2642,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
         <v>46</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
         <v>164</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="102" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="18" t="s">
         <v>157</v>
       </c>
@@ -2702,7 +2705,7 @@
       <c r="AQ102" s="21"/>
       <c r="AR102" s="21"/>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>43</v>
       </c>
@@ -2710,7 +2713,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>158</v>
       </c>
@@ -2726,7 +2729,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>9</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>2</v>
       </c>
@@ -2752,7 +2755,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="22"/>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
         <v>13</v>
@@ -2768,7 +2771,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="108" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="17" t="s">
         <v>142</v>
@@ -2784,182 +2787,182 @@
         <v>162</v>
       </c>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B109" s="1"/>
-      <c r="C109" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="1"/>
-      <c r="E109" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="C109" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E109" s="38">
+        <v>44257</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="22" t="s">
         <v>111</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G110" s="15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F111" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G111" s="15"/>
-    </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="F111" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="1"/>
       <c r="E112" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F112" s="14" t="s">
+      <c r="F112" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G112" s="15"/>
+    </row>
+    <row r="113" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F113" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G112" s="15"/>
-    </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B113" s="1" t="s">
+      <c r="G113" s="15"/>
+    </row>
+    <row r="114" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="22"/>
-    </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B114" s="1"/>
-      <c r="C114" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F114" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="E114" s="22"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="22"/>
+    </row>
+    <row r="115" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="22" t="s">
         <v>111</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G115" s="15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="22" t="s">
         <v>111</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G116" s="15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="22" t="s">
         <v>111</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G117" s="15"/>
-    </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="1"/>
       <c r="E118" s="22" t="s">
         <v>111</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G118" s="15"/>
     </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B119" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="119" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E119" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="F119" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G119" s="15"/>
+    </row>
+    <row r="120" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F120" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G120" s="15"/>
-    </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="F120" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2967,871 +2970,871 @@
         <v>111</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G121" s="15"/>
     </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B122" s="1"/>
-      <c r="C122" s="1" t="s">
-        <v>100</v>
-      </c>
+    <row r="122" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="22" t="s">
         <v>111</v>
       </c>
       <c r="F122" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G122" s="15"/>
+    </row>
+    <row r="123" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F123" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G122" s="15"/>
-    </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B123" s="1" t="s">
+      <c r="G123" s="15"/>
+    </row>
+    <row r="124" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="22"/>
-    </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B124" s="1"/>
-      <c r="C124" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="22"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="23"/>
-      <c r="C125" s="23" t="s">
+      <c r="G124" s="22"/>
+    </row>
+    <row r="125" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="23"/>
+      <c r="C126" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D125" s="23"/>
-      <c r="E125" s="24" t="s">
+      <c r="D126" s="23"/>
+      <c r="E126" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F125" s="23" t="s">
+      <c r="F126" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G125" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="H125" s="21"/>
-      <c r="I125" s="21"/>
-      <c r="J125" s="21"/>
-      <c r="K125" s="21"/>
-      <c r="L125" s="21"/>
-      <c r="M125" s="21"/>
-      <c r="N125" s="21"/>
-      <c r="O125" s="21"/>
-      <c r="P125" s="21"/>
-      <c r="Q125" s="21"/>
-      <c r="R125" s="21"/>
-      <c r="S125" s="21"/>
-      <c r="T125" s="21"/>
-      <c r="U125" s="21"/>
-      <c r="V125" s="21"/>
-      <c r="W125" s="21"/>
-      <c r="X125" s="21"/>
-      <c r="Y125" s="21"/>
-      <c r="Z125" s="21"/>
-      <c r="AA125" s="21"/>
-      <c r="AB125" s="21"/>
-      <c r="AC125" s="21"/>
-      <c r="AD125" s="21"/>
-      <c r="AE125" s="21"/>
-      <c r="AF125" s="21"/>
-      <c r="AG125" s="21"/>
-      <c r="AH125" s="21"/>
-      <c r="AI125" s="21"/>
-      <c r="AJ125" s="21"/>
-      <c r="AK125" s="21"/>
-      <c r="AL125" s="21"/>
-      <c r="AM125" s="21"/>
-      <c r="AN125" s="21"/>
-      <c r="AO125" s="21"/>
-      <c r="AP125" s="21"/>
-      <c r="AQ125" s="21"/>
-      <c r="AR125" s="21"/>
-    </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
+      <c r="G126" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
+      <c r="J126" s="21"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="21"/>
+      <c r="M126" s="21"/>
+      <c r="N126" s="21"/>
+      <c r="O126" s="21"/>
+      <c r="P126" s="21"/>
+      <c r="Q126" s="21"/>
+      <c r="R126" s="21"/>
+      <c r="S126" s="21"/>
+      <c r="T126" s="21"/>
+      <c r="U126" s="21"/>
+      <c r="V126" s="21"/>
+      <c r="W126" s="21"/>
+      <c r="X126" s="21"/>
+      <c r="Y126" s="21"/>
+      <c r="Z126" s="21"/>
+      <c r="AA126" s="21"/>
+      <c r="AB126" s="21"/>
+      <c r="AC126" s="21"/>
+      <c r="AD126" s="21"/>
+      <c r="AE126" s="21"/>
+      <c r="AF126" s="21"/>
+      <c r="AG126" s="21"/>
+      <c r="AH126" s="21"/>
+      <c r="AI126" s="21"/>
+      <c r="AJ126" s="21"/>
+      <c r="AK126" s="21"/>
+      <c r="AL126" s="21"/>
+      <c r="AM126" s="21"/>
+      <c r="AN126" s="21"/>
+      <c r="AO126" s="21"/>
+      <c r="AP126" s="21"/>
+      <c r="AQ126" s="21"/>
+      <c r="AR126" s="21"/>
+    </row>
+    <row r="127" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G127" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B128" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="22"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B129" s="1"/>
-      <c r="C129" s="1" t="s">
+      <c r="E128" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="22"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D129" s="1"/>
-      <c r="E129" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G129" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="C130" s="17" t="s">
-        <v>142</v>
-      </c>
+      <c r="D130" s="1"/>
       <c r="E130" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F130" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B131" s="1"/>
-      <c r="C131" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="1"/>
+      <c r="F130" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G130" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C131" s="17" t="s">
+        <v>142</v>
+      </c>
       <c r="E131" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F131" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G131" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B132" s="1"/>
-      <c r="C132" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="1"/>
-      <c r="E132" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G132" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F131" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C132" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E132" s="3">
+        <v>5</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F133" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G133" s="15"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F133" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="1"/>
       <c r="E134" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G134" s="15"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B135" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C135" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="1"/>
+      <c r="C135" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D135" s="1"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="22"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E135" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G135" s="15"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
-      <c r="C136" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E136" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B137" s="1"/>
-      <c r="C137" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G136" s="15"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F137" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G137" s="15"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E137" s="22"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="22"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G138" s="15"/>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="G138" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="G139" s="15"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="1"/>
       <c r="E140" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="G140" s="15"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B141" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141" s="1"/>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D141" s="1"/>
       <c r="E141" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="G141" s="15"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B142" s="1" t="s">
-        <v>161</v>
-      </c>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="22"/>
-      <c r="F142" s="14"/>
+      <c r="D142" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B143" s="1"/>
-      <c r="C143" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B144" s="1"/>
-      <c r="C144" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G143" s="15"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C144" s="1"/>
       <c r="D144" s="1"/>
-      <c r="E144" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>116</v>
-      </c>
+      <c r="E144" s="22"/>
+      <c r="F144" s="14"/>
       <c r="G144" s="15"/>
     </row>
-    <row r="145" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G145" s="15"/>
-    </row>
-    <row r="146" spans="1:44" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="146" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G146" s="15"/>
     </row>
-    <row r="147" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="1"/>
       <c r="E147" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="G147" s="15"/>
     </row>
-    <row r="148" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B148" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C148" s="1"/>
+    <row r="148" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D148" s="1"/>
       <c r="E148" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G148" s="15"/>
     </row>
-    <row r="149" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B149" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="149" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E149" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G149" s="15"/>
     </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B150" s="1"/>
-      <c r="C150" s="1" t="s">
-        <v>100</v>
-      </c>
+    <row r="150" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="G150" s="15"/>
     </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="22"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="22"/>
-    </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="E151" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G151" s="15"/>
+    </row>
+    <row r="152" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G152" s="15"/>
+    </row>
+    <row r="153" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="22"/>
+    </row>
+    <row r="154" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D152" s="1"/>
-      <c r="E152" s="22"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="153" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="23"/>
-      <c r="C153" s="23" t="s">
+      <c r="D154" s="1"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="155" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="23"/>
+      <c r="C155" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D153" s="23"/>
-      <c r="E153" s="24" t="s">
+      <c r="D155" s="23"/>
+      <c r="E155" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F153" s="23" t="s">
+      <c r="F155" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G153" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="H153" s="21"/>
-      <c r="I153" s="21"/>
-      <c r="J153" s="21"/>
-      <c r="K153" s="21"/>
-      <c r="L153" s="21"/>
-      <c r="M153" s="21"/>
-      <c r="N153" s="21"/>
-      <c r="O153" s="21"/>
-      <c r="P153" s="21"/>
-      <c r="Q153" s="21"/>
-      <c r="R153" s="21"/>
-      <c r="S153" s="21"/>
-      <c r="T153" s="21"/>
-      <c r="U153" s="21"/>
-      <c r="V153" s="21"/>
-      <c r="W153" s="21"/>
-      <c r="X153" s="21"/>
-      <c r="Y153" s="21"/>
-      <c r="Z153" s="21"/>
-      <c r="AA153" s="21"/>
-      <c r="AB153" s="21"/>
-      <c r="AC153" s="21"/>
-      <c r="AD153" s="21"/>
-      <c r="AE153" s="21"/>
-      <c r="AF153" s="21"/>
-      <c r="AG153" s="21"/>
-      <c r="AH153" s="21"/>
-      <c r="AI153" s="21"/>
-      <c r="AJ153" s="21"/>
-      <c r="AK153" s="21"/>
-      <c r="AL153" s="21"/>
-      <c r="AM153" s="21"/>
-      <c r="AN153" s="21"/>
-      <c r="AO153" s="21"/>
-      <c r="AP153" s="21"/>
-      <c r="AQ153" s="21"/>
-      <c r="AR153" s="21"/>
-    </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A154" s="6" t="s">
+      <c r="G155" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H155" s="21"/>
+      <c r="I155" s="21"/>
+      <c r="J155" s="21"/>
+      <c r="K155" s="21"/>
+      <c r="L155" s="21"/>
+      <c r="M155" s="21"/>
+      <c r="N155" s="21"/>
+      <c r="O155" s="21"/>
+      <c r="P155" s="21"/>
+      <c r="Q155" s="21"/>
+      <c r="R155" s="21"/>
+      <c r="S155" s="21"/>
+      <c r="T155" s="21"/>
+      <c r="U155" s="21"/>
+      <c r="V155" s="21"/>
+      <c r="W155" s="21"/>
+      <c r="X155" s="21"/>
+      <c r="Y155" s="21"/>
+      <c r="Z155" s="21"/>
+      <c r="AA155" s="21"/>
+      <c r="AB155" s="21"/>
+      <c r="AC155" s="21"/>
+      <c r="AD155" s="21"/>
+      <c r="AE155" s="21"/>
+      <c r="AF155" s="21"/>
+      <c r="AG155" s="21"/>
+      <c r="AH155" s="21"/>
+      <c r="AI155" s="21"/>
+      <c r="AJ155" s="21"/>
+      <c r="AK155" s="21"/>
+      <c r="AL155" s="21"/>
+      <c r="AM155" s="21"/>
+      <c r="AN155" s="21"/>
+      <c r="AO155" s="21"/>
+      <c r="AP155" s="21"/>
+      <c r="AQ155" s="21"/>
+      <c r="AR155" s="21"/>
+    </row>
+    <row r="156" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B155" s="16" t="s">
+    <row r="157" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B157" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="5">
-        <v>9</v>
-      </c>
-      <c r="F155" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B156" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16"/>
-      <c r="F156" s="16"/>
-    </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B157" s="16"/>
-      <c r="C157" s="16" t="s">
-        <v>13</v>
-      </c>
+      <c r="C157" s="16"/>
       <c r="D157" s="16"/>
       <c r="E157" s="5">
         <v>9</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B158" s="12"/>
-      <c r="C158" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D158" s="12"/>
-      <c r="E158" s="5">
-        <v>9</v>
-      </c>
-      <c r="F158" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="159" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B158" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
+    </row>
+    <row r="159" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B159" s="16"/>
       <c r="C159" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D159" s="16"/>
       <c r="E159" s="5">
         <v>9</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="160" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B160" s="16"/>
-      <c r="C160" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" s="16"/>
+    <row r="160" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B160" s="12"/>
+      <c r="C160" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D160" s="12"/>
       <c r="E160" s="5">
         <v>9</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="161" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B161" s="16"/>
-      <c r="C161" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" s="16"/>
-      <c r="E161" s="5">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C161" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E161" s="3">
         <v>9</v>
       </c>
-      <c r="F161" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="162" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="F161" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="16"/>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16" t="s">
-        <v>100</v>
-      </c>
+      <c r="C162" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="16"/>
       <c r="E162" s="5">
         <v>9</v>
       </c>
       <c r="F162" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="163" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B163" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C163" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="16"/>
+      <c r="C163" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="D163" s="16"/>
       <c r="E163" s="5">
         <v>9</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B164" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C164" s="16"/>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="16"/>
+      <c r="C164" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
-      <c r="F164" s="16"/>
-    </row>
-    <row r="165" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="E164" s="5">
+        <v>9</v>
+      </c>
+      <c r="F164" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="16"/>
-      <c r="C165" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D165" s="16"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16" t="s">
+        <v>100</v>
+      </c>
       <c r="E165" s="5">
         <v>9</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="166" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B166" s="16"/>
-      <c r="C166" s="16" t="s">
-        <v>23</v>
-      </c>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C166" s="16"/>
       <c r="D166" s="16"/>
       <c r="E166" s="5">
         <v>9</v>
       </c>
       <c r="F166" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="167" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B167" s="16"/>
-      <c r="C167" s="16" t="s">
-        <v>7</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" s="16"/>
       <c r="D167" s="16"/>
-      <c r="E167" s="5">
-        <v>9</v>
-      </c>
-      <c r="F167" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="168" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="16"/>
       <c r="C168" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D168" s="16"/>
       <c r="E168" s="5">
         <v>9</v>
       </c>
       <c r="F168" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="169" spans="1:44" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="16"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16" t="s">
-        <v>100</v>
-      </c>
+      <c r="C169" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" s="16"/>
       <c r="E169" s="5">
         <v>9</v>
       </c>
       <c r="F169" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="170" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B170" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C170" s="16"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="16"/>
+      <c r="C170" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D170" s="16"/>
       <c r="E170" s="5">
         <v>9</v>
       </c>
       <c r="F170" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="16"/>
       <c r="C171" s="16" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D171" s="16"/>
       <c r="E171" s="5">
         <v>9</v>
       </c>
       <c r="F171" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="16"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E172" s="5">
+        <v>9</v>
+      </c>
+      <c r="F172" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B172" s="16" t="s">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="5">
+        <v>9</v>
+      </c>
+      <c r="F173" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="16"/>
+      <c r="C174" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D174" s="16"/>
+      <c r="E174" s="5">
+        <v>9</v>
+      </c>
+      <c r="F174" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C172" s="16"/>
-      <c r="D172" s="16"/>
-      <c r="E172" s="16"/>
-      <c r="F172" s="16"/>
-    </row>
-    <row r="173" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B173" s="16"/>
-      <c r="C173" s="16" t="s">
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="16"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176" s="16"/>
+      <c r="C176" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D173" s="16"/>
-      <c r="E173" s="16"/>
-      <c r="F173" s="16"/>
-    </row>
-    <row r="174" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C174" s="23" t="s">
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+    </row>
+    <row r="177" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C177" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="E174" s="21">
+      <c r="E177" s="21">
         <v>9</v>
       </c>
-      <c r="F174" s="18" t="s">
+      <c r="F177" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G174" s="21"/>
-      <c r="H174" s="21"/>
-      <c r="I174" s="21"/>
-      <c r="J174" s="21"/>
-      <c r="K174" s="21"/>
-      <c r="L174" s="21"/>
-      <c r="M174" s="21"/>
-      <c r="N174" s="21"/>
-      <c r="O174" s="21"/>
-      <c r="P174" s="21"/>
-      <c r="Q174" s="21"/>
-      <c r="R174" s="21"/>
-      <c r="S174" s="21"/>
-      <c r="T174" s="21"/>
-      <c r="U174" s="21"/>
-      <c r="V174" s="21"/>
-      <c r="W174" s="21"/>
-      <c r="X174" s="21"/>
-      <c r="Y174" s="21"/>
-      <c r="Z174" s="21"/>
-      <c r="AA174" s="21"/>
-      <c r="AB174" s="21"/>
-      <c r="AC174" s="21"/>
-      <c r="AD174" s="21"/>
-      <c r="AE174" s="21"/>
-      <c r="AF174" s="21"/>
-      <c r="AG174" s="21"/>
-      <c r="AH174" s="21"/>
-      <c r="AI174" s="21"/>
-      <c r="AJ174" s="21"/>
-      <c r="AK174" s="21"/>
-      <c r="AL174" s="21"/>
-      <c r="AM174" s="21"/>
-      <c r="AN174" s="21"/>
-      <c r="AO174" s="21"/>
-      <c r="AP174" s="21"/>
-      <c r="AQ174" s="21"/>
-      <c r="AR174" s="21"/>
-    </row>
-    <row r="175" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A175" s="6" t="s">
+      <c r="G177" s="21"/>
+      <c r="H177" s="21"/>
+      <c r="I177" s="21"/>
+      <c r="J177" s="21"/>
+      <c r="K177" s="21"/>
+      <c r="L177" s="21"/>
+      <c r="M177" s="21"/>
+      <c r="N177" s="21"/>
+      <c r="O177" s="21"/>
+      <c r="P177" s="21"/>
+      <c r="Q177" s="21"/>
+      <c r="R177" s="21"/>
+      <c r="S177" s="21"/>
+      <c r="T177" s="21"/>
+      <c r="U177" s="21"/>
+      <c r="V177" s="21"/>
+      <c r="W177" s="21"/>
+      <c r="X177" s="21"/>
+      <c r="Y177" s="21"/>
+      <c r="Z177" s="21"/>
+      <c r="AA177" s="21"/>
+      <c r="AB177" s="21"/>
+      <c r="AC177" s="21"/>
+      <c r="AD177" s="21"/>
+      <c r="AE177" s="21"/>
+      <c r="AF177" s="21"/>
+      <c r="AG177" s="21"/>
+      <c r="AH177" s="21"/>
+      <c r="AI177" s="21"/>
+      <c r="AJ177" s="21"/>
+      <c r="AK177" s="21"/>
+      <c r="AL177" s="21"/>
+      <c r="AM177" s="21"/>
+      <c r="AN177" s="21"/>
+      <c r="AO177" s="21"/>
+      <c r="AP177" s="21"/>
+      <c r="AQ177" s="21"/>
+      <c r="AR177" s="21"/>
+    </row>
+    <row r="178" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="176" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B176" s="1" t="s">
+    <row r="179" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B179" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G176" s="22"/>
-    </row>
-    <row r="177" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B177" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G177" s="22"/>
-    </row>
-    <row r="178" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B178" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G178" s="22"/>
-    </row>
-    <row r="179" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B179" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -3839,27 +3842,27 @@
         <v>129</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G179" s="22"/>
     </row>
-    <row r="180" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
       <c r="E180" s="22" t="s">
         <v>129</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="G180" s="22"/>
     </row>
-    <row r="181" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -3867,13 +3870,13 @@
         <v>129</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G181" s="22"/>
     </row>
-    <row r="182" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B182" s="26" t="s">
-        <v>143</v>
+    <row r="182" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -3881,13 +3884,13 @@
         <v>129</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G182" s="22"/>
     </row>
-    <row r="183" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B183" s="27" t="s">
-        <v>144</v>
+    <row r="183" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -3895,26 +3898,27 @@
         <v>129</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="G183" s="22"/>
     </row>
-    <row r="184" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B184" s="16"/>
-      <c r="C184" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D184" s="16"/>
-      <c r="E184" s="5">
-        <v>12</v>
-      </c>
-      <c r="F184" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="185" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B185" s="1" t="s">
-        <v>0</v>
+    <row r="184" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G184" s="22"/>
+    </row>
+    <row r="185" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B185" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -3922,1203 +3926,1023 @@
         <v>129</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="G185" s="22"/>
     </row>
-    <row r="186" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B186" s="1"/>
-      <c r="C186" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="186" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B186" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="22" t="s">
         <v>129</v>
       </c>
       <c r="F186" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G186" s="22"/>
+    </row>
+    <row r="187" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B187" s="16"/>
+      <c r="C187" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D187" s="16"/>
+      <c r="E187" s="5">
+        <v>12</v>
+      </c>
+      <c r="F187" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="188" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F188" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G186" s="22"/>
-    </row>
-    <row r="187" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="23"/>
-      <c r="C187" s="23" t="s">
+      <c r="G188" s="22"/>
+    </row>
+    <row r="189" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B189" s="1"/>
+      <c r="C189" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G189" s="22"/>
+    </row>
+    <row r="190" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="23"/>
+      <c r="C190" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D187" s="23"/>
-      <c r="E187" s="24" t="s">
+      <c r="D190" s="23"/>
+      <c r="E190" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F187" s="23" t="s">
+      <c r="F190" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G187" s="24"/>
-      <c r="H187" s="21"/>
-      <c r="I187" s="21"/>
-      <c r="J187" s="21"/>
-      <c r="K187" s="21"/>
-      <c r="L187" s="21"/>
-      <c r="M187" s="21"/>
-      <c r="N187" s="21"/>
-      <c r="O187" s="21"/>
-      <c r="P187" s="21"/>
-      <c r="Q187" s="21"/>
-      <c r="R187" s="21"/>
-      <c r="S187" s="21"/>
-      <c r="T187" s="21"/>
-      <c r="U187" s="21"/>
-      <c r="V187" s="21"/>
-      <c r="W187" s="21"/>
-      <c r="X187" s="21"/>
-      <c r="Y187" s="21"/>
-      <c r="Z187" s="21"/>
-      <c r="AA187" s="21"/>
-      <c r="AB187" s="21"/>
-      <c r="AC187" s="21"/>
-      <c r="AD187" s="21"/>
-      <c r="AE187" s="21"/>
-      <c r="AF187" s="21"/>
-      <c r="AG187" s="21"/>
-      <c r="AH187" s="21"/>
-      <c r="AI187" s="21"/>
-      <c r="AJ187" s="21"/>
-      <c r="AK187" s="21"/>
-      <c r="AL187" s="21"/>
-      <c r="AM187" s="21"/>
-      <c r="AN187" s="21"/>
-      <c r="AO187" s="21"/>
-      <c r="AP187" s="21"/>
-      <c r="AQ187" s="21"/>
-      <c r="AR187" s="21"/>
-    </row>
-    <row r="188" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A188" s="6" t="s">
+      <c r="G190" s="24"/>
+      <c r="H190" s="21"/>
+      <c r="I190" s="21"/>
+      <c r="J190" s="21"/>
+      <c r="K190" s="21"/>
+      <c r="L190" s="21"/>
+      <c r="M190" s="21"/>
+      <c r="N190" s="21"/>
+      <c r="O190" s="21"/>
+      <c r="P190" s="21"/>
+      <c r="Q190" s="21"/>
+      <c r="R190" s="21"/>
+      <c r="S190" s="21"/>
+      <c r="T190" s="21"/>
+      <c r="U190" s="21"/>
+      <c r="V190" s="21"/>
+      <c r="W190" s="21"/>
+      <c r="X190" s="21"/>
+      <c r="Y190" s="21"/>
+      <c r="Z190" s="21"/>
+      <c r="AA190" s="21"/>
+      <c r="AB190" s="21"/>
+      <c r="AC190" s="21"/>
+      <c r="AD190" s="21"/>
+      <c r="AE190" s="21"/>
+      <c r="AF190" s="21"/>
+      <c r="AG190" s="21"/>
+      <c r="AH190" s="21"/>
+      <c r="AI190" s="21"/>
+      <c r="AJ190" s="21"/>
+      <c r="AK190" s="21"/>
+      <c r="AL190" s="21"/>
+      <c r="AM190" s="21"/>
+      <c r="AN190" s="21"/>
+      <c r="AO190" s="21"/>
+      <c r="AP190" s="21"/>
+      <c r="AQ190" s="21"/>
+      <c r="AR190" s="21"/>
+    </row>
+    <row r="191" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="189" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B189" s="6" t="s">
+    <row r="192" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B192" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E192" s="3">
         <v>7</v>
       </c>
-      <c r="F189" s="4" t="s">
+      <c r="F192" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G189" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="190" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B190" s="6" t="s">
+      <c r="G192" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E190" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="191" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B191" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E191" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G191" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="192" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B192" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E192" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G192" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B193" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="E193" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B194" s="31" t="s">
-        <v>181</v>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E194" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B195" s="31" t="s">
-        <v>179</v>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E195" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="6" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E196" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B197" s="6" t="s">
-        <v>5</v>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="E197" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B198" s="6" t="s">
-        <v>6</v>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" s="31" t="s">
+        <v>179</v>
       </c>
       <c r="E198" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199" s="6" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E199" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E200" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201" s="6" t="s">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="E201" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="6" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="E202" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" s="6" t="s">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="E203" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" s="6" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="E204" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" s="6" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="E205" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="6" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E206" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B207" s="6" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="E207" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" s="6" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="E208" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="209" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B209" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E209" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="E209" s="28" t="s">
+        <v>165</v>
+      </c>
       <c r="F209" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="210" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B210" s="6" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E210" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="211" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B211" s="6" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E211" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B212" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E212" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E212" s="6"/>
+      <c r="F212" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="213" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B213" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E213" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F212" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G212" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="213" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="B213" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E213" s="6"/>
       <c r="F213" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="214" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B214" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E214" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="215" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C215" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="215" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B215" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E215" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="216" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B216" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E216" s="28" t="s">
-        <v>165</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="216" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B216" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E216" s="6"/>
       <c r="F216" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="217" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B217" s="6" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="E217" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G217" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B218" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C219" s="6" t="s">
-        <v>193</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="218" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="C218" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E218" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="219" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B219" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="E219" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F219" s="6" t="s">
+      <c r="F219" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="220" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B220" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E220" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G220" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="221" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B221" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="C222" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E222" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F222" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="220" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="21"/>
-      <c r="B220" s="21"/>
-      <c r="C220" s="32" t="s">
+    <row r="223" spans="1:44" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="21"/>
+      <c r="B223" s="21"/>
+      <c r="C223" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="D220" s="21"/>
-      <c r="E220" s="21" t="s">
+      <c r="D223" s="21"/>
+      <c r="E223" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="F220" s="20" t="s">
+      <c r="F223" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G220" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="H220" s="21"/>
-      <c r="I220" s="21"/>
-      <c r="J220" s="21"/>
-      <c r="K220" s="21"/>
-      <c r="L220" s="21"/>
-      <c r="M220" s="21"/>
-      <c r="N220" s="21"/>
-      <c r="O220" s="21"/>
-      <c r="P220" s="21"/>
-      <c r="Q220" s="21"/>
-      <c r="R220" s="21"/>
-      <c r="S220" s="21"/>
-      <c r="T220" s="21"/>
-      <c r="U220" s="21"/>
-      <c r="V220" s="21"/>
-      <c r="W220" s="21"/>
-      <c r="X220" s="21"/>
-      <c r="Y220" s="21"/>
-      <c r="Z220" s="21"/>
-      <c r="AA220" s="21"/>
-      <c r="AB220" s="21"/>
-      <c r="AC220" s="21"/>
-      <c r="AD220" s="21"/>
-      <c r="AE220" s="21"/>
-      <c r="AF220" s="21"/>
-      <c r="AG220" s="21"/>
-      <c r="AH220" s="21"/>
-      <c r="AI220" s="21"/>
-      <c r="AJ220" s="21"/>
-      <c r="AK220" s="21"/>
-      <c r="AL220" s="21"/>
-      <c r="AM220" s="21"/>
-      <c r="AN220" s="21"/>
-      <c r="AO220" s="21"/>
-      <c r="AP220" s="21"/>
-      <c r="AQ220" s="21"/>
-      <c r="AR220" s="21"/>
-    </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A221" s="6" t="s">
+      <c r="G223" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H223" s="21"/>
+      <c r="I223" s="21"/>
+      <c r="J223" s="21"/>
+      <c r="K223" s="21"/>
+      <c r="L223" s="21"/>
+      <c r="M223" s="21"/>
+      <c r="N223" s="21"/>
+      <c r="O223" s="21"/>
+      <c r="P223" s="21"/>
+      <c r="Q223" s="21"/>
+      <c r="R223" s="21"/>
+      <c r="S223" s="21"/>
+      <c r="T223" s="21"/>
+      <c r="U223" s="21"/>
+      <c r="V223" s="21"/>
+      <c r="W223" s="21"/>
+      <c r="X223" s="21"/>
+      <c r="Y223" s="21"/>
+      <c r="Z223" s="21"/>
+      <c r="AA223" s="21"/>
+      <c r="AB223" s="21"/>
+      <c r="AC223" s="21"/>
+      <c r="AD223" s="21"/>
+      <c r="AE223" s="21"/>
+      <c r="AF223" s="21"/>
+      <c r="AG223" s="21"/>
+      <c r="AH223" s="21"/>
+      <c r="AI223" s="21"/>
+      <c r="AJ223" s="21"/>
+      <c r="AK223" s="21"/>
+      <c r="AL223" s="21"/>
+      <c r="AM223" s="21"/>
+      <c r="AN223" s="21"/>
+      <c r="AO223" s="21"/>
+      <c r="AP223" s="21"/>
+      <c r="AQ223" s="21"/>
+      <c r="AR223" s="21"/>
+    </row>
+    <row r="224" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A224" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G221" s="7"/>
-    </row>
-    <row r="222" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B222" s="6" t="s">
+      <c r="G224" s="7"/>
+    </row>
+    <row r="225" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B225" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E222" s="3">
+      <c r="E225" s="3">
         <v>7</v>
       </c>
-      <c r="F222" s="4" t="s">
+      <c r="F225" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G222" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B223" s="6" t="s">
+      <c r="G225" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="226" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B226" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F223" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G223" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="224" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B224" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E224" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F224" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G224" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="225" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B225" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G225" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="226" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B226" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="C227" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="227" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B227" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F227" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G227" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="228" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B228" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="229" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B229" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="230" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="C230" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F230" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="228" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="33" t="s">
+    <row r="231" spans="1:44" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E228" s="34"/>
-      <c r="F228" s="35"/>
-      <c r="G228" s="36"/>
-      <c r="H228" s="36"/>
-      <c r="I228" s="36"/>
-      <c r="J228" s="36"/>
-      <c r="K228" s="36"/>
-      <c r="L228" s="36"/>
-      <c r="M228" s="36"/>
-      <c r="N228" s="36"/>
-      <c r="O228" s="36"/>
-      <c r="P228" s="36"/>
-      <c r="Q228" s="36"/>
-      <c r="R228" s="36"/>
-      <c r="S228" s="36"/>
-      <c r="T228" s="36"/>
-      <c r="U228" s="36"/>
-      <c r="V228" s="36"/>
-      <c r="W228" s="36"/>
-      <c r="X228" s="36"/>
-      <c r="Y228" s="36"/>
-      <c r="Z228" s="36"/>
-      <c r="AA228" s="36"/>
-      <c r="AB228" s="36"/>
-      <c r="AC228" s="36"/>
-      <c r="AD228" s="36"/>
-      <c r="AE228" s="36"/>
-      <c r="AF228" s="36"/>
-      <c r="AG228" s="36"/>
-      <c r="AH228" s="36"/>
-      <c r="AI228" s="36"/>
-      <c r="AJ228" s="36"/>
-      <c r="AK228" s="36"/>
-      <c r="AL228" s="36"/>
-      <c r="AM228" s="36"/>
-      <c r="AN228" s="36"/>
-      <c r="AO228" s="36"/>
-      <c r="AP228" s="36"/>
-      <c r="AQ228" s="36"/>
-      <c r="AR228" s="36"/>
-    </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B229" s="6" t="s">
+      <c r="E231" s="34"/>
+      <c r="F231" s="35"/>
+      <c r="G231" s="36"/>
+      <c r="H231" s="36"/>
+      <c r="I231" s="36"/>
+      <c r="J231" s="36"/>
+      <c r="K231" s="36"/>
+      <c r="L231" s="36"/>
+      <c r="M231" s="36"/>
+      <c r="N231" s="36"/>
+      <c r="O231" s="36"/>
+      <c r="P231" s="36"/>
+      <c r="Q231" s="36"/>
+      <c r="R231" s="36"/>
+      <c r="S231" s="36"/>
+      <c r="T231" s="36"/>
+      <c r="U231" s="36"/>
+      <c r="V231" s="36"/>
+      <c r="W231" s="36"/>
+      <c r="X231" s="36"/>
+      <c r="Y231" s="36"/>
+      <c r="Z231" s="36"/>
+      <c r="AA231" s="36"/>
+      <c r="AB231" s="36"/>
+      <c r="AC231" s="36"/>
+      <c r="AD231" s="36"/>
+      <c r="AE231" s="36"/>
+      <c r="AF231" s="36"/>
+      <c r="AG231" s="36"/>
+      <c r="AH231" s="36"/>
+      <c r="AI231" s="36"/>
+      <c r="AJ231" s="36"/>
+      <c r="AK231" s="36"/>
+      <c r="AL231" s="36"/>
+      <c r="AM231" s="36"/>
+      <c r="AN231" s="36"/>
+      <c r="AO231" s="36"/>
+      <c r="AP231" s="36"/>
+      <c r="AQ231" s="36"/>
+      <c r="AR231" s="36"/>
+    </row>
+    <row r="232" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B232" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E229" s="3">
+      <c r="E232" s="3">
         <v>7</v>
       </c>
-      <c r="F229" s="4" t="s">
+      <c r="F232" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G229" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="230" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B230" s="1" t="s">
+      <c r="G232" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="233" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G230" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B231" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="22"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="22"/>
-    </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B232" s="1"/>
-      <c r="C232" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D232" s="1"/>
-      <c r="E232" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F232" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G232" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="233" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="C233" s="17" t="s">
-        <v>142</v>
-      </c>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
       <c r="E233" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F233" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G233" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="234" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B234" s="1"/>
-      <c r="C234" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F233" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G233" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="234" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="1"/>
       <c r="D234" s="1"/>
-      <c r="E234" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F234" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G234" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="235" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="E234" s="22"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="22"/>
+    </row>
+    <row r="235" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
       <c r="C235" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F235" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G235" s="15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="236" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B236" s="1"/>
-      <c r="C236" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D236" s="1"/>
+    <row r="236" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C236" s="17" t="s">
+        <v>142</v>
+      </c>
       <c r="E236" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F236" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G236" s="15"/>
-    </row>
-    <row r="237" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="F236" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="237" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C237" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237" s="1"/>
       <c r="E237" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F237" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G237" s="15"/>
-    </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B238" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C238" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="G237" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="238" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B238" s="1"/>
+      <c r="C238" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D238" s="1"/>
-      <c r="E238" s="22"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="22"/>
-    </row>
-    <row r="239" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="E238" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F238" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G238" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="239" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
       <c r="C239" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F239" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G239" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="240" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="F239" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G239" s="15"/>
+    </row>
+    <row r="240" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
-      <c r="C240" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E240" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="G240" s="15"/>
     </row>
-    <row r="241" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B241" s="1"/>
-      <c r="C241" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="241" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241" s="1"/>
       <c r="D241" s="1"/>
-      <c r="E241" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F241" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G241" s="15"/>
-    </row>
-    <row r="242" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="E241" s="22"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="22"/>
+    </row>
+    <row r="242" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
       <c r="C242" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F242" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G242" s="15"/>
-    </row>
-    <row r="243" spans="2:75" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="G242" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="243" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C243" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D243" s="1"/>
       <c r="E243" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="G243" s="15"/>
     </row>
-    <row r="244" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B244" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C244" s="1"/>
+    <row r="244" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="B244" s="1"/>
+      <c r="C244" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D244" s="1"/>
       <c r="E244" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F244" s="14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G244" s="15"/>
     </row>
-    <row r="245" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B245" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C245" s="1"/>
+    <row r="245" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="B245" s="1"/>
+      <c r="C245" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D245" s="1"/>
-      <c r="E245" s="22"/>
-      <c r="F245" s="14"/>
+      <c r="E245" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F245" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="G245" s="15"/>
     </row>
-    <row r="246" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
-      <c r="C246" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E246" s="22" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="F246" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G246" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="247" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B247" s="1"/>
-      <c r="C247" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G246" s="15"/>
+    </row>
+    <row r="247" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="G247" s="15"/>
     </row>
-    <row r="248" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B248" s="1"/>
-      <c r="C248" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="248" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="B248" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C248" s="1"/>
       <c r="D248" s="1"/>
-      <c r="E248" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F248" s="14" t="s">
-        <v>117</v>
-      </c>
+      <c r="E248" s="22"/>
+      <c r="F248" s="14"/>
       <c r="G248" s="15"/>
     </row>
-    <row r="249" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
       <c r="C249" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="22" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="F249" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G249" s="15"/>
-    </row>
-    <row r="250" spans="2:75" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="G249" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="250" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C250" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D250" s="1"/>
       <c r="E250" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F250" s="14" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="G250" s="15"/>
     </row>
-    <row r="251" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B251" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C251" s="1"/>
+    <row r="251" spans="2:75" x14ac:dyDescent="0.25">
+      <c r="B251" s="1"/>
+      <c r="C251" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D251" s="1"/>
-      <c r="E251" s="22"/>
-      <c r="F251" s="14"/>
-      <c r="G251" s="22"/>
-      <c r="Q251" s="30"/>
-      <c r="R251" s="30"/>
-      <c r="S251" s="30"/>
-      <c r="T251" s="30"/>
-      <c r="U251" s="30"/>
-      <c r="V251" s="30"/>
-      <c r="W251" s="30"/>
-      <c r="X251" s="30"/>
-      <c r="Y251" s="30"/>
-      <c r="Z251" s="30"/>
-      <c r="AA251" s="30"/>
-      <c r="AB251" s="30"/>
-      <c r="AC251" s="30"/>
-      <c r="AD251" s="30"/>
-      <c r="AE251" s="30"/>
-      <c r="AF251" s="30"/>
-      <c r="AG251" s="30"/>
-      <c r="AH251" s="30"/>
-      <c r="AI251" s="30"/>
-      <c r="AJ251" s="30"/>
-      <c r="AK251" s="30"/>
-      <c r="AL251" s="30"/>
-      <c r="AM251" s="30"/>
-      <c r="AN251" s="30"/>
-      <c r="AO251" s="30"/>
-      <c r="AP251" s="30"/>
-      <c r="AQ251" s="30"/>
-      <c r="AR251" s="30"/>
-      <c r="AS251" s="30"/>
-      <c r="AT251" s="30"/>
-      <c r="AU251" s="30"/>
-      <c r="AV251" s="30"/>
-      <c r="AW251" s="30"/>
-      <c r="AX251" s="30"/>
-      <c r="AY251" s="30"/>
-      <c r="AZ251" s="30"/>
-      <c r="BA251" s="30"/>
-      <c r="BB251" s="30"/>
-      <c r="BC251" s="30"/>
-      <c r="BD251" s="30"/>
-      <c r="BE251" s="30"/>
-      <c r="BF251" s="30"/>
-      <c r="BG251" s="30"/>
-      <c r="BH251" s="30"/>
-      <c r="BI251" s="30"/>
-      <c r="BJ251" s="30"/>
-      <c r="BK251" s="30"/>
-      <c r="BL251" s="30"/>
-      <c r="BM251" s="30"/>
-      <c r="BN251" s="30"/>
-      <c r="BO251" s="30"/>
-      <c r="BP251" s="30"/>
-      <c r="BQ251" s="30"/>
-      <c r="BR251" s="30"/>
-      <c r="BS251" s="30"/>
-      <c r="BT251" s="30"/>
-      <c r="BU251" s="30"/>
-      <c r="BV251" s="30"/>
-      <c r="BW251" s="30"/>
-    </row>
-    <row r="252" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E251" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F251" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G251" s="15"/>
+    </row>
+    <row r="252" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
       <c r="C252" s="1" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="D252" s="1"/>
-      <c r="E252" s="22"/>
+      <c r="E252" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="F252" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G252" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q252" s="30"/>
-      <c r="R252" s="30"/>
-      <c r="S252" s="30"/>
-      <c r="T252" s="30"/>
-      <c r="U252" s="30"/>
-      <c r="V252" s="30"/>
-      <c r="W252" s="30"/>
-      <c r="X252" s="30"/>
-      <c r="Y252" s="30"/>
-      <c r="Z252" s="30"/>
-      <c r="AA252" s="30"/>
-      <c r="AB252" s="30"/>
-      <c r="AC252" s="30"/>
-      <c r="AD252" s="30"/>
-      <c r="AE252" s="30"/>
-      <c r="AF252" s="30"/>
-      <c r="AG252" s="30"/>
-      <c r="AH252" s="30"/>
-      <c r="AI252" s="30"/>
-      <c r="AJ252" s="30"/>
-      <c r="AK252" s="30"/>
-      <c r="AL252" s="30"/>
-      <c r="AM252" s="30"/>
-      <c r="AN252" s="30"/>
-      <c r="AO252" s="30"/>
-      <c r="AP252" s="30"/>
-      <c r="AQ252" s="30"/>
-      <c r="AR252" s="30"/>
-      <c r="AS252" s="30"/>
-      <c r="AT252" s="30"/>
-      <c r="AU252" s="30"/>
-      <c r="AV252" s="30"/>
-      <c r="AW252" s="30"/>
-      <c r="AX252" s="30"/>
-      <c r="AY252" s="30"/>
-      <c r="AZ252" s="30"/>
-      <c r="BA252" s="30"/>
-      <c r="BB252" s="30"/>
-      <c r="BC252" s="30"/>
-      <c r="BD252" s="30"/>
-      <c r="BE252" s="30"/>
-      <c r="BF252" s="30"/>
-      <c r="BG252" s="30"/>
-      <c r="BH252" s="30"/>
-      <c r="BI252" s="30"/>
-      <c r="BJ252" s="30"/>
-      <c r="BK252" s="30"/>
-      <c r="BL252" s="30"/>
-      <c r="BM252" s="30"/>
-      <c r="BN252" s="30"/>
-      <c r="BO252" s="30"/>
-      <c r="BP252" s="30"/>
-      <c r="BQ252" s="30"/>
-      <c r="BR252" s="30"/>
-      <c r="BS252" s="30"/>
-      <c r="BT252" s="30"/>
-      <c r="BU252" s="30"/>
-      <c r="BV252" s="30"/>
-      <c r="BW252" s="30"/>
-    </row>
-    <row r="253" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="G252" s="15"/>
+    </row>
+    <row r="253" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
-      <c r="C253" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E253" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G253" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q253" s="30"/>
-      <c r="R253" s="30"/>
-      <c r="S253" s="30"/>
-      <c r="T253" s="30"/>
-      <c r="U253" s="30"/>
-      <c r="V253" s="30"/>
-      <c r="W253" s="30"/>
-      <c r="X253" s="30"/>
-      <c r="Y253" s="30"/>
-      <c r="Z253" s="30"/>
-      <c r="AA253" s="30"/>
-      <c r="AB253" s="30"/>
-      <c r="AC253" s="30"/>
-      <c r="AD253" s="30"/>
-      <c r="AE253" s="30"/>
-      <c r="AF253" s="30"/>
-      <c r="AG253" s="30"/>
-      <c r="AH253" s="30"/>
-      <c r="AI253" s="30"/>
-      <c r="AJ253" s="30"/>
-      <c r="AK253" s="30"/>
-      <c r="AL253" s="30"/>
-      <c r="AM253" s="30"/>
-      <c r="AN253" s="30"/>
-      <c r="AO253" s="30"/>
-      <c r="AP253" s="30"/>
-      <c r="AQ253" s="30"/>
-      <c r="AR253" s="30"/>
-      <c r="AS253" s="30"/>
-      <c r="AT253" s="30"/>
-      <c r="AU253" s="30"/>
-      <c r="AV253" s="30"/>
-      <c r="AW253" s="30"/>
-      <c r="AX253" s="30"/>
-      <c r="AY253" s="30"/>
-      <c r="AZ253" s="30"/>
-      <c r="BA253" s="30"/>
-      <c r="BB253" s="30"/>
-      <c r="BC253" s="30"/>
-      <c r="BD253" s="30"/>
-      <c r="BE253" s="30"/>
-      <c r="BF253" s="30"/>
-      <c r="BG253" s="30"/>
-      <c r="BH253" s="30"/>
-      <c r="BI253" s="30"/>
-      <c r="BJ253" s="30"/>
-      <c r="BK253" s="30"/>
-      <c r="BL253" s="30"/>
-      <c r="BM253" s="30"/>
-      <c r="BN253" s="30"/>
-      <c r="BO253" s="30"/>
-      <c r="BP253" s="30"/>
-      <c r="BQ253" s="30"/>
-      <c r="BR253" s="30"/>
-      <c r="BS253" s="30"/>
-      <c r="BT253" s="30"/>
-      <c r="BU253" s="30"/>
-      <c r="BV253" s="30"/>
-      <c r="BW253" s="30"/>
-    </row>
-    <row r="254" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="1"/>
-      <c r="C254" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G253" s="15"/>
+    </row>
+    <row r="254" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C254" s="1"/>
       <c r="D254" s="1"/>
-      <c r="E254" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F254" s="14" t="s">
-        <v>120</v>
-      </c>
+      <c r="E254" s="22"/>
+      <c r="F254" s="14"/>
       <c r="G254" s="22"/>
       <c r="Q254" s="30"/>
       <c r="R254" s="30"/>
@@ -5180,19 +5004,19 @@
       <c r="BV254" s="30"/>
       <c r="BW254" s="30"/>
     </row>
-    <row r="255" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
       <c r="C255" s="1" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="D255" s="1"/>
-      <c r="E255" s="22" t="s">
-        <v>109</v>
-      </c>
+      <c r="E255" s="22"/>
       <c r="F255" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G255" s="22"/>
+        <v>178</v>
+      </c>
+      <c r="G255" s="22" t="s">
+        <v>162</v>
+      </c>
       <c r="Q255" s="30"/>
       <c r="R255" s="30"/>
       <c r="S255" s="30"/>
@@ -5253,19 +5077,21 @@
       <c r="BV255" s="30"/>
       <c r="BW255" s="30"/>
     </row>
-    <row r="256" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:75" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
       <c r="C256" s="1" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F256" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G256" s="22"/>
+        <v>118</v>
+      </c>
+      <c r="G256" s="22" t="s">
+        <v>162</v>
+      </c>
       <c r="Q256" s="30"/>
       <c r="R256" s="30"/>
       <c r="S256" s="30"/>
@@ -5326,17 +5152,17 @@
       <c r="BV256" s="30"/>
       <c r="BW256" s="30"/>
     </row>
-    <row r="257" spans="1:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:75" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
       <c r="C257" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F257" s="14" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="G257" s="22"/>
       <c r="Q257" s="30"/>
@@ -5399,17 +5225,17 @@
       <c r="BV257" s="30"/>
       <c r="BW257" s="30"/>
     </row>
-    <row r="258" spans="1:75" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:75" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C258" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D258" s="1"/>
       <c r="E258" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F258" s="14" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G258" s="22"/>
       <c r="Q258" s="30"/>
@@ -5472,25 +5298,84 @@
       <c r="BV258" s="30"/>
       <c r="BW258" s="30"/>
     </row>
-    <row r="259" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B259" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C259" s="1"/>
+    <row r="259" spans="1:75" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="1"/>
+      <c r="C259" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="D259" s="1"/>
       <c r="E259" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F259" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G259" s="15"/>
-    </row>
-    <row r="260" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B260" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G259" s="22"/>
+      <c r="Q259" s="30"/>
+      <c r="R259" s="30"/>
+      <c r="S259" s="30"/>
+      <c r="T259" s="30"/>
+      <c r="U259" s="30"/>
+      <c r="V259" s="30"/>
+      <c r="W259" s="30"/>
+      <c r="X259" s="30"/>
+      <c r="Y259" s="30"/>
+      <c r="Z259" s="30"/>
+      <c r="AA259" s="30"/>
+      <c r="AB259" s="30"/>
+      <c r="AC259" s="30"/>
+      <c r="AD259" s="30"/>
+      <c r="AE259" s="30"/>
+      <c r="AF259" s="30"/>
+      <c r="AG259" s="30"/>
+      <c r="AH259" s="30"/>
+      <c r="AI259" s="30"/>
+      <c r="AJ259" s="30"/>
+      <c r="AK259" s="30"/>
+      <c r="AL259" s="30"/>
+      <c r="AM259" s="30"/>
+      <c r="AN259" s="30"/>
+      <c r="AO259" s="30"/>
+      <c r="AP259" s="30"/>
+      <c r="AQ259" s="30"/>
+      <c r="AR259" s="30"/>
+      <c r="AS259" s="30"/>
+      <c r="AT259" s="30"/>
+      <c r="AU259" s="30"/>
+      <c r="AV259" s="30"/>
+      <c r="AW259" s="30"/>
+      <c r="AX259" s="30"/>
+      <c r="AY259" s="30"/>
+      <c r="AZ259" s="30"/>
+      <c r="BA259" s="30"/>
+      <c r="BB259" s="30"/>
+      <c r="BC259" s="30"/>
+      <c r="BD259" s="30"/>
+      <c r="BE259" s="30"/>
+      <c r="BF259" s="30"/>
+      <c r="BG259" s="30"/>
+      <c r="BH259" s="30"/>
+      <c r="BI259" s="30"/>
+      <c r="BJ259" s="30"/>
+      <c r="BK259" s="30"/>
+      <c r="BL259" s="30"/>
+      <c r="BM259" s="30"/>
+      <c r="BN259" s="30"/>
+      <c r="BO259" s="30"/>
+      <c r="BP259" s="30"/>
+      <c r="BQ259" s="30"/>
+      <c r="BR259" s="30"/>
+      <c r="BS259" s="30"/>
+      <c r="BT259" s="30"/>
+      <c r="BU259" s="30"/>
+      <c r="BV259" s="30"/>
+      <c r="BW259" s="30"/>
+    </row>
+    <row r="260" spans="1:75" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="1"/>
+      <c r="C260" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="22" t="s">
         <v>109</v>
@@ -5498,216 +5383,376 @@
       <c r="F260" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G260" s="15"/>
-    </row>
-    <row r="261" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="G260" s="22"/>
+      <c r="Q260" s="30"/>
+      <c r="R260" s="30"/>
+      <c r="S260" s="30"/>
+      <c r="T260" s="30"/>
+      <c r="U260" s="30"/>
+      <c r="V260" s="30"/>
+      <c r="W260" s="30"/>
+      <c r="X260" s="30"/>
+      <c r="Y260" s="30"/>
+      <c r="Z260" s="30"/>
+      <c r="AA260" s="30"/>
+      <c r="AB260" s="30"/>
+      <c r="AC260" s="30"/>
+      <c r="AD260" s="30"/>
+      <c r="AE260" s="30"/>
+      <c r="AF260" s="30"/>
+      <c r="AG260" s="30"/>
+      <c r="AH260" s="30"/>
+      <c r="AI260" s="30"/>
+      <c r="AJ260" s="30"/>
+      <c r="AK260" s="30"/>
+      <c r="AL260" s="30"/>
+      <c r="AM260" s="30"/>
+      <c r="AN260" s="30"/>
+      <c r="AO260" s="30"/>
+      <c r="AP260" s="30"/>
+      <c r="AQ260" s="30"/>
+      <c r="AR260" s="30"/>
+      <c r="AS260" s="30"/>
+      <c r="AT260" s="30"/>
+      <c r="AU260" s="30"/>
+      <c r="AV260" s="30"/>
+      <c r="AW260" s="30"/>
+      <c r="AX260" s="30"/>
+      <c r="AY260" s="30"/>
+      <c r="AZ260" s="30"/>
+      <c r="BA260" s="30"/>
+      <c r="BB260" s="30"/>
+      <c r="BC260" s="30"/>
+      <c r="BD260" s="30"/>
+      <c r="BE260" s="30"/>
+      <c r="BF260" s="30"/>
+      <c r="BG260" s="30"/>
+      <c r="BH260" s="30"/>
+      <c r="BI260" s="30"/>
+      <c r="BJ260" s="30"/>
+      <c r="BK260" s="30"/>
+      <c r="BL260" s="30"/>
+      <c r="BM260" s="30"/>
+      <c r="BN260" s="30"/>
+      <c r="BO260" s="30"/>
+      <c r="BP260" s="30"/>
+      <c r="BQ260" s="30"/>
+      <c r="BR260" s="30"/>
+      <c r="BS260" s="30"/>
+      <c r="BT260" s="30"/>
+      <c r="BU260" s="30"/>
+      <c r="BV260" s="30"/>
+      <c r="BW260" s="30"/>
+    </row>
+    <row r="261" spans="1:75" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
-      <c r="C261" s="1" t="s">
+      <c r="C261" s="1"/>
+      <c r="D261" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D261" s="1"/>
       <c r="E261" s="22" t="s">
         <v>109</v>
       </c>
       <c r="F261" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G261" s="15"/>
-    </row>
-    <row r="262" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="G261" s="22"/>
+      <c r="Q261" s="30"/>
+      <c r="R261" s="30"/>
+      <c r="S261" s="30"/>
+      <c r="T261" s="30"/>
+      <c r="U261" s="30"/>
+      <c r="V261" s="30"/>
+      <c r="W261" s="30"/>
+      <c r="X261" s="30"/>
+      <c r="Y261" s="30"/>
+      <c r="Z261" s="30"/>
+      <c r="AA261" s="30"/>
+      <c r="AB261" s="30"/>
+      <c r="AC261" s="30"/>
+      <c r="AD261" s="30"/>
+      <c r="AE261" s="30"/>
+      <c r="AF261" s="30"/>
+      <c r="AG261" s="30"/>
+      <c r="AH261" s="30"/>
+      <c r="AI261" s="30"/>
+      <c r="AJ261" s="30"/>
+      <c r="AK261" s="30"/>
+      <c r="AL261" s="30"/>
+      <c r="AM261" s="30"/>
+      <c r="AN261" s="30"/>
+      <c r="AO261" s="30"/>
+      <c r="AP261" s="30"/>
+      <c r="AQ261" s="30"/>
+      <c r="AR261" s="30"/>
+      <c r="AS261" s="30"/>
+      <c r="AT261" s="30"/>
+      <c r="AU261" s="30"/>
+      <c r="AV261" s="30"/>
+      <c r="AW261" s="30"/>
+      <c r="AX261" s="30"/>
+      <c r="AY261" s="30"/>
+      <c r="AZ261" s="30"/>
+      <c r="BA261" s="30"/>
+      <c r="BB261" s="30"/>
+      <c r="BC261" s="30"/>
+      <c r="BD261" s="30"/>
+      <c r="BE261" s="30"/>
+      <c r="BF261" s="30"/>
+      <c r="BG261" s="30"/>
+      <c r="BH261" s="30"/>
+      <c r="BI261" s="30"/>
+      <c r="BJ261" s="30"/>
+      <c r="BK261" s="30"/>
+      <c r="BL261" s="30"/>
+      <c r="BM261" s="30"/>
+      <c r="BN261" s="30"/>
+      <c r="BO261" s="30"/>
+      <c r="BP261" s="30"/>
+      <c r="BQ261" s="30"/>
+      <c r="BR261" s="30"/>
+      <c r="BS261" s="30"/>
+      <c r="BT261" s="30"/>
+      <c r="BU261" s="30"/>
+      <c r="BV261" s="30"/>
+      <c r="BW261" s="30"/>
+    </row>
+    <row r="262" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
-      <c r="E262" s="22"/>
-      <c r="F262" s="1"/>
-      <c r="G262" s="22"/>
-    </row>
-    <row r="263" spans="1:75" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B263" s="23"/>
-      <c r="C263" s="23" t="s">
+      <c r="E262" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F262" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G262" s="15"/>
+    </row>
+    <row r="263" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F263" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G263" s="15"/>
+    </row>
+    <row r="264" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B264" s="1"/>
+      <c r="C264" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D264" s="1"/>
+      <c r="E264" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F264" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G264" s="15"/>
+    </row>
+    <row r="265" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B265" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="22"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="22"/>
+    </row>
+    <row r="266" spans="1:75" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="23"/>
+      <c r="C266" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D263" s="23"/>
-      <c r="E263" s="24" t="s">
+      <c r="D266" s="23"/>
+      <c r="E266" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F263" s="23" t="s">
+      <c r="F266" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G263" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="H263" s="21"/>
-      <c r="I263" s="21"/>
-      <c r="J263" s="21"/>
-      <c r="K263" s="21"/>
-      <c r="L263" s="21"/>
-      <c r="M263" s="21"/>
-      <c r="N263" s="21"/>
-      <c r="O263" s="21"/>
-      <c r="P263" s="21"/>
-      <c r="Q263" s="21"/>
-      <c r="R263" s="21"/>
-      <c r="S263" s="21"/>
-      <c r="T263" s="21"/>
-      <c r="U263" s="21"/>
-      <c r="V263" s="21"/>
-      <c r="W263" s="21"/>
-      <c r="X263" s="21"/>
-      <c r="Y263" s="21"/>
-      <c r="Z263" s="21"/>
-      <c r="AA263" s="21"/>
-      <c r="AB263" s="21"/>
-      <c r="AC263" s="21"/>
-      <c r="AD263" s="21"/>
-      <c r="AE263" s="21"/>
-      <c r="AF263" s="21"/>
-      <c r="AG263" s="21"/>
-      <c r="AH263" s="21"/>
-      <c r="AI263" s="21"/>
-      <c r="AJ263" s="21"/>
-      <c r="AK263" s="21"/>
-      <c r="AL263" s="21"/>
-      <c r="AM263" s="21"/>
-      <c r="AN263" s="21"/>
-      <c r="AO263" s="21"/>
-      <c r="AP263" s="21"/>
-      <c r="AQ263" s="21"/>
-      <c r="AR263" s="21"/>
-    </row>
-    <row r="264" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="A264" s="6" t="s">
+      <c r="G266" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H266" s="21"/>
+      <c r="I266" s="21"/>
+      <c r="J266" s="21"/>
+      <c r="K266" s="21"/>
+      <c r="L266" s="21"/>
+      <c r="M266" s="21"/>
+      <c r="N266" s="21"/>
+      <c r="O266" s="21"/>
+      <c r="P266" s="21"/>
+      <c r="Q266" s="21"/>
+      <c r="R266" s="21"/>
+      <c r="S266" s="21"/>
+      <c r="T266" s="21"/>
+      <c r="U266" s="21"/>
+      <c r="V266" s="21"/>
+      <c r="W266" s="21"/>
+      <c r="X266" s="21"/>
+      <c r="Y266" s="21"/>
+      <c r="Z266" s="21"/>
+      <c r="AA266" s="21"/>
+      <c r="AB266" s="21"/>
+      <c r="AC266" s="21"/>
+      <c r="AD266" s="21"/>
+      <c r="AE266" s="21"/>
+      <c r="AF266" s="21"/>
+      <c r="AG266" s="21"/>
+      <c r="AH266" s="21"/>
+      <c r="AI266" s="21"/>
+      <c r="AJ266" s="21"/>
+      <c r="AK266" s="21"/>
+      <c r="AL266" s="21"/>
+      <c r="AM266" s="21"/>
+      <c r="AN266" s="21"/>
+      <c r="AO266" s="21"/>
+      <c r="AP266" s="21"/>
+      <c r="AQ266" s="21"/>
+      <c r="AR266" s="21"/>
+    </row>
+    <row r="267" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A267" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="22"/>
-      <c r="F264" s="14"/>
-    </row>
-    <row r="265" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B265" s="6" t="s">
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="22"/>
+      <c r="F267" s="14"/>
+    </row>
+    <row r="268" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B268" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E265" s="3">
+      <c r="E268" s="3">
         <v>7</v>
       </c>
-      <c r="F265" s="4" t="s">
+      <c r="F268" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G265" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="266" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B266" s="6" t="s">
+      <c r="G268" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="269" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B269" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E266" s="3" t="s">
+      <c r="E269" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F266" s="4" t="s">
+      <c r="F269" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G266" s="5" t="s">
+      <c r="G269" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="267" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B267" s="6" t="s">
+    <row r="270" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B270" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E267" s="3" t="s">
+      <c r="E270" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F267" s="4" t="s">
+      <c r="F270" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="268" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B268" s="6" t="s">
+    <row r="271" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B271" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F268" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G268" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="269" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B269" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E269" s="3">
-        <v>4</v>
-      </c>
-      <c r="F269" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="270" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="C270" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E270" s="3">
-        <v>4</v>
-      </c>
-      <c r="F270" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="271" spans="1:75" x14ac:dyDescent="0.2">
-      <c r="B271" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>195</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="272" spans="1:75" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="G271" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="272" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B272" s="6" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="E272" s="3">
         <v>4</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B273" s="6" t="s">
-        <v>196</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C273" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E273" s="3">
         <v>4</v>
       </c>
-      <c r="F273" s="37" t="s">
+      <c r="F273" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B274" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B275" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E275" s="3">
+        <v>4</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B276" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E276" s="3">
+        <v>4</v>
+      </c>
+      <c r="F276" s="37" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B274" s="6" t="s">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B277" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E274" s="3">
+      <c r="E277" s="3">
         <v>4</v>
       </c>
-      <c r="F274" s="4" t="s">
+      <c r="F277" s="4" t="s">
         <v>199</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A100:CC108">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A100:CC108">
     <sortCondition ref="E100:E108"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5716,9 +5761,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5836,25 +5884,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1ED0FDE-263A-4F6E-9471-50CE8FD4814D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E1EA3A-64D8-4C02-BC91-1B1F72624C50}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5876,9 +5914,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E1EA3A-64D8-4C02-BC91-1B1F72624C50}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1ED0FDE-263A-4F6E-9471-50CE8FD4814D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/Documents/QoS/BRP RvIG ICTU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/GitHub/Haal-Centraal-BRP-bevragen/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8113A78A-8F28-6E4D-A22B-8EBCC98DBA56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07098D3-11BB-6C44-A04B-8A61176DC074}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33200" yWindow="-4560" windowWidth="27840" windowHeight="16740" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
+    <workbookView xWindow="-33200" yWindow="-4560" windowWidth="27840" windowHeight="16740" activeTab="5" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
   </bookViews>
   <sheets>
     <sheet name="ingeschrevenpersonen" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{4E11983E-6714-DF4D-A430-292370935CEB}" name="getBewoning" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/franksamwel/GitHub/Haal-Centraal-BRP-bewoning/test/cases/getBewoning.csv" decimal="," thousands="." semicolon="1">
+    <textPr sourceFile="/Users/franksamwel/GitHub/Haal-Centraal-BRP-bewoning/test/cases/getBewoning.csv" decimal="," thousands="." semicolon="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -53,7 +53,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{90124372-7A37-4540-9EE3-C52ADA3A87AF}" name="getBewoningverloop" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/franksamwel/GitHub/Haal-Centraal-BRP-bewoning/test/cases/getBewoningverloop.csv" decimal="," thousands="." semicolon="1">
+    <textPr sourceFile="/Users/franksamwel/GitHub/Haal-Centraal-BRP-bewoning/test/cases/getBewoningverloop.csv" decimal="," thousands="." semicolon="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -65,7 +65,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{B5DED811-323B-1745-937E-8E2596847EB1}" name="GetNationaliteithistorie" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/franksamwel/GitHub/Haal-Centraal-BRP-historie-bevragen/test/cases/GetNationaliteithistorie.csv" decimal="," thousands="." semicolon="1">
+    <textPr sourceFile="/Users/franksamwel/GitHub/Haal-Centraal-BRP-historie-bevragen/test/cases/GetNationaliteithistorie.csv" decimal="," thousands="." semicolon="1">
       <textFields count="6">
         <textField type="text"/>
         <textField/>
@@ -77,7 +77,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{42489570-2875-0F45-BC7E-8927DF572FC7}" name="GetPartnerhistorie" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/franksamwel/GitHub/Haal-Centraal-BRP-bewoning/test/cases/getBewoning.csv" decimal="," thousands="." semicolon="1">
+    <textPr sourceFile="/Users/franksamwel/GitHub/Haal-Centraal-BRP-bewoning/test/cases/getBewoning.csv" decimal="," thousands="." semicolon="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -89,7 +89,7 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{278B4DFD-FE2A-7F41-8E41-4AC1EEB5E72D}" name="GetVerblijfplaatshistorie" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/franksamwel/GitHub/Haal-Centraal-BRP-bewoning/test/cases/getBewoning.csv" decimal="," thousands="." semicolon="1">
+    <textPr sourceFile="/Users/franksamwel/GitHub/Haal-Centraal-BRP-bewoning/test/cases/getBewoning.csv" decimal="," thousands="." semicolon="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -101,7 +101,7 @@
     </textPr>
   </connection>
   <connection id="6" xr16:uid="{767F129C-CC63-DC43-9F98-3D9F87DBF0BF}" name="GetVerblijfstitelhistorie" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/franksamwel/GitHub/Haal-Centraal-BRP-historie-bevragen/test/cases/GetVerblijfstitelhistorie.csv" decimal="," thousands="." semicolon="1">
+    <textPr sourceFile="/Users/franksamwel/GitHub/Haal-Centraal-BRP-historie-bevragen/test/cases/GetVerblijfstitelhistorie.csv" decimal="," thousands="." semicolon="1">
       <textFields count="6">
         <textField type="text"/>
         <textField type="text"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="271">
   <si>
     <t>/ingeschrevenpersonen/{burgerservicenummer}</t>
   </si>
@@ -926,6 +926,9 @@
   </si>
   <si>
     <t>verloop</t>
+  </si>
+  <si>
+    <t>als 14.10 == 0000: true</t>
   </si>
 </sst>
 </file>
@@ -1089,19 +1092,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfplaatshistorie" connectionId="5" xr16:uid="{20C89C14-52C3-BC4A-AE7B-7774BDE871DE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetPartnerhistorie" connectionId="4" xr16:uid="{26EA40DB-B172-5747-89E1-403320CC8B7A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetPartnerhistorie" connectionId="4" xr16:uid="{26EA40DB-B172-5747-89E1-403320CC8B7A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfstitelhistorie" connectionId="6" xr16:uid="{D84B9166-BEDF-6348-AE8D-223137517573}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfstitelhistorie" connectionId="6" xr16:uid="{D84B9166-BEDF-6348-AE8D-223137517573}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetNationaliteithistorie" connectionId="3" xr16:uid="{1126B2BD-5C1E-CC48-A3D0-27049524F5AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetNationaliteithistorie" connectionId="3" xr16:uid="{1126B2BD-5C1E-CC48-A3D0-27049524F5AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfplaatshistorie" connectionId="5" xr16:uid="{20C89C14-52C3-BC4A-AE7B-7774BDE871DE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1411,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F3B9D-634A-C449-A474-F9F6FE9216B2}">
   <dimension ref="A1:I382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G295" sqref="G295"/>
+    <sheetView topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="H350" sqref="H350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5769,7 +5772,7 @@
         <v>179</v>
       </c>
       <c r="H349" s="28" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="I349" s="6" t="s">
         <v>8</v>
@@ -8348,8 +8351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617E23F7-E280-AA4D-AFBC-6D4D25678202}">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:I9"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9265,7 +9268,7 @@
         <v>179</v>
       </c>
       <c r="I68" s="28" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>8</v>
@@ -9389,7 +9392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DB7B33-AB14-444A-9988-251D029F721C}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>

--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/GitHub/Haal-Centraal-BRP-bevragen/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/Documents/GitHub/Haal-Centraal-BRP-bevragen/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07098D3-11BB-6C44-A04B-8A61176DC074}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4167C1-17F7-3B4A-8C4A-1B91A7EA3642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33200" yWindow="-4560" windowWidth="27840" windowHeight="16740" activeTab="5" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
+    <workbookView xWindow="-33200" yWindow="-2220" windowWidth="27840" windowHeight="16740" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
   </bookViews>
   <sheets>
     <sheet name="ingeschrevenpersonen" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="279">
   <si>
     <t>/ingeschrevenpersonen/{burgerservicenummer}</t>
   </si>
@@ -929,6 +929,30 @@
   </si>
   <si>
     <t>als 14.10 == 0000: true</t>
+  </si>
+  <si>
+    <t>adellijkeTitel(*)</t>
+  </si>
+  <si>
+    <t>als soort=titel</t>
+  </si>
+  <si>
+    <t>predikaat(*)</t>
+  </si>
+  <si>
+    <t>als soort=predikaat</t>
+  </si>
+  <si>
+    <t>volledigeNaam</t>
+  </si>
+  <si>
+    <t>volledige-naam</t>
+  </si>
+  <si>
+    <t>adellijkeTitel(?)</t>
+  </si>
+  <si>
+    <t>predikaat(?)</t>
   </si>
 </sst>
 </file>
@@ -1412,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F3B9D-634A-C449-A474-F9F6FE9216B2}">
-  <dimension ref="A1:I382"/>
+  <dimension ref="A1:R394"/>
   <sheetViews>
-    <sheetView topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="H350" sqref="H350"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2466,13 +2490,16 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="F88" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>60</v>
+      </c>
+      <c r="H88" t="s">
+        <v>272</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>8</v>
@@ -2508,7 +2535,7 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>63</v>
+        <v>277</v>
       </c>
       <c r="F91" s="6">
         <v>9</v>
@@ -2606,7 +2633,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="F98" s="6">
         <v>9</v>
@@ -2614,13 +2641,10 @@
       <c r="H98" t="s">
         <v>24</v>
       </c>
-      <c r="I98" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F99" s="6">
         <v>9</v>
@@ -2633,17 +2657,14 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C100" t="s">
-        <v>67</v>
+      <c r="D100" t="s">
+        <v>66</v>
       </c>
       <c r="F100" s="6">
         <v>9</v>
       </c>
-      <c r="G100" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="H100" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>8</v>
@@ -2651,13 +2672,16 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="F101" s="6">
-        <v>9</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H101" t="s">
+        <v>274</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>8</v>
@@ -2665,458 +2689,473 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
+        <v>275</v>
+      </c>
+      <c r="H102" t="s">
+        <v>276</v>
+      </c>
+      <c r="I102" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>67</v>
+      </c>
+      <c r="F103" s="6">
+        <v>9</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H103" t="s">
+        <v>67</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>69</v>
+      </c>
+      <c r="F104" s="6">
+        <v>9</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
         <v>70</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F105" s="6">
         <v>9</v>
       </c>
-      <c r="G102" s="15" t="s">
+      <c r="G105" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I102" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="I105" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>57</v>
       </c>
-      <c r="F103" s="10">
+      <c r="F106" s="10">
         <v>1</v>
       </c>
-      <c r="G103" s="11" t="s">
+      <c r="G106" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H106" t="s">
         <v>72</v>
       </c>
-      <c r="I103" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="I106" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>58</v>
       </c>
-      <c r="I104" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>59</v>
-      </c>
-      <c r="F105" s="6">
+      <c r="I107" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>271</v>
+      </c>
+      <c r="F108" s="6">
         <v>1</v>
       </c>
-      <c r="G105" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I105" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
+      <c r="H108" t="s">
+        <v>272</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
         <v>61</v>
       </c>
-      <c r="F106" s="8">
+      <c r="F109" s="8">
         <v>1</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="G109" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H106" s="16"/>
-      <c r="I106" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
+      <c r="H109" s="16"/>
+      <c r="I109" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
         <v>21</v>
       </c>
-      <c r="F107" s="12">
+      <c r="F110" s="12">
         <v>1</v>
       </c>
-      <c r="G107" s="18" t="s">
+      <c r="G110" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C108" t="s">
-        <v>63</v>
-      </c>
-      <c r="H108" t="s">
-        <v>24</v>
-      </c>
-      <c r="I108" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C109" t="s">
+      <c r="H110" s="19"/>
+      <c r="I110" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>277</v>
+      </c>
+      <c r="H111" t="s">
+        <v>24</v>
+      </c>
+      <c r="I111" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
         <v>25</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F112" s="12">
         <v>1</v>
       </c>
-      <c r="G109" s="13" t="s">
+      <c r="G112" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D110" t="s">
+      <c r="H112" s="19"/>
+      <c r="I112" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
         <v>13</v>
       </c>
-      <c r="H110" t="s">
-        <v>14</v>
-      </c>
-      <c r="I110" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D111" t="s">
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
         <v>15</v>
       </c>
-      <c r="H111" t="s">
-        <v>14</v>
-      </c>
-      <c r="I111" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D112" t="s">
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
         <v>16</v>
       </c>
-      <c r="H112" t="s">
-        <v>14</v>
-      </c>
-      <c r="I112" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D113" t="s">
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
         <v>17</v>
       </c>
-      <c r="H113" t="s">
-        <v>14</v>
-      </c>
-      <c r="I113" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C114" t="s">
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
         <v>64</v>
       </c>
-      <c r="H114" t="s">
-        <v>24</v>
-      </c>
-      <c r="I114" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C115" t="s">
+      <c r="H117" t="s">
+        <v>24</v>
+      </c>
+      <c r="I117" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>278</v>
+      </c>
+      <c r="H118" t="s">
+        <v>24</v>
+      </c>
+      <c r="I118" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
         <v>65</v>
       </c>
-      <c r="H115" t="s">
-        <v>24</v>
-      </c>
-      <c r="I115" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C116" t="s">
+      <c r="H119" t="s">
+        <v>24</v>
+      </c>
+      <c r="I119" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
         <v>66</v>
       </c>
-      <c r="H116" t="s">
-        <v>24</v>
-      </c>
-      <c r="I116" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C117" t="s">
+      <c r="H120" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
         <v>73</v>
       </c>
-      <c r="H117" t="s">
-        <v>24</v>
-      </c>
-      <c r="I117" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
+      <c r="H121" t="s">
+        <v>24</v>
+      </c>
+      <c r="I121" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>273</v>
+      </c>
+      <c r="F122" s="6">
+        <v>1</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H122" t="s">
+        <v>274</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>275</v>
+      </c>
+      <c r="H123" t="s">
+        <v>276</v>
+      </c>
+      <c r="I123" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
         <v>67</v>
       </c>
-      <c r="F118" s="8">
+      <c r="F124" s="8">
         <v>1</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="G124" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H124" t="s">
         <v>67</v>
       </c>
-      <c r="I118" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
+      <c r="I124" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
         <v>69</v>
       </c>
-      <c r="F119" s="8">
+      <c r="F125" s="8">
         <v>1</v>
       </c>
-      <c r="G119" s="9" t="s">
+      <c r="G125" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H119" s="16"/>
-      <c r="I119" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
+      <c r="H125" s="16"/>
+      <c r="I125" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
         <v>70</v>
       </c>
-      <c r="F120" s="8">
+      <c r="F126" s="8">
         <v>1</v>
       </c>
-      <c r="G120" s="9" t="s">
+      <c r="G126" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H120" s="16"/>
-      <c r="I120" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
+      <c r="H126" s="16"/>
+      <c r="I126" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
         <v>74</v>
       </c>
-      <c r="F121" s="10">
+      <c r="F127" s="10">
         <v>1</v>
       </c>
-      <c r="G121" s="23" t="s">
+      <c r="G127" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H121" s="14"/>
-      <c r="I121" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
+      <c r="H127" s="14"/>
+      <c r="I127" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
         <v>76</v>
       </c>
-      <c r="H122" s="24" t="s">
+      <c r="H128" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="I122" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
+      <c r="I128" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
         <v>77</v>
       </c>
-      <c r="H123" s="24" t="s">
+      <c r="H129" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="I123" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
+      <c r="I129" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
         <v>78</v>
       </c>
-      <c r="H124" s="24" t="s">
+      <c r="H130" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="I124" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
+      <c r="I130" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
         <v>80</v>
       </c>
-      <c r="H125" s="24" t="s">
+      <c r="H131" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="I125" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="I131" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>81</v>
       </c>
-      <c r="I126" s="25" t="s">
+      <c r="I132" s="25" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>82</v>
-      </c>
-      <c r="F127" s="8">
-        <v>4</v>
-      </c>
-      <c r="G127" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I127" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>84</v>
-      </c>
-      <c r="F128" s="12">
-        <v>4</v>
-      </c>
-      <c r="G128" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C129" t="s">
-        <v>13</v>
-      </c>
-      <c r="H129" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C130" t="s">
-        <v>15</v>
-      </c>
-      <c r="H130" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C131" t="s">
-        <v>16</v>
-      </c>
-      <c r="H131" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C132" t="s">
-        <v>17</v>
-      </c>
-      <c r="H132" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>21</v>
-      </c>
-      <c r="F133" s="12">
+        <v>82</v>
+      </c>
+      <c r="F133" s="8">
         <v>4</v>
       </c>
-      <c r="G133" s="13" t="s">
-        <v>22</v>
+      <c r="G133" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C134" t="s">
-        <v>86</v>
-      </c>
-      <c r="H134" t="s">
-        <v>24</v>
-      </c>
-      <c r="I134" s="6" t="s">
-        <v>8</v>
+      <c r="B134" t="s">
+        <v>84</v>
+      </c>
+      <c r="F134" s="12">
+        <v>4</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" s="12">
+        <v>13</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" s="12">
         <v>4</v>
       </c>
-      <c r="G135" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D136" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" t="s">
-        <v>14</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D137" t="s">
-        <v>15</v>
-      </c>
-      <c r="H137" t="s">
-        <v>14</v>
-      </c>
-      <c r="I137" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D138" t="s">
-        <v>16</v>
-      </c>
-      <c r="H138" t="s">
-        <v>14</v>
-      </c>
-      <c r="I138" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D139" t="s">
-        <v>17</v>
-      </c>
-      <c r="H139" t="s">
-        <v>14</v>
+      <c r="G139" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H140" t="s">
         <v>24</v>
@@ -3127,54 +3166,57 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
-        <v>88</v>
-      </c>
-      <c r="H141" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F141" s="12">
+        <v>4</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
-        <v>89</v>
-      </c>
-      <c r="F142" s="8">
-        <v>4</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>90</v>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" t="s">
+        <v>14</v>
       </c>
       <c r="I142" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
-        <v>91</v>
-      </c>
-      <c r="F143" s="12">
-        <v>4</v>
-      </c>
-      <c r="G143" s="13" t="s">
-        <v>92</v>
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>93</v>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" t="s">
+        <v>14</v>
       </c>
       <c r="I144" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145" s="10">
-        <v>7</v>
-      </c>
-      <c r="G145" s="11" t="s">
-        <v>94</v>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" t="s">
+        <v>14</v>
       </c>
       <c r="I145" s="6" t="s">
         <v>8</v>
@@ -3182,10 +3224,10 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>8</v>
@@ -3193,161 +3235,158 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
+        <v>88</v>
+      </c>
+      <c r="H147" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>89</v>
+      </c>
+      <c r="F148" s="8">
+        <v>4</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I148" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>91</v>
+      </c>
+      <c r="F149" s="12">
+        <v>4</v>
+      </c>
+      <c r="G149" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>93</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151" s="10">
+        <v>7</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" t="s">
+        <v>14</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
         <v>15</v>
       </c>
-      <c r="H147" t="s">
-        <v>14</v>
-      </c>
-      <c r="I147" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C148" t="s">
-        <v>16</v>
-      </c>
-      <c r="H148" t="s">
-        <v>14</v>
-      </c>
-      <c r="I148" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C149" t="s">
-        <v>17</v>
-      </c>
-      <c r="H149" t="s">
-        <v>14</v>
-      </c>
-      <c r="I149" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
-        <v>95</v>
-      </c>
-      <c r="F150" s="10">
-        <v>7</v>
-      </c>
-      <c r="G150" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I150" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>97</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H151" t="s">
-        <v>99</v>
-      </c>
-      <c r="I151" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G152" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I152" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
-        <v>100</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G153" s="27" t="s">
-        <v>101</v>
+      <c r="H153" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="H154" t="s">
         <v>14</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
-        <v>15</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H155" t="s">
         <v>14</v>
       </c>
+      <c r="I155" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C156" t="s">
-        <v>16</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H156" t="s">
-        <v>14</v>
+      <c r="B156" t="s">
+        <v>95</v>
+      </c>
+      <c r="F156" s="10">
+        <v>7</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I156" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C157" t="s">
-        <v>17</v>
+      <c r="A157" t="s">
+        <v>97</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>99</v>
+      </c>
+      <c r="I157" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="G158" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="I158" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C159" t="s">
-        <v>19</v>
+      <c r="B159" t="s">
+        <v>100</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G159" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I159" s="6" t="s">
-        <v>8</v>
+      <c r="G159" s="27" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D160" t="s">
+      <c r="C160" t="s">
         <v>13</v>
       </c>
       <c r="F160" s="6" t="s">
@@ -3356,12 +3395,9 @@
       <c r="H160" t="s">
         <v>14</v>
       </c>
-      <c r="I160" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D161" t="s">
+      <c r="C161" t="s">
         <v>15</v>
       </c>
       <c r="F161" s="6" t="s">
@@ -3370,12 +3406,9 @@
       <c r="H161" t="s">
         <v>14</v>
       </c>
-      <c r="I161" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D162" t="s">
+      <c r="C162" t="s">
         <v>16</v>
       </c>
       <c r="F162" s="6" t="s">
@@ -3384,12 +3417,9 @@
       <c r="H162" t="s">
         <v>14</v>
       </c>
-      <c r="I162" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D163" t="s">
+      <c r="C163" t="s">
         <v>17</v>
       </c>
       <c r="F163" s="6" t="s">
@@ -3398,33 +3428,27 @@
       <c r="H163" t="s">
         <v>14</v>
       </c>
-      <c r="I163" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C164" t="s">
-        <v>21</v>
+      <c r="B164" t="s">
+        <v>18</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G164" s="15" t="s">
-        <v>22</v>
-      </c>
       <c r="I164" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D165" t="s">
-        <v>23</v>
+      <c r="C165" t="s">
+        <v>19</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H165" t="s">
-        <v>24</v>
+      <c r="G165" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>8</v>
@@ -3432,21 +3456,21 @@
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G166" s="15" t="s">
-        <v>26</v>
+      <c r="H166" t="s">
+        <v>14</v>
       </c>
       <c r="I166" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E167" t="s">
-        <v>13</v>
+      <c r="D167" t="s">
+        <v>15</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>98</v>
@@ -3459,8 +3483,8 @@
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E168" t="s">
-        <v>15</v>
+      <c r="D168" t="s">
+        <v>16</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>98</v>
@@ -3473,8 +3497,8 @@
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E169" t="s">
-        <v>16</v>
+      <c r="D169" t="s">
+        <v>17</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>98</v>
@@ -3487,14 +3511,14 @@
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E170" t="s">
-        <v>17</v>
+      <c r="C170" t="s">
+        <v>21</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H170" t="s">
-        <v>14</v>
+      <c r="G170" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="I170" s="6" t="s">
         <v>8</v>
@@ -3502,7 +3526,7 @@
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>98</v>
@@ -3516,74 +3540,77 @@
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H172" t="s">
-        <v>24</v>
+      <c r="G172" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="I172" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C173" t="s">
-        <v>29</v>
+      <c r="E173" t="s">
+        <v>13</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G173" s="15" t="s">
-        <v>30</v>
+      <c r="H173" t="s">
+        <v>14</v>
       </c>
       <c r="I173" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C174" t="s">
-        <v>31</v>
+      <c r="E174" t="s">
+        <v>15</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G174" s="15" t="s">
-        <v>32</v>
+      <c r="H174" t="s">
+        <v>14</v>
       </c>
       <c r="I174" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B175" t="s">
-        <v>35</v>
+      <c r="E175" t="s">
+        <v>16</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G175" s="7" t="s">
-        <v>36</v>
+      <c r="H175" t="s">
+        <v>14</v>
+      </c>
+      <c r="I175" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B176" t="s">
-        <v>21</v>
+      <c r="E176" t="s">
+        <v>17</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G176" s="15" t="s">
-        <v>22</v>
+      <c r="H176" t="s">
+        <v>14</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C177" t="s">
-        <v>43</v>
+      <c r="D177" t="s">
+        <v>27</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>98</v>
@@ -3596,8 +3623,8 @@
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C178" t="s">
-        <v>102</v>
+      <c r="D178" t="s">
+        <v>28</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>98</v>
@@ -3605,72 +3632,72 @@
       <c r="H178" t="s">
         <v>24</v>
       </c>
+      <c r="I178" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>98</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I179" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D180" t="s">
-        <v>13</v>
+      <c r="C180" t="s">
+        <v>31</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H180" t="s">
-        <v>14</v>
+      <c r="G180" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="I180" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D181" t="s">
-        <v>15</v>
+      <c r="B181" t="s">
+        <v>35</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H181" t="s">
-        <v>14</v>
-      </c>
-      <c r="I181" s="6" t="s">
-        <v>8</v>
+      <c r="G181" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D182" t="s">
-        <v>16</v>
+      <c r="B182" t="s">
+        <v>21</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H182" t="s">
-        <v>14</v>
+      <c r="G182" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D183" t="s">
-        <v>17</v>
+      <c r="C183" t="s">
+        <v>43</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I183" s="6" t="s">
         <v>8</v>
@@ -3678,7 +3705,7 @@
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>98</v>
@@ -3688,53 +3715,56 @@
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B185" t="s">
-        <v>58</v>
+      <c r="C185" t="s">
+        <v>25</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="G185" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="I185" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C186" t="s">
-        <v>59</v>
+      <c r="D186" t="s">
+        <v>13</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G186" s="7" t="s">
-        <v>60</v>
+      <c r="H186" t="s">
+        <v>14</v>
       </c>
       <c r="I186" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C187" t="s">
-        <v>61</v>
+      <c r="D187" t="s">
+        <v>15</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G187" s="15" t="s">
-        <v>62</v>
+      <c r="H187" t="s">
+        <v>14</v>
       </c>
       <c r="I187" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C188" t="s">
-        <v>21</v>
+      <c r="D188" t="s">
+        <v>16</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G188" s="15" t="s">
-        <v>22</v>
+      <c r="H188" t="s">
+        <v>14</v>
       </c>
       <c r="I188" s="6" t="s">
         <v>8</v>
@@ -3742,91 +3772,88 @@
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H189" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I189" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D190" t="s">
-        <v>25</v>
+      <c r="C190" t="s">
+        <v>44</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G190" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I190" s="6" t="s">
-        <v>8</v>
+      <c r="H190" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E191" t="s">
-        <v>13</v>
+      <c r="B191" t="s">
+        <v>58</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H191" t="s">
-        <v>14</v>
-      </c>
       <c r="I191" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E192" t="s">
-        <v>15</v>
-      </c>
-      <c r="F192" s="6" t="s">
-        <v>98</v>
+      <c r="C192" t="s">
+        <v>271</v>
+      </c>
+      <c r="F192" s="6">
+        <v>1</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="H192" t="s">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="I192" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E193" t="s">
-        <v>16</v>
+    <row r="193" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C193" t="s">
+        <v>61</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H193" t="s">
-        <v>14</v>
+      <c r="G193" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="I193" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E194" t="s">
-        <v>17</v>
+    <row r="194" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C194" t="s">
+        <v>21</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H194" t="s">
-        <v>14</v>
+      <c r="G194" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="I194" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>64</v>
+        <v>277</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>98</v>
@@ -3838,234 +3865,255 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H196" t="s">
-        <v>24</v>
+      <c r="G196" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="I196" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D197" t="s">
-        <v>66</v>
+    <row r="197" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E197" t="s">
+        <v>13</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H197" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I197" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C198" t="s">
-        <v>67</v>
+    <row r="198" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E198" t="s">
+        <v>15</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G198" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="H198" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="I198" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C199" t="s">
-        <v>69</v>
+    <row r="199" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E199" t="s">
+        <v>16</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G199" s="15" t="s">
-        <v>68</v>
+      <c r="H199" t="s">
+        <v>14</v>
       </c>
       <c r="I199" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C200" t="s">
-        <v>70</v>
+    <row r="200" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E200" t="s">
+        <v>17</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G200" s="15" t="s">
-        <v>71</v>
+      <c r="H200" t="s">
+        <v>14</v>
       </c>
       <c r="I200" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B201" t="s">
-        <v>103</v>
+    <row r="201" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D201" t="s">
+        <v>64</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H201" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="I201" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>105</v>
+    <row r="202" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D202" t="s">
+        <v>278</v>
+      </c>
+      <c r="F202" s="6">
+        <v>9</v>
+      </c>
+      <c r="H202" t="s">
+        <v>24</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B203" t="s">
-        <v>19</v>
-      </c>
-      <c r="F203" s="10">
-        <v>6</v>
-      </c>
-      <c r="G203" s="11" t="s">
-        <v>106</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D203" t="s">
+        <v>65</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H203" t="s">
+        <v>24</v>
       </c>
       <c r="I203" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C204" t="s">
-        <v>13</v>
+    <row r="204" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D204" t="s">
+        <v>66</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="H204" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I204" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C205" t="s">
-        <v>15</v>
+        <v>273</v>
+      </c>
+      <c r="F205" s="6">
+        <v>1</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="H205" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="I205" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C206" t="s">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="H206" t="s">
-        <v>14</v>
-      </c>
-      <c r="I206" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="I206" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C207" t="s">
-        <v>17</v>
+        <v>67</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G207" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="H207" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I207" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B208" t="s">
-        <v>21</v>
-      </c>
-      <c r="F208" s="10">
-        <v>6</v>
-      </c>
-      <c r="G208" s="11" t="s">
-        <v>22</v>
+    <row r="208" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C208" t="s">
+        <v>69</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G208" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="I208" s="6" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C209" t="s">
-        <v>23</v>
-      </c>
-      <c r="H209" t="s">
-        <v>24</v>
+        <v>70</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G209" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="I209" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C210" t="s">
-        <v>25</v>
-      </c>
-      <c r="F210" s="10">
+      <c r="B210" t="s">
+        <v>103</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H210" t="s">
+        <v>104</v>
+      </c>
+      <c r="I210" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>105</v>
+      </c>
+      <c r="I211" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
+        <v>19</v>
+      </c>
+      <c r="F212" s="10">
         <v>6</v>
       </c>
-      <c r="G210" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I210" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D211" t="s">
+      <c r="G212" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I212" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C213" t="s">
         <v>13</v>
       </c>
-      <c r="H211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I211" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D212" t="s">
+      <c r="H213" t="s">
+        <v>14</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C214" t="s">
         <v>15</v>
-      </c>
-      <c r="H212" t="s">
-        <v>14</v>
-      </c>
-      <c r="I212" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D213" t="s">
-        <v>16</v>
-      </c>
-      <c r="H213" t="s">
-        <v>14</v>
-      </c>
-      <c r="I213" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D214" t="s">
-        <v>17</v>
       </c>
       <c r="H214" t="s">
         <v>14</v>
@@ -4076,87 +4124,93 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C215" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H215" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="I215" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C216" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H216" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="I216" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="F217" s="10">
         <v>6</v>
       </c>
       <c r="G217" s="11" t="s">
-        <v>106</v>
+        <v>22</v>
+      </c>
+      <c r="I217" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B218" t="s">
-        <v>29</v>
-      </c>
-      <c r="F218" s="10">
-        <v>6</v>
-      </c>
-      <c r="G218" s="11" t="s">
-        <v>108</v>
+      <c r="C218" t="s">
+        <v>23</v>
+      </c>
+      <c r="H218" t="s">
+        <v>24</v>
+      </c>
+      <c r="I218" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B219" t="s">
-        <v>31</v>
+      <c r="C219" t="s">
+        <v>25</v>
       </c>
       <c r="F219" s="10">
         <v>6</v>
       </c>
       <c r="G219" s="11" t="s">
-        <v>109</v>
+        <v>26</v>
+      </c>
+      <c r="I219" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>110</v>
-      </c>
-      <c r="F220" s="6">
-        <v>5</v>
+      <c r="D220" t="s">
+        <v>13</v>
       </c>
       <c r="H220" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B221" t="s">
-        <v>112</v>
-      </c>
-      <c r="F221" s="6">
-        <v>5</v>
+      <c r="D221" t="s">
+        <v>15</v>
+      </c>
+      <c r="H221" t="s">
+        <v>14</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C222" t="s">
-        <v>19</v>
-      </c>
-      <c r="F222" s="6">
-        <v>5</v>
-      </c>
-      <c r="G222" s="27" t="s">
-        <v>113</v>
+      <c r="D222" t="s">
+        <v>16</v>
+      </c>
+      <c r="H222" t="s">
+        <v>14</v>
       </c>
       <c r="I222" s="6" t="s">
         <v>8</v>
@@ -4164,258 +4218,246 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D223" t="s">
+        <v>17</v>
+      </c>
+      <c r="H223" t="s">
+        <v>14</v>
+      </c>
+      <c r="I223" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C224" t="s">
+        <v>27</v>
+      </c>
+      <c r="H224" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="H225" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>107</v>
+      </c>
+      <c r="F226" s="10">
+        <v>6</v>
+      </c>
+      <c r="G226" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>29</v>
+      </c>
+      <c r="F227" s="10">
+        <v>6</v>
+      </c>
+      <c r="G227" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>31</v>
+      </c>
+      <c r="F228" s="10">
+        <v>6</v>
+      </c>
+      <c r="G228" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>110</v>
+      </c>
+      <c r="F229" s="6">
+        <v>5</v>
+      </c>
+      <c r="H229" t="s">
+        <v>111</v>
+      </c>
+      <c r="I229" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
+        <v>112</v>
+      </c>
+      <c r="F230" s="6">
+        <v>5</v>
+      </c>
+      <c r="I230" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C231" t="s">
+        <v>19</v>
+      </c>
+      <c r="F231" s="6">
+        <v>5</v>
+      </c>
+      <c r="G231" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I231" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D232" t="s">
         <v>13</v>
       </c>
-      <c r="F223" s="6">
-        <v>5</v>
-      </c>
-      <c r="H223" t="s">
-        <v>14</v>
-      </c>
-      <c r="I223" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D224" t="s">
+      <c r="F232" s="6">
+        <v>5</v>
+      </c>
+      <c r="H232" t="s">
+        <v>14</v>
+      </c>
+      <c r="I232" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D233" t="s">
         <v>15</v>
       </c>
-      <c r="F224" s="6">
-        <v>5</v>
-      </c>
-      <c r="H224" t="s">
-        <v>14</v>
-      </c>
-      <c r="I224" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D225" t="s">
+      <c r="F233" s="6">
+        <v>5</v>
+      </c>
+      <c r="H233" t="s">
+        <v>14</v>
+      </c>
+      <c r="I233" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D234" t="s">
         <v>16</v>
       </c>
-      <c r="F225" s="6">
-        <v>5</v>
-      </c>
-      <c r="H225" t="s">
-        <v>14</v>
-      </c>
-      <c r="I225" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D226" t="s">
+      <c r="F234" s="6">
+        <v>5</v>
+      </c>
+      <c r="H234" t="s">
+        <v>14</v>
+      </c>
+      <c r="I234" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D235" t="s">
         <v>17</v>
       </c>
-      <c r="F226" s="6">
-        <v>5</v>
-      </c>
-      <c r="H226" t="s">
-        <v>14</v>
-      </c>
-      <c r="I226" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C227" t="s">
+      <c r="F235" s="6">
+        <v>5</v>
+      </c>
+      <c r="H235" t="s">
+        <v>14</v>
+      </c>
+      <c r="I235" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C236" t="s">
         <v>21</v>
       </c>
-      <c r="F227" s="6">
-        <v>5</v>
-      </c>
-      <c r="G227" s="27" t="s">
+      <c r="F236" s="6">
+        <v>5</v>
+      </c>
+      <c r="G236" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I227" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D228" t="s">
+      <c r="I236" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D237" t="s">
         <v>23</v>
       </c>
-      <c r="F228" s="6">
-        <v>5</v>
-      </c>
-      <c r="H228" t="s">
-        <v>24</v>
-      </c>
-      <c r="I228" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D229" t="s">
+      <c r="F237" s="6">
+        <v>5</v>
+      </c>
+      <c r="H237" t="s">
+        <v>24</v>
+      </c>
+      <c r="I237" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D238" t="s">
         <v>25</v>
       </c>
-      <c r="F229" s="6">
-        <v>5</v>
-      </c>
-      <c r="G229" s="27" t="s">
+      <c r="F238" s="6">
+        <v>5</v>
+      </c>
+      <c r="G238" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I229" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E230" t="s">
+      <c r="I238" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E239" t="s">
         <v>13</v>
       </c>
-      <c r="F230" s="6">
-        <v>5</v>
-      </c>
-      <c r="H230" t="s">
-        <v>14</v>
-      </c>
-      <c r="I230" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E231" t="s">
+      <c r="F239" s="6">
+        <v>5</v>
+      </c>
+      <c r="H239" t="s">
+        <v>14</v>
+      </c>
+      <c r="I239" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E240" t="s">
         <v>15</v>
       </c>
-      <c r="F231" s="6">
-        <v>5</v>
-      </c>
-      <c r="H231" t="s">
-        <v>14</v>
-      </c>
-      <c r="I231" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E232" t="s">
+      <c r="F240" s="6">
+        <v>5</v>
+      </c>
+      <c r="H240" t="s">
+        <v>14</v>
+      </c>
+      <c r="I240" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E241" t="s">
         <v>16</v>
       </c>
-      <c r="F232" s="6">
-        <v>5</v>
-      </c>
-      <c r="H232" t="s">
-        <v>14</v>
-      </c>
-      <c r="I232" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E233" t="s">
+      <c r="F241" s="6">
+        <v>5</v>
+      </c>
+      <c r="H241" t="s">
+        <v>14</v>
+      </c>
+      <c r="I241" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E242" t="s">
         <v>17</v>
-      </c>
-      <c r="F233" s="6">
-        <v>5</v>
-      </c>
-      <c r="H233" t="s">
-        <v>14</v>
-      </c>
-      <c r="I233" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D234" t="s">
-        <v>27</v>
-      </c>
-      <c r="F234" s="6">
-        <v>5</v>
-      </c>
-      <c r="H234" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D235" t="s">
-        <v>28</v>
-      </c>
-      <c r="F235" s="6">
-        <v>5</v>
-      </c>
-      <c r="H235" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C236" t="s">
-        <v>29</v>
-      </c>
-      <c r="F236" s="6">
-        <v>5</v>
-      </c>
-      <c r="G236" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C237" t="s">
-        <v>31</v>
-      </c>
-      <c r="F237" s="6">
-        <v>5</v>
-      </c>
-      <c r="G237" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B238" t="s">
-        <v>5</v>
-      </c>
-      <c r="F238" s="6">
-        <v>5</v>
-      </c>
-      <c r="G238" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I238" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B239" t="s">
-        <v>18</v>
-      </c>
-      <c r="F239" s="6">
-        <v>5</v>
-      </c>
-      <c r="I239" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C240" t="s">
-        <v>19</v>
-      </c>
-      <c r="F240" s="6">
-        <v>5</v>
-      </c>
-      <c r="G240" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I240" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D241" t="s">
-        <v>13</v>
-      </c>
-      <c r="F241" s="6">
-        <v>5</v>
-      </c>
-      <c r="H241" t="s">
-        <v>14</v>
-      </c>
-      <c r="I241" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D242" t="s">
-        <v>15</v>
       </c>
       <c r="F242" s="6">
         <v>5</v>
@@ -4429,113 +4471,104 @@
     </row>
     <row r="243" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D243" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F243" s="6">
         <v>5</v>
       </c>
       <c r="H243" t="s">
-        <v>14</v>
-      </c>
-      <c r="I243" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D244" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F244" s="6">
         <v>5</v>
       </c>
       <c r="H244" t="s">
-        <v>14</v>
-      </c>
-      <c r="I244" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C245" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F245" s="6">
         <v>5</v>
       </c>
-      <c r="I245" s="6" t="s">
+      <c r="G245" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C246" t="s">
+        <v>31</v>
+      </c>
+      <c r="F246" s="6">
+        <v>5</v>
+      </c>
+      <c r="G246" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="F247" s="6">
+        <v>5</v>
+      </c>
+      <c r="G247" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I247" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>18</v>
+      </c>
+      <c r="F248" s="6">
+        <v>5</v>
+      </c>
+      <c r="I248" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D246" t="s">
-        <v>23</v>
-      </c>
-      <c r="F246" s="6">
-        <v>5</v>
-      </c>
-      <c r="H246" t="s">
-        <v>24</v>
-      </c>
-      <c r="I246" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D247" t="s">
-        <v>25</v>
-      </c>
-      <c r="F247" s="6">
-        <v>5</v>
-      </c>
-      <c r="I247" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E248" t="s">
+    <row r="249" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C249" t="s">
+        <v>19</v>
+      </c>
+      <c r="F249" s="6">
+        <v>5</v>
+      </c>
+      <c r="G249" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I249" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D250" t="s">
         <v>13</v>
       </c>
-      <c r="F248" s="6">
-        <v>5</v>
-      </c>
-      <c r="H248" t="s">
-        <v>14</v>
-      </c>
-      <c r="I248" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E249" t="s">
+      <c r="F250" s="6">
+        <v>5</v>
+      </c>
+      <c r="H250" t="s">
+        <v>14</v>
+      </c>
+      <c r="I250" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D251" t="s">
         <v>15</v>
-      </c>
-      <c r="F249" s="6">
-        <v>5</v>
-      </c>
-      <c r="H249" t="s">
-        <v>14</v>
-      </c>
-      <c r="I249" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E250" t="s">
-        <v>16</v>
-      </c>
-      <c r="F250" s="6">
-        <v>5</v>
-      </c>
-      <c r="H250" t="s">
-        <v>14</v>
-      </c>
-      <c r="I250" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E251" t="s">
-        <v>17</v>
       </c>
       <c r="F251" s="6">
         <v>5</v>
@@ -4549,104 +4582,113 @@
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D252" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F252" s="6">
         <v>5</v>
       </c>
       <c r="H252" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="I252" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D253" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F253" s="6">
         <v>5</v>
       </c>
       <c r="H253" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="I253" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C254" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F254" s="6">
         <v>5</v>
       </c>
-      <c r="G254" s="15" t="s">
-        <v>30</v>
+      <c r="I254" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="255" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C255" t="s">
-        <v>31</v>
+      <c r="D255" t="s">
+        <v>23</v>
       </c>
       <c r="F255" s="6">
         <v>5</v>
       </c>
-      <c r="G255" s="15" t="s">
-        <v>32</v>
+      <c r="H255" t="s">
+        <v>24</v>
+      </c>
+      <c r="I255" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B256" t="s">
-        <v>35</v>
+      <c r="D256" t="s">
+        <v>25</v>
       </c>
       <c r="F256" s="6">
         <v>5</v>
       </c>
-      <c r="G256" s="15" t="s">
-        <v>36</v>
+      <c r="I256" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B257" t="s">
-        <v>21</v>
+      <c r="E257" t="s">
+        <v>13</v>
       </c>
       <c r="F257" s="6">
         <v>5</v>
       </c>
-      <c r="G257" s="15" t="s">
-        <v>22</v>
+      <c r="H257" t="s">
+        <v>14</v>
       </c>
       <c r="I257" s="6" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C258" t="s">
-        <v>43</v>
+      <c r="E258" t="s">
+        <v>15</v>
       </c>
       <c r="F258" s="6">
         <v>5</v>
       </c>
       <c r="H258" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I258" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C259" t="s">
-        <v>25</v>
+      <c r="E259" t="s">
+        <v>16</v>
       </c>
       <c r="F259" s="6">
         <v>5</v>
       </c>
-      <c r="G259" s="15" t="s">
-        <v>26</v>
+      <c r="H259" t="s">
+        <v>14</v>
       </c>
       <c r="I259" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D260" t="s">
-        <v>13</v>
+      <c r="E260" t="s">
+        <v>17</v>
       </c>
       <c r="F260" s="6">
         <v>5</v>
@@ -4660,88 +4702,82 @@
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D261" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F261" s="6">
         <v>5</v>
       </c>
       <c r="H261" t="s">
-        <v>14</v>
-      </c>
-      <c r="I261" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D262" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F262" s="6">
         <v>5</v>
       </c>
       <c r="H262" t="s">
-        <v>14</v>
-      </c>
-      <c r="I262" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D263" t="s">
-        <v>17</v>
+      <c r="C263" t="s">
+        <v>29</v>
       </c>
       <c r="F263" s="6">
         <v>5</v>
       </c>
-      <c r="H263" t="s">
-        <v>14</v>
-      </c>
-      <c r="I263" s="6" t="s">
-        <v>8</v>
+      <c r="G263" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C264" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F264" s="6">
         <v>5</v>
       </c>
-      <c r="H264" t="s">
-        <v>24</v>
+      <c r="G264" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C265" t="s">
-        <v>116</v>
+      <c r="B265" t="s">
+        <v>35</v>
       </c>
       <c r="F265" s="6">
         <v>5</v>
       </c>
-      <c r="H265" t="s">
-        <v>24</v>
+      <c r="G265" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F266" s="6">
         <v>5</v>
       </c>
+      <c r="G266" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="I266" s="6" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C267" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F267" s="6">
         <v>5</v>
       </c>
-      <c r="G267" s="7" t="s">
-        <v>60</v>
+      <c r="H267" t="s">
+        <v>24</v>
       </c>
       <c r="I267" s="6" t="s">
         <v>8</v>
@@ -4749,27 +4785,27 @@
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C268" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F268" s="6">
         <v>5</v>
       </c>
       <c r="G268" s="15" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I268" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C269" t="s">
-        <v>21</v>
+      <c r="D269" t="s">
+        <v>13</v>
       </c>
       <c r="F269" s="6">
         <v>5</v>
       </c>
-      <c r="G269" s="15" t="s">
-        <v>22</v>
+      <c r="H269" t="s">
+        <v>14</v>
       </c>
       <c r="I269" s="6" t="s">
         <v>8</v>
@@ -4777,13 +4813,13 @@
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D270" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="F270" s="6">
         <v>5</v>
       </c>
       <c r="H270" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I270" s="6" t="s">
         <v>8</v>
@@ -4791,495 +4827,603 @@
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
+        <v>16</v>
+      </c>
+      <c r="F271" s="6">
+        <v>5</v>
+      </c>
+      <c r="H271" t="s">
+        <v>14</v>
+      </c>
+      <c r="I271" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D272" t="s">
+        <v>17</v>
+      </c>
+      <c r="F272" s="6">
+        <v>5</v>
+      </c>
+      <c r="H272" t="s">
+        <v>14</v>
+      </c>
+      <c r="I272" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C273" t="s">
+        <v>44</v>
+      </c>
+      <c r="F273" s="6">
+        <v>5</v>
+      </c>
+      <c r="H273" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="274" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C274" t="s">
+        <v>116</v>
+      </c>
+      <c r="F274" s="6">
+        <v>5</v>
+      </c>
+      <c r="H274" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="275" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
+        <v>58</v>
+      </c>
+      <c r="F275" s="6">
+        <v>5</v>
+      </c>
+      <c r="I275" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C276" t="s">
+        <v>271</v>
+      </c>
+      <c r="F276" s="6">
+        <v>1</v>
+      </c>
+      <c r="G276" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H276" t="s">
+        <v>272</v>
+      </c>
+      <c r="I276" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O276" s="6"/>
+      <c r="P276" s="7"/>
+      <c r="R276" s="6"/>
+    </row>
+    <row r="277" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C277" t="s">
+        <v>61</v>
+      </c>
+      <c r="F277" s="6">
+        <v>5</v>
+      </c>
+      <c r="G277" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I277" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O277" s="6"/>
+      <c r="P277" s="15"/>
+      <c r="R277" s="6"/>
+    </row>
+    <row r="278" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C278" t="s">
+        <v>21</v>
+      </c>
+      <c r="F278" s="6">
+        <v>5</v>
+      </c>
+      <c r="G278" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I278" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O278" s="6"/>
+      <c r="P278" s="15"/>
+      <c r="R278" s="6"/>
+    </row>
+    <row r="279" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D279" t="s">
+        <v>277</v>
+      </c>
+      <c r="F279" s="6">
+        <v>5</v>
+      </c>
+      <c r="H279" t="s">
+        <v>24</v>
+      </c>
+      <c r="I279" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O279" s="6"/>
+      <c r="P279" s="7"/>
+      <c r="R279" s="6"/>
+    </row>
+    <row r="280" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D280" t="s">
         <v>25</v>
       </c>
-      <c r="F271" s="6">
-        <v>5</v>
-      </c>
-      <c r="G271" s="15" t="s">
+      <c r="F280" s="6">
+        <v>5</v>
+      </c>
+      <c r="G280" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I271" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E272" t="s">
+      <c r="I280" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O280" s="6"/>
+      <c r="P280" s="15"/>
+      <c r="R280" s="6"/>
+    </row>
+    <row r="281" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E281" t="s">
         <v>13</v>
       </c>
-      <c r="F272" s="6">
-        <v>5</v>
-      </c>
-      <c r="H272" t="s">
-        <v>14</v>
-      </c>
-      <c r="I272" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E273" t="s">
+      <c r="F281" s="6">
+        <v>5</v>
+      </c>
+      <c r="H281" t="s">
+        <v>14</v>
+      </c>
+      <c r="I281" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O281" s="6"/>
+      <c r="P281" s="7"/>
+      <c r="R281" s="6"/>
+    </row>
+    <row r="282" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E282" t="s">
         <v>15</v>
       </c>
-      <c r="F273" s="6">
-        <v>5</v>
-      </c>
-      <c r="H273" t="s">
-        <v>14</v>
-      </c>
-      <c r="I273" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E274" t="s">
+      <c r="F282" s="6">
+        <v>5</v>
+      </c>
+      <c r="H282" t="s">
+        <v>14</v>
+      </c>
+      <c r="I282" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O282" s="6"/>
+      <c r="P282" s="7"/>
+      <c r="R282" s="6"/>
+    </row>
+    <row r="283" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E283" t="s">
         <v>16</v>
       </c>
-      <c r="F274" s="6">
-        <v>5</v>
-      </c>
-      <c r="H274" t="s">
-        <v>14</v>
-      </c>
-      <c r="I274" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E275" t="s">
+      <c r="F283" s="6">
+        <v>5</v>
+      </c>
+      <c r="H283" t="s">
+        <v>14</v>
+      </c>
+      <c r="I283" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O283" s="6"/>
+      <c r="P283" s="7"/>
+      <c r="R283" s="6"/>
+    </row>
+    <row r="284" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E284" t="s">
         <v>17</v>
       </c>
-      <c r="F275" s="6">
-        <v>5</v>
-      </c>
-      <c r="H275" t="s">
-        <v>14</v>
-      </c>
-      <c r="I275" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D276" t="s">
+      <c r="F284" s="6">
+        <v>5</v>
+      </c>
+      <c r="H284" t="s">
+        <v>14</v>
+      </c>
+      <c r="I284" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O284" s="6"/>
+      <c r="P284" s="7"/>
+      <c r="R284" s="6"/>
+    </row>
+    <row r="285" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D285" t="s">
         <v>64</v>
       </c>
-      <c r="F276" s="6">
-        <v>5</v>
-      </c>
-      <c r="H276" t="s">
-        <v>24</v>
-      </c>
-      <c r="I276" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D277" t="s">
+      <c r="F285" s="6">
+        <v>5</v>
+      </c>
+      <c r="H285" t="s">
+        <v>24</v>
+      </c>
+      <c r="I285" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O285" s="6"/>
+      <c r="P285" s="7"/>
+      <c r="R285" s="6"/>
+    </row>
+    <row r="286" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D286" t="s">
+        <v>278</v>
+      </c>
+      <c r="F286" s="6">
+        <v>9</v>
+      </c>
+      <c r="H286" t="s">
+        <v>24</v>
+      </c>
+      <c r="I286" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O286" s="6"/>
+      <c r="P286" s="7"/>
+      <c r="R286" s="6"/>
+    </row>
+    <row r="287" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D287" t="s">
         <v>65</v>
       </c>
-      <c r="F277" s="6">
-        <v>5</v>
-      </c>
-      <c r="H277" t="s">
-        <v>24</v>
-      </c>
-      <c r="I277" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D278" t="s">
+      <c r="F287" s="6">
+        <v>5</v>
+      </c>
+      <c r="H287" t="s">
+        <v>24</v>
+      </c>
+      <c r="I287" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O287" s="6"/>
+      <c r="P287" s="7"/>
+      <c r="R287" s="6"/>
+    </row>
+    <row r="288" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D288" t="s">
         <v>66</v>
       </c>
-      <c r="F278" s="6">
-        <v>5</v>
-      </c>
-      <c r="H278" t="s">
-        <v>24</v>
-      </c>
-      <c r="I278" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C279" t="s">
+      <c r="F288" s="6">
+        <v>5</v>
+      </c>
+      <c r="H288" t="s">
+        <v>24</v>
+      </c>
+      <c r="I288" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O288" s="6"/>
+      <c r="P288" s="7"/>
+      <c r="R288" s="6"/>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C289" t="s">
+        <v>273</v>
+      </c>
+      <c r="F289" s="6">
+        <v>1</v>
+      </c>
+      <c r="G289" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H289" t="s">
+        <v>274</v>
+      </c>
+      <c r="I289" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O289" s="6"/>
+      <c r="P289" s="7"/>
+      <c r="R289" s="6"/>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C290" t="s">
+        <v>275</v>
+      </c>
+      <c r="H290" t="s">
+        <v>276</v>
+      </c>
+      <c r="I290" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O290" s="6"/>
+      <c r="P290" s="7"/>
+      <c r="R290" s="6"/>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C291" t="s">
         <v>67</v>
       </c>
-      <c r="F279" s="6">
-        <v>5</v>
-      </c>
-      <c r="G279" s="15" t="s">
+      <c r="F291" s="6">
+        <v>5</v>
+      </c>
+      <c r="G291" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H279" t="s">
+      <c r="H291" t="s">
         <v>67</v>
       </c>
-      <c r="I279" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C280" t="s">
+      <c r="I291" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O291" s="6"/>
+      <c r="P291" s="7"/>
+      <c r="R291" s="6"/>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C292" t="s">
         <v>69</v>
       </c>
-      <c r="F280" s="6">
-        <v>5</v>
-      </c>
-      <c r="G280" s="15" t="s">
+      <c r="F292" s="6">
+        <v>5</v>
+      </c>
+      <c r="G292" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I280" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C281" t="s">
+      <c r="I292" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O292" s="6"/>
+      <c r="P292" s="7"/>
+      <c r="R292" s="6"/>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C293" t="s">
         <v>70</v>
       </c>
-      <c r="F281" s="6">
-        <v>5</v>
-      </c>
-      <c r="G281" s="15" t="s">
+      <c r="F293" s="6">
+        <v>5</v>
+      </c>
+      <c r="G293" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I281" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B282" t="s">
+      <c r="I293" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O293" s="6"/>
+      <c r="P293" s="7"/>
+      <c r="R293" s="6"/>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
         <v>117</v>
       </c>
-      <c r="F282" s="6">
-        <v>5</v>
-      </c>
-      <c r="G282" s="27" t="s">
+      <c r="F294" s="6">
+        <v>5</v>
+      </c>
+      <c r="G294" s="27" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+      <c r="O294" s="6"/>
+      <c r="P294" s="7"/>
+      <c r="R294" s="6"/>
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
         <v>119</v>
       </c>
-      <c r="F283" s="6">
+      <c r="F295" s="6">
         <v>12</v>
       </c>
-      <c r="G283" s="7" t="s">
+      <c r="G295" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H283" t="s">
+      <c r="H295" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+      <c r="O295" s="6"/>
+      <c r="P295" s="7"/>
+      <c r="R295" s="21"/>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
         <v>122</v>
       </c>
-      <c r="I284" s="6" t="s">
+      <c r="I296" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B285" t="s">
+      <c r="O296" s="6"/>
+      <c r="P296" s="15"/>
+      <c r="R296" s="6"/>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B297" t="s">
         <v>123</v>
       </c>
-      <c r="F285" s="10">
-        <v>8</v>
-      </c>
-      <c r="G285" s="11" t="s">
+      <c r="F297" s="10">
+        <v>8</v>
+      </c>
+      <c r="G297" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="I285" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B286" t="s">
+      <c r="I297" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O297" s="6"/>
+      <c r="P297" s="15"/>
+      <c r="R297" s="6"/>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B298" t="s">
         <v>125</v>
       </c>
-      <c r="F286" s="10">
-        <v>8</v>
-      </c>
-      <c r="G286" s="11" t="s">
+      <c r="F298" s="10">
+        <v>8</v>
+      </c>
+      <c r="G298" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I286" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B287" t="s">
+      <c r="I298" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O298" s="6"/>
+      <c r="P298" s="15"/>
+      <c r="R298" s="6"/>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B299" t="s">
         <v>127</v>
       </c>
-      <c r="F287" s="10">
-        <v>8</v>
-      </c>
-      <c r="G287" s="11" t="s">
+      <c r="F299" s="10">
+        <v>8</v>
+      </c>
+      <c r="G299" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="I287" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B288" t="s">
+      <c r="I299" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B300" t="s">
         <v>129</v>
       </c>
-      <c r="F288" s="10">
-        <v>8</v>
-      </c>
-      <c r="G288" s="11" t="s">
+      <c r="F300" s="10">
+        <v>8</v>
+      </c>
+      <c r="G300" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I288" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="289" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B289" t="s">
+      <c r="I300" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B301" t="s">
         <v>131</v>
       </c>
-      <c r="F289" s="10">
-        <v>8</v>
-      </c>
-      <c r="G289" s="11" t="s">
+      <c r="F301" s="10">
+        <v>8</v>
+      </c>
+      <c r="G301" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H289" t="s">
+      <c r="H301" t="s">
         <v>133</v>
       </c>
-      <c r="I289" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="290" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B290" t="s">
+      <c r="I301" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B302" t="s">
         <v>134</v>
       </c>
-      <c r="F290" s="10">
-        <v>8</v>
-      </c>
-      <c r="G290" s="11" t="s">
+      <c r="F302" s="10">
+        <v>8</v>
+      </c>
+      <c r="G302" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H290" t="s">
+      <c r="H302" t="s">
         <v>136</v>
       </c>
-      <c r="I290" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="291" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B291" t="s">
+      <c r="I302" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
         <v>137</v>
       </c>
-      <c r="F291" s="10">
-        <v>8</v>
-      </c>
-      <c r="G291" s="11" t="s">
+      <c r="F303" s="10">
+        <v>8</v>
+      </c>
+      <c r="G303" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="I291" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="292" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B292" t="s">
+      <c r="I303" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B304" t="s">
         <v>139</v>
       </c>
-      <c r="F292" s="10">
-        <v>8</v>
-      </c>
-      <c r="G292" s="11" t="s">
+      <c r="F304" s="10">
+        <v>8</v>
+      </c>
+      <c r="G304" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H292" t="s">
+      <c r="H304" t="s">
         <v>133</v>
       </c>
-      <c r="I292" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="293" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B293" t="s">
+      <c r="I304" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B305" t="s">
         <v>141</v>
       </c>
-      <c r="F293" s="10">
-        <v>8</v>
-      </c>
-      <c r="G293" s="11" t="s">
+      <c r="F305" s="10">
+        <v>8</v>
+      </c>
+      <c r="G305" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H293" t="s">
+      <c r="H305" t="s">
         <v>133</v>
       </c>
-      <c r="I293" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="294" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B294" t="s">
-        <v>142</v>
-      </c>
-      <c r="F294" s="10">
-        <v>8</v>
-      </c>
-      <c r="G294" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H294" t="s">
-        <v>133</v>
-      </c>
-      <c r="I294" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="295" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B295" t="s">
-        <v>144</v>
-      </c>
-      <c r="F295" s="10">
-        <v>8</v>
-      </c>
-      <c r="G295" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I295" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="296" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B296" t="s">
-        <v>146</v>
-      </c>
-      <c r="F296" s="10">
-        <v>8</v>
-      </c>
-      <c r="G296" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="I296" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="297" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C297" t="s">
-        <v>13</v>
-      </c>
-      <c r="H297" t="s">
-        <v>14</v>
-      </c>
-      <c r="I297" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="298" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C298" t="s">
-        <v>15</v>
-      </c>
-      <c r="H298" t="s">
-        <v>14</v>
-      </c>
-      <c r="I298" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="299" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C299" t="s">
-        <v>16</v>
-      </c>
-      <c r="H299" t="s">
-        <v>14</v>
-      </c>
-      <c r="I299" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="300" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C300" t="s">
-        <v>17</v>
-      </c>
-      <c r="H300" t="s">
-        <v>14</v>
-      </c>
-      <c r="I300" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="301" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B301" t="s">
-        <v>84</v>
-      </c>
-      <c r="F301" s="6">
-        <v>8</v>
-      </c>
-      <c r="G301" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="302" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C302" t="s">
-        <v>13</v>
-      </c>
-      <c r="H302" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="303" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C303" t="s">
-        <v>15</v>
-      </c>
-      <c r="H303" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="304" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C304" t="s">
-        <v>16</v>
-      </c>
-      <c r="H304" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="305" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C305" t="s">
-        <v>17</v>
-      </c>
-      <c r="H305" t="s">
-        <v>14</v>
+      <c r="I305" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F306" s="10">
         <v>8</v>
       </c>
       <c r="G306" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
+      </c>
+      <c r="H306" t="s">
+        <v>133</v>
       </c>
       <c r="I306" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="307" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C307" t="s">
-        <v>13</v>
-      </c>
-      <c r="H307" t="s">
-        <v>14</v>
+      <c r="B307" t="s">
+        <v>144</v>
+      </c>
+      <c r="F307" s="10">
+        <v>8</v>
+      </c>
+      <c r="G307" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="I307" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="308" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C308" t="s">
-        <v>15</v>
-      </c>
-      <c r="H308" t="s">
-        <v>14</v>
+      <c r="B308" t="s">
+        <v>146</v>
+      </c>
+      <c r="F308" s="10">
+        <v>8</v>
+      </c>
+      <c r="G308" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="I308" s="6" t="s">
         <v>8</v>
@@ -5287,7 +5431,7 @@
     </row>
     <row r="309" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C309" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H309" t="s">
         <v>14</v>
@@ -5298,7 +5442,7 @@
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C310" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H310" t="s">
         <v>14</v>
@@ -5308,14 +5452,11 @@
       </c>
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B311" t="s">
-        <v>150</v>
-      </c>
-      <c r="F311" s="10">
-        <v>8</v>
-      </c>
-      <c r="G311" s="11" t="s">
-        <v>151</v>
+      <c r="C311" t="s">
+        <v>16</v>
+      </c>
+      <c r="H311" t="s">
+        <v>14</v>
       </c>
       <c r="I311" s="6" t="s">
         <v>8</v>
@@ -5323,7 +5464,7 @@
     </row>
     <row r="312" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C312" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H312" t="s">
         <v>14</v>
@@ -5333,75 +5474,57 @@
       </c>
     </row>
     <row r="313" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C313" t="s">
-        <v>15</v>
-      </c>
-      <c r="H313" t="s">
-        <v>14</v>
-      </c>
-      <c r="I313" s="6" t="s">
-        <v>8</v>
+      <c r="B313" t="s">
+        <v>84</v>
+      </c>
+      <c r="F313" s="6">
+        <v>8</v>
+      </c>
+      <c r="G313" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C314" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H314" t="s">
         <v>14</v>
-      </c>
-      <c r="I314" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C315" t="s">
+        <v>15</v>
+      </c>
+      <c r="H315" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="316" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C316" t="s">
+        <v>16</v>
+      </c>
+      <c r="H316" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C317" t="s">
         <v>17</v>
       </c>
-      <c r="H315" t="s">
-        <v>14</v>
-      </c>
-      <c r="I315" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="316" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B316" t="s">
-        <v>152</v>
-      </c>
-      <c r="F316" s="10">
-        <v>8</v>
-      </c>
-      <c r="G316" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="I316" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="317" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B317" t="s">
-        <v>154</v>
-      </c>
-      <c r="F317" s="10">
-        <v>8</v>
-      </c>
-      <c r="G317" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="I317" s="6" t="s">
-        <v>8</v>
+      <c r="H317" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="F318" s="10">
         <v>8</v>
       </c>
       <c r="G318" s="11" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="I318" s="6" t="s">
         <v>8</v>
@@ -5409,10 +5532,10 @@
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C319" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="H319" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I319" s="6" t="s">
         <v>8</v>
@@ -5420,652 +5543,658 @@
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C320" t="s">
+        <v>15</v>
+      </c>
+      <c r="H320" t="s">
+        <v>14</v>
+      </c>
+      <c r="I320" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C321" t="s">
+        <v>16</v>
+      </c>
+      <c r="H321" t="s">
+        <v>14</v>
+      </c>
+      <c r="I321" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C322" t="s">
+        <v>17</v>
+      </c>
+      <c r="H322" t="s">
+        <v>14</v>
+      </c>
+      <c r="I322" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
+        <v>150</v>
+      </c>
+      <c r="F323" s="10">
+        <v>8</v>
+      </c>
+      <c r="G323" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I323" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C324" t="s">
+        <v>13</v>
+      </c>
+      <c r="H324" t="s">
+        <v>14</v>
+      </c>
+      <c r="I324" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C325" t="s">
+        <v>15</v>
+      </c>
+      <c r="H325" t="s">
+        <v>14</v>
+      </c>
+      <c r="I325" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C326" t="s">
+        <v>16</v>
+      </c>
+      <c r="H326" t="s">
+        <v>14</v>
+      </c>
+      <c r="I326" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C327" t="s">
+        <v>17</v>
+      </c>
+      <c r="H327" t="s">
+        <v>14</v>
+      </c>
+      <c r="I327" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B328" t="s">
+        <v>152</v>
+      </c>
+      <c r="F328" s="10">
+        <v>8</v>
+      </c>
+      <c r="G328" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I328" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B329" t="s">
+        <v>154</v>
+      </c>
+      <c r="F329" s="10">
+        <v>8</v>
+      </c>
+      <c r="G329" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I329" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B330" t="s">
+        <v>21</v>
+      </c>
+      <c r="F330" s="10">
+        <v>8</v>
+      </c>
+      <c r="G330" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I330" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C331" t="s">
+        <v>156</v>
+      </c>
+      <c r="H331" t="s">
+        <v>24</v>
+      </c>
+      <c r="I331" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C332" t="s">
         <v>157</v>
       </c>
-      <c r="H320" t="s">
-        <v>24</v>
-      </c>
-      <c r="I320" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="321" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C321" t="s">
+      <c r="H332" t="s">
+        <v>24</v>
+      </c>
+      <c r="I332" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C333" t="s">
         <v>158</v>
       </c>
-      <c r="H321" t="s">
-        <v>24</v>
-      </c>
-      <c r="I321" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="322" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C322" t="s">
+      <c r="H333" t="s">
+        <v>24</v>
+      </c>
+      <c r="I333" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="334" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C334" t="s">
         <v>159</v>
       </c>
-      <c r="H322" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="323" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C323" t="s">
+      <c r="H334" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="335" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C335" t="s">
         <v>25</v>
       </c>
-      <c r="F323" s="10">
-        <v>8</v>
-      </c>
-      <c r="G323" s="11" t="s">
+      <c r="F335" s="10">
+        <v>8</v>
+      </c>
+      <c r="G335" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I323" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="324" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D324" t="s">
+      <c r="I335" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D336" t="s">
         <v>13</v>
       </c>
-      <c r="H324" t="s">
-        <v>14</v>
-      </c>
-      <c r="I324" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="325" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D325" t="s">
+      <c r="H336" t="s">
+        <v>14</v>
+      </c>
+      <c r="I336" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D337" t="s">
         <v>15</v>
       </c>
-      <c r="H325" t="s">
-        <v>14</v>
-      </c>
-      <c r="I325" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="326" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D326" t="s">
+      <c r="H337" t="s">
+        <v>14</v>
+      </c>
+      <c r="I337" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D338" t="s">
         <v>16</v>
       </c>
-      <c r="H326" t="s">
-        <v>14</v>
-      </c>
-      <c r="I326" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="327" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D327" t="s">
+      <c r="H338" t="s">
+        <v>14</v>
+      </c>
+      <c r="I338" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D339" t="s">
         <v>17</v>
       </c>
-      <c r="H327" t="s">
-        <v>14</v>
-      </c>
-      <c r="I327" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="328" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C328" t="s">
+      <c r="H339" t="s">
+        <v>14</v>
+      </c>
+      <c r="I339" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C340" t="s">
         <v>160</v>
       </c>
-      <c r="H328" t="s">
-        <v>24</v>
-      </c>
-      <c r="I328" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="329" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C329" t="s">
+      <c r="H340" t="s">
+        <v>24</v>
+      </c>
+      <c r="I340" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C341" t="s">
         <v>161</v>
       </c>
-      <c r="H329" t="s">
-        <v>24</v>
-      </c>
-      <c r="I329" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="330" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C330" t="s">
+      <c r="H341" t="s">
+        <v>24</v>
+      </c>
+      <c r="I341" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C342" t="s">
         <v>162</v>
       </c>
-      <c r="H330" t="s">
-        <v>24</v>
-      </c>
-      <c r="I330" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="331" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C331" t="s">
+      <c r="H342" t="s">
+        <v>24</v>
+      </c>
+      <c r="I342" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C343" t="s">
         <v>163</v>
       </c>
-      <c r="H331" t="s">
-        <v>24</v>
-      </c>
-      <c r="I331" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="332" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C332" t="s">
+      <c r="H343" t="s">
+        <v>24</v>
+      </c>
+      <c r="I343" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C344" t="s">
         <v>164</v>
       </c>
-      <c r="H332" t="s">
-        <v>24</v>
-      </c>
-      <c r="I332" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="333" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C333" t="s">
+      <c r="H344" t="s">
+        <v>24</v>
+      </c>
+      <c r="I344" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C345" t="s">
         <v>165</v>
       </c>
-      <c r="H333" t="s">
-        <v>24</v>
-      </c>
-      <c r="I333" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="334" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C334" t="s">
+      <c r="H345" t="s">
+        <v>24</v>
+      </c>
+      <c r="I345" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C346" t="s">
         <v>166</v>
       </c>
-      <c r="H334" t="s">
-        <v>24</v>
-      </c>
-      <c r="I334" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="335" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C335" t="s">
+      <c r="H346" t="s">
+        <v>24</v>
+      </c>
+      <c r="I346" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C347" t="s">
         <v>167</v>
       </c>
-      <c r="H335" t="s">
-        <v>24</v>
-      </c>
-      <c r="I335" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="336" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C336" t="s">
+      <c r="H347" t="s">
+        <v>24</v>
+      </c>
+      <c r="I347" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C348" t="s">
         <v>168</v>
       </c>
-      <c r="H336" t="s">
-        <v>24</v>
-      </c>
-      <c r="I336" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C337" t="s">
+      <c r="H348" t="s">
+        <v>24</v>
+      </c>
+      <c r="I348" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C349" t="s">
         <v>169</v>
       </c>
-      <c r="H337" t="s">
-        <v>24</v>
-      </c>
-      <c r="I337" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C338" t="s">
+      <c r="H349" t="s">
+        <v>24</v>
+      </c>
+      <c r="I349" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C350" t="s">
         <v>170</v>
       </c>
-      <c r="H338" t="s">
-        <v>24</v>
-      </c>
-      <c r="I338" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C339" t="s">
+      <c r="H350" t="s">
+        <v>24</v>
+      </c>
+      <c r="I350" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C351" t="s">
         <v>171</v>
       </c>
-      <c r="H339" t="s">
-        <v>24</v>
-      </c>
-      <c r="I339" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C340" t="s">
+      <c r="H351" t="s">
+        <v>24</v>
+      </c>
+      <c r="I351" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C352" t="s">
         <v>172</v>
       </c>
-      <c r="H340" t="s">
-        <v>24</v>
-      </c>
-      <c r="I340" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C341" t="s">
+      <c r="H352" t="s">
+        <v>24</v>
+      </c>
+      <c r="I352" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C353" t="s">
         <v>173</v>
       </c>
-      <c r="H341" t="s">
-        <v>24</v>
-      </c>
-      <c r="I341" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C342" t="s">
+      <c r="H353" t="s">
+        <v>24</v>
+      </c>
+      <c r="I353" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C354" t="s">
         <v>174</v>
       </c>
-      <c r="H342" t="s">
-        <v>24</v>
-      </c>
-      <c r="I342" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B343" t="s">
+      <c r="H354" t="s">
+        <v>24</v>
+      </c>
+      <c r="I354" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B355" t="s">
         <v>175</v>
       </c>
-      <c r="F343" s="10">
-        <v>8</v>
-      </c>
-      <c r="G343" s="11" t="s">
+      <c r="F355" s="10">
+        <v>8</v>
+      </c>
+      <c r="G355" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H343" s="28" t="s">
+      <c r="H355" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="I343" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B344" t="s">
+      <c r="I355" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B356" t="s">
         <v>177</v>
       </c>
-      <c r="F344" s="10">
-        <v>8</v>
-      </c>
-      <c r="G344" s="11" t="s">
+      <c r="F356" s="10">
+        <v>8</v>
+      </c>
+      <c r="G356" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H344" t="s">
+      <c r="H356" t="s">
         <v>133</v>
       </c>
-      <c r="I344" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B345" t="s">
+      <c r="I356" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B357" t="s">
         <v>29</v>
       </c>
-      <c r="F345" s="10">
-        <v>8</v>
-      </c>
-      <c r="G345" s="11" t="s">
+      <c r="F357" s="10">
+        <v>8</v>
+      </c>
+      <c r="G357" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H345" t="s">
+      <c r="H357" t="s">
         <v>133</v>
       </c>
-      <c r="I345" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B346" t="s">
+      <c r="I357" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B358" t="s">
         <v>180</v>
       </c>
-      <c r="F346" s="10">
-        <v>8</v>
-      </c>
-      <c r="G346" s="11" t="s">
+      <c r="F358" s="10">
+        <v>8</v>
+      </c>
+      <c r="G358" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B347" t="s">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B359" t="s">
         <v>182</v>
       </c>
-      <c r="F347" s="10">
-        <v>8</v>
-      </c>
-      <c r="G347" s="11" t="s">
+      <c r="F359" s="10">
+        <v>8</v>
+      </c>
+      <c r="G359" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="I347" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B348" t="s">
+      <c r="I359" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B360" t="s">
         <v>184</v>
       </c>
-      <c r="F348" s="10">
-        <v>8</v>
-      </c>
-      <c r="G348" s="11" t="s">
+      <c r="F360" s="10">
+        <v>8</v>
+      </c>
+      <c r="G360" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="I348" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B349" t="s">
+      <c r="I360" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B361" t="s">
         <v>186</v>
       </c>
-      <c r="F349" s="10">
-        <v>8</v>
-      </c>
-      <c r="G349" s="23" t="s">
+      <c r="F361" s="10">
+        <v>8</v>
+      </c>
+      <c r="G361" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="H349" s="28" t="s">
+      <c r="H361" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="I349" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B350" t="s">
+      <c r="I361" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B362" t="s">
         <v>188</v>
       </c>
-      <c r="F350" s="10">
-        <v>8</v>
-      </c>
-      <c r="G350" s="11" t="s">
+      <c r="F362" s="10">
+        <v>8</v>
+      </c>
+      <c r="G362" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H350" s="28" t="s">
+      <c r="H362" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="I350" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
+      <c r="I362" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
         <v>189</v>
       </c>
-      <c r="I351" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B352" t="s">
+      <c r="I363" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B364" t="s">
         <v>190</v>
       </c>
-      <c r="F352" s="10">
+      <c r="F364" s="10">
         <v>10</v>
       </c>
-      <c r="G352" s="11" t="s">
+      <c r="G364" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="I352" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="353" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B353" t="s">
+      <c r="I364" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B365" t="s">
         <v>192</v>
       </c>
-      <c r="F353" s="10">
+      <c r="F365" s="10">
         <v>10</v>
       </c>
-      <c r="G353" s="11" t="s">
+      <c r="G365" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="I353" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="354" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C354" t="s">
+      <c r="I365" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C366" t="s">
         <v>13</v>
       </c>
-      <c r="H354" t="s">
-        <v>14</v>
-      </c>
-      <c r="I354" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="355" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C355" t="s">
+      <c r="H366" t="s">
+        <v>14</v>
+      </c>
+      <c r="I366" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C367" t="s">
         <v>15</v>
       </c>
-      <c r="H355" t="s">
-        <v>14</v>
-      </c>
-      <c r="I355" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="356" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C356" t="s">
+      <c r="H367" t="s">
+        <v>14</v>
+      </c>
+      <c r="I367" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C368" t="s">
         <v>16</v>
       </c>
-      <c r="H356" t="s">
-        <v>14</v>
-      </c>
-      <c r="I356" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="357" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C357" t="s">
+      <c r="H368" t="s">
+        <v>14</v>
+      </c>
+      <c r="I368" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C369" t="s">
         <v>17</v>
       </c>
-      <c r="H357" t="s">
-        <v>14</v>
-      </c>
-      <c r="I357" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="358" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B358" t="s">
+      <c r="H369" t="s">
+        <v>14</v>
+      </c>
+      <c r="I369" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B370" t="s">
         <v>194</v>
       </c>
-      <c r="F358" s="10">
+      <c r="F370" s="10">
         <v>10</v>
       </c>
-      <c r="G358" s="11" t="s">
+      <c r="G370" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I358" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="359" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C359" t="s">
+      <c r="I370" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C371" t="s">
         <v>13</v>
       </c>
-      <c r="H359" t="s">
-        <v>14</v>
-      </c>
-      <c r="I359" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="360" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C360" t="s">
+      <c r="H371" t="s">
+        <v>14</v>
+      </c>
+      <c r="I371" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C372" t="s">
         <v>15</v>
       </c>
-      <c r="H360" t="s">
-        <v>14</v>
-      </c>
-      <c r="I360" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="361" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C361" t="s">
+      <c r="H372" t="s">
+        <v>14</v>
+      </c>
+      <c r="I372" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C373" t="s">
         <v>16</v>
       </c>
-      <c r="H361" t="s">
-        <v>14</v>
-      </c>
-      <c r="I361" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="362" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C362" t="s">
+      <c r="H373" t="s">
+        <v>14</v>
+      </c>
+      <c r="I373" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C374" t="s">
         <v>17</v>
       </c>
-      <c r="H362" t="s">
-        <v>14</v>
-      </c>
-      <c r="I362" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="363" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B363" t="s">
-        <v>21</v>
-      </c>
-      <c r="F363" s="10">
-        <v>10</v>
-      </c>
-      <c r="G363" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I363" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="364" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C364" t="s">
-        <v>196</v>
-      </c>
-      <c r="H364" t="s">
-        <v>24</v>
-      </c>
-      <c r="I364" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="365" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C365" t="s">
-        <v>197</v>
-      </c>
-      <c r="H365" t="s">
-        <v>24</v>
-      </c>
-      <c r="I365" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="366" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C366" t="s">
-        <v>198</v>
-      </c>
-      <c r="H366" t="s">
-        <v>24</v>
-      </c>
-      <c r="I366" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="367" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C367" t="s">
-        <v>25</v>
-      </c>
-      <c r="F367" s="10">
-        <v>10</v>
-      </c>
-      <c r="G367" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I367" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="368" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D368" t="s">
-        <v>13</v>
-      </c>
-      <c r="H368" t="s">
-        <v>14</v>
-      </c>
-      <c r="I368" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D369" t="s">
-        <v>15</v>
-      </c>
-      <c r="H369" t="s">
-        <v>14</v>
-      </c>
-      <c r="I369" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D370" t="s">
-        <v>16</v>
-      </c>
-      <c r="H370" t="s">
-        <v>14</v>
-      </c>
-      <c r="I370" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D371" t="s">
-        <v>17</v>
-      </c>
-      <c r="H371" t="s">
-        <v>14</v>
-      </c>
-      <c r="I371" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>199</v>
-      </c>
-      <c r="I372" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B373" t="s">
-        <v>200</v>
-      </c>
-      <c r="F373" s="10">
-        <v>8</v>
-      </c>
-      <c r="G373" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="I373" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B374" t="s">
-        <v>201</v>
-      </c>
-      <c r="F374" s="6">
-        <v>9</v>
+      <c r="H374" t="s">
+        <v>14</v>
       </c>
       <c r="I374" s="6" t="s">
         <v>8</v>
@@ -6073,80 +6202,218 @@
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
+        <v>21</v>
+      </c>
+      <c r="F375" s="10">
+        <v>10</v>
+      </c>
+      <c r="G375" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I375" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C376" t="s">
+        <v>196</v>
+      </c>
+      <c r="H376" t="s">
+        <v>24</v>
+      </c>
+      <c r="I376" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C377" t="s">
+        <v>197</v>
+      </c>
+      <c r="H377" t="s">
+        <v>24</v>
+      </c>
+      <c r="I377" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C378" t="s">
+        <v>198</v>
+      </c>
+      <c r="H378" t="s">
+        <v>24</v>
+      </c>
+      <c r="I378" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C379" t="s">
+        <v>25</v>
+      </c>
+      <c r="F379" s="10">
+        <v>10</v>
+      </c>
+      <c r="G379" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I379" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D380" t="s">
+        <v>13</v>
+      </c>
+      <c r="H380" t="s">
+        <v>14</v>
+      </c>
+      <c r="I380" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D381" t="s">
+        <v>15</v>
+      </c>
+      <c r="H381" t="s">
+        <v>14</v>
+      </c>
+      <c r="I381" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D382" t="s">
+        <v>16</v>
+      </c>
+      <c r="H382" t="s">
+        <v>14</v>
+      </c>
+      <c r="I382" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D383" t="s">
+        <v>17</v>
+      </c>
+      <c r="H383" t="s">
+        <v>14</v>
+      </c>
+      <c r="I383" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>199</v>
+      </c>
+      <c r="I384" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="385" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B385" t="s">
+        <v>200</v>
+      </c>
+      <c r="F385" s="10">
+        <v>8</v>
+      </c>
+      <c r="G385" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I385" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B386" t="s">
+        <v>201</v>
+      </c>
+      <c r="F386" s="6">
+        <v>9</v>
+      </c>
+      <c r="I386" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B387" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B376" t="s">
+    <row r="388" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B388" t="s">
         <v>203</v>
       </c>
-      <c r="F376" s="29" t="s">
+      <c r="F388" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="I376" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B377" t="s">
+      <c r="I388" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B389" t="s">
         <v>204</v>
       </c>
-      <c r="I377" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B378" t="s">
+      <c r="I389" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B390" t="s">
         <v>205</v>
       </c>
-      <c r="F378" s="6">
-        <v>5</v>
-      </c>
-      <c r="H378" t="s">
+      <c r="F390" s="6">
+        <v>5</v>
+      </c>
+      <c r="H390" t="s">
         <v>206</v>
       </c>
-      <c r="I378" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B379" t="s">
+      <c r="I390" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B391" t="s">
         <v>207</v>
       </c>
-      <c r="H379" t="s">
+      <c r="H391" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B380" t="s">
+    <row r="392" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B392" t="s">
         <v>209</v>
       </c>
-      <c r="F380" s="6">
+      <c r="F392" s="6">
         <v>1</v>
       </c>
-      <c r="G380" s="7" t="s">
+      <c r="G392" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H380" t="s">
+      <c r="H392" t="s">
         <v>210</v>
       </c>
-      <c r="I380" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B381" t="s">
+      <c r="I392" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B393" t="s">
         <v>211</v>
       </c>
-      <c r="I381" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B382" t="s">
+      <c r="I393" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B394" t="s">
         <v>212</v>
       </c>
-      <c r="I382" s="6" t="s">
+      <c r="I394" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9392,7 +9659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DB7B33-AB14-444A-9988-251D029F721C}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>

--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/Documents/GitHub/Haal-Centraal-BRP-bevragen/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4167C1-17F7-3B4A-8C4A-1B91A7EA3642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A34A352-06FD-464D-8BD3-A9DA70E784DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33200" yWindow="-2220" windowWidth="27840" windowHeight="16740" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
   </bookViews>
   <sheets>
     <sheet name="ingeschrevenpersonen" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="274">
   <si>
     <t>/ingeschrevenpersonen/{burgerservicenummer}</t>
   </si>
@@ -931,35 +931,20 @@
     <t>als 14.10 == 0000: true</t>
   </si>
   <si>
-    <t>adellijkeTitel(*)</t>
-  </si>
-  <si>
-    <t>als soort=titel</t>
-  </si>
-  <si>
-    <t>predikaat(*)</t>
-  </si>
-  <si>
-    <t>als soort=predikaat</t>
-  </si>
-  <si>
     <t>volledigeNaam</t>
   </si>
   <si>
     <t>volledige-naam</t>
   </si>
   <si>
-    <t>adellijkeTitel(?)</t>
-  </si>
-  <si>
-    <t>predikaat(?)</t>
+    <t>inclusief soort (predikaat of titel)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -986,6 +971,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1019,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1098,6 +1090,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1436,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F3B9D-634A-C449-A474-F9F6FE9216B2}">
-  <dimension ref="A1:R394"/>
+  <dimension ref="A1:R386"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2490,7 +2483,7 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>271</v>
+        <v>59</v>
       </c>
       <c r="F88" s="6">
         <v>1</v>
@@ -2499,7 +2492,7 @@
         <v>60</v>
       </c>
       <c r="H88" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>8</v>
@@ -2535,7 +2528,7 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>277</v>
+        <v>63</v>
       </c>
       <c r="F91" s="6">
         <v>9</v>
@@ -2633,7 +2626,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>278</v>
+        <v>65</v>
       </c>
       <c r="F98" s="6">
         <v>9</v>
@@ -2641,10 +2634,13 @@
       <c r="H98" t="s">
         <v>24</v>
       </c>
+      <c r="I98" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F99" s="6">
         <v>9</v>
@@ -2657,31 +2653,28 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D100" t="s">
-        <v>66</v>
-      </c>
-      <c r="F100" s="6">
-        <v>9</v>
+      <c r="C100" t="s">
+        <v>271</v>
       </c>
       <c r="H100" t="s">
-        <v>24</v>
-      </c>
-      <c r="I100" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I100" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="F101" s="6">
-        <v>1</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="H101" t="s">
-        <v>274</v>
+        <v>67</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>8</v>
@@ -2689,126 +2682,124 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>275</v>
-      </c>
-      <c r="H102" t="s">
-        <v>276</v>
-      </c>
-      <c r="I102" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F102" s="6">
+        <v>9</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I102" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F103" s="6">
         <v>9</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H103" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C104" t="s">
-        <v>69</v>
-      </c>
-      <c r="F104" s="6">
-        <v>9</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>68</v>
+      <c r="A104" t="s">
+        <v>57</v>
+      </c>
+      <c r="F104" s="10">
+        <v>1</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>72</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C105" t="s">
-        <v>70</v>
-      </c>
-      <c r="F105" s="6">
-        <v>9</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>71</v>
+      <c r="A105" t="s">
+        <v>58</v>
       </c>
       <c r="I105" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>57</v>
-      </c>
-      <c r="F106" s="10">
+      <c r="B106" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" s="6">
         <v>1</v>
       </c>
-      <c r="G106" s="11" t="s">
-        <v>20</v>
+      <c r="G106" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="H106" t="s">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>58</v>
-      </c>
-      <c r="I107" s="6" t="s">
+      <c r="B107" t="s">
+        <v>61</v>
+      </c>
+      <c r="F107" s="8">
+        <v>1</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H107" s="16"/>
+      <c r="I107" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>271</v>
-      </c>
-      <c r="F108" s="6">
+        <v>21</v>
+      </c>
+      <c r="F108" s="12">
         <v>1</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H108" t="s">
-        <v>272</v>
-      </c>
-      <c r="I108" s="6" t="s">
+      <c r="G108" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
-        <v>61</v>
-      </c>
-      <c r="F109" s="8">
-        <v>1</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H109" s="16"/>
-      <c r="I109" s="17" t="s">
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="H109" t="s">
+        <v>24</v>
+      </c>
+      <c r="I109" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>21</v>
+      <c r="C110" t="s">
+        <v>25</v>
       </c>
       <c r="F110" s="12">
         <v>1</v>
       </c>
-      <c r="G110" s="18" t="s">
-        <v>22</v>
+      <c r="G110" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="20" t="s">
@@ -2816,600 +2807,593 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C111" t="s">
-        <v>277</v>
+      <c r="D111" t="s">
+        <v>13</v>
       </c>
       <c r="H111" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I111" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>64</v>
+      </c>
+      <c r="H115" t="s">
+        <v>24</v>
+      </c>
+      <c r="I115" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>65</v>
+      </c>
+      <c r="H116" t="s">
+        <v>24</v>
+      </c>
+      <c r="I116" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>66</v>
+      </c>
+      <c r="H117" t="s">
+        <v>24</v>
+      </c>
+      <c r="I117" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>73</v>
+      </c>
+      <c r="H118" t="s">
+        <v>24</v>
+      </c>
+      <c r="I118" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>271</v>
+      </c>
+      <c r="H119" t="s">
+        <v>272</v>
+      </c>
+      <c r="I119" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>67</v>
+      </c>
+      <c r="F120" s="8">
+        <v>1</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" t="s">
+        <v>67</v>
+      </c>
+      <c r="I120" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>69</v>
+      </c>
+      <c r="F121" s="8">
+        <v>1</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H121" s="16"/>
+      <c r="I121" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>70</v>
+      </c>
+      <c r="F122" s="8">
+        <v>1</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H122" s="16"/>
+      <c r="I122" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>74</v>
+      </c>
+      <c r="F123" s="10">
+        <v>1</v>
+      </c>
+      <c r="G123" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H123" s="14"/>
+      <c r="I123" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H124" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I124" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>77</v>
+      </c>
+      <c r="H125" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I125" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I126" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>80</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I127" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>81</v>
+      </c>
+      <c r="I128" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>82</v>
+      </c>
+      <c r="F129" s="8">
+        <v>4</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>84</v>
+      </c>
+      <c r="F130" s="12">
+        <v>4</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" s="12">
+        <v>4</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>86</v>
+      </c>
+      <c r="H136" t="s">
+        <v>24</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
         <v>25</v>
       </c>
-      <c r="F112" s="12">
-        <v>1</v>
-      </c>
-      <c r="G112" s="13" t="s">
+      <c r="F137" s="12">
+        <v>4</v>
+      </c>
+      <c r="G137" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D113" t="s">
+      <c r="I137" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
         <v>13</v>
       </c>
-      <c r="H113" t="s">
-        <v>14</v>
-      </c>
-      <c r="I113" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D114" t="s">
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
         <v>15</v>
       </c>
-      <c r="H114" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D115" t="s">
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
         <v>16</v>
       </c>
-      <c r="H115" t="s">
-        <v>14</v>
-      </c>
-      <c r="I115" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D116" t="s">
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
         <v>17</v>
       </c>
-      <c r="H116" t="s">
-        <v>14</v>
-      </c>
-      <c r="I116" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C117" t="s">
-        <v>64</v>
-      </c>
-      <c r="H117" t="s">
-        <v>24</v>
-      </c>
-      <c r="I117" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C118" t="s">
-        <v>278</v>
-      </c>
-      <c r="H118" t="s">
-        <v>24</v>
-      </c>
-      <c r="I118" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C119" t="s">
-        <v>65</v>
-      </c>
-      <c r="H119" t="s">
-        <v>24</v>
-      </c>
-      <c r="I119" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C120" t="s">
-        <v>66</v>
-      </c>
-      <c r="H120" t="s">
-        <v>24</v>
-      </c>
-      <c r="I120" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C121" t="s">
-        <v>73</v>
-      </c>
-      <c r="H121" t="s">
-        <v>24</v>
-      </c>
-      <c r="I121" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>273</v>
-      </c>
-      <c r="F122" s="6">
-        <v>1</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H122" t="s">
-        <v>274</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>275</v>
-      </c>
-      <c r="H123" t="s">
-        <v>276</v>
-      </c>
-      <c r="I123" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>67</v>
-      </c>
-      <c r="F124" s="8">
-        <v>1</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H124" t="s">
-        <v>67</v>
-      </c>
-      <c r="I124" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
-        <v>69</v>
-      </c>
-      <c r="F125" s="8">
-        <v>1</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H125" s="16"/>
-      <c r="I125" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>70</v>
-      </c>
-      <c r="F126" s="8">
-        <v>1</v>
-      </c>
-      <c r="G126" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H126" s="16"/>
-      <c r="I126" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>74</v>
-      </c>
-      <c r="F127" s="10">
-        <v>1</v>
-      </c>
-      <c r="G127" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H127" s="14"/>
-      <c r="I127" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>76</v>
-      </c>
-      <c r="H128" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I128" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>77</v>
-      </c>
-      <c r="H129" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I129" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>78</v>
-      </c>
-      <c r="H130" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="I130" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>80</v>
-      </c>
-      <c r="H131" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I131" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>81</v>
-      </c>
-      <c r="I132" s="25" t="s">
+      <c r="H141" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>87</v>
+      </c>
+      <c r="H142" t="s">
+        <v>24</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>88</v>
+      </c>
+      <c r="H143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>89</v>
+      </c>
+      <c r="F144" s="8">
+        <v>4</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I144" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>91</v>
+      </c>
+      <c r="F145" s="12">
+        <v>4</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>93</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" s="10">
+        <v>7</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" t="s">
+        <v>14</v>
+      </c>
+      <c r="I148" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" t="s">
+        <v>14</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="H150" t="s">
+        <v>14</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>95</v>
+      </c>
+      <c r="F152" s="10">
+        <v>7</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>97</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H153" t="s">
+        <v>99</v>
+      </c>
+      <c r="I153" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>82</v>
-      </c>
-      <c r="F133" s="8">
-        <v>4</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I133" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>84</v>
-      </c>
-      <c r="F134" s="12">
-        <v>4</v>
-      </c>
-      <c r="G134" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C135" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G154" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>100</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G155" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
         <v>13</v>
       </c>
-      <c r="H135" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C136" t="s">
+      <c r="F156" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
         <v>15</v>
-      </c>
-      <c r="H136" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C137" t="s">
-        <v>16</v>
-      </c>
-      <c r="H137" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C138" t="s">
-        <v>17</v>
-      </c>
-      <c r="H138" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
-        <v>21</v>
-      </c>
-      <c r="F139" s="12">
-        <v>4</v>
-      </c>
-      <c r="G139" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I139" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C140" t="s">
-        <v>86</v>
-      </c>
-      <c r="H140" t="s">
-        <v>24</v>
-      </c>
-      <c r="I140" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C141" t="s">
-        <v>25</v>
-      </c>
-      <c r="F141" s="12">
-        <v>4</v>
-      </c>
-      <c r="G141" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I141" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D142" t="s">
-        <v>13</v>
-      </c>
-      <c r="H142" t="s">
-        <v>14</v>
-      </c>
-      <c r="I142" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D143" t="s">
-        <v>15</v>
-      </c>
-      <c r="H143" t="s">
-        <v>14</v>
-      </c>
-      <c r="I143" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D144" t="s">
-        <v>16</v>
-      </c>
-      <c r="H144" t="s">
-        <v>14</v>
-      </c>
-      <c r="I144" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D145" t="s">
-        <v>17</v>
-      </c>
-      <c r="H145" t="s">
-        <v>14</v>
-      </c>
-      <c r="I145" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C146" t="s">
-        <v>87</v>
-      </c>
-      <c r="H146" t="s">
-        <v>24</v>
-      </c>
-      <c r="I146" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C147" t="s">
-        <v>88</v>
-      </c>
-      <c r="H147" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
-        <v>89</v>
-      </c>
-      <c r="F148" s="8">
-        <v>4</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I148" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
-        <v>91</v>
-      </c>
-      <c r="F149" s="12">
-        <v>4</v>
-      </c>
-      <c r="G149" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>93</v>
-      </c>
-      <c r="I150" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
-        <v>19</v>
-      </c>
-      <c r="F151" s="10">
-        <v>7</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I151" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C152" t="s">
-        <v>13</v>
-      </c>
-      <c r="H152" t="s">
-        <v>14</v>
-      </c>
-      <c r="I152" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C153" t="s">
-        <v>15</v>
-      </c>
-      <c r="H153" t="s">
-        <v>14</v>
-      </c>
-      <c r="I153" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C154" t="s">
-        <v>16</v>
-      </c>
-      <c r="H154" t="s">
-        <v>14</v>
-      </c>
-      <c r="I154" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C155" t="s">
-        <v>17</v>
-      </c>
-      <c r="H155" t="s">
-        <v>14</v>
-      </c>
-      <c r="I155" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B156" t="s">
-        <v>95</v>
-      </c>
-      <c r="F156" s="10">
-        <v>7</v>
-      </c>
-      <c r="G156" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I156" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>97</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H157" t="s">
-        <v>99</v>
-      </c>
-      <c r="I157" s="6" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
-        <v>5</v>
+      <c r="C158" t="s">
+        <v>16</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G158" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I158" s="6" t="s">
-        <v>8</v>
+      <c r="H158" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B159" t="s">
-        <v>100</v>
+      <c r="C159" t="s">
+        <v>17</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G159" s="27" t="s">
-        <v>101</v>
+      <c r="H159" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C160" t="s">
-        <v>13</v>
+      <c r="B160" t="s">
+        <v>18</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H160" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I160" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H161" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C162" t="s">
-        <v>16</v>
+      <c r="G161" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D162" t="s">
+        <v>13</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>98</v>
@@ -3417,10 +3401,13 @@
       <c r="H162" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C163" t="s">
-        <v>17</v>
+      <c r="I162" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D163" t="s">
+        <v>15</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>98</v>
@@ -3428,77 +3415,83 @@
       <c r="H163" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
-        <v>18</v>
+      <c r="I163" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
+        <v>16</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="H164" t="s">
+        <v>14</v>
+      </c>
       <c r="I164" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C165" t="s">
-        <v>19</v>
+    <row r="165" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D165" t="s">
+        <v>17</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G165" s="15" t="s">
-        <v>20</v>
+      <c r="H165" t="s">
+        <v>14</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D166" t="s">
-        <v>13</v>
+    <row r="166" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>21</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H166" t="s">
-        <v>14</v>
+      <c r="G166" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="I166" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I167" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H168" t="s">
-        <v>14</v>
+      <c r="G168" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="I168" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D169" t="s">
-        <v>17</v>
+    <row r="169" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E169" t="s">
+        <v>13</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>98</v>
@@ -3510,141 +3503,138 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C170" t="s">
-        <v>21</v>
+    <row r="170" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E170" t="s">
+        <v>15</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G170" s="15" t="s">
-        <v>22</v>
+      <c r="H170" t="s">
+        <v>14</v>
       </c>
       <c r="I170" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D171" t="s">
-        <v>23</v>
+    <row r="171" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E171" t="s">
+        <v>16</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H171" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I171" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D172" t="s">
-        <v>25</v>
+    <row r="172" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E172" t="s">
+        <v>17</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G172" s="15" t="s">
-        <v>26</v>
+      <c r="H172" t="s">
+        <v>14</v>
       </c>
       <c r="I172" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E173" t="s">
-        <v>13</v>
+    <row r="173" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D173" t="s">
+        <v>27</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I173" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E174" t="s">
-        <v>15</v>
+    <row r="174" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D174" t="s">
+        <v>28</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H174" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I174" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E175" t="s">
-        <v>16</v>
+    <row r="175" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C175" t="s">
+        <v>29</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H175" t="s">
-        <v>14</v>
+      <c r="G175" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="I175" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E176" t="s">
-        <v>17</v>
+    <row r="176" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C176" t="s">
+        <v>31</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H176" t="s">
-        <v>14</v>
+      <c r="G176" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="I176" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D177" t="s">
-        <v>27</v>
+      <c r="B177" t="s">
+        <v>35</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H177" t="s">
-        <v>24</v>
-      </c>
-      <c r="I177" s="6" t="s">
-        <v>8</v>
+      <c r="G177" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D178" t="s">
-        <v>28</v>
+      <c r="B178" t="s">
+        <v>21</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H178" t="s">
-        <v>24</v>
+      <c r="G178" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G179" s="15" t="s">
-        <v>30</v>
+      <c r="H179" t="s">
+        <v>24</v>
       </c>
       <c r="I179" s="6" t="s">
         <v>8</v>
@@ -3652,133 +3642,133 @@
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G180" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I180" s="6" t="s">
-        <v>8</v>
+      <c r="H180" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B181" t="s">
-        <v>35</v>
+      <c r="C181" t="s">
+        <v>25</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G181" s="7" t="s">
-        <v>36</v>
+      <c r="G181" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B182" t="s">
-        <v>21</v>
+      <c r="D182" t="s">
+        <v>13</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G182" s="15" t="s">
-        <v>22</v>
+      <c r="H182" t="s">
+        <v>14</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C183" t="s">
-        <v>43</v>
+      <c r="D183" t="s">
+        <v>15</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H183" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I183" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C184" t="s">
-        <v>102</v>
+      <c r="D184" t="s">
+        <v>16</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H184" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="I184" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C185" t="s">
-        <v>25</v>
+      <c r="D185" t="s">
+        <v>17</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G185" s="15" t="s">
-        <v>26</v>
+      <c r="H185" t="s">
+        <v>14</v>
       </c>
       <c r="I185" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D186" t="s">
-        <v>13</v>
+      <c r="C186" t="s">
+        <v>44</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H186" t="s">
-        <v>14</v>
-      </c>
-      <c r="I186" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D187" t="s">
-        <v>15</v>
+      <c r="B187" t="s">
+        <v>58</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H187" t="s">
-        <v>14</v>
-      </c>
       <c r="I187" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D188" t="s">
-        <v>16</v>
-      </c>
-      <c r="F188" s="6" t="s">
-        <v>98</v>
+      <c r="C188" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F188" s="6">
+        <v>1</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="H188" t="s">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="I188" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D189" t="s">
-        <v>17</v>
+      <c r="C189" t="s">
+        <v>61</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H189" t="s">
-        <v>14</v>
+      <c r="G189" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="I189" s="6" t="s">
         <v>8</v>
@@ -3786,265 +3776,253 @@
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C190" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H190" t="s">
-        <v>24</v>
+      <c r="G190" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I190" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B191" t="s">
-        <v>58</v>
+      <c r="D191" s="34" t="s">
+        <v>63</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="H191" t="s">
+        <v>24</v>
+      </c>
       <c r="I191" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C192" t="s">
-        <v>271</v>
-      </c>
-      <c r="F192" s="6">
-        <v>1</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H192" t="s">
-        <v>272</v>
+      <c r="D192" t="s">
+        <v>25</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G192" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="I192" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C193" t="s">
-        <v>61</v>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E193" t="s">
+        <v>13</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G193" s="15" t="s">
-        <v>62</v>
+      <c r="H193" t="s">
+        <v>14</v>
       </c>
       <c r="I193" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C194" t="s">
-        <v>21</v>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E194" t="s">
+        <v>15</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G194" s="15" t="s">
-        <v>22</v>
+      <c r="H194" t="s">
+        <v>14</v>
       </c>
       <c r="I194" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D195" t="s">
-        <v>277</v>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E195" t="s">
+        <v>16</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H195" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I195" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D196" t="s">
-        <v>25</v>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E196" t="s">
+        <v>17</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G196" s="15" t="s">
-        <v>26</v>
+      <c r="H196" t="s">
+        <v>14</v>
       </c>
       <c r="I196" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E197" t="s">
-        <v>13</v>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D197" t="s">
+        <v>64</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H197" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I197" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E198" t="s">
-        <v>15</v>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D198" t="s">
+        <v>65</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H198" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I198" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E199" t="s">
-        <v>16</v>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D199" t="s">
+        <v>66</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I199" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E200" t="s">
-        <v>17</v>
-      </c>
-      <c r="F200" s="6" t="s">
-        <v>98</v>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C200" t="s">
+        <v>271</v>
       </c>
       <c r="H200" t="s">
-        <v>14</v>
-      </c>
-      <c r="I200" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D201" t="s">
-        <v>64</v>
+        <v>272</v>
+      </c>
+      <c r="I200" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C201" t="s">
+        <v>67</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="G201" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="H201" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="I201" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D202" t="s">
-        <v>278</v>
-      </c>
-      <c r="F202" s="6">
-        <v>9</v>
-      </c>
-      <c r="H202" t="s">
-        <v>24</v>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C202" t="s">
+        <v>69</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G202" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="I202" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D203" t="s">
-        <v>65</v>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C203" t="s">
+        <v>70</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H203" t="s">
-        <v>24</v>
+      <c r="G203" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="I203" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D204" t="s">
-        <v>66</v>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>103</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>98</v>
       </c>
       <c r="H204" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="I204" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C205" t="s">
-        <v>273</v>
-      </c>
-      <c r="F205" s="6">
-        <v>1</v>
-      </c>
-      <c r="G205" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H205" t="s">
-        <v>274</v>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>105</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="206" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C206" t="s">
-        <v>275</v>
-      </c>
-      <c r="H206" t="s">
-        <v>276</v>
-      </c>
-      <c r="I206" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="207" spans="3:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>19</v>
+      </c>
+      <c r="F206" s="10">
+        <v>6</v>
+      </c>
+      <c r="G206" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I206" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C207" t="s">
-        <v>67</v>
-      </c>
-      <c r="F207" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G207" s="15" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="H207" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="I207" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C208" t="s">
-        <v>69</v>
-      </c>
-      <c r="F208" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G208" s="15" t="s">
-        <v>68</v>
+        <v>15</v>
+      </c>
+      <c r="H208" t="s">
+        <v>14</v>
       </c>
       <c r="I208" s="6" t="s">
         <v>8</v>
@@ -4052,49 +4030,46 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C209" t="s">
-        <v>70</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G209" s="15" t="s">
-        <v>71</v>
+        <v>16</v>
+      </c>
+      <c r="H209" t="s">
+        <v>14</v>
       </c>
       <c r="I209" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B210" t="s">
-        <v>103</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>98</v>
+      <c r="C210" t="s">
+        <v>17</v>
       </c>
       <c r="H210" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="I210" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>105</v>
+      <c r="B211" t="s">
+        <v>21</v>
+      </c>
+      <c r="F211" s="10">
+        <v>6</v>
+      </c>
+      <c r="G211" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I211" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B212" t="s">
-        <v>19</v>
-      </c>
-      <c r="F212" s="10">
-        <v>6</v>
-      </c>
-      <c r="G212" s="11" t="s">
-        <v>106</v>
+      <c r="C212" t="s">
+        <v>23</v>
+      </c>
+      <c r="H212" t="s">
+        <v>24</v>
       </c>
       <c r="I212" s="6" t="s">
         <v>8</v>
@@ -4102,434 +4077,446 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C213" t="s">
+        <v>25</v>
+      </c>
+      <c r="F213" s="10">
+        <v>6</v>
+      </c>
+      <c r="G213" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D214" t="s">
         <v>13</v>
       </c>
-      <c r="H213" t="s">
-        <v>14</v>
-      </c>
-      <c r="I213" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C214" t="s">
+      <c r="H214" t="s">
+        <v>14</v>
+      </c>
+      <c r="I214" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D215" t="s">
         <v>15</v>
       </c>
-      <c r="H214" t="s">
-        <v>14</v>
-      </c>
-      <c r="I214" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C215" t="s">
+      <c r="H215" t="s">
+        <v>14</v>
+      </c>
+      <c r="I215" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D216" t="s">
         <v>16</v>
       </c>
-      <c r="H215" t="s">
-        <v>14</v>
-      </c>
-      <c r="I215" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C216" t="s">
+      <c r="H216" t="s">
+        <v>14</v>
+      </c>
+      <c r="I216" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D217" t="s">
         <v>17</v>
       </c>
-      <c r="H216" t="s">
-        <v>14</v>
-      </c>
-      <c r="I216" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B217" t="s">
-        <v>21</v>
-      </c>
-      <c r="F217" s="10">
-        <v>6</v>
-      </c>
-      <c r="G217" s="11" t="s">
-        <v>22</v>
+      <c r="H217" t="s">
+        <v>14</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C218" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H218" t="s">
         <v>24</v>
-      </c>
-      <c r="I218" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="H219" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
+        <v>107</v>
+      </c>
+      <c r="F220" s="10">
+        <v>6</v>
+      </c>
+      <c r="G220" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
+        <v>29</v>
+      </c>
+      <c r="F221" s="10">
+        <v>6</v>
+      </c>
+      <c r="G221" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
+        <v>31</v>
+      </c>
+      <c r="F222" s="10">
+        <v>6</v>
+      </c>
+      <c r="G222" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>110</v>
+      </c>
+      <c r="F223" s="6">
+        <v>5</v>
+      </c>
+      <c r="H223" t="s">
+        <v>111</v>
+      </c>
+      <c r="I223" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
+        <v>112</v>
+      </c>
+      <c r="F224" s="6">
+        <v>5</v>
+      </c>
+      <c r="I224" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C225" t="s">
+        <v>19</v>
+      </c>
+      <c r="F225" s="6">
+        <v>5</v>
+      </c>
+      <c r="G225" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I225" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D226" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" s="6">
+        <v>5</v>
+      </c>
+      <c r="H226" t="s">
+        <v>14</v>
+      </c>
+      <c r="I226" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D227" t="s">
+        <v>15</v>
+      </c>
+      <c r="F227" s="6">
+        <v>5</v>
+      </c>
+      <c r="H227" t="s">
+        <v>14</v>
+      </c>
+      <c r="I227" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D228" t="s">
+        <v>16</v>
+      </c>
+      <c r="F228" s="6">
+        <v>5</v>
+      </c>
+      <c r="H228" t="s">
+        <v>14</v>
+      </c>
+      <c r="I228" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D229" t="s">
+        <v>17</v>
+      </c>
+      <c r="F229" s="6">
+        <v>5</v>
+      </c>
+      <c r="H229" t="s">
+        <v>14</v>
+      </c>
+      <c r="I229" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C230" t="s">
+        <v>21</v>
+      </c>
+      <c r="F230" s="6">
+        <v>5</v>
+      </c>
+      <c r="G230" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I230" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D231" t="s">
+        <v>23</v>
+      </c>
+      <c r="F231" s="6">
+        <v>5</v>
+      </c>
+      <c r="H231" t="s">
+        <v>24</v>
+      </c>
+      <c r="I231" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D232" t="s">
         <v>25</v>
       </c>
-      <c r="F219" s="10">
-        <v>6</v>
-      </c>
-      <c r="G219" s="11" t="s">
+      <c r="F232" s="6">
+        <v>5</v>
+      </c>
+      <c r="G232" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I219" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D220" t="s">
+      <c r="I232" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E233" t="s">
         <v>13</v>
       </c>
-      <c r="H220" t="s">
-        <v>14</v>
-      </c>
-      <c r="I220" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D221" t="s">
+      <c r="F233" s="6">
+        <v>5</v>
+      </c>
+      <c r="H233" t="s">
+        <v>14</v>
+      </c>
+      <c r="I233" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E234" t="s">
         <v>15</v>
       </c>
-      <c r="H221" t="s">
-        <v>14</v>
-      </c>
-      <c r="I221" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D222" t="s">
+      <c r="F234" s="6">
+        <v>5</v>
+      </c>
+      <c r="H234" t="s">
+        <v>14</v>
+      </c>
+      <c r="I234" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E235" t="s">
         <v>16</v>
       </c>
-      <c r="H222" t="s">
-        <v>14</v>
-      </c>
-      <c r="I222" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D223" t="s">
+      <c r="F235" s="6">
+        <v>5</v>
+      </c>
+      <c r="H235" t="s">
+        <v>14</v>
+      </c>
+      <c r="I235" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E236" t="s">
         <v>17</v>
       </c>
-      <c r="H223" t="s">
-        <v>14</v>
-      </c>
-      <c r="I223" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C224" t="s">
+      <c r="F236" s="6">
+        <v>5</v>
+      </c>
+      <c r="H236" t="s">
+        <v>14</v>
+      </c>
+      <c r="I236" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D237" t="s">
         <v>27</v>
       </c>
-      <c r="H224" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C225" t="s">
+      <c r="F237" s="6">
+        <v>5</v>
+      </c>
+      <c r="H237" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="238" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D238" t="s">
         <v>28</v>
       </c>
-      <c r="H225" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B226" t="s">
-        <v>107</v>
-      </c>
-      <c r="F226" s="10">
-        <v>6</v>
-      </c>
-      <c r="G226" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B227" t="s">
+      <c r="F238" s="6">
+        <v>5</v>
+      </c>
+      <c r="H238" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="239" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C239" t="s">
         <v>29</v>
       </c>
-      <c r="F227" s="10">
-        <v>6</v>
-      </c>
-      <c r="G227" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B228" t="s">
+      <c r="F239" s="6">
+        <v>5</v>
+      </c>
+      <c r="G239" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="240" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C240" t="s">
         <v>31</v>
       </c>
-      <c r="F228" s="10">
-        <v>6</v>
-      </c>
-      <c r="G228" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>110</v>
-      </c>
-      <c r="F229" s="6">
-        <v>5</v>
-      </c>
-      <c r="H229" t="s">
-        <v>111</v>
-      </c>
-      <c r="I229" s="6" t="s">
+      <c r="F240" s="6">
+        <v>5</v>
+      </c>
+      <c r="G240" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="F241" s="6">
+        <v>5</v>
+      </c>
+      <c r="G241" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I241" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
+        <v>18</v>
+      </c>
+      <c r="F242" s="6">
+        <v>5</v>
+      </c>
+      <c r="I242" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B230" t="s">
-        <v>112</v>
-      </c>
-      <c r="F230" s="6">
-        <v>5</v>
-      </c>
-      <c r="I230" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C231" t="s">
+    <row r="243" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C243" t="s">
         <v>19</v>
       </c>
-      <c r="F231" s="6">
-        <v>5</v>
-      </c>
-      <c r="G231" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="I231" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D232" t="s">
-        <v>13</v>
-      </c>
-      <c r="F232" s="6">
-        <v>5</v>
-      </c>
-      <c r="H232" t="s">
-        <v>14</v>
-      </c>
-      <c r="I232" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D233" t="s">
-        <v>15</v>
-      </c>
-      <c r="F233" s="6">
-        <v>5</v>
-      </c>
-      <c r="H233" t="s">
-        <v>14</v>
-      </c>
-      <c r="I233" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D234" t="s">
-        <v>16</v>
-      </c>
-      <c r="F234" s="6">
-        <v>5</v>
-      </c>
-      <c r="H234" t="s">
-        <v>14</v>
-      </c>
-      <c r="I234" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D235" t="s">
-        <v>17</v>
-      </c>
-      <c r="F235" s="6">
-        <v>5</v>
-      </c>
-      <c r="H235" t="s">
-        <v>14</v>
-      </c>
-      <c r="I235" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C236" t="s">
-        <v>21</v>
-      </c>
-      <c r="F236" s="6">
-        <v>5</v>
-      </c>
-      <c r="G236" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I236" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D237" t="s">
-        <v>23</v>
-      </c>
-      <c r="F237" s="6">
-        <v>5</v>
-      </c>
-      <c r="H237" t="s">
-        <v>24</v>
-      </c>
-      <c r="I237" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D238" t="s">
-        <v>25</v>
-      </c>
-      <c r="F238" s="6">
-        <v>5</v>
-      </c>
-      <c r="G238" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I238" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E239" t="s">
-        <v>13</v>
-      </c>
-      <c r="F239" s="6">
-        <v>5</v>
-      </c>
-      <c r="H239" t="s">
-        <v>14</v>
-      </c>
-      <c r="I239" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E240" t="s">
-        <v>15</v>
-      </c>
-      <c r="F240" s="6">
-        <v>5</v>
-      </c>
-      <c r="H240" t="s">
-        <v>14</v>
-      </c>
-      <c r="I240" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E241" t="s">
-        <v>16</v>
-      </c>
-      <c r="F241" s="6">
-        <v>5</v>
-      </c>
-      <c r="H241" t="s">
-        <v>14</v>
-      </c>
-      <c r="I241" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E242" t="s">
-        <v>17</v>
-      </c>
-      <c r="F242" s="6">
-        <v>5</v>
-      </c>
-      <c r="H242" t="s">
-        <v>14</v>
-      </c>
-      <c r="I242" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D243" t="s">
-        <v>27</v>
-      </c>
       <c r="F243" s="6">
         <v>5</v>
       </c>
-      <c r="H243" t="s">
-        <v>24</v>
+      <c r="G243" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I243" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D244" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F244" s="6">
         <v>5</v>
       </c>
       <c r="H244" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="I244" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="245" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C245" t="s">
-        <v>29</v>
+      <c r="D245" t="s">
+        <v>15</v>
       </c>
       <c r="F245" s="6">
         <v>5</v>
       </c>
-      <c r="G245" s="27" t="s">
-        <v>114</v>
+      <c r="H245" t="s">
+        <v>14</v>
+      </c>
+      <c r="I245" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C246" t="s">
-        <v>31</v>
+      <c r="D246" t="s">
+        <v>16</v>
       </c>
       <c r="F246" s="6">
         <v>5</v>
       </c>
-      <c r="G246" s="27" t="s">
-        <v>115</v>
+      <c r="H246" t="s">
+        <v>14</v>
+      </c>
+      <c r="I246" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B247" t="s">
-        <v>5</v>
+      <c r="D247" t="s">
+        <v>17</v>
       </c>
       <c r="F247" s="6">
         <v>5</v>
       </c>
-      <c r="G247" s="26" t="s">
-        <v>9</v>
+      <c r="H247" t="s">
+        <v>14</v>
       </c>
       <c r="I247" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="248" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B248" t="s">
-        <v>18</v>
+      <c r="C248" t="s">
+        <v>21</v>
       </c>
       <c r="F248" s="6">
         <v>5</v>
@@ -4539,14 +4526,14 @@
       </c>
     </row>
     <row r="249" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C249" t="s">
-        <v>19</v>
+      <c r="D249" t="s">
+        <v>23</v>
       </c>
       <c r="F249" s="6">
         <v>5</v>
       </c>
-      <c r="G249" s="15" t="s">
-        <v>20</v>
+      <c r="H249" t="s">
+        <v>24</v>
       </c>
       <c r="I249" s="6" t="s">
         <v>8</v>
@@ -4554,350 +4541,371 @@
     </row>
     <row r="250" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D250" t="s">
+        <v>25</v>
+      </c>
+      <c r="F250" s="6">
+        <v>5</v>
+      </c>
+      <c r="I250" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E251" t="s">
         <v>13</v>
       </c>
-      <c r="F250" s="6">
-        <v>5</v>
-      </c>
-      <c r="H250" t="s">
-        <v>14</v>
-      </c>
-      <c r="I250" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D251" t="s">
+      <c r="F251" s="6">
+        <v>5</v>
+      </c>
+      <c r="H251" t="s">
+        <v>14</v>
+      </c>
+      <c r="I251" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E252" t="s">
         <v>15</v>
       </c>
-      <c r="F251" s="6">
-        <v>5</v>
-      </c>
-      <c r="H251" t="s">
-        <v>14</v>
-      </c>
-      <c r="I251" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D252" t="s">
+      <c r="F252" s="6">
+        <v>5</v>
+      </c>
+      <c r="H252" t="s">
+        <v>14</v>
+      </c>
+      <c r="I252" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E253" t="s">
         <v>16</v>
       </c>
-      <c r="F252" s="6">
-        <v>5</v>
-      </c>
-      <c r="H252" t="s">
-        <v>14</v>
-      </c>
-      <c r="I252" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D253" t="s">
+      <c r="F253" s="6">
+        <v>5</v>
+      </c>
+      <c r="H253" t="s">
+        <v>14</v>
+      </c>
+      <c r="I253" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E254" t="s">
         <v>17</v>
       </c>
-      <c r="F253" s="6">
-        <v>5</v>
-      </c>
-      <c r="H253" t="s">
-        <v>14</v>
-      </c>
-      <c r="I253" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C254" t="s">
-        <v>21</v>
-      </c>
       <c r="F254" s="6">
         <v>5</v>
       </c>
+      <c r="H254" t="s">
+        <v>14</v>
+      </c>
       <c r="I254" s="6" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D255" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F255" s="6">
         <v>5</v>
       </c>
       <c r="H255" t="s">
         <v>24</v>
-      </c>
-      <c r="I255" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="F256" s="6">
+        <v>5</v>
+      </c>
+      <c r="H256" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="257" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C257" t="s">
+        <v>29</v>
+      </c>
+      <c r="F257" s="6">
+        <v>5</v>
+      </c>
+      <c r="G257" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C258" t="s">
+        <v>31</v>
+      </c>
+      <c r="F258" s="6">
+        <v>5</v>
+      </c>
+      <c r="G258" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="259" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>35</v>
+      </c>
+      <c r="F259" s="6">
+        <v>5</v>
+      </c>
+      <c r="G259" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="260" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>21</v>
+      </c>
+      <c r="F260" s="6">
+        <v>5</v>
+      </c>
+      <c r="G260" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I260" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="261" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C261" t="s">
+        <v>43</v>
+      </c>
+      <c r="F261" s="6">
+        <v>5</v>
+      </c>
+      <c r="H261" t="s">
+        <v>24</v>
+      </c>
+      <c r="I261" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C262" t="s">
         <v>25</v>
       </c>
-      <c r="F256" s="6">
-        <v>5</v>
-      </c>
-      <c r="I256" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E257" t="s">
+      <c r="F262" s="6">
+        <v>5</v>
+      </c>
+      <c r="G262" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I262" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D263" t="s">
         <v>13</v>
       </c>
-      <c r="F257" s="6">
-        <v>5</v>
-      </c>
-      <c r="H257" t="s">
-        <v>14</v>
-      </c>
-      <c r="I257" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E258" t="s">
+      <c r="F263" s="6">
+        <v>5</v>
+      </c>
+      <c r="H263" t="s">
+        <v>14</v>
+      </c>
+      <c r="I263" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D264" t="s">
         <v>15</v>
       </c>
-      <c r="F258" s="6">
-        <v>5</v>
-      </c>
-      <c r="H258" t="s">
-        <v>14</v>
-      </c>
-      <c r="I258" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E259" t="s">
+      <c r="F264" s="6">
+        <v>5</v>
+      </c>
+      <c r="H264" t="s">
+        <v>14</v>
+      </c>
+      <c r="I264" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D265" t="s">
         <v>16</v>
       </c>
-      <c r="F259" s="6">
-        <v>5</v>
-      </c>
-      <c r="H259" t="s">
-        <v>14</v>
-      </c>
-      <c r="I259" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E260" t="s">
+      <c r="F265" s="6">
+        <v>5</v>
+      </c>
+      <c r="H265" t="s">
+        <v>14</v>
+      </c>
+      <c r="I265" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D266" t="s">
         <v>17</v>
       </c>
-      <c r="F260" s="6">
-        <v>5</v>
-      </c>
-      <c r="H260" t="s">
-        <v>14</v>
-      </c>
-      <c r="I260" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D261" t="s">
-        <v>27</v>
-      </c>
-      <c r="F261" s="6">
-        <v>5</v>
-      </c>
-      <c r="H261" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D262" t="s">
-        <v>28</v>
-      </c>
-      <c r="F262" s="6">
-        <v>5</v>
-      </c>
-      <c r="H262" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C263" t="s">
-        <v>29</v>
-      </c>
-      <c r="F263" s="6">
-        <v>5</v>
-      </c>
-      <c r="G263" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C264" t="s">
-        <v>31</v>
-      </c>
-      <c r="F264" s="6">
-        <v>5</v>
-      </c>
-      <c r="G264" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B265" t="s">
-        <v>35</v>
-      </c>
-      <c r="F265" s="6">
-        <v>5</v>
-      </c>
-      <c r="G265" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B266" t="s">
+      <c r="F266" s="6">
+        <v>5</v>
+      </c>
+      <c r="H266" t="s">
+        <v>14</v>
+      </c>
+      <c r="I266" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C267" t="s">
+        <v>44</v>
+      </c>
+      <c r="F267" s="6">
+        <v>5</v>
+      </c>
+      <c r="H267" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="268" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C268" t="s">
+        <v>116</v>
+      </c>
+      <c r="F268" s="6">
+        <v>5</v>
+      </c>
+      <c r="H268" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="269" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
+        <v>58</v>
+      </c>
+      <c r="F269" s="6">
+        <v>5</v>
+      </c>
+      <c r="I269" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C270" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F270" s="6">
+        <v>1</v>
+      </c>
+      <c r="G270" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H270" t="s">
+        <v>273</v>
+      </c>
+      <c r="I270" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O270" s="6"/>
+      <c r="P270" s="7"/>
+      <c r="R270" s="6"/>
+    </row>
+    <row r="271" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C271" t="s">
+        <v>61</v>
+      </c>
+      <c r="F271" s="6">
+        <v>5</v>
+      </c>
+      <c r="G271" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I271" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O271" s="6"/>
+      <c r="P271" s="15"/>
+      <c r="R271" s="6"/>
+    </row>
+    <row r="272" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C272" t="s">
         <v>21</v>
       </c>
-      <c r="F266" s="6">
-        <v>5</v>
-      </c>
-      <c r="G266" s="15" t="s">
+      <c r="F272" s="6">
+        <v>5</v>
+      </c>
+      <c r="G272" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I266" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C267" t="s">
-        <v>43</v>
-      </c>
-      <c r="F267" s="6">
-        <v>5</v>
-      </c>
-      <c r="H267" t="s">
-        <v>24</v>
-      </c>
-      <c r="I267" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C268" t="s">
+      <c r="I272" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O272" s="6"/>
+      <c r="P272" s="15"/>
+      <c r="R272" s="6"/>
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D273" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F273" s="6">
+        <v>5</v>
+      </c>
+      <c r="H273" t="s">
+        <v>24</v>
+      </c>
+      <c r="I273" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O273" s="6"/>
+      <c r="P273" s="7"/>
+      <c r="R273" s="6"/>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D274" t="s">
         <v>25</v>
       </c>
-      <c r="F268" s="6">
-        <v>5</v>
-      </c>
-      <c r="G268" s="15" t="s">
+      <c r="F274" s="6">
+        <v>5</v>
+      </c>
+      <c r="G274" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I268" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D269" t="s">
+      <c r="I274" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O274" s="6"/>
+      <c r="P274" s="15"/>
+      <c r="R274" s="6"/>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E275" t="s">
         <v>13</v>
       </c>
-      <c r="F269" s="6">
-        <v>5</v>
-      </c>
-      <c r="H269" t="s">
-        <v>14</v>
-      </c>
-      <c r="I269" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D270" t="s">
+      <c r="F275" s="6">
+        <v>5</v>
+      </c>
+      <c r="H275" t="s">
+        <v>14</v>
+      </c>
+      <c r="I275" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O275" s="6"/>
+      <c r="P275" s="7"/>
+      <c r="R275" s="6"/>
+    </row>
+    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E276" t="s">
         <v>15</v>
       </c>
-      <c r="F270" s="6">
-        <v>5</v>
-      </c>
-      <c r="H270" t="s">
-        <v>14</v>
-      </c>
-      <c r="I270" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D271" t="s">
-        <v>16</v>
-      </c>
-      <c r="F271" s="6">
-        <v>5</v>
-      </c>
-      <c r="H271" t="s">
-        <v>14</v>
-      </c>
-      <c r="I271" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D272" t="s">
-        <v>17</v>
-      </c>
-      <c r="F272" s="6">
-        <v>5</v>
-      </c>
-      <c r="H272" t="s">
-        <v>14</v>
-      </c>
-      <c r="I272" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="273" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C273" t="s">
-        <v>44</v>
-      </c>
-      <c r="F273" s="6">
-        <v>5</v>
-      </c>
-      <c r="H273" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="274" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C274" t="s">
-        <v>116</v>
-      </c>
-      <c r="F274" s="6">
-        <v>5</v>
-      </c>
-      <c r="H274" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="275" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B275" t="s">
-        <v>58</v>
-      </c>
-      <c r="F275" s="6">
-        <v>5</v>
-      </c>
-      <c r="I275" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="276" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C276" t="s">
-        <v>271</v>
-      </c>
       <c r="F276" s="6">
-        <v>1</v>
-      </c>
-      <c r="G276" s="7" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="H276" t="s">
-        <v>272</v>
+        <v>14</v>
       </c>
       <c r="I276" s="6" t="s">
         <v>8</v>
@@ -4906,43 +4914,43 @@
       <c r="P276" s="7"/>
       <c r="R276" s="6"/>
     </row>
-    <row r="277" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C277" t="s">
-        <v>61</v>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E277" t="s">
+        <v>16</v>
       </c>
       <c r="F277" s="6">
         <v>5</v>
       </c>
-      <c r="G277" s="15" t="s">
-        <v>62</v>
+      <c r="H277" t="s">
+        <v>14</v>
       </c>
       <c r="I277" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O277" s="6"/>
-      <c r="P277" s="15"/>
+      <c r="P277" s="7"/>
       <c r="R277" s="6"/>
     </row>
-    <row r="278" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C278" t="s">
-        <v>21</v>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E278" t="s">
+        <v>17</v>
       </c>
       <c r="F278" s="6">
         <v>5</v>
       </c>
-      <c r="G278" s="15" t="s">
-        <v>22</v>
+      <c r="H278" t="s">
+        <v>14</v>
       </c>
       <c r="I278" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O278" s="6"/>
-      <c r="P278" s="15"/>
+      <c r="P278" s="7"/>
       <c r="R278" s="6"/>
     </row>
-    <row r="279" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D279" t="s">
-        <v>277</v>
+        <v>64</v>
       </c>
       <c r="F279" s="6">
         <v>5</v>
@@ -4957,32 +4965,32 @@
       <c r="P279" s="7"/>
       <c r="R279" s="6"/>
     </row>
-    <row r="280" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D280" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F280" s="6">
         <v>5</v>
       </c>
-      <c r="G280" s="15" t="s">
-        <v>26</v>
+      <c r="H280" t="s">
+        <v>24</v>
       </c>
       <c r="I280" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O280" s="6"/>
-      <c r="P280" s="15"/>
+      <c r="P280" s="7"/>
       <c r="R280" s="6"/>
     </row>
-    <row r="281" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E281" t="s">
-        <v>13</v>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D281" t="s">
+        <v>66</v>
       </c>
       <c r="F281" s="6">
         <v>5</v>
       </c>
       <c r="H281" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I281" s="6" t="s">
         <v>8</v>
@@ -4991,32 +4999,32 @@
       <c r="P281" s="7"/>
       <c r="R281" s="6"/>
     </row>
-    <row r="282" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E282" t="s">
-        <v>15</v>
-      </c>
-      <c r="F282" s="6">
-        <v>5</v>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C282" t="s">
+        <v>271</v>
       </c>
       <c r="H282" t="s">
-        <v>14</v>
-      </c>
-      <c r="I282" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I282" s="21" t="s">
         <v>8</v>
       </c>
       <c r="O282" s="6"/>
       <c r="P282" s="7"/>
       <c r="R282" s="6"/>
     </row>
-    <row r="283" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E283" t="s">
-        <v>16</v>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C283" t="s">
+        <v>67</v>
       </c>
       <c r="F283" s="6">
         <v>5</v>
       </c>
+      <c r="G283" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="H283" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I283" s="6" t="s">
         <v>8</v>
@@ -5025,15 +5033,15 @@
       <c r="P283" s="7"/>
       <c r="R283" s="6"/>
     </row>
-    <row r="284" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E284" t="s">
-        <v>17</v>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C284" t="s">
+        <v>69</v>
       </c>
       <c r="F284" s="6">
         <v>5</v>
       </c>
-      <c r="H284" t="s">
-        <v>14</v>
+      <c r="G284" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="I284" s="6" t="s">
         <v>8</v>
@@ -5042,15 +5050,15 @@
       <c r="P284" s="7"/>
       <c r="R284" s="6"/>
     </row>
-    <row r="285" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D285" t="s">
-        <v>64</v>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C285" t="s">
+        <v>70</v>
       </c>
       <c r="F285" s="6">
         <v>5</v>
       </c>
-      <c r="H285" t="s">
-        <v>24</v>
+      <c r="G285" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="I285" s="6" t="s">
         <v>8</v>
@@ -5059,309 +5067,276 @@
       <c r="P285" s="7"/>
       <c r="R285" s="6"/>
     </row>
-    <row r="286" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D286" t="s">
-        <v>278</v>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B286" t="s">
+        <v>117</v>
       </c>
       <c r="F286" s="6">
-        <v>9</v>
-      </c>
-      <c r="H286" t="s">
-        <v>24</v>
-      </c>
-      <c r="I286" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G286" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="O286" s="6"/>
       <c r="P286" s="7"/>
       <c r="R286" s="6"/>
     </row>
-    <row r="287" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D287" t="s">
-        <v>65</v>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>119</v>
       </c>
       <c r="F287" s="6">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="G287" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="H287" t="s">
-        <v>24</v>
-      </c>
-      <c r="I287" s="6" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="O287" s="6"/>
       <c r="P287" s="7"/>
-      <c r="R287" s="6"/>
-    </row>
-    <row r="288" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D288" t="s">
-        <v>66</v>
-      </c>
-      <c r="F288" s="6">
-        <v>5</v>
-      </c>
-      <c r="H288" t="s">
-        <v>24</v>
+      <c r="R287" s="21"/>
+    </row>
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>122</v>
       </c>
       <c r="I288" s="6" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="O288" s="6"/>
-      <c r="P288" s="7"/>
+      <c r="P288" s="15"/>
       <c r="R288" s="6"/>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C289" t="s">
-        <v>273</v>
-      </c>
-      <c r="F289" s="6">
-        <v>1</v>
-      </c>
-      <c r="G289" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H289" t="s">
-        <v>274</v>
+    <row r="289" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B289" t="s">
+        <v>123</v>
+      </c>
+      <c r="F289" s="10">
+        <v>8</v>
+      </c>
+      <c r="G289" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="I289" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O289" s="6"/>
-      <c r="P289" s="7"/>
+      <c r="P289" s="15"/>
       <c r="R289" s="6"/>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C290" t="s">
-        <v>275</v>
-      </c>
-      <c r="H290" t="s">
-        <v>276</v>
-      </c>
-      <c r="I290" s="21" t="s">
+    <row r="290" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
+        <v>125</v>
+      </c>
+      <c r="F290" s="10">
+        <v>8</v>
+      </c>
+      <c r="G290" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I290" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O290" s="6"/>
-      <c r="P290" s="7"/>
+      <c r="P290" s="15"/>
       <c r="R290" s="6"/>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C291" t="s">
-        <v>67</v>
-      </c>
-      <c r="F291" s="6">
-        <v>5</v>
-      </c>
-      <c r="G291" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H291" t="s">
-        <v>67</v>
+    <row r="291" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
+        <v>127</v>
+      </c>
+      <c r="F291" s="10">
+        <v>8</v>
+      </c>
+      <c r="G291" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="I291" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O291" s="6"/>
-      <c r="P291" s="7"/>
-      <c r="R291" s="6"/>
-    </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C292" t="s">
-        <v>69</v>
-      </c>
-      <c r="F292" s="6">
-        <v>5</v>
-      </c>
-      <c r="G292" s="15" t="s">
-        <v>68</v>
+    </row>
+    <row r="292" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
+        <v>129</v>
+      </c>
+      <c r="F292" s="10">
+        <v>8</v>
+      </c>
+      <c r="G292" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="I292" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O292" s="6"/>
-      <c r="P292" s="7"/>
-      <c r="R292" s="6"/>
-    </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C293" t="s">
-        <v>70</v>
-      </c>
-      <c r="F293" s="6">
-        <v>5</v>
-      </c>
-      <c r="G293" s="15" t="s">
-        <v>71</v>
+    </row>
+    <row r="293" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B293" t="s">
+        <v>131</v>
+      </c>
+      <c r="F293" s="10">
+        <v>8</v>
+      </c>
+      <c r="G293" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H293" t="s">
+        <v>133</v>
       </c>
       <c r="I293" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O293" s="6"/>
-      <c r="P293" s="7"/>
-      <c r="R293" s="6"/>
-    </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
-        <v>117</v>
-      </c>
-      <c r="F294" s="6">
-        <v>5</v>
-      </c>
-      <c r="G294" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="O294" s="6"/>
-      <c r="P294" s="7"/>
-      <c r="R294" s="6"/>
-    </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>119</v>
-      </c>
-      <c r="F295" s="6">
-        <v>12</v>
-      </c>
-      <c r="G295" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H295" t="s">
-        <v>121</v>
-      </c>
-      <c r="O295" s="6"/>
-      <c r="P295" s="7"/>
-      <c r="R295" s="21"/>
-    </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>122</v>
+        <v>134</v>
+      </c>
+      <c r="F294" s="10">
+        <v>8</v>
+      </c>
+      <c r="G294" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H294" t="s">
+        <v>136</v>
+      </c>
+      <c r="I294" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B295" t="s">
+        <v>137</v>
+      </c>
+      <c r="F295" s="10">
+        <v>8</v>
+      </c>
+      <c r="G295" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I295" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B296" t="s">
+        <v>139</v>
+      </c>
+      <c r="F296" s="10">
+        <v>8</v>
+      </c>
+      <c r="G296" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H296" t="s">
+        <v>133</v>
       </c>
       <c r="I296" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O296" s="6"/>
-      <c r="P296" s="15"/>
-      <c r="R296" s="6"/>
-    </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F297" s="10">
         <v>8</v>
       </c>
       <c r="G297" s="11" t="s">
-        <v>124</v>
+        <v>140</v>
+      </c>
+      <c r="H297" t="s">
+        <v>133</v>
       </c>
       <c r="I297" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O297" s="6"/>
-      <c r="P297" s="15"/>
-      <c r="R297" s="6"/>
-    </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F298" s="10">
         <v>8</v>
       </c>
       <c r="G298" s="11" t="s">
-        <v>126</v>
+        <v>143</v>
+      </c>
+      <c r="H298" t="s">
+        <v>133</v>
       </c>
       <c r="I298" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O298" s="6"/>
-      <c r="P298" s="15"/>
-      <c r="R298" s="6"/>
-    </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F299" s="10">
         <v>8</v>
       </c>
       <c r="G299" s="11" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="I299" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F300" s="10">
         <v>8</v>
       </c>
       <c r="G300" s="11" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="I300" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B301" t="s">
-        <v>131</v>
-      </c>
-      <c r="F301" s="10">
-        <v>8</v>
-      </c>
-      <c r="G301" s="11" t="s">
-        <v>132</v>
+    <row r="301" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C301" t="s">
+        <v>13</v>
       </c>
       <c r="H301" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="I301" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B302" t="s">
-        <v>134</v>
-      </c>
-      <c r="F302" s="10">
-        <v>8</v>
-      </c>
-      <c r="G302" s="11" t="s">
-        <v>135</v>
+    <row r="302" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C302" t="s">
+        <v>15</v>
       </c>
       <c r="H302" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="I302" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B303" t="s">
-        <v>137</v>
-      </c>
-      <c r="F303" s="10">
-        <v>8</v>
-      </c>
-      <c r="G303" s="11" t="s">
-        <v>138</v>
+    <row r="303" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C303" t="s">
+        <v>16</v>
+      </c>
+      <c r="H303" t="s">
+        <v>14</v>
       </c>
       <c r="I303" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B304" t="s">
-        <v>139</v>
-      </c>
-      <c r="F304" s="10">
-        <v>8</v>
-      </c>
-      <c r="G304" s="11" t="s">
-        <v>140</v>
+    <row r="304" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C304" t="s">
+        <v>17</v>
       </c>
       <c r="H304" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="I304" s="6" t="s">
         <v>8</v>
@@ -5369,83 +5344,56 @@
     </row>
     <row r="305" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
-        <v>141</v>
-      </c>
-      <c r="F305" s="10">
-        <v>8</v>
-      </c>
-      <c r="G305" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H305" t="s">
-        <v>133</v>
-      </c>
-      <c r="I305" s="6" t="s">
-        <v>8</v>
+        <v>84</v>
+      </c>
+      <c r="F305" s="6">
+        <v>8</v>
+      </c>
+      <c r="G305" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B306" t="s">
-        <v>142</v>
-      </c>
-      <c r="F306" s="10">
-        <v>8</v>
-      </c>
-      <c r="G306" s="11" t="s">
-        <v>143</v>
+      <c r="C306" t="s">
+        <v>13</v>
       </c>
       <c r="H306" t="s">
-        <v>133</v>
-      </c>
-      <c r="I306" s="6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="307" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B307" t="s">
-        <v>144</v>
-      </c>
-      <c r="F307" s="10">
-        <v>8</v>
-      </c>
-      <c r="G307" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I307" s="6" t="s">
-        <v>8</v>
+      <c r="C307" t="s">
+        <v>15</v>
+      </c>
+      <c r="H307" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B308" t="s">
-        <v>146</v>
-      </c>
-      <c r="F308" s="10">
-        <v>8</v>
-      </c>
-      <c r="G308" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="I308" s="6" t="s">
-        <v>8</v>
+      <c r="C308" t="s">
+        <v>16</v>
+      </c>
+      <c r="H308" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C309" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H309" t="s">
         <v>14</v>
       </c>
-      <c r="I309" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C310" t="s">
-        <v>15</v>
-      </c>
-      <c r="H310" t="s">
-        <v>14</v>
+      <c r="B310" t="s">
+        <v>148</v>
+      </c>
+      <c r="F310" s="10">
+        <v>8</v>
+      </c>
+      <c r="G310" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="I310" s="6" t="s">
         <v>8</v>
@@ -5453,7 +5401,7 @@
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C311" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H311" t="s">
         <v>14</v>
@@ -5464,7 +5412,7 @@
     </row>
     <row r="312" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C312" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H312" t="s">
         <v>14</v>
@@ -5474,57 +5422,69 @@
       </c>
     </row>
     <row r="313" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B313" t="s">
-        <v>84</v>
-      </c>
-      <c r="F313" s="6">
-        <v>8</v>
-      </c>
-      <c r="G313" s="7" t="s">
-        <v>85</v>
+      <c r="C313" t="s">
+        <v>16</v>
+      </c>
+      <c r="H313" t="s">
+        <v>14</v>
+      </c>
+      <c r="I313" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C314" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H314" t="s">
         <v>14</v>
       </c>
+      <c r="I314" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C315" t="s">
-        <v>15</v>
-      </c>
-      <c r="H315" t="s">
-        <v>14</v>
+      <c r="B315" t="s">
+        <v>150</v>
+      </c>
+      <c r="F315" s="10">
+        <v>8</v>
+      </c>
+      <c r="G315" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I315" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C316" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H316" t="s">
         <v>14</v>
+      </c>
+      <c r="I316" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C317" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H317" t="s">
         <v>14</v>
       </c>
+      <c r="I317" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B318" t="s">
-        <v>148</v>
-      </c>
-      <c r="F318" s="10">
-        <v>8</v>
-      </c>
-      <c r="G318" s="11" t="s">
-        <v>149</v>
+      <c r="C318" t="s">
+        <v>16</v>
+      </c>
+      <c r="H318" t="s">
+        <v>14</v>
       </c>
       <c r="I318" s="6" t="s">
         <v>8</v>
@@ -5532,7 +5492,7 @@
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C319" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H319" t="s">
         <v>14</v>
@@ -5542,47 +5502,53 @@
       </c>
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C320" t="s">
-        <v>15</v>
-      </c>
-      <c r="H320" t="s">
-        <v>14</v>
+      <c r="B320" t="s">
+        <v>152</v>
+      </c>
+      <c r="F320" s="10">
+        <v>8</v>
+      </c>
+      <c r="G320" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="I320" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="321" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C321" t="s">
-        <v>16</v>
-      </c>
-      <c r="H321" t="s">
-        <v>14</v>
+      <c r="B321" t="s">
+        <v>154</v>
+      </c>
+      <c r="F321" s="10">
+        <v>8</v>
+      </c>
+      <c r="G321" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="I321" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="322" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C322" t="s">
-        <v>17</v>
-      </c>
-      <c r="H322" t="s">
-        <v>14</v>
+      <c r="B322" t="s">
+        <v>21</v>
+      </c>
+      <c r="F322" s="10">
+        <v>8</v>
+      </c>
+      <c r="G322" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I322" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="323" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B323" t="s">
-        <v>150</v>
-      </c>
-      <c r="F323" s="10">
-        <v>8</v>
-      </c>
-      <c r="G323" s="11" t="s">
-        <v>151</v>
+      <c r="C323" t="s">
+        <v>156</v>
+      </c>
+      <c r="H323" t="s">
+        <v>24</v>
       </c>
       <c r="I323" s="6" t="s">
         <v>8</v>
@@ -5590,10 +5556,10 @@
     </row>
     <row r="324" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C324" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="H324" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I324" s="6" t="s">
         <v>8</v>
@@ -5601,10 +5567,10 @@
     </row>
     <row r="325" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C325" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="H325" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I325" s="6" t="s">
         <v>8</v>
@@ -5612,74 +5578,65 @@
     </row>
     <row r="326" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C326" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="H326" t="s">
-        <v>14</v>
-      </c>
-      <c r="I326" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="327" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C327" t="s">
+        <v>25</v>
+      </c>
+      <c r="F327" s="10">
+        <v>8</v>
+      </c>
+      <c r="G327" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I327" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D328" t="s">
+        <v>13</v>
+      </c>
+      <c r="H328" t="s">
+        <v>14</v>
+      </c>
+      <c r="I328" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D329" t="s">
+        <v>15</v>
+      </c>
+      <c r="H329" t="s">
+        <v>14</v>
+      </c>
+      <c r="I329" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D330" t="s">
+        <v>16</v>
+      </c>
+      <c r="H330" t="s">
+        <v>14</v>
+      </c>
+      <c r="I330" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D331" t="s">
         <v>17</v>
       </c>
-      <c r="H327" t="s">
-        <v>14</v>
-      </c>
-      <c r="I327" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="328" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B328" t="s">
-        <v>152</v>
-      </c>
-      <c r="F328" s="10">
-        <v>8</v>
-      </c>
-      <c r="G328" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="I328" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="329" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B329" t="s">
-        <v>154</v>
-      </c>
-      <c r="F329" s="10">
-        <v>8</v>
-      </c>
-      <c r="G329" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="I329" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="330" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B330" t="s">
-        <v>21</v>
-      </c>
-      <c r="F330" s="10">
-        <v>8</v>
-      </c>
-      <c r="G330" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I330" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="331" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C331" t="s">
-        <v>156</v>
-      </c>
       <c r="H331" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I331" s="6" t="s">
         <v>8</v>
@@ -5687,7 +5644,7 @@
     </row>
     <row r="332" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C332" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H332" t="s">
         <v>24</v>
@@ -5698,7 +5655,7 @@
     </row>
     <row r="333" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C333" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H333" t="s">
         <v>24</v>
@@ -5709,73 +5666,73 @@
     </row>
     <row r="334" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C334" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H334" t="s">
         <v>24</v>
+      </c>
+      <c r="I334" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="335" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C335" t="s">
-        <v>25</v>
-      </c>
-      <c r="F335" s="10">
-        <v>8</v>
-      </c>
-      <c r="G335" s="11" t="s">
-        <v>26</v>
+        <v>163</v>
+      </c>
+      <c r="H335" t="s">
+        <v>24</v>
       </c>
       <c r="I335" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="336" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D336" t="s">
-        <v>13</v>
+      <c r="C336" t="s">
+        <v>164</v>
       </c>
       <c r="H336" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I336" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D337" t="s">
-        <v>15</v>
+    <row r="337" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C337" t="s">
+        <v>165</v>
       </c>
       <c r="H337" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I337" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D338" t="s">
-        <v>16</v>
+    <row r="338" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C338" t="s">
+        <v>166</v>
       </c>
       <c r="H338" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I338" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D339" t="s">
-        <v>17</v>
+    <row r="339" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C339" t="s">
+        <v>167</v>
       </c>
       <c r="H339" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I339" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C340" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="H340" t="s">
         <v>24</v>
@@ -5784,9 +5741,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C341" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="H341" t="s">
         <v>24</v>
@@ -5795,9 +5752,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C342" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H342" t="s">
         <v>24</v>
@@ -5806,9 +5763,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C343" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="H343" t="s">
         <v>24</v>
@@ -5817,9 +5774,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C344" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H344" t="s">
         <v>24</v>
@@ -5828,9 +5785,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C345" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="H345" t="s">
         <v>24</v>
@@ -5839,9 +5796,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C346" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H346" t="s">
         <v>24</v>
@@ -5850,106 +5807,133 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C347" t="s">
-        <v>167</v>
-      </c>
-      <c r="H347" t="s">
-        <v>24</v>
+    <row r="347" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B347" t="s">
+        <v>175</v>
+      </c>
+      <c r="F347" s="10">
+        <v>8</v>
+      </c>
+      <c r="G347" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H347" s="28" t="s">
+        <v>176</v>
       </c>
       <c r="I347" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C348" t="s">
-        <v>168</v>
+    <row r="348" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
+        <v>177</v>
+      </c>
+      <c r="F348" s="10">
+        <v>8</v>
+      </c>
+      <c r="G348" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="H348" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="I348" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C349" t="s">
-        <v>169</v>
+    <row r="349" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B349" t="s">
+        <v>29</v>
+      </c>
+      <c r="F349" s="10">
+        <v>8</v>
+      </c>
+      <c r="G349" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="H349" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="I349" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C350" t="s">
-        <v>170</v>
-      </c>
-      <c r="H350" t="s">
-        <v>24</v>
-      </c>
-      <c r="I350" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="351" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C351" t="s">
-        <v>171</v>
-      </c>
-      <c r="H351" t="s">
-        <v>24</v>
+    <row r="350" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B350" t="s">
+        <v>180</v>
+      </c>
+      <c r="F350" s="10">
+        <v>8</v>
+      </c>
+      <c r="G350" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="351" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B351" t="s">
+        <v>182</v>
+      </c>
+      <c r="F351" s="10">
+        <v>8</v>
+      </c>
+      <c r="G351" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="I351" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C352" t="s">
-        <v>172</v>
-      </c>
-      <c r="H352" t="s">
-        <v>24</v>
+    <row r="352" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B352" t="s">
+        <v>184</v>
+      </c>
+      <c r="F352" s="10">
+        <v>8</v>
+      </c>
+      <c r="G352" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="I352" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C353" t="s">
-        <v>173</v>
-      </c>
-      <c r="H353" t="s">
-        <v>24</v>
+      <c r="B353" t="s">
+        <v>186</v>
+      </c>
+      <c r="F353" s="10">
+        <v>8</v>
+      </c>
+      <c r="G353" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="H353" s="28" t="s">
+        <v>270</v>
       </c>
       <c r="I353" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C354" t="s">
-        <v>174</v>
-      </c>
-      <c r="H354" t="s">
-        <v>24</v>
+      <c r="B354" t="s">
+        <v>188</v>
+      </c>
+      <c r="F354" s="10">
+        <v>8</v>
+      </c>
+      <c r="G354" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H354" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="I354" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B355" t="s">
-        <v>175</v>
-      </c>
-      <c r="F355" s="10">
-        <v>8</v>
-      </c>
-      <c r="G355" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H355" s="28" t="s">
-        <v>176</v>
+      <c r="A355" t="s">
+        <v>189</v>
       </c>
       <c r="I355" s="6" t="s">
         <v>8</v>
@@ -5957,16 +5941,13 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F356" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G356" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H356" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="I356" s="6" t="s">
         <v>8</v>
@@ -5974,72 +5955,57 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="F357" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G357" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="H357" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="I357" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B358" t="s">
-        <v>180</v>
-      </c>
-      <c r="F358" s="10">
-        <v>8</v>
-      </c>
-      <c r="G358" s="11" t="s">
-        <v>181</v>
+      <c r="C358" t="s">
+        <v>13</v>
+      </c>
+      <c r="H358" t="s">
+        <v>14</v>
+      </c>
+      <c r="I358" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B359" t="s">
-        <v>182</v>
-      </c>
-      <c r="F359" s="10">
-        <v>8</v>
-      </c>
-      <c r="G359" s="11" t="s">
-        <v>183</v>
+      <c r="C359" t="s">
+        <v>15</v>
+      </c>
+      <c r="H359" t="s">
+        <v>14</v>
       </c>
       <c r="I359" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B360" t="s">
-        <v>184</v>
-      </c>
-      <c r="F360" s="10">
-        <v>8</v>
-      </c>
-      <c r="G360" s="11" t="s">
-        <v>185</v>
+      <c r="C360" t="s">
+        <v>16</v>
+      </c>
+      <c r="H360" t="s">
+        <v>14</v>
       </c>
       <c r="I360" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B361" t="s">
-        <v>186</v>
-      </c>
-      <c r="F361" s="10">
-        <v>8</v>
-      </c>
-      <c r="G361" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="H361" s="28" t="s">
-        <v>270</v>
+      <c r="C361" t="s">
+        <v>17</v>
+      </c>
+      <c r="H361" t="s">
+        <v>14</v>
       </c>
       <c r="I361" s="6" t="s">
         <v>8</v>
@@ -6047,52 +6013,46 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F362" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G362" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="H362" s="28" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I362" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>189</v>
+      <c r="C363" t="s">
+        <v>13</v>
+      </c>
+      <c r="H363" t="s">
+        <v>14</v>
       </c>
       <c r="I363" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B364" t="s">
-        <v>190</v>
-      </c>
-      <c r="F364" s="10">
-        <v>10</v>
-      </c>
-      <c r="G364" s="11" t="s">
-        <v>191</v>
+      <c r="C364" t="s">
+        <v>15</v>
+      </c>
+      <c r="H364" t="s">
+        <v>14</v>
       </c>
       <c r="I364" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B365" t="s">
-        <v>192</v>
-      </c>
-      <c r="F365" s="10">
-        <v>10</v>
-      </c>
-      <c r="G365" s="11" t="s">
-        <v>193</v>
+      <c r="C365" t="s">
+        <v>16</v>
+      </c>
+      <c r="H365" t="s">
+        <v>14</v>
       </c>
       <c r="I365" s="6" t="s">
         <v>8</v>
@@ -6100,7 +6060,7 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C366" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H366" t="s">
         <v>14</v>
@@ -6110,11 +6070,14 @@
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C367" t="s">
-        <v>15</v>
-      </c>
-      <c r="H367" t="s">
-        <v>14</v>
+      <c r="B367" t="s">
+        <v>21</v>
+      </c>
+      <c r="F367" s="10">
+        <v>10</v>
+      </c>
+      <c r="G367" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I367" s="6" t="s">
         <v>8</v>
@@ -6122,10 +6085,10 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C368" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="H368" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I368" s="6" t="s">
         <v>8</v>
@@ -6133,24 +6096,21 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C369" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="H369" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I369" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B370" t="s">
-        <v>194</v>
-      </c>
-      <c r="F370" s="10">
-        <v>10</v>
-      </c>
-      <c r="G370" s="11" t="s">
-        <v>195</v>
+      <c r="C370" t="s">
+        <v>198</v>
+      </c>
+      <c r="H370" t="s">
+        <v>24</v>
       </c>
       <c r="I370" s="6" t="s">
         <v>8</v>
@@ -6158,170 +6118,161 @@
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C371" t="s">
+        <v>25</v>
+      </c>
+      <c r="F371" s="10">
+        <v>10</v>
+      </c>
+      <c r="G371" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I371" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D372" t="s">
         <v>13</v>
       </c>
-      <c r="H371" t="s">
-        <v>14</v>
-      </c>
-      <c r="I371" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C372" t="s">
+      <c r="H372" t="s">
+        <v>14</v>
+      </c>
+      <c r="I372" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D373" t="s">
         <v>15</v>
       </c>
-      <c r="H372" t="s">
-        <v>14</v>
-      </c>
-      <c r="I372" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C373" t="s">
+      <c r="H373" t="s">
+        <v>14</v>
+      </c>
+      <c r="I373" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D374" t="s">
         <v>16</v>
       </c>
-      <c r="H373" t="s">
-        <v>14</v>
-      </c>
-      <c r="I373" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C374" t="s">
+      <c r="H374" t="s">
+        <v>14</v>
+      </c>
+      <c r="I374" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D375" t="s">
         <v>17</v>
       </c>
-      <c r="H374" t="s">
-        <v>14</v>
-      </c>
-      <c r="I374" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B375" t="s">
-        <v>21</v>
-      </c>
-      <c r="F375" s="10">
-        <v>10</v>
-      </c>
-      <c r="G375" s="11" t="s">
-        <v>22</v>
+      <c r="H375" t="s">
+        <v>14</v>
       </c>
       <c r="I375" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C376" t="s">
-        <v>196</v>
-      </c>
-      <c r="H376" t="s">
-        <v>24</v>
+      <c r="A376" t="s">
+        <v>199</v>
       </c>
       <c r="I376" s="6" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C377" t="s">
-        <v>197</v>
-      </c>
-      <c r="H377" t="s">
-        <v>24</v>
+      <c r="B377" t="s">
+        <v>200</v>
+      </c>
+      <c r="F377" s="10">
+        <v>8</v>
+      </c>
+      <c r="G377" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="I377" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C378" t="s">
-        <v>198</v>
-      </c>
-      <c r="H378" t="s">
-        <v>24</v>
+      <c r="B378" t="s">
+        <v>201</v>
+      </c>
+      <c r="F378" s="6">
+        <v>9</v>
       </c>
       <c r="I378" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C379" t="s">
-        <v>25</v>
-      </c>
-      <c r="F379" s="10">
-        <v>10</v>
-      </c>
-      <c r="G379" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I379" s="6" t="s">
-        <v>8</v>
+      <c r="B379" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D380" t="s">
-        <v>13</v>
-      </c>
-      <c r="H380" t="s">
-        <v>14</v>
+      <c r="B380" t="s">
+        <v>203</v>
+      </c>
+      <c r="F380" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="I380" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D381" t="s">
-        <v>15</v>
-      </c>
-      <c r="H381" t="s">
-        <v>14</v>
+      <c r="B381" t="s">
+        <v>204</v>
       </c>
       <c r="I381" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D382" t="s">
-        <v>16</v>
+      <c r="B382" t="s">
+        <v>205</v>
+      </c>
+      <c r="F382" s="6">
+        <v>5</v>
       </c>
       <c r="H382" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="I382" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D383" t="s">
-        <v>17</v>
+      <c r="B383" t="s">
+        <v>207</v>
       </c>
       <c r="H383" t="s">
-        <v>14</v>
-      </c>
-      <c r="I383" s="6" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
-        <v>199</v>
+      <c r="B384" t="s">
+        <v>209</v>
+      </c>
+      <c r="F384" s="6">
+        <v>1</v>
+      </c>
+      <c r="G384" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H384" t="s">
+        <v>210</v>
       </c>
       <c r="I384" s="6" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="385" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
-        <v>200</v>
-      </c>
-      <c r="F385" s="10">
-        <v>8</v>
-      </c>
-      <c r="G385" s="11" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="I385" s="6" t="s">
         <v>8</v>
@@ -6329,91 +6280,9 @@
     </row>
     <row r="386" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
-        <v>201</v>
-      </c>
-      <c r="F386" s="6">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="I386" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="387" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B387" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="388" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B388" t="s">
-        <v>203</v>
-      </c>
-      <c r="F388" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="I388" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="389" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B389" t="s">
-        <v>204</v>
-      </c>
-      <c r="I389" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="390" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B390" t="s">
-        <v>205</v>
-      </c>
-      <c r="F390" s="6">
-        <v>5</v>
-      </c>
-      <c r="H390" t="s">
-        <v>206</v>
-      </c>
-      <c r="I390" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="391" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B391" t="s">
-        <v>207</v>
-      </c>
-      <c r="H391" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="392" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B392" t="s">
-        <v>209</v>
-      </c>
-      <c r="F392" s="6">
-        <v>1</v>
-      </c>
-      <c r="G392" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H392" t="s">
-        <v>210</v>
-      </c>
-      <c r="I392" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="393" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B393" t="s">
-        <v>211</v>
-      </c>
-      <c r="I393" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="394" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B394" t="s">
-        <v>212</v>
-      </c>
-      <c r="I394" s="6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/Documents/QoS/VNG/Haal Centraal/BRP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/Documents/GitHub/Haal-Centraal-BRP-bevragen/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BB5A74-B540-344C-AB05-C871F8156800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BFB34E-6FB1-D342-948D-B80BAA380F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36320" yWindow="-2220" windowWidth="38400" windowHeight="19240" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
+    <workbookView xWindow="-38400" yWindow="-2220" windowWidth="38400" windowHeight="19240" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
   </bookViews>
   <sheets>
     <sheet name="personen" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="364">
   <si>
     <t>categorie</t>
   </si>
@@ -1224,6 +1224,18 @@
   </si>
   <si>
     <t>vertalen naar date of jaar/maand/dag; datum in verleden uitfilteren</t>
+  </si>
+  <si>
+    <t>inOnderzoek (01.83.10) vertalen naar booleans</t>
+  </si>
+  <si>
+    <t>inOnderzoek (02/03.83.10) vertalen naar booleans</t>
+  </si>
+  <si>
+    <t>inOnderzoek (05.83.10) vertalen naar booleans</t>
+  </si>
+  <si>
+    <t>inOnderzoek (09.83.10) vertalen naar booleans</t>
   </si>
 </sst>
 </file>
@@ -1445,19 +1457,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfstitelhistorie" connectionId="6" xr16:uid="{D84B9166-BEDF-6348-AE8D-223137517573}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetNationaliteithistorie" connectionId="3" xr16:uid="{1126B2BD-5C1E-CC48-A3D0-27049524F5AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfplaatshistorie" connectionId="5" xr16:uid="{20C89C14-52C3-BC4A-AE7B-7774BDE871DE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetPartnerhistorie" connectionId="4" xr16:uid="{26EA40DB-B172-5747-89E1-403320CC8B7A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfstitelhistorie" connectionId="6" xr16:uid="{D84B9166-BEDF-6348-AE8D-223137517573}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetNationaliteithistorie" connectionId="3" xr16:uid="{1126B2BD-5C1E-CC48-A3D0-27049524F5AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1776,10 +1788,10 @@
   <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
+      <selection pane="bottomRight" activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2040,10 +2052,10 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>268</v>
+        <v>360</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
@@ -2067,7 +2079,7 @@
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="I13" t="s">
         <v>267</v>
@@ -2309,10 +2321,10 @@
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="I24" t="s">
-        <v>268</v>
+        <v>360</v>
       </c>
       <c r="J24" t="s">
         <v>22</v>
@@ -2335,7 +2347,7 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="I25" t="s">
         <v>267</v>
@@ -2629,10 +2641,10 @@
         <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="I40" t="s">
-        <v>268</v>
+        <v>361</v>
       </c>
       <c r="J40" t="s">
         <v>22</v>
@@ -2655,7 +2667,7 @@
         <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="I41" t="s">
         <v>267</v>
@@ -2758,10 +2770,10 @@
         <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="I46" t="s">
-        <v>268</v>
+        <v>361</v>
       </c>
       <c r="J46" t="s">
         <v>22</v>
@@ -2784,7 +2796,7 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="I47" t="s">
         <v>267</v>
@@ -3244,10 +3256,10 @@
         <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="I70" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="J70" t="s">
         <v>22</v>
@@ -3270,7 +3282,7 @@
         <v>24</v>
       </c>
       <c r="H71" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="I71" t="s">
         <v>267</v>
@@ -3364,10 +3376,10 @@
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="I76" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="J76" t="s">
         <v>22</v>
@@ -3387,7 +3399,7 @@
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="I77" t="s">
         <v>267</v>
@@ -3498,10 +3510,10 @@
         <v>20</v>
       </c>
       <c r="H83" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="I83" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="J83" t="s">
         <v>22</v>
@@ -3524,7 +3536,7 @@
         <v>24</v>
       </c>
       <c r="H84" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="I84" t="s">
         <v>267</v>
@@ -4815,10 +4827,10 @@
         <v>20</v>
       </c>
       <c r="H144" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="I144" t="s">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="J144" t="s">
         <v>22</v>
@@ -4841,7 +4853,7 @@
         <v>24</v>
       </c>
       <c r="H145" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="I145" t="s">
         <v>267</v>
@@ -4963,10 +4975,10 @@
         <v>20</v>
       </c>
       <c r="H151" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="I151" t="s">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="J151" t="s">
         <v>22</v>
@@ -4989,7 +5001,7 @@
         <v>24</v>
       </c>
       <c r="H152" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="I152" t="s">
         <v>267</v>

--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/Documents/GitHub/Haal-Centraal-BRP-bevragen/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BFB34E-6FB1-D342-948D-B80BAA380F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2819136-B9C5-D14F-A36E-CFA4E6B7903C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-2220" windowWidth="38400" windowHeight="19240" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="367">
   <si>
     <t>categorie</t>
   </si>
@@ -371,9 +371,6 @@
     <t>gebruik_in_lopende_tekst</t>
   </si>
   <si>
-    <t>regelVoorafgaandAanAanschrijfwijze</t>
-  </si>
-  <si>
     <t>nationaliteiten[{}]</t>
   </si>
   <si>
@@ -1236,6 +1233,18 @@
   </si>
   <si>
     <t>inOnderzoek (09.83.10) vertalen naar booleans</t>
+  </si>
+  <si>
+    <t>adellijkeTitelPredicaat(*)</t>
+  </si>
+  <si>
+    <t>naam</t>
+  </si>
+  <si>
+    <t>aanspreekvorm</t>
+  </si>
+  <si>
+    <t>afleiden uit naam.adellijkeTitelPredicaat,aanduidingNaamgebruik, geslachtsaanduiding</t>
   </si>
 </sst>
 </file>
@@ -1457,19 +1466,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfstitelhistorie" connectionId="6" xr16:uid="{D84B9166-BEDF-6348-AE8D-223137517573}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetNationaliteithistorie" connectionId="3" xr16:uid="{1126B2BD-5C1E-CC48-A3D0-27049524F5AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetNationaliteithistorie" connectionId="3" xr16:uid="{1126B2BD-5C1E-CC48-A3D0-27049524F5AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfplaatshistorie" connectionId="5" xr16:uid="{20C89C14-52C3-BC4A-AE7B-7774BDE871DE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfplaatshistorie" connectionId="5" xr16:uid="{20C89C14-52C3-BC4A-AE7B-7774BDE871DE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetPartnerhistorie" connectionId="4" xr16:uid="{26EA40DB-B172-5747-89E1-403320CC8B7A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetPartnerhistorie" connectionId="4" xr16:uid="{26EA40DB-B172-5747-89E1-403320CC8B7A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfstitelhistorie" connectionId="6" xr16:uid="{D84B9166-BEDF-6348-AE8D-223137517573}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1785,13 +1794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F3B9D-634A-C449-A474-F9F6FE9216B2}">
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I151" sqref="I151"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1811,7 +1820,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -1820,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>296</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>297</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>2</v>
@@ -1832,32 +1841,32 @@
         <v>3</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="40"/>
       <c r="H2" s="38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K2" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1871,7 +1880,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>7</v>
@@ -1888,13 +1897,13 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1916,10 +1925,10 @@
         <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J6" t="s">
         <v>63</v>
@@ -1928,10 +1937,10 @@
         <v>7</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1945,19 +1954,19 @@
         <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>363</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
@@ -1966,13 +1975,13 @@
         <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1986,14 +1995,14 @@
         <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="20" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2007,19 +2016,19 @@
         <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>7</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2033,7 +2042,7 @@
         <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="20" t="s">
@@ -2052,10 +2061,10 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
@@ -2065,7 +2074,7 @@
       </c>
       <c r="L12" s="19"/>
       <c r="M12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -2079,10 +2088,10 @@
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -2092,32 +2101,32 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="18"/>
       <c r="H14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -2125,10 +2134,10 @@
         <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>71</v>
@@ -2138,7 +2147,7 @@
       </c>
       <c r="L15" s="20"/>
       <c r="M15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -2146,52 +2155,48 @@
         <v>72</v>
       </c>
       <c r="H16" t="s">
-        <v>271</v>
-      </c>
-      <c r="I16" t="s">
-        <v>282</v>
-      </c>
-      <c r="J16" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I17" t="s">
+        <v>281</v>
+      </c>
+      <c r="J17" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="20"/>
-      <c r="M16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I17" t="s">
-        <v>282</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>74</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>7</v>
       </c>
       <c r="L17" s="20"/>
       <c r="M17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
+      <c r="C18" t="s">
+        <v>365</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18"/>
       <c r="H18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I18" t="s">
-        <v>282</v>
+        <v>366</v>
       </c>
       <c r="J18" s="23" t="s">
         <v>72</v>
@@ -2201,110 +2206,111 @@
       </c>
       <c r="L18" s="20"/>
       <c r="M18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>18</v>
+      <c r="B19" t="s">
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I19" t="s">
-        <v>279</v>
-      </c>
-      <c r="J19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>310</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="20"/>
       <c r="M19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20" t="s">
+        <v>278</v>
+      </c>
+      <c r="J20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="M20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>299</v>
-      </c>
-      <c r="I21" t="s">
-        <v>267</v>
-      </c>
-      <c r="J21" t="s">
-        <v>12</v>
-      </c>
       <c r="K21" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="M21" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F22" s="10">
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>275</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>339</v>
+        <v>298</v>
+      </c>
+      <c r="I22" t="s">
+        <v>266</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M22" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F23" s="10">
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>275</v>
-      </c>
-      <c r="I23" t="s">
-        <v>339</v>
+        <v>274</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>338</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>7</v>
@@ -2312,174 +2318,177 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F24" s="10">
         <v>1</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I24" t="s">
-        <v>360</v>
-      </c>
-      <c r="J24" t="s">
-        <v>22</v>
+        <v>338</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M24" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>23</v>
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
       <c r="F25" s="10">
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I25" t="s">
-        <v>267</v>
+        <v>359</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>33</v>
+      <c r="C26" t="s">
+        <v>23</v>
       </c>
       <c r="F26" s="10">
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>275</v>
+        <v>270</v>
+      </c>
+      <c r="I26" t="s">
+        <v>266</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>309</v>
+      <c r="M26" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
+        <v>274</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>19</v>
-      </c>
-      <c r="F27" s="12">
-        <v>1</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" t="s">
-        <v>298</v>
-      </c>
-      <c r="I27" t="s">
-        <v>268</v>
-      </c>
-      <c r="J27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>23</v>
       </c>
       <c r="F28" s="12">
         <v>1</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I28" t="s">
         <v>267</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>298</v>
+      </c>
+      <c r="I29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" t="s">
-        <v>332</v>
-      </c>
-      <c r="J29" t="s">
-        <v>328</v>
-      </c>
-      <c r="K29" s="6" t="s">
+      <c r="H30" t="s">
+        <v>331</v>
+      </c>
+      <c r="J30" t="s">
+        <v>327</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>283</v>
-      </c>
-      <c r="H30" t="s">
-        <v>271</v>
-      </c>
-      <c r="I30" t="s">
-        <v>327</v>
-      </c>
-      <c r="J30" t="s">
-        <v>328</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>93</v>
+        <v>282</v>
       </c>
       <c r="H31" t="s">
-        <v>275</v>
+        <v>270</v>
+      </c>
+      <c r="I31" t="s">
+        <v>326</v>
       </c>
       <c r="J31" t="s">
-        <v>97</v>
+        <v>327</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>7</v>
@@ -2487,16 +2496,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>351</v>
+        <v>95</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="H32" t="s">
-        <v>271</v>
-      </c>
-      <c r="I32" t="s">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>328</v>
+        <v>96</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>7</v>
@@ -2504,16 +2513,16 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="H33" t="s">
-        <v>285</v>
+        <v>270</v>
+      </c>
+      <c r="I33" t="s">
+        <v>352</v>
+      </c>
+      <c r="J33" t="s">
+        <v>327</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>7</v>
@@ -2521,70 +2530,70 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>63</v>
-      </c>
       <c r="F35" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" t="s">
-        <v>271</v>
-      </c>
-      <c r="I35" t="s">
-        <v>280</v>
-      </c>
-      <c r="J35" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="M35" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H36" t="s">
-        <v>285</v>
+        <v>270</v>
+      </c>
+      <c r="I36" t="s">
+        <v>279</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="M36" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>56</v>
+        <v>92</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="H37" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>7</v>
@@ -2592,16 +2601,16 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>66</v>
+        <v>363</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="H38" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>7</v>
@@ -2609,22 +2618,16 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
-        <v>285</v>
-      </c>
-      <c r="I39" t="s">
-        <v>338</v>
-      </c>
-      <c r="J39" s="16" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>7</v>
@@ -2632,128 +2635,131 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" t="s">
+        <v>284</v>
+      </c>
+      <c r="I40" t="s">
+        <v>337</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" s="15" t="s">
+      <c r="F41" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H40" t="s">
-        <v>271</v>
-      </c>
-      <c r="I40" t="s">
-        <v>361</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="H41" t="s">
+        <v>270</v>
+      </c>
+      <c r="I41" t="s">
+        <v>360</v>
+      </c>
+      <c r="J41" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M40" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
+      <c r="K41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41" s="15" t="s">
+      <c r="F42" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H41" t="s">
-        <v>271</v>
-      </c>
-      <c r="I41" t="s">
-        <v>267</v>
-      </c>
-      <c r="J41" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M41" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+      <c r="H42" t="s">
+        <v>270</v>
+      </c>
+      <c r="I42" t="s">
+        <v>266</v>
+      </c>
+      <c r="J42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>17</v>
-      </c>
       <c r="F43" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" t="s">
-        <v>299</v>
-      </c>
-      <c r="I43" t="s">
-        <v>267</v>
-      </c>
-      <c r="J43" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="M43" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="I44" t="s">
-        <v>339</v>
+        <v>266</v>
+      </c>
+      <c r="J44" t="s">
+        <v>12</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="M44" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>7</v>
@@ -2761,188 +2767,188 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s">
+        <v>274</v>
+      </c>
+      <c r="I46" t="s">
+        <v>338</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G46" s="15" t="s">
+      <c r="F47" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H46" t="s">
-        <v>271</v>
-      </c>
-      <c r="I46" t="s">
-        <v>361</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="H47" t="s">
+        <v>270</v>
+      </c>
+      <c r="I47" t="s">
+        <v>360</v>
+      </c>
+      <c r="J47" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M46" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
+      <c r="K47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G47" s="15" t="s">
+      <c r="F48" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H47" t="s">
-        <v>271</v>
-      </c>
-      <c r="I47" t="s">
-        <v>267</v>
-      </c>
-      <c r="J47" t="s">
-        <v>12</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M47" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="H48" t="s">
-        <v>275</v>
+        <v>270</v>
+      </c>
+      <c r="I48" t="s">
+        <v>266</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="H49" t="s">
-        <v>299</v>
-      </c>
-      <c r="I49" t="s">
-        <v>267</v>
-      </c>
-      <c r="J49" t="s">
-        <v>12</v>
-      </c>
-      <c r="M49" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>20</v>
+        <v>92</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="H50" t="s">
         <v>298</v>
       </c>
       <c r="I50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="M50" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>23</v>
+      <c r="B51" t="s">
+        <v>19</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I51" t="s">
         <v>267</v>
       </c>
       <c r="J51" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="M51" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>76</v>
-      </c>
-      <c r="K52" s="24" t="s">
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s">
+        <v>298</v>
+      </c>
+      <c r="I52" t="s">
+        <v>266</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M52" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="K53" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="L52" s="24"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>283</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="9"/>
-      <c r="H53" t="s">
-        <v>271</v>
-      </c>
-      <c r="I53" t="s">
-        <v>335</v>
-      </c>
-      <c r="J53" t="s">
-        <v>336</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="L53" s="24"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="8">
-        <v>4</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="9"/>
       <c r="H54" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I54" t="s">
-        <v>339</v>
+        <v>334</v>
+      </c>
+      <c r="J54" t="s">
+        <v>335</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>7</v>
@@ -2950,168 +2956,171 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="F55" s="12">
+        <v>83</v>
+      </c>
+      <c r="F55" s="8">
         <v>4</v>
       </c>
-      <c r="G55" s="13" t="s">
-        <v>87</v>
+      <c r="G55" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="H55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I55" t="s">
-        <v>340</v>
+        <v>338</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56" s="8">
+        <v>85</v>
+      </c>
+      <c r="F56" s="12">
         <v>4</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>78</v>
+      <c r="G56" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="H56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I56" t="s">
-        <v>320</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>7</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="8">
+        <v>4</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s">
+        <v>274</v>
+      </c>
+      <c r="I57" t="s">
+        <v>319</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>19</v>
-      </c>
-      <c r="F57" s="12">
-        <v>4</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" t="s">
-        <v>298</v>
-      </c>
-      <c r="I57" t="s">
-        <v>268</v>
-      </c>
-      <c r="J57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M57" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>23</v>
       </c>
       <c r="F58" s="12">
         <v>4</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I58" t="s">
         <v>267</v>
       </c>
       <c r="J58" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="M58" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>79</v>
+      <c r="C59" t="s">
+        <v>23</v>
       </c>
       <c r="F59" s="12">
         <v>4</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I59" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J59" t="s">
         <v>12</v>
       </c>
+      <c r="K59" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="M59" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F60" s="6">
-        <v>5</v>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="12">
+        <v>4</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="H60" t="s">
+        <v>298</v>
+      </c>
+      <c r="I60" t="s">
+        <v>266</v>
+      </c>
+      <c r="J60" t="s">
+        <v>12</v>
+      </c>
+      <c r="M60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61" s="6">
+        <v>5</v>
+      </c>
+      <c r="H61" t="s">
+        <v>347</v>
+      </c>
+      <c r="I61" t="s">
         <v>348</v>
       </c>
-      <c r="I60" t="s">
-        <v>349</v>
-      </c>
-      <c r="J60" t="s">
-        <v>326</v>
-      </c>
-      <c r="K60" s="6" t="s">
+      <c r="J61" t="s">
+        <v>325</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N60" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>283</v>
-      </c>
-      <c r="H61" t="s">
-        <v>271</v>
-      </c>
-      <c r="I61" t="s">
-        <v>325</v>
-      </c>
-      <c r="J61" t="s">
-        <v>326</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>7</v>
+      <c r="N61" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>351</v>
+        <v>282</v>
       </c>
       <c r="H62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I62" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="J62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>7</v>
@@ -3119,16 +3128,16 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="6">
-        <v>5</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="H63" t="s">
-        <v>285</v>
+        <v>270</v>
+      </c>
+      <c r="I63" t="s">
+        <v>353</v>
+      </c>
+      <c r="J63" t="s">
+        <v>325</v>
       </c>
       <c r="K63" s="6" t="s">
         <v>7</v>
@@ -3136,44 +3145,35 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="6">
+        <v>5</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" t="s">
+        <v>284</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>54</v>
       </c>
-      <c r="F64" s="6">
-        <v>5</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>63</v>
-      </c>
       <c r="F65" s="6">
         <v>5</v>
       </c>
-      <c r="G65" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" t="s">
-        <v>271</v>
-      </c>
-      <c r="I65" t="s">
-        <v>280</v>
-      </c>
-      <c r="J65" t="s">
-        <v>63</v>
-      </c>
       <c r="K65" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="M65" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F66" s="6">
         <v>5</v>
@@ -3182,24 +3182,33 @@
         <v>64</v>
       </c>
       <c r="H66" t="s">
-        <v>285</v>
+        <v>270</v>
+      </c>
+      <c r="I66" t="s">
+        <v>279</v>
+      </c>
+      <c r="J66" t="s">
+        <v>63</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="M66" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F67" s="6">
         <v>5</v>
       </c>
-      <c r="G67" s="7" t="s">
-        <v>56</v>
+      <c r="G67" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="H67" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>7</v>
@@ -3207,16 +3216,16 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>66</v>
+        <v>363</v>
       </c>
       <c r="F68" s="6">
         <v>5</v>
       </c>
-      <c r="G68" s="15" t="s">
-        <v>67</v>
+      <c r="G68" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="H68" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>7</v>
@@ -3224,22 +3233,16 @@
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F69" s="6">
         <v>5</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H69" t="s">
-        <v>285</v>
-      </c>
-      <c r="I69" t="s">
-        <v>338</v>
-      </c>
-      <c r="J69" s="16" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>7</v>
@@ -3247,244 +3250,250 @@
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="6">
+        <v>5</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H70" t="s">
+        <v>284</v>
+      </c>
+      <c r="I70" t="s">
+        <v>337</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
         <v>19</v>
       </c>
-      <c r="F70" s="6">
-        <v>5</v>
-      </c>
-      <c r="G70" s="15" t="s">
+      <c r="F71" s="6">
+        <v>5</v>
+      </c>
+      <c r="G71" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H70" t="s">
-        <v>271</v>
-      </c>
-      <c r="I70" t="s">
-        <v>362</v>
-      </c>
-      <c r="J70" t="s">
+      <c r="H71" t="s">
+        <v>270</v>
+      </c>
+      <c r="I71" t="s">
+        <v>361</v>
+      </c>
+      <c r="J71" t="s">
         <v>22</v>
       </c>
-      <c r="K70" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M70" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D71" t="s">
+      <c r="K71" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M71" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
         <v>23</v>
       </c>
-      <c r="F71" s="6">
-        <v>5</v>
-      </c>
-      <c r="G71" s="15" t="s">
+      <c r="F72" s="6">
+        <v>5</v>
+      </c>
+      <c r="G72" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H71" t="s">
-        <v>271</v>
-      </c>
-      <c r="I71" t="s">
-        <v>267</v>
-      </c>
-      <c r="J71" t="s">
-        <v>12</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M71" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+      <c r="H72" t="s">
+        <v>270</v>
+      </c>
+      <c r="I72" t="s">
+        <v>266</v>
+      </c>
+      <c r="J72" t="s">
+        <v>12</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M72" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="6">
-        <v>5</v>
-      </c>
-      <c r="K72" s="6" t="s">
+      <c r="F73" s="6">
+        <v>5</v>
+      </c>
+      <c r="K73" s="6" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="6">
-        <v>5</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" t="s">
-        <v>299</v>
-      </c>
-      <c r="I73" t="s">
-        <v>267</v>
-      </c>
-      <c r="J73" t="s">
-        <v>12</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M73" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F74" s="6">
         <v>5</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="I74" t="s">
-        <v>339</v>
+        <v>266</v>
+      </c>
+      <c r="J74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M74" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F75" s="6">
         <v>5</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I75" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="6">
+        <v>5</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" t="s">
+        <v>274</v>
+      </c>
+      <c r="I76" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
         <v>19</v>
       </c>
-      <c r="F76" s="6">
-        <v>5</v>
-      </c>
-      <c r="H76" t="s">
-        <v>271</v>
-      </c>
-      <c r="I76" t="s">
-        <v>362</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="F77" s="6">
+        <v>5</v>
+      </c>
+      <c r="H77" t="s">
+        <v>270</v>
+      </c>
+      <c r="I77" t="s">
+        <v>361</v>
+      </c>
+      <c r="J77" t="s">
         <v>22</v>
       </c>
-      <c r="K76" s="6" t="s">
+      <c r="K77" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M76" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D77" t="s">
+      <c r="M77" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="6">
-        <v>5</v>
-      </c>
-      <c r="H77" t="s">
-        <v>271</v>
-      </c>
-      <c r="I77" t="s">
-        <v>267</v>
-      </c>
-      <c r="J77" t="s">
-        <v>12</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M77" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>33</v>
-      </c>
       <c r="F78" s="6">
         <v>5</v>
       </c>
-      <c r="G78" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="H78" t="s">
-        <v>275</v>
+        <v>270</v>
+      </c>
+      <c r="I78" t="s">
+        <v>266</v>
+      </c>
+      <c r="J78" t="s">
+        <v>12</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M78" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="F79" s="6">
         <v>5</v>
       </c>
-      <c r="K79" s="6" t="s">
+      <c r="G79" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="F80" s="6">
+        <v>5</v>
+      </c>
+      <c r="K80" s="6" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C80" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="6">
-        <v>5</v>
-      </c>
-      <c r="G80" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="H80" t="s">
-        <v>299</v>
-      </c>
-      <c r="I80" t="s">
-        <v>267</v>
-      </c>
-      <c r="J80" t="s">
-        <v>12</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M80" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F81" s="6">
         <v>5</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H81" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="I81" t="s">
-        <v>339</v>
+        <v>266</v>
+      </c>
+      <c r="J81" t="s">
+        <v>12</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M81" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F82" s="6">
         <v>5</v>
@@ -3493,245 +3502,245 @@
         <v>106</v>
       </c>
       <c r="H82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I82" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="6">
+        <v>5</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="H83" t="s">
+        <v>274</v>
+      </c>
+      <c r="I83" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
         <v>19</v>
       </c>
-      <c r="F83" s="6">
-        <v>5</v>
-      </c>
-      <c r="G83" s="26" t="s">
+      <c r="F84" s="6">
+        <v>5</v>
+      </c>
+      <c r="G84" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H83" t="s">
-        <v>271</v>
-      </c>
-      <c r="I83" t="s">
-        <v>362</v>
-      </c>
-      <c r="J83" t="s">
+      <c r="H84" t="s">
+        <v>270</v>
+      </c>
+      <c r="I84" t="s">
+        <v>361</v>
+      </c>
+      <c r="J84" t="s">
         <v>22</v>
       </c>
-      <c r="K83" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M83" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D84" t="s">
+      <c r="K84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M84" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
         <v>23</v>
       </c>
-      <c r="F84" s="6">
-        <v>5</v>
-      </c>
-      <c r="G84" s="26" t="s">
+      <c r="F85" s="6">
+        <v>5</v>
+      </c>
+      <c r="G85" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H84" t="s">
-        <v>271</v>
-      </c>
-      <c r="I84" t="s">
-        <v>267</v>
-      </c>
-      <c r="J84" t="s">
-        <v>12</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M84" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>350</v>
-      </c>
-      <c r="F85" s="6">
-        <v>5</v>
-      </c>
-      <c r="G85" s="26"/>
+      <c r="H85" t="s">
+        <v>270</v>
+      </c>
+      <c r="I85" t="s">
+        <v>266</v>
+      </c>
+      <c r="J85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M85" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C86" t="s">
+      <c r="B86" t="s">
+        <v>349</v>
+      </c>
+      <c r="F86" s="6">
+        <v>5</v>
+      </c>
+      <c r="G86" s="26"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="6">
-        <v>5</v>
-      </c>
-      <c r="G86" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="H86" t="s">
-        <v>299</v>
-      </c>
-      <c r="I86" t="s">
-        <v>320</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>109</v>
-      </c>
       <c r="F87" s="6">
         <v>5</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H87" t="s">
-        <v>275</v>
+        <v>298</v>
+      </c>
+      <c r="I87" t="s">
+        <v>319</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
+        <v>108</v>
+      </c>
+      <c r="F88" s="6">
+        <v>5</v>
+      </c>
+      <c r="G88" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H88" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>19</v>
       </c>
-      <c r="F88" s="6">
-        <v>5</v>
-      </c>
-      <c r="G88" s="15" t="s">
+      <c r="F89" s="6">
+        <v>5</v>
+      </c>
+      <c r="G89" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H88" t="s">
-        <v>298</v>
-      </c>
-      <c r="I88" t="s">
-        <v>268</v>
-      </c>
-      <c r="J88" t="s">
-        <v>22</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M88" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C89" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" s="6">
-        <v>5</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>24</v>
-      </c>
       <c r="H89" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I89" t="s">
         <v>267</v>
       </c>
       <c r="J89" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="M89" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>98</v>
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" s="6">
+        <v>5</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" t="s">
+        <v>298</v>
+      </c>
+      <c r="I90" t="s">
+        <v>266</v>
+      </c>
+      <c r="J90" t="s">
+        <v>12</v>
       </c>
       <c r="K90" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M90" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="K91" s="6" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>17</v>
-      </c>
-      <c r="F91" s="10">
-        <v>6</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H91" t="s">
-        <v>299</v>
-      </c>
-      <c r="I91" t="s">
-        <v>267</v>
-      </c>
-      <c r="J91" t="s">
-        <v>12</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M91" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F92" s="10">
         <v>6</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H92" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="I92" t="s">
-        <v>284</v>
-      </c>
-      <c r="J92" s="27" t="s">
-        <v>255</v>
+        <v>266</v>
+      </c>
+      <c r="J92" t="s">
+        <v>12</v>
       </c>
       <c r="K92" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M92" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="F93" s="10">
         <v>6</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H93" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I93" t="s">
-        <v>339</v>
+        <v>283</v>
+      </c>
+      <c r="J93" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="M93" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F94" s="10">
         <v>6</v>
@@ -3740,207 +3749,204 @@
         <v>101</v>
       </c>
       <c r="H94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I94" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F95" s="10">
         <v>6</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H95" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="I95" t="s">
-        <v>268</v>
-      </c>
-      <c r="J95" t="s">
-        <v>22</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M95" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
-        <v>23</v>
+      <c r="B96" t="s">
+        <v>19</v>
       </c>
       <c r="F96" s="10">
         <v>6</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I96" t="s">
         <v>267</v>
       </c>
       <c r="J96" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="M96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>88</v>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="10">
+        <v>6</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" t="s">
+        <v>298</v>
+      </c>
+      <c r="I97" t="s">
+        <v>266</v>
+      </c>
+      <c r="J97" t="s">
+        <v>12</v>
       </c>
       <c r="K97" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="M97" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" s="10">
-        <v>7</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H98" t="s">
-        <v>299</v>
-      </c>
-      <c r="I98" t="s">
-        <v>267</v>
-      </c>
-      <c r="J98" t="s">
-        <v>12</v>
+      <c r="A98" t="s">
+        <v>87</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="M98" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="10">
+        <v>7</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H99" t="s">
+        <v>298</v>
+      </c>
+      <c r="I99" t="s">
+        <v>266</v>
+      </c>
+      <c r="J99" t="s">
+        <v>12</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M99" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>89</v>
+      </c>
+      <c r="F100" s="10">
+        <v>7</v>
+      </c>
+      <c r="G100" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F99" s="10">
-        <v>7</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H99" t="s">
-        <v>275</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L99" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="8">
-        <v>7</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="H100" t="s">
-        <v>299</v>
-      </c>
-      <c r="I100" t="s">
-        <v>267</v>
-      </c>
-      <c r="J100" t="s">
-        <v>12</v>
-      </c>
-      <c r="M100" t="s">
-        <v>262</v>
+        <v>274</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>31</v>
-      </c>
-      <c r="F101" s="12">
-        <v>7</v>
-      </c>
-      <c r="G101" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H101" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="I101" s="35" t="s">
-        <v>323</v>
+        <v>9</v>
+      </c>
+      <c r="F101" s="8">
+        <v>7</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" t="s">
+        <v>298</v>
+      </c>
+      <c r="I101" t="s">
+        <v>266</v>
       </c>
       <c r="J101" t="s">
-        <v>224</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L101" s="6" t="s">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="M101" t="s">
-        <v>324</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>31</v>
+      </c>
+      <c r="F102" s="12">
+        <v>7</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H102" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="I102" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="J102" t="s">
+        <v>223</v>
       </c>
       <c r="K102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M102" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="K103" s="6" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
-        <v>283</v>
-      </c>
-      <c r="H103" t="s">
-        <v>271</v>
-      </c>
-      <c r="I103" t="s">
-        <v>344</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L103" s="6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>145</v>
-      </c>
-      <c r="F104" s="10">
-        <v>8</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>146</v>
+        <v>282</v>
       </c>
       <c r="H104" t="s">
-        <v>275</v>
+        <v>270</v>
+      </c>
+      <c r="I104" t="s">
+        <v>343</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>7</v>
@@ -3951,88 +3957,82 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F105" s="10">
         <v>8</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H105" t="s">
-        <v>299</v>
-      </c>
-      <c r="I105" t="s">
-        <v>267</v>
-      </c>
-      <c r="J105" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="K105" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M105" t="s">
-        <v>262</v>
+      <c r="L105" s="6" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F106" s="10">
         <v>8</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H106" t="s">
-        <v>275</v>
+        <v>298</v>
+      </c>
+      <c r="I106" t="s">
+        <v>266</v>
+      </c>
+      <c r="J106" t="s">
+        <v>12</v>
       </c>
       <c r="K106" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L106" s="6" t="s">
-        <v>309</v>
+      <c r="M106" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F107" s="10">
         <v>8</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H107" t="s">
-        <v>299</v>
-      </c>
-      <c r="I107" t="s">
-        <v>320</v>
-      </c>
-      <c r="J107" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M107" t="s">
-        <v>262</v>
+      <c r="L107" s="6" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>316</v>
+        <v>136</v>
       </c>
       <c r="F108" s="10">
         <v>8</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c r="H108" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="I108" t="s">
         <v>319</v>
@@ -4044,645 +4044,654 @@
         <v>7</v>
       </c>
       <c r="M108" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>168</v>
+        <v>315</v>
       </c>
       <c r="F109" s="10">
         <v>8</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H109" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I109" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="J109" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L109" s="6" t="s">
-        <v>308</v>
+      <c r="M109" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="F110" s="10">
         <v>8</v>
       </c>
       <c r="G110" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H110" t="s">
+        <v>270</v>
+      </c>
+      <c r="I110" t="s">
+        <v>344</v>
+      </c>
+      <c r="J110" t="s">
         <v>123</v>
       </c>
-      <c r="H110" t="s">
-        <v>318</v>
-      </c>
-      <c r="I110" t="s">
-        <v>322</v>
-      </c>
-      <c r="J110" t="s">
-        <v>124</v>
-      </c>
       <c r="K110" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M110" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="F111" s="10">
         <v>8</v>
       </c>
       <c r="G111" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H111" t="s">
         <v>317</v>
       </c>
-      <c r="H111" t="s">
-        <v>286</v>
-      </c>
       <c r="I111" t="s">
-        <v>320</v>
+        <v>321</v>
+      </c>
+      <c r="J111" t="s">
+        <v>123</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M111" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="F112" s="10">
         <v>8</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>117</v>
+        <v>316</v>
       </c>
       <c r="H112" t="s">
         <v>285</v>
       </c>
       <c r="I112" t="s">
-        <v>346</v>
-      </c>
-      <c r="K112" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L112" s="6" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F113" s="10">
         <v>8</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H113" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="I113" t="s">
+        <v>345</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F114" s="10">
         <v>8</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H114" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F115" s="10">
         <v>8</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H115" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="K115" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F116" s="10">
         <v>8</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H116" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K116" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F117" s="10">
         <v>8</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H117" t="s">
-        <v>287</v>
-      </c>
-      <c r="I117" t="s">
-        <v>321</v>
-      </c>
-      <c r="J117" t="s">
-        <v>127</v>
+        <v>284</v>
       </c>
       <c r="K117" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M117" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F118" s="10">
         <v>8</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H118" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I118" t="s">
-        <v>341</v>
+        <v>320</v>
+      </c>
+      <c r="J118" t="s">
+        <v>126</v>
       </c>
       <c r="K118" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M118" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="F119" s="10">
         <v>8</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="H119" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I119" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K119" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F120" s="10">
         <v>8</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H120" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="I120" t="s">
+        <v>340</v>
       </c>
       <c r="K120" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="F121" s="10">
         <v>8</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H121" t="s">
-        <v>313</v>
-      </c>
-      <c r="I121" s="34" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="K121" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="L121" s="6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>342</v>
+        <v>27</v>
       </c>
       <c r="F122" s="10">
         <v>8</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H122" t="s">
-        <v>271</v>
-      </c>
-      <c r="I122" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="J122" s="27" t="s">
-        <v>178</v>
+        <v>312</v>
+      </c>
+      <c r="I122" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="K122" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="M122" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="F123" s="10">
         <v>8</v>
       </c>
       <c r="G123" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H123" t="s">
         <v>270</v>
       </c>
-      <c r="H123" t="s">
-        <v>299</v>
-      </c>
-      <c r="I123" t="s">
-        <v>320</v>
-      </c>
-      <c r="J123" t="s">
-        <v>12</v>
+      <c r="I123" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="J123" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="K123" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="L123" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="M123" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>130</v>
+        <v>268</v>
       </c>
       <c r="F124" s="10">
         <v>8</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>131</v>
+        <v>269</v>
       </c>
       <c r="H124" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="I124" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="J124" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="K124" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L124" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="M124" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F125" s="10">
         <v>8</v>
       </c>
       <c r="G125" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H125" t="s">
         <v>288</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>290</v>
       </c>
-      <c r="I125" t="s">
-        <v>292</v>
-      </c>
       <c r="J125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K125" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M125" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F126" s="10">
         <v>8</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="H126" t="s">
-        <v>285</v>
+        <v>289</v>
+      </c>
+      <c r="I126" t="s">
+        <v>291</v>
       </c>
       <c r="J126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K126" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="M126" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="F127" s="10">
         <v>8</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="H127" t="s">
-        <v>313</v>
-      </c>
-      <c r="I127" s="34" t="s">
-        <v>315</v>
+        <v>284</v>
+      </c>
+      <c r="J127" t="s">
+        <v>123</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>343</v>
+        <v>170</v>
       </c>
       <c r="F128" s="10">
         <v>8</v>
       </c>
-      <c r="G128" s="22" t="s">
-        <v>172</v>
+      <c r="G128" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="H128" t="s">
-        <v>271</v>
-      </c>
-      <c r="I128" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="J128" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="K128" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M128" t="s">
-        <v>257</v>
+        <v>312</v>
+      </c>
+      <c r="I128" s="34" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>141</v>
+        <v>342</v>
       </c>
       <c r="F129" s="10">
         <v>8</v>
       </c>
-      <c r="G129" s="11" t="s">
-        <v>142</v>
+      <c r="G129" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="H129" t="s">
-        <v>299</v>
-      </c>
-      <c r="I129" t="s">
-        <v>267</v>
-      </c>
-      <c r="J129" t="s">
-        <v>12</v>
+        <v>270</v>
+      </c>
+      <c r="I129" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="J129" s="27" t="s">
+        <v>247</v>
       </c>
       <c r="K129" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M129" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="F130" s="10">
         <v>8</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H130" t="s">
-        <v>271</v>
-      </c>
-      <c r="I130" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="J130" s="27" t="s">
-        <v>167</v>
+        <v>298</v>
+      </c>
+      <c r="I130" t="s">
+        <v>266</v>
+      </c>
+      <c r="J130" t="s">
+        <v>12</v>
       </c>
       <c r="K130" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M130" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="F131" s="10">
         <v>8</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="H131" t="s">
-        <v>298</v>
-      </c>
-      <c r="I131" t="s">
-        <v>268</v>
-      </c>
-      <c r="J131" t="s">
-        <v>22</v>
+        <v>270</v>
+      </c>
+      <c r="I131" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="J131" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="K131" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M131" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C132" t="s">
-        <v>23</v>
+      <c r="B132" t="s">
+        <v>19</v>
       </c>
       <c r="F132" s="10">
         <v>8</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H132" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I132" t="s">
         <v>267</v>
       </c>
       <c r="J132" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K132" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M132" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
+      <c r="C133" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" s="10">
+        <v>8</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H133" t="s">
+        <v>298</v>
+      </c>
+      <c r="I133" t="s">
+        <v>266</v>
+      </c>
+      <c r="J133" t="s">
+        <v>12</v>
+      </c>
+      <c r="K133" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M133" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>78</v>
+      </c>
+      <c r="F134" s="6">
+        <v>8</v>
+      </c>
+      <c r="G134" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F133" s="6">
-        <v>8</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H133" t="s">
-        <v>299</v>
-      </c>
-      <c r="I133" t="s">
-        <v>267</v>
-      </c>
-      <c r="J133" t="s">
-        <v>12</v>
-      </c>
-      <c r="M133" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="H134" t="s">
+        <v>298</v>
+      </c>
+      <c r="I134" t="s">
+        <v>266</v>
+      </c>
+      <c r="J134" t="s">
+        <v>12</v>
+      </c>
+      <c r="M134" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>51</v>
       </c>
-      <c r="F134" s="6">
+      <c r="F135" s="6">
         <v>9</v>
       </c>
-      <c r="H134" t="s">
-        <v>331</v>
-      </c>
-      <c r="J134" t="s">
-        <v>329</v>
-      </c>
-      <c r="K134" s="6" t="s">
+      <c r="H135" t="s">
+        <v>330</v>
+      </c>
+      <c r="J135" t="s">
+        <v>328</v>
+      </c>
+      <c r="K135" s="6" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>283</v>
-      </c>
-      <c r="H135" t="s">
-        <v>271</v>
-      </c>
-      <c r="I135" t="s">
-        <v>330</v>
-      </c>
-      <c r="J135" t="s">
-        <v>329</v>
-      </c>
-      <c r="K135" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>351</v>
+        <v>282</v>
       </c>
       <c r="H136" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I136" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="J136" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K136" s="6" t="s">
         <v>7</v>
@@ -4690,16 +4699,16 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>4</v>
-      </c>
-      <c r="F137" s="6">
-        <v>9</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="H137" t="s">
-        <v>285</v>
+        <v>270</v>
+      </c>
+      <c r="I137" t="s">
+        <v>351</v>
+      </c>
+      <c r="J137" t="s">
+        <v>328</v>
       </c>
       <c r="K137" s="6" t="s">
         <v>7</v>
@@ -4707,44 +4716,35 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="F138" s="6">
         <v>9</v>
       </c>
+      <c r="G138" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" t="s">
+        <v>284</v>
+      </c>
       <c r="K138" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C139" t="s">
-        <v>63</v>
+      <c r="B139" t="s">
+        <v>54</v>
       </c>
       <c r="F139" s="6">
         <v>9</v>
       </c>
-      <c r="G139" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H139" t="s">
-        <v>271</v>
-      </c>
-      <c r="I139" t="s">
-        <v>280</v>
-      </c>
-      <c r="J139" t="s">
-        <v>63</v>
-      </c>
       <c r="K139" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="M139" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F140" s="6">
         <v>9</v>
@@ -4753,24 +4753,33 @@
         <v>64</v>
       </c>
       <c r="H140" t="s">
-        <v>285</v>
+        <v>270</v>
+      </c>
+      <c r="I140" t="s">
+        <v>279</v>
+      </c>
+      <c r="J140" t="s">
+        <v>63</v>
       </c>
       <c r="K140" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="M140" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F141" s="6">
         <v>9</v>
       </c>
-      <c r="G141" s="7" t="s">
-        <v>56</v>
+      <c r="G141" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="H141" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K141" s="6" t="s">
         <v>7</v>
@@ -4778,16 +4787,16 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>66</v>
+        <v>363</v>
       </c>
       <c r="F142" s="6">
         <v>9</v>
       </c>
-      <c r="G142" s="15" t="s">
-        <v>67</v>
+      <c r="G142" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="H142" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K142" s="6" t="s">
         <v>7</v>
@@ -4795,22 +4804,16 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F143" s="6">
         <v>9</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H143" t="s">
-        <v>285</v>
-      </c>
-      <c r="I143" t="s">
-        <v>338</v>
-      </c>
-      <c r="J143" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K143" s="6" t="s">
         <v>7</v>
@@ -4818,282 +4821,285 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="F144" s="6">
         <v>9</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="H144" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="I144" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="J144" t="s">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="K144" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M144" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D145" t="s">
-        <v>23</v>
+      <c r="C145" t="s">
+        <v>19</v>
       </c>
       <c r="F145" s="6">
         <v>9</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H145" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I145" t="s">
-        <v>267</v>
+        <v>362</v>
       </c>
       <c r="J145" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K145" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M145" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
-        <v>53</v>
+      <c r="D146" t="s">
+        <v>23</v>
       </c>
       <c r="F146" s="6">
         <v>9</v>
       </c>
-      <c r="G146" s="7" t="s">
-        <v>18</v>
+      <c r="G146" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="H146" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I146" t="s">
-        <v>279</v>
+        <v>266</v>
+      </c>
+      <c r="J146" t="s">
+        <v>12</v>
       </c>
       <c r="K146" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M146" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F147" s="6">
         <v>9</v>
       </c>
-      <c r="G147" s="14"/>
+      <c r="G147" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" t="s">
+        <v>270</v>
+      </c>
+      <c r="I147" t="s">
+        <v>278</v>
+      </c>
       <c r="K147" s="6" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="M147" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C148" t="s">
-        <v>17</v>
+      <c r="B148" t="s">
+        <v>16</v>
       </c>
       <c r="F148" s="6">
         <v>9</v>
       </c>
-      <c r="G148" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H148" t="s">
-        <v>299</v>
-      </c>
-      <c r="I148" t="s">
-        <v>273</v>
-      </c>
-      <c r="J148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" s="14"/>
       <c r="K148" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M148" t="s">
-        <v>262</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F149" s="6">
         <v>9</v>
       </c>
-      <c r="G149" s="14" t="s">
-        <v>30</v>
+      <c r="G149" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="H149" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="I149" t="s">
-        <v>339</v>
+        <v>272</v>
+      </c>
+      <c r="J149" t="s">
+        <v>12</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M149" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F150" s="6">
         <v>9</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H150" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I150" t="s">
-        <v>339</v>
-      </c>
-      <c r="J150" s="14"/>
+        <v>338</v>
+      </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F151" s="6">
         <v>9</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H151" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I151" t="s">
-        <v>363</v>
-      </c>
-      <c r="J151" t="s">
-        <v>22</v>
-      </c>
-      <c r="K151" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M151" t="s">
-        <v>264</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="J151" s="14"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D152" t="s">
-        <v>23</v>
+      <c r="C152" t="s">
+        <v>19</v>
       </c>
       <c r="F152" s="6">
         <v>9</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H152" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I152" t="s">
-        <v>267</v>
+        <v>362</v>
       </c>
       <c r="J152" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="M152" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
-        <v>19</v>
+      <c r="D153" t="s">
+        <v>23</v>
       </c>
       <c r="F153" s="6">
         <v>9</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H153" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="I153" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J153" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K153" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M153" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C154" t="s">
-        <v>23</v>
+      <c r="B154" t="s">
+        <v>19</v>
       </c>
       <c r="F154" s="6">
         <v>9</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H154" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I154" t="s">
         <v>267</v>
       </c>
       <c r="J154" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K154" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M154" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>180</v>
+      <c r="C155" t="s">
+        <v>23</v>
+      </c>
+      <c r="F155" s="6">
+        <v>9</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H155" t="s">
+        <v>298</v>
+      </c>
+      <c r="I155" t="s">
+        <v>266</v>
       </c>
       <c r="J155" t="s">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="K155" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="M155" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B156" t="s">
-        <v>181</v>
-      </c>
-      <c r="F156" s="10">
-        <v>10</v>
-      </c>
-      <c r="G156" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H156" t="s">
-        <v>275</v>
-      </c>
-      <c r="I156" t="s">
-        <v>347</v>
+      <c r="A156" t="s">
+        <v>179</v>
+      </c>
+      <c r="J156" t="s">
+        <v>311</v>
       </c>
       <c r="K156" s="6" t="s">
         <v>7</v>
@@ -5101,45 +5107,39 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F157" s="10">
         <v>10</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H157" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="I157" t="s">
-        <v>267</v>
-      </c>
-      <c r="J157" t="s">
-        <v>12</v>
+        <v>346</v>
       </c>
       <c r="K157" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="M157" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F158" s="10">
         <v>10</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H158" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I158" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J158" t="s">
         <v>12</v>
@@ -5148,81 +5148,90 @@
         <v>7</v>
       </c>
       <c r="M158" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="F159" s="10">
         <v>10</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="H159" t="s">
         <v>298</v>
       </c>
       <c r="I159" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J159" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K159" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M159" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C160" t="s">
-        <v>23</v>
+      <c r="B160" t="s">
+        <v>19</v>
       </c>
       <c r="F160" s="10">
         <v>10</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H160" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I160" t="s">
         <v>267</v>
       </c>
       <c r="J160" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K160" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M160" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="C161" t="s">
+        <v>23</v>
+      </c>
+      <c r="F161" s="10">
+        <v>10</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H161" t="s">
+        <v>298</v>
+      </c>
+      <c r="I161" t="s">
+        <v>266</v>
+      </c>
+      <c r="J161" t="s">
+        <v>12</v>
+      </c>
+      <c r="K161" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M161" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>35</v>
-      </c>
-      <c r="K161" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B162" t="s">
-        <v>38</v>
-      </c>
-      <c r="F162" s="10">
-        <v>11</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H162" t="s">
-        <v>275</v>
       </c>
       <c r="K162" s="6" t="s">
         <v>7</v>
@@ -5230,16 +5239,16 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F163" s="10">
         <v>11</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H163" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K163" s="6" t="s">
         <v>7</v>
@@ -5247,165 +5256,182 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F164" s="10">
         <v>11</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H164" t="s">
-        <v>298</v>
-      </c>
-      <c r="I164" t="s">
-        <v>268</v>
-      </c>
-      <c r="J164" t="s">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="K164" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M164" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C165" t="s">
-        <v>23</v>
+      <c r="B165" t="s">
+        <v>19</v>
       </c>
       <c r="F165" s="10">
         <v>11</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H165" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I165" t="s">
         <v>267</v>
       </c>
       <c r="J165" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K165" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M165" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>111</v>
-      </c>
-      <c r="F166" s="6">
-        <v>12</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H166" s="41" t="s">
-        <v>285</v>
+      <c r="C166" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" s="10">
+        <v>11</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H166" t="s">
+        <v>298</v>
       </c>
       <c r="I166" t="s">
-        <v>355</v>
+        <v>266</v>
       </c>
       <c r="J166" t="s">
-        <v>311</v>
+        <v>12</v>
+      </c>
+      <c r="K166" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M166" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>110</v>
+      </c>
+      <c r="F167" s="6">
+        <v>12</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H167" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="I167" t="s">
+        <v>354</v>
+      </c>
+      <c r="J167" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B168" t="s">
-        <v>47</v>
-      </c>
-      <c r="F168" s="10">
-        <v>13</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H168" t="s">
-        <v>356</v>
-      </c>
-      <c r="I168" t="s">
-        <v>357</v>
-      </c>
-      <c r="J168" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F169" s="10">
         <v>13</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H169" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="I169" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J169" t="s">
-        <v>276</v>
-      </c>
-      <c r="M169" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F170" s="10">
         <v>13</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H170" t="s">
+        <v>298</v>
+      </c>
+      <c r="I170" t="s">
         <v>358</v>
       </c>
-      <c r="I170" t="s">
-        <v>357</v>
-      </c>
       <c r="J170" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="M170" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F171" s="10">
         <v>13</v>
       </c>
       <c r="G171" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H171" t="s">
+        <v>357</v>
+      </c>
+      <c r="I171" t="s">
+        <v>356</v>
+      </c>
+      <c r="J171" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>45</v>
+      </c>
+      <c r="F172" s="10">
+        <v>13</v>
+      </c>
+      <c r="G172" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H171" t="s">
-        <v>299</v>
-      </c>
-      <c r="I171" t="s">
-        <v>359</v>
-      </c>
-      <c r="J171" t="s">
-        <v>276</v>
-      </c>
-      <c r="M171" t="s">
-        <v>262</v>
+      <c r="H172" t="s">
+        <v>298</v>
+      </c>
+      <c r="I172" t="s">
+        <v>358</v>
+      </c>
+      <c r="J172" t="s">
+        <v>275</v>
+      </c>
+      <c r="M172" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5450,39 +5476,39 @@
         <v>3</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="8">
         <v>4</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>7</v>
@@ -5490,23 +5516,23 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="12">
         <v>4</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -5563,18 +5589,18 @@
         <v>52</v>
       </c>
       <c r="K10" t="s">
+        <v>263</v>
+      </c>
+      <c r="L10" t="s">
         <v>264</v>
       </c>
-      <c r="L10" t="s">
-        <v>265</v>
-      </c>
       <c r="M10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" t="s">
@@ -5598,13 +5624,13 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -5657,7 +5683,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" t="s">
@@ -5669,7 +5695,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" t="s">
@@ -5679,13 +5705,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="8">
         <v>4</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>7</v>
@@ -5693,38 +5719,38 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G20" s="12">
         <v>4</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -5774,7 +5800,7 @@
         <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>7</v>
@@ -5782,40 +5808,40 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G27" s="6">
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G28" s="6">
         <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -5824,17 +5850,17 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -5859,7 +5885,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -5884,7 +5910,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -5894,97 +5920,97 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -6009,7 +6035,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -6034,7 +6060,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -6044,82 +6070,82 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6161,37 +6187,37 @@
         <v>3</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C4" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>7</v>
@@ -6199,25 +6225,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>184</v>
-      </c>
       <c r="J5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -6274,25 +6300,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="J10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -6352,7 +6378,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>20</v>
@@ -6361,18 +6387,18 @@
         <v>7</v>
       </c>
       <c r="K15" t="s">
+        <v>263</v>
+      </c>
+      <c r="L15" t="s">
         <v>264</v>
       </c>
-      <c r="L15" t="s">
-        <v>265</v>
-      </c>
       <c r="M15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
@@ -6385,7 +6411,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D17" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
@@ -6398,7 +6424,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D18" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
@@ -6414,7 +6440,7 @@
         <v>23</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>24</v>
@@ -6423,13 +6449,13 @@
         <v>7</v>
       </c>
       <c r="K19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -6497,7 +6523,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6540,34 +6566,34 @@
         <v>3</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N1" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" t="s">
         <v>227</v>
-      </c>
-      <c r="J3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="6">
         <v>5</v>
@@ -6585,19 +6611,19 @@
         <v>5</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -6674,13 +6700,13 @@
         <v>7</v>
       </c>
       <c r="L10" t="s">
+        <v>263</v>
+      </c>
+      <c r="M10" t="s">
         <v>264</v>
       </c>
-      <c r="M10" t="s">
-        <v>265</v>
-      </c>
       <c r="N10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -6712,13 +6738,13 @@
         <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -6815,7 +6841,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K19" s="6"/>
     </row>
@@ -6827,7 +6853,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K20" s="6"/>
     </row>
@@ -6871,13 +6897,13 @@
         <v>7</v>
       </c>
       <c r="L23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.2">
@@ -6952,13 +6978,13 @@
         <v>52</v>
       </c>
       <c r="L28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" t="s">
         <v>264</v>
       </c>
-      <c r="M28" t="s">
-        <v>265</v>
-      </c>
       <c r="N28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.2">
@@ -6988,13 +7014,13 @@
         <v>7</v>
       </c>
       <c r="L30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.2">
@@ -7147,13 +7173,13 @@
         <v>52</v>
       </c>
       <c r="L41" t="s">
+        <v>263</v>
+      </c>
+      <c r="M41" t="s">
         <v>264</v>
       </c>
-      <c r="M41" t="s">
-        <v>265</v>
-      </c>
       <c r="N41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.2">
@@ -7185,13 +7211,13 @@
         <v>7</v>
       </c>
       <c r="L43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.2">
@@ -7269,7 +7295,7 @@
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H49" s="6">
         <v>5</v>
@@ -7334,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="L53" t="s">
+        <v>263</v>
+      </c>
+      <c r="M53" t="s">
         <v>264</v>
       </c>
-      <c r="M53" t="s">
-        <v>265</v>
-      </c>
       <c r="N53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.2">
@@ -7372,13 +7398,13 @@
         <v>7</v>
       </c>
       <c r="L55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.2">
@@ -7533,19 +7559,19 @@
     </row>
     <row r="66" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
+        <v>108</v>
+      </c>
+      <c r="H66" s="6">
+        <v>5</v>
+      </c>
+      <c r="I66" s="26" t="s">
         <v>109</v>
-      </c>
-      <c r="H66" s="6">
-        <v>5</v>
-      </c>
-      <c r="I66" s="26" t="s">
-        <v>110</v>
       </c>
       <c r="K66" s="6"/>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>52</v>
@@ -7559,19 +7585,19 @@
         <v>5</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="3:14" x14ac:dyDescent="0.2">
@@ -7632,13 +7658,13 @@
         <v>52</v>
       </c>
       <c r="L73" t="s">
+        <v>263</v>
+      </c>
+      <c r="M73" t="s">
         <v>264</v>
       </c>
-      <c r="M73" t="s">
-        <v>265</v>
-      </c>
       <c r="N73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="3:14" x14ac:dyDescent="0.2">
@@ -7667,13 +7693,13 @@
         <v>7</v>
       </c>
       <c r="L75" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" spans="3:14" x14ac:dyDescent="0.2">
@@ -7740,7 +7766,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J82" t="s">
         <v>22</v>
@@ -7749,25 +7775,25 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H83" s="6">
         <v>5</v>
       </c>
       <c r="I83" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K83" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M83" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -7778,7 +7804,7 @@
         <v>5</v>
       </c>
       <c r="I84" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K84" s="6"/>
     </row>
@@ -7790,31 +7816,31 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K85" s="6"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H86" s="6">
         <v>5</v>
       </c>
       <c r="I86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K86" s="6"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K87" s="6"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H88" s="6">
         <v>5</v>
@@ -7828,7 +7854,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K89" s="31"/>
     </row>
@@ -7876,40 +7902,40 @@
         <v>3</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>7</v>
@@ -7917,33 +7943,33 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" t="s">
         <v>123</v>
       </c>
-      <c r="I5" t="s">
-        <v>124</v>
-      </c>
       <c r="J5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>7</v>
@@ -7951,13 +7977,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>7</v>
@@ -7965,13 +7991,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>7</v>
@@ -7979,13 +8005,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>129</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>7</v>
@@ -7993,13 +8019,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>7</v>
@@ -8007,33 +8033,33 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" t="s">
         <v>126</v>
       </c>
-      <c r="I11" t="s">
-        <v>127</v>
-      </c>
       <c r="J11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>7</v>
@@ -8041,13 +8067,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>7</v>
@@ -8055,56 +8081,56 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>131</v>
-      </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="I16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>7</v>
@@ -8112,25 +8138,25 @@
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.2">
@@ -8187,23 +8213,23 @@
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.2">
@@ -8252,25 +8278,25 @@
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>140</v>
-      </c>
       <c r="J27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.2">
@@ -8327,25 +8353,25 @@
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="J32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.2">
@@ -8402,13 +8428,13 @@
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>7</v>
@@ -8416,13 +8442,13 @@
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>7</v>
@@ -8433,7 +8459,7 @@
         <v>19</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>20</v>
@@ -8442,18 +8468,18 @@
         <v>7</v>
       </c>
       <c r="K39" t="s">
+        <v>263</v>
+      </c>
+      <c r="L39" t="s">
         <v>264</v>
       </c>
-      <c r="L39" t="s">
-        <v>265</v>
-      </c>
       <c r="M39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="7"/>
@@ -8466,7 +8492,7 @@
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="7"/>
@@ -8479,7 +8505,7 @@
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="7"/>
@@ -8492,7 +8518,7 @@
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="7"/>
@@ -8506,7 +8532,7 @@
         <v>23</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>24</v>
@@ -8515,13 +8541,13 @@
         <v>7</v>
       </c>
       <c r="K44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.2">
@@ -8578,7 +8604,7 @@
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="7"/>
@@ -8591,7 +8617,7 @@
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="7"/>
@@ -8604,7 +8630,7 @@
     </row>
     <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="7"/>
@@ -8617,7 +8643,7 @@
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="7"/>
@@ -8630,7 +8656,7 @@
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="7"/>
@@ -8643,7 +8669,7 @@
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="7"/>
@@ -8656,7 +8682,7 @@
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="7"/>
@@ -8669,7 +8695,7 @@
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="7"/>
@@ -8682,7 +8708,7 @@
     </row>
     <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="7"/>
@@ -8695,7 +8721,7 @@
     </row>
     <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="7"/>
@@ -8708,7 +8734,7 @@
     </row>
     <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="7"/>
@@ -8721,7 +8747,7 @@
     </row>
     <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="7"/>
@@ -8734,7 +8760,7 @@
     </row>
     <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="7"/>
@@ -8747,7 +8773,7 @@
     </row>
     <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="7"/>
@@ -8760,7 +8786,7 @@
     </row>
     <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="7"/>
@@ -8773,28 +8799,28 @@
     </row>
     <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
+        <v>165</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I64" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I64" s="27" t="s">
-        <v>167</v>
-      </c>
       <c r="J64" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -8802,13 +8828,13 @@
         <v>27</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J65" s="6" t="s">
         <v>7</v>
@@ -8816,25 +8842,25 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H66" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="J66" s="6"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H67" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>7</v>
@@ -8842,77 +8868,77 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I68" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I69" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J69" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L69" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M69" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G70" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I70" t="s">
         <v>235</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I70" t="s">
-        <v>236</v>
-      </c>
       <c r="J70" s="20" t="s">
         <v>7</v>
       </c>
       <c r="K70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -8960,34 +8986,34 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -9019,7 +9045,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -9036,24 +9062,24 @@
         <v>3</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>7</v>
@@ -9061,7 +9087,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>7</v>
@@ -9069,13 +9095,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>7</v>
@@ -9083,13 +9109,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>7</v>
@@ -9097,13 +9123,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>7</v>
@@ -9111,13 +9137,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>7</v>
@@ -9125,13 +9151,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>7</v>
@@ -9139,13 +9165,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>7</v>
@@ -9153,13 +9179,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>7</v>
@@ -9167,7 +9193,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>7</v>
@@ -9189,25 +9215,25 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J14" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J14" t="s">
-        <v>138</v>
-      </c>
       <c r="L14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -9256,25 +9282,25 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I19" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s">
         <v>235</v>
       </c>
-      <c r="J19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" t="s">
-        <v>236</v>
-      </c>
       <c r="L19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -9323,13 +9349,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>7</v>
@@ -9352,10 +9378,10 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>20</v>
@@ -9366,10 +9392,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>7</v>
@@ -9377,7 +9403,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>7</v>
@@ -9385,13 +9411,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>7</v>
@@ -9399,12 +9425,12 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="7"/>
       <c r="K30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>7</v>
@@ -9412,12 +9438,12 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="11"/>
       <c r="K31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>7</v>
@@ -9425,7 +9451,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>7</v>
@@ -9433,10 +9459,10 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>7</v>
@@ -9478,10 +9504,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
@@ -9489,10 +9515,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
@@ -9500,10 +9526,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>7</v>

--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/Documents/GitHub/Haal-Centraal-BRP-bevragen/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2819136-B9C5-D14F-A36E-CFA4E6B7903C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F5EA27-DC94-934D-A11D-A7834601776F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-2220" windowWidth="38400" windowHeight="19240" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19240" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
   </bookViews>
   <sheets>
     <sheet name="personen" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="367">
   <si>
     <t>categorie</t>
   </si>
@@ -1211,9 +1211,6 @@
     <t>standaardwaarde ......... Uitfilteren</t>
   </si>
   <si>
-    <t>als 1: true; als 2: false</t>
-  </si>
-  <si>
     <t>uitsluiting in verleden uitfilteren</t>
   </si>
   <si>
@@ -1245,6 +1242,9 @@
   </si>
   <si>
     <t>afleiden uit naam.adellijkeTitelPredicaat,aanduidingNaamgebruik, geslachtsaanduiding</t>
+  </si>
+  <si>
+    <t>als 1: false; als 2: true</t>
   </si>
 </sst>
 </file>
@@ -1466,19 +1466,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfstitelhistorie" connectionId="6" xr16:uid="{D84B9166-BEDF-6348-AE8D-223137517573}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetNationaliteithistorie" connectionId="3" xr16:uid="{1126B2BD-5C1E-CC48-A3D0-27049524F5AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfplaatshistorie" connectionId="5" xr16:uid="{20C89C14-52C3-BC4A-AE7B-7774BDE871DE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetPartnerhistorie" connectionId="4" xr16:uid="{26EA40DB-B172-5747-89E1-403320CC8B7A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfstitelhistorie" connectionId="6" xr16:uid="{D84B9166-BEDF-6348-AE8D-223137517573}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1794,13 +1794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F3B9D-634A-C449-A474-F9F6FE9216B2}">
-  <dimension ref="A1:N172"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="18"/>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="18"/>
@@ -2196,7 +2196,7 @@
         <v>270</v>
       </c>
       <c r="I18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J18" s="23" t="s">
         <v>72</v>
@@ -2350,7 +2350,7 @@
         <v>270</v>
       </c>
       <c r="I25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J25" t="s">
         <v>22</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>92</v>
@@ -2670,7 +2670,7 @@
         <v>270</v>
       </c>
       <c r="I41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J41" t="s">
         <v>22</v>
@@ -2799,7 +2799,7 @@
         <v>270</v>
       </c>
       <c r="I47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J47" t="s">
         <v>22</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F68" s="6">
         <v>5</v>
@@ -3285,7 +3285,7 @@
         <v>270</v>
       </c>
       <c r="I71" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J71" t="s">
         <v>22</v>
@@ -3405,7 +3405,7 @@
         <v>270</v>
       </c>
       <c r="I77" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J77" t="s">
         <v>22</v>
@@ -3539,7 +3539,7 @@
         <v>270</v>
       </c>
       <c r="I84" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J84" t="s">
         <v>22</v>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F142" s="6">
         <v>9</v>
@@ -4856,7 +4856,7 @@
         <v>270</v>
       </c>
       <c r="I145" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J145" t="s">
         <v>22</v>
@@ -4896,74 +4896,68 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F147" s="6">
         <v>9</v>
       </c>
-      <c r="G147" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H147" t="s">
-        <v>270</v>
-      </c>
-      <c r="I147" t="s">
-        <v>278</v>
-      </c>
+      <c r="G147" s="14"/>
       <c r="K147" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M147" t="s">
-        <v>251</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
-        <v>16</v>
+      <c r="C148" t="s">
+        <v>17</v>
       </c>
       <c r="F148" s="6">
         <v>9</v>
       </c>
-      <c r="G148" s="14"/>
+      <c r="G148" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" t="s">
+        <v>298</v>
+      </c>
+      <c r="I148" t="s">
+        <v>272</v>
+      </c>
+      <c r="J148" t="s">
+        <v>12</v>
+      </c>
       <c r="K148" s="6" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="M148" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F149" s="6">
         <v>9</v>
       </c>
-      <c r="G149" s="7" t="s">
-        <v>18</v>
+      <c r="G149" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="H149" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="I149" t="s">
-        <v>272</v>
-      </c>
-      <c r="J149" t="s">
-        <v>12</v>
-      </c>
-      <c r="K149" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M149" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F150" s="6">
         <v>9</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H150" t="s">
         <v>274</v>
@@ -4971,135 +4965,138 @@
       <c r="I150" t="s">
         <v>338</v>
       </c>
+      <c r="J150" s="14"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F151" s="6">
         <v>9</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H151" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I151" t="s">
-        <v>338</v>
-      </c>
-      <c r="J151" s="14"/>
+        <v>361</v>
+      </c>
+      <c r="J151" t="s">
+        <v>22</v>
+      </c>
+      <c r="K151" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M151" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C152" t="s">
-        <v>19</v>
+      <c r="D152" t="s">
+        <v>23</v>
       </c>
       <c r="F152" s="6">
         <v>9</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H152" t="s">
         <v>270</v>
       </c>
       <c r="I152" t="s">
-        <v>362</v>
+        <v>266</v>
       </c>
       <c r="J152" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="M152" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D153" t="s">
-        <v>23</v>
+      <c r="B153" t="s">
+        <v>19</v>
       </c>
       <c r="F153" s="6">
         <v>9</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H153" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="I153" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J153" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K153" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M153" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B154" t="s">
-        <v>19</v>
+      <c r="C154" t="s">
+        <v>23</v>
       </c>
       <c r="F154" s="6">
         <v>9</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H154" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I154" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J154" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K154" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M154" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C155" t="s">
-        <v>23</v>
-      </c>
-      <c r="F155" s="6">
-        <v>9</v>
-      </c>
-      <c r="G155" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H155" t="s">
-        <v>298</v>
-      </c>
-      <c r="I155" t="s">
-        <v>266</v>
+      <c r="A155" t="s">
+        <v>179</v>
       </c>
       <c r="J155" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="K155" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M155" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>179</v>
-      </c>
-      <c r="J156" t="s">
-        <v>311</v>
+      <c r="B156" t="s">
+        <v>180</v>
+      </c>
+      <c r="F156" s="10">
+        <v>10</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H156" t="s">
+        <v>274</v>
+      </c>
+      <c r="I156" t="s">
+        <v>346</v>
       </c>
       <c r="K156" s="6" t="s">
         <v>7</v>
@@ -5107,33 +5104,39 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F157" s="10">
         <v>10</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H157" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="I157" t="s">
-        <v>346</v>
+        <v>266</v>
+      </c>
+      <c r="J157" t="s">
+        <v>12</v>
       </c>
       <c r="K157" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="M157" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F158" s="10">
         <v>10</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H158" t="s">
         <v>298</v>
@@ -5153,85 +5156,76 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="F159" s="10">
         <v>10</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="H159" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I159" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J159" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K159" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M159" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
-        <v>19</v>
+      <c r="C160" t="s">
+        <v>23</v>
       </c>
       <c r="F160" s="10">
         <v>10</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H160" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I160" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J160" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K160" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M160" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C161" t="s">
-        <v>23</v>
-      </c>
-      <c r="F161" s="10">
-        <v>10</v>
-      </c>
-      <c r="G161" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H161" t="s">
-        <v>298</v>
-      </c>
-      <c r="I161" t="s">
-        <v>266</v>
-      </c>
-      <c r="J161" t="s">
-        <v>12</v>
+      <c r="A161" t="s">
+        <v>35</v>
       </c>
       <c r="K161" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M161" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>35</v>
+      <c r="B162" t="s">
+        <v>38</v>
+      </c>
+      <c r="F162" s="10">
+        <v>11</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H162" t="s">
+        <v>274</v>
       </c>
       <c r="K162" s="6" t="s">
         <v>7</v>
@@ -5239,16 +5233,16 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F163" s="10">
         <v>11</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H163" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K163" s="6" t="s">
         <v>7</v>
@@ -5256,181 +5250,164 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F164" s="10">
         <v>11</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H164" t="s">
-        <v>271</v>
+        <v>297</v>
+      </c>
+      <c r="I164" t="s">
+        <v>267</v>
+      </c>
+      <c r="J164" t="s">
+        <v>22</v>
       </c>
       <c r="K164" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="M164" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B165" t="s">
-        <v>19</v>
+      <c r="C165" t="s">
+        <v>23</v>
       </c>
       <c r="F165" s="10">
         <v>11</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H165" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I165" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J165" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K165" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M165" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C166" t="s">
-        <v>23</v>
-      </c>
-      <c r="F166" s="10">
-        <v>11</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H166" t="s">
-        <v>298</v>
+      <c r="A166" t="s">
+        <v>110</v>
+      </c>
+      <c r="F166" s="6">
+        <v>12</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H166" s="41" t="s">
+        <v>284</v>
       </c>
       <c r="I166" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="J166" t="s">
-        <v>12</v>
-      </c>
-      <c r="K166" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M166" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>110</v>
-      </c>
-      <c r="F167" s="6">
-        <v>12</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H167" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="I167" t="s">
-        <v>354</v>
-      </c>
-      <c r="J167" t="s">
-        <v>310</v>
+        <v>42</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>42</v>
+      <c r="B168" t="s">
+        <v>47</v>
+      </c>
+      <c r="F168" s="10">
+        <v>13</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H168" t="s">
+        <v>366</v>
+      </c>
+      <c r="I168" t="s">
+        <v>355</v>
+      </c>
+      <c r="J168" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F169" s="10">
         <v>13</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H169" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="I169" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J169" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="M169" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F170" s="10">
         <v>13</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H170" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="I170" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J170" t="s">
-        <v>275</v>
-      </c>
-      <c r="M170" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F171" s="10">
         <v>13</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H171" t="s">
+        <v>298</v>
+      </c>
+      <c r="I171" t="s">
         <v>357</v>
       </c>
-      <c r="I171" t="s">
-        <v>356</v>
-      </c>
       <c r="J171" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B172" t="s">
-        <v>45</v>
-      </c>
-      <c r="F172" s="10">
-        <v>13</v>
-      </c>
-      <c r="G172" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H172" t="s">
-        <v>298</v>
-      </c>
-      <c r="I172" t="s">
-        <v>358</v>
-      </c>
-      <c r="J172" t="s">
         <v>275</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M171" t="s">
         <v>261</v>
       </c>
     </row>

--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/Documents/GitHub/Haal-Centraal-BRP-bevragen/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F5EA27-DC94-934D-A11D-A7834601776F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B38C962-9B03-434A-840B-2629E3E4D76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19240" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
+    <workbookView xWindow="-35700" yWindow="-1480" windowWidth="34560" windowHeight="19240" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
   </bookViews>
   <sheets>
     <sheet name="personen" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="368">
   <si>
     <t>categorie</t>
   </si>
@@ -989,9 +989,6 @@
     <t>onbekend_waardes</t>
   </si>
   <si>
-    <t>afleiden uit naam, geslachtsaanduiding, partners.naam</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -1241,10 +1238,16 @@
     <t>aanspreekvorm</t>
   </si>
   <si>
-    <t>afleiden uit naam.adellijkeTitelPredicaat,aanduidingNaamgebruik, geslachtsaanduiding</t>
-  </si>
-  <si>
     <t>als 1: false; als 2: true</t>
+  </si>
+  <si>
+    <t>afleiden uit naam, geslacht, partners.naam</t>
+  </si>
+  <si>
+    <t>afleiden uit naam.adellijkeTitelPredicaat,aanduidingNaamgebruik, geslacht</t>
+  </si>
+  <si>
+    <t>geslacht()</t>
   </si>
 </sst>
 </file>
@@ -1797,10 +1800,10 @@
   <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G171" sqref="G171"/>
+      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1820,7 +1823,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -1829,10 +1832,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>296</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>2</v>
@@ -1841,32 +1844,32 @@
         <v>3</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M1" s="32" t="s">
         <v>248</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="40"/>
       <c r="H2" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K2" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1880,7 +1883,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>7</v>
@@ -1897,13 +1900,13 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1937,7 +1940,7 @@
         <v>7</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M6" t="s">
         <v>251</v>
@@ -1954,19 +1957,19 @@
         <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
@@ -1981,7 +1984,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1995,14 +1998,14 @@
         <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="20" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2016,10 +2019,10 @@
         <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>280</v>
@@ -2028,7 +2031,7 @@
         <v>7</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2064,7 +2067,7 @@
         <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
@@ -2106,7 +2109,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="18"/>
@@ -2114,16 +2117,16 @@
         <v>270</v>
       </c>
       <c r="I14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M14" t="s">
         <v>251</v>
@@ -2137,7 +2140,7 @@
         <v>270</v>
       </c>
       <c r="I15" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>71</v>
@@ -2165,7 +2168,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="18"/>
@@ -2173,7 +2176,7 @@
         <v>270</v>
       </c>
       <c r="I17" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="J17" s="23" t="s">
         <v>72</v>
@@ -2188,7 +2191,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="18"/>
@@ -2196,7 +2199,7 @@
         <v>270</v>
       </c>
       <c r="I18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J18" s="23" t="s">
         <v>72</v>
@@ -2217,7 +2220,7 @@
         <v>270</v>
       </c>
       <c r="I19" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="J19" s="23" t="s">
         <v>74</v>
@@ -2253,7 +2256,7 @@
         <v>7</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M20" t="s">
         <v>251</v>
@@ -2278,7 +2281,7 @@
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I22" t="s">
         <v>266</v>
@@ -2290,7 +2293,7 @@
         <v>7</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M22" t="s">
         <v>261</v>
@@ -2310,7 +2313,7 @@
         <v>274</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>7</v>
@@ -2330,7 +2333,7 @@
         <v>274</v>
       </c>
       <c r="I24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>7</v>
@@ -2350,7 +2353,7 @@
         <v>270</v>
       </c>
       <c r="I25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J25" t="s">
         <v>22</v>
@@ -2390,7 +2393,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>367</v>
       </c>
       <c r="F27" s="10">
         <v>1</v>
@@ -2405,7 +2408,7 @@
         <v>7</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -2419,7 +2422,7 @@
         <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I28" t="s">
         <v>267</v>
@@ -2445,7 +2448,7 @@
         <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I29" t="s">
         <v>266</v>
@@ -2468,10 +2471,10 @@
         <v>92</v>
       </c>
       <c r="H30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>52</v>
@@ -2479,16 +2482,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H31" t="s">
         <v>270</v>
       </c>
       <c r="I31" t="s">
+        <v>325</v>
+      </c>
+      <c r="J31" t="s">
         <v>326</v>
-      </c>
-      <c r="J31" t="s">
-        <v>327</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>7</v>
@@ -2513,16 +2516,16 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H33" t="s">
         <v>270</v>
       </c>
       <c r="I33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>7</v>
@@ -2539,7 +2542,7 @@
         <v>8</v>
       </c>
       <c r="H34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>7</v>
@@ -2593,7 +2596,7 @@
         <v>64</v>
       </c>
       <c r="H37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>7</v>
@@ -2601,7 +2604,7 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>92</v>
@@ -2627,7 +2630,7 @@
         <v>67</v>
       </c>
       <c r="H39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>7</v>
@@ -2644,10 +2647,10 @@
         <v>58</v>
       </c>
       <c r="H40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J40" s="16" t="s">
         <v>280</v>
@@ -2670,7 +2673,7 @@
         <v>270</v>
       </c>
       <c r="I41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J41" t="s">
         <v>22</v>
@@ -2730,7 +2733,7 @@
         <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I44" t="s">
         <v>266</v>
@@ -2759,7 +2762,7 @@
         <v>274</v>
       </c>
       <c r="I45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>7</v>
@@ -2779,7 +2782,7 @@
         <v>274</v>
       </c>
       <c r="I46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>7</v>
@@ -2799,7 +2802,7 @@
         <v>270</v>
       </c>
       <c r="I47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J47" t="s">
         <v>22</v>
@@ -2839,7 +2842,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>33</v>
+        <v>367</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>92</v>
@@ -2862,7 +2865,7 @@
         <v>94</v>
       </c>
       <c r="H50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I50" t="s">
         <v>266</v>
@@ -2885,7 +2888,7 @@
         <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I51" t="s">
         <v>267</v>
@@ -2911,7 +2914,7 @@
         <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I52" t="s">
         <v>266</v>
@@ -2937,7 +2940,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="9"/>
@@ -2945,10 +2948,10 @@
         <v>270</v>
       </c>
       <c r="I54" t="s">
+        <v>333</v>
+      </c>
+      <c r="J54" t="s">
         <v>334</v>
-      </c>
-      <c r="J54" t="s">
-        <v>335</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>7</v>
@@ -2968,7 +2971,7 @@
         <v>274</v>
       </c>
       <c r="I55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>7</v>
@@ -2988,7 +2991,7 @@
         <v>274</v>
       </c>
       <c r="I56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -3005,7 +3008,7 @@
         <v>274</v>
       </c>
       <c r="I57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>7</v>
@@ -3022,7 +3025,7 @@
         <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I58" t="s">
         <v>267</v>
@@ -3048,7 +3051,7 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I59" t="s">
         <v>266</v>
@@ -3074,7 +3077,7 @@
         <v>79</v>
       </c>
       <c r="H60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I60" t="s">
         <v>266</v>
@@ -3094,33 +3097,33 @@
         <v>5</v>
       </c>
       <c r="H61" t="s">
+        <v>346</v>
+      </c>
+      <c r="I61" t="s">
         <v>347</v>
       </c>
-      <c r="I61" t="s">
-        <v>348</v>
-      </c>
       <c r="J61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>52</v>
       </c>
       <c r="N61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H62" t="s">
         <v>270</v>
       </c>
       <c r="I62" t="s">
+        <v>323</v>
+      </c>
+      <c r="J62" t="s">
         <v>324</v>
-      </c>
-      <c r="J62" t="s">
-        <v>325</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>7</v>
@@ -3128,16 +3131,16 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H63" t="s">
         <v>270</v>
       </c>
       <c r="I63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K63" s="6" t="s">
         <v>7</v>
@@ -3154,7 +3157,7 @@
         <v>8</v>
       </c>
       <c r="H64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>7</v>
@@ -3208,7 +3211,7 @@
         <v>64</v>
       </c>
       <c r="H67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>7</v>
@@ -3216,7 +3219,7 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F68" s="6">
         <v>5</v>
@@ -3242,7 +3245,7 @@
         <v>67</v>
       </c>
       <c r="H69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>7</v>
@@ -3259,10 +3262,10 @@
         <v>58</v>
       </c>
       <c r="H70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I70" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J70" s="16" t="s">
         <v>280</v>
@@ -3285,7 +3288,7 @@
         <v>270</v>
       </c>
       <c r="I71" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J71" t="s">
         <v>22</v>
@@ -3345,7 +3348,7 @@
         <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I74" t="s">
         <v>266</v>
@@ -3374,7 +3377,7 @@
         <v>274</v>
       </c>
       <c r="I75" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.2">
@@ -3391,7 +3394,7 @@
         <v>274</v>
       </c>
       <c r="I76" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.2">
@@ -3405,7 +3408,7 @@
         <v>270</v>
       </c>
       <c r="I77" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J77" t="s">
         <v>22</v>
@@ -3442,7 +3445,7 @@
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>33</v>
+        <v>367</v>
       </c>
       <c r="F79" s="6">
         <v>5</v>
@@ -3476,7 +3479,7 @@
         <v>104</v>
       </c>
       <c r="H81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I81" t="s">
         <v>266</v>
@@ -3505,7 +3508,7 @@
         <v>274</v>
       </c>
       <c r="I82" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -3522,7 +3525,7 @@
         <v>274</v>
       </c>
       <c r="I83" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -3539,7 +3542,7 @@
         <v>270</v>
       </c>
       <c r="I84" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J84" t="s">
         <v>22</v>
@@ -3579,7 +3582,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F86" s="6">
         <v>5</v>
@@ -3597,10 +3600,10 @@
         <v>228</v>
       </c>
       <c r="H87" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I87" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>7</v>
@@ -3631,7 +3634,7 @@
         <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I89" t="s">
         <v>267</v>
@@ -3657,7 +3660,7 @@
         <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I90" t="s">
         <v>266</v>
@@ -3691,7 +3694,7 @@
         <v>98</v>
       </c>
       <c r="H92" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I92" t="s">
         <v>266</v>
@@ -3703,7 +3706,7 @@
         <v>7</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M92" t="s">
         <v>261</v>
@@ -3723,7 +3726,7 @@
         <v>270</v>
       </c>
       <c r="I93" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J93" s="27" t="s">
         <v>254</v>
@@ -3732,7 +3735,7 @@
         <v>7</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M93" t="s">
         <v>257</v>
@@ -3752,7 +3755,7 @@
         <v>274</v>
       </c>
       <c r="I94" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -3769,7 +3772,7 @@
         <v>274</v>
       </c>
       <c r="I95" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -3783,7 +3786,7 @@
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I96" t="s">
         <v>267</v>
@@ -3809,7 +3812,7 @@
         <v>24</v>
       </c>
       <c r="H97" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I97" t="s">
         <v>266</v>
@@ -3843,7 +3846,7 @@
         <v>88</v>
       </c>
       <c r="H99" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I99" t="s">
         <v>266</v>
@@ -3875,7 +3878,7 @@
         <v>7</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -3889,7 +3892,7 @@
         <v>10</v>
       </c>
       <c r="H101" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I101" t="s">
         <v>266</v>
@@ -3912,10 +3915,10 @@
         <v>32</v>
       </c>
       <c r="H102" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I102" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J102" t="s">
         <v>223</v>
@@ -3924,10 +3927,10 @@
         <v>7</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M102" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -3940,19 +3943,19 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H104" t="s">
         <v>270</v>
       </c>
       <c r="I104" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -3972,7 +3975,7 @@
         <v>7</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -3986,7 +3989,7 @@
         <v>139</v>
       </c>
       <c r="H106" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I106" t="s">
         <v>266</v>
@@ -4018,7 +4021,7 @@
         <v>7</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -4032,10 +4035,10 @@
         <v>137</v>
       </c>
       <c r="H108" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I108" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J108" t="s">
         <v>12</v>
@@ -4049,7 +4052,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F109" s="10">
         <v>8</v>
@@ -4061,7 +4064,7 @@
         <v>270</v>
       </c>
       <c r="I109" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J109" t="s">
         <v>12</v>
@@ -4087,7 +4090,7 @@
         <v>270</v>
       </c>
       <c r="I110" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J110" t="s">
         <v>123</v>
@@ -4096,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -4110,10 +4113,10 @@
         <v>122</v>
       </c>
       <c r="H111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I111" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J111" t="s">
         <v>123</v>
@@ -4122,7 +4125,7 @@
         <v>7</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M111" t="s">
         <v>249</v>
@@ -4136,13 +4139,13 @@
         <v>8</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H112" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I112" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.2">
@@ -4156,16 +4159,16 @@
         <v>116</v>
       </c>
       <c r="H113" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I113" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.2">
@@ -4179,13 +4182,13 @@
         <v>114</v>
       </c>
       <c r="H114" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.2">
@@ -4199,13 +4202,13 @@
         <v>118</v>
       </c>
       <c r="H115" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K115" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.2">
@@ -4225,7 +4228,7 @@
         <v>7</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.2">
@@ -4239,13 +4242,13 @@
         <v>120</v>
       </c>
       <c r="H117" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K117" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.2">
@@ -4259,10 +4262,10 @@
         <v>125</v>
       </c>
       <c r="H118" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I118" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J118" t="s">
         <v>126</v>
@@ -4271,10 +4274,10 @@
         <v>7</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M118" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.2">
@@ -4288,10 +4291,10 @@
         <v>135</v>
       </c>
       <c r="H119" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I119" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K119" s="6" t="s">
         <v>7</v>
@@ -4308,10 +4311,10 @@
         <v>175</v>
       </c>
       <c r="H120" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I120" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K120" s="6" t="s">
         <v>7</v>
@@ -4328,7 +4331,7 @@
         <v>173</v>
       </c>
       <c r="H121" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K121" s="6" t="s">
         <v>7</v>
@@ -4345,21 +4348,21 @@
         <v>169</v>
       </c>
       <c r="H122" t="s">
+        <v>311</v>
+      </c>
+      <c r="I122" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="I122" s="34" t="s">
-        <v>313</v>
-      </c>
       <c r="K122" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F123" s="10">
         <v>8</v>
@@ -4371,7 +4374,7 @@
         <v>270</v>
       </c>
       <c r="I123" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J123" s="27" t="s">
         <v>177</v>
@@ -4380,7 +4383,7 @@
         <v>7</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M123" t="s">
         <v>256</v>
@@ -4397,10 +4400,10 @@
         <v>269</v>
       </c>
       <c r="H124" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I124" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J124" t="s">
         <v>12</v>
@@ -4423,10 +4426,10 @@
         <v>130</v>
       </c>
       <c r="H125" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I125" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J125" t="s">
         <v>123</v>
@@ -4435,7 +4438,7 @@
         <v>7</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M125" t="s">
         <v>251</v>
@@ -4449,13 +4452,13 @@
         <v>8</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H126" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I126" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J126" t="s">
         <v>123</v>
@@ -4464,7 +4467,7 @@
         <v>7</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M126" t="s">
         <v>251</v>
@@ -4481,7 +4484,7 @@
         <v>133</v>
       </c>
       <c r="H127" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J127" t="s">
         <v>123</v>
@@ -4490,7 +4493,7 @@
         <v>7</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.2">
@@ -4504,15 +4507,15 @@
         <v>171</v>
       </c>
       <c r="H128" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I128" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F129" s="10">
         <v>8</v>
@@ -4524,7 +4527,7 @@
         <v>270</v>
       </c>
       <c r="I129" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J129" s="27" t="s">
         <v>247</v>
@@ -4547,7 +4550,7 @@
         <v>141</v>
       </c>
       <c r="H130" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I130" t="s">
         <v>266</v>
@@ -4576,7 +4579,7 @@
         <v>270</v>
       </c>
       <c r="I131" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J131" s="27" t="s">
         <v>166</v>
@@ -4599,7 +4602,7 @@
         <v>20</v>
       </c>
       <c r="H132" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I132" t="s">
         <v>267</v>
@@ -4625,7 +4628,7 @@
         <v>24</v>
       </c>
       <c r="H133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I133" t="s">
         <v>266</v>
@@ -4651,7 +4654,7 @@
         <v>79</v>
       </c>
       <c r="H134" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I134" t="s">
         <v>266</v>
@@ -4671,10 +4674,10 @@
         <v>9</v>
       </c>
       <c r="H135" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K135" s="6" t="s">
         <v>52</v>
@@ -4682,16 +4685,16 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H136" t="s">
         <v>270</v>
       </c>
       <c r="I136" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J136" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K136" s="6" t="s">
         <v>7</v>
@@ -4699,16 +4702,16 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H137" t="s">
         <v>270</v>
       </c>
       <c r="I137" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J137" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K137" s="6" t="s">
         <v>7</v>
@@ -4725,7 +4728,7 @@
         <v>8</v>
       </c>
       <c r="H138" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K138" s="6" t="s">
         <v>7</v>
@@ -4779,7 +4782,7 @@
         <v>64</v>
       </c>
       <c r="H141" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K141" s="6" t="s">
         <v>7</v>
@@ -4787,7 +4790,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F142" s="6">
         <v>9</v>
@@ -4813,7 +4816,7 @@
         <v>67</v>
       </c>
       <c r="H143" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K143" s="6" t="s">
         <v>7</v>
@@ -4830,10 +4833,10 @@
         <v>58</v>
       </c>
       <c r="H144" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I144" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J144" t="s">
         <v>280</v>
@@ -4856,7 +4859,7 @@
         <v>270</v>
       </c>
       <c r="I145" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J145" t="s">
         <v>22</v>
@@ -4917,7 +4920,7 @@
         <v>18</v>
       </c>
       <c r="H148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I148" t="s">
         <v>272</v>
@@ -4946,7 +4949,7 @@
         <v>274</v>
       </c>
       <c r="I149" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
@@ -4963,7 +4966,7 @@
         <v>274</v>
       </c>
       <c r="I150" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J150" s="14"/>
     </row>
@@ -4981,7 +4984,7 @@
         <v>270</v>
       </c>
       <c r="I151" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J151" t="s">
         <v>22</v>
@@ -5030,7 +5033,7 @@
         <v>20</v>
       </c>
       <c r="H153" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I153" t="s">
         <v>267</v>
@@ -5056,7 +5059,7 @@
         <v>24</v>
       </c>
       <c r="H154" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I154" t="s">
         <v>266</v>
@@ -5076,7 +5079,7 @@
         <v>179</v>
       </c>
       <c r="J155" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K155" s="6" t="s">
         <v>7</v>
@@ -5096,7 +5099,7 @@
         <v>274</v>
       </c>
       <c r="I156" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K156" s="6" t="s">
         <v>7</v>
@@ -5113,7 +5116,7 @@
         <v>183</v>
       </c>
       <c r="H157" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I157" t="s">
         <v>266</v>
@@ -5139,7 +5142,7 @@
         <v>185</v>
       </c>
       <c r="H158" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I158" t="s">
         <v>266</v>
@@ -5165,7 +5168,7 @@
         <v>20</v>
       </c>
       <c r="H159" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I159" t="s">
         <v>267</v>
@@ -5191,7 +5194,7 @@
         <v>24</v>
       </c>
       <c r="H160" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I160" t="s">
         <v>266</v>
@@ -5259,7 +5262,7 @@
         <v>20</v>
       </c>
       <c r="H164" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I164" t="s">
         <v>267</v>
@@ -5285,7 +5288,7 @@
         <v>24</v>
       </c>
       <c r="H165" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I165" t="s">
         <v>266</v>
@@ -5311,13 +5314,13 @@
         <v>111</v>
       </c>
       <c r="H166" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I166" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J166" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
@@ -5336,10 +5339,10 @@
         <v>48</v>
       </c>
       <c r="H168" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I168" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J168" t="s">
         <v>273</v>
@@ -5356,10 +5359,10 @@
         <v>44</v>
       </c>
       <c r="H169" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I169" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J169" t="s">
         <v>275</v>
@@ -5379,10 +5382,10 @@
         <v>50</v>
       </c>
       <c r="H170" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I170" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J170" t="s">
         <v>273</v>
@@ -5399,10 +5402,10 @@
         <v>46</v>
       </c>
       <c r="H171" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I171" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J171" t="s">
         <v>275</v>

--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/Documents/GitHub/Haal-Centraal-BRP-bevragen/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\git\Haal-Centraal-BRP-bevragen\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B38C962-9B03-434A-840B-2629E3E4D76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0C5EB5-31BC-4054-924E-881D5BFBE514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35700" yWindow="-1480" windowWidth="34560" windowHeight="19240" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="38700" windowHeight="15345" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
   </bookViews>
   <sheets>
     <sheet name="personen" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="364">
   <si>
     <t>categorie</t>
   </si>
@@ -1191,18 +1191,6 @@
   </si>
   <si>
     <t>ontbindingHuwelijkPartnerschap</t>
-  </si>
-  <si>
-    <t>indicatieOnbekend</t>
-  </si>
-  <si>
-    <t>als OnbekendKind: toevoegen met waarde true</t>
-  </si>
-  <si>
-    <t>als OnbekendOuder toevoegen met waarde true</t>
-  </si>
-  <si>
-    <t>als OnbekendPartner toevoegen met waarde true</t>
   </si>
   <si>
     <t>standaardwaarde ......... Uitfilteren</t>
@@ -1797,31 +1785,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F3B9D-634A-C449-A474-F9F6FE9216B2}">
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomRight" activeCell="A135" sqref="A135:XFD135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="3.1640625" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="1" max="4" width="3.125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="7" customWidth="1"/>
     <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.6640625" customWidth="1"/>
-    <col min="10" max="10" width="25.1640625" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.6640625" customWidth="1"/>
+    <col min="9" max="9" width="57.625" customWidth="1"/>
+    <col min="10" max="10" width="25.125" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="5.625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
@@ -1853,7 +1841,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>281</v>
       </c>
@@ -1872,7 +1860,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1889,7 +1877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1909,7 +1897,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1917,7 +1905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>63</v>
       </c>
@@ -1946,7 +1934,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -1967,9 +1955,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
@@ -1987,7 +1975,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -2008,7 +1996,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>57</v>
       </c>
@@ -2034,7 +2022,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>69</v>
       </c>
@@ -2053,7 +2041,7 @@
       </c>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -2067,7 +2055,7 @@
         <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
@@ -2080,7 +2068,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>23</v>
       </c>
@@ -2107,7 +2095,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>303</v>
       </c>
@@ -2132,7 +2120,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>71</v>
       </c>
@@ -2140,7 +2128,7 @@
         <v>270</v>
       </c>
       <c r="I15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>71</v>
@@ -2153,7 +2141,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>72</v>
       </c>
@@ -2166,9 +2154,9 @@
       </c>
       <c r="L16" s="20"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="18"/>
@@ -2176,7 +2164,7 @@
         <v>270</v>
       </c>
       <c r="I17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J17" s="23" t="s">
         <v>72</v>
@@ -2189,9 +2177,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="18"/>
@@ -2199,7 +2187,7 @@
         <v>270</v>
       </c>
       <c r="I18" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J18" s="23" t="s">
         <v>72</v>
@@ -2212,7 +2200,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>73</v>
       </c>
@@ -2220,7 +2208,7 @@
         <v>270</v>
       </c>
       <c r="I19" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J19" s="23" t="s">
         <v>74</v>
@@ -2233,7 +2221,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2262,7 +2250,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2270,7 +2258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -2299,7 +2287,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -2319,7 +2307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -2339,7 +2327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -2353,7 +2341,7 @@
         <v>270</v>
       </c>
       <c r="I25" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J25" t="s">
         <v>22</v>
@@ -2365,7 +2353,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>23</v>
       </c>
@@ -2391,9 +2379,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F27" s="10">
         <v>1</v>
@@ -2411,7 +2399,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2437,7 +2425,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -2463,7 +2451,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -2480,7 +2468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>281</v>
       </c>
@@ -2497,7 +2485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>95</v>
       </c>
@@ -2514,54 +2502,63 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>349</v>
+        <v>4</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>270</v>
-      </c>
-      <c r="I33" t="s">
-        <v>351</v>
-      </c>
-      <c r="J33" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" t="s">
-        <v>283</v>
-      </c>
       <c r="K34" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>54</v>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>63</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="G35" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" t="s">
+        <v>270</v>
+      </c>
+      <c r="I35" t="s">
+        <v>279</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
       <c r="K35" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>92</v>
@@ -2570,193 +2567,187 @@
         <v>64</v>
       </c>
       <c r="H36" t="s">
-        <v>270</v>
-      </c>
-      <c r="I36" t="s">
-        <v>279</v>
-      </c>
-      <c r="J36" t="s">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M36" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>65</v>
+        <v>357</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="15" t="s">
-        <v>64</v>
+      <c r="G37" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="H37" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>56</v>
+      <c r="G38" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="H38" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H39" t="s">
         <v>283</v>
       </c>
+      <c r="I39" t="s">
+        <v>336</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>280</v>
+      </c>
       <c r="K39" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="I40" t="s">
-        <v>336</v>
-      </c>
-      <c r="J40" s="16" t="s">
-        <v>280</v>
+        <v>354</v>
+      </c>
+      <c r="J40" t="s">
+        <v>22</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>19</v>
+      <c r="M40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>23</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s">
         <v>270</v>
       </c>
       <c r="I41" t="s">
-        <v>358</v>
+        <v>266</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M41" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>23</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>16</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" t="s">
-        <v>270</v>
-      </c>
-      <c r="I42" t="s">
-        <v>266</v>
-      </c>
-      <c r="J42" t="s">
-        <v>12</v>
-      </c>
       <c r="K42" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M42" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>16</v>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>17</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="G43" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" t="s">
+        <v>297</v>
+      </c>
+      <c r="I43" t="s">
+        <v>266</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
+      </c>
       <c r="K43" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H44" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="I44" t="s">
-        <v>266</v>
-      </c>
-      <c r="J44" t="s">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M44" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H45" t="s">
         <v>274</v>
@@ -2768,287 +2759,293 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I46" t="s">
-        <v>337</v>
+        <v>354</v>
+      </c>
+      <c r="J46" t="s">
+        <v>22</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>19</v>
+      <c r="M46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>23</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
         <v>270</v>
       </c>
       <c r="I47" t="s">
-        <v>358</v>
+        <v>266</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M47" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
-        <v>23</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>363</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G48" s="15" t="s">
-        <v>24</v>
+      <c r="G48" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="H48" t="s">
-        <v>270</v>
-      </c>
-      <c r="I48" t="s">
-        <v>266</v>
-      </c>
-      <c r="J48" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M48" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>367</v>
+        <v>93</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>34</v>
+      <c r="G49" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="H49" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="I49" t="s">
+        <v>266</v>
+      </c>
+      <c r="J49" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G50" s="26" t="s">
-        <v>94</v>
+      <c r="G50" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I50" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J50" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="M50" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>19</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>23</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K52" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="M51" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" t="s">
-        <v>297</v>
-      </c>
-      <c r="I52" t="s">
-        <v>266</v>
-      </c>
-      <c r="J52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M52" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>75</v>
-      </c>
-      <c r="K53" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="L53" s="24"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L52" s="24"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>281</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="9"/>
+      <c r="H53" t="s">
+        <v>270</v>
+      </c>
+      <c r="I53" t="s">
+        <v>333</v>
+      </c>
+      <c r="J53" t="s">
+        <v>334</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>281</v>
-      </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="F54" s="8">
+        <v>4</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="H54" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="I54" t="s">
-        <v>333</v>
-      </c>
-      <c r="J54" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="8">
+        <v>85</v>
+      </c>
+      <c r="F55" s="12">
         <v>4</v>
       </c>
-      <c r="G55" s="9" t="s">
-        <v>84</v>
+      <c r="G55" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="H55" t="s">
         <v>274</v>
       </c>
       <c r="I55" t="s">
-        <v>337</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>85</v>
-      </c>
-      <c r="F56" s="12">
+        <v>76</v>
+      </c>
+      <c r="F56" s="8">
         <v>4</v>
       </c>
-      <c r="G56" s="13" t="s">
-        <v>86</v>
+      <c r="G56" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="H56" t="s">
         <v>274</v>
       </c>
       <c r="I56" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>76</v>
-      </c>
-      <c r="F57" s="8">
+        <v>19</v>
+      </c>
+      <c r="F57" s="12">
         <v>4</v>
       </c>
-      <c r="G57" s="9" t="s">
-        <v>77</v>
+      <c r="G57" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="I57" t="s">
-        <v>318</v>
+        <v>267</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>19</v>
+        <v>52</v>
+      </c>
+      <c r="M57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>23</v>
       </c>
       <c r="F58" s="12">
         <v>4</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H58" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="M58" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>23</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>78</v>
       </c>
       <c r="F59" s="12">
         <v>4</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s">
         <v>297</v>
@@ -3059,156 +3056,147 @@
       <c r="J59" t="s">
         <v>12</v>
       </c>
-      <c r="K59" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="M59" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="12">
-        <v>4</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>79</v>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="6">
+        <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="I60" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="J60" t="s">
-        <v>12</v>
-      </c>
-      <c r="M60" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>102</v>
-      </c>
-      <c r="F61" s="6">
-        <v>5</v>
+        <v>324</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N60" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>281</v>
       </c>
       <c r="H61" t="s">
-        <v>346</v>
+        <v>270</v>
       </c>
       <c r="I61" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="J61" t="s">
         <v>324</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N61" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>281</v>
+        <v>4</v>
+      </c>
+      <c r="F62" s="6">
+        <v>5</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>8</v>
       </c>
       <c r="H62" t="s">
+        <v>283</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="6">
+        <v>5</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="6">
+        <v>5</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" t="s">
         <v>270</v>
       </c>
-      <c r="I62" t="s">
-        <v>323</v>
-      </c>
-      <c r="J62" t="s">
-        <v>324</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>349</v>
-      </c>
-      <c r="H63" t="s">
-        <v>270</v>
-      </c>
-      <c r="I63" t="s">
-        <v>352</v>
-      </c>
-      <c r="J63" t="s">
-        <v>324</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="6">
-        <v>5</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
+        <v>279</v>
+      </c>
+      <c r="J64" t="s">
+        <v>63</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M64" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="6">
+        <v>5</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" t="s">
         <v>283</v>
       </c>
-      <c r="K64" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F65" s="6">
-        <v>5</v>
-      </c>
       <c r="K65" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="F66" s="6">
         <v>5</v>
       </c>
-      <c r="G66" s="15" t="s">
-        <v>64</v>
+      <c r="G66" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="H66" t="s">
-        <v>270</v>
-      </c>
-      <c r="I66" t="s">
-        <v>279</v>
-      </c>
-      <c r="J66" t="s">
-        <v>63</v>
+        <v>277</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M66" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F67" s="6">
         <v>5</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H67" t="s">
         <v>283</v>
@@ -3217,101 +3205,104 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>361</v>
+        <v>57</v>
       </c>
       <c r="F68" s="6">
         <v>5</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>56</v>
+      <c r="G68" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="H68" t="s">
-        <v>277</v>
+        <v>283</v>
+      </c>
+      <c r="I68" t="s">
+        <v>336</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>280</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F69" s="6">
         <v>5</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>283</v>
+        <v>270</v>
+      </c>
+      <c r="I69" t="s">
+        <v>355</v>
+      </c>
+      <c r="J69" t="s">
+        <v>22</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>57</v>
+      <c r="M69" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>23</v>
       </c>
       <c r="F70" s="6">
         <v>5</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="H70" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="I70" t="s">
-        <v>336</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>280</v>
+        <v>266</v>
+      </c>
+      <c r="J70" t="s">
+        <v>12</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
-        <v>19</v>
+      <c r="M70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>16</v>
       </c>
       <c r="F71" s="6">
         <v>5</v>
       </c>
-      <c r="G71" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" t="s">
-        <v>270</v>
-      </c>
-      <c r="I71" t="s">
-        <v>359</v>
-      </c>
-      <c r="J71" t="s">
-        <v>22</v>
-      </c>
       <c r="K71" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M71" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D72" t="s">
-        <v>23</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>17</v>
       </c>
       <c r="F72" s="6">
         <v>5</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="I72" t="s">
         <v>266</v>
@@ -3326,338 +3317,335 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>16</v>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>29</v>
       </c>
       <c r="F73" s="6">
         <v>5</v>
       </c>
-      <c r="K73" s="6" t="s">
+      <c r="G73" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" t="s">
+        <v>274</v>
+      </c>
+      <c r="I73" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" s="6">
+        <v>5</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" t="s">
+        <v>274</v>
+      </c>
+      <c r="I74" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="6">
+        <v>5</v>
+      </c>
+      <c r="H75" t="s">
+        <v>270</v>
+      </c>
+      <c r="I75" t="s">
+        <v>355</v>
+      </c>
+      <c r="J75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
+      <c r="M75" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="6">
+        <v>5</v>
+      </c>
+      <c r="H76" t="s">
+        <v>270</v>
+      </c>
+      <c r="I76" t="s">
+        <v>266</v>
+      </c>
+      <c r="J76" t="s">
+        <v>12</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M76" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>363</v>
+      </c>
+      <c r="F77" s="6">
+        <v>5</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="F78" s="6">
+        <v>5</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="6">
-        <v>5</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="F79" s="6">
+        <v>5</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H79" t="s">
         <v>297</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I79" t="s">
         <v>266</v>
       </c>
-      <c r="J74" t="s">
-        <v>12</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M74" t="s">
+      <c r="J79" t="s">
+        <v>12</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M79" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="6">
-        <v>5</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="F80" s="6">
+        <v>5</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H80" t="s">
         <v>274</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I80" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>27</v>
       </c>
-      <c r="F76" s="6">
-        <v>5</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="F81" s="6">
+        <v>5</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="H81" t="s">
         <v>274</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I81" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>19</v>
       </c>
-      <c r="F77" s="6">
-        <v>5</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="F82" s="6">
+        <v>5</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" t="s">
         <v>270</v>
       </c>
-      <c r="I77" t="s">
-        <v>359</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="I82" t="s">
+        <v>355</v>
+      </c>
+      <c r="J82" t="s">
         <v>22</v>
       </c>
-      <c r="K77" s="6" t="s">
+      <c r="K82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M82" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="6">
+        <v>5</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" t="s">
+        <v>270</v>
+      </c>
+      <c r="I83" t="s">
+        <v>266</v>
+      </c>
+      <c r="J83" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>348</v>
+      </c>
+      <c r="F84" s="6">
+        <v>5</v>
+      </c>
+      <c r="G84" s="26"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="6">
+        <v>5</v>
+      </c>
+      <c r="G85" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="H85" t="s">
+        <v>297</v>
+      </c>
+      <c r="I85" t="s">
+        <v>318</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>108</v>
+      </c>
+      <c r="F86" s="6">
+        <v>5</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H86" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="6">
+        <v>5</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" t="s">
+        <v>296</v>
+      </c>
+      <c r="I87" t="s">
+        <v>267</v>
+      </c>
+      <c r="J87" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M87" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D78" t="s">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="6">
-        <v>5</v>
-      </c>
-      <c r="H78" t="s">
-        <v>270</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="F88" s="6">
+        <v>5</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" t="s">
+        <v>297</v>
+      </c>
+      <c r="I88" t="s">
         <v>266</v>
       </c>
-      <c r="J78" t="s">
-        <v>12</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M78" t="s">
+      <c r="J88" t="s">
+        <v>12</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M88" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>367</v>
-      </c>
-      <c r="F79" s="6">
-        <v>5</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H79" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>103</v>
-      </c>
-      <c r="F80" s="6">
-        <v>5</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C81" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="6">
-        <v>5</v>
-      </c>
-      <c r="G81" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H81" t="s">
-        <v>297</v>
-      </c>
-      <c r="I81" t="s">
-        <v>266</v>
-      </c>
-      <c r="J81" t="s">
-        <v>12</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M81" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C82" t="s">
-        <v>29</v>
-      </c>
-      <c r="F82" s="6">
-        <v>5</v>
-      </c>
-      <c r="G82" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="H82" t="s">
-        <v>274</v>
-      </c>
-      <c r="I82" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" s="6">
-        <v>5</v>
-      </c>
-      <c r="G83" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="H83" t="s">
-        <v>274</v>
-      </c>
-      <c r="I83" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C84" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="6">
-        <v>5</v>
-      </c>
-      <c r="G84" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" t="s">
-        <v>270</v>
-      </c>
-      <c r="I84" t="s">
-        <v>359</v>
-      </c>
-      <c r="J84" t="s">
-        <v>22</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M84" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D85" t="s">
-        <v>23</v>
-      </c>
-      <c r="F85" s="6">
-        <v>5</v>
-      </c>
-      <c r="G85" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H85" t="s">
-        <v>270</v>
-      </c>
-      <c r="I85" t="s">
-        <v>266</v>
-      </c>
-      <c r="J85" t="s">
-        <v>12</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M85" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>348</v>
-      </c>
-      <c r="F86" s="6">
-        <v>5</v>
-      </c>
-      <c r="G86" s="26"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C87" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="6">
-        <v>5</v>
-      </c>
-      <c r="G87" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="H87" t="s">
-        <v>297</v>
-      </c>
-      <c r="I87" t="s">
-        <v>318</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>108</v>
-      </c>
-      <c r="F88" s="6">
-        <v>5</v>
-      </c>
-      <c r="G88" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H88" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="6">
-        <v>5</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" t="s">
-        <v>296</v>
-      </c>
-      <c r="I89" t="s">
-        <v>267</v>
-      </c>
-      <c r="J89" t="s">
-        <v>22</v>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>97</v>
       </c>
       <c r="K89" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M89" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C90" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" s="6">
-        <v>5</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>24</v>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="10">
+        <v>6</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="H90" t="s">
         <v>297</v>
@@ -3671,145 +3659,145 @@
       <c r="K90" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="L90" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="M90" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>97</v>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>99</v>
+      </c>
+      <c r="F91" s="10">
+        <v>6</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H91" t="s">
+        <v>270</v>
+      </c>
+      <c r="I91" t="s">
+        <v>282</v>
+      </c>
+      <c r="J91" s="27" t="s">
+        <v>254</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M91" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F92" s="10">
         <v>6</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H92" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="I92" t="s">
-        <v>266</v>
-      </c>
-      <c r="J92" t="s">
-        <v>12</v>
-      </c>
-      <c r="K92" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L92" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="M92" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="F93" s="10">
         <v>6</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H93" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="I93" t="s">
-        <v>282</v>
-      </c>
-      <c r="J93" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L93" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="M93" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F94" s="10">
         <v>6</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="I94" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>27</v>
+        <v>267</v>
+      </c>
+      <c r="J94" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M94" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>23</v>
       </c>
       <c r="F95" s="10">
         <v>6</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H95" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="I95" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" s="10">
-        <v>6</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H96" t="s">
-        <v>296</v>
-      </c>
-      <c r="I96" t="s">
-        <v>267</v>
-      </c>
-      <c r="J96" t="s">
-        <v>22</v>
+        <v>266</v>
+      </c>
+      <c r="J95" t="s">
+        <v>12</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>87</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M96" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C97" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>17</v>
       </c>
       <c r="F97" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="H97" t="s">
         <v>297</v>
@@ -3827,23 +3815,35 @@
         <v>261</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>87</v>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>89</v>
+      </c>
+      <c r="F98" s="10">
+        <v>7</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H98" t="s">
+        <v>274</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>17</v>
-      </c>
-      <c r="F99" s="10">
-        <v>7</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>88</v>
+      <c r="L98" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="8">
+        <v>7</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="H99" t="s">
         <v>297</v>
@@ -3854,25 +3854,28 @@
       <c r="J99" t="s">
         <v>12</v>
       </c>
-      <c r="K99" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="M99" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>89</v>
-      </c>
-      <c r="F100" s="10">
-        <v>7</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H100" t="s">
-        <v>274</v>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>31</v>
+      </c>
+      <c r="F100" s="12">
+        <v>7</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="I100" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="J100" t="s">
+        <v>223</v>
       </c>
       <c r="K100" s="6" t="s">
         <v>7</v>
@@ -3880,48 +3883,27 @@
       <c r="L100" s="6" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M100" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="8">
-        <v>7</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" t="s">
-        <v>297</v>
-      </c>
-      <c r="I101" t="s">
-        <v>266</v>
-      </c>
-      <c r="J101" t="s">
-        <v>12</v>
-      </c>
-      <c r="M101" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>31</v>
-      </c>
-      <c r="F102" s="12">
-        <v>7</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H102" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="I102" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="J102" t="s">
-        <v>223</v>
+        <v>112</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>281</v>
+      </c>
+      <c r="H102" t="s">
+        <v>270</v>
+      </c>
+      <c r="I102" t="s">
+        <v>342</v>
       </c>
       <c r="K102" s="6" t="s">
         <v>7</v>
@@ -3929,44 +3911,62 @@
       <c r="L102" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="M102" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>112</v>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>144</v>
+      </c>
+      <c r="F103" s="10">
+        <v>8</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H103" t="s">
+        <v>274</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>281</v>
+        <v>138</v>
+      </c>
+      <c r="F104" s="10">
+        <v>8</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="H104" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="I104" t="s">
-        <v>342</v>
+        <v>266</v>
+      </c>
+      <c r="J104" t="s">
+        <v>12</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L104" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M104" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F105" s="10">
         <v>8</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H105" t="s">
         <v>274</v>
@@ -3975,24 +3975,24 @@
         <v>7</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F106" s="10">
         <v>8</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H106" t="s">
         <v>297</v>
       </c>
       <c r="I106" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="J106" t="s">
         <v>12</v>
@@ -4004,122 +4004,119 @@
         <v>261</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>142</v>
+        <v>314</v>
       </c>
       <c r="F107" s="10">
         <v>8</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="H107" t="s">
-        <v>274</v>
+        <v>270</v>
+      </c>
+      <c r="I107" t="s">
+        <v>317</v>
+      </c>
+      <c r="J107" t="s">
+        <v>12</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L107" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M107" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="F108" s="10">
         <v>8</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="H108" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="I108" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="J108" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="K108" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M108" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L108" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>314</v>
+        <v>121</v>
       </c>
       <c r="F109" s="10">
         <v>8</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="H109" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="I109" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="J109" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="L109" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="M109" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="F110" s="10">
         <v>8</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>168</v>
+        <v>315</v>
       </c>
       <c r="H110" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="I110" t="s">
-        <v>343</v>
-      </c>
-      <c r="J110" t="s">
-        <v>123</v>
-      </c>
-      <c r="K110" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L110" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F111" s="10">
         <v>8</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H111" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="I111" t="s">
-        <v>320</v>
-      </c>
-      <c r="J111" t="s">
-        <v>123</v>
+        <v>344</v>
       </c>
       <c r="K111" s="6" t="s">
         <v>7</v>
@@ -4127,43 +4124,40 @@
       <c r="L111" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="M111" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="F112" s="10">
         <v>8</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>315</v>
+        <v>114</v>
       </c>
       <c r="H112" t="s">
-        <v>284</v>
-      </c>
-      <c r="I112" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F113" s="10">
         <v>8</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H113" t="s">
         <v>283</v>
       </c>
-      <c r="I113" t="s">
-        <v>344</v>
-      </c>
       <c r="K113" s="6" t="s">
         <v>7</v>
       </c>
@@ -4171,18 +4165,18 @@
         <v>306</v>
       </c>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F114" s="10">
         <v>8</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="H114" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>7</v>
@@ -4191,15 +4185,15 @@
         <v>306</v>
       </c>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F115" s="10">
         <v>8</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H115" t="s">
         <v>283</v>
@@ -4211,18 +4205,24 @@
         <v>306</v>
       </c>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F116" s="10">
         <v>8</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H116" t="s">
-        <v>274</v>
+        <v>285</v>
+      </c>
+      <c r="I116" t="s">
+        <v>319</v>
+      </c>
+      <c r="J116" t="s">
+        <v>126</v>
       </c>
       <c r="K116" s="6" t="s">
         <v>7</v>
@@ -4230,206 +4230,215 @@
       <c r="L116" s="6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M116" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="F117" s="10">
         <v>8</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H117" t="s">
         <v>283</v>
       </c>
+      <c r="I117" t="s">
+        <v>339</v>
+      </c>
       <c r="K117" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L117" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="F118" s="10">
         <v>8</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="H118" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I118" t="s">
-        <v>319</v>
-      </c>
-      <c r="J118" t="s">
-        <v>126</v>
+        <v>339</v>
       </c>
       <c r="K118" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L118" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="M118" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="F119" s="10">
         <v>8</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="H119" t="s">
         <v>283</v>
       </c>
-      <c r="I119" t="s">
-        <v>339</v>
-      </c>
       <c r="K119" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="F120" s="10">
         <v>8</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H120" t="s">
-        <v>283</v>
-      </c>
-      <c r="I120" t="s">
-        <v>339</v>
+        <v>311</v>
+      </c>
+      <c r="I120" s="34" t="s">
+        <v>312</v>
       </c>
       <c r="K120" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L120" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>172</v>
+        <v>340</v>
       </c>
       <c r="F121" s="10">
         <v>8</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H121" t="s">
-        <v>283</v>
+        <v>270</v>
+      </c>
+      <c r="I121" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="J121" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="K121" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L121" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M121" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="F122" s="10">
         <v>8</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>169</v>
+        <v>269</v>
       </c>
       <c r="H122" t="s">
-        <v>311</v>
-      </c>
-      <c r="I122" s="34" t="s">
-        <v>312</v>
+        <v>297</v>
+      </c>
+      <c r="I122" t="s">
+        <v>318</v>
+      </c>
+      <c r="J122" t="s">
+        <v>12</v>
       </c>
       <c r="K122" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L122" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="F123" s="10">
         <v>8</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="H123" t="s">
-        <v>270</v>
-      </c>
-      <c r="I123" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="J123" s="27" t="s">
-        <v>177</v>
+        <v>287</v>
+      </c>
+      <c r="I123" t="s">
+        <v>289</v>
+      </c>
+      <c r="J123" t="s">
+        <v>123</v>
       </c>
       <c r="K123" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M123" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>268</v>
+        <v>131</v>
       </c>
       <c r="F124" s="10">
         <v>8</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="H124" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="I124" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="J124" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="K124" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="L124" s="6" t="s">
+        <v>307</v>
+      </c>
       <c r="M124" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F125" s="10">
         <v>8</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H125" t="s">
-        <v>287</v>
-      </c>
-      <c r="I125" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J125" t="s">
         <v>123</v>
@@ -4440,292 +4449,274 @@
       <c r="L125" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="M125" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="F126" s="10">
         <v>8</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="H126" t="s">
-        <v>288</v>
-      </c>
-      <c r="I126" t="s">
-        <v>290</v>
-      </c>
-      <c r="J126" t="s">
-        <v>123</v>
-      </c>
-      <c r="K126" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L126" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="M126" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+      <c r="I126" s="34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>132</v>
+        <v>341</v>
       </c>
       <c r="F127" s="10">
         <v>8</v>
       </c>
-      <c r="G127" s="11" t="s">
-        <v>133</v>
+      <c r="G127" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="H127" t="s">
-        <v>283</v>
-      </c>
-      <c r="J127" t="s">
-        <v>123</v>
+        <v>270</v>
+      </c>
+      <c r="I127" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="J127" s="27" t="s">
+        <v>247</v>
       </c>
       <c r="K127" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L127" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M127" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F128" s="10">
         <v>8</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="H128" t="s">
-        <v>311</v>
-      </c>
-      <c r="I128" s="34" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="I128" t="s">
+        <v>266</v>
+      </c>
+      <c r="J128" t="s">
+        <v>12</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M128" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>341</v>
+        <v>165</v>
       </c>
       <c r="F129" s="10">
         <v>8</v>
       </c>
-      <c r="G129" s="22" t="s">
-        <v>171</v>
+      <c r="G129" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="H129" t="s">
         <v>270</v>
       </c>
       <c r="I129" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J129" s="27" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="K129" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M129" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="F130" s="10">
         <v>8</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="H130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I130" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J130" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K130" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M130" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>165</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>23</v>
       </c>
       <c r="F131" s="10">
         <v>8</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="H131" t="s">
+        <v>297</v>
+      </c>
+      <c r="I131" t="s">
+        <v>266</v>
+      </c>
+      <c r="J131" t="s">
+        <v>12</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>78</v>
+      </c>
+      <c r="F132" s="6">
+        <v>8</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H132" t="s">
+        <v>297</v>
+      </c>
+      <c r="I132" t="s">
+        <v>266</v>
+      </c>
+      <c r="J132" t="s">
+        <v>12</v>
+      </c>
+      <c r="M132" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>51</v>
+      </c>
+      <c r="F133" s="6">
+        <v>9</v>
+      </c>
+      <c r="H133" t="s">
+        <v>329</v>
+      </c>
+      <c r="J133" t="s">
+        <v>327</v>
+      </c>
+      <c r="K133" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>281</v>
+      </c>
+      <c r="H134" t="s">
         <v>270</v>
       </c>
-      <c r="I131" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="J131" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="K131" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M131" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" s="10">
-        <v>8</v>
-      </c>
-      <c r="G132" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H132" t="s">
-        <v>296</v>
-      </c>
-      <c r="I132" t="s">
-        <v>267</v>
-      </c>
-      <c r="J132" t="s">
-        <v>22</v>
-      </c>
-      <c r="K132" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M132" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C133" t="s">
-        <v>23</v>
-      </c>
-      <c r="F133" s="10">
-        <v>8</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H133" t="s">
-        <v>297</v>
-      </c>
-      <c r="I133" t="s">
-        <v>266</v>
-      </c>
-      <c r="J133" t="s">
-        <v>12</v>
-      </c>
-      <c r="K133" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M133" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>78</v>
-      </c>
-      <c r="F134" s="6">
-        <v>8</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H134" t="s">
-        <v>297</v>
-      </c>
       <c r="I134" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="J134" t="s">
-        <v>12</v>
-      </c>
-      <c r="M134" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>51</v>
+        <v>327</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>4</v>
       </c>
       <c r="F135" s="6">
         <v>9</v>
       </c>
+      <c r="G135" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="H135" t="s">
-        <v>329</v>
-      </c>
-      <c r="J135" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>281</v>
-      </c>
-      <c r="H136" t="s">
-        <v>270</v>
-      </c>
-      <c r="I136" t="s">
-        <v>328</v>
-      </c>
-      <c r="J136" t="s">
-        <v>327</v>
+        <v>54</v>
+      </c>
+      <c r="F136" s="6">
+        <v>9</v>
       </c>
       <c r="K136" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>349</v>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="F137" s="6">
+        <v>9</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="H137" t="s">
         <v>270</v>
       </c>
       <c r="I137" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="J137" t="s">
-        <v>327</v>
+        <v>63</v>
       </c>
       <c r="K137" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>4</v>
+      <c r="M137" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>65</v>
       </c>
       <c r="F138" s="6">
         <v>9</v>
       </c>
-      <c r="G138" s="7" t="s">
-        <v>8</v>
+      <c r="G138" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="H138" t="s">
         <v>283</v>
@@ -4734,329 +4725,332 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
-        <v>54</v>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>357</v>
       </c>
       <c r="F139" s="6">
         <v>9</v>
       </c>
+      <c r="G139" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H139" t="s">
+        <v>277</v>
+      </c>
       <c r="K139" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F140" s="6">
         <v>9</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H140" t="s">
-        <v>270</v>
-      </c>
-      <c r="I140" t="s">
-        <v>279</v>
-      </c>
-      <c r="J140" t="s">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="K140" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M140" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F141" s="6">
         <v>9</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H141" t="s">
         <v>283</v>
       </c>
+      <c r="I141" t="s">
+        <v>336</v>
+      </c>
+      <c r="J141" t="s">
+        <v>280</v>
+      </c>
       <c r="K141" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
-        <v>361</v>
+        <v>19</v>
       </c>
       <c r="F142" s="6">
         <v>9</v>
       </c>
-      <c r="G142" s="7" t="s">
-        <v>56</v>
+      <c r="G142" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="H142" t="s">
-        <v>277</v>
+        <v>270</v>
+      </c>
+      <c r="I142" t="s">
+        <v>356</v>
+      </c>
+      <c r="J142" t="s">
+        <v>22</v>
       </c>
       <c r="K142" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C143" t="s">
-        <v>66</v>
+      <c r="M142" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>23</v>
       </c>
       <c r="F143" s="6">
         <v>9</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="H143" t="s">
-        <v>283</v>
+        <v>270</v>
+      </c>
+      <c r="I143" t="s">
+        <v>266</v>
+      </c>
+      <c r="J143" t="s">
+        <v>12</v>
       </c>
       <c r="K143" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C144" t="s">
-        <v>57</v>
+      <c r="M143" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>16</v>
       </c>
       <c r="F144" s="6">
         <v>9</v>
       </c>
-      <c r="G144" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H144" t="s">
-        <v>283</v>
-      </c>
-      <c r="I144" t="s">
-        <v>336</v>
-      </c>
-      <c r="J144" t="s">
-        <v>280</v>
-      </c>
+      <c r="G144" s="14"/>
       <c r="K144" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F145" s="6">
         <v>9</v>
       </c>
-      <c r="G145" s="15" t="s">
-        <v>20</v>
+      <c r="G145" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="H145" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="I145" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="J145" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K145" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M145" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D146" t="s">
-        <v>23</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>29</v>
       </c>
       <c r="F146" s="6">
         <v>9</v>
       </c>
-      <c r="G146" s="15" t="s">
-        <v>24</v>
+      <c r="G146" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="H146" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="I146" t="s">
-        <v>266</v>
-      </c>
-      <c r="J146" t="s">
-        <v>12</v>
-      </c>
-      <c r="K146" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M146" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
-        <v>16</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>27</v>
       </c>
       <c r="F147" s="6">
         <v>9</v>
       </c>
-      <c r="G147" s="14"/>
-      <c r="K147" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G147" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H147" t="s">
+        <v>274</v>
+      </c>
+      <c r="I147" t="s">
+        <v>337</v>
+      </c>
+      <c r="J147" s="14"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F148" s="6">
         <v>9</v>
       </c>
-      <c r="G148" s="7" t="s">
-        <v>18</v>
+      <c r="G148" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="H148" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="I148" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="J148" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="M148" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C149" t="s">
-        <v>29</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>23</v>
       </c>
       <c r="F149" s="6">
         <v>9</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H149" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I149" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C150" t="s">
-        <v>27</v>
+        <v>266</v>
+      </c>
+      <c r="J149" t="s">
+        <v>12</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M149" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>19</v>
       </c>
       <c r="F150" s="6">
         <v>9</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H150" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="I150" t="s">
-        <v>337</v>
-      </c>
-      <c r="J150" s="14"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="J150" t="s">
+        <v>22</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M150" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F151" s="6">
         <v>9</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H151" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="I151" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="J151" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="M151" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D152" t="s">
-        <v>23</v>
-      </c>
-      <c r="F152" s="6">
-        <v>9</v>
-      </c>
-      <c r="G152" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H152" t="s">
-        <v>270</v>
-      </c>
-      <c r="I152" t="s">
-        <v>266</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>179</v>
       </c>
       <c r="J152" t="s">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="K152" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M152" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>19</v>
-      </c>
-      <c r="F153" s="6">
-        <v>9</v>
-      </c>
-      <c r="G153" s="14" t="s">
-        <v>20</v>
+        <v>180</v>
+      </c>
+      <c r="F153" s="10">
+        <v>10</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="H153" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="I153" t="s">
-        <v>267</v>
-      </c>
-      <c r="J153" t="s">
-        <v>22</v>
+        <v>345</v>
       </c>
       <c r="K153" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M153" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C154" t="s">
-        <v>23</v>
-      </c>
-      <c r="F154" s="6">
-        <v>9</v>
-      </c>
-      <c r="G154" s="14" t="s">
-        <v>24</v>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>182</v>
+      </c>
+      <c r="F154" s="10">
+        <v>10</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="H154" t="s">
         <v>297</v>
@@ -5074,46 +5068,67 @@
         <v>261</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>179</v>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>184</v>
+      </c>
+      <c r="F155" s="10">
+        <v>10</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H155" t="s">
+        <v>297</v>
+      </c>
+      <c r="I155" t="s">
+        <v>266</v>
       </c>
       <c r="J155" t="s">
-        <v>310</v>
+        <v>12</v>
       </c>
       <c r="K155" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M155" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="F156" s="10">
         <v>10</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="H156" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="I156" t="s">
-        <v>345</v>
+        <v>267</v>
+      </c>
+      <c r="J156" t="s">
+        <v>22</v>
       </c>
       <c r="K156" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
-        <v>182</v>
+      <c r="M156" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>23</v>
       </c>
       <c r="F157" s="10">
         <v>10</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="H157" t="s">
         <v>297</v>
@@ -5131,286 +5146,208 @@
         <v>261</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
-        <v>184</v>
-      </c>
-      <c r="F158" s="10">
-        <v>10</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="H158" t="s">
-        <v>297</v>
-      </c>
-      <c r="I158" t="s">
-        <v>266</v>
-      </c>
-      <c r="J158" t="s">
-        <v>12</v>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>35</v>
       </c>
       <c r="K158" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M158" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
+        <v>38</v>
+      </c>
+      <c r="F159" s="10">
+        <v>11</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H159" t="s">
+        <v>274</v>
+      </c>
+      <c r="K159" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>36</v>
+      </c>
+      <c r="F160" s="10">
+        <v>11</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H160" t="s">
+        <v>271</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
         <v>19</v>
       </c>
-      <c r="F159" s="10">
-        <v>10</v>
-      </c>
-      <c r="G159" s="11" t="s">
+      <c r="F161" s="10">
+        <v>11</v>
+      </c>
+      <c r="G161" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H161" t="s">
         <v>296</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I161" t="s">
         <v>267</v>
       </c>
-      <c r="J159" t="s">
+      <c r="J161" t="s">
         <v>22</v>
       </c>
-      <c r="K159" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M159" t="s">
+      <c r="K161" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M161" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C160" t="s">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
         <v>23</v>
-      </c>
-      <c r="F160" s="10">
-        <v>10</v>
-      </c>
-      <c r="G160" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H160" t="s">
-        <v>297</v>
-      </c>
-      <c r="I160" t="s">
-        <v>266</v>
-      </c>
-      <c r="J160" t="s">
-        <v>12</v>
-      </c>
-      <c r="K160" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M160" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>35</v>
-      </c>
-      <c r="K161" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B162" t="s">
-        <v>38</v>
       </c>
       <c r="F162" s="10">
         <v>11</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H162" t="s">
-        <v>274</v>
+        <v>297</v>
+      </c>
+      <c r="I162" t="s">
+        <v>266</v>
+      </c>
+      <c r="J162" t="s">
+        <v>12</v>
       </c>
       <c r="K162" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B163" t="s">
-        <v>36</v>
-      </c>
-      <c r="F163" s="10">
-        <v>11</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H163" t="s">
-        <v>271</v>
-      </c>
-      <c r="K163" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164" s="10">
-        <v>11</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H164" t="s">
-        <v>296</v>
-      </c>
-      <c r="I164" t="s">
-        <v>267</v>
-      </c>
-      <c r="J164" t="s">
-        <v>22</v>
-      </c>
-      <c r="K164" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M164" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C165" t="s">
-        <v>23</v>
+      <c r="M162" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>110</v>
+      </c>
+      <c r="F163" s="6">
+        <v>12</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H163" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="I163" t="s">
+        <v>349</v>
+      </c>
+      <c r="J163" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>47</v>
       </c>
       <c r="F165" s="10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H165" t="s">
+        <v>360</v>
+      </c>
+      <c r="I165" t="s">
+        <v>350</v>
+      </c>
+      <c r="J165" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>43</v>
+      </c>
+      <c r="F166" s="10">
+        <v>13</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H166" t="s">
         <v>297</v>
       </c>
-      <c r="I165" t="s">
-        <v>266</v>
-      </c>
-      <c r="J165" t="s">
-        <v>12</v>
-      </c>
-      <c r="K165" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M165" t="s">
+      <c r="I166" t="s">
+        <v>352</v>
+      </c>
+      <c r="J166" t="s">
+        <v>275</v>
+      </c>
+      <c r="M166" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>110</v>
-      </c>
-      <c r="F166" s="6">
-        <v>12</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H166" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="I166" t="s">
-        <v>353</v>
-      </c>
-      <c r="J166" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>49</v>
+      </c>
+      <c r="F167" s="10">
+        <v>13</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H167" t="s">
+        <v>351</v>
+      </c>
+      <c r="I167" t="s">
+        <v>350</v>
+      </c>
+      <c r="J167" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F168" s="10">
         <v>13</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H168" t="s">
-        <v>364</v>
+        <v>297</v>
       </c>
       <c r="I168" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J168" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B169" t="s">
-        <v>43</v>
-      </c>
-      <c r="F169" s="10">
-        <v>13</v>
-      </c>
-      <c r="G169" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H169" t="s">
-        <v>297</v>
-      </c>
-      <c r="I169" t="s">
-        <v>356</v>
-      </c>
-      <c r="J169" t="s">
         <v>275</v>
       </c>
-      <c r="M169" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
-        <v>49</v>
-      </c>
-      <c r="F170" s="10">
-        <v>13</v>
-      </c>
-      <c r="G170" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H170" t="s">
-        <v>355</v>
-      </c>
-      <c r="I170" t="s">
-        <v>354</v>
-      </c>
-      <c r="J170" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B171" t="s">
-        <v>45</v>
-      </c>
-      <c r="F171" s="10">
-        <v>13</v>
-      </c>
-      <c r="G171" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H171" t="s">
-        <v>297</v>
-      </c>
-      <c r="I171" t="s">
-        <v>356</v>
-      </c>
-      <c r="J171" t="s">
-        <v>275</v>
-      </c>
-      <c r="M171" t="s">
+      <c r="M168" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5428,21 +5365,21 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.1640625" customWidth="1"/>
+    <col min="1" max="2" width="5.125" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" customWidth="1"/>
-    <col min="11" max="11" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" customWidth="1"/>
+    <col min="11" max="11" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5465,13 +5402,13 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>191</v>
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>192</v>
       </c>
@@ -5480,7 +5417,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>76</v>
       </c>
@@ -5494,7 +5431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>78</v>
       </c>
@@ -5515,7 +5452,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>11</v>
       </c>
@@ -5525,7 +5462,7 @@
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>13</v>
       </c>
@@ -5535,7 +5472,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>14</v>
       </c>
@@ -5545,7 +5482,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -5555,7 +5492,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -5578,7 +5515,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>80</v>
       </c>
@@ -5590,7 +5527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>23</v>
       </c>
@@ -5613,7 +5550,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>11</v>
       </c>
@@ -5625,7 +5562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>13</v>
       </c>
@@ -5637,7 +5574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>14</v>
       </c>
@@ -5649,7 +5586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>15</v>
       </c>
@@ -5661,7 +5598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>81</v>
       </c>
@@ -5673,7 +5610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>82</v>
       </c>
@@ -5683,7 +5620,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>83</v>
       </c>
@@ -5697,7 +5634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>85</v>
       </c>
@@ -5709,7 +5646,7 @@
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>193</v>
       </c>
@@ -5733,7 +5670,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>11</v>
       </c>
@@ -5742,7 +5679,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>13</v>
       </c>
@@ -5751,7 +5688,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>14</v>
       </c>
@@ -5760,7 +5697,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>15</v>
       </c>
@@ -5769,7 +5706,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -5786,7 +5723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>194</v>
       </c>
@@ -5807,7 +5744,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>195</v>
       </c>
@@ -5819,311 +5756,311 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>189</v>
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J30" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>216</v>
       </c>
@@ -6141,19 +6078,19 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="5.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="1" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
     <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6176,12 +6113,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
         <v>196</v>
       </c>
@@ -6189,7 +6126,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="28" t="s">
         <v>180</v>
       </c>
@@ -6203,7 +6140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
         <v>182</v>
       </c>
@@ -6226,7 +6163,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" s="28" t="s">
         <v>11</v>
       </c>
@@ -6239,7 +6176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7" s="28" t="s">
         <v>13</v>
       </c>
@@ -6252,7 +6189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D8" s="28" t="s">
         <v>14</v>
       </c>
@@ -6265,7 +6202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D9" s="28" t="s">
         <v>15</v>
       </c>
@@ -6278,7 +6215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="28" t="s">
         <v>184</v>
       </c>
@@ -6301,7 +6238,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11" s="28" t="s">
         <v>11</v>
       </c>
@@ -6314,7 +6251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D12" s="28" t="s">
         <v>13</v>
       </c>
@@ -6327,7 +6264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D13" s="28" t="s">
         <v>14</v>
       </c>
@@ -6340,7 +6277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D14" s="28" t="s">
         <v>15</v>
       </c>
@@ -6353,7 +6290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="28" t="s">
         <v>19</v>
       </c>
@@ -6376,7 +6313,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16" s="28" t="s">
         <v>186</v>
       </c>
@@ -6389,7 +6326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D17" s="28" t="s">
         <v>187</v>
       </c>
@@ -6402,7 +6339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D18" s="28" t="s">
         <v>188</v>
       </c>
@@ -6415,7 +6352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D19" s="28" t="s">
         <v>23</v>
       </c>
@@ -6438,7 +6375,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E20" s="28" t="s">
         <v>11</v>
       </c>
@@ -6451,7 +6388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E21" s="28" t="s">
         <v>13</v>
       </c>
@@ -6464,7 +6401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E22" s="28" t="s">
         <v>14</v>
       </c>
@@ -6477,7 +6414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E23" s="28" t="s">
         <v>15</v>
       </c>
@@ -6490,7 +6427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C24" s="28" t="s">
         <v>31</v>
       </c>
@@ -6501,7 +6438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>189</v>
       </c>
@@ -6519,20 +6456,20 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="5.1640625" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" customWidth="1"/>
+    <col min="1" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="24.875" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6555,12 +6492,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>197</v>
       </c>
@@ -6571,7 +6508,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>103</v>
       </c>
@@ -6583,7 +6520,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>17</v>
       </c>
@@ -6606,7 +6543,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>11</v>
       </c>
@@ -6621,7 +6558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>13</v>
       </c>
@@ -6636,7 +6573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>14</v>
       </c>
@@ -6651,7 +6588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>15</v>
       </c>
@@ -6666,7 +6603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>19</v>
       </c>
@@ -6689,7 +6626,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>21</v>
       </c>
@@ -6704,7 +6641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>23</v>
       </c>
@@ -6727,7 +6664,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>11</v>
       </c>
@@ -6742,7 +6679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>13</v>
       </c>
@@ -6757,7 +6694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>14</v>
       </c>
@@ -6772,7 +6709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>15</v>
       </c>
@@ -6787,7 +6724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>25</v>
       </c>
@@ -6800,7 +6737,7 @@
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>26</v>
       </c>
@@ -6813,7 +6750,7 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>27</v>
       </c>
@@ -6825,7 +6762,7 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>29</v>
       </c>
@@ -6837,7 +6774,7 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -6851,7 +6788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -6863,7 +6800,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>17</v>
       </c>
@@ -6886,7 +6823,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>11</v>
       </c>
@@ -6901,7 +6838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>13</v>
       </c>
@@ -6916,7 +6853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>14</v>
       </c>
@@ -6931,7 +6868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>15</v>
       </c>
@@ -6946,7 +6883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>19</v>
       </c>
@@ -6967,7 +6904,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>21</v>
       </c>
@@ -6982,7 +6919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>23</v>
       </c>
@@ -7003,7 +6940,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>11</v>
       </c>
@@ -7018,7 +6955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>13</v>
       </c>
@@ -7033,7 +6970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>14</v>
       </c>
@@ -7048,7 +6985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>15</v>
       </c>
@@ -7063,7 +7000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>25</v>
       </c>
@@ -7076,7 +7013,7 @@
       </c>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>26</v>
       </c>
@@ -7089,7 +7026,7 @@
       </c>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>27</v>
       </c>
@@ -7101,7 +7038,7 @@
       </c>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>29</v>
       </c>
@@ -7113,7 +7050,7 @@
       </c>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>31</v>
       </c>
@@ -7127,7 +7064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>33</v>
       </c>
@@ -7139,7 +7076,7 @@
       </c>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -7162,7 +7099,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>40</v>
       </c>
@@ -7177,7 +7114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>23</v>
       </c>
@@ -7200,7 +7137,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>11</v>
       </c>
@@ -7215,7 +7152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>13</v>
       </c>
@@ -7230,7 +7167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>14</v>
       </c>
@@ -7245,7 +7182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>15</v>
       </c>
@@ -7260,7 +7197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>41</v>
       </c>
@@ -7273,7 +7210,7 @@
       </c>
       <c r="K48" s="6"/>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>107</v>
       </c>
@@ -7286,7 +7223,7 @@
       </c>
       <c r="K49" s="6"/>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>54</v>
       </c>
@@ -7298,7 +7235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>55</v>
       </c>
@@ -7312,7 +7249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>57</v>
       </c>
@@ -7326,7 +7263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>19</v>
       </c>
@@ -7349,7 +7286,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>59</v>
       </c>
@@ -7364,7 +7301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>23</v>
       </c>
@@ -7387,7 +7324,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
         <v>11</v>
       </c>
@@ -7402,7 +7339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>13</v>
       </c>
@@ -7417,7 +7354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>14</v>
       </c>
@@ -7432,7 +7369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>15</v>
       </c>
@@ -7447,7 +7384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>60</v>
       </c>
@@ -7462,7 +7399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>61</v>
       </c>
@@ -7477,7 +7414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>62</v>
       </c>
@@ -7492,7 +7429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>63</v>
       </c>
@@ -7509,7 +7446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>65</v>
       </c>
@@ -7523,7 +7460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>66</v>
       </c>
@@ -7537,7 +7474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>108</v>
       </c>
@@ -7549,7 +7486,7 @@
       </c>
       <c r="K66" s="6"/>
     </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>198</v>
       </c>
@@ -7557,7 +7494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>17</v>
       </c>
@@ -7580,7 +7517,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>11</v>
       </c>
@@ -7591,7 +7528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>13</v>
       </c>
@@ -7602,7 +7539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>14</v>
       </c>
@@ -7613,7 +7550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>15</v>
       </c>
@@ -7624,7 +7561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>19</v>
       </c>
@@ -7647,7 +7584,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>21</v>
       </c>
@@ -7659,7 +7596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>23</v>
       </c>
@@ -7682,7 +7619,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="76" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
         <v>11</v>
       </c>
@@ -7693,7 +7630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
         <v>13</v>
       </c>
@@ -7704,7 +7641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
         <v>14</v>
       </c>
@@ -7715,7 +7652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
         <v>15</v>
       </c>
@@ -7726,7 +7663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>25</v>
       </c>
@@ -7735,7 +7672,7 @@
       </c>
       <c r="K80" s="6"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>26</v>
       </c>
@@ -7744,7 +7681,7 @@
       </c>
       <c r="K81" s="6"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>199</v>
       </c>
@@ -7753,7 +7690,7 @@
       </c>
       <c r="K82" s="6"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>200</v>
       </c>
@@ -7776,7 +7713,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>27</v>
       </c>
@@ -7788,7 +7725,7 @@
       </c>
       <c r="K84" s="6"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>29</v>
       </c>
@@ -7800,7 +7737,7 @@
       </c>
       <c r="K85" s="6"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>201</v>
       </c>
@@ -7812,13 +7749,13 @@
       </c>
       <c r="K86" s="6"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>189</v>
       </c>
       <c r="K87" s="6"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>202</v>
       </c>
@@ -7832,16 +7769,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>189</v>
       </c>
       <c r="K89" s="31"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K90" s="31"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K91" s="31"/>
     </row>
   </sheetData>
@@ -7857,18 +7794,18 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7891,12 +7828,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>203</v>
       </c>
@@ -7904,7 +7841,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>167</v>
       </c>
@@ -7921,7 +7858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>121</v>
       </c>
@@ -7941,7 +7878,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>115</v>
       </c>
@@ -7955,7 +7892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>113</v>
       </c>
@@ -7969,7 +7906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>117</v>
       </c>
@@ -7983,7 +7920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>127</v>
       </c>
@@ -7997,7 +7934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>119</v>
       </c>
@@ -8011,7 +7948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>124</v>
       </c>
@@ -8031,7 +7968,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>134</v>
       </c>
@@ -8045,7 +7982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>174</v>
       </c>
@@ -8059,7 +7996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>129</v>
       </c>
@@ -8079,7 +8016,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>131</v>
       </c>
@@ -8099,7 +8036,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>132</v>
       </c>
@@ -8116,7 +8053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>136</v>
       </c>
@@ -8139,7 +8076,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>11</v>
       </c>
@@ -8152,7 +8089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>13</v>
       </c>
@@ -8165,7 +8102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>14</v>
       </c>
@@ -8178,7 +8115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>15</v>
       </c>
@@ -8191,7 +8128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>78</v>
       </c>
@@ -8212,7 +8149,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>11</v>
       </c>
@@ -8223,7 +8160,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>13</v>
       </c>
@@ -8234,7 +8171,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>14</v>
       </c>
@@ -8245,7 +8182,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>15</v>
       </c>
@@ -8256,7 +8193,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>138</v>
       </c>
@@ -8279,7 +8216,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>11</v>
       </c>
@@ -8292,7 +8229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>13</v>
       </c>
@@ -8305,7 +8242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>14</v>
       </c>
@@ -8318,7 +8255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>15</v>
       </c>
@@ -8331,7 +8268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>140</v>
       </c>
@@ -8354,7 +8291,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>11</v>
       </c>
@@ -8367,7 +8304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>13</v>
       </c>
@@ -8380,7 +8317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>14</v>
       </c>
@@ -8393,7 +8330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>15</v>
       </c>
@@ -8406,7 +8343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>142</v>
       </c>
@@ -8420,7 +8357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>144</v>
       </c>
@@ -8434,7 +8371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -8457,7 +8394,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>146</v>
       </c>
@@ -8470,7 +8407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>147</v>
       </c>
@@ -8483,7 +8420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>148</v>
       </c>
@@ -8496,7 +8433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>149</v>
       </c>
@@ -8507,7 +8444,7 @@
       </c>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>23</v>
       </c>
@@ -8530,7 +8467,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>11</v>
       </c>
@@ -8543,7 +8480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>13</v>
       </c>
@@ -8556,7 +8493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>14</v>
       </c>
@@ -8569,7 +8506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>15</v>
       </c>
@@ -8582,7 +8519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>150</v>
       </c>
@@ -8595,7 +8532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>151</v>
       </c>
@@ -8608,7 +8545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>152</v>
       </c>
@@ -8621,7 +8558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>153</v>
       </c>
@@ -8634,7 +8571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>154</v>
       </c>
@@ -8647,7 +8584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>155</v>
       </c>
@@ -8660,7 +8597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>156</v>
       </c>
@@ -8673,7 +8610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>157</v>
       </c>
@@ -8686,7 +8623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>158</v>
       </c>
@@ -8699,7 +8636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>159</v>
       </c>
@@ -8712,7 +8649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>160</v>
       </c>
@@ -8725,7 +8662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>161</v>
       </c>
@@ -8738,7 +8675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>162</v>
       </c>
@@ -8751,7 +8688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>163</v>
       </c>
@@ -8764,7 +8701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>164</v>
       </c>
@@ -8777,7 +8714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>165</v>
       </c>
@@ -8803,7 +8740,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>27</v>
       </c>
@@ -8820,7 +8757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>170</v>
       </c>
@@ -8832,7 +8769,7 @@
       </c>
       <c r="J66" s="6"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>172</v>
       </c>
@@ -8846,7 +8783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>176</v>
       </c>
@@ -8872,7 +8809,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>178</v>
       </c>
@@ -8898,7 +8835,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>193</v>
       </c>
@@ -8921,7 +8858,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>11</v>
       </c>
@@ -8929,7 +8866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>13</v>
       </c>
@@ -8937,7 +8874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>14</v>
       </c>
@@ -8945,7 +8882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>15</v>
       </c>
@@ -8953,7 +8890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>31</v>
       </c>
@@ -8964,12 +8901,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>190</v>
       </c>
@@ -8980,7 +8917,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>204</v>
       </c>
@@ -8991,7 +8928,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>189</v>
       </c>
@@ -9009,26 +8946,26 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="7" width="3.5" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
     <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" customWidth="1"/>
-    <col min="13" max="13" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" customWidth="1"/>
+    <col min="13" max="13" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
@@ -9051,7 +8988,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -9065,7 +9002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>237</v>
       </c>
@@ -9073,7 +9010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>121</v>
       </c>
@@ -9087,7 +9024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>115</v>
       </c>
@@ -9101,7 +9038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>113</v>
       </c>
@@ -9115,7 +9052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>117</v>
       </c>
@@ -9129,7 +9066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>119</v>
       </c>
@@ -9143,7 +9080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>124</v>
       </c>
@@ -9157,7 +9094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>174</v>
       </c>
@@ -9171,7 +9108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -9179,7 +9116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -9193,7 +9130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>136</v>
       </c>
@@ -9216,7 +9153,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -9227,7 +9164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>13</v>
       </c>
@@ -9238,7 +9175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -9249,7 +9186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -9260,7 +9197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>193</v>
       </c>
@@ -9283,7 +9220,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -9294,7 +9231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -9305,7 +9242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -9316,7 +9253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -9327,7 +9264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>142</v>
       </c>
@@ -9341,7 +9278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -9356,7 +9293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>208</v>
       </c>
@@ -9370,7 +9307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>211</v>
       </c>
@@ -9381,7 +9318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>189</v>
       </c>
@@ -9389,7 +9326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>204</v>
       </c>
@@ -9403,7 +9340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>214</v>
       </c>
@@ -9416,7 +9353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>238</v>
       </c>
@@ -9429,7 +9366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>191</v>
       </c>
@@ -9437,7 +9374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>239</v>
       </c>
@@ -9461,14 +9398,14 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="24.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9482,7 +9419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>217</v>
       </c>
@@ -9493,7 +9430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>218</v>
       </c>
@@ -9504,7 +9441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>219</v>
       </c>

--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Temp\GitHub\Haal-Centraal-BRP-bevragen\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA6D721-3EF9-4194-B3D9-E0FED1066344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45380B93-D5B2-40D2-9323-51607E9978A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="419">
   <si>
     <t>categorie</t>
   </si>
@@ -1421,12 +1421,6 @@
   </si>
   <si>
     <t>soortVerbintenis</t>
-  </si>
-  <si>
-    <t>indicatieHuwelijkPartnerschapBeeindigd</t>
-  </si>
-  <si>
-    <t>Deze property wordt nog in geen enkel feature bestand benoemd.</t>
   </si>
   <si>
     <t>afleiden uit verblijfplaats.verblijfadres.land</t>
@@ -1714,12 +1708,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1771,7 +1771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1831,7 +1831,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1913,7 +1913,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2338,7 +2344,7 @@
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2348,19 +2354,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="77" t="s">
         <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2368,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2376,7 +2382,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2384,7 +2390,7 @@
         <v>269</v>
       </c>
       <c r="B7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2392,7 +2398,7 @@
         <v>224</v>
       </c>
       <c r="B8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -2402,26 +2408,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F3B9D-634A-C449-A474-F9F6FE9216B2}">
-  <dimension ref="A1:O185"/>
+  <dimension ref="A1:O184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:M1"/>
+      <selection pane="bottomRight" activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="3.1640625" style="27" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="55" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="57" customWidth="1"/>
     <col min="8" max="8" width="30.5" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="57.6640625" style="27" customWidth="1"/>
     <col min="10" max="10" width="25.1640625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="54" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="54" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="56" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="56" customWidth="1"/>
     <col min="13" max="13" width="23.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="38.6640625" style="27" customWidth="1"/>
     <col min="15" max="15" width="255.58203125" style="27" bestFit="1" customWidth="1"/>
@@ -2483,7 +2489,7 @@
       <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="61">
         <v>1</v>
       </c>
       <c r="G3" s="40" t="s">
@@ -2501,7 +2507,7 @@
       <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="61">
         <v>1</v>
       </c>
       <c r="G4" s="40" t="s">
@@ -2521,7 +2527,7 @@
       <c r="A5" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="F5" s="59"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="40"/>
       <c r="K5" s="39" t="s">
         <v>7</v>
@@ -2532,7 +2538,7 @@
       <c r="B6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="62">
         <v>1</v>
       </c>
       <c r="G6" s="41" t="s">
@@ -2561,7 +2567,7 @@
       <c r="B7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="62">
         <v>1</v>
       </c>
       <c r="G7" s="41" t="s">
@@ -2582,7 +2588,7 @@
       <c r="B8" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="61">
         <v>1</v>
       </c>
       <c r="G8" s="40" t="s">
@@ -2602,7 +2608,7 @@
       <c r="B9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="62">
         <v>1</v>
       </c>
       <c r="G9" s="41" t="s">
@@ -2623,7 +2629,7 @@
       <c r="B10" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="62">
         <v>1</v>
       </c>
       <c r="G10" s="41" t="s">
@@ -2708,7 +2714,7 @@
         <v>315</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K13" s="39" t="s">
         <v>7</v>
@@ -2770,7 +2776,7 @@
       <c r="J16" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="52" t="s">
+      <c r="K16" s="54" t="s">
         <v>325</v>
       </c>
       <c r="L16" s="52" t="s">
@@ -2798,7 +2804,7 @@
       <c r="J17" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="52" t="s">
+      <c r="K17" s="54" t="s">
         <v>325</v>
       </c>
       <c r="L17" s="52" t="s">
@@ -2823,10 +2829,10 @@
       <c r="I18" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="53" t="s">
         <v>370</v>
       </c>
-      <c r="K18" s="52" t="s">
+      <c r="K18" s="54" t="s">
         <v>325</v>
       </c>
       <c r="L18" s="52" t="s">
@@ -2834,14 +2840,14 @@
       </c>
       <c r="M18" s="49"/>
       <c r="O18" s="49" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="59"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="40"/>
       <c r="H19" s="38" t="s">
         <v>244</v>
@@ -2864,7 +2870,7 @@
       <c r="B20" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="59"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="40"/>
       <c r="H20" s="38" t="s">
         <v>244</v>
@@ -2925,7 +2931,7 @@
       <c r="B23" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="59"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="40"/>
       <c r="H23" s="38" t="s">
         <v>244</v>
@@ -2958,12 +2964,12 @@
         <v>244</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J24" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="K24" s="52" t="s">
+      <c r="K24" s="54" t="s">
         <v>325</v>
       </c>
       <c r="L24" s="52"/>
@@ -2989,7 +2995,7 @@
       <c r="J25" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="52" t="s">
+      <c r="K25" s="54" t="s">
         <v>325</v>
       </c>
       <c r="L25" s="52"/>
@@ -3017,7 +3023,7 @@
       <c r="J26" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="52" t="s">
+      <c r="K26" s="54" t="s">
         <v>325</v>
       </c>
       <c r="L26" s="52"/>
@@ -3058,7 +3064,7 @@
       <c r="A28" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="F28" s="59"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="40"/>
       <c r="K28" s="39" t="s">
         <v>7</v>
@@ -3186,7 +3192,7 @@
         <v>315</v>
       </c>
       <c r="J33" s="49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K33" s="39" t="s">
         <v>7</v>
@@ -3231,7 +3237,7 @@
         <v>263</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J35" s="38" t="s">
         <v>21</v>
@@ -3261,7 +3267,7 @@
         <v>315</v>
       </c>
       <c r="J36" s="49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K36" s="39" t="s">
         <v>7</v>
@@ -3271,14 +3277,14 @@
         <v>314</v>
       </c>
       <c r="O36" s="49" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="38" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B37" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="F37" s="56">
+      <c r="F37" s="58">
         <v>1</v>
       </c>
       <c r="G37" s="51" t="s">
@@ -3288,12 +3294,12 @@
         <v>244</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J37" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="K37" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="K37" s="54" t="s">
         <v>325</v>
       </c>
       <c r="L37" s="39"/>
@@ -3306,7 +3312,7 @@
       <c r="B38" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38" s="58">
         <v>8</v>
       </c>
       <c r="G38" s="51" t="s">
@@ -3316,12 +3322,12 @@
         <v>244</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J38" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="K38" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="K38" s="54" t="s">
         <v>325</v>
       </c>
       <c r="L38" s="39"/>
@@ -3334,7 +3340,7 @@
       <c r="B39" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F39" s="58">
         <v>11</v>
       </c>
       <c r="G39" s="51" t="s">
@@ -3344,12 +3350,12 @@
         <v>244</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J39" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="K39" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="K39" s="54" t="s">
         <v>325</v>
       </c>
       <c r="L39" s="39"/>
@@ -3363,14 +3369,14 @@
         <v>343</v>
       </c>
       <c r="B40" s="49"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="57"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="59"/>
       <c r="H40" s="49"/>
       <c r="I40" s="49" t="s">
         <v>345</v>
       </c>
       <c r="J40" s="49"/>
-      <c r="K40" s="52" t="s">
+      <c r="K40" s="54" t="s">
         <v>325</v>
       </c>
       <c r="L40" s="39"/>
@@ -3381,10 +3387,10 @@
       <c r="B41" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="F41" s="56">
+      <c r="F41" s="58">
         <v>1</v>
       </c>
-      <c r="G41" s="57" t="s">
+      <c r="G41" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H41" s="49" t="s">
@@ -3392,7 +3398,7 @@
       </c>
       <c r="I41" s="49"/>
       <c r="J41" s="49"/>
-      <c r="K41" s="52" t="s">
+      <c r="K41" s="54" t="s">
         <v>325</v>
       </c>
       <c r="L41" s="39"/>
@@ -3403,14 +3409,14 @@
         <v>344</v>
       </c>
       <c r="B42" s="49"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="57"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
       <c r="H42" s="49"/>
       <c r="I42" s="49" t="s">
         <v>345</v>
       </c>
       <c r="J42" s="49"/>
-      <c r="K42" s="52" t="s">
+      <c r="K42" s="54" t="s">
         <v>325</v>
       </c>
       <c r="L42" s="39"/>
@@ -3421,10 +3427,10 @@
       <c r="B43" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="F43" s="56">
+      <c r="F43" s="58">
         <v>11</v>
       </c>
-      <c r="G43" s="57" t="s">
+      <c r="G43" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H43" s="49" t="s">
@@ -3432,7 +3438,7 @@
       </c>
       <c r="I43" s="49"/>
       <c r="J43" s="49"/>
-      <c r="K43" s="52" t="s">
+      <c r="K43" s="54" t="s">
         <v>325</v>
       </c>
       <c r="L43" s="39"/>
@@ -3442,7 +3448,7 @@
       <c r="A44" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="F44" s="59" t="s">
+      <c r="F44" s="61" t="s">
         <v>77</v>
       </c>
       <c r="G44" s="40"/>
@@ -3459,15 +3465,15 @@
     </row>
     <row r="45" spans="1:15" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>401</v>
-      </c>
-      <c r="F45" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="F45" s="63" t="s">
         <v>77</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="25"/>
-      <c r="J45" s="58" t="s">
-        <v>402</v>
+      <c r="J45" s="60" t="s">
+        <v>400</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>7</v>
@@ -3478,10 +3484,10 @@
       <c r="B46" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="59" t="s">
+      <c r="F46" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G46" s="62" t="s">
+      <c r="G46" s="64" t="s">
         <v>8</v>
       </c>
       <c r="H46" s="38" t="s">
@@ -3496,7 +3502,7 @@
       <c r="B47" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="F47" s="59" t="s">
+      <c r="F47" s="61" t="s">
         <v>77</v>
       </c>
       <c r="G47" s="40"/>
@@ -3509,10 +3515,10 @@
       <c r="C48" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="59" t="s">
+      <c r="F48" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G48" s="63" t="s">
+      <c r="G48" s="65" t="s">
         <v>54</v>
       </c>
       <c r="H48" s="38" t="s">
@@ -3536,10 +3542,10 @@
       <c r="C49" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="59" t="s">
+      <c r="F49" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G49" s="63" t="s">
+      <c r="G49" s="65" t="s">
         <v>54</v>
       </c>
       <c r="H49" s="38" t="s">
@@ -3554,7 +3560,7 @@
       <c r="C50" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="F50" s="59" t="s">
+      <c r="F50" s="61" t="s">
         <v>77</v>
       </c>
       <c r="G50" s="40" t="s">
@@ -3572,10 +3578,10 @@
       <c r="C51" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="59" t="s">
+      <c r="F51" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G51" s="63" t="s">
+      <c r="G51" s="65" t="s">
         <v>57</v>
       </c>
       <c r="H51" s="38" t="s">
@@ -3590,10 +3596,10 @@
       <c r="C52" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="59" t="s">
+      <c r="F52" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="63" t="s">
+      <c r="G52" s="65" t="s">
         <v>48</v>
       </c>
       <c r="H52" s="38" t="s">
@@ -3614,10 +3620,10 @@
       <c r="C53" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="F53" s="59" t="s">
+      <c r="F53" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="63" t="s">
+      <c r="G53" s="65" t="s">
         <v>19</v>
       </c>
       <c r="H53" s="38" t="s">
@@ -3641,10 +3647,10 @@
       <c r="D54" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="F54" s="59" t="s">
+      <c r="F54" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G54" s="63" t="s">
+      <c r="G54" s="65" t="s">
         <v>23</v>
       </c>
       <c r="H54" s="38" t="s">
@@ -3654,7 +3660,7 @@
         <v>315</v>
       </c>
       <c r="J54" s="49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K54" s="39" t="s">
         <v>7</v>
@@ -3668,7 +3674,7 @@
       <c r="B55" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="F55" s="59" t="s">
+      <c r="F55" s="61" t="s">
         <v>77</v>
       </c>
       <c r="G55" s="40"/>
@@ -3681,10 +3687,10 @@
       <c r="C56" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="59" t="s">
+      <c r="F56" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G56" s="63" t="s">
+      <c r="G56" s="65" t="s">
         <v>17</v>
       </c>
       <c r="H56" s="38" t="s">
@@ -3708,10 +3714,10 @@
       <c r="C57" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G57" s="63" t="s">
+      <c r="G57" s="65" t="s">
         <v>29</v>
       </c>
       <c r="H57" s="38" t="s">
@@ -3732,10 +3738,10 @@
       <c r="C58" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="F58" s="59" t="s">
+      <c r="F58" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G58" s="63" t="s">
+      <c r="G58" s="65" t="s">
         <v>27</v>
       </c>
       <c r="H58" s="38" t="s">
@@ -3756,10 +3762,10 @@
       <c r="C59" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G59" s="63" t="s">
+      <c r="G59" s="65" t="s">
         <v>19</v>
       </c>
       <c r="H59" s="38" t="s">
@@ -3783,10 +3789,10 @@
       <c r="D60" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="F60" s="59" t="s">
+      <c r="F60" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G60" s="63" t="s">
+      <c r="G60" s="65" t="s">
         <v>23</v>
       </c>
       <c r="H60" s="38" t="s">
@@ -3796,7 +3802,7 @@
         <v>315</v>
       </c>
       <c r="J60" s="49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K60" s="39" t="s">
         <v>7</v>
@@ -3810,7 +3816,7 @@
       <c r="B61" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="61" t="s">
         <v>77</v>
       </c>
       <c r="G61" s="40" t="s">
@@ -3826,10 +3832,10 @@
       <c r="B62" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="F62" s="59" t="s">
+      <c r="F62" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="64" t="s">
+      <c r="G62" s="66" t="s">
         <v>78</v>
       </c>
       <c r="H62" s="38" t="s">
@@ -3851,17 +3857,17 @@
       <c r="B63" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="F63" s="59" t="s">
+      <c r="F63" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G63" s="63" t="s">
+      <c r="G63" s="65" t="s">
         <v>19</v>
       </c>
       <c r="H63" s="38" t="s">
         <v>263</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J63" s="38" t="s">
         <v>21</v>
@@ -3878,10 +3884,10 @@
       <c r="C64" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="F64" s="59" t="s">
+      <c r="F64" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G64" s="63" t="s">
+      <c r="G64" s="65" t="s">
         <v>23</v>
       </c>
       <c r="H64" s="38" t="s">
@@ -3891,7 +3897,7 @@
         <v>315</v>
       </c>
       <c r="J64" s="49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K64" s="39" t="s">
         <v>7</v>
@@ -3905,24 +3911,24 @@
       <c r="A65" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="F65" s="59"/>
+      <c r="F65" s="61"/>
       <c r="G65" s="40"/>
-      <c r="K65" s="65" t="s">
+      <c r="K65" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="L65" s="65"/>
+      <c r="L65" s="67"/>
     </row>
     <row r="66" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="F66" s="60"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="41"/>
       <c r="H66" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="I66" s="66" t="s">
-        <v>406</v>
+      <c r="I66" s="68" t="s">
+        <v>404</v>
       </c>
       <c r="J66" s="49" t="s">
         <v>335</v>
@@ -3936,7 +3942,7 @@
       <c r="B67" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="F67" s="60">
+      <c r="F67" s="62">
         <v>4</v>
       </c>
       <c r="G67" s="41" t="s">
@@ -3972,7 +3978,7 @@
       <c r="I68" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="J68" s="49" t="s">
+      <c r="J68" s="53" t="s">
         <v>339</v>
       </c>
       <c r="K68" s="39"/>
@@ -3985,7 +3991,7 @@
       <c r="B69" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="F69" s="60">
+      <c r="F69" s="62">
         <v>4</v>
       </c>
       <c r="G69" s="41" t="s">
@@ -4017,7 +4023,7 @@
         <v>263</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J70" s="38" t="s">
         <v>21</v>
@@ -4047,7 +4053,7 @@
         <v>315</v>
       </c>
       <c r="J71" s="49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K71" s="39" t="s">
         <v>7</v>
@@ -4086,7 +4092,7 @@
       <c r="A73" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="F73" s="59">
+      <c r="F73" s="61">
         <v>5</v>
       </c>
       <c r="G73" s="40"/>
@@ -4111,10 +4117,10 @@
       <c r="B74" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F74" s="59">
+      <c r="F74" s="61">
         <v>5</v>
       </c>
-      <c r="G74" s="62" t="s">
+      <c r="G74" s="64" t="s">
         <v>8</v>
       </c>
       <c r="H74" s="38" t="s">
@@ -4129,7 +4135,7 @@
       <c r="B75" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="F75" s="59">
+      <c r="F75" s="61">
         <v>5</v>
       </c>
       <c r="G75" s="40"/>
@@ -4142,10 +4148,10 @@
       <c r="C76" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F76" s="59">
+      <c r="F76" s="61">
         <v>5</v>
       </c>
-      <c r="G76" s="63" t="s">
+      <c r="G76" s="65" t="s">
         <v>54</v>
       </c>
       <c r="H76" s="38" t="s">
@@ -4169,10 +4175,10 @@
       <c r="C77" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F77" s="59">
+      <c r="F77" s="61">
         <v>5</v>
       </c>
-      <c r="G77" s="63" t="s">
+      <c r="G77" s="65" t="s">
         <v>54</v>
       </c>
       <c r="H77" s="38" t="s">
@@ -4187,7 +4193,7 @@
       <c r="C78" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="F78" s="59">
+      <c r="F78" s="61">
         <v>5</v>
       </c>
       <c r="G78" s="40" t="s">
@@ -4205,10 +4211,10 @@
       <c r="C79" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F79" s="59">
+      <c r="F79" s="61">
         <v>5</v>
       </c>
-      <c r="G79" s="63" t="s">
+      <c r="G79" s="65" t="s">
         <v>57</v>
       </c>
       <c r="H79" s="38" t="s">
@@ -4223,10 +4229,10 @@
       <c r="C80" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F80" s="59">
+      <c r="F80" s="61">
         <v>5</v>
       </c>
-      <c r="G80" s="63" t="s">
+      <c r="G80" s="65" t="s">
         <v>48</v>
       </c>
       <c r="H80" s="38" t="s">
@@ -4247,10 +4253,10 @@
       <c r="C81" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="F81" s="59">
+      <c r="F81" s="61">
         <v>5</v>
       </c>
-      <c r="G81" s="63" t="s">
+      <c r="G81" s="65" t="s">
         <v>19</v>
       </c>
       <c r="H81" s="38" t="s">
@@ -4274,10 +4280,10 @@
       <c r="D82" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="F82" s="59">
+      <c r="F82" s="61">
         <v>5</v>
       </c>
-      <c r="G82" s="63" t="s">
+      <c r="G82" s="65" t="s">
         <v>23</v>
       </c>
       <c r="H82" s="38" t="s">
@@ -4287,7 +4293,7 @@
         <v>315</v>
       </c>
       <c r="J82" s="49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K82" s="39" t="s">
         <v>7</v>
@@ -4301,7 +4307,7 @@
       <c r="B83" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="F83" s="59">
+      <c r="F83" s="61">
         <v>5</v>
       </c>
       <c r="G83" s="40"/>
@@ -4314,10 +4320,10 @@
       <c r="C84" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="59">
+      <c r="F84" s="61">
         <v>5</v>
       </c>
-      <c r="G84" s="63" t="s">
+      <c r="G84" s="65" t="s">
         <v>17</v>
       </c>
       <c r="H84" s="38" t="s">
@@ -4341,10 +4347,10 @@
       <c r="C85" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="F85" s="59">
+      <c r="F85" s="61">
         <v>5</v>
       </c>
-      <c r="G85" s="63" t="s">
+      <c r="G85" s="65" t="s">
         <v>29</v>
       </c>
       <c r="H85" s="38" t="s">
@@ -4363,10 +4369,10 @@
       <c r="C86" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="F86" s="59">
+      <c r="F86" s="61">
         <v>5</v>
       </c>
-      <c r="G86" s="63" t="s">
+      <c r="G86" s="65" t="s">
         <v>27</v>
       </c>
       <c r="H86" s="38" t="s">
@@ -4385,7 +4391,7 @@
       <c r="C87" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="F87" s="59">
+      <c r="F87" s="61">
         <v>5</v>
       </c>
       <c r="G87" s="40"/>
@@ -4410,7 +4416,7 @@
       <c r="D88" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="F88" s="59">
+      <c r="F88" s="61">
         <v>5</v>
       </c>
       <c r="G88" s="40"/>
@@ -4421,7 +4427,7 @@
         <v>315</v>
       </c>
       <c r="J88" s="49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K88" s="39" t="s">
         <v>7</v>
@@ -4435,10 +4441,10 @@
       <c r="B89" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="F89" s="59">
+      <c r="F89" s="61">
         <v>5</v>
       </c>
-      <c r="G89" s="63" t="s">
+      <c r="G89" s="65" t="s">
         <v>33</v>
       </c>
       <c r="H89" s="38" t="s">
@@ -4451,7 +4457,7 @@
       <c r="B90" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="F90" s="59">
+      <c r="F90" s="61">
         <v>5</v>
       </c>
       <c r="G90" s="40"/>
@@ -4464,10 +4470,10 @@
       <c r="C91" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="59">
+      <c r="F91" s="61">
         <v>5</v>
       </c>
-      <c r="G91" s="64" t="s">
+      <c r="G91" s="66" t="s">
         <v>83</v>
       </c>
       <c r="H91" s="38" t="s">
@@ -4491,10 +4497,10 @@
       <c r="C92" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="F92" s="59">
+      <c r="F92" s="61">
         <v>5</v>
       </c>
-      <c r="G92" s="64" t="s">
+      <c r="G92" s="66" t="s">
         <v>85</v>
       </c>
       <c r="H92" s="38" t="s">
@@ -4513,10 +4519,10 @@
       <c r="C93" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="F93" s="59">
+      <c r="F93" s="61">
         <v>5</v>
       </c>
-      <c r="G93" s="64" t="s">
+      <c r="G93" s="66" t="s">
         <v>84</v>
       </c>
       <c r="H93" s="38" t="s">
@@ -4535,10 +4541,10 @@
       <c r="C94" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="F94" s="59">
+      <c r="F94" s="61">
         <v>5</v>
       </c>
-      <c r="G94" s="64" t="s">
+      <c r="G94" s="66" t="s">
         <v>19</v>
       </c>
       <c r="H94" s="38" t="s">
@@ -4562,10 +4568,10 @@
       <c r="D95" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="F95" s="59">
+      <c r="F95" s="61">
         <v>5</v>
       </c>
-      <c r="G95" s="64" t="s">
+      <c r="G95" s="66" t="s">
         <v>23</v>
       </c>
       <c r="H95" s="38" t="s">
@@ -4575,7 +4581,7 @@
         <v>315</v>
       </c>
       <c r="J95" s="49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K95" s="39" t="s">
         <v>7</v>
@@ -4589,21 +4595,21 @@
       <c r="B96" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="F96" s="59">
+      <c r="F96" s="61">
         <v>5</v>
       </c>
-      <c r="G96" s="64"/>
+      <c r="G96" s="66"/>
       <c r="K96" s="39"/>
       <c r="L96" s="39"/>
     </row>
-    <row r="97" spans="1:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="C97" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="59">
+      <c r="F97" s="61">
         <v>5</v>
       </c>
-      <c r="G97" s="64" t="s">
+      <c r="G97" s="66" t="s">
         <v>204</v>
       </c>
       <c r="H97" s="38" t="s">
@@ -4623,166 +4629,177 @@
         <v>314</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C98" s="49" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="D98" s="49"/>
       <c r="E98" s="49"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="68"/>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49"/>
-      <c r="J98" s="49"/>
-      <c r="K98" s="52"/>
+      <c r="F98" s="69">
+        <v>5</v>
+      </c>
+      <c r="G98" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="I98" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="J98" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K98" s="54" t="s">
+        <v>325</v>
+      </c>
       <c r="L98" s="52"/>
-      <c r="M98" s="49"/>
-      <c r="O98" s="49" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C99" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="D99" s="49"/>
+      <c r="M98" s="49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="C99" s="49"/>
+      <c r="D99" s="49" t="s">
+        <v>320</v>
+      </c>
       <c r="E99" s="49"/>
-      <c r="F99" s="67">
+      <c r="F99" s="69">
         <v>5</v>
       </c>
-      <c r="G99" s="68" t="s">
-        <v>19</v>
+      <c r="G99" s="70" t="s">
+        <v>23</v>
       </c>
       <c r="H99" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="I99" s="49" t="s">
-        <v>308</v>
+      <c r="I99" s="24" t="s">
+        <v>315</v>
       </c>
       <c r="J99" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="K99" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="K99" s="54" t="s">
         <v>325</v>
       </c>
       <c r="L99" s="52"/>
       <c r="M99" s="49" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="F100" s="61">
+        <v>5</v>
+      </c>
+      <c r="G100" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="H100" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="K100" s="39"/>
+      <c r="L100" s="39"/>
+    </row>
+    <row r="101" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="F101" s="61">
+        <v>5</v>
+      </c>
+      <c r="G101" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="I101" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="J101" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K101" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="L101" s="39"/>
+      <c r="M101" s="38" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="C100" s="49"/>
-      <c r="D100" s="49" t="s">
+    <row r="102" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="C102" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="E100" s="49"/>
-      <c r="F100" s="67">
+      <c r="F102" s="61">
         <v>5</v>
       </c>
-      <c r="G100" s="68" t="s">
+      <c r="G102" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="H100" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="I100" s="24" t="s">
+      <c r="H102" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="I102" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="J100" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="K100" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="L100" s="52"/>
-      <c r="M100" s="49" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="F101" s="59">
-        <v>5</v>
-      </c>
-      <c r="G101" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="H101" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="K101" s="39"/>
-      <c r="L101" s="39"/>
-    </row>
-    <row r="102" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="F102" s="59">
-        <v>5</v>
-      </c>
-      <c r="G102" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="I102" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="J102" s="38" t="s">
-        <v>21</v>
+      <c r="J102" s="49" t="s">
+        <v>392</v>
       </c>
       <c r="K102" s="39" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="L102" s="39"/>
       <c r="M102" s="38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="C103" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="F103" s="59">
-        <v>5</v>
-      </c>
-      <c r="G103" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="H103" s="38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="F103" s="61"/>
+      <c r="G103" s="40"/>
+      <c r="K103" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="L103" s="39"/>
+    </row>
+    <row r="104" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="B104" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="45">
+        <v>6</v>
+      </c>
+      <c r="G104" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H104" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="I103" s="24" t="s">
+      <c r="I104" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="J103" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="K103" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L103" s="39"/>
-      <c r="M103" s="38" t="s">
+      <c r="J104" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K104" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="L104" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="M104" s="38" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="F104" s="59"/>
-      <c r="G104" s="40"/>
-      <c r="K104" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="L104" s="39"/>
-    </row>
-    <row r="105" spans="1:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B105" s="38" t="s">
-        <v>12</v>
+        <v>353</v>
       </c>
       <c r="F105" s="45">
         <v>6</v>
@@ -4791,62 +4808,55 @@
         <v>79</v>
       </c>
       <c r="H105" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="I105" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="J105" s="49" t="s">
-        <v>12</v>
+        <v>244</v>
+      </c>
+      <c r="I105" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="J105" s="72" t="s">
+        <v>230</v>
       </c>
       <c r="K105" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L105" s="69" t="s">
-        <v>273</v>
+      <c r="L105" s="39" t="s">
+        <v>275</v>
       </c>
       <c r="M105" s="38" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B106" s="38" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F106" s="45">
         <v>6</v>
       </c>
       <c r="G106" s="48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H106" s="38" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="J106" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="K106" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L106" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="M106" s="38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+      <c r="J106" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="K106" s="39"/>
+      <c r="L106" s="39"/>
+    </row>
+    <row r="107" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B107" s="38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F107" s="45">
         <v>6</v>
       </c>
       <c r="G107" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H107" s="38" t="s">
         <v>247</v>
@@ -4860,303 +4870,308 @@
       <c r="K107" s="39"/>
       <c r="L107" s="39"/>
     </row>
-    <row r="108" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B108" s="38" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="F108" s="45">
         <v>6</v>
       </c>
       <c r="G108" s="48" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H108" s="38" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="J108" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="K108" s="39"/>
+        <v>242</v>
+      </c>
+      <c r="J108" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K108" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="L108" s="39"/>
-    </row>
-    <row r="109" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="38" t="s">
-        <v>319</v>
+      <c r="M108" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="C109" s="38" t="s">
+        <v>320</v>
       </c>
       <c r="F109" s="45">
         <v>6</v>
       </c>
       <c r="G109" s="48" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H109" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="I109" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="J109" s="38" t="s">
-        <v>21</v>
+        <v>264</v>
+      </c>
+      <c r="I109" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="J109" s="49" t="s">
+        <v>392</v>
       </c>
       <c r="K109" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="L109" s="39"/>
+        <v>7</v>
+      </c>
+      <c r="L109" s="52"/>
       <c r="M109" s="38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="C110" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="F110" s="45">
-        <v>6</v>
-      </c>
-      <c r="G110" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="H110" s="38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="F110" s="61"/>
+      <c r="G110" s="40"/>
+      <c r="K110" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="L110" s="39"/>
+    </row>
+    <row r="111" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="B111" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="45">
+        <v>7</v>
+      </c>
+      <c r="G111" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H111" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="I110" s="24" t="s">
+      <c r="I111" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="J110" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="K110" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L110" s="52"/>
-      <c r="M110" s="38" t="s">
+      <c r="J111" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K111" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="L111" s="39"/>
+      <c r="M111" s="38" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="F111" s="59"/>
-      <c r="G111" s="40"/>
-      <c r="K111" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L111" s="39"/>
-    </row>
-    <row r="112" spans="1:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B112" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="F112" s="45">
+        <v>7</v>
+      </c>
+      <c r="G112" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H112" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="K112" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="L112" s="39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A113" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="F113" s="62">
+        <v>7</v>
+      </c>
+      <c r="G113" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="I113" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="J113" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="45">
-        <v>7</v>
-      </c>
-      <c r="G112" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="H112" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="I112" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="J112" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K112" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L112" s="39"/>
-      <c r="M112" s="38" t="s">
+      <c r="K113" s="39"/>
+      <c r="L113" s="39"/>
+      <c r="M113" s="38" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="F113" s="45">
-        <v>7</v>
-      </c>
-      <c r="G113" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H113" s="38" t="s">
+    <row r="114" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="F114" s="45">
+        <v>7</v>
+      </c>
+      <c r="G114" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="I114" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="J114" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="K114" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="L114" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="M114" s="38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="F115" s="45">
+        <v>8</v>
+      </c>
+      <c r="G115" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="H115" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="K113" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L113" s="39" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A114" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="F114" s="60">
-        <v>7</v>
-      </c>
-      <c r="G114" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="H114" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="I114" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="J114" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K114" s="39"/>
-      <c r="L114" s="39"/>
-      <c r="M114" s="38" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="F115" s="45">
-        <v>7</v>
-      </c>
-      <c r="G115" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="H115" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="I115" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="J115" s="38" t="s">
-        <v>199</v>
-      </c>
       <c r="K115" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L115" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="M115" s="38" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A116" s="49" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="F116" s="45">
         <v>8</v>
       </c>
       <c r="G116" s="48" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H116" s="38" t="s">
-        <v>247</v>
+        <v>264</v>
+      </c>
+      <c r="I116" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="J116" s="49" t="s">
+        <v>12</v>
       </c>
       <c r="K116" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L116" s="39" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A117" s="49" t="s">
-        <v>397</v>
-      </c>
-      <c r="F117" s="45">
-        <v>8</v>
-      </c>
-      <c r="G117" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="H117" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="I117" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="J117" s="49" t="s">
-        <v>12</v>
-      </c>
+      <c r="L116" s="55"/>
+      <c r="M116" s="38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="F117" s="61"/>
+      <c r="G117" s="40"/>
       <c r="K117" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L117" s="53"/>
-      <c r="M117" s="38" t="s">
-        <v>314</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="L117" s="39"/>
     </row>
     <row r="118" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="38" t="s">
+      <c r="B118" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="F118" s="61"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="I118" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="J118" s="49" t="s">
         <v>354</v>
       </c>
-      <c r="F118" s="59"/>
-      <c r="G118" s="40"/>
       <c r="K118" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="L118" s="39"/>
+        <v>7</v>
+      </c>
+      <c r="L118" s="52" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="119" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B119" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="F119" s="59"/>
-      <c r="G119" s="40"/>
+        <v>356</v>
+      </c>
+      <c r="F119" s="45">
+        <v>8</v>
+      </c>
+      <c r="G119" s="48" t="s">
+        <v>120</v>
+      </c>
       <c r="H119" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="I119" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="J119" s="49" t="s">
-        <v>354</v>
+        <v>247</v>
       </c>
       <c r="K119" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L119" s="52" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B120" s="38" t="s">
-        <v>356</v>
+        <v>111</v>
       </c>
       <c r="F120" s="45">
         <v>8</v>
       </c>
       <c r="G120" s="48" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H120" s="38" t="s">
-        <v>247</v>
+        <v>255</v>
+      </c>
+      <c r="I120" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="J120" s="49" t="s">
+        <v>252</v>
       </c>
       <c r="K120" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L120" s="52" t="s">
-        <v>273</v>
+      <c r="L120" s="39"/>
+      <c r="O120" s="49" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="121" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B121" s="38" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="F121" s="45">
         <v>8</v>
       </c>
       <c r="G121" s="48" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="H121" s="38" t="s">
         <v>255</v>
@@ -5172,78 +5187,72 @@
       </c>
       <c r="L121" s="39"/>
       <c r="O121" s="49" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="38" t="s">
-        <v>151</v>
+        <v>406</v>
       </c>
       <c r="F122" s="45">
         <v>8</v>
       </c>
       <c r="G122" s="48" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="H122" s="38" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>297</v>
+        <v>362</v>
       </c>
       <c r="J122" s="49" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="K122" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L122" s="39"/>
-      <c r="O122" s="49" t="s">
-        <v>361</v>
+      <c r="M122" s="38" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B123" s="38" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="F123" s="45">
         <v>8</v>
       </c>
       <c r="G123" s="48" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="H123" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="I123" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="J123" s="49" t="s">
-        <v>12</v>
+        <v>264</v>
+      </c>
+      <c r="I123" s="49" t="s">
+        <v>407</v>
       </c>
       <c r="K123" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L123" s="39"/>
-      <c r="M123" s="38" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="124" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B124" s="38" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="F124" s="45">
         <v>8</v>
       </c>
       <c r="G124" s="48" t="s">
-        <v>114</v>
+        <v>243</v>
       </c>
       <c r="H124" s="38" t="s">
         <v>264</v>
       </c>
       <c r="I124" s="49" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K124" s="39" t="s">
         <v>7</v>
@@ -5252,77 +5261,82 @@
     </row>
     <row r="125" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B125" s="38" t="s">
-        <v>363</v>
+        <v>188</v>
       </c>
       <c r="F125" s="45">
         <v>8</v>
       </c>
       <c r="G125" s="48" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="H125" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="I125" s="49" t="s">
-        <v>409</v>
-      </c>
-      <c r="K125" s="39" t="s">
-        <v>7</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="I125" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="K125" s="39"/>
       <c r="L125" s="39"/>
     </row>
     <row r="126" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="F126" s="45">
-        <v>8</v>
-      </c>
-      <c r="G126" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="H126" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="I126" s="38" t="s">
-        <v>281</v>
+      <c r="B126" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="F126" s="45"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="I126" s="49" t="s">
+        <v>366</v>
       </c>
       <c r="K126" s="39"/>
       <c r="L126" s="39"/>
     </row>
     <row r="127" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="49" t="s">
-        <v>365</v>
-      </c>
-      <c r="F127" s="45"/>
-      <c r="G127" s="48"/>
-      <c r="H127" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="I127" s="49" t="s">
-        <v>366</v>
-      </c>
-      <c r="K127" s="39"/>
-      <c r="L127" s="39"/>
+      <c r="C127" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F127" s="45">
+        <v>8</v>
+      </c>
+      <c r="G127" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H127" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="I127" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="J127" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="K127" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="L127" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="M127" s="38" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="128" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C128" s="38" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F128" s="45">
         <v>8</v>
       </c>
       <c r="G128" s="48" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H128" s="38" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="J128" s="38" t="s">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="K128" s="39" t="s">
         <v>7</v>
@@ -5330,26 +5344,20 @@
       <c r="L128" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M128" s="38" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="129" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C129" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F129" s="45">
         <v>8</v>
       </c>
       <c r="G129" s="48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H129" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="I129" s="38" t="s">
-        <v>299</v>
-      </c>
       <c r="K129" s="39" t="s">
         <v>7</v>
       </c>
@@ -5359,13 +5367,13 @@
     </row>
     <row r="130" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C130" s="38" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F130" s="45">
         <v>8</v>
       </c>
       <c r="G130" s="48" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H130" s="38" t="s">
         <v>255</v>
@@ -5379,16 +5387,16 @@
     </row>
     <row r="131" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C131" s="38" t="s">
-        <v>94</v>
+        <v>393</v>
       </c>
       <c r="F131" s="45">
         <v>8</v>
       </c>
       <c r="G131" s="48" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H131" s="38" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K131" s="39" t="s">
         <v>7</v>
@@ -5399,16 +5407,16 @@
     </row>
     <row r="132" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C132" s="38" t="s">
-        <v>395</v>
+        <v>96</v>
       </c>
       <c r="F132" s="45">
         <v>8</v>
       </c>
       <c r="G132" s="48" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H132" s="38" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="K132" s="39" t="s">
         <v>7</v>
@@ -5419,16 +5427,22 @@
     </row>
     <row r="133" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C133" s="38" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F133" s="45">
         <v>8</v>
       </c>
       <c r="G133" s="48" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H133" s="38" t="s">
-        <v>255</v>
+        <v>257</v>
+      </c>
+      <c r="I133" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="J133" s="49" t="s">
+        <v>100</v>
       </c>
       <c r="K133" s="39" t="s">
         <v>7</v>
@@ -5436,96 +5450,97 @@
       <c r="L133" s="39" t="s">
         <v>273</v>
       </c>
+      <c r="M133" s="38" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="134" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C134" s="38" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="F134" s="45">
         <v>8</v>
       </c>
       <c r="G134" s="48" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="H134" s="38" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="J134" s="49" t="s">
-        <v>100</v>
+        <v>367</v>
+      </c>
+      <c r="J134" s="38" t="s">
+        <v>408</v>
       </c>
       <c r="K134" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L134" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="M134" s="38" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="135" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L134" s="55"/>
+      <c r="O134" s="49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C135" s="38" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F135" s="45">
         <v>8</v>
       </c>
       <c r="G135" s="48" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H135" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="I135" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="J135" s="38" t="s">
-        <v>410</v>
+        <v>255</v>
       </c>
       <c r="K135" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L135" s="53"/>
-      <c r="O135" s="49" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="136" spans="2:15" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C136" s="38" t="s">
-        <v>149</v>
+      <c r="L135" s="39"/>
+    </row>
+    <row r="136" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C136" s="49" t="s">
+        <v>357</v>
       </c>
       <c r="F136" s="45">
         <v>8</v>
       </c>
       <c r="G136" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="H136" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H136" s="49" t="s">
         <v>255</v>
       </c>
+      <c r="I136" s="49" t="s">
+        <v>410</v>
+      </c>
       <c r="K136" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L136" s="39"/>
+      <c r="L136" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="M136" s="55"/>
+      <c r="O136" s="49" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="137" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C137" s="49" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F137" s="45">
         <v>8</v>
       </c>
       <c r="G137" s="48" t="s">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="H137" s="49" t="s">
         <v>255</v>
       </c>
       <c r="I137" s="49" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K137" s="39" t="s">
         <v>7</v>
@@ -5533,26 +5548,26 @@
       <c r="L137" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="M137" s="53"/>
+      <c r="M137" s="55"/>
       <c r="O137" s="49" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="138" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C138" s="49" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F138" s="45">
         <v>8</v>
       </c>
       <c r="G138" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="H138" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="H138" s="38" t="s">
         <v>255</v>
       </c>
       <c r="I138" s="49" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K138" s="39" t="s">
         <v>7</v>
@@ -5560,26 +5575,25 @@
       <c r="L138" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="M138" s="53"/>
-      <c r="O138" s="49" t="s">
-        <v>411</v>
-      </c>
     </row>
     <row r="139" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C139" s="49" t="s">
-        <v>359</v>
+      <c r="C139" s="38" t="s">
+        <v>348</v>
       </c>
       <c r="F139" s="45">
         <v>8</v>
       </c>
       <c r="G139" s="48" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H139" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="I139" s="49" t="s">
-        <v>412</v>
+        <v>277</v>
+      </c>
+      <c r="I139" s="73" t="s">
+        <v>278</v>
+      </c>
+      <c r="J139" s="49" t="s">
+        <v>252</v>
       </c>
       <c r="K139" s="39" t="s">
         <v>7</v>
@@ -5589,124 +5603,125 @@
       </c>
     </row>
     <row r="140" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C140" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="F140" s="45">
+      <c r="C140" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="D140" s="49"/>
+      <c r="F140" s="50">
         <v>8</v>
       </c>
-      <c r="G140" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="H140" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="I140" s="71" t="s">
-        <v>278</v>
+      <c r="G140" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="I140" s="49" t="s">
+        <v>242</v>
       </c>
       <c r="J140" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="K140" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L140" s="52" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="141" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C141" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="D141" s="49"/>
+        <v>21</v>
+      </c>
+      <c r="K140" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="L140" s="52"/>
+      <c r="M140" s="49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" s="49" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="D141" s="49" t="s">
+        <v>320</v>
+      </c>
       <c r="F141" s="50">
         <v>8</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H141" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="I141" s="49" t="s">
-        <v>242</v>
+        <v>264</v>
+      </c>
+      <c r="I141" s="24" t="s">
+        <v>315</v>
       </c>
       <c r="J141" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="K141" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="K141" s="54" t="s">
         <v>325</v>
       </c>
       <c r="L141" s="52"/>
       <c r="M141" s="49" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B142" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="C142" s="68"/>
+      <c r="F142" s="45">
+        <v>8</v>
+      </c>
+      <c r="G142" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" s="68" t="s">
+        <v>263</v>
+      </c>
+      <c r="I142" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="J142" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="K142" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="L142" s="52"/>
+      <c r="M142" s="68" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="142" spans="2:15" s="49" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="D142" s="49" t="s">
+    <row r="143" spans="2:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="B143" s="68"/>
+      <c r="C143" s="68" t="s">
         <v>320</v>
       </c>
-      <c r="F142" s="50">
-        <v>8</v>
-      </c>
-      <c r="G142" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H142" s="49" t="s">
-        <v>264</v>
-      </c>
-      <c r="I142" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="J142" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="K142" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="L142" s="52"/>
-      <c r="M142" s="49" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="143" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="C143" s="66"/>
       <c r="F143" s="45">
         <v>8</v>
       </c>
       <c r="G143" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="H143" s="66" t="s">
-        <v>263</v>
-      </c>
-      <c r="I143" s="66" t="s">
-        <v>242</v>
-      </c>
-      <c r="J143" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="K143" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="L143" s="52"/>
-      <c r="M143" s="66" t="s">
-        <v>239</v>
+        <v>23</v>
+      </c>
+      <c r="H143" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="I143" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="J143" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="K143" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="L143" s="39"/>
+      <c r="M143" s="38" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="144" spans="2:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="B144" s="66"/>
-      <c r="C144" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="F144" s="45">
+      <c r="B144" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="F144" s="61">
         <v>8</v>
       </c>
-      <c r="G144" s="48" t="s">
-        <v>23</v>
+      <c r="G144" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="H144" s="38" t="s">
         <v>264</v>
@@ -5715,106 +5730,106 @@
         <v>315</v>
       </c>
       <c r="J144" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="K144" s="39" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K144" s="39"/>
       <c r="L144" s="39"/>
       <c r="M144" s="38" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="145" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="B145" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="F145" s="59">
-        <v>8</v>
-      </c>
-      <c r="G145" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H145" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="I145" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="J145" s="49" t="s">
-        <v>12</v>
-      </c>
+    <row r="145" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="C145" s="49"/>
+      <c r="D145" s="49"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="48"/>
+      <c r="I145" s="24"/>
+      <c r="J145" s="49"/>
       <c r="K145" s="39"/>
       <c r="L145" s="39"/>
-      <c r="M145" s="38" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="146" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="49" t="s">
-        <v>371</v>
-      </c>
-      <c r="C146" s="49"/>
-      <c r="D146" s="49"/>
-      <c r="F146" s="45"/>
-      <c r="G146" s="48"/>
-      <c r="I146" s="24"/>
-      <c r="J146" s="49"/>
+      <c r="B146" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="F146" s="45">
+        <v>8</v>
+      </c>
+      <c r="G146" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="H146" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I146" s="74" t="s">
+        <v>374</v>
+      </c>
+      <c r="J146" s="49" t="s">
+        <v>252</v>
+      </c>
       <c r="K146" s="39"/>
       <c r="L146" s="39"/>
     </row>
     <row r="147" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B147" s="38" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F147" s="45">
         <v>8</v>
       </c>
-      <c r="G147" s="48" t="s">
+      <c r="G147" s="46" t="s">
         <v>148</v>
       </c>
       <c r="H147" s="38" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="I147" s="72" t="s">
-        <v>374</v>
+        <v>260</v>
       </c>
       <c r="J147" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="K147" s="39"/>
+      <c r="K147" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="L147" s="39"/>
-    </row>
-    <row r="148" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M147" s="38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="B148" s="38" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F148" s="45">
         <v>8</v>
       </c>
-      <c r="G148" s="46" t="s">
-        <v>148</v>
+      <c r="G148" s="48" t="s">
+        <v>118</v>
       </c>
       <c r="H148" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="I148" s="70" t="s">
-        <v>260</v>
+        <v>264</v>
+      </c>
+      <c r="I148" s="24" t="s">
+        <v>315</v>
       </c>
       <c r="J148" s="49" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="K148" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L148" s="39"/>
       <c r="M148" s="38" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B149" s="38" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F149" s="45">
         <v>8</v>
@@ -5823,190 +5838,181 @@
         <v>118</v>
       </c>
       <c r="H149" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="I149" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="J149" s="49" t="s">
-        <v>12</v>
+        <v>244</v>
+      </c>
+      <c r="I149" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="J149" s="75" t="s">
+        <v>371</v>
       </c>
       <c r="K149" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L149" s="39"/>
       <c r="M149" s="38" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="F150" s="45">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="F150" s="50">
         <v>8</v>
       </c>
-      <c r="G150" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="H150" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="I150" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="J150" s="73" t="s">
-        <v>371</v>
-      </c>
-      <c r="K150" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L150" s="39"/>
-      <c r="M150" s="38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="49" t="s">
-        <v>319</v>
+      <c r="G150" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H150" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="I150" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="J150" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K150" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="L150" s="52"/>
+      <c r="M150" s="49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" s="49" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="C151" s="49" t="s">
+        <v>320</v>
       </c>
       <c r="F151" s="50">
         <v>8</v>
       </c>
       <c r="G151" s="51" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H151" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="I151" s="49" t="s">
-        <v>242</v>
+        <v>264</v>
+      </c>
+      <c r="I151" s="24" t="s">
+        <v>315</v>
       </c>
       <c r="J151" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="K151" s="52" t="s">
-        <v>7</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="K151" s="52"/>
       <c r="L151" s="52"/>
       <c r="M151" s="49" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" s="49" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="C152" s="49" t="s">
-        <v>320</v>
-      </c>
-      <c r="F152" s="50">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="F152" s="61">
+        <v>9</v>
+      </c>
+      <c r="G152" s="40"/>
+      <c r="H152" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="J152" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="K152" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="L152" s="39"/>
+    </row>
+    <row r="153" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" s="61">
+        <v>9</v>
+      </c>
+      <c r="G153" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G152" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H152" s="49" t="s">
-        <v>264</v>
-      </c>
-      <c r="I152" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="J152" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="K152" s="52"/>
-      <c r="L152" s="52"/>
-      <c r="M152" s="49" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="F153" s="59">
-        <v>9</v>
-      </c>
-      <c r="G153" s="40"/>
       <c r="H153" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="J153" s="38" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="K153" s="39" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="L153" s="39"/>
     </row>
     <row r="154" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B154" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" s="59">
+        <v>310</v>
+      </c>
+      <c r="F154" s="61">
         <v>9</v>
       </c>
-      <c r="G154" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H154" s="38" t="s">
-        <v>255</v>
-      </c>
+      <c r="G154" s="40"/>
       <c r="K154" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L154" s="39"/>
     </row>
     <row r="155" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="F155" s="59">
+      <c r="C155" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F155" s="61">
         <v>9</v>
       </c>
-      <c r="G155" s="40"/>
+      <c r="G155" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="H155" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="I155" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="J155" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="K155" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L155" s="39"/>
+      <c r="M155" s="38" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="156" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C156" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F156" s="59">
+        <v>55</v>
+      </c>
+      <c r="F156" s="61">
         <v>9</v>
       </c>
-      <c r="G156" s="63" t="s">
+      <c r="G156" s="65" t="s">
         <v>54</v>
       </c>
       <c r="H156" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="I156" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="J156" s="38" t="s">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c r="K156" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L156" s="39"/>
-      <c r="M156" s="38" t="s">
-        <v>248</v>
-      </c>
     </row>
     <row r="157" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C157" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F157" s="59">
+        <v>331</v>
+      </c>
+      <c r="F157" s="61">
         <v>9</v>
       </c>
-      <c r="G157" s="63" t="s">
-        <v>54</v>
+      <c r="G157" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="H157" s="38" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K157" s="39" t="s">
         <v>7</v>
@@ -6015,16 +6021,16 @@
     </row>
     <row r="158" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C158" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="F158" s="59">
+        <v>56</v>
+      </c>
+      <c r="F158" s="61">
         <v>9</v>
       </c>
-      <c r="G158" s="40" t="s">
-        <v>46</v>
+      <c r="G158" s="65" t="s">
+        <v>57</v>
       </c>
       <c r="H158" s="38" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K158" s="39" t="s">
         <v>7</v>
@@ -6033,17 +6039,23 @@
     </row>
     <row r="159" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C159" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F159" s="59">
+        <v>47</v>
+      </c>
+      <c r="F159" s="61">
         <v>9</v>
       </c>
-      <c r="G159" s="63" t="s">
-        <v>57</v>
+      <c r="G159" s="65" t="s">
+        <v>48</v>
       </c>
       <c r="H159" s="38" t="s">
         <v>255</v>
       </c>
+      <c r="I159" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J159" s="38" t="s">
+        <v>252</v>
+      </c>
       <c r="K159" s="39" t="s">
         <v>7</v>
       </c>
@@ -6051,131 +6063,129 @@
     </row>
     <row r="160" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C160" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F160" s="59">
+        <v>319</v>
+      </c>
+      <c r="F160" s="61">
         <v>9</v>
       </c>
-      <c r="G160" s="63" t="s">
-        <v>48</v>
+      <c r="G160" s="65" t="s">
+        <v>19</v>
       </c>
       <c r="H160" s="38" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I160" s="38" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="J160" s="38" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="K160" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L160" s="39"/>
-    </row>
-    <row r="161" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C161" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="F161" s="59">
+      <c r="M160" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="D161" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="F161" s="61">
         <v>9</v>
       </c>
-      <c r="G161" s="63" t="s">
-        <v>19</v>
+      <c r="G161" s="65" t="s">
+        <v>23</v>
       </c>
       <c r="H161" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="I161" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="J161" s="38" t="s">
-        <v>21</v>
+      <c r="I161" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="J161" s="49" t="s">
+        <v>392</v>
       </c>
       <c r="K161" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L161" s="39"/>
       <c r="M161" s="38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="D162" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="F162" s="59">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B162" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="F162" s="61">
         <v>9</v>
       </c>
-      <c r="G162" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="H162" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="I162" s="24" t="s">
+      <c r="G162" s="47"/>
+      <c r="K162" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="L162" s="39"/>
+    </row>
+    <row r="163" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="C163" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="61">
+        <v>9</v>
+      </c>
+      <c r="G163" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H163" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="I163" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="J162" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="K162" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L162" s="39"/>
-      <c r="M162" s="38" t="s">
+      <c r="J163" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K163" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="L163" s="39"/>
+      <c r="M163" s="38" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="163" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="F163" s="59">
+    <row r="164" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C164" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="F164" s="61">
         <v>9</v>
       </c>
-      <c r="G163" s="47"/>
-      <c r="K163" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="L163" s="39"/>
-    </row>
-    <row r="164" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="C164" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164" s="59">
-        <v>9</v>
-      </c>
-      <c r="G164" s="40" t="s">
-        <v>17</v>
+      <c r="G164" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="H164" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="I164" s="24" t="s">
-        <v>315</v>
+        <v>247</v>
+      </c>
+      <c r="I164" s="38" t="s">
+        <v>295</v>
       </c>
       <c r="J164" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K164" s="39" t="s">
-        <v>7</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="K164" s="39"/>
       <c r="L164" s="39"/>
-      <c r="M164" s="38" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="165" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C165" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="F165" s="59">
+        <v>348</v>
+      </c>
+      <c r="F165" s="61">
         <v>9</v>
       </c>
       <c r="G165" s="47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H165" s="38" t="s">
         <v>247</v>
@@ -6191,181 +6201,186 @@
     </row>
     <row r="166" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C166" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="F166" s="59">
+        <v>319</v>
+      </c>
+      <c r="F166" s="61">
         <v>9</v>
       </c>
       <c r="G166" s="47" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H166" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I166" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="J166" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="K166" s="39"/>
+        <v>309</v>
+      </c>
+      <c r="J166" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K166" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="L166" s="39"/>
-    </row>
-    <row r="167" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C167" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="F167" s="59">
+      <c r="M166" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="D167" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="F167" s="61">
         <v>9</v>
       </c>
       <c r="G167" s="47" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H167" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="I167" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="J167" s="38" t="s">
-        <v>21</v>
+      <c r="I167" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="J167" s="49" t="s">
+        <v>392</v>
       </c>
       <c r="K167" s="39" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="L167" s="39"/>
       <c r="M167" s="38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="D168" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="F168" s="59">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B168" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="F168" s="61">
         <v>9</v>
       </c>
       <c r="G168" s="47" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H168" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="I168" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="J168" s="49" t="s">
-        <v>394</v>
+        <v>263</v>
+      </c>
+      <c r="I168" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="J168" s="38" t="s">
+        <v>21</v>
       </c>
       <c r="K168" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L168" s="39"/>
       <c r="M168" s="38" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="F169" s="59">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="C169" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="F169" s="61">
         <v>9</v>
       </c>
       <c r="G169" s="47" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H169" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="I169" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="J169" s="38" t="s">
-        <v>21</v>
+        <v>264</v>
+      </c>
+      <c r="I169" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="J169" s="49" t="s">
+        <v>392</v>
       </c>
       <c r="K169" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L169" s="39"/>
       <c r="M169" s="38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="C170" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="F170" s="59">
-        <v>9</v>
-      </c>
-      <c r="G170" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H170" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="I170" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="J170" s="49" t="s">
-        <v>394</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="F170" s="61"/>
+      <c r="G170" s="40"/>
+      <c r="J170" s="38" t="s">
+        <v>276</v>
       </c>
       <c r="K170" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L170" s="39"/>
-      <c r="M170" s="38" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="171" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="F171" s="59"/>
-      <c r="G171" s="40"/>
-      <c r="J171" s="38" t="s">
-        <v>276</v>
+      <c r="B171" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="F171" s="45">
+        <v>10</v>
+      </c>
+      <c r="G171" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H171" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="I171" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="J171" s="49" t="s">
+        <v>252</v>
       </c>
       <c r="K171" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L171" s="39"/>
     </row>
-    <row r="172" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="B172" s="38" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="F172" s="45">
         <v>10</v>
       </c>
       <c r="G172" s="48" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H172" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="I172" s="38" t="s">
-        <v>300</v>
+        <v>264</v>
+      </c>
+      <c r="I172" s="24" t="s">
+        <v>315</v>
       </c>
       <c r="J172" s="49" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="K172" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L172" s="39"/>
+      <c r="M172" s="38" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="173" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="B173" s="38" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F173" s="45">
         <v>10</v>
       </c>
       <c r="G173" s="48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H173" s="38" t="s">
         <v>264</v>
@@ -6384,263 +6399,236 @@
         <v>314</v>
       </c>
     </row>
-    <row r="174" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B174" s="38" t="s">
-        <v>384</v>
+        <v>319</v>
       </c>
       <c r="F174" s="45">
         <v>10</v>
       </c>
       <c r="G174" s="48" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="H174" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="I174" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="J174" s="49" t="s">
-        <v>12</v>
+        <v>263</v>
+      </c>
+      <c r="I174" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="J174" s="38" t="s">
+        <v>21</v>
       </c>
       <c r="K174" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L174" s="39"/>
       <c r="M174" s="38" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="38" t="s">
-        <v>319</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="C175" s="38" t="s">
+        <v>320</v>
       </c>
       <c r="F175" s="45">
         <v>10</v>
       </c>
       <c r="G175" s="48" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H175" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="I175" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="J175" s="38" t="s">
-        <v>21</v>
+        <v>264</v>
+      </c>
+      <c r="I175" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="J175" s="49" t="s">
+        <v>392</v>
       </c>
       <c r="K175" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L175" s="39"/>
       <c r="M175" s="38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="C176" s="38" t="s">
-        <v>320</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="38" t="s">
+        <v>380</v>
       </c>
       <c r="F176" s="45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G176" s="48" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H176" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="I176" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="J176" s="49" t="s">
-        <v>394</v>
+        <v>247</v>
       </c>
       <c r="K176" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L176" s="39"/>
-      <c r="M176" s="38" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="177" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="38" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F177" s="45">
         <v>11</v>
       </c>
       <c r="G177" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H177" s="38" t="s">
-        <v>247</v>
+        <v>245</v>
+      </c>
+      <c r="J177" s="53" t="s">
+        <v>369</v>
       </c>
       <c r="K177" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L177" s="39"/>
+      <c r="O177" s="49" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="178" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="F178" s="45">
-        <v>11</v>
-      </c>
-      <c r="G178" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="H178" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="J178" s="49" t="s">
-        <v>369</v>
-      </c>
-      <c r="K178" s="39" t="s">
-        <v>7</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="F178" s="61">
+        <v>12</v>
+      </c>
+      <c r="G178" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H178" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="I178" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J178" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="K178" s="39"/>
       <c r="L178" s="39"/>
-      <c r="O178" s="49" t="s">
-        <v>413</v>
-      </c>
     </row>
     <row r="179" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="F179" s="59">
-        <v>12</v>
-      </c>
-      <c r="G179" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H179" s="74" t="s">
-        <v>255</v>
-      </c>
-      <c r="I179" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="J179" s="38" t="s">
-        <v>386</v>
-      </c>
+      <c r="A179" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="F179" s="61"/>
+      <c r="G179" s="40"/>
       <c r="K179" s="39"/>
       <c r="L179" s="39"/>
     </row>
     <row r="180" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="F180" s="59"/>
-      <c r="G180" s="40"/>
+      <c r="B180" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="F180" s="45">
+        <v>13</v>
+      </c>
+      <c r="G180" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H180" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="I180" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="J180" s="38" t="s">
+        <v>246</v>
+      </c>
       <c r="K180" s="39"/>
       <c r="L180" s="39"/>
     </row>
-    <row r="181" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="66" t="s">
-        <v>328</v>
+    <row r="181" spans="1:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="B181" s="49" t="s">
+        <v>327</v>
       </c>
       <c r="F181" s="45">
         <v>13</v>
       </c>
       <c r="G181" s="48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H181" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="I181" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="J181" s="38" t="s">
-        <v>246</v>
+        <v>264</v>
+      </c>
+      <c r="I181" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="J181" s="49" t="s">
+        <v>12</v>
       </c>
       <c r="K181" s="39"/>
       <c r="L181" s="39"/>
-    </row>
-    <row r="182" spans="1:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="B182" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="F182" s="45">
-        <v>13</v>
-      </c>
-      <c r="G182" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H182" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="I182" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="J182" s="49" t="s">
-        <v>12</v>
-      </c>
+      <c r="M181" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="O181" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="F182" s="61"/>
+      <c r="G182" s="40"/>
       <c r="K182" s="39"/>
       <c r="L182" s="39"/>
-      <c r="M182" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="O182" s="49" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="183" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="F183" s="59"/>
-      <c r="G183" s="40"/>
+      <c r="B183" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="F183" s="45">
+        <v>13</v>
+      </c>
+      <c r="G183" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H183" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="I183" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="J183" s="38" t="s">
+        <v>246</v>
+      </c>
       <c r="K183" s="39"/>
       <c r="L183" s="39"/>
     </row>
-    <row r="184" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="38" t="s">
-        <v>330</v>
+    <row r="184" spans="1:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="B184" s="49" t="s">
+        <v>341</v>
       </c>
       <c r="F184" s="45">
         <v>13</v>
       </c>
       <c r="G184" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H184" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="I184" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="J184" s="38" t="s">
-        <v>246</v>
+        <v>38</v>
+      </c>
+      <c r="H184" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="I184" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="J184" s="49" t="s">
+        <v>12</v>
       </c>
       <c r="K184" s="39"/>
       <c r="L184" s="39"/>
-    </row>
-    <row r="185" spans="1:15" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="B185" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="F185" s="45">
-        <v>13</v>
-      </c>
-      <c r="G185" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H185" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="I185" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="J185" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K185" s="39"/>
-      <c r="L185" s="39"/>
-      <c r="M185" s="38" t="s">
+      <c r="M184" s="38" t="s">
         <v>314</v>
       </c>
     </row>

--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Temp\GitHub\Haal-Centraal-BRP-bevragen\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460755C9-829B-4169-84C4-E5140D5ED7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC745354-0BB3-42C3-AB39-258F959B7DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="8" r:id="rId1"/>
@@ -1345,9 +1345,6 @@
     <t>verblijfplaats.inOnderzoek.aanduidingGegevensInOnderzoek vertalen naar boolean properties</t>
   </si>
   <si>
-    <t>afleiden uit verblijfplaats en gemeenteVanInschrijving</t>
-  </si>
-  <si>
     <t>afleiden uit verblijfplaats.regel3</t>
   </si>
   <si>
@@ -1413,13 +1410,16 @@
   <si>
     <t>vullen uit verblijfplaats.datumAanvangAdreshouding Of verblijfplaats.datumAanvangAdresBuitenland + 
 vertalen naar datum, jaar, jaar+maand of onbekend, afleiden langFormaat</t>
+  </si>
+  <si>
+    <t>afleiden uit verblijfplaats.postcode + verblijfplaats.woonplaats + gemeenteVanInschrijving + verblijfplaats.regel2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1481,12 +1481,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1729,10 +1723,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1775,7 +1769,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1792,7 +1786,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1807,25 +1801,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1873,7 +1867,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2344,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7380049-AEA3-4668-9EEB-CE97A62EC12D}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
@@ -2446,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D5" s="57"/>
       <c r="E5" s="71" t="s">
@@ -2571,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D11" s="57"/>
       <c r="E11" s="71" t="s">
@@ -2785,7 +2779,7 @@
         <v>77</v>
       </c>
       <c r="B22" s="107" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="71"/>
@@ -2882,7 +2876,7 @@
         <v>77</v>
       </c>
       <c r="B27" s="107" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="71"/>
@@ -2999,7 +2993,7 @@
         <v>77</v>
       </c>
       <c r="B33" s="102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C33" s="103"/>
       <c r="D33" s="57"/>
@@ -3211,7 +3205,7 @@
       </c>
       <c r="B44" s="87"/>
       <c r="C44" s="56" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D44" s="57"/>
       <c r="E44" s="71" t="s">
@@ -3250,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="107" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D46" s="57"/>
       <c r="E46" s="71"/>
@@ -3347,7 +3341,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="107" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D51" s="57"/>
       <c r="E51" s="71"/>
@@ -3444,7 +3438,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="107" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D56" s="57"/>
       <c r="E56" s="71"/>
@@ -3521,7 +3515,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="108" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D60" s="57"/>
       <c r="E60" s="71"/>
@@ -3578,7 +3572,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C63" s="103"/>
       <c r="D63" s="57"/>
@@ -3713,7 +3707,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C70" s="103"/>
       <c r="D70" s="57"/>
@@ -3771,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="107" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D73" s="57"/>
       <c r="E73" s="71" t="s">
@@ -4217,7 +4211,7 @@
         <v>8</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C95" s="56" t="s">
         <v>251</v>
@@ -4238,7 +4232,7 @@
         <v>8</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C96" s="56" t="s">
         <v>251</v>
@@ -4301,7 +4295,7 @@
         <v>8</v>
       </c>
       <c r="B99" s="102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C99" s="104"/>
       <c r="D99" s="40"/>
@@ -4471,7 +4465,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="107" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D108" s="57"/>
       <c r="E108" s="71"/>
@@ -4568,7 +4562,7 @@
         <v>9</v>
       </c>
       <c r="B113" s="109" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D113" s="57"/>
       <c r="E113" s="71"/>
@@ -4645,7 +4639,7 @@
         <v>9</v>
       </c>
       <c r="B117" s="102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D117" s="57"/>
       <c r="E117" s="71"/>
@@ -4777,7 +4771,7 @@
         <v>10</v>
       </c>
       <c r="B124" s="102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D124" s="57"/>
       <c r="E124" s="71"/>
@@ -4954,7 +4948,7 @@
         <v>41</v>
       </c>
       <c r="C133" s="51" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D133" s="57"/>
       <c r="E133" s="71"/>
@@ -5011,7 +5005,7 @@
         <v>40</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D136" s="57"/>
       <c r="E136" s="71"/>
@@ -5054,9 +5048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F3B9D-634A-C449-A474-F9F6FE9216B2}">
   <dimension ref="A1:R202"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5197,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>279</v>
@@ -5361,7 +5355,7 @@
       <c r="K10" s="50"/>
       <c r="L10" s="50"/>
       <c r="M10" s="63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N10" s="50" t="s">
         <v>248</v>
@@ -5690,7 +5684,7 @@
       </c>
       <c r="Q22" s="63"/>
     </row>
-    <row r="23" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" s="48" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="57"/>
       <c r="B23" s="100"/>
       <c r="C23" s="50"/>
@@ -5705,8 +5699,8 @@
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
       <c r="L23" s="65"/>
-      <c r="M23" s="64" t="s">
-        <v>382</v>
+      <c r="M23" s="70" t="s">
+        <v>404</v>
       </c>
       <c r="N23" s="51" t="s">
         <v>99</v>
@@ -5735,7 +5729,7 @@
       <c r="K24" s="65"/>
       <c r="L24" s="65"/>
       <c r="M24" s="64" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N24" s="53" t="s">
         <v>329</v>
@@ -5819,7 +5813,7 @@
       <c r="K27" s="50"/>
       <c r="L27" s="50"/>
       <c r="M27" s="64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N27" s="51" t="s">
         <v>21</v>
@@ -5891,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="107" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C30" s="50" t="s">
         <v>311</v>
@@ -5971,7 +5965,7 @@
       <c r="K32" s="50"/>
       <c r="L32" s="50"/>
       <c r="M32" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N32" s="51" t="s">
         <v>248</v>
@@ -6004,7 +5998,7 @@
       <c r="K33" s="50"/>
       <c r="L33" s="50"/>
       <c r="M33" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N33" s="51" t="s">
         <v>248</v>
@@ -6444,7 +6438,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="107" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C49" s="50"/>
       <c r="D49" s="50" t="s">
@@ -6598,7 +6592,7 @@
       <c r="K54" s="50"/>
       <c r="L54" s="50"/>
       <c r="M54" s="63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N54" s="50" t="s">
         <v>248</v>
@@ -6684,7 +6678,7 @@
         <v>77</v>
       </c>
       <c r="B58" s="107" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="50" t="s">
@@ -6762,7 +6756,7 @@
       <c r="K60" s="50"/>
       <c r="L60" s="50"/>
       <c r="M60" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N60" s="51" t="s">
         <v>248</v>
@@ -6795,7 +6789,7 @@
       <c r="K61" s="50"/>
       <c r="L61" s="50"/>
       <c r="M61" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N61" s="51" t="s">
         <v>248</v>
@@ -6938,7 +6932,7 @@
         <v>77</v>
       </c>
       <c r="B67" s="102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C67" s="50"/>
       <c r="D67" s="50" t="s">
@@ -7102,7 +7096,7 @@
       <c r="K72" s="50"/>
       <c r="L72" s="50"/>
       <c r="M72" s="63" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N72" s="51" t="s">
         <v>301</v>
@@ -7135,7 +7129,7 @@
       <c r="K73" s="50"/>
       <c r="L73" s="50"/>
       <c r="M73" s="63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N73" s="51" t="s">
         <v>248</v>
@@ -7363,7 +7357,7 @@
         <v>5</v>
       </c>
       <c r="B81" s="107" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C81" s="50"/>
       <c r="D81" s="50" t="s">
@@ -7517,7 +7511,7 @@
       <c r="K86" s="50"/>
       <c r="L86" s="50"/>
       <c r="M86" s="63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N86" s="50" t="s">
         <v>248</v>
@@ -7603,7 +7597,7 @@
         <v>5</v>
       </c>
       <c r="B90" s="107" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C90" s="50"/>
       <c r="D90" s="50" t="s">
@@ -7681,7 +7675,7 @@
       <c r="K92" s="50"/>
       <c r="L92" s="50"/>
       <c r="M92" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N92" s="51" t="s">
         <v>248</v>
@@ -7712,7 +7706,7 @@
       <c r="K93" s="50"/>
       <c r="L93" s="50"/>
       <c r="M93" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N93" s="51" t="s">
         <v>248</v>
@@ -7822,7 +7816,7 @@
         <v>5</v>
       </c>
       <c r="B98" s="107" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
@@ -7900,7 +7894,7 @@
       <c r="K100" s="50"/>
       <c r="L100" s="50"/>
       <c r="M100" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N100" s="51" t="s">
         <v>248</v>
@@ -7931,7 +7925,7 @@
       <c r="K101" s="50"/>
       <c r="L101" s="50"/>
       <c r="M101" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N101" s="51" t="s">
         <v>248</v>
@@ -8015,7 +8009,7 @@
         <v>5</v>
       </c>
       <c r="B105" s="108" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C105" s="50"/>
       <c r="D105" s="50" t="s">
@@ -8173,7 +8167,7 @@
         <v>5</v>
       </c>
       <c r="B111" s="102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C111" s="50"/>
       <c r="D111" s="50" t="s">
@@ -8370,7 +8364,7 @@
       <c r="K117" s="50"/>
       <c r="L117" s="50"/>
       <c r="M117" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N117" s="51" t="s">
         <v>248</v>
@@ -8401,7 +8395,7 @@
       <c r="K118" s="50"/>
       <c r="L118" s="50"/>
       <c r="M118" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N118" s="51" t="s">
         <v>248</v>
@@ -8415,7 +8409,7 @@
         <v>6</v>
       </c>
       <c r="B119" s="102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C119" s="50"/>
       <c r="D119" s="50" t="s">
@@ -8509,7 +8503,7 @@
         <v>7</v>
       </c>
       <c r="B122" s="107" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C122" s="50" t="s">
         <v>315</v>
@@ -8829,7 +8823,7 @@
       <c r="K132" s="50"/>
       <c r="L132" s="50"/>
       <c r="M132" s="63" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N132" s="51" t="s">
         <v>248</v>
@@ -8865,7 +8859,7 @@
       <c r="K133" s="50"/>
       <c r="L133" s="50"/>
       <c r="M133" s="63" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N133" s="51" t="s">
         <v>248</v>
@@ -8893,7 +8887,7 @@
       <c r="K134" s="50"/>
       <c r="L134" s="50"/>
       <c r="M134" s="70" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N134" s="51" t="s">
         <v>12</v>
@@ -9090,7 +9084,7 @@
       <c r="K141" s="50"/>
       <c r="L141" s="50"/>
       <c r="M141" s="63" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O141" s="35" t="s">
         <v>7</v>
@@ -9270,7 +9264,7 @@
         <v>8</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C148" s="50"/>
       <c r="D148" s="65" t="s">
@@ -9300,7 +9294,7 @@
         <v>8</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C149" s="50"/>
       <c r="D149" s="65" t="s">
@@ -9375,7 +9369,7 @@
       <c r="K151" s="50"/>
       <c r="L151" s="50"/>
       <c r="M151" s="72" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N151" s="51" t="s">
         <v>248</v>
@@ -9462,7 +9456,7 @@
         <v>8</v>
       </c>
       <c r="B155" s="102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C155" s="50"/>
       <c r="D155" s="30" t="s">
@@ -9632,7 +9626,7 @@
       <c r="K160" s="50"/>
       <c r="L160" s="50"/>
       <c r="M160" s="64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N160" s="51" t="s">
         <v>248</v>
@@ -9864,7 +9858,7 @@
         <v>9</v>
       </c>
       <c r="B169" s="107" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C169" s="50"/>
       <c r="D169" s="50" t="s">
@@ -10018,7 +10012,7 @@
       <c r="K174" s="50"/>
       <c r="L174" s="50"/>
       <c r="M174" s="63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N174" s="48" t="s">
         <v>248</v>
@@ -10104,7 +10098,7 @@
         <v>9</v>
       </c>
       <c r="B178" s="109" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C178" s="50"/>
       <c r="D178" s="50" t="s">
@@ -10182,7 +10176,7 @@
       <c r="K180" s="50"/>
       <c r="L180" s="50"/>
       <c r="M180" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N180" s="51" t="s">
         <v>248</v>
@@ -10213,7 +10207,7 @@
       <c r="K181" s="50"/>
       <c r="L181" s="50"/>
       <c r="M181" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N181" s="51" t="s">
         <v>248</v>
@@ -10297,7 +10291,7 @@
         <v>9</v>
       </c>
       <c r="B185" s="102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C185" s="50"/>
       <c r="D185" s="50" t="s">
@@ -10437,7 +10431,7 @@
       <c r="K189" s="50"/>
       <c r="L189" s="50"/>
       <c r="M189" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N189" s="51" t="s">
         <v>248</v>
@@ -10519,7 +10513,7 @@
         <v>10</v>
       </c>
       <c r="B192" s="102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C192" s="50"/>
       <c r="D192" s="50" t="s">

--- a/docs/BRP-LO GBA mapping.xlsx
+++ b/docs/BRP-LO GBA mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Temp\GitHub\Haal-Centraal-BRP-bevragen\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFBC18E-F1E1-4335-8979-7D481A4EDE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2970244-0770-4B49-B040-D95FE91B17AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{CFFF4633-4B69-4548-86A4-A55F8CEA29ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="8" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="390">
   <si>
     <t>categorie</t>
   </si>
@@ -1059,18 +1059,12 @@
     <t>redenOpname</t>
   </si>
   <si>
-    <t>In nationaliteit.feature is nog geen scenario waarin de waarde 000 er uitgefilterd wordt.</t>
-  </si>
-  <si>
     <t>aanduidingBijzonderNederlanderschap</t>
   </si>
   <si>
     <t>einddatumUitsluiting</t>
   </si>
   <si>
-    <t>Waarom heet deze 'einddatum' en die van europeesKiesrecht 'einddatumUitsluiting'?</t>
-  </si>
-  <si>
     <t>persoonInOnderzoek</t>
   </si>
   <si>
@@ -1122,21 +1116,12 @@
     <t>regel3</t>
   </si>
   <si>
-    <t>Uit verblijfplaats.feature blijkt niet dat de 0000000000000000 waarde uitgefilterd moet worden. Tenminste in het scenario waarin 11:80 niet die waarde heeft wordt de opname van de gerelateerde property ook niet expliciet gemaakt.</t>
-  </si>
-  <si>
-    <t>Uit verblijfplaats.feature blijkt niet dat de 0000000000000000 waarde uitgefilterd moet worden. Tenminste in het scenario waarin 11:90 niet die waarde heeft wordt de opname van de gerelateerde property ook niet expliciet gemaakt.</t>
-  </si>
-  <si>
     <t>datumAanvangAdresBuitenland</t>
   </si>
   <si>
     <t>verblijfadres</t>
   </si>
   <si>
-    <t>Uit adres.feature blijkt niet dat de . waarde uitgefilterd moet worden.</t>
-  </si>
-  <si>
     <t>?????</t>
   </si>
   <si>
@@ -1204,9 +1189,6 @@
   </si>
   <si>
     <t>niet plaatsen als verblijfplaats.type != VerblijfplaatsBuitenland</t>
-  </si>
-  <si>
-    <t>In adres.feature wordt niet aangegeven waar deze property zijn waarde vandaan moet halen.</t>
   </si>
   <si>
     <t>Geeft aan hoe het gegeven door de RvIG middels de GBA variant van de API aan de proxy applicatie geleverd wordt.</t>
@@ -1584,7 +1566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1722,9 +1704,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1918,19 +1897,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfplaatshistorie" connectionId="5" xr16:uid="{20C89C14-52C3-BC4A-AE7B-7774BDE871DE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetPartnerhistorie" connectionId="4" xr16:uid="{26EA40DB-B172-5747-89E1-403320CC8B7A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfstitelhistorie" connectionId="6" xr16:uid="{D84B9166-BEDF-6348-AE8D-223137517573}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetNationaliteithistorie" connectionId="3" xr16:uid="{1126B2BD-5C1E-CC48-A3D0-27049524F5AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GetVerblijfplaatshistorie" connectionId="5" xr16:uid="{20C89C14-52C3-BC4A-AE7B-7774BDE871DE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2271,7 +2250,7 @@
         <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2279,7 +2258,7 @@
         <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2287,7 +2266,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2295,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2303,7 +2282,7 @@
         <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2311,7 +2290,7 @@
         <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2323,55 +2302,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7380049-AEA3-4668-9EEB-CE97A62EC12D}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="3.1640625" style="80" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="80" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="90" customWidth="1"/>
-    <col min="8" max="8" width="57.83203125" style="80" customWidth="1"/>
-    <col min="9" max="9" width="8.58203125" style="80" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="89" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="80"/>
+    <col min="1" max="4" width="3.1640625" style="79" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="79" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="89" customWidth="1"/>
+    <col min="8" max="8" width="57.83203125" style="79" customWidth="1"/>
+    <col min="9" max="9" width="8.58203125" style="79" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="88" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
-        <v>390</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="74" t="s">
+      <c r="A1" s="77" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="76" t="s">
-        <v>389</v>
+      <c r="H1" s="75" t="s">
+        <v>383</v>
       </c>
       <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="76" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>249</v>
       </c>
       <c r="F2" s="46"/>
-      <c r="G2" s="107"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="47" t="s">
         <v>272</v>
       </c>
@@ -2382,56 +2359,56 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="70" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>1</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I3" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J3" s="108"/>
-      <c r="K3" s="109"/>
-    </row>
-    <row r="4" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="71" t="s">
+      <c r="J3" s="107"/>
+      <c r="K3" s="108"/>
+    </row>
+    <row r="4" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="70" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="57">
+      <c r="F4" s="56">
         <v>1</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="70" t="s">
         <v>275</v>
       </c>
       <c r="B5" s="30"/>
@@ -2441,15 +2418,15 @@
       <c r="F5" s="40">
         <v>1</v>
       </c>
-      <c r="G5" s="102"/>
+      <c r="G5" s="101"/>
       <c r="I5" s="35" t="s">
         <v>233</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="71"/>
+    <row r="6" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="70"/>
       <c r="B6" s="30" t="s">
         <v>55</v>
       </c>
@@ -2462,44 +2439,44 @@
       <c r="G6" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I6" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="71"/>
+    <row r="7" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="70"/>
       <c r="B7" s="30" t="s">
         <v>292</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="57">
+      <c r="F7" s="56">
         <v>1</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="55" t="s">
         <v>245</v>
       </c>
       <c r="I7" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J7" s="110" t="s">
+      <c r="J7" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
+    <row r="8" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="70"/>
       <c r="B8" s="30" t="s">
         <v>56</v>
       </c>
@@ -2512,19 +2489,19 @@
       <c r="G8" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I8" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J8" s="110" t="s">
+      <c r="J8" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K8" s="30"/>
     </row>
-    <row r="9" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
+    <row r="9" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="70"/>
       <c r="B9" s="30" t="s">
         <v>47</v>
       </c>
@@ -2537,19 +2514,19 @@
       <c r="G9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I9" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J9" s="110" t="s">
+      <c r="J9" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71"/>
+    <row r="10" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="70"/>
       <c r="B10" s="30" t="s">
         <v>294</v>
       </c>
@@ -2562,7 +2539,7 @@
       <c r="G10" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="55" t="s">
         <v>244</v>
       </c>
       <c r="I10" s="35" t="s">
@@ -2571,9 +2548,9 @@
       <c r="J10" s="27"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="71" t="s">
-        <v>306</v>
+    <row r="11" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="70" t="s">
+        <v>304</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -2582,15 +2559,15 @@
       <c r="F11" s="40">
         <v>1</v>
       </c>
-      <c r="G11" s="102"/>
+      <c r="G11" s="101"/>
       <c r="I11" s="35" t="s">
         <v>233</v>
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
+    <row r="12" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="70"/>
       <c r="B12" s="30" t="s">
         <v>12</v>
       </c>
@@ -2603,21 +2580,21 @@
       <c r="G12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I12" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J12" s="110" t="s">
+      <c r="J12" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="71"/>
+    <row r="13" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="70"/>
       <c r="B13" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -2628,7 +2605,7 @@
       <c r="G13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="55" t="s">
         <v>244</v>
       </c>
       <c r="I13" s="35" t="s">
@@ -2637,10 +2614,10 @@
       <c r="J13" s="27"/>
       <c r="K13" s="30"/>
     </row>
-    <row r="14" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="71"/>
+    <row r="14" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="70"/>
       <c r="B14" s="30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -2651,7 +2628,7 @@
       <c r="G14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="55" t="s">
         <v>244</v>
       </c>
       <c r="I14" s="35" t="s">
@@ -2660,8 +2637,8 @@
       <c r="J14" s="27"/>
       <c r="K14" s="30"/>
     </row>
-    <row r="15" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="71" t="s">
+    <row r="15" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="70" t="s">
         <v>281</v>
       </c>
       <c r="B15" s="30"/>
@@ -2674,20 +2651,20 @@
       <c r="G15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="55" t="s">
         <v>244</v>
       </c>
       <c r="I15" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J15" s="110" t="s">
+      <c r="J15" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K15" s="30"/>
     </row>
-    <row r="16" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="64" t="s">
-        <v>302</v>
+    <row r="16" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="63" t="s">
+        <v>300</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -2700,10 +2677,10 @@
       <c r="J16" s="27"/>
       <c r="K16" s="30"/>
     </row>
-    <row r="17" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65" t="s">
-        <v>356</v>
+    <row r="17" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="63"/>
+      <c r="B17" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -2723,9 +2700,9 @@
       <c r="J17" s="34"/>
       <c r="K17" s="30"/>
     </row>
-    <row r="18" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="64"/>
-      <c r="B18" s="65" t="s">
+    <row r="18" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="63"/>
+      <c r="B18" s="64" t="s">
         <v>283</v>
       </c>
       <c r="C18" s="30"/>
@@ -2746,60 +2723,60 @@
       <c r="J18" s="34"/>
       <c r="K18" s="30"/>
     </row>
-    <row r="19" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="71" t="s">
+    <row r="19" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="70" t="s">
         <v>268</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="56" t="s">
+      <c r="G19" s="82"/>
+      <c r="H19" s="55" t="s">
         <v>270</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:11" s="88" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="86"/>
-      <c r="B20" s="87" t="s">
-        <v>343</v>
-      </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="84" t="s">
+    <row r="20" spans="1:11" s="87" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="85"/>
+      <c r="B20" s="86" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="85"/>
-      <c r="H20" s="96" t="s">
-        <v>358</v>
+      <c r="G20" s="84"/>
+      <c r="H20" s="95" t="s">
+        <v>352</v>
       </c>
       <c r="I20" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J20" s="111"/>
-      <c r="K20" s="87"/>
-    </row>
-    <row r="21" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="71"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="86"/>
+    </row>
+    <row r="21" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="70"/>
       <c r="B21" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I21" s="35" t="s">
@@ -2808,39 +2785,39 @@
       <c r="J21" s="27"/>
       <c r="K21" s="30"/>
     </row>
-    <row r="22" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="71"/>
+    <row r="22" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="70"/>
       <c r="B22" s="30" t="s">
         <v>275</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="102"/>
+      <c r="G22" s="101"/>
       <c r="I22" s="35" t="s">
         <v>233</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="30"/>
     </row>
-    <row r="23" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="71"/>
+    <row r="23" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="70"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I23" s="35" t="s">
@@ -2849,21 +2826,21 @@
       <c r="J23" s="27"/>
       <c r="K23" s="30"/>
     </row>
-    <row r="24" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="71"/>
+    <row r="24" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="70"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="83" t="s">
+      <c r="G24" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="56" t="s">
+      <c r="H24" s="55" t="s">
         <v>245</v>
       </c>
       <c r="I24" s="35" t="s">
@@ -2872,21 +2849,21 @@
       <c r="J24" s="27"/>
       <c r="K24" s="30"/>
     </row>
-    <row r="25" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="71"/>
+    <row r="25" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="70"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="H25" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I25" s="35" t="s">
@@ -2895,21 +2872,21 @@
       <c r="J25" s="27"/>
       <c r="K25" s="30"/>
     </row>
-    <row r="26" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71"/>
+    <row r="26" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="70"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="56" t="s">
+      <c r="H26" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I26" s="35" t="s">
@@ -2918,39 +2895,39 @@
       <c r="J26" s="27"/>
       <c r="K26" s="30"/>
     </row>
-    <row r="27" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="71"/>
+    <row r="27" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="70"/>
       <c r="B27" s="30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="102"/>
+      <c r="G27" s="101"/>
       <c r="I27" s="35" t="s">
         <v>233</v>
       </c>
       <c r="J27" s="27"/>
       <c r="K27" s="30"/>
     </row>
-    <row r="28" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="71"/>
+    <row r="28" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="70"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="56" t="s">
+      <c r="H28" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I28" s="35" t="s">
@@ -2959,21 +2936,21 @@
       <c r="J28" s="27"/>
       <c r="K28" s="30"/>
     </row>
-    <row r="29" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="71"/>
+    <row r="29" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="70"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="56" t="s">
+      <c r="H29" s="55" t="s">
         <v>244</v>
       </c>
       <c r="I29" s="35" t="s">
@@ -2982,21 +2959,21 @@
       <c r="J29" s="27"/>
       <c r="K29" s="30"/>
     </row>
-    <row r="30" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="71"/>
+    <row r="30" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="70"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="56" t="s">
+      <c r="H30" s="55" t="s">
         <v>244</v>
       </c>
       <c r="I30" s="35" t="s">
@@ -3005,74 +2982,74 @@
       <c r="J30" s="27"/>
       <c r="K30" s="30"/>
     </row>
-    <row r="31" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="71"/>
+    <row r="31" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="70"/>
       <c r="B31" s="30" t="s">
         <v>281</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="83" t="s">
+      <c r="G31" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="56" t="s">
+      <c r="H31" s="55" t="s">
         <v>244</v>
       </c>
       <c r="J31" s="27"/>
       <c r="K31" s="30"/>
     </row>
-    <row r="32" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="71"/>
+    <row r="32" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="70"/>
       <c r="B32" s="30" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="56" t="s">
+      <c r="H32" s="55" t="s">
         <v>255</v>
       </c>
       <c r="J32" s="27"/>
       <c r="K32" s="30"/>
     </row>
-    <row r="33" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="71"/>
+    <row r="33" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="70"/>
       <c r="B33" s="30" t="s">
         <v>282</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="97"/>
-      <c r="H33" s="98"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="97"/>
       <c r="J33" s="27"/>
       <c r="K33" s="30"/>
     </row>
-    <row r="34" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="64"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65" t="s">
-        <v>356</v>
+    <row r="34" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="63"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="97" t="s">
+      <c r="G34" s="96" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="51" t="s">
@@ -3084,21 +3061,21 @@
       <c r="J34" s="34"/>
       <c r="K34" s="30"/>
     </row>
-    <row r="35" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="71"/>
+    <row r="35" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="70"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30" t="s">
         <v>283</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="57" t="s">
+      <c r="F35" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="56" t="s">
+      <c r="H35" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I35" s="35" t="s">
@@ -3107,8 +3084,8 @@
       <c r="J35" s="27"/>
       <c r="K35" s="30"/>
     </row>
-    <row r="36" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="71" t="s">
+    <row r="36" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="70" t="s">
         <v>295</v>
       </c>
       <c r="B36" s="30"/>
@@ -3118,15 +3095,15 @@
       <c r="F36" s="40">
         <v>4</v>
       </c>
-      <c r="G36" s="83"/>
-      <c r="I36" s="55" t="s">
+      <c r="G36" s="82"/>
+      <c r="I36" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="J36" s="112"/>
+      <c r="J36" s="111"/>
       <c r="K36" s="30"/>
     </row>
-    <row r="37" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="71"/>
+    <row r="37" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="70"/>
       <c r="B37" s="30" t="s">
         <v>296</v>
       </c>
@@ -3139,7 +3116,7 @@
       <c r="G37" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="56" t="s">
+      <c r="H37" s="55" t="s">
         <v>244</v>
       </c>
       <c r="I37" s="35" t="s">
@@ -3148,8 +3125,8 @@
       <c r="J37" s="27"/>
       <c r="K37" s="30"/>
     </row>
-    <row r="38" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="71"/>
+    <row r="38" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="70"/>
       <c r="B38" s="30" t="s">
         <v>297</v>
       </c>
@@ -3162,17 +3139,17 @@
       <c r="G38" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="56" t="s">
+      <c r="H38" s="55" t="s">
         <v>244</v>
       </c>
       <c r="I38" s="35"/>
       <c r="J38" s="27"/>
       <c r="K38" s="30"/>
     </row>
-    <row r="39" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="71"/>
+    <row r="39" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="70"/>
       <c r="B39" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
@@ -3183,7 +3160,7 @@
       <c r="G39" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="56" t="s">
+      <c r="H39" s="55" t="s">
         <v>244</v>
       </c>
       <c r="I39" s="35" t="s">
@@ -3192,8 +3169,8 @@
       <c r="J39" s="27"/>
       <c r="K39" s="30"/>
     </row>
-    <row r="40" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="71"/>
+    <row r="40" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="70"/>
       <c r="B40" s="30" t="s">
         <v>282</v>
       </c>
@@ -3204,18 +3181,18 @@
         <v>4</v>
       </c>
       <c r="G40" s="33"/>
-      <c r="H40" s="98"/>
+      <c r="H40" s="97"/>
       <c r="I40" s="35" t="s">
         <v>42</v>
       </c>
       <c r="J40" s="27"/>
       <c r="K40" s="30"/>
     </row>
-    <row r="41" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65" t="s">
-        <v>356</v>
+    <row r="41" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="63"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
@@ -3234,8 +3211,8 @@
       <c r="J41" s="34"/>
       <c r="K41" s="30"/>
     </row>
-    <row r="42" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="71"/>
+    <row r="42" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="70"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30" t="s">
         <v>283</v>
@@ -3248,7 +3225,7 @@
       <c r="G42" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="56" t="s">
+      <c r="H42" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I42" s="35" t="s">
@@ -3257,10 +3234,10 @@
       <c r="J42" s="27"/>
       <c r="K42" s="30"/>
     </row>
-    <row r="43" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="71"/>
+    <row r="43" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="70"/>
       <c r="B43" s="30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
@@ -3271,26 +3248,26 @@
       <c r="G43" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="56" t="s">
+      <c r="H43" s="55" t="s">
         <v>255</v>
       </c>
       <c r="J43" s="27"/>
       <c r="K43" s="30"/>
     </row>
-    <row r="44" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="71" t="s">
+    <row r="44" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="70" t="s">
         <v>267</v>
       </c>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
-      <c r="F44" s="57">
+      <c r="F44" s="56">
         <v>5</v>
       </c>
-      <c r="G44" s="83"/>
-      <c r="H44" s="56" t="s">
-        <v>376</v>
+      <c r="G44" s="82"/>
+      <c r="H44" s="55" t="s">
+        <v>370</v>
       </c>
       <c r="I44" s="35" t="s">
         <v>42</v>
@@ -3298,21 +3275,21 @@
       <c r="J44" s="27"/>
       <c r="K44" s="30"/>
     </row>
-    <row r="45" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="71"/>
+    <row r="45" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="70"/>
       <c r="B45" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
-      <c r="F45" s="57">
+      <c r="F45" s="56">
         <v>5</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="56" t="s">
+      <c r="H45" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I45" s="35" t="s">
@@ -3321,36 +3298,36 @@
       <c r="J45" s="27"/>
       <c r="K45" s="30"/>
     </row>
-    <row r="46" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="71"/>
+    <row r="46" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="70"/>
       <c r="B46" s="30" t="s">
         <v>275</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
-      <c r="F46" s="57">
+      <c r="F46" s="56">
         <v>5</v>
       </c>
-      <c r="G46" s="102"/>
+      <c r="G46" s="101"/>
       <c r="J46" s="27"/>
       <c r="K46" s="30"/>
     </row>
-    <row r="47" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="71"/>
+    <row r="47" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="70"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
-      <c r="F47" s="57">
+      <c r="F47" s="56">
         <v>5</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="56" t="s">
+      <c r="H47" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I47" s="35" t="s">
@@ -3359,21 +3336,21 @@
       <c r="J47" s="27"/>
       <c r="K47" s="30"/>
     </row>
-    <row r="48" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="71"/>
+    <row r="48" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="70"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
-      <c r="F48" s="57">
+      <c r="F48" s="56">
         <v>5</v>
       </c>
-      <c r="G48" s="83" t="s">
+      <c r="G48" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="H48" s="56" t="s">
+      <c r="H48" s="55" t="s">
         <v>245</v>
       </c>
       <c r="I48" s="35" t="s">
@@ -3382,21 +3359,21 @@
       <c r="J48" s="27"/>
       <c r="K48" s="30"/>
     </row>
-    <row r="49" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="71"/>
+    <row r="49" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="70"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
-      <c r="F49" s="57">
+      <c r="F49" s="56">
         <v>5</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="H49" s="56" t="s">
+      <c r="H49" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I49" s="35" t="s">
@@ -3405,21 +3382,21 @@
       <c r="J49" s="27"/>
       <c r="K49" s="30"/>
     </row>
-    <row r="50" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="71"/>
+    <row r="50" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="70"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="30"/>
-      <c r="F50" s="57">
+      <c r="F50" s="56">
         <v>5</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H50" s="56" t="s">
+      <c r="H50" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I50" s="35" t="s">
@@ -3428,36 +3405,36 @@
       <c r="J50" s="27"/>
       <c r="K50" s="30"/>
     </row>
-    <row r="51" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="71"/>
+    <row r="51" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="70"/>
       <c r="B51" s="30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
-      <c r="F51" s="57">
+      <c r="F51" s="56">
         <v>5</v>
       </c>
-      <c r="G51" s="102"/>
+      <c r="G51" s="101"/>
       <c r="J51" s="27"/>
       <c r="K51" s="30"/>
     </row>
-    <row r="52" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="71"/>
+    <row r="52" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="70"/>
       <c r="B52" s="30"/>
       <c r="C52" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="30"/>
-      <c r="F52" s="57">
+      <c r="F52" s="56">
         <v>5</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="56" t="s">
+      <c r="H52" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I52" s="35" t="s">
@@ -3466,99 +3443,99 @@
       <c r="J52" s="27"/>
       <c r="K52" s="30"/>
     </row>
-    <row r="53" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="71"/>
+    <row r="53" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="70"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D53" s="30"/>
       <c r="E53" s="30"/>
-      <c r="F53" s="57">
+      <c r="F53" s="56">
         <v>5</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="56" t="s">
+      <c r="H53" s="55" t="s">
         <v>244</v>
       </c>
       <c r="J53" s="27"/>
       <c r="K53" s="30"/>
     </row>
-    <row r="54" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="71"/>
+    <row r="54" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="70"/>
       <c r="B54" s="30"/>
       <c r="C54" s="30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D54" s="30"/>
       <c r="E54" s="30"/>
-      <c r="F54" s="57">
+      <c r="F54" s="56">
         <v>5</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="H54" s="56" t="s">
+      <c r="H54" s="55" t="s">
         <v>244</v>
       </c>
       <c r="J54" s="27"/>
       <c r="K54" s="30"/>
     </row>
-    <row r="55" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="71"/>
+    <row r="55" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="70"/>
       <c r="B55" s="30" t="s">
         <v>281</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
       <c r="E55" s="30"/>
-      <c r="F55" s="57">
+      <c r="F55" s="56">
         <v>5</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H55" s="56" t="s">
+      <c r="H55" s="55" t="s">
         <v>244</v>
       </c>
       <c r="J55" s="27"/>
       <c r="K55" s="30"/>
     </row>
-    <row r="56" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="71"/>
+    <row r="56" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="70"/>
       <c r="B56" s="30" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="30"/>
       <c r="E56" s="30"/>
-      <c r="F56" s="57">
+      <c r="F56" s="56">
         <v>5</v>
       </c>
-      <c r="G56" s="102"/>
+      <c r="G56" s="101"/>
       <c r="I56" s="35" t="s">
         <v>42</v>
       </c>
       <c r="J56" s="27"/>
       <c r="K56" s="30"/>
     </row>
-    <row r="57" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="71"/>
+    <row r="57" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="70"/>
       <c r="B57" s="30"/>
       <c r="C57" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30"/>
-      <c r="F57" s="57">
+      <c r="F57" s="56">
         <v>5</v>
       </c>
       <c r="G57" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="H57" s="56" t="s">
+      <c r="H57" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I57" s="35" t="s">
@@ -3567,79 +3544,79 @@
       <c r="J57" s="27"/>
       <c r="K57" s="30"/>
     </row>
-    <row r="58" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="71"/>
+    <row r="58" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="70"/>
       <c r="B58" s="30"/>
       <c r="C58" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="30"/>
-      <c r="F58" s="57">
+      <c r="F58" s="56">
         <v>5</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="H58" s="56" t="s">
+      <c r="H58" s="55" t="s">
         <v>244</v>
       </c>
       <c r="J58" s="27"/>
       <c r="K58" s="30"/>
     </row>
-    <row r="59" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="71"/>
+    <row r="59" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="70"/>
       <c r="B59" s="30"/>
       <c r="C59" s="30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="30"/>
-      <c r="F59" s="57">
+      <c r="F59" s="56">
         <v>5</v>
       </c>
       <c r="G59" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="H59" s="56" t="s">
+      <c r="H59" s="55" t="s">
         <v>244</v>
       </c>
       <c r="J59" s="27"/>
       <c r="K59" s="30"/>
     </row>
-    <row r="60" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="71"/>
+    <row r="60" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="70"/>
       <c r="B60" s="30" t="s">
         <v>274</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
       <c r="E60" s="30"/>
-      <c r="F60" s="57">
+      <c r="F60" s="56">
         <v>5</v>
       </c>
-      <c r="G60" s="103"/>
+      <c r="G60" s="102"/>
       <c r="I60" s="40" t="s">
         <v>42</v>
       </c>
       <c r="J60" s="27"/>
       <c r="K60" s="30"/>
     </row>
-    <row r="61" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="71"/>
+    <row r="61" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="70"/>
       <c r="B61" s="30"/>
       <c r="C61" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="30"/>
       <c r="E61" s="30"/>
-      <c r="F61" s="57">
+      <c r="F61" s="56">
         <v>5</v>
       </c>
       <c r="G61" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="H61" s="56" t="s">
+      <c r="H61" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I61" s="35" t="s">
@@ -3648,57 +3625,57 @@
       <c r="J61" s="27"/>
       <c r="K61" s="30"/>
     </row>
-    <row r="62" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="71"/>
+    <row r="62" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="70"/>
       <c r="B62" s="30" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C62" s="30"/>
       <c r="D62" s="30"/>
       <c r="E62" s="30"/>
-      <c r="F62" s="57">
+      <c r="F62" s="56">
         <v>5</v>
       </c>
       <c r="G62" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="H62" s="56" t="s">
+      <c r="H62" s="55" t="s">
         <v>244</v>
       </c>
       <c r="J62" s="27"/>
       <c r="K62" s="30"/>
     </row>
-    <row r="63" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="71"/>
+    <row r="63" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="70"/>
       <c r="B63" s="30" t="s">
         <v>282</v>
       </c>
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
       <c r="E63" s="30"/>
-      <c r="F63" s="57">
+      <c r="F63" s="56">
         <v>5</v>
       </c>
-      <c r="G63" s="97"/>
-      <c r="H63" s="98"/>
+      <c r="G63" s="96"/>
+      <c r="H63" s="97"/>
       <c r="I63" s="35" t="s">
         <v>42</v>
       </c>
       <c r="J63" s="27"/>
       <c r="K63" s="30"/>
     </row>
-    <row r="64" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="64"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65" t="s">
-        <v>356</v>
+    <row r="64" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="63"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30"/>
       <c r="F64" s="40">
         <v>5</v>
       </c>
-      <c r="G64" s="97" t="s">
+      <c r="G64" s="96" t="s">
         <v>19</v>
       </c>
       <c r="H64" s="51" t="s">
@@ -3710,21 +3687,21 @@
       <c r="J64" s="34"/>
       <c r="K64" s="30"/>
     </row>
-    <row r="65" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="71"/>
+    <row r="65" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="70"/>
       <c r="B65" s="30"/>
       <c r="C65" s="30" t="s">
         <v>283</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="30"/>
-      <c r="F65" s="57">
+      <c r="F65" s="56">
         <v>5</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="56" t="s">
+      <c r="H65" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I65" s="40" t="s">
@@ -3733,26 +3710,26 @@
       <c r="J65" s="27"/>
       <c r="K65" s="30"/>
     </row>
-    <row r="66" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="71" t="s">
-        <v>311</v>
+    <row r="66" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="70" t="s">
+        <v>309</v>
       </c>
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>
       <c r="E66" s="30"/>
-      <c r="F66" s="57">
+      <c r="F66" s="56">
         <v>6</v>
       </c>
-      <c r="G66" s="83"/>
+      <c r="G66" s="82"/>
       <c r="I66" s="35" t="s">
         <v>42</v>
       </c>
       <c r="J66" s="27"/>
       <c r="K66" s="30"/>
     </row>
-    <row r="67" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="71"/>
+    <row r="67" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="70"/>
       <c r="B67" s="30" t="s">
         <v>12</v>
       </c>
@@ -3765,21 +3742,21 @@
       <c r="G67" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="H67" s="56" t="s">
+      <c r="H67" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I67" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J67" s="110" t="s">
+      <c r="J67" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K67" s="30"/>
     </row>
-    <row r="68" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="71"/>
+    <row r="68" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="70"/>
       <c r="B68" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -3790,16 +3767,16 @@
       <c r="G68" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="H68" s="56" t="s">
+      <c r="H68" s="55" t="s">
         <v>244</v>
       </c>
       <c r="J68" s="27"/>
       <c r="K68" s="30"/>
     </row>
-    <row r="69" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="71"/>
+    <row r="69" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="70"/>
       <c r="B69" s="30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C69" s="30"/>
       <c r="D69" s="30"/>
@@ -3810,14 +3787,14 @@
       <c r="G69" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="H69" s="56" t="s">
+      <c r="H69" s="55" t="s">
         <v>244</v>
       </c>
       <c r="J69" s="27"/>
       <c r="K69" s="30"/>
     </row>
-    <row r="70" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="71"/>
+    <row r="70" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="70"/>
       <c r="B70" s="30" t="s">
         <v>282</v>
       </c>
@@ -3827,19 +3804,19 @@
       <c r="F70" s="28">
         <v>6</v>
       </c>
-      <c r="G70" s="97"/>
-      <c r="H70" s="98"/>
+      <c r="G70" s="96"/>
+      <c r="H70" s="97"/>
       <c r="I70" s="35" t="s">
         <v>42</v>
       </c>
       <c r="J70" s="27"/>
       <c r="K70" s="30"/>
     </row>
-    <row r="71" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="64"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65" t="s">
-        <v>356</v>
+    <row r="71" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="63"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="30"/>
@@ -3858,8 +3835,8 @@
       <c r="J71" s="34"/>
       <c r="K71" s="30"/>
     </row>
-    <row r="72" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="71"/>
+    <row r="72" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="70"/>
       <c r="B72" s="30"/>
       <c r="C72" s="30" t="s">
         <v>283</v>
@@ -3872,7 +3849,7 @@
       <c r="G72" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H72" s="56" t="s">
+      <c r="H72" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I72" s="35" t="s">
@@ -3881,9 +3858,9 @@
       <c r="J72" s="27"/>
       <c r="K72" s="30"/>
     </row>
-    <row r="73" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="71" t="s">
-        <v>310</v>
+    <row r="73" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="70" t="s">
+        <v>308</v>
       </c>
       <c r="B73" s="30"/>
       <c r="C73" s="30"/>
@@ -3892,15 +3869,15 @@
       <c r="F73" s="40">
         <v>7</v>
       </c>
-      <c r="G73" s="102"/>
+      <c r="G73" s="101"/>
       <c r="I73" s="35" t="s">
         <v>233</v>
       </c>
       <c r="J73" s="27"/>
       <c r="K73" s="30"/>
     </row>
-    <row r="74" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="71"/>
+    <row r="74" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="70"/>
       <c r="B74" s="30" t="s">
         <v>12</v>
       </c>
@@ -3913,7 +3890,7 @@
       <c r="G74" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H74" s="56" t="s">
+      <c r="H74" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I74" s="35" t="s">
@@ -3922,10 +3899,10 @@
       <c r="J74" s="27"/>
       <c r="K74" s="30"/>
     </row>
-    <row r="75" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="71"/>
+    <row r="75" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="70"/>
       <c r="B75" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="30"/>
@@ -3936,19 +3913,19 @@
       <c r="G75" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H75" s="56" t="s">
+      <c r="H75" s="55" t="s">
         <v>244</v>
       </c>
       <c r="I75" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J75" s="110" t="s">
+      <c r="J75" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K75" s="30"/>
     </row>
-    <row r="76" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="71" t="s">
+    <row r="76" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="70" t="s">
         <v>280</v>
       </c>
       <c r="B76" s="30"/>
@@ -3961,14 +3938,14 @@
       <c r="G76" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H76" s="56" t="s">
+      <c r="H76" s="55" t="s">
         <v>255</v>
       </c>
       <c r="J76" s="27"/>
       <c r="K76" s="30"/>
     </row>
-    <row r="77" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="71" t="s">
+    <row r="77" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="70" t="s">
         <v>279</v>
       </c>
       <c r="B77" s="30"/>
@@ -3981,20 +3958,20 @@
       <c r="G77" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H77" s="56" t="s">
+      <c r="H77" s="55" t="s">
         <v>256</v>
       </c>
       <c r="I77" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J77" s="110" t="s">
+      <c r="J77" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K77" s="30"/>
     </row>
-    <row r="78" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="64" t="s">
-        <v>314</v>
+    <row r="78" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="63" t="s">
+        <v>312</v>
       </c>
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
@@ -4006,20 +3983,20 @@
       <c r="G78" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="H78" s="56" t="s">
+      <c r="H78" s="55" t="s">
         <v>244</v>
       </c>
       <c r="I78" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J78" s="110" t="s">
+      <c r="J78" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K78" s="30"/>
     </row>
-    <row r="79" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="64" t="s">
-        <v>342</v>
+    <row r="79" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="63" t="s">
+        <v>337</v>
       </c>
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
@@ -4031,7 +4008,7 @@
       <c r="G79" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="H79" s="56" t="s">
+      <c r="H79" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I79" s="35" t="s">
@@ -4040,28 +4017,28 @@
       <c r="J79" s="27"/>
       <c r="K79" s="30"/>
     </row>
-    <row r="80" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="71" t="s">
-        <v>313</v>
+    <row r="80" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="70" t="s">
+        <v>311</v>
       </c>
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
       <c r="D80" s="30"/>
       <c r="E80" s="30"/>
-      <c r="F80" s="57">
+      <c r="F80" s="56">
         <v>8</v>
       </c>
-      <c r="G80" s="83"/>
+      <c r="G80" s="82"/>
       <c r="I80" s="35" t="s">
         <v>42</v>
       </c>
       <c r="J80" s="27"/>
       <c r="K80" s="30"/>
     </row>
-    <row r="81" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="71"/>
+    <row r="81" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="70"/>
       <c r="B81" s="30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C81" s="30"/>
       <c r="D81" s="30"/>
@@ -4072,21 +4049,21 @@
       <c r="G81" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="H81" s="56" t="s">
+      <c r="H81" s="55" t="s">
         <v>244</v>
       </c>
       <c r="I81" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J81" s="110" t="s">
+      <c r="J81" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K81" s="30"/>
     </row>
-    <row r="82" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="71"/>
+    <row r="82" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="70"/>
       <c r="B82" s="30" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="30"/>
@@ -4097,7 +4074,7 @@
       <c r="G82" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H82" s="56" t="s">
+      <c r="H82" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I82" s="35" t="s">
@@ -4106,8 +4083,8 @@
       <c r="J82" s="27"/>
       <c r="K82" s="30"/>
     </row>
-    <row r="83" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="71"/>
+    <row r="83" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="70"/>
       <c r="B83" s="30" t="s">
         <v>97</v>
       </c>
@@ -4125,13 +4102,13 @@
       <c r="I83" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J83" s="110" t="s">
+      <c r="J83" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K83" s="30"/>
     </row>
-    <row r="84" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="71"/>
+    <row r="84" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="70"/>
       <c r="B84" s="30" t="s">
         <v>187</v>
       </c>
@@ -4150,8 +4127,8 @@
       <c r="J84" s="27"/>
       <c r="K84" s="30"/>
     </row>
-    <row r="85" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="71"/>
+    <row r="85" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="70"/>
       <c r="B85" s="30" t="s">
         <v>91</v>
       </c>
@@ -4163,19 +4140,19 @@
       <c r="G85" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="H85" s="56" t="s">
+      <c r="H85" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I85" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J85" s="110" t="s">
+      <c r="J85" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K85" s="30"/>
     </row>
-    <row r="86" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="71"/>
+    <row r="86" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="70"/>
       <c r="B86" s="30" t="s">
         <v>89</v>
       </c>
@@ -4187,19 +4164,19 @@
       <c r="G86" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="H86" s="56" t="s">
+      <c r="H86" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I86" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J86" s="110" t="s">
+      <c r="J86" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K86" s="30"/>
     </row>
-    <row r="87" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="71"/>
+    <row r="87" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="70"/>
       <c r="B87" s="30" t="s">
         <v>93</v>
       </c>
@@ -4211,21 +4188,21 @@
       <c r="G87" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="H87" s="56" t="s">
+      <c r="H87" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I87" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J87" s="110" t="s">
+      <c r="J87" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K87" s="30"/>
     </row>
-    <row r="88" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="71"/>
+    <row r="88" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="70"/>
       <c r="B88" s="30" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30"/>
@@ -4235,19 +4212,19 @@
       <c r="G88" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="H88" s="56" t="s">
+      <c r="H88" s="55" t="s">
         <v>244</v>
       </c>
       <c r="I88" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J88" s="110" t="s">
+      <c r="J88" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K88" s="30"/>
     </row>
-    <row r="89" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="71"/>
+    <row r="89" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="70"/>
       <c r="B89" s="30" t="s">
         <v>95</v>
       </c>
@@ -4259,19 +4236,19 @@
       <c r="G89" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="H89" s="56" t="s">
+      <c r="H89" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I89" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J89" s="110" t="s">
+      <c r="J89" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K89" s="30"/>
     </row>
-    <row r="90" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="71"/>
+    <row r="90" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="70"/>
       <c r="B90" s="30" t="s">
         <v>100</v>
       </c>
@@ -4289,13 +4266,13 @@
       <c r="I90" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J90" s="110" t="s">
+      <c r="J90" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K90" s="30"/>
     </row>
-    <row r="91" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="71"/>
+    <row r="91" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="70"/>
       <c r="B91" s="30" t="s">
         <v>110</v>
       </c>
@@ -4308,7 +4285,7 @@
       <c r="G91" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="H91" s="56" t="s">
+      <c r="H91" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I91" s="35" t="s">
@@ -4317,8 +4294,8 @@
       <c r="J91" s="27"/>
       <c r="K91" s="30"/>
     </row>
-    <row r="92" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="71"/>
+    <row r="92" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="70"/>
       <c r="B92" s="30" t="s">
         <v>150</v>
       </c>
@@ -4331,7 +4308,7 @@
       <c r="G92" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H92" s="56" t="s">
+      <c r="H92" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I92" s="35" t="s">
@@ -4340,8 +4317,8 @@
       <c r="J92" s="27"/>
       <c r="K92" s="30"/>
     </row>
-    <row r="93" spans="1:11" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="71"/>
+    <row r="93" spans="1:11" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="70"/>
       <c r="B93" s="30" t="s">
         <v>148</v>
       </c>
@@ -4353,7 +4330,7 @@
       <c r="G93" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="H93" s="56" t="s">
+      <c r="H93" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I93" s="35" t="s">
@@ -4362,10 +4339,10 @@
       <c r="J93" s="27"/>
       <c r="K93" s="30"/>
     </row>
-    <row r="94" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="71"/>
+    <row r="94" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="70"/>
       <c r="B94" s="30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D94" s="30"/>
       <c r="E94" s="30"/>
@@ -4375,21 +4352,21 @@
       <c r="G94" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="H94" s="56" t="s">
+      <c r="H94" s="55" t="s">
         <v>262</v>
       </c>
       <c r="I94" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J94" s="110" t="s">
+      <c r="J94" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K94" s="30"/>
     </row>
-    <row r="95" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="71"/>
+    <row r="95" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="70"/>
       <c r="B95" s="30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C95" s="30"/>
       <c r="D95" s="30"/>
@@ -4400,7 +4377,7 @@
       <c r="G95" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H95" s="56" t="s">
+      <c r="H95" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I95" s="35" t="s">
@@ -4409,10 +4386,10 @@
       <c r="J95" s="27"/>
       <c r="K95" s="30"/>
     </row>
-    <row r="96" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="71"/>
-      <c r="B96" s="65" t="s">
-        <v>316</v>
+    <row r="96" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="70"/>
+      <c r="B96" s="64" t="s">
+        <v>314</v>
       </c>
       <c r="D96" s="30"/>
       <c r="E96" s="30"/>
@@ -4420,23 +4397,23 @@
         <v>8</v>
       </c>
       <c r="G96" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="H96" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="H96" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I96" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J96" s="110" t="s">
+      <c r="J96" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K96" s="30"/>
     </row>
-    <row r="97" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="71"/>
-      <c r="B97" s="65" t="s">
-        <v>317</v>
+    <row r="97" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="70"/>
+      <c r="B97" s="64" t="s">
+        <v>315</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="30"/>
@@ -4444,23 +4421,23 @@
         <v>8</v>
       </c>
       <c r="G97" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="H97" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="H97" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I97" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J97" s="110" t="s">
+      <c r="J97" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K97" s="30"/>
     </row>
-    <row r="98" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="71"/>
-      <c r="B98" s="65" t="s">
-        <v>318</v>
+    <row r="98" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="70"/>
+      <c r="B98" s="64" t="s">
+        <v>316</v>
       </c>
       <c r="D98" s="30"/>
       <c r="E98" s="30"/>
@@ -4470,19 +4447,19 @@
       <c r="G98" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H98" s="56" t="s">
+      <c r="H98" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I98" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J98" s="110" t="s">
+      <c r="J98" s="109" t="s">
         <v>233</v>
       </c>
       <c r="K98" s="30"/>
     </row>
-    <row r="99" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="64"/>
+    <row r="99" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="63"/>
       <c r="B99" s="30" t="s">
         <v>282</v>
       </c>
@@ -4492,19 +4469,19 @@
       <c r="F99" s="32">
         <v>8</v>
       </c>
-      <c r="G99" s="97"/>
-      <c r="H99" s="99"/>
+      <c r="G99" s="96"/>
+      <c r="H99" s="98"/>
       <c r="I99" s="40" t="s">
         <v>42</v>
       </c>
       <c r="J99" s="34"/>
       <c r="K99" s="30"/>
     </row>
-    <row r="100" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="64"/>
+    <row r="100" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="63"/>
       <c r="B100" s="51"/>
-      <c r="C100" s="65" t="s">
-        <v>356</v>
+      <c r="C100" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30"/>
@@ -4523,8 +4500,8 @@
       <c r="J100" s="34"/>
       <c r="K100" s="30"/>
     </row>
-    <row r="101" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="71"/>
+    <row r="101" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="70"/>
       <c r="B101" s="30"/>
       <c r="C101" s="30" t="s">
         <v>283</v>
@@ -4537,7 +4514,7 @@
       <c r="G101" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H101" s="56" t="s">
+      <c r="H101" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I101" s="35" t="s">
@@ -4546,29 +4523,29 @@
       <c r="J101" s="27"/>
       <c r="K101" s="30"/>
     </row>
-    <row r="102" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="71"/>
+    <row r="102" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="70"/>
       <c r="B102" s="30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C102" s="30"/>
       <c r="D102" s="30"/>
       <c r="E102" s="30"/>
-      <c r="F102" s="57">
+      <c r="F102" s="56">
         <v>8</v>
       </c>
-      <c r="G102" s="83" t="s">
+      <c r="G102" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="H102" s="56" t="s">
+      <c r="H102" s="55" t="s">
         <v>255</v>
       </c>
       <c r="J102" s="27"/>
       <c r="K102" s="30"/>
     </row>
-    <row r="103" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="71" t="s">
-        <v>325</v>
+    <row r="103" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="70" t="s">
+        <v>320</v>
       </c>
       <c r="B103" s="30"/>
       <c r="C103" s="30"/>
@@ -4581,10 +4558,10 @@
       <c r="J103" s="27"/>
       <c r="K103" s="30"/>
     </row>
-    <row r="104" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="71"/>
+    <row r="104" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="70"/>
       <c r="B104" s="30" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C104" s="30"/>
       <c r="D104" s="30"/>
@@ -4595,16 +4572,16 @@
       <c r="G104" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="H104" s="56" t="s">
+      <c r="H104" s="55" t="s">
         <v>262</v>
       </c>
       <c r="J104" s="27"/>
       <c r="K104" s="30"/>
     </row>
-    <row r="105" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="71"/>
+    <row r="105" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="70"/>
       <c r="B105" s="30" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C105" s="30"/>
       <c r="D105" s="30"/>
@@ -4615,7 +4592,7 @@
       <c r="G105" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="H105" s="56" t="s">
+      <c r="H105" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I105" s="35" t="s">
@@ -4624,39 +4601,39 @@
       <c r="J105" s="27"/>
       <c r="K105" s="30"/>
     </row>
-    <row r="106" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="71" t="s">
+    <row r="106" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="70" t="s">
         <v>269</v>
       </c>
       <c r="B106" s="30"/>
       <c r="C106" s="30"/>
       <c r="D106" s="30"/>
       <c r="E106" s="30"/>
-      <c r="F106" s="57">
+      <c r="F106" s="56">
         <v>9</v>
       </c>
-      <c r="G106" s="83"/>
+      <c r="G106" s="82"/>
       <c r="I106" s="35" t="s">
         <v>42</v>
       </c>
       <c r="J106" s="27"/>
       <c r="K106" s="30"/>
     </row>
-    <row r="107" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="71"/>
+    <row r="107" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="70"/>
       <c r="B107" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="30"/>
       <c r="D107" s="30"/>
       <c r="E107" s="30"/>
-      <c r="F107" s="57">
+      <c r="F107" s="56">
         <v>9</v>
       </c>
-      <c r="G107" s="83" t="s">
+      <c r="G107" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="H107" s="56" t="s">
+      <c r="H107" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I107" s="35" t="s">
@@ -4665,36 +4642,36 @@
       <c r="J107" s="27"/>
       <c r="K107" s="30"/>
     </row>
-    <row r="108" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="71"/>
+    <row r="108" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="70"/>
       <c r="B108" s="30" t="s">
         <v>275</v>
       </c>
       <c r="C108" s="30"/>
       <c r="D108" s="30"/>
       <c r="E108" s="30"/>
-      <c r="F108" s="57">
+      <c r="F108" s="56">
         <v>9</v>
       </c>
-      <c r="G108" s="102"/>
+      <c r="G108" s="101"/>
       <c r="J108" s="27"/>
       <c r="K108" s="30"/>
     </row>
-    <row r="109" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="71"/>
+    <row r="109" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="70"/>
       <c r="B109" s="30"/>
       <c r="C109" s="30" t="s">
         <v>55</v>
       </c>
       <c r="D109" s="30"/>
       <c r="E109" s="30"/>
-      <c r="F109" s="57">
+      <c r="F109" s="56">
         <v>9</v>
       </c>
       <c r="G109" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H109" s="56" t="s">
+      <c r="H109" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I109" s="35" t="s">
@@ -4703,21 +4680,21 @@
       <c r="J109" s="27"/>
       <c r="K109" s="30"/>
     </row>
-    <row r="110" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="71"/>
+    <row r="110" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="70"/>
       <c r="B110" s="30"/>
       <c r="C110" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D110" s="30"/>
       <c r="E110" s="30"/>
-      <c r="F110" s="57">
+      <c r="F110" s="56">
         <v>9</v>
       </c>
-      <c r="G110" s="83" t="s">
+      <c r="G110" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="H110" s="56" t="s">
+      <c r="H110" s="55" t="s">
         <v>245</v>
       </c>
       <c r="I110" s="35" t="s">
@@ -4726,21 +4703,21 @@
       <c r="J110" s="27"/>
       <c r="K110" s="30"/>
     </row>
-    <row r="111" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="71"/>
+    <row r="111" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="70"/>
       <c r="B111" s="30"/>
       <c r="C111" s="30" t="s">
         <v>56</v>
       </c>
       <c r="D111" s="30"/>
       <c r="E111" s="30"/>
-      <c r="F111" s="57">
+      <c r="F111" s="56">
         <v>9</v>
       </c>
       <c r="G111" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="H111" s="56" t="s">
+      <c r="H111" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I111" s="35" t="s">
@@ -4749,21 +4726,21 @@
       <c r="J111" s="27"/>
       <c r="K111" s="30"/>
     </row>
-    <row r="112" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="71"/>
+    <row r="112" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="70"/>
       <c r="B112" s="30"/>
       <c r="C112" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D112" s="30"/>
       <c r="E112" s="30"/>
-      <c r="F112" s="57">
+      <c r="F112" s="56">
         <v>9</v>
       </c>
       <c r="G112" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H112" s="56" t="s">
+      <c r="H112" s="55" t="s">
         <v>251</v>
       </c>
       <c r="I112" s="35" t="s">
@@ -4772,36 +4749,36 @@
       <c r="J112" s="27"/>
       <c r="K112" s="30"/>
     </row>
-    <row r="113" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="71"/>
+    <row r="113" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="70"/>
       <c r="B113" s="30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C113" s="30"/>
       <c r="D113" s="30"/>
       <c r="E113" s="30"/>
-      <c r="F113" s="57">
+      <c r="F113" s="56">
         <v>9</v>
       </c>
-      <c r="G113" s="104"/>
+      <c r="G113" s="103"/>
       <c r="J113" s="27"/>
       <c r="K113" s="30"/>
     </row>
-    <row r="114" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="71"/>
+    <row r="114" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="70"/>
       <c r="B114" s="30"/>
       <c r="C114" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="30"/>
-      <c r="F114" s="57">
+      <c r="F114" s="56">
         <v>9</v>
       </c>
-      <c r="G114" s="83" t="s">
+      <c r="G114" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="H114" s="56" t="s">
+      <c r="H114" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I114" s="35" t="s">
@@ -4810,76 +4787,76 @@
       <c r="J114" s="27"/>
       <c r="K114" s="30"/>
     </row>
-    <row r="115" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="71"/>
+    <row r="115" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="70"/>
       <c r="B115" s="30"/>
       <c r="C115" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D115" s="30"/>
       <c r="E115" s="30"/>
-      <c r="F115" s="57">
+      <c r="F115" s="56">
         <v>9</v>
       </c>
       <c r="G115" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H115" s="56" t="s">
+      <c r="H115" s="55" t="s">
         <v>244</v>
       </c>
       <c r="J115" s="27"/>
       <c r="K115" s="30"/>
     </row>
-    <row r="116" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="71"/>
+    <row r="116" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="70"/>
       <c r="B116" s="30"/>
       <c r="C116" s="30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D116" s="30"/>
       <c r="E116" s="30"/>
-      <c r="F116" s="57">
+      <c r="F116" s="56">
         <v>9</v>
       </c>
       <c r="G116" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H116" s="56" t="s">
+      <c r="H116" s="55" t="s">
         <v>244</v>
       </c>
       <c r="J116" s="27"/>
       <c r="K116" s="30"/>
     </row>
-    <row r="117" spans="1:11" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="71"/>
+    <row r="117" spans="1:11" s="55" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="70"/>
       <c r="B117" s="30" t="s">
         <v>282</v>
       </c>
       <c r="C117" s="30"/>
       <c r="D117" s="30"/>
       <c r="E117" s="30"/>
-      <c r="F117" s="57">
+      <c r="F117" s="56">
         <v>9</v>
       </c>
-      <c r="G117" s="97"/>
+      <c r="G117" s="96"/>
       <c r="I117" s="40" t="s">
         <v>42</v>
       </c>
       <c r="J117" s="27"/>
       <c r="K117" s="30"/>
     </row>
-    <row r="118" spans="1:11" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="64"/>
-      <c r="B118" s="65"/>
-      <c r="C118" s="65" t="s">
-        <v>356</v>
+    <row r="118" spans="1:11" s="55" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="63"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="D118" s="30"/>
       <c r="E118" s="30"/>
       <c r="F118" s="40">
         <v>9</v>
       </c>
-      <c r="G118" s="65" t="s">
+      <c r="G118" s="64" t="s">
         <v>19</v>
       </c>
       <c r="H118" s="51" t="s">
@@ -4891,21 +4868,21 @@
       <c r="J118" s="34"/>
       <c r="K118" s="30"/>
     </row>
-    <row r="119" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="71"/>
+    <row r="119" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="70"/>
       <c r="B119" s="30"/>
       <c r="C119" s="30" t="s">
         <v>283</v>
       </c>
       <c r="D119" s="30"/>
       <c r="E119" s="30"/>
-      <c r="F119" s="57">
+      <c r="F119" s="56">
         <v>9</v>
       </c>
       <c r="G119" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H119" s="56" t="s">
+      <c r="H119" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I119" s="35" t="s">
@@ -4914,20 +4891,20 @@
       <c r="J119" s="27"/>
       <c r="K119" s="30"/>
     </row>
-    <row r="120" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="71" t="s">
-        <v>333</v>
+    <row r="120" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="70" t="s">
+        <v>328</v>
       </c>
       <c r="B120" s="30"/>
       <c r="C120" s="30"/>
       <c r="D120" s="30"/>
       <c r="E120" s="30"/>
-      <c r="F120" s="57">
+      <c r="F120" s="56">
         <v>10</v>
       </c>
-      <c r="G120" s="83"/>
+      <c r="G120" s="82"/>
       <c r="H120" s="51" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="I120" s="35" t="s">
         <v>233</v>
@@ -4935,8 +4912,8 @@
       <c r="J120" s="27"/>
       <c r="K120" s="30"/>
     </row>
-    <row r="121" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="71"/>
+    <row r="121" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="70"/>
       <c r="B121" s="30" t="s">
         <v>291</v>
       </c>
@@ -4949,7 +4926,7 @@
       <c r="G121" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="H121" s="56" t="s">
+      <c r="H121" s="55" t="s">
         <v>244</v>
       </c>
       <c r="I121" s="35" t="s">
@@ -4958,10 +4935,10 @@
       <c r="J121" s="27"/>
       <c r="K121" s="30"/>
     </row>
-    <row r="122" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="71"/>
+    <row r="122" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="70"/>
       <c r="B122" s="30" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C122" s="30"/>
       <c r="D122" s="30"/>
@@ -4972,7 +4949,7 @@
       <c r="G122" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="H122" s="56" t="s">
+      <c r="H122" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I122" s="35" t="s">
@@ -4981,10 +4958,10 @@
       <c r="J122" s="27"/>
       <c r="K122" s="30"/>
     </row>
-    <row r="123" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="71"/>
+    <row r="123" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="70"/>
       <c r="B123" s="30" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C123" s="30"/>
       <c r="D123" s="30"/>
@@ -4995,7 +4972,7 @@
       <c r="G123" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="H123" s="56" t="s">
+      <c r="H123" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I123" s="35" t="s">
@@ -5004,8 +4981,8 @@
       <c r="J123" s="27"/>
       <c r="K123" s="30"/>
     </row>
-    <row r="124" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="71"/>
+    <row r="124" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="70"/>
       <c r="B124" s="30" t="s">
         <v>282</v>
       </c>
@@ -5015,18 +4992,18 @@
       <c r="F124" s="28">
         <v>10</v>
       </c>
-      <c r="G124" s="97"/>
+      <c r="G124" s="96"/>
       <c r="I124" s="40" t="s">
         <v>42</v>
       </c>
       <c r="J124" s="27"/>
       <c r="K124" s="30"/>
     </row>
-    <row r="125" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="64"/>
-      <c r="B125" s="65"/>
-      <c r="C125" s="65" t="s">
-        <v>356</v>
+    <row r="125" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="63"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="D125" s="30"/>
       <c r="E125" s="30"/>
@@ -5045,8 +5022,8 @@
       <c r="J125" s="34"/>
       <c r="K125" s="30"/>
     </row>
-    <row r="126" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="71"/>
+    <row r="126" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="70"/>
       <c r="B126" s="30"/>
       <c r="C126" s="30" t="s">
         <v>283</v>
@@ -5059,7 +5036,7 @@
       <c r="G126" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H126" s="56" t="s">
+      <c r="H126" s="55" t="s">
         <v>255</v>
       </c>
       <c r="I126" s="35" t="s">
@@ -5068,9 +5045,9 @@
       <c r="J126" s="27"/>
       <c r="K126" s="30"/>
     </row>
-    <row r="127" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="71" t="s">
-        <v>331</v>
+    <row r="127" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="70" t="s">
+        <v>326</v>
       </c>
       <c r="B127" s="30"/>
       <c r="C127" s="30"/>
@@ -5082,7 +5059,7 @@
       <c r="G127" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H127" s="56" t="s">
+      <c r="H127" s="55" t="s">
         <v>244</v>
       </c>
       <c r="I127" s="35" t="s">
@@ -5091,9 +5068,9 @@
       <c r="J127" s="27"/>
       <c r="K127" s="30"/>
     </row>
-    <row r="128" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="71" t="s">
-        <v>332</v>
+    <row r="128" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="70" t="s">
+        <v>327</v>
       </c>
       <c r="B128" s="30"/>
       <c r="C128" s="30"/>
@@ -5105,18 +5082,18 @@
       <c r="G128" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H128" s="56" t="s">
+      <c r="H128" s="55" t="s">
         <v>242</v>
       </c>
       <c r="I128" s="35" t="s">
         <v>233</v>
       </c>
       <c r="J128" s="27"/>
-      <c r="K128" s="65"/>
-    </row>
-    <row r="129" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="64" t="s">
-        <v>303</v>
+      <c r="K128" s="64"/>
+    </row>
+    <row r="129" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="63" t="s">
+        <v>301</v>
       </c>
       <c r="B129" s="30"/>
       <c r="C129" s="30"/>
@@ -5129,10 +5106,10 @@
       <c r="J129" s="27"/>
       <c r="K129" s="30"/>
     </row>
-    <row r="130" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="64"/>
-      <c r="B130" s="65" t="s">
-        <v>356</v>
+    <row r="130" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="63"/>
+      <c r="B130" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="C130" s="30"/>
       <c r="D130" s="30"/>
@@ -5152,9 +5129,9 @@
       <c r="J130" s="34"/>
       <c r="K130" s="30"/>
     </row>
-    <row r="131" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="64"/>
-      <c r="B131" s="65" t="s">
+    <row r="131" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="63"/>
+      <c r="B131" s="64" t="s">
         <v>283</v>
       </c>
       <c r="C131" s="30"/>
@@ -5175,26 +5152,26 @@
       <c r="J131" s="34"/>
       <c r="K131" s="30"/>
     </row>
-    <row r="132" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="71" t="s">
+    <row r="132" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="70" t="s">
         <v>290</v>
       </c>
       <c r="B132" s="30"/>
       <c r="C132" s="30"/>
       <c r="D132" s="30"/>
       <c r="E132" s="30"/>
-      <c r="F132" s="57">
+      <c r="F132" s="56">
         <v>13</v>
       </c>
-      <c r="G132" s="101"/>
+      <c r="G132" s="100"/>
       <c r="H132" s="51" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="I132" s="51"/>
-      <c r="J132" s="57"/>
-    </row>
-    <row r="133" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="71"/>
+      <c r="J132" s="56"/>
+    </row>
+    <row r="133" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="70"/>
       <c r="B133" s="30" t="s">
         <v>291</v>
       </c>
@@ -5211,12 +5188,12 @@
         <v>244</v>
       </c>
       <c r="I133" s="51"/>
-      <c r="J133" s="57"/>
-    </row>
-    <row r="134" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="71"/>
+      <c r="J133" s="56"/>
+    </row>
+    <row r="134" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="70"/>
       <c r="B134" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C134" s="30"/>
       <c r="D134" s="30"/>
@@ -5227,31 +5204,31 @@
       <c r="G134" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H134" s="56" t="s">
+      <c r="H134" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="J134" s="57"/>
-    </row>
-    <row r="135" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="71" t="s">
+      <c r="J134" s="56"/>
+    </row>
+    <row r="135" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="70" t="s">
         <v>287</v>
       </c>
       <c r="B135" s="30"/>
       <c r="C135" s="30"/>
       <c r="D135" s="30"/>
       <c r="E135" s="30"/>
-      <c r="F135" s="57">
+      <c r="F135" s="56">
         <v>13</v>
       </c>
-      <c r="G135" s="101"/>
+      <c r="G135" s="100"/>
       <c r="H135" s="51" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I135" s="51"/>
-      <c r="J135" s="57"/>
-    </row>
-    <row r="136" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="71"/>
+      <c r="J135" s="56"/>
+    </row>
+    <row r="136" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="70"/>
       <c r="B136" s="30" t="s">
         <v>289</v>
       </c>
@@ -5265,13 +5242,13 @@
         <v>41</v>
       </c>
       <c r="H136" s="51" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I136" s="51"/>
-      <c r="J136" s="57"/>
-    </row>
-    <row r="137" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="71"/>
+      <c r="J136" s="56"/>
+    </row>
+    <row r="137" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="70"/>
       <c r="B137" s="30" t="s">
         <v>288</v>
       </c>
@@ -5284,10 +5261,10 @@
       <c r="G137" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H137" s="56" t="s">
+      <c r="H137" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="J137" s="57"/>
+      <c r="J137" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5300,52 +5277,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F3B9D-634A-C449-A474-F9F6FE9216B2}">
   <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="3.1640625" style="45" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="90" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" style="61" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="89" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" style="60" customWidth="1"/>
     <col min="9" max="11" width="3.1640625" style="45" customWidth="1"/>
     <col min="12" max="12" width="28.33203125" style="45" customWidth="1"/>
     <col min="13" max="13" width="71.83203125" style="45" customWidth="1"/>
     <col min="14" max="14" width="25.1640625" style="45" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" style="59" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="59" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="58" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="58" customWidth="1"/>
     <col min="17" max="17" width="255.58203125" style="45" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="10.6640625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
-        <v>390</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="74" t="s">
+      <c r="A1" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="92" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="67" t="s">
         <v>253</v>
       </c>
       <c r="N1" s="25" t="s">
@@ -5359,15 +5334,15 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="68" t="s">
         <v>271</v>
       </c>
       <c r="O2" s="46" t="s">
@@ -5378,17 +5353,17 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>1</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="82" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="50" t="s">
@@ -5398,24 +5373,24 @@
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
       <c r="L3" s="50"/>
-      <c r="M3" s="63"/>
+      <c r="M3" s="62"/>
       <c r="O3" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
-      <c r="F4" s="57">
+      <c r="F4" s="56">
         <v>1</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="82" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="50" t="s">
@@ -5425,7 +5400,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
       <c r="L4" s="50"/>
-      <c r="M4" s="63"/>
+      <c r="M4" s="62"/>
       <c r="O4" s="35" t="s">
         <v>233</v>
       </c>
@@ -5434,7 +5409,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="62" t="s">
         <v>275</v>
       </c>
       <c r="B5" s="50"/>
@@ -5444,7 +5419,7 @@
       <c r="F5" s="40">
         <v>1</v>
       </c>
-      <c r="G5" s="102"/>
+      <c r="G5" s="101"/>
       <c r="H5" s="50" t="s">
         <v>275</v>
       </c>
@@ -5452,14 +5427,14 @@
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
       <c r="L5" s="50"/>
-      <c r="M5" s="63"/>
+      <c r="M5" s="62"/>
       <c r="O5" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="63"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="50" t="s">
         <v>53</v>
       </c>
@@ -5471,7 +5446,7 @@
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
       <c r="L6" s="50"/>
-      <c r="M6" s="63" t="s">
+      <c r="M6" s="62" t="s">
         <v>247</v>
       </c>
       <c r="N6" s="48" t="s">
@@ -5485,7 +5460,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="50" t="s">
         <v>55</v>
       </c>
@@ -5505,7 +5480,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
       <c r="L7" s="50"/>
-      <c r="M7" s="63"/>
+      <c r="M7" s="62"/>
       <c r="N7" s="50"/>
       <c r="O7" s="35" t="s">
         <v>233</v>
@@ -5515,17 +5490,17 @@
       </c>
     </row>
     <row r="8" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="50" t="s">
         <v>292</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
-      <c r="F8" s="57">
+      <c r="F8" s="56">
         <v>1</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="82" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="50"/>
@@ -5535,7 +5510,7 @@
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
       <c r="L8" s="50"/>
-      <c r="M8" s="63"/>
+      <c r="M8" s="62"/>
       <c r="O8" s="35" t="s">
         <v>233</v>
       </c>
@@ -5544,7 +5519,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="63"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="50" t="s">
         <v>56</v>
       </c>
@@ -5564,7 +5539,7 @@
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
       <c r="L9" s="50"/>
-      <c r="M9" s="63"/>
+      <c r="M9" s="62"/>
       <c r="N9" s="50"/>
       <c r="O9" s="35" t="s">
         <v>233</v>
@@ -5574,7 +5549,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="63"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="50" t="s">
         <v>47</v>
       </c>
@@ -5594,8 +5569,8 @@
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
       <c r="L10" s="50"/>
-      <c r="M10" s="63" t="s">
-        <v>377</v>
+      <c r="M10" s="62" t="s">
+        <v>371</v>
       </c>
       <c r="N10" s="50" t="s">
         <v>248</v>
@@ -5608,7 +5583,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="63"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="50" t="s">
         <v>294</v>
       </c>
@@ -5628,7 +5603,7 @@
       <c r="J11" s="50"/>
       <c r="K11" s="50"/>
       <c r="L11" s="50"/>
-      <c r="M11" s="63"/>
+      <c r="M11" s="62"/>
       <c r="N11" s="30"/>
       <c r="O11" s="35" t="s">
         <v>233</v>
@@ -5636,7 +5611,7 @@
       <c r="P11" s="49"/>
     </row>
     <row r="12" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="63"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="50" t="s">
         <v>282</v>
       </c>
@@ -5644,35 +5619,35 @@
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
       <c r="F12" s="28"/>
-      <c r="G12" s="94"/>
+      <c r="G12" s="93"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
       <c r="L12" s="50"/>
-      <c r="M12" s="105"/>
+      <c r="M12" s="104"/>
       <c r="O12" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P12" s="27"/>
     </row>
     <row r="13" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="50"/>
-      <c r="C13" s="65" t="s">
-        <v>357</v>
+      <c r="C13" s="64" t="s">
+        <v>351</v>
       </c>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="94"/>
+      <c r="G13" s="93"/>
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
       <c r="L13" s="50"/>
-      <c r="M13" s="64" t="s">
-        <v>360</v>
+      <c r="M13" s="63" t="s">
+        <v>354</v>
       </c>
       <c r="N13" s="48" t="s">
         <v>21</v>
@@ -5683,7 +5658,7 @@
       <c r="P13" s="27"/>
     </row>
     <row r="14" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="63"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="50"/>
       <c r="C14" s="50" t="s">
         <v>283</v>
@@ -5691,17 +5666,17 @@
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="94"/>
+      <c r="G14" s="93"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
       <c r="L14" s="50"/>
-      <c r="M14" s="70" t="s">
+      <c r="M14" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N14" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O14" s="35" t="s">
         <v>233</v>
@@ -5709,7 +5684,7 @@
       <c r="P14" s="35"/>
     </row>
     <row r="15" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="63"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="50" t="s">
         <v>258</v>
       </c>
@@ -5717,13 +5692,13 @@
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="94"/>
+      <c r="G15" s="93"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
       <c r="L15" s="50"/>
-      <c r="M15" s="63" t="s">
+      <c r="M15" s="62" t="s">
         <v>260</v>
       </c>
       <c r="N15" s="48" t="s">
@@ -5737,7 +5712,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="63" t="s">
         <v>293</v>
       </c>
       <c r="B16" s="50"/>
@@ -5745,20 +5720,20 @@
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="65"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="50"/>
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
       <c r="L16" s="50"/>
-      <c r="M16" s="63"/>
+      <c r="M16" s="62"/>
       <c r="O16" s="40" t="s">
         <v>42</v>
       </c>
       <c r="P16" s="27"/>
     </row>
     <row r="17" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="63"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="50" t="s">
         <v>61</v>
       </c>
@@ -5766,13 +5741,13 @@
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="94"/>
+      <c r="G17" s="93"/>
       <c r="H17" s="50"/>
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
       <c r="L17" s="50"/>
-      <c r="M17" s="63"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="50"/>
       <c r="O17" s="35" t="s">
         <v>233</v>
@@ -5780,7 +5755,7 @@
       <c r="P17" s="49"/>
     </row>
     <row r="18" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="63"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="50"/>
       <c r="C18" s="50" t="s">
         <v>275</v>
@@ -5788,13 +5763,13 @@
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="94"/>
+      <c r="G18" s="93"/>
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
       <c r="K18" s="50"/>
       <c r="L18" s="50"/>
-      <c r="M18" s="63" t="s">
+      <c r="M18" s="62" t="s">
         <v>277</v>
       </c>
       <c r="N18" s="50" t="s">
@@ -5806,22 +5781,22 @@
       <c r="P18" s="49"/>
     </row>
     <row r="19" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="63"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="50"/>
       <c r="C19" s="50" t="s">
         <v>276</v>
       </c>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="83"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
       <c r="L19" s="50"/>
-      <c r="M19" s="64" t="s">
-        <v>359</v>
+      <c r="M19" s="63" t="s">
+        <v>353</v>
       </c>
       <c r="N19" s="50" t="s">
         <v>61</v>
@@ -5832,21 +5807,21 @@
       <c r="P19" s="49"/>
     </row>
     <row r="20" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="63"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="50" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="85"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="84"/>
       <c r="H20" s="50"/>
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
-      <c r="M20" s="63" t="s">
+      <c r="M20" s="62" t="s">
         <v>277</v>
       </c>
       <c r="N20" s="50" t="s">
@@ -5858,21 +5833,21 @@
       <c r="P20" s="49"/>
     </row>
     <row r="21" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="63"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="50" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
-      <c r="F21" s="57"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="37"/>
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
       <c r="L21" s="50"/>
-      <c r="M21" s="63" t="s">
+      <c r="M21" s="62" t="s">
         <v>277</v>
       </c>
       <c r="N21" s="50" t="s">
@@ -5884,22 +5859,22 @@
       <c r="P21" s="49"/>
     </row>
     <row r="22" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="63"/>
-      <c r="B22" s="65" t="s">
+      <c r="A22" s="62"/>
+      <c r="B22" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="83"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="82"/>
       <c r="H22" s="50"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="64" t="s">
-        <v>330</v>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="63" t="s">
+        <v>325</v>
       </c>
       <c r="N22" s="51" t="s">
         <v>99</v>
@@ -5912,22 +5887,22 @@
       </c>
     </row>
     <row r="23" spans="1:17" s="48" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="63"/>
-      <c r="B23" s="65" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="95"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="94"/>
       <c r="H23" s="50"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="70" t="s">
-        <v>388</v>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="69" t="s">
+        <v>382</v>
       </c>
       <c r="N23" s="51" t="s">
         <v>99</v>
@@ -5940,53 +5915,49 @@
       </c>
     </row>
     <row r="24" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="63"/>
-      <c r="B24" s="65" t="s">
+      <c r="A24" s="62"/>
+      <c r="B24" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="83"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="82"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="64" t="s">
-        <v>374</v>
-      </c>
-      <c r="N24" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="O24" s="52" t="s">
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="N24" s="51"/>
+      <c r="O24" s="40" t="s">
         <v>233</v>
       </c>
       <c r="P24" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="Q24" s="51" t="s">
-        <v>347</v>
-      </c>
+      <c r="Q24" s="51"/>
     </row>
     <row r="25" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="63"/>
-      <c r="B25" s="65" t="s">
-        <v>307</v>
+      <c r="A25" s="62"/>
+      <c r="B25" s="64" t="s">
+        <v>305</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
       <c r="E25" s="50"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="95"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="94"/>
       <c r="H25" s="50"/>
-      <c r="I25" s="65"/>
+      <c r="I25" s="64"/>
       <c r="J25" s="50"/>
       <c r="K25" s="50"/>
       <c r="L25" s="50"/>
-      <c r="M25" s="64" t="s">
-        <v>361</v>
+      <c r="M25" s="63" t="s">
+        <v>355</v>
       </c>
       <c r="N25" s="51" t="s">
         <v>99</v>
@@ -5999,21 +5970,21 @@
       </c>
     </row>
     <row r="26" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="63"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="62"/>
+      <c r="B26" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="C26" s="65"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="95"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="94"/>
       <c r="H26" s="50"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
       <c r="K26" s="50"/>
       <c r="L26" s="50"/>
-      <c r="M26" s="63"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="51"/>
       <c r="O26" s="40" t="s">
         <v>42</v>
@@ -6021,22 +5992,22 @@
       <c r="P26" s="40"/>
     </row>
     <row r="27" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="63"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65" t="s">
-        <v>357</v>
+      <c r="A27" s="62"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64" t="s">
+        <v>351</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="50"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="83"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="82"/>
       <c r="H27" s="50"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
       <c r="K27" s="50"/>
       <c r="L27" s="50"/>
-      <c r="M27" s="64" t="s">
-        <v>375</v>
+      <c r="M27" s="63" t="s">
+        <v>369</v>
       </c>
       <c r="N27" s="51" t="s">
         <v>21</v>
@@ -6047,21 +6018,21 @@
       <c r="P27" s="40"/>
     </row>
     <row r="28" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="63"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65" t="s">
+      <c r="A28" s="62"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64" t="s">
         <v>283</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="50"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="95"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="94"/>
       <c r="H28" s="50"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
       <c r="K28" s="50"/>
       <c r="L28" s="50"/>
-      <c r="M28" s="70" t="s">
+      <c r="M28" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N28" s="51" t="s">
@@ -6073,21 +6044,21 @@
       <c r="P28" s="40"/>
     </row>
     <row r="29" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="62" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
       <c r="E29" s="50"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="95"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="94"/>
       <c r="H29" s="50"/>
       <c r="I29" s="50"/>
       <c r="J29" s="50"/>
       <c r="K29" s="50"/>
       <c r="L29" s="50"/>
-      <c r="M29" s="63" t="s">
+      <c r="M29" s="62" t="s">
         <v>246</v>
       </c>
       <c r="N29" s="48" t="s">
@@ -6101,8 +6072,8 @@
       </c>
     </row>
     <row r="30" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="63" t="s">
-        <v>306</v>
+      <c r="A30" s="62" t="s">
+        <v>304</v>
       </c>
       <c r="B30" s="50"/>
       <c r="C30" s="50"/>
@@ -6111,22 +6082,22 @@
       <c r="F30" s="40">
         <v>1</v>
       </c>
-      <c r="G30" s="102"/>
+      <c r="G30" s="101"/>
       <c r="H30" s="50" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I30" s="50"/>
       <c r="J30" s="50"/>
       <c r="K30" s="50"/>
       <c r="L30" s="50"/>
-      <c r="M30" s="63"/>
+      <c r="M30" s="62"/>
       <c r="O30" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P30" s="35"/>
     </row>
     <row r="31" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="63"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="50" t="s">
         <v>12</v>
       </c>
@@ -6146,7 +6117,7 @@
       <c r="J31" s="50"/>
       <c r="K31" s="50"/>
       <c r="L31" s="50"/>
-      <c r="M31" s="70" t="s">
+      <c r="M31" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N31" s="51" t="s">
@@ -6160,9 +6131,9 @@
       </c>
     </row>
     <row r="32" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="63"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C32" s="50"/>
       <c r="D32" s="50"/>
@@ -6175,13 +6146,13 @@
       </c>
       <c r="H32" s="50"/>
       <c r="I32" s="50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J32" s="50"/>
       <c r="K32" s="50"/>
       <c r="L32" s="50"/>
-      <c r="M32" s="63" t="s">
-        <v>378</v>
+      <c r="M32" s="62" t="s">
+        <v>372</v>
       </c>
       <c r="N32" s="51" t="s">
         <v>248</v>
@@ -6192,9 +6163,9 @@
       <c r="P32" s="35"/>
     </row>
     <row r="33" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="63"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C33" s="50"/>
       <c r="D33" s="50"/>
@@ -6207,13 +6178,13 @@
       </c>
       <c r="H33" s="50"/>
       <c r="I33" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J33" s="50"/>
       <c r="K33" s="50"/>
       <c r="L33" s="50"/>
-      <c r="M33" s="63" t="s">
-        <v>378</v>
+      <c r="M33" s="62" t="s">
+        <v>372</v>
       </c>
       <c r="N33" s="51" t="s">
         <v>248</v>
@@ -6224,7 +6195,7 @@
       <c r="P33" s="35"/>
     </row>
     <row r="34" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="63"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="50" t="s">
         <v>282</v>
       </c>
@@ -6236,29 +6207,29 @@
       <c r="J34" s="50"/>
       <c r="K34" s="50"/>
       <c r="L34" s="50"/>
-      <c r="M34" s="105"/>
+      <c r="M34" s="104"/>
       <c r="O34" s="40" t="s">
         <v>42</v>
       </c>
       <c r="P34" s="35"/>
     </row>
     <row r="35" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="63"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="95"/>
+      <c r="C35" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="94"/>
       <c r="H35" s="50"/>
       <c r="I35" s="50"/>
       <c r="J35" s="50"/>
       <c r="K35" s="50"/>
       <c r="L35" s="50"/>
-      <c r="M35" s="64" t="s">
-        <v>360</v>
+      <c r="M35" s="63" t="s">
+        <v>354</v>
       </c>
       <c r="N35" s="48" t="s">
         <v>21</v>
@@ -6269,25 +6240,25 @@
       <c r="P35" s="35"/>
     </row>
     <row r="36" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="63"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="50"/>
       <c r="C36" s="50" t="s">
         <v>283</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="50"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="83"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="82"/>
       <c r="H36" s="50"/>
       <c r="I36" s="50"/>
       <c r="J36" s="50"/>
       <c r="K36" s="50"/>
       <c r="L36" s="50"/>
-      <c r="M36" s="70" t="s">
+      <c r="M36" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N36" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O36" s="35" t="s">
         <v>233</v>
@@ -6295,7 +6266,7 @@
       <c r="P36" s="35"/>
     </row>
     <row r="37" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="62" t="s">
         <v>281</v>
       </c>
       <c r="B37" s="50"/>
@@ -6315,7 +6286,7 @@
       <c r="J37" s="50"/>
       <c r="K37" s="50"/>
       <c r="L37" s="50"/>
-      <c r="M37" s="63"/>
+      <c r="M37" s="62"/>
       <c r="N37" s="51"/>
       <c r="O37" s="35" t="s">
         <v>233</v>
@@ -6325,7 +6296,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" s="48" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="63"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="50"/>
       <c r="C38" s="50"/>
       <c r="D38" s="50"/>
@@ -6334,22 +6305,22 @@
         <v>1</v>
       </c>
       <c r="G38" s="33"/>
-      <c r="H38" s="65" t="s">
-        <v>302</v>
+      <c r="H38" s="64" t="s">
+        <v>300</v>
       </c>
       <c r="I38" s="50"/>
       <c r="J38" s="50"/>
       <c r="K38" s="50"/>
       <c r="L38" s="50"/>
-      <c r="M38" s="91" t="s">
-        <v>304</v>
+      <c r="M38" s="90" t="s">
+        <v>302</v>
       </c>
       <c r="N38" s="51"/>
       <c r="O38" s="35"/>
       <c r="P38" s="35"/>
     </row>
     <row r="39" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="62" t="s">
         <v>282</v>
       </c>
       <c r="B39" s="50"/>
@@ -6361,16 +6332,16 @@
       <c r="J39" s="50"/>
       <c r="K39" s="50"/>
       <c r="L39" s="50"/>
-      <c r="M39" s="106"/>
+      <c r="M39" s="105"/>
       <c r="O39" s="40" t="s">
         <v>42</v>
       </c>
       <c r="P39" s="35"/>
     </row>
     <row r="40" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="63"/>
-      <c r="B40" s="65" t="s">
-        <v>357</v>
+      <c r="A40" s="62"/>
+      <c r="B40" s="64" t="s">
+        <v>351</v>
       </c>
       <c r="C40" s="50"/>
       <c r="D40" s="50"/>
@@ -6381,15 +6352,15 @@
       <c r="G40" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65" t="s">
-        <v>356</v>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="J40" s="50"/>
       <c r="K40" s="50"/>
       <c r="L40" s="50"/>
-      <c r="M40" s="70" t="s">
-        <v>362</v>
+      <c r="M40" s="69" t="s">
+        <v>356</v>
       </c>
       <c r="N40" s="51" t="s">
         <v>21</v>
@@ -6401,8 +6372,8 @@
       <c r="Q40" s="51"/>
     </row>
     <row r="41" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="63"/>
-      <c r="B41" s="65" t="s">
+      <c r="A41" s="62"/>
+      <c r="B41" s="64" t="s">
         <v>284</v>
       </c>
       <c r="C41" s="50"/>
@@ -6414,18 +6385,18 @@
       <c r="G41" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65" t="s">
+      <c r="H41" s="64"/>
+      <c r="I41" s="64" t="s">
         <v>283</v>
       </c>
       <c r="J41" s="50"/>
       <c r="K41" s="50"/>
       <c r="L41" s="50"/>
-      <c r="M41" s="70" t="s">
+      <c r="M41" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N41" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O41" s="40" t="s">
         <v>233</v>
@@ -6434,25 +6405,25 @@
       <c r="Q41" s="51"/>
     </row>
     <row r="42" spans="1:17" s="48" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A42" s="63"/>
-      <c r="B42" s="65" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="64" t="s">
         <v>285</v>
       </c>
       <c r="C42" s="50"/>
       <c r="D42" s="50"/>
       <c r="E42" s="50"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="94"/>
+      <c r="G42" s="93"/>
       <c r="H42" s="50"/>
-      <c r="I42" s="65"/>
+      <c r="I42" s="64"/>
       <c r="J42" s="50"/>
       <c r="K42" s="50"/>
       <c r="L42" s="50"/>
-      <c r="M42" s="70" t="s">
-        <v>363</v>
+      <c r="M42" s="69" t="s">
+        <v>357</v>
       </c>
       <c r="N42" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O42" s="40" t="s">
         <v>233</v>
@@ -6461,8 +6432,8 @@
       <c r="Q42" s="51"/>
     </row>
     <row r="43" spans="1:17" s="48" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="63"/>
-      <c r="B43" s="65"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="50"/>
       <c r="D43" s="50"/>
       <c r="E43" s="50"/>
@@ -6470,15 +6441,15 @@
         <v>11</v>
       </c>
       <c r="G43" s="33"/>
-      <c r="H43" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="I43" s="65"/>
+      <c r="H43" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="I43" s="64"/>
       <c r="J43" s="50"/>
       <c r="K43" s="50"/>
       <c r="L43" s="50"/>
-      <c r="M43" s="91" t="s">
-        <v>304</v>
+      <c r="M43" s="90" t="s">
+        <v>302</v>
       </c>
       <c r="N43" s="51"/>
       <c r="O43" s="40"/>
@@ -6486,9 +6457,9 @@
       <c r="Q43" s="51"/>
     </row>
     <row r="44" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="63"/>
-      <c r="B44" s="65" t="s">
-        <v>357</v>
+      <c r="A44" s="62"/>
+      <c r="B44" s="64" t="s">
+        <v>351</v>
       </c>
       <c r="C44" s="50"/>
       <c r="D44" s="50"/>
@@ -6499,15 +6470,15 @@
       <c r="G44" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65" t="s">
-        <v>356</v>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="J44" s="50"/>
       <c r="K44" s="50"/>
       <c r="L44" s="50"/>
-      <c r="M44" s="70" t="s">
-        <v>362</v>
+      <c r="M44" s="69" t="s">
+        <v>356</v>
       </c>
       <c r="N44" s="51"/>
       <c r="O44" s="40" t="s">
@@ -6517,8 +6488,8 @@
       <c r="Q44" s="51"/>
     </row>
     <row r="45" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="63"/>
-      <c r="B45" s="65" t="s">
+      <c r="A45" s="62"/>
+      <c r="B45" s="64" t="s">
         <v>286</v>
       </c>
       <c r="C45" s="50"/>
@@ -6530,18 +6501,18 @@
       <c r="G45" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65" t="s">
+      <c r="H45" s="64"/>
+      <c r="I45" s="64" t="s">
         <v>283</v>
       </c>
       <c r="J45" s="50"/>
       <c r="K45" s="50"/>
       <c r="L45" s="50"/>
-      <c r="M45" s="70" t="s">
+      <c r="M45" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N45" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O45" s="40" t="s">
         <v>233</v>
@@ -6550,15 +6521,15 @@
       <c r="Q45" s="51"/>
     </row>
     <row r="46" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="62" t="s">
         <v>268</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="50"/>
       <c r="D46" s="50"/>
       <c r="E46" s="50"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="83"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="82"/>
       <c r="H46" s="50" t="s">
         <v>268</v>
       </c>
@@ -6566,7 +6537,7 @@
       <c r="J46" s="50"/>
       <c r="K46" s="50"/>
       <c r="L46" s="50"/>
-      <c r="M46" s="63"/>
+      <c r="M46" s="62"/>
       <c r="N46" s="48" t="s">
         <v>268</v>
       </c>
@@ -6575,41 +6546,41 @@
       </c>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="66"/>
-      <c r="B47" s="67" t="s">
-        <v>343</v>
-      </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="84" t="s">
+    <row r="47" spans="1:17" s="53" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="65"/>
+      <c r="B47" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="G47" s="85"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67" t="s">
-        <v>343</v>
-      </c>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="92"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="91"/>
       <c r="O47" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P47" s="36"/>
     </row>
     <row r="48" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="63"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="50"/>
       <c r="D48" s="50"/>
       <c r="E48" s="50"/>
-      <c r="F48" s="57" t="s">
+      <c r="F48" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G48" s="37" t="s">
@@ -6622,24 +6593,24 @@
       <c r="J48" s="50"/>
       <c r="K48" s="50"/>
       <c r="L48" s="50"/>
-      <c r="M48" s="63"/>
+      <c r="M48" s="62"/>
       <c r="O48" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P48" s="35"/>
     </row>
     <row r="49" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="63"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="50" t="s">
         <v>275</v>
       </c>
       <c r="C49" s="50"/>
       <c r="D49" s="50"/>
       <c r="E49" s="50"/>
-      <c r="F49" s="57" t="s">
+      <c r="F49" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="G49" s="102"/>
+      <c r="G49" s="101"/>
       <c r="H49" s="50"/>
       <c r="I49" s="50" t="s">
         <v>275</v>
@@ -6647,14 +6618,14 @@
       <c r="J49" s="50"/>
       <c r="K49" s="50"/>
       <c r="L49" s="50"/>
-      <c r="M49" s="63"/>
+      <c r="M49" s="62"/>
       <c r="O49" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P49" s="35"/>
     </row>
     <row r="50" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="63"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="50"/>
       <c r="C50" s="50" t="s">
         <v>53</v>
@@ -6666,8 +6637,8 @@
       <c r="J50" s="50"/>
       <c r="K50" s="50"/>
       <c r="L50" s="50"/>
-      <c r="M50" s="64" t="s">
-        <v>364</v>
+      <c r="M50" s="63" t="s">
+        <v>358</v>
       </c>
       <c r="N50" s="48" t="s">
         <v>53</v>
@@ -6678,14 +6649,14 @@
       <c r="P50" s="35"/>
     </row>
     <row r="51" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="63"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="50"/>
       <c r="C51" s="50" t="s">
         <v>55</v>
       </c>
       <c r="D51" s="50"/>
       <c r="E51" s="50"/>
-      <c r="F51" s="57" t="s">
+      <c r="F51" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G51" s="38" t="s">
@@ -6698,24 +6669,24 @@
       </c>
       <c r="K51" s="50"/>
       <c r="L51" s="50"/>
-      <c r="M51" s="63"/>
+      <c r="M51" s="62"/>
       <c r="O51" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P51" s="35"/>
     </row>
     <row r="52" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="63"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="50"/>
       <c r="C52" s="50" t="s">
         <v>292</v>
       </c>
       <c r="D52" s="50"/>
       <c r="E52" s="50"/>
-      <c r="F52" s="57" t="s">
+      <c r="F52" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="83" t="s">
+      <c r="G52" s="82" t="s">
         <v>46</v>
       </c>
       <c r="H52" s="50"/>
@@ -6725,21 +6696,21 @@
       </c>
       <c r="K52" s="50"/>
       <c r="L52" s="50"/>
-      <c r="M52" s="63"/>
+      <c r="M52" s="62"/>
       <c r="O52" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P52" s="35"/>
     </row>
     <row r="53" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="63"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="50"/>
       <c r="C53" s="50" t="s">
         <v>56</v>
       </c>
       <c r="D53" s="50"/>
       <c r="E53" s="50"/>
-      <c r="F53" s="57" t="s">
+      <c r="F53" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G53" s="38" t="s">
@@ -6752,21 +6723,21 @@
       </c>
       <c r="K53" s="50"/>
       <c r="L53" s="50"/>
-      <c r="M53" s="63"/>
+      <c r="M53" s="62"/>
       <c r="O53" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P53" s="35"/>
     </row>
     <row r="54" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="63"/>
+      <c r="A54" s="62"/>
       <c r="B54" s="50"/>
       <c r="C54" s="50" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="50"/>
       <c r="E54" s="50"/>
-      <c r="F54" s="57" t="s">
+      <c r="F54" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G54" s="38" t="s">
@@ -6779,8 +6750,8 @@
       </c>
       <c r="K54" s="50"/>
       <c r="L54" s="50"/>
-      <c r="M54" s="63" t="s">
-        <v>377</v>
+      <c r="M54" s="62" t="s">
+        <v>371</v>
       </c>
       <c r="N54" s="50" t="s">
         <v>248</v>
@@ -6791,7 +6762,7 @@
       <c r="P54" s="35"/>
     </row>
     <row r="55" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="63"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="50"/>
       <c r="C55" s="50" t="s">
         <v>282</v>
@@ -6803,27 +6774,27 @@
       <c r="J55" s="50"/>
       <c r="K55" s="50"/>
       <c r="L55" s="50"/>
-      <c r="M55" s="105"/>
+      <c r="M55" s="104"/>
       <c r="O55" s="40" t="s">
         <v>42</v>
       </c>
       <c r="P55" s="35"/>
     </row>
     <row r="56" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="63"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="50"/>
       <c r="C56" s="50"/>
-      <c r="D56" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E56" s="65"/>
+      <c r="D56" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E56" s="64"/>
       <c r="H56" s="50"/>
       <c r="I56" s="50"/>
       <c r="J56" s="50"/>
       <c r="K56" s="50"/>
       <c r="L56" s="50"/>
-      <c r="M56" s="64" t="s">
-        <v>365</v>
+      <c r="M56" s="63" t="s">
+        <v>359</v>
       </c>
       <c r="N56" s="48" t="s">
         <v>21</v>
@@ -6834,7 +6805,7 @@
       <c r="P56" s="35"/>
     </row>
     <row r="57" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="63"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="50"/>
       <c r="C57" s="50"/>
       <c r="D57" s="50" t="s">
@@ -6846,11 +6817,11 @@
       <c r="J57" s="50"/>
       <c r="K57" s="50"/>
       <c r="L57" s="50"/>
-      <c r="M57" s="70" t="s">
+      <c r="M57" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N57" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O57" s="35" t="s">
         <v>233</v>
@@ -6858,39 +6829,39 @@
       <c r="P57" s="35"/>
     </row>
     <row r="58" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="63"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="50" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="50"/>
       <c r="E58" s="50"/>
-      <c r="F58" s="57" t="s">
+      <c r="F58" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="G58" s="102"/>
+      <c r="G58" s="101"/>
       <c r="H58" s="50"/>
       <c r="I58" s="50" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J58" s="50"/>
       <c r="K58" s="50"/>
       <c r="L58" s="50"/>
-      <c r="M58" s="63"/>
+      <c r="M58" s="62"/>
       <c r="O58" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P58" s="35"/>
     </row>
     <row r="59" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="63"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="50"/>
       <c r="C59" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="50"/>
       <c r="E59" s="50"/>
-      <c r="F59" s="57" t="s">
+      <c r="F59" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G59" s="38" t="s">
@@ -6903,7 +6874,7 @@
       </c>
       <c r="K59" s="50"/>
       <c r="L59" s="50"/>
-      <c r="M59" s="70" t="s">
+      <c r="M59" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N59" s="51" t="s">
@@ -6915,14 +6886,14 @@
       <c r="P59" s="35"/>
     </row>
     <row r="60" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="63"/>
+      <c r="A60" s="62"/>
       <c r="B60" s="50"/>
       <c r="C60" s="50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D60" s="50"/>
       <c r="E60" s="50"/>
-      <c r="F60" s="57" t="s">
+      <c r="F60" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G60" s="38" t="s">
@@ -6931,12 +6902,12 @@
       <c r="H60" s="50"/>
       <c r="I60" s="50"/>
       <c r="J60" s="50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K60" s="50"/>
       <c r="L60" s="50"/>
-      <c r="M60" s="63" t="s">
-        <v>378</v>
+      <c r="M60" s="62" t="s">
+        <v>372</v>
       </c>
       <c r="N60" s="51" t="s">
         <v>248</v>
@@ -6947,14 +6918,14 @@
       <c r="P60" s="35"/>
     </row>
     <row r="61" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="63"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="50"/>
       <c r="C61" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D61" s="50"/>
       <c r="E61" s="50"/>
-      <c r="F61" s="57" t="s">
+      <c r="F61" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G61" s="38" t="s">
@@ -6963,12 +6934,12 @@
       <c r="H61" s="50"/>
       <c r="I61" s="50"/>
       <c r="J61" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K61" s="50"/>
       <c r="L61" s="50"/>
-      <c r="M61" s="63" t="s">
-        <v>378</v>
+      <c r="M61" s="62" t="s">
+        <v>372</v>
       </c>
       <c r="N61" s="51" t="s">
         <v>248</v>
@@ -6979,7 +6950,7 @@
       <c r="P61" s="35"/>
     </row>
     <row r="62" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="63"/>
+      <c r="A62" s="62"/>
       <c r="B62" s="50"/>
       <c r="C62" s="50" t="s">
         <v>282</v>
@@ -6991,27 +6962,27 @@
       <c r="J62" s="50"/>
       <c r="K62" s="50"/>
       <c r="L62" s="50"/>
-      <c r="M62" s="105"/>
+      <c r="M62" s="104"/>
       <c r="O62" s="40" t="s">
         <v>42</v>
       </c>
       <c r="P62" s="35"/>
     </row>
     <row r="63" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="63"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="50"/>
       <c r="C63" s="50"/>
-      <c r="D63" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E63" s="65"/>
+      <c r="D63" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E63" s="64"/>
       <c r="H63" s="50"/>
       <c r="I63" s="50"/>
       <c r="J63" s="50"/>
       <c r="K63" s="50"/>
       <c r="L63" s="50"/>
-      <c r="M63" s="64" t="s">
-        <v>365</v>
+      <c r="M63" s="63" t="s">
+        <v>359</v>
       </c>
       <c r="N63" s="48" t="s">
         <v>21</v>
@@ -7022,7 +6993,7 @@
       <c r="P63" s="35"/>
     </row>
     <row r="64" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="63"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="50"/>
       <c r="C64" s="50"/>
       <c r="D64" s="50" t="s">
@@ -7034,11 +7005,11 @@
       <c r="J64" s="50"/>
       <c r="K64" s="50"/>
       <c r="L64" s="50"/>
-      <c r="M64" s="70" t="s">
+      <c r="M64" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N64" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O64" s="35" t="s">
         <v>233</v>
@@ -7046,17 +7017,17 @@
       <c r="P64" s="35"/>
     </row>
     <row r="65" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="63"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="50" t="s">
         <v>281</v>
       </c>
       <c r="C65" s="50"/>
       <c r="D65" s="50"/>
       <c r="E65" s="50"/>
-      <c r="F65" s="57" t="s">
+      <c r="F65" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="G65" s="83" t="s">
+      <c r="G65" s="82" t="s">
         <v>33</v>
       </c>
       <c r="H65" s="50"/>
@@ -7066,19 +7037,19 @@
       <c r="J65" s="50"/>
       <c r="K65" s="50"/>
       <c r="L65" s="50"/>
-      <c r="M65" s="63"/>
+      <c r="M65" s="62"/>
       <c r="O65" s="35"/>
       <c r="P65" s="35"/>
     </row>
     <row r="66" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="63"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="50" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C66" s="50"/>
       <c r="D66" s="50"/>
       <c r="E66" s="50"/>
-      <c r="F66" s="57" t="s">
+      <c r="F66" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G66" s="39" t="s">
@@ -7086,12 +7057,12 @@
       </c>
       <c r="H66" s="50"/>
       <c r="I66" s="50" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J66" s="50"/>
       <c r="K66" s="50"/>
       <c r="L66" s="50"/>
-      <c r="M66" s="70" t="s">
+      <c r="M66" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N66" s="51" t="s">
@@ -7101,17 +7072,17 @@
       <c r="P66" s="35"/>
     </row>
     <row r="67" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="63"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="50" t="s">
         <v>282</v>
       </c>
       <c r="C67" s="50"/>
       <c r="D67" s="50"/>
       <c r="E67" s="50"/>
-      <c r="F67" s="57" t="s">
+      <c r="F67" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="G67" s="97"/>
+      <c r="G67" s="96"/>
       <c r="H67" s="50"/>
       <c r="I67" s="50" t="s">
         <v>282</v>
@@ -7119,35 +7090,35 @@
       <c r="J67" s="50"/>
       <c r="K67" s="50"/>
       <c r="L67" s="50"/>
-      <c r="M67" s="105"/>
+      <c r="M67" s="104"/>
       <c r="O67" s="35" t="s">
         <v>42</v>
       </c>
       <c r="P67" s="35"/>
     </row>
     <row r="68" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="63"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="50"/>
-      <c r="C68" s="65" t="s">
-        <v>357</v>
+      <c r="C68" s="64" t="s">
+        <v>351</v>
       </c>
       <c r="D68" s="50"/>
       <c r="E68" s="50"/>
       <c r="F68" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="G68" s="97" t="s">
+      <c r="G68" s="96" t="s">
         <v>19</v>
       </c>
       <c r="H68" s="50"/>
       <c r="I68" s="50"/>
-      <c r="J68" s="65" t="s">
-        <v>356</v>
+      <c r="J68" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="K68" s="50"/>
       <c r="L68" s="50"/>
-      <c r="M68" s="70" t="s">
-        <v>362</v>
+      <c r="M68" s="69" t="s">
+        <v>356</v>
       </c>
       <c r="N68" s="48" t="s">
         <v>21</v>
@@ -7158,14 +7129,14 @@
       <c r="P68" s="35"/>
     </row>
     <row r="69" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="63"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="50"/>
       <c r="C69" s="50" t="s">
         <v>283</v>
       </c>
       <c r="D69" s="50"/>
       <c r="E69" s="50"/>
-      <c r="F69" s="57" t="s">
+      <c r="F69" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G69" s="38" t="s">
@@ -7178,11 +7149,11 @@
       </c>
       <c r="K69" s="50"/>
       <c r="L69" s="50"/>
-      <c r="M69" s="70" t="s">
+      <c r="M69" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N69" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O69" s="35" t="s">
         <v>233</v>
@@ -7190,7 +7161,7 @@
       <c r="P69" s="35"/>
     </row>
     <row r="70" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="63" t="s">
+      <c r="A70" s="62" t="s">
         <v>295</v>
       </c>
       <c r="B70" s="50"/>
@@ -7200,7 +7171,7 @@
       <c r="F70" s="40">
         <v>4</v>
       </c>
-      <c r="G70" s="56"/>
+      <c r="G70" s="55"/>
       <c r="H70" s="50" t="s">
         <v>295</v>
       </c>
@@ -7208,14 +7179,14 @@
       <c r="J70" s="50"/>
       <c r="K70" s="50"/>
       <c r="L70" s="50"/>
-      <c r="M70" s="63"/>
-      <c r="O70" s="55" t="s">
+      <c r="M70" s="62"/>
+      <c r="O70" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="P70" s="55"/>
+      <c r="P70" s="54"/>
     </row>
     <row r="71" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="63"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="50" t="s">
         <v>249</v>
       </c>
@@ -7223,14 +7194,14 @@
       <c r="D71" s="50"/>
       <c r="E71" s="50"/>
       <c r="F71" s="28"/>
-      <c r="G71" s="94"/>
+      <c r="G71" s="93"/>
       <c r="H71" s="50"/>
       <c r="I71" s="50"/>
       <c r="J71" s="50"/>
       <c r="K71" s="50"/>
       <c r="L71" s="50"/>
-      <c r="M71" s="71" t="s">
-        <v>354</v>
+      <c r="M71" s="70" t="s">
+        <v>348</v>
       </c>
       <c r="N71" s="51" t="s">
         <v>296</v>
@@ -7241,7 +7212,7 @@
       <c r="P71" s="35"/>
     </row>
     <row r="72" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="63"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="50" t="s">
         <v>296</v>
       </c>
@@ -7261,8 +7232,8 @@
       <c r="J72" s="50"/>
       <c r="K72" s="50"/>
       <c r="L72" s="50"/>
-      <c r="M72" s="63" t="s">
-        <v>379</v>
+      <c r="M72" s="62" t="s">
+        <v>373</v>
       </c>
       <c r="N72" s="51" t="s">
         <v>296</v>
@@ -7273,7 +7244,7 @@
       <c r="P72" s="35"/>
     </row>
     <row r="73" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="63"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="50" t="s">
         <v>297</v>
       </c>
@@ -7293,22 +7264,20 @@
       <c r="J73" s="50"/>
       <c r="K73" s="50"/>
       <c r="L73" s="50"/>
-      <c r="M73" s="63" t="s">
-        <v>380</v>
+      <c r="M73" s="62" t="s">
+        <v>374</v>
       </c>
       <c r="N73" s="51" t="s">
         <v>248</v>
       </c>
       <c r="O73" s="35"/>
       <c r="P73" s="35"/>
-      <c r="Q73" s="51" t="s">
+      <c r="Q73" s="51"/>
+    </row>
+    <row r="74" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="62"/>
+      <c r="B74" s="50" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="63"/>
-      <c r="B74" s="50" t="s">
-        <v>299</v>
       </c>
       <c r="C74" s="50"/>
       <c r="D74" s="50"/>
@@ -7321,12 +7290,12 @@
       </c>
       <c r="H74" s="50"/>
       <c r="I74" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J74" s="50"/>
       <c r="K74" s="50"/>
       <c r="L74" s="50"/>
-      <c r="M74" s="63" t="s">
+      <c r="M74" s="62" t="s">
         <v>264</v>
       </c>
       <c r="O74" s="35" t="s">
@@ -7336,7 +7305,7 @@
       <c r="Q74" s="51"/>
     </row>
     <row r="75" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="63"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="50" t="s">
         <v>282</v>
       </c>
@@ -7354,17 +7323,17 @@
       <c r="J75" s="50"/>
       <c r="K75" s="50"/>
       <c r="L75" s="50"/>
-      <c r="M75" s="105"/>
+      <c r="M75" s="104"/>
       <c r="O75" s="35" t="s">
         <v>42</v>
       </c>
       <c r="P75" s="35"/>
     </row>
     <row r="76" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="63"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="50"/>
-      <c r="C76" s="65" t="s">
-        <v>357</v>
+      <c r="C76" s="64" t="s">
+        <v>351</v>
       </c>
       <c r="D76" s="50"/>
       <c r="E76" s="50"/>
@@ -7376,13 +7345,13 @@
       </c>
       <c r="H76" s="50"/>
       <c r="I76" s="50"/>
-      <c r="J76" s="65" t="s">
-        <v>356</v>
+      <c r="J76" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="K76" s="50"/>
       <c r="L76" s="50"/>
-      <c r="M76" s="70" t="s">
-        <v>362</v>
+      <c r="M76" s="69" t="s">
+        <v>356</v>
       </c>
       <c r="N76" s="48" t="s">
         <v>21</v>
@@ -7393,7 +7362,7 @@
       <c r="P76" s="35"/>
     </row>
     <row r="77" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="63"/>
+      <c r="A77" s="62"/>
       <c r="B77" s="50"/>
       <c r="C77" s="50" t="s">
         <v>283</v>
@@ -7413,11 +7382,11 @@
       </c>
       <c r="K77" s="50"/>
       <c r="L77" s="50"/>
-      <c r="M77" s="70" t="s">
+      <c r="M77" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N77" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O77" s="35" t="s">
         <v>233</v>
@@ -7425,9 +7394,9 @@
       <c r="P77" s="35"/>
     </row>
     <row r="78" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="63"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="50" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="50"/>
@@ -7440,12 +7409,12 @@
       </c>
       <c r="H78" s="50"/>
       <c r="I78" s="50" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J78" s="50"/>
       <c r="K78" s="50"/>
       <c r="L78" s="50"/>
-      <c r="M78" s="70" t="s">
+      <c r="M78" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N78" s="51" t="s">
@@ -7455,7 +7424,7 @@
       <c r="P78" s="35"/>
     </row>
     <row r="79" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="63" t="s">
+      <c r="A79" s="62" t="s">
         <v>267</v>
       </c>
       <c r="B79" s="50"/>
@@ -7465,7 +7434,7 @@
       <c r="F79" s="32">
         <v>5</v>
       </c>
-      <c r="G79" s="94"/>
+      <c r="G79" s="93"/>
       <c r="H79" s="50" t="s">
         <v>267</v>
       </c>
@@ -7473,7 +7442,7 @@
       <c r="J79" s="50"/>
       <c r="K79" s="50"/>
       <c r="L79" s="50"/>
-      <c r="M79" s="64"/>
+      <c r="M79" s="63"/>
       <c r="N79" s="48" t="s">
         <v>267</v>
       </c>
@@ -7483,14 +7452,14 @@
       <c r="P79" s="35"/>
     </row>
     <row r="80" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="63"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="50"/>
       <c r="D80" s="50"/>
       <c r="E80" s="50"/>
-      <c r="F80" s="57">
+      <c r="F80" s="56">
         <v>5</v>
       </c>
       <c r="G80" s="37" t="s">
@@ -7503,24 +7472,24 @@
       <c r="J80" s="50"/>
       <c r="K80" s="50"/>
       <c r="L80" s="50"/>
-      <c r="M80" s="63"/>
+      <c r="M80" s="62"/>
       <c r="O80" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P80" s="35"/>
     </row>
     <row r="81" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="63"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="50" t="s">
         <v>275</v>
       </c>
       <c r="C81" s="50"/>
       <c r="D81" s="50"/>
       <c r="E81" s="50"/>
-      <c r="F81" s="57">
+      <c r="F81" s="56">
         <v>5</v>
       </c>
-      <c r="G81" s="102"/>
+      <c r="G81" s="101"/>
       <c r="H81" s="50"/>
       <c r="I81" s="50" t="s">
         <v>275</v>
@@ -7528,14 +7497,14 @@
       <c r="J81" s="50"/>
       <c r="K81" s="50"/>
       <c r="L81" s="50"/>
-      <c r="M81" s="63"/>
+      <c r="M81" s="62"/>
       <c r="O81" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P81" s="35"/>
     </row>
     <row r="82" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="63"/>
+      <c r="A82" s="62"/>
       <c r="B82" s="50"/>
       <c r="C82" s="50" t="s">
         <v>53</v>
@@ -7547,7 +7516,7 @@
       <c r="J82" s="50"/>
       <c r="K82" s="50"/>
       <c r="L82" s="50"/>
-      <c r="M82" s="63" t="s">
+      <c r="M82" s="62" t="s">
         <v>247</v>
       </c>
       <c r="N82" s="48" t="s">
@@ -7559,14 +7528,14 @@
       <c r="P82" s="35"/>
     </row>
     <row r="83" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="63"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="50"/>
       <c r="C83" s="50" t="s">
         <v>55</v>
       </c>
       <c r="D83" s="50"/>
       <c r="E83" s="50"/>
-      <c r="F83" s="57">
+      <c r="F83" s="56">
         <v>5</v>
       </c>
       <c r="G83" s="38" t="s">
@@ -7579,24 +7548,24 @@
       </c>
       <c r="K83" s="50"/>
       <c r="L83" s="50"/>
-      <c r="M83" s="63"/>
+      <c r="M83" s="62"/>
       <c r="O83" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P83" s="35"/>
     </row>
     <row r="84" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="63"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="50"/>
       <c r="C84" s="50" t="s">
         <v>292</v>
       </c>
       <c r="D84" s="50"/>
       <c r="E84" s="50"/>
-      <c r="F84" s="57">
+      <c r="F84" s="56">
         <v>5</v>
       </c>
-      <c r="G84" s="83" t="s">
+      <c r="G84" s="82" t="s">
         <v>46</v>
       </c>
       <c r="H84" s="50"/>
@@ -7606,21 +7575,21 @@
       </c>
       <c r="K84" s="50"/>
       <c r="L84" s="50"/>
-      <c r="M84" s="63"/>
+      <c r="M84" s="62"/>
       <c r="O84" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P84" s="35"/>
     </row>
     <row r="85" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="63"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="50"/>
       <c r="C85" s="50" t="s">
         <v>56</v>
       </c>
       <c r="D85" s="50"/>
       <c r="E85" s="50"/>
-      <c r="F85" s="57">
+      <c r="F85" s="56">
         <v>5</v>
       </c>
       <c r="G85" s="38" t="s">
@@ -7633,21 +7602,21 @@
       </c>
       <c r="K85" s="50"/>
       <c r="L85" s="50"/>
-      <c r="M85" s="63"/>
+      <c r="M85" s="62"/>
       <c r="O85" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P85" s="35"/>
     </row>
     <row r="86" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="63"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="50"/>
       <c r="C86" s="50" t="s">
         <v>47</v>
       </c>
       <c r="D86" s="50"/>
       <c r="E86" s="50"/>
-      <c r="F86" s="57">
+      <c r="F86" s="56">
         <v>5</v>
       </c>
       <c r="G86" s="38" t="s">
@@ -7660,8 +7629,8 @@
       </c>
       <c r="K86" s="50"/>
       <c r="L86" s="50"/>
-      <c r="M86" s="63" t="s">
-        <v>377</v>
+      <c r="M86" s="62" t="s">
+        <v>371</v>
       </c>
       <c r="N86" s="50" t="s">
         <v>248</v>
@@ -7672,7 +7641,7 @@
       <c r="P86" s="35"/>
     </row>
     <row r="87" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="63"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="50"/>
       <c r="C87" s="50" t="s">
         <v>282</v>
@@ -7684,18 +7653,18 @@
       <c r="J87" s="50"/>
       <c r="K87" s="50"/>
       <c r="L87" s="50"/>
-      <c r="M87" s="105"/>
+      <c r="M87" s="104"/>
       <c r="O87" s="40" t="s">
         <v>42</v>
       </c>
       <c r="P87" s="35"/>
     </row>
     <row r="88" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="63"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="50"/>
       <c r="C88" s="50"/>
-      <c r="D88" s="65" t="s">
-        <v>357</v>
+      <c r="D88" s="64" t="s">
+        <v>351</v>
       </c>
       <c r="E88" s="50"/>
       <c r="H88" s="50"/>
@@ -7703,8 +7672,8 @@
       <c r="J88" s="50"/>
       <c r="K88" s="50"/>
       <c r="L88" s="50"/>
-      <c r="M88" s="64" t="s">
-        <v>366</v>
+      <c r="M88" s="63" t="s">
+        <v>360</v>
       </c>
       <c r="N88" s="48" t="s">
         <v>21</v>
@@ -7715,7 +7684,7 @@
       <c r="P88" s="35"/>
     </row>
     <row r="89" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="63"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="50"/>
       <c r="C89" s="50"/>
       <c r="D89" s="50" t="s">
@@ -7727,11 +7696,11 @@
       <c r="J89" s="50"/>
       <c r="K89" s="50"/>
       <c r="L89" s="50"/>
-      <c r="M89" s="70" t="s">
+      <c r="M89" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N89" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O89" s="35" t="s">
         <v>233</v>
@@ -7739,39 +7708,39 @@
       <c r="P89" s="35"/>
     </row>
     <row r="90" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="63"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="50" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C90" s="50"/>
       <c r="D90" s="50"/>
       <c r="E90" s="50"/>
-      <c r="F90" s="57">
+      <c r="F90" s="56">
         <v>5</v>
       </c>
-      <c r="G90" s="102"/>
+      <c r="G90" s="101"/>
       <c r="H90" s="50"/>
       <c r="I90" s="50" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J90" s="50"/>
       <c r="K90" s="50"/>
       <c r="L90" s="50"/>
-      <c r="M90" s="63"/>
+      <c r="M90" s="62"/>
       <c r="O90" s="35" t="s">
         <v>42</v>
       </c>
       <c r="P90" s="35"/>
     </row>
     <row r="91" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="63"/>
+      <c r="A91" s="62"/>
       <c r="B91" s="50"/>
       <c r="C91" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="50"/>
       <c r="E91" s="50"/>
-      <c r="F91" s="57">
+      <c r="F91" s="56">
         <v>5</v>
       </c>
       <c r="G91" s="38" t="s">
@@ -7784,7 +7753,7 @@
       </c>
       <c r="K91" s="50"/>
       <c r="L91" s="50"/>
-      <c r="M91" s="70" t="s">
+      <c r="M91" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N91" s="51" t="s">
@@ -7796,14 +7765,14 @@
       <c r="P91" s="35"/>
     </row>
     <row r="92" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="63"/>
+      <c r="A92" s="62"/>
       <c r="B92" s="50"/>
       <c r="C92" s="50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D92" s="50"/>
       <c r="E92" s="50"/>
-      <c r="F92" s="57">
+      <c r="F92" s="56">
         <v>5</v>
       </c>
       <c r="G92" s="38" t="s">
@@ -7812,12 +7781,12 @@
       <c r="H92" s="50"/>
       <c r="I92" s="50"/>
       <c r="J92" s="50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K92" s="50"/>
       <c r="L92" s="50"/>
-      <c r="M92" s="63" t="s">
-        <v>378</v>
+      <c r="M92" s="62" t="s">
+        <v>372</v>
       </c>
       <c r="N92" s="51" t="s">
         <v>248</v>
@@ -7826,14 +7795,14 @@
       <c r="P92" s="35"/>
     </row>
     <row r="93" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="63"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="50"/>
       <c r="C93" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D93" s="50"/>
       <c r="E93" s="50"/>
-      <c r="F93" s="57">
+      <c r="F93" s="56">
         <v>5</v>
       </c>
       <c r="G93" s="38" t="s">
@@ -7842,12 +7811,12 @@
       <c r="H93" s="50"/>
       <c r="I93" s="50"/>
       <c r="J93" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K93" s="50"/>
       <c r="L93" s="50"/>
-      <c r="M93" s="63" t="s">
-        <v>378</v>
+      <c r="M93" s="62" t="s">
+        <v>372</v>
       </c>
       <c r="N93" s="51" t="s">
         <v>248</v>
@@ -7856,7 +7825,7 @@
       <c r="P93" s="35"/>
     </row>
     <row r="94" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="63"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="50"/>
       <c r="C94" s="50" t="s">
         <v>282</v>
@@ -7868,18 +7837,18 @@
       <c r="J94" s="50"/>
       <c r="K94" s="50"/>
       <c r="L94" s="50"/>
-      <c r="M94" s="105"/>
+      <c r="M94" s="104"/>
       <c r="O94" s="35" t="s">
         <v>42</v>
       </c>
       <c r="P94" s="35"/>
     </row>
     <row r="95" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="63"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="50"/>
       <c r="C95" s="50"/>
-      <c r="D95" s="65" t="s">
-        <v>357</v>
+      <c r="D95" s="64" t="s">
+        <v>351</v>
       </c>
       <c r="E95" s="50"/>
       <c r="H95" s="50"/>
@@ -7887,8 +7856,8 @@
       <c r="J95" s="50"/>
       <c r="K95" s="50"/>
       <c r="L95" s="50"/>
-      <c r="M95" s="64" t="s">
-        <v>366</v>
+      <c r="M95" s="63" t="s">
+        <v>360</v>
       </c>
       <c r="N95" s="48" t="s">
         <v>21</v>
@@ -7899,7 +7868,7 @@
       <c r="P95" s="35"/>
     </row>
     <row r="96" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="63"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="50"/>
       <c r="C96" s="50"/>
       <c r="D96" s="50" t="s">
@@ -7911,11 +7880,11 @@
       <c r="J96" s="50"/>
       <c r="K96" s="50"/>
       <c r="L96" s="50"/>
-      <c r="M96" s="70" t="s">
+      <c r="M96" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N96" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O96" s="35" t="s">
         <v>233</v>
@@ -7923,14 +7892,14 @@
       <c r="P96" s="35"/>
     </row>
     <row r="97" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="63"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="50" t="s">
         <v>281</v>
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50"/>
       <c r="E97" s="50"/>
-      <c r="F97" s="57">
+      <c r="F97" s="56">
         <v>5</v>
       </c>
       <c r="G97" s="38" t="s">
@@ -7943,44 +7912,44 @@
       <c r="J97" s="50"/>
       <c r="K97" s="50"/>
       <c r="L97" s="50"/>
-      <c r="M97" s="63"/>
+      <c r="M97" s="62"/>
       <c r="O97" s="35"/>
       <c r="P97" s="35"/>
     </row>
     <row r="98" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="63"/>
+      <c r="A98" s="62"/>
       <c r="B98" s="50" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50"/>
       <c r="E98" s="50"/>
-      <c r="F98" s="57">
+      <c r="F98" s="56">
         <v>5</v>
       </c>
-      <c r="G98" s="102"/>
+      <c r="G98" s="101"/>
       <c r="H98" s="50"/>
       <c r="I98" s="50" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J98" s="50"/>
       <c r="K98" s="50"/>
       <c r="L98" s="50"/>
-      <c r="M98" s="63"/>
+      <c r="M98" s="62"/>
       <c r="O98" s="35" t="s">
         <v>42</v>
       </c>
       <c r="P98" s="35"/>
     </row>
     <row r="99" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="63"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="50"/>
       <c r="C99" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="50"/>
       <c r="E99" s="50"/>
-      <c r="F99" s="57">
+      <c r="F99" s="56">
         <v>5</v>
       </c>
       <c r="G99" s="39" t="s">
@@ -7993,7 +7962,7 @@
       </c>
       <c r="K99" s="50"/>
       <c r="L99" s="50"/>
-      <c r="M99" s="70" t="s">
+      <c r="M99" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N99" s="51" t="s">
@@ -8005,14 +7974,14 @@
       <c r="P99" s="35"/>
     </row>
     <row r="100" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="63"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="50"/>
       <c r="C100" s="50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D100" s="50"/>
       <c r="E100" s="50"/>
-      <c r="F100" s="57">
+      <c r="F100" s="56">
         <v>5</v>
       </c>
       <c r="G100" s="39" t="s">
@@ -8021,12 +7990,12 @@
       <c r="H100" s="50"/>
       <c r="I100" s="50"/>
       <c r="J100" s="50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K100" s="50"/>
       <c r="L100" s="50"/>
-      <c r="M100" s="63" t="s">
-        <v>378</v>
+      <c r="M100" s="62" t="s">
+        <v>372</v>
       </c>
       <c r="N100" s="51" t="s">
         <v>248</v>
@@ -8035,14 +8004,14 @@
       <c r="P100" s="35"/>
     </row>
     <row r="101" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="63"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="50"/>
       <c r="C101" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D101" s="50"/>
       <c r="E101" s="50"/>
-      <c r="F101" s="57">
+      <c r="F101" s="56">
         <v>5</v>
       </c>
       <c r="G101" s="39" t="s">
@@ -8051,12 +8020,12 @@
       <c r="H101" s="50"/>
       <c r="I101" s="50"/>
       <c r="J101" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K101" s="50"/>
       <c r="L101" s="50"/>
-      <c r="M101" s="63" t="s">
-        <v>378</v>
+      <c r="M101" s="62" t="s">
+        <v>372</v>
       </c>
       <c r="N101" s="51" t="s">
         <v>248</v>
@@ -8065,7 +8034,7 @@
       <c r="P101" s="35"/>
     </row>
     <row r="102" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="63"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="50"/>
       <c r="C102" s="50" t="s">
         <v>282</v>
@@ -8077,27 +8046,27 @@
       <c r="J102" s="50"/>
       <c r="K102" s="50"/>
       <c r="L102" s="50"/>
-      <c r="M102" s="105"/>
+      <c r="M102" s="104"/>
       <c r="O102" s="40" t="s">
         <v>42</v>
       </c>
       <c r="P102" s="35"/>
     </row>
     <row r="103" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="63"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="50"/>
       <c r="C103" s="50"/>
-      <c r="D103" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E103" s="65"/>
+      <c r="D103" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E103" s="64"/>
       <c r="H103" s="50"/>
       <c r="I103" s="50"/>
       <c r="J103" s="50"/>
       <c r="K103" s="50"/>
       <c r="L103" s="50"/>
-      <c r="M103" s="64" t="s">
-        <v>366</v>
+      <c r="M103" s="63" t="s">
+        <v>360</v>
       </c>
       <c r="N103" s="48" t="s">
         <v>21</v>
@@ -8108,7 +8077,7 @@
       <c r="P103" s="35"/>
     </row>
     <row r="104" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="63"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="50"/>
       <c r="C104" s="50"/>
       <c r="D104" s="50" t="s">
@@ -8120,11 +8089,11 @@
       <c r="J104" s="50"/>
       <c r="K104" s="50"/>
       <c r="L104" s="50"/>
-      <c r="M104" s="70" t="s">
+      <c r="M104" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N104" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O104" s="35" t="s">
         <v>233</v>
@@ -8132,17 +8101,17 @@
       <c r="P104" s="35"/>
     </row>
     <row r="105" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="63"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="50" t="s">
         <v>274</v>
       </c>
       <c r="C105" s="50"/>
       <c r="D105" s="50"/>
       <c r="E105" s="50"/>
-      <c r="F105" s="57">
+      <c r="F105" s="56">
         <v>5</v>
       </c>
-      <c r="G105" s="103"/>
+      <c r="G105" s="102"/>
       <c r="H105" s="50"/>
       <c r="I105" s="50" t="s">
         <v>274</v>
@@ -8150,21 +8119,21 @@
       <c r="J105" s="50"/>
       <c r="K105" s="50"/>
       <c r="L105" s="50"/>
-      <c r="M105" s="63"/>
+      <c r="M105" s="62"/>
       <c r="O105" s="40" t="s">
         <v>42</v>
       </c>
       <c r="P105" s="35"/>
     </row>
     <row r="106" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="63"/>
+      <c r="A106" s="62"/>
       <c r="B106" s="50"/>
       <c r="C106" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="50"/>
       <c r="E106" s="50"/>
-      <c r="F106" s="57">
+      <c r="F106" s="56">
         <v>5</v>
       </c>
       <c r="G106" s="39" t="s">
@@ -8177,7 +8146,7 @@
       </c>
       <c r="K106" s="50"/>
       <c r="L106" s="50"/>
-      <c r="M106" s="70" t="s">
+      <c r="M106" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N106" s="51" t="s">
@@ -8189,19 +8158,19 @@
       <c r="P106" s="35"/>
     </row>
     <row r="107" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="63"/>
+      <c r="A107" s="62"/>
       <c r="B107" s="50"/>
-      <c r="C107" s="65" t="s">
+      <c r="C107" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="64"/>
       <c r="H107" s="50"/>
       <c r="I107" s="50"/>
-      <c r="J107" s="65"/>
-      <c r="K107" s="65"/>
-      <c r="L107" s="65"/>
-      <c r="M107" s="106"/>
+      <c r="J107" s="64"/>
+      <c r="K107" s="64"/>
+      <c r="L107" s="64"/>
+      <c r="M107" s="105"/>
       <c r="N107" s="51"/>
       <c r="O107" s="40" t="s">
         <v>42</v>
@@ -8209,20 +8178,20 @@
       <c r="P107" s="40"/>
     </row>
     <row r="108" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="63"/>
+      <c r="A108" s="62"/>
       <c r="B108" s="50"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E108" s="65"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E108" s="64"/>
       <c r="H108" s="50"/>
       <c r="I108" s="50"/>
-      <c r="J108" s="65"/>
-      <c r="K108" s="65"/>
-      <c r="L108" s="65"/>
-      <c r="M108" s="64" t="s">
-        <v>366</v>
+      <c r="J108" s="64"/>
+      <c r="K108" s="64"/>
+      <c r="L108" s="64"/>
+      <c r="M108" s="63" t="s">
+        <v>360</v>
       </c>
       <c r="N108" s="48" t="s">
         <v>21</v>
@@ -8233,23 +8202,23 @@
       <c r="P108" s="40"/>
     </row>
     <row r="109" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="63"/>
+      <c r="A109" s="62"/>
       <c r="B109" s="50"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="65" t="s">
+      <c r="C109" s="64"/>
+      <c r="D109" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="E109" s="65"/>
+      <c r="E109" s="64"/>
       <c r="H109" s="50"/>
       <c r="I109" s="50"/>
-      <c r="J109" s="65"/>
-      <c r="K109" s="65"/>
-      <c r="L109" s="65"/>
-      <c r="M109" s="70" t="s">
+      <c r="J109" s="64"/>
+      <c r="K109" s="64"/>
+      <c r="L109" s="64"/>
+      <c r="M109" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N109" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O109" s="35" t="s">
         <v>233</v>
@@ -8257,14 +8226,14 @@
       <c r="P109" s="40"/>
     </row>
     <row r="110" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="63"/>
+      <c r="A110" s="62"/>
       <c r="B110" s="50" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
       <c r="E110" s="50"/>
-      <c r="F110" s="57">
+      <c r="F110" s="56">
         <v>5</v>
       </c>
       <c r="G110" s="39" t="s">
@@ -8272,27 +8241,27 @@
       </c>
       <c r="H110" s="50"/>
       <c r="I110" s="50" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J110" s="50"/>
       <c r="K110" s="50"/>
       <c r="L110" s="50"/>
-      <c r="M110" s="63"/>
+      <c r="M110" s="62"/>
       <c r="O110" s="35"/>
       <c r="P110" s="35"/>
     </row>
     <row r="111" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="63"/>
+      <c r="A111" s="62"/>
       <c r="B111" s="50" t="s">
         <v>282</v>
       </c>
       <c r="C111" s="50"/>
       <c r="D111" s="50"/>
       <c r="E111" s="50"/>
-      <c r="F111" s="57">
+      <c r="F111" s="56">
         <v>5</v>
       </c>
-      <c r="G111" s="97"/>
+      <c r="G111" s="96"/>
       <c r="H111" s="50"/>
       <c r="I111" s="50" t="s">
         <v>282</v>
@@ -8300,35 +8269,35 @@
       <c r="J111" s="50"/>
       <c r="K111" s="50"/>
       <c r="L111" s="50"/>
-      <c r="M111" s="105"/>
+      <c r="M111" s="104"/>
       <c r="O111" s="35" t="s">
         <v>42</v>
       </c>
       <c r="P111" s="35"/>
     </row>
     <row r="112" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="63"/>
+      <c r="A112" s="62"/>
       <c r="B112" s="50"/>
-      <c r="C112" s="65" t="s">
-        <v>357</v>
+      <c r="C112" s="64" t="s">
+        <v>351</v>
       </c>
       <c r="D112" s="50"/>
       <c r="E112" s="50"/>
       <c r="F112" s="40">
         <v>5</v>
       </c>
-      <c r="G112" s="97" t="s">
+      <c r="G112" s="96" t="s">
         <v>19</v>
       </c>
       <c r="H112" s="50"/>
       <c r="I112" s="50"/>
-      <c r="J112" s="65" t="s">
-        <v>356</v>
+      <c r="J112" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="K112" s="50"/>
       <c r="L112" s="50"/>
-      <c r="M112" s="70" t="s">
-        <v>362</v>
+      <c r="M112" s="69" t="s">
+        <v>356</v>
       </c>
       <c r="N112" s="48" t="s">
         <v>21</v>
@@ -8339,14 +8308,14 @@
       <c r="P112" s="35"/>
     </row>
     <row r="113" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="63"/>
+      <c r="A113" s="62"/>
       <c r="B113" s="50"/>
       <c r="C113" s="50" t="s">
         <v>283</v>
       </c>
       <c r="D113" s="50"/>
       <c r="E113" s="50"/>
-      <c r="F113" s="57">
+      <c r="F113" s="56">
         <v>5</v>
       </c>
       <c r="G113" s="38" t="s">
@@ -8359,11 +8328,11 @@
       </c>
       <c r="K113" s="50"/>
       <c r="L113" s="50"/>
-      <c r="M113" s="70" t="s">
+      <c r="M113" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N113" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O113" s="40" t="s">
         <v>233</v>
@@ -8371,32 +8340,32 @@
       <c r="P113" s="35"/>
     </row>
     <row r="114" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="63" t="s">
-        <v>311</v>
+      <c r="A114" s="62" t="s">
+        <v>309</v>
       </c>
       <c r="B114" s="50"/>
       <c r="C114" s="50"/>
       <c r="D114" s="50"/>
       <c r="E114" s="50"/>
-      <c r="F114" s="57">
+      <c r="F114" s="56">
         <v>6</v>
       </c>
-      <c r="G114" s="83"/>
+      <c r="G114" s="82"/>
       <c r="H114" s="50" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I114" s="50"/>
       <c r="J114" s="50"/>
       <c r="K114" s="50"/>
       <c r="L114" s="50"/>
-      <c r="M114" s="63"/>
+      <c r="M114" s="62"/>
       <c r="O114" s="35" t="s">
         <v>42</v>
       </c>
       <c r="P114" s="35"/>
     </row>
     <row r="115" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="63"/>
+      <c r="A115" s="62"/>
       <c r="B115" s="50" t="s">
         <v>12</v>
       </c>
@@ -8416,7 +8385,7 @@
       <c r="J115" s="50"/>
       <c r="K115" s="50"/>
       <c r="L115" s="50"/>
-      <c r="M115" s="70" t="s">
+      <c r="M115" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N115" s="51" t="s">
@@ -8425,12 +8394,12 @@
       <c r="O115" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="P115" s="57"/>
+      <c r="P115" s="56"/>
     </row>
     <row r="116" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="63"/>
+      <c r="A116" s="62"/>
       <c r="B116" s="50" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C116" s="50"/>
       <c r="D116" s="50"/>
@@ -8440,7 +8409,7 @@
       <c r="J116" s="50"/>
       <c r="K116" s="50"/>
       <c r="L116" s="50"/>
-      <c r="M116" s="63" t="s">
+      <c r="M116" s="62" t="s">
         <v>250</v>
       </c>
       <c r="N116" s="41" t="s">
@@ -8454,9 +8423,9 @@
       </c>
     </row>
     <row r="117" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="63"/>
+      <c r="A117" s="62"/>
       <c r="B117" s="50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C117" s="50"/>
       <c r="D117" s="50"/>
@@ -8469,13 +8438,13 @@
       </c>
       <c r="H117" s="50"/>
       <c r="I117" s="50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J117" s="50"/>
       <c r="K117" s="50"/>
       <c r="L117" s="50"/>
-      <c r="M117" s="63" t="s">
-        <v>378</v>
+      <c r="M117" s="62" t="s">
+        <v>372</v>
       </c>
       <c r="N117" s="51" t="s">
         <v>248</v>
@@ -8484,9 +8453,9 @@
       <c r="P117" s="35"/>
     </row>
     <row r="118" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="63"/>
+      <c r="A118" s="62"/>
       <c r="B118" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C118" s="50"/>
       <c r="D118" s="50"/>
@@ -8499,13 +8468,13 @@
       </c>
       <c r="H118" s="50"/>
       <c r="I118" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J118" s="50"/>
       <c r="K118" s="50"/>
       <c r="L118" s="50"/>
-      <c r="M118" s="63" t="s">
-        <v>378</v>
+      <c r="M118" s="62" t="s">
+        <v>372</v>
       </c>
       <c r="N118" s="51" t="s">
         <v>248</v>
@@ -8514,7 +8483,7 @@
       <c r="P118" s="35"/>
     </row>
     <row r="119" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="63"/>
+      <c r="A119" s="62"/>
       <c r="B119" s="50" t="s">
         <v>282</v>
       </c>
@@ -8524,7 +8493,7 @@
       <c r="F119" s="28">
         <v>6</v>
       </c>
-      <c r="G119" s="97"/>
+      <c r="G119" s="96"/>
       <c r="H119" s="50"/>
       <c r="I119" s="50" t="s">
         <v>282</v>
@@ -8532,17 +8501,17 @@
       <c r="J119" s="50"/>
       <c r="K119" s="50"/>
       <c r="L119" s="50"/>
-      <c r="M119" s="105"/>
+      <c r="M119" s="104"/>
       <c r="O119" s="35" t="s">
         <v>42</v>
       </c>
       <c r="P119" s="35"/>
     </row>
     <row r="120" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="63"/>
+      <c r="A120" s="62"/>
       <c r="B120" s="50"/>
-      <c r="C120" s="65" t="s">
-        <v>357</v>
+      <c r="C120" s="64" t="s">
+        <v>351</v>
       </c>
       <c r="D120" s="50"/>
       <c r="E120" s="50"/>
@@ -8554,13 +8523,13 @@
       </c>
       <c r="H120" s="50"/>
       <c r="I120" s="50"/>
-      <c r="J120" s="65" t="s">
-        <v>356</v>
+      <c r="J120" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="K120" s="50"/>
       <c r="L120" s="50"/>
-      <c r="M120" s="70" t="s">
-        <v>362</v>
+      <c r="M120" s="69" t="s">
+        <v>356</v>
       </c>
       <c r="N120" s="48" t="s">
         <v>21</v>
@@ -8571,7 +8540,7 @@
       <c r="P120" s="35"/>
     </row>
     <row r="121" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="63"/>
+      <c r="A121" s="62"/>
       <c r="B121" s="50"/>
       <c r="C121" s="50" t="s">
         <v>283</v>
@@ -8591,11 +8560,11 @@
       </c>
       <c r="K121" s="50"/>
       <c r="L121" s="50"/>
-      <c r="M121" s="70" t="s">
+      <c r="M121" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N121" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O121" s="35" t="s">
         <v>233</v>
@@ -8603,8 +8572,8 @@
       <c r="P121" s="40"/>
     </row>
     <row r="122" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="63" t="s">
-        <v>310</v>
+      <c r="A122" s="62" t="s">
+        <v>308</v>
       </c>
       <c r="B122" s="50"/>
       <c r="C122" s="50"/>
@@ -8613,22 +8582,22 @@
       <c r="F122" s="40">
         <v>7</v>
       </c>
-      <c r="G122" s="102"/>
+      <c r="G122" s="101"/>
       <c r="H122" s="50" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I122" s="50"/>
       <c r="J122" s="50"/>
       <c r="K122" s="50"/>
       <c r="L122" s="50"/>
-      <c r="M122" s="63"/>
+      <c r="M122" s="62"/>
       <c r="O122" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P122" s="35"/>
     </row>
     <row r="123" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="63"/>
+      <c r="A123" s="62"/>
       <c r="B123" s="50" t="s">
         <v>12</v>
       </c>
@@ -8648,7 +8617,7 @@
       <c r="J123" s="50"/>
       <c r="K123" s="50"/>
       <c r="L123" s="50"/>
-      <c r="M123" s="70" t="s">
+      <c r="M123" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N123" s="51" t="s">
@@ -8660,9 +8629,9 @@
       <c r="P123" s="35"/>
     </row>
     <row r="124" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="63"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="50" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C124" s="50"/>
       <c r="D124" s="50"/>
@@ -8675,12 +8644,12 @@
       </c>
       <c r="H124" s="50"/>
       <c r="I124" s="50" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J124" s="50"/>
       <c r="K124" s="50"/>
       <c r="L124" s="50"/>
-      <c r="M124" s="63"/>
+      <c r="M124" s="62"/>
       <c r="O124" s="35" t="s">
         <v>233</v>
       </c>
@@ -8689,7 +8658,7 @@
       </c>
     </row>
     <row r="125" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="63" t="s">
+      <c r="A125" s="62" t="s">
         <v>280</v>
       </c>
       <c r="B125" s="50"/>
@@ -8709,7 +8678,7 @@
       <c r="J125" s="50"/>
       <c r="K125" s="50"/>
       <c r="L125" s="50"/>
-      <c r="M125" s="70" t="s">
+      <c r="M125" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N125" s="51" t="s">
@@ -8719,7 +8688,7 @@
       <c r="P125" s="35"/>
     </row>
     <row r="126" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="63" t="s">
+      <c r="A126" s="62" t="s">
         <v>279</v>
       </c>
       <c r="B126" s="50"/>
@@ -8739,7 +8708,7 @@
       <c r="J126" s="50"/>
       <c r="K126" s="50"/>
       <c r="L126" s="50"/>
-      <c r="M126" s="63" t="s">
+      <c r="M126" s="62" t="s">
         <v>266</v>
       </c>
       <c r="N126" s="48" t="s">
@@ -8753,8 +8722,8 @@
       </c>
     </row>
     <row r="127" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="64" t="s">
-        <v>314</v>
+      <c r="A127" s="63" t="s">
+        <v>312</v>
       </c>
       <c r="B127" s="50"/>
       <c r="C127" s="50"/>
@@ -8766,22 +8735,22 @@
       <c r="G127" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="H127" s="65" t="s">
-        <v>314</v>
+      <c r="H127" s="64" t="s">
+        <v>312</v>
       </c>
       <c r="I127" s="50"/>
       <c r="J127" s="50"/>
       <c r="K127" s="50"/>
       <c r="L127" s="50"/>
-      <c r="M127" s="63"/>
+      <c r="M127" s="62"/>
       <c r="O127" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P127" s="35"/>
     </row>
     <row r="128" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="64" t="s">
-        <v>342</v>
+      <c r="A128" s="63" t="s">
+        <v>337</v>
       </c>
       <c r="B128" s="50"/>
       <c r="C128" s="50"/>
@@ -8793,14 +8762,14 @@
       <c r="G128" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="H128" s="65" t="s">
-        <v>342</v>
+      <c r="H128" s="64" t="s">
+        <v>337</v>
       </c>
       <c r="I128" s="50"/>
       <c r="J128" s="50"/>
       <c r="K128" s="50"/>
       <c r="L128" s="50"/>
-      <c r="M128" s="70" t="s">
+      <c r="M128" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N128" s="51" t="s">
@@ -8809,35 +8778,35 @@
       <c r="O128" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="P128" s="58"/>
+      <c r="P128" s="57"/>
     </row>
     <row r="129" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="63" t="s">
-        <v>313</v>
+      <c r="A129" s="62" t="s">
+        <v>311</v>
       </c>
       <c r="B129" s="50"/>
       <c r="C129" s="50"/>
       <c r="D129" s="50"/>
       <c r="E129" s="50"/>
-      <c r="F129" s="57">
+      <c r="F129" s="56">
         <v>8</v>
       </c>
-      <c r="G129" s="94"/>
+      <c r="G129" s="93"/>
       <c r="H129" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I129" s="50"/>
       <c r="J129" s="50"/>
       <c r="K129" s="50"/>
       <c r="L129" s="50"/>
-      <c r="M129" s="63"/>
+      <c r="M129" s="62"/>
       <c r="O129" s="35" t="s">
         <v>42</v>
       </c>
       <c r="P129" s="35"/>
     </row>
     <row r="130" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="63"/>
+      <c r="A130" s="62"/>
       <c r="B130" s="50" t="s">
         <v>249</v>
       </c>
@@ -8845,29 +8814,29 @@
       <c r="D130" s="50"/>
       <c r="E130" s="50"/>
       <c r="F130" s="27"/>
-      <c r="G130" s="94"/>
+      <c r="G130" s="93"/>
       <c r="H130" s="50"/>
       <c r="I130" s="50"/>
       <c r="J130" s="50"/>
       <c r="K130" s="50"/>
       <c r="L130" s="50"/>
-      <c r="M130" s="63" t="s">
+      <c r="M130" s="62" t="s">
         <v>273</v>
       </c>
       <c r="N130" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="O130" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="P130" s="40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="62"/>
+      <c r="B131" s="50" t="s">
         <v>313</v>
-      </c>
-      <c r="O130" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="P130" s="40" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="63"/>
-      <c r="B131" s="50" t="s">
-        <v>315</v>
       </c>
       <c r="C131" s="50"/>
       <c r="D131" s="50"/>
@@ -8880,12 +8849,12 @@
       </c>
       <c r="H131" s="50"/>
       <c r="I131" s="50" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J131" s="50"/>
       <c r="K131" s="50"/>
       <c r="L131" s="50"/>
-      <c r="M131" s="63"/>
+      <c r="M131" s="62"/>
       <c r="O131" s="35" t="s">
         <v>233</v>
       </c>
@@ -8894,9 +8863,9 @@
       </c>
     </row>
     <row r="132" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="63"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="50" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C132" s="50"/>
       <c r="D132" s="50"/>
@@ -8909,13 +8878,13 @@
       </c>
       <c r="H132" s="50"/>
       <c r="I132" s="50" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J132" s="50"/>
       <c r="K132" s="50"/>
       <c r="L132" s="50"/>
-      <c r="M132" s="64" t="s">
-        <v>345</v>
+      <c r="M132" s="63" t="s">
+        <v>340</v>
       </c>
       <c r="O132" s="35" t="s">
         <v>233</v>
@@ -8923,7 +8892,7 @@
       <c r="P132" s="35"/>
     </row>
     <row r="133" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="63"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="50" t="s">
         <v>110</v>
       </c>
@@ -8943,8 +8912,8 @@
       <c r="J133" s="50"/>
       <c r="K133" s="50"/>
       <c r="L133" s="50"/>
-      <c r="M133" s="63" t="s">
-        <v>381</v>
+      <c r="M133" s="62" t="s">
+        <v>375</v>
       </c>
       <c r="N133" s="51" t="s">
         <v>248</v>
@@ -8953,12 +8922,10 @@
         <v>233</v>
       </c>
       <c r="P133" s="35"/>
-      <c r="Q133" s="51" t="s">
-        <v>319</v>
-      </c>
+      <c r="Q133" s="51"/>
     </row>
     <row r="134" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="63"/>
+      <c r="A134" s="62"/>
       <c r="B134" s="50" t="s">
         <v>150</v>
       </c>
@@ -8978,8 +8945,8 @@
       <c r="J134" s="50"/>
       <c r="K134" s="50"/>
       <c r="L134" s="50"/>
-      <c r="M134" s="63" t="s">
-        <v>381</v>
+      <c r="M134" s="62" t="s">
+        <v>375</v>
       </c>
       <c r="N134" s="51" t="s">
         <v>248</v>
@@ -8988,14 +8955,12 @@
         <v>233</v>
       </c>
       <c r="P134" s="35"/>
-      <c r="Q134" s="51" t="s">
-        <v>320</v>
-      </c>
+      <c r="Q134" s="51"/>
     </row>
     <row r="135" spans="1:17" s="48" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="63"/>
+      <c r="A135" s="62"/>
       <c r="B135" s="50" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C135" s="50"/>
       <c r="D135" s="50"/>
@@ -9005,8 +8970,8 @@
       <c r="J135" s="50"/>
       <c r="K135" s="50"/>
       <c r="L135" s="50"/>
-      <c r="M135" s="70" t="s">
-        <v>387</v>
+      <c r="M135" s="69" t="s">
+        <v>381</v>
       </c>
       <c r="N135" s="51" t="s">
         <v>12</v>
@@ -9017,26 +8982,26 @@
       <c r="P135" s="35"/>
     </row>
     <row r="136" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="63"/>
-      <c r="B136" s="65" t="s">
-        <v>322</v>
+      <c r="A136" s="62"/>
+      <c r="B136" s="64" t="s">
+        <v>318</v>
       </c>
       <c r="C136" s="50"/>
       <c r="D136" s="50"/>
       <c r="E136" s="50"/>
       <c r="H136" s="50"/>
-      <c r="I136" s="65"/>
+      <c r="I136" s="64"/>
       <c r="J136" s="50"/>
       <c r="K136" s="50"/>
       <c r="L136" s="50"/>
-      <c r="M136" s="64"/>
+      <c r="M136" s="63"/>
       <c r="O136" s="40" t="s">
         <v>42</v>
       </c>
       <c r="P136" s="35"/>
     </row>
     <row r="137" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="63"/>
+      <c r="A137" s="62"/>
       <c r="B137" s="50"/>
       <c r="C137" s="50" t="s">
         <v>143</v>
@@ -9047,22 +9012,20 @@
       <c r="I137" s="50"/>
       <c r="K137" s="50"/>
       <c r="L137" s="50"/>
-      <c r="M137" s="64" t="s">
-        <v>368</v>
+      <c r="M137" s="63" t="s">
+        <v>362</v>
       </c>
       <c r="N137" s="48" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O137" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="P137" s="58"/>
-      <c r="Q137" s="51" t="s">
-        <v>323</v>
-      </c>
+      <c r="P137" s="57"/>
+      <c r="Q137" s="51"/>
     </row>
     <row r="138" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="63"/>
+      <c r="A138" s="62"/>
       <c r="B138" s="50"/>
       <c r="C138" s="50" t="s">
         <v>97</v>
@@ -9081,8 +9044,8 @@
       </c>
       <c r="K138" s="50"/>
       <c r="L138" s="50"/>
-      <c r="M138" s="63" t="s">
-        <v>367</v>
+      <c r="M138" s="62" t="s">
+        <v>361</v>
       </c>
       <c r="N138" s="48" t="s">
         <v>99</v>
@@ -9093,7 +9056,7 @@
       <c r="P138" s="35"/>
     </row>
     <row r="139" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="63"/>
+      <c r="A139" s="62"/>
       <c r="B139" s="50"/>
       <c r="C139" s="50"/>
       <c r="D139" s="50"/>
@@ -9111,14 +9074,14 @@
       <c r="J139" s="50"/>
       <c r="K139" s="50"/>
       <c r="L139" s="50"/>
-      <c r="M139" s="63" t="s">
+      <c r="M139" s="62" t="s">
         <v>264</v>
       </c>
       <c r="O139" s="35"/>
       <c r="P139" s="35"/>
     </row>
     <row r="140" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="63"/>
+      <c r="A140" s="62"/>
       <c r="B140" s="50"/>
       <c r="C140" s="50" t="s">
         <v>91</v>
@@ -9137,8 +9100,8 @@
       </c>
       <c r="K140" s="50"/>
       <c r="L140" s="50"/>
-      <c r="M140" s="63" t="s">
-        <v>382</v>
+      <c r="M140" s="62" t="s">
+        <v>376</v>
       </c>
       <c r="O140" s="35" t="s">
         <v>233</v>
@@ -9146,7 +9109,7 @@
       <c r="P140" s="35"/>
     </row>
     <row r="141" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="63"/>
+      <c r="A141" s="62"/>
       <c r="B141" s="50"/>
       <c r="C141" s="50" t="s">
         <v>89</v>
@@ -9165,14 +9128,14 @@
       </c>
       <c r="K141" s="50"/>
       <c r="L141" s="50"/>
-      <c r="M141" s="63"/>
+      <c r="M141" s="62"/>
       <c r="O141" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P141" s="35"/>
     </row>
     <row r="142" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="63"/>
+      <c r="A142" s="62"/>
       <c r="B142" s="50"/>
       <c r="C142" s="50" t="s">
         <v>93</v>
@@ -9191,17 +9154,17 @@
       </c>
       <c r="K142" s="50"/>
       <c r="L142" s="50"/>
-      <c r="M142" s="63"/>
+      <c r="M142" s="62"/>
       <c r="O142" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P142" s="35"/>
     </row>
     <row r="143" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="63"/>
+      <c r="A143" s="62"/>
       <c r="B143" s="50"/>
       <c r="C143" s="50" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D143" s="50"/>
       <c r="E143" s="50"/>
@@ -9213,18 +9176,18 @@
       </c>
       <c r="H143" s="50"/>
       <c r="I143" s="50" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K143" s="50"/>
       <c r="L143" s="50"/>
-      <c r="M143" s="63"/>
+      <c r="M143" s="62"/>
       <c r="O143" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P143" s="35"/>
     </row>
     <row r="144" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="63"/>
+      <c r="A144" s="62"/>
       <c r="B144" s="50"/>
       <c r="C144" s="50" t="s">
         <v>95</v>
@@ -9243,14 +9206,14 @@
       </c>
       <c r="K144" s="50"/>
       <c r="L144" s="50"/>
-      <c r="M144" s="63"/>
+      <c r="M144" s="62"/>
       <c r="O144" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P144" s="35"/>
     </row>
     <row r="145" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="63"/>
+      <c r="A145" s="62"/>
       <c r="B145" s="50"/>
       <c r="C145" s="50" t="s">
         <v>100</v>
@@ -9269,7 +9232,7 @@
       </c>
       <c r="K145" s="50"/>
       <c r="L145" s="50"/>
-      <c r="M145" s="63" t="s">
+      <c r="M145" s="62" t="s">
         <v>265</v>
       </c>
       <c r="N145" s="51" t="s">
@@ -9281,7 +9244,7 @@
       <c r="P145" s="35"/>
     </row>
     <row r="146" spans="1:17" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="63"/>
+      <c r="A146" s="62"/>
       <c r="B146" s="50"/>
       <c r="C146" s="50" t="s">
         <v>148</v>
@@ -9300,17 +9263,17 @@
       </c>
       <c r="K146" s="50"/>
       <c r="L146" s="50"/>
-      <c r="M146" s="63"/>
+      <c r="M146" s="62"/>
       <c r="O146" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P146" s="35"/>
     </row>
     <row r="147" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="63"/>
+      <c r="A147" s="62"/>
       <c r="B147" s="50"/>
       <c r="C147" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D147" s="50"/>
       <c r="E147" s="50"/>
@@ -9322,12 +9285,12 @@
       </c>
       <c r="H147" s="50"/>
       <c r="I147" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K147" s="50"/>
       <c r="L147" s="50"/>
-      <c r="M147" s="72" t="s">
-        <v>383</v>
+      <c r="M147" s="71" t="s">
+        <v>377</v>
       </c>
       <c r="N147" s="51" t="s">
         <v>248</v>
@@ -9338,7 +9301,7 @@
       <c r="P147" s="40"/>
     </row>
     <row r="148" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="63"/>
+      <c r="A148" s="62"/>
       <c r="B148" s="50"/>
       <c r="C148" s="50"/>
       <c r="D148" s="50"/>
@@ -9351,13 +9314,13 @@
       </c>
       <c r="H148" s="50"/>
       <c r="I148" s="50" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J148" s="50"/>
       <c r="K148" s="50"/>
       <c r="L148" s="50"/>
-      <c r="M148" s="64" t="s">
-        <v>345</v>
+      <c r="M148" s="63" t="s">
+        <v>340</v>
       </c>
       <c r="O148" s="35" t="s">
         <v>233</v>
@@ -9365,10 +9328,10 @@
       <c r="P148" s="35"/>
     </row>
     <row r="149" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="63"/>
+      <c r="A149" s="62"/>
       <c r="B149" s="50"/>
-      <c r="C149" s="65" t="s">
-        <v>316</v>
+      <c r="C149" s="64" t="s">
+        <v>314</v>
       </c>
       <c r="D149" s="50"/>
       <c r="E149" s="50"/>
@@ -9376,16 +9339,16 @@
         <v>8</v>
       </c>
       <c r="G149" s="33" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H149" s="50"/>
-      <c r="I149" s="65" t="s">
-        <v>316</v>
+      <c r="I149" s="64" t="s">
+        <v>314</v>
       </c>
       <c r="K149" s="50"/>
       <c r="L149" s="50"/>
-      <c r="M149" s="64" t="s">
-        <v>346</v>
+      <c r="M149" s="63" t="s">
+        <v>341</v>
       </c>
       <c r="O149" s="35" t="s">
         <v>233</v>
@@ -9394,10 +9357,10 @@
       <c r="Q149" s="51"/>
     </row>
     <row r="150" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="63"/>
+      <c r="A150" s="62"/>
       <c r="B150" s="50"/>
-      <c r="C150" s="65" t="s">
-        <v>317</v>
+      <c r="C150" s="64" t="s">
+        <v>315</v>
       </c>
       <c r="D150" s="50"/>
       <c r="E150" s="50"/>
@@ -9405,16 +9368,16 @@
         <v>8</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H150" s="50"/>
-      <c r="I150" s="65" t="s">
-        <v>317</v>
+      <c r="I150" s="64" t="s">
+        <v>315</v>
       </c>
       <c r="K150" s="50"/>
       <c r="L150" s="50"/>
-      <c r="M150" s="64" t="s">
-        <v>346</v>
+      <c r="M150" s="63" t="s">
+        <v>341</v>
       </c>
       <c r="O150" s="35" t="s">
         <v>233</v>
@@ -9423,10 +9386,10 @@
       <c r="Q150" s="51"/>
     </row>
     <row r="151" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="63"/>
+      <c r="A151" s="62"/>
       <c r="B151" s="50"/>
-      <c r="C151" s="65" t="s">
-        <v>318</v>
+      <c r="C151" s="64" t="s">
+        <v>316</v>
       </c>
       <c r="D151" s="50"/>
       <c r="E151" s="50"/>
@@ -9437,13 +9400,13 @@
         <v>109</v>
       </c>
       <c r="H151" s="50"/>
-      <c r="I151" s="65" t="s">
-        <v>318</v>
+      <c r="I151" s="64" t="s">
+        <v>316</v>
       </c>
       <c r="K151" s="50"/>
       <c r="L151" s="50"/>
-      <c r="M151" s="64" t="s">
-        <v>346</v>
+      <c r="M151" s="63" t="s">
+        <v>341</v>
       </c>
       <c r="O151" s="35" t="s">
         <v>233</v>
@@ -9451,19 +9414,19 @@
       <c r="P151" s="40"/>
     </row>
     <row r="152" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="63"/>
+      <c r="A152" s="62"/>
       <c r="B152" s="50"/>
-      <c r="C152" s="65" t="s">
+      <c r="C152" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="D152" s="65"/>
+      <c r="D152" s="64"/>
       <c r="E152" s="50"/>
       <c r="H152" s="50"/>
       <c r="I152" s="50"/>
-      <c r="J152" s="65"/>
-      <c r="K152" s="65"/>
+      <c r="J152" s="64"/>
+      <c r="K152" s="64"/>
       <c r="L152" s="50"/>
-      <c r="M152" s="106"/>
+      <c r="M152" s="105"/>
       <c r="N152" s="51"/>
       <c r="O152" s="40" t="s">
         <v>42</v>
@@ -9471,20 +9434,20 @@
       <c r="P152" s="40"/>
     </row>
     <row r="153" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="63"/>
+      <c r="A153" s="62"/>
       <c r="B153" s="50"/>
-      <c r="C153" s="65"/>
-      <c r="D153" s="65" t="s">
-        <v>357</v>
+      <c r="C153" s="64"/>
+      <c r="D153" s="64" t="s">
+        <v>351</v>
       </c>
       <c r="E153" s="50"/>
       <c r="H153" s="50"/>
       <c r="I153" s="50"/>
-      <c r="J153" s="65"/>
-      <c r="K153" s="65"/>
+      <c r="J153" s="64"/>
+      <c r="K153" s="64"/>
       <c r="L153" s="50"/>
-      <c r="M153" s="64" t="s">
-        <v>373</v>
+      <c r="M153" s="63" t="s">
+        <v>367</v>
       </c>
       <c r="N153" s="51" t="s">
         <v>21</v>
@@ -9495,23 +9458,23 @@
       <c r="P153" s="40"/>
     </row>
     <row r="154" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="64"/>
-      <c r="B154" s="65"/>
-      <c r="C154" s="65"/>
-      <c r="D154" s="65" t="s">
+      <c r="A154" s="63"/>
+      <c r="B154" s="64"/>
+      <c r="C154" s="64"/>
+      <c r="D154" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="E154" s="65"/>
-      <c r="H154" s="65"/>
-      <c r="I154" s="65"/>
-      <c r="J154" s="65"/>
-      <c r="K154" s="65"/>
-      <c r="L154" s="65"/>
-      <c r="M154" s="70" t="s">
+      <c r="E154" s="64"/>
+      <c r="H154" s="64"/>
+      <c r="I154" s="64"/>
+      <c r="J154" s="64"/>
+      <c r="K154" s="64"/>
+      <c r="L154" s="64"/>
+      <c r="M154" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N154" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O154" s="40" t="s">
         <v>233</v>
@@ -9519,7 +9482,7 @@
       <c r="P154" s="40"/>
     </row>
     <row r="155" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="63"/>
+      <c r="A155" s="62"/>
       <c r="B155" s="30" t="s">
         <v>282</v>
       </c>
@@ -9529,7 +9492,7 @@
       <c r="F155" s="32">
         <v>8</v>
       </c>
-      <c r="G155" s="97"/>
+      <c r="G155" s="96"/>
       <c r="H155" s="50"/>
       <c r="I155" s="30" t="s">
         <v>282</v>
@@ -9537,18 +9500,18 @@
       <c r="J155" s="30"/>
       <c r="K155" s="50"/>
       <c r="L155" s="50"/>
-      <c r="M155" s="100"/>
-      <c r="N155" s="56"/>
+      <c r="M155" s="99"/>
+      <c r="N155" s="55"/>
       <c r="O155" s="40" t="s">
         <v>42</v>
       </c>
       <c r="P155" s="40"/>
     </row>
     <row r="156" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="63"/>
+      <c r="A156" s="62"/>
       <c r="B156" s="30"/>
-      <c r="C156" s="65" t="s">
-        <v>357</v>
+      <c r="C156" s="64" t="s">
+        <v>351</v>
       </c>
       <c r="D156" s="50"/>
       <c r="E156" s="50"/>
@@ -9560,15 +9523,15 @@
       </c>
       <c r="H156" s="50"/>
       <c r="I156" s="30"/>
-      <c r="J156" s="65" t="s">
-        <v>356</v>
+      <c r="J156" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="K156" s="50"/>
       <c r="L156" s="50"/>
-      <c r="M156" s="70" t="s">
-        <v>362</v>
-      </c>
-      <c r="N156" s="56" t="s">
+      <c r="M156" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="N156" s="55" t="s">
         <v>21</v>
       </c>
       <c r="O156" s="40" t="s">
@@ -9577,7 +9540,7 @@
       <c r="P156" s="40"/>
     </row>
     <row r="157" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="63"/>
+      <c r="A157" s="62"/>
       <c r="B157" s="30"/>
       <c r="C157" s="30" t="s">
         <v>283</v>
@@ -9597,11 +9560,11 @@
       </c>
       <c r="K157" s="50"/>
       <c r="L157" s="50"/>
-      <c r="M157" s="70" t="s">
+      <c r="M157" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N157" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O157" s="35" t="s">
         <v>233</v>
@@ -9609,27 +9572,27 @@
       <c r="P157" s="35"/>
     </row>
     <row r="158" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="63"/>
+      <c r="A158" s="62"/>
       <c r="B158" s="50" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C158" s="50"/>
       <c r="D158" s="50"/>
       <c r="E158" s="50"/>
-      <c r="F158" s="57">
+      <c r="F158" s="56">
         <v>8</v>
       </c>
-      <c r="G158" s="83" t="s">
+      <c r="G158" s="82" t="s">
         <v>67</v>
       </c>
       <c r="H158" s="50"/>
       <c r="I158" s="50" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J158" s="50"/>
       <c r="K158" s="50"/>
       <c r="L158" s="50"/>
-      <c r="M158" s="70" t="s">
+      <c r="M158" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N158" s="51" t="s">
@@ -9639,33 +9602,33 @@
       <c r="P158" s="35"/>
     </row>
     <row r="159" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="64" t="s">
-        <v>325</v>
+      <c r="A159" s="63" t="s">
+        <v>320</v>
       </c>
       <c r="B159" s="50"/>
-      <c r="C159" s="65"/>
-      <c r="D159" s="65"/>
+      <c r="C159" s="64"/>
+      <c r="D159" s="64"/>
       <c r="E159" s="50"/>
       <c r="F159" s="28">
         <v>8</v>
       </c>
       <c r="G159" s="33"/>
-      <c r="H159" s="65" t="s">
-        <v>325</v>
+      <c r="H159" s="64" t="s">
+        <v>320</v>
       </c>
       <c r="I159" s="50"/>
-      <c r="J159" s="65"/>
-      <c r="K159" s="65"/>
+      <c r="J159" s="64"/>
+      <c r="K159" s="64"/>
       <c r="L159" s="50"/>
-      <c r="M159" s="70"/>
+      <c r="M159" s="69"/>
       <c r="N159" s="51"/>
       <c r="O159" s="35"/>
       <c r="P159" s="35"/>
     </row>
     <row r="160" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="63"/>
+      <c r="A160" s="62"/>
       <c r="B160" s="50" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C160" s="50"/>
       <c r="D160" s="50"/>
@@ -9678,13 +9641,13 @@
       </c>
       <c r="H160" s="50"/>
       <c r="I160" s="50" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J160" s="50"/>
       <c r="K160" s="50"/>
       <c r="L160" s="50"/>
-      <c r="M160" s="64" t="s">
-        <v>378</v>
+      <c r="M160" s="63" t="s">
+        <v>372</v>
       </c>
       <c r="N160" s="51" t="s">
         <v>248</v>
@@ -9693,9 +9656,9 @@
       <c r="P160" s="35"/>
     </row>
     <row r="161" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="63"/>
+      <c r="A161" s="62"/>
       <c r="B161" s="50" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C161" s="50"/>
       <c r="D161" s="50"/>
@@ -9705,8 +9668,8 @@
       <c r="J161" s="50"/>
       <c r="K161" s="50"/>
       <c r="L161" s="50"/>
-      <c r="M161" s="73" t="s">
-        <v>369</v>
+      <c r="M161" s="72" t="s">
+        <v>363</v>
       </c>
       <c r="N161" s="51" t="s">
         <v>248</v>
@@ -9717,9 +9680,9 @@
       <c r="P161" s="35"/>
     </row>
     <row r="162" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="63"/>
+      <c r="A162" s="62"/>
       <c r="B162" s="50" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C162" s="50"/>
       <c r="D162" s="50"/>
@@ -9732,12 +9695,12 @@
       </c>
       <c r="H162" s="50"/>
       <c r="I162" s="50" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="J162" s="50"/>
       <c r="K162" s="50"/>
       <c r="L162" s="50"/>
-      <c r="M162" s="70" t="s">
+      <c r="M162" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N162" s="51" t="s">
@@ -9749,25 +9712,25 @@
       <c r="P162" s="35"/>
     </row>
     <row r="163" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="63"/>
+      <c r="A163" s="62"/>
       <c r="B163" s="50" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C163" s="50"/>
       <c r="D163" s="50"/>
       <c r="E163" s="50"/>
-      <c r="F163" s="89"/>
-      <c r="G163" s="90"/>
+      <c r="F163" s="88"/>
+      <c r="G163" s="89"/>
       <c r="H163" s="50"/>
       <c r="I163" s="50"/>
       <c r="J163" s="50"/>
       <c r="K163" s="50"/>
       <c r="L163" s="50"/>
-      <c r="M163" s="73" t="s">
-        <v>370</v>
+      <c r="M163" s="72" t="s">
+        <v>364</v>
       </c>
       <c r="N163" s="42" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="O163" s="35" t="s">
         <v>233</v>
@@ -9775,43 +9738,43 @@
       <c r="P163" s="35"/>
     </row>
     <row r="164" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="64"/>
-      <c r="B164" s="65" t="s">
+      <c r="A164" s="63"/>
+      <c r="B164" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="C164" s="65"/>
-      <c r="D164" s="65"/>
-      <c r="E164" s="65"/>
-      <c r="F164" s="89"/>
-      <c r="G164" s="90"/>
-      <c r="H164" s="65"/>
-      <c r="I164" s="65"/>
-      <c r="J164" s="65"/>
-      <c r="K164" s="65"/>
-      <c r="L164" s="65"/>
-      <c r="M164" s="106"/>
+      <c r="C164" s="64"/>
+      <c r="D164" s="64"/>
+      <c r="E164" s="64"/>
+      <c r="F164" s="88"/>
+      <c r="G164" s="89"/>
+      <c r="H164" s="64"/>
+      <c r="I164" s="64"/>
+      <c r="J164" s="64"/>
+      <c r="K164" s="64"/>
+      <c r="L164" s="64"/>
+      <c r="M164" s="105"/>
       <c r="O164" s="40" t="s">
         <v>42</v>
       </c>
       <c r="P164" s="40"/>
     </row>
     <row r="165" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="64"/>
-      <c r="B165" s="65"/>
-      <c r="C165" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="D165" s="65"/>
-      <c r="E165" s="65"/>
-      <c r="F165" s="89"/>
-      <c r="G165" s="90"/>
-      <c r="H165" s="65"/>
-      <c r="I165" s="65"/>
+      <c r="A165" s="63"/>
+      <c r="B165" s="64"/>
+      <c r="C165" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="D165" s="64"/>
+      <c r="E165" s="64"/>
+      <c r="F165" s="88"/>
+      <c r="G165" s="89"/>
+      <c r="H165" s="64"/>
+      <c r="I165" s="64"/>
       <c r="J165" s="30"/>
-      <c r="K165" s="65"/>
-      <c r="L165" s="65"/>
-      <c r="M165" s="64" t="s">
-        <v>373</v>
+      <c r="K165" s="64"/>
+      <c r="L165" s="64"/>
+      <c r="M165" s="63" t="s">
+        <v>367</v>
       </c>
       <c r="N165" s="51" t="s">
         <v>21</v>
@@ -9822,25 +9785,25 @@
       <c r="P165" s="40"/>
     </row>
     <row r="166" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="64"/>
-      <c r="B166" s="65"/>
-      <c r="C166" s="65" t="s">
+      <c r="A166" s="63"/>
+      <c r="B166" s="64"/>
+      <c r="C166" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="D166" s="65"/>
-      <c r="E166" s="65"/>
-      <c r="F166" s="89"/>
-      <c r="G166" s="90"/>
-      <c r="H166" s="65"/>
-      <c r="I166" s="65"/>
-      <c r="J166" s="65"/>
-      <c r="K166" s="65"/>
-      <c r="L166" s="65"/>
-      <c r="M166" s="70" t="s">
+      <c r="D166" s="64"/>
+      <c r="E166" s="64"/>
+      <c r="F166" s="88"/>
+      <c r="G166" s="89"/>
+      <c r="H166" s="64"/>
+      <c r="I166" s="64"/>
+      <c r="J166" s="64"/>
+      <c r="K166" s="64"/>
+      <c r="L166" s="64"/>
+      <c r="M166" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N166" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O166" s="40" t="s">
         <v>233</v>
@@ -9848,17 +9811,17 @@
       <c r="P166" s="40"/>
     </row>
     <row r="167" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="63" t="s">
+      <c r="A167" s="62" t="s">
         <v>269</v>
       </c>
       <c r="B167" s="50"/>
       <c r="C167" s="50"/>
       <c r="D167" s="50"/>
       <c r="E167" s="50"/>
-      <c r="F167" s="57">
+      <c r="F167" s="56">
         <v>9</v>
       </c>
-      <c r="G167" s="83"/>
+      <c r="G167" s="82"/>
       <c r="H167" s="50" t="s">
         <v>269</v>
       </c>
@@ -9866,7 +9829,7 @@
       <c r="J167" s="50"/>
       <c r="K167" s="50"/>
       <c r="L167" s="50"/>
-      <c r="M167" s="63"/>
+      <c r="M167" s="62"/>
       <c r="N167" s="48" t="s">
         <v>269</v>
       </c>
@@ -9876,17 +9839,17 @@
       <c r="P167" s="35"/>
     </row>
     <row r="168" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="63"/>
+      <c r="A168" s="62"/>
       <c r="B168" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C168" s="50"/>
       <c r="D168" s="50"/>
       <c r="E168" s="50"/>
-      <c r="F168" s="57">
+      <c r="F168" s="56">
         <v>9</v>
       </c>
-      <c r="G168" s="83" t="s">
+      <c r="G168" s="82" t="s">
         <v>8</v>
       </c>
       <c r="H168" s="50"/>
@@ -9896,24 +9859,24 @@
       <c r="J168" s="50"/>
       <c r="K168" s="50"/>
       <c r="L168" s="50"/>
-      <c r="M168" s="63"/>
+      <c r="M168" s="62"/>
       <c r="O168" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P168" s="35"/>
     </row>
     <row r="169" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="63"/>
+      <c r="A169" s="62"/>
       <c r="B169" s="50" t="s">
         <v>275</v>
       </c>
       <c r="C169" s="50"/>
       <c r="D169" s="50"/>
       <c r="E169" s="50"/>
-      <c r="F169" s="57">
+      <c r="F169" s="56">
         <v>9</v>
       </c>
-      <c r="G169" s="102"/>
+      <c r="G169" s="101"/>
       <c r="H169" s="50"/>
       <c r="I169" s="50" t="s">
         <v>275</v>
@@ -9921,14 +9884,14 @@
       <c r="J169" s="50"/>
       <c r="K169" s="50"/>
       <c r="L169" s="50"/>
-      <c r="M169" s="63"/>
+      <c r="M169" s="62"/>
       <c r="O169" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P169" s="35"/>
     </row>
     <row r="170" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="63"/>
+      <c r="A170" s="62"/>
       <c r="B170" s="50"/>
       <c r="C170" s="50" t="s">
         <v>53</v>
@@ -9940,8 +9903,8 @@
       <c r="J170" s="50"/>
       <c r="K170" s="50"/>
       <c r="L170" s="50"/>
-      <c r="M170" s="63" t="s">
-        <v>371</v>
+      <c r="M170" s="62" t="s">
+        <v>365</v>
       </c>
       <c r="N170" s="48" t="s">
         <v>53</v>
@@ -9952,14 +9915,14 @@
       <c r="P170" s="35"/>
     </row>
     <row r="171" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="63"/>
+      <c r="A171" s="62"/>
       <c r="B171" s="50"/>
       <c r="C171" s="50" t="s">
         <v>55</v>
       </c>
       <c r="D171" s="50"/>
       <c r="E171" s="50"/>
-      <c r="F171" s="57">
+      <c r="F171" s="56">
         <v>9</v>
       </c>
       <c r="G171" s="38" t="s">
@@ -9972,24 +9935,24 @@
       </c>
       <c r="K171" s="50"/>
       <c r="L171" s="50"/>
-      <c r="M171" s="63"/>
+      <c r="M171" s="62"/>
       <c r="O171" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P171" s="35"/>
     </row>
     <row r="172" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="63"/>
+      <c r="A172" s="62"/>
       <c r="B172" s="50"/>
       <c r="C172" s="50" t="s">
         <v>292</v>
       </c>
       <c r="D172" s="50"/>
       <c r="E172" s="50"/>
-      <c r="F172" s="57">
+      <c r="F172" s="56">
         <v>9</v>
       </c>
-      <c r="G172" s="83" t="s">
+      <c r="G172" s="82" t="s">
         <v>46</v>
       </c>
       <c r="H172" s="50"/>
@@ -9999,21 +9962,21 @@
       </c>
       <c r="K172" s="50"/>
       <c r="L172" s="50"/>
-      <c r="M172" s="63"/>
+      <c r="M172" s="62"/>
       <c r="O172" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P172" s="35"/>
     </row>
     <row r="173" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="63"/>
+      <c r="A173" s="62"/>
       <c r="B173" s="50"/>
       <c r="C173" s="50" t="s">
         <v>56</v>
       </c>
       <c r="D173" s="50"/>
       <c r="E173" s="50"/>
-      <c r="F173" s="57">
+      <c r="F173" s="56">
         <v>9</v>
       </c>
       <c r="G173" s="38" t="s">
@@ -10026,21 +9989,21 @@
       </c>
       <c r="K173" s="50"/>
       <c r="L173" s="50"/>
-      <c r="M173" s="63"/>
+      <c r="M173" s="62"/>
       <c r="O173" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P173" s="35"/>
     </row>
     <row r="174" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="63"/>
+      <c r="A174" s="62"/>
       <c r="B174" s="50"/>
       <c r="C174" s="50" t="s">
         <v>47</v>
       </c>
       <c r="D174" s="50"/>
       <c r="E174" s="50"/>
-      <c r="F174" s="57">
+      <c r="F174" s="56">
         <v>9</v>
       </c>
       <c r="G174" s="38" t="s">
@@ -10053,8 +10016,8 @@
       </c>
       <c r="K174" s="50"/>
       <c r="L174" s="50"/>
-      <c r="M174" s="63" t="s">
-        <v>377</v>
+      <c r="M174" s="62" t="s">
+        <v>371</v>
       </c>
       <c r="N174" s="48" t="s">
         <v>248</v>
@@ -10065,7 +10028,7 @@
       <c r="P174" s="35"/>
     </row>
     <row r="175" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="63"/>
+      <c r="A175" s="62"/>
       <c r="B175" s="50"/>
       <c r="C175" s="50" t="s">
         <v>282</v>
@@ -10077,27 +10040,27 @@
       <c r="J175" s="50"/>
       <c r="K175" s="50"/>
       <c r="L175" s="50"/>
-      <c r="M175" s="105"/>
+      <c r="M175" s="104"/>
       <c r="O175" s="40" t="s">
         <v>42</v>
       </c>
       <c r="P175" s="35"/>
     </row>
     <row r="176" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="63"/>
+      <c r="A176" s="62"/>
       <c r="B176" s="50"/>
       <c r="C176" s="50"/>
-      <c r="D176" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E176" s="65"/>
+      <c r="D176" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E176" s="64"/>
       <c r="H176" s="50"/>
       <c r="I176" s="50"/>
       <c r="J176" s="50"/>
       <c r="K176" s="50"/>
       <c r="L176" s="50"/>
-      <c r="M176" s="64" t="s">
-        <v>372</v>
+      <c r="M176" s="63" t="s">
+        <v>366</v>
       </c>
       <c r="N176" s="48" t="s">
         <v>21</v>
@@ -10108,7 +10071,7 @@
       <c r="P176" s="35"/>
     </row>
     <row r="177" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="63"/>
+      <c r="A177" s="62"/>
       <c r="B177" s="50"/>
       <c r="C177" s="50"/>
       <c r="D177" s="50" t="s">
@@ -10120,11 +10083,11 @@
       <c r="J177" s="50"/>
       <c r="K177" s="50"/>
       <c r="L177" s="50"/>
-      <c r="M177" s="70" t="s">
+      <c r="M177" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N177" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O177" s="35" t="s">
         <v>233</v>
@@ -10132,42 +10095,42 @@
       <c r="P177" s="35"/>
     </row>
     <row r="178" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="63"/>
+      <c r="A178" s="62"/>
       <c r="B178" s="50" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C178" s="50"/>
       <c r="D178" s="50"/>
       <c r="E178" s="50"/>
-      <c r="F178" s="57">
+      <c r="F178" s="56">
         <v>9</v>
       </c>
-      <c r="G178" s="104"/>
+      <c r="G178" s="103"/>
       <c r="H178" s="50"/>
       <c r="I178" s="50" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J178" s="50"/>
       <c r="K178" s="50"/>
       <c r="L178" s="50"/>
-      <c r="M178" s="63"/>
+      <c r="M178" s="62"/>
       <c r="O178" s="35" t="s">
         <v>42</v>
       </c>
       <c r="P178" s="35"/>
     </row>
     <row r="179" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="63"/>
+      <c r="A179" s="62"/>
       <c r="B179" s="50"/>
       <c r="C179" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="50"/>
       <c r="E179" s="50"/>
-      <c r="F179" s="57">
+      <c r="F179" s="56">
         <v>9</v>
       </c>
-      <c r="G179" s="83" t="s">
+      <c r="G179" s="82" t="s">
         <v>17</v>
       </c>
       <c r="H179" s="50"/>
@@ -10177,7 +10140,7 @@
       </c>
       <c r="K179" s="50"/>
       <c r="L179" s="50"/>
-      <c r="M179" s="70" t="s">
+      <c r="M179" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N179" s="51" t="s">
@@ -10189,14 +10152,14 @@
       <c r="P179" s="35"/>
     </row>
     <row r="180" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="63"/>
+      <c r="A180" s="62"/>
       <c r="B180" s="50"/>
       <c r="C180" s="50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D180" s="50"/>
       <c r="E180" s="50"/>
-      <c r="F180" s="57">
+      <c r="F180" s="56">
         <v>9</v>
       </c>
       <c r="G180" s="30" t="s">
@@ -10205,12 +10168,12 @@
       <c r="H180" s="50"/>
       <c r="I180" s="50"/>
       <c r="J180" s="50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K180" s="50"/>
       <c r="L180" s="50"/>
-      <c r="M180" s="63" t="s">
-        <v>378</v>
+      <c r="M180" s="62" t="s">
+        <v>372</v>
       </c>
       <c r="N180" s="51" t="s">
         <v>248</v>
@@ -10219,14 +10182,14 @@
       <c r="P180" s="35"/>
     </row>
     <row r="181" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="63"/>
+      <c r="A181" s="62"/>
       <c r="B181" s="50"/>
       <c r="C181" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D181" s="50"/>
       <c r="E181" s="50"/>
-      <c r="F181" s="57">
+      <c r="F181" s="56">
         <v>9</v>
       </c>
       <c r="G181" s="30" t="s">
@@ -10235,12 +10198,12 @@
       <c r="H181" s="50"/>
       <c r="I181" s="50"/>
       <c r="J181" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K181" s="50"/>
       <c r="L181" s="50"/>
-      <c r="M181" s="63" t="s">
-        <v>378</v>
+      <c r="M181" s="62" t="s">
+        <v>372</v>
       </c>
       <c r="N181" s="51" t="s">
         <v>248</v>
@@ -10249,7 +10212,7 @@
       <c r="P181" s="35"/>
     </row>
     <row r="182" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="63"/>
+      <c r="A182" s="62"/>
       <c r="B182" s="50"/>
       <c r="C182" s="50" t="s">
         <v>282</v>
@@ -10261,27 +10224,27 @@
       <c r="J182" s="50"/>
       <c r="K182" s="50"/>
       <c r="L182" s="50"/>
-      <c r="M182" s="105"/>
+      <c r="M182" s="104"/>
       <c r="O182" s="35" t="s">
         <v>42</v>
       </c>
       <c r="P182" s="35"/>
     </row>
     <row r="183" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="63"/>
+      <c r="A183" s="62"/>
       <c r="B183" s="50"/>
       <c r="C183" s="50"/>
-      <c r="D183" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E183" s="65"/>
+      <c r="D183" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E183" s="64"/>
       <c r="H183" s="50"/>
       <c r="I183" s="50"/>
       <c r="J183" s="50"/>
       <c r="K183" s="50"/>
       <c r="L183" s="50"/>
-      <c r="M183" s="64" t="s">
-        <v>372</v>
+      <c r="M183" s="63" t="s">
+        <v>366</v>
       </c>
       <c r="N183" s="48" t="s">
         <v>21</v>
@@ -10292,7 +10255,7 @@
       <c r="P183" s="35"/>
     </row>
     <row r="184" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="63"/>
+      <c r="A184" s="62"/>
       <c r="B184" s="50"/>
       <c r="C184" s="50"/>
       <c r="D184" s="50" t="s">
@@ -10304,11 +10267,11 @@
       <c r="J184" s="50"/>
       <c r="K184" s="50"/>
       <c r="L184" s="50"/>
-      <c r="M184" s="70" t="s">
+      <c r="M184" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N184" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O184" s="35" t="s">
         <v>233</v>
@@ -10316,17 +10279,17 @@
       <c r="P184" s="35"/>
     </row>
     <row r="185" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="63"/>
+      <c r="A185" s="62"/>
       <c r="B185" s="50" t="s">
         <v>282</v>
       </c>
       <c r="C185" s="50"/>
       <c r="D185" s="50"/>
       <c r="E185" s="50"/>
-      <c r="F185" s="57">
+      <c r="F185" s="56">
         <v>9</v>
       </c>
-      <c r="G185" s="97"/>
+      <c r="G185" s="96"/>
       <c r="H185" s="50"/>
       <c r="I185" s="50" t="s">
         <v>282</v>
@@ -10334,35 +10297,35 @@
       <c r="J185" s="50"/>
       <c r="K185" s="50"/>
       <c r="L185" s="50"/>
-      <c r="M185" s="105"/>
+      <c r="M185" s="104"/>
       <c r="O185" s="40" t="s">
         <v>42</v>
       </c>
       <c r="P185" s="35"/>
     </row>
     <row r="186" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="63"/>
+      <c r="A186" s="62"/>
       <c r="B186" s="50"/>
-      <c r="C186" s="65" t="s">
-        <v>357</v>
+      <c r="C186" s="64" t="s">
+        <v>351</v>
       </c>
       <c r="D186" s="50"/>
       <c r="E186" s="50"/>
       <c r="F186" s="40">
         <v>9</v>
       </c>
-      <c r="G186" s="65" t="s">
+      <c r="G186" s="64" t="s">
         <v>19</v>
       </c>
       <c r="H186" s="50"/>
       <c r="I186" s="50"/>
-      <c r="J186" s="65" t="s">
-        <v>356</v>
+      <c r="J186" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="K186" s="50"/>
       <c r="L186" s="50"/>
-      <c r="M186" s="70" t="s">
-        <v>362</v>
+      <c r="M186" s="69" t="s">
+        <v>356</v>
       </c>
       <c r="N186" s="48" t="s">
         <v>21</v>
@@ -10373,14 +10336,14 @@
       <c r="P186" s="35"/>
     </row>
     <row r="187" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="63"/>
+      <c r="A187" s="62"/>
       <c r="B187" s="50"/>
       <c r="C187" s="50" t="s">
         <v>283</v>
       </c>
       <c r="D187" s="50"/>
       <c r="E187" s="50"/>
-      <c r="F187" s="57">
+      <c r="F187" s="56">
         <v>9</v>
       </c>
       <c r="G187" s="30" t="s">
@@ -10393,11 +10356,11 @@
       </c>
       <c r="K187" s="50"/>
       <c r="L187" s="50"/>
-      <c r="M187" s="70" t="s">
+      <c r="M187" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N187" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O187" s="35" t="s">
         <v>233</v>
@@ -10405,25 +10368,25 @@
       <c r="P187" s="35"/>
     </row>
     <row r="188" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="63" t="s">
-        <v>333</v>
+      <c r="A188" s="62" t="s">
+        <v>328</v>
       </c>
       <c r="B188" s="50"/>
       <c r="C188" s="50"/>
       <c r="D188" s="50"/>
       <c r="E188" s="50"/>
-      <c r="F188" s="57">
+      <c r="F188" s="56">
         <v>10</v>
       </c>
-      <c r="G188" s="83"/>
+      <c r="G188" s="82"/>
       <c r="H188" s="50" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I188" s="50"/>
       <c r="J188" s="50"/>
       <c r="K188" s="50"/>
       <c r="L188" s="50"/>
-      <c r="M188" s="63"/>
+      <c r="M188" s="62"/>
       <c r="N188" s="48" t="s">
         <v>261</v>
       </c>
@@ -10433,7 +10396,7 @@
       <c r="P188" s="35"/>
     </row>
     <row r="189" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="63"/>
+      <c r="A189" s="62"/>
       <c r="B189" s="50" t="s">
         <v>291</v>
       </c>
@@ -10453,8 +10416,8 @@
       <c r="J189" s="50"/>
       <c r="K189" s="50"/>
       <c r="L189" s="50"/>
-      <c r="M189" s="63" t="s">
-        <v>384</v>
+      <c r="M189" s="62" t="s">
+        <v>378</v>
       </c>
       <c r="N189" s="51" t="s">
         <v>248</v>
@@ -10465,9 +10428,9 @@
       <c r="P189" s="35"/>
     </row>
     <row r="190" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="63"/>
+      <c r="A190" s="62"/>
       <c r="B190" s="50" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C190" s="50"/>
       <c r="D190" s="50"/>
@@ -10480,12 +10443,12 @@
       </c>
       <c r="H190" s="50"/>
       <c r="I190" s="50" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J190" s="50"/>
       <c r="K190" s="50"/>
       <c r="L190" s="50"/>
-      <c r="M190" s="70" t="s">
+      <c r="M190" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N190" s="51" t="s">
@@ -10497,9 +10460,9 @@
       <c r="P190" s="35"/>
     </row>
     <row r="191" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="63"/>
+      <c r="A191" s="62"/>
       <c r="B191" s="50" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C191" s="50"/>
       <c r="D191" s="50"/>
@@ -10512,12 +10475,12 @@
       </c>
       <c r="H191" s="50"/>
       <c r="I191" s="50" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J191" s="50"/>
       <c r="K191" s="50"/>
       <c r="L191" s="50"/>
-      <c r="M191" s="70" t="s">
+      <c r="M191" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N191" s="51" t="s">
@@ -10529,7 +10492,7 @@
       <c r="P191" s="35"/>
     </row>
     <row r="192" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="63"/>
+      <c r="A192" s="62"/>
       <c r="B192" s="50" t="s">
         <v>282</v>
       </c>
@@ -10539,7 +10502,7 @@
       <c r="F192" s="28">
         <v>10</v>
       </c>
-      <c r="G192" s="97"/>
+      <c r="G192" s="96"/>
       <c r="H192" s="50"/>
       <c r="I192" s="50" t="s">
         <v>282</v>
@@ -10547,7 +10510,7 @@
       <c r="J192" s="50"/>
       <c r="K192" s="50"/>
       <c r="L192" s="50"/>
-      <c r="M192" s="105"/>
+      <c r="M192" s="104"/>
       <c r="N192" s="48" t="s">
         <v>21</v>
       </c>
@@ -10557,10 +10520,10 @@
       <c r="P192" s="35"/>
     </row>
     <row r="193" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="63"/>
+      <c r="A193" s="62"/>
       <c r="B193" s="50"/>
-      <c r="C193" s="65" t="s">
-        <v>357</v>
+      <c r="C193" s="64" t="s">
+        <v>351</v>
       </c>
       <c r="D193" s="50"/>
       <c r="E193" s="50"/>
@@ -10572,13 +10535,13 @@
       </c>
       <c r="H193" s="50"/>
       <c r="I193" s="50"/>
-      <c r="J193" s="65" t="s">
-        <v>356</v>
+      <c r="J193" s="64" t="s">
+        <v>350</v>
       </c>
       <c r="K193" s="50"/>
       <c r="L193" s="50"/>
-      <c r="M193" s="70" t="s">
-        <v>362</v>
+      <c r="M193" s="69" t="s">
+        <v>356</v>
       </c>
       <c r="N193" s="48" t="s">
         <v>21</v>
@@ -10589,7 +10552,7 @@
       <c r="P193" s="35"/>
     </row>
     <row r="194" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="63"/>
+      <c r="A194" s="62"/>
       <c r="B194" s="50"/>
       <c r="C194" s="50" t="s">
         <v>283</v>
@@ -10609,11 +10572,11 @@
       </c>
       <c r="K194" s="50"/>
       <c r="L194" s="50"/>
-      <c r="M194" s="70" t="s">
+      <c r="M194" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N194" s="51" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O194" s="35" t="s">
         <v>233</v>
@@ -10621,8 +10584,8 @@
       <c r="P194" s="35"/>
     </row>
     <row r="195" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="63" t="s">
-        <v>331</v>
+      <c r="A195" s="62" t="s">
+        <v>326</v>
       </c>
       <c r="B195" s="50"/>
       <c r="C195" s="50"/>
@@ -10635,21 +10598,21 @@
         <v>35</v>
       </c>
       <c r="H195" s="50" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I195" s="50"/>
       <c r="J195" s="50"/>
       <c r="K195" s="50"/>
       <c r="L195" s="50"/>
-      <c r="M195" s="63"/>
+      <c r="M195" s="62"/>
       <c r="O195" s="35" t="s">
         <v>233</v>
       </c>
       <c r="P195" s="35"/>
     </row>
     <row r="196" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="63" t="s">
-        <v>332</v>
+      <c r="A196" s="62" t="s">
+        <v>327</v>
       </c>
       <c r="B196" s="50"/>
       <c r="C196" s="50"/>
@@ -10662,15 +10625,15 @@
         <v>34</v>
       </c>
       <c r="H196" s="50" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I196" s="50"/>
       <c r="J196" s="50"/>
       <c r="K196" s="50"/>
       <c r="L196" s="50"/>
-      <c r="M196" s="63"/>
-      <c r="N196" s="53" t="s">
-        <v>324</v>
+      <c r="M196" s="62"/>
+      <c r="N196" s="52" t="s">
+        <v>319</v>
       </c>
       <c r="O196" s="35" t="s">
         <v>233</v>
@@ -10679,30 +10642,30 @@
       <c r="Q196" s="51"/>
     </row>
     <row r="197" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="64" t="s">
+      <c r="A197" s="63" t="s">
         <v>287</v>
       </c>
       <c r="B197" s="50"/>
       <c r="C197" s="50"/>
       <c r="D197" s="50"/>
       <c r="E197" s="50"/>
-      <c r="F197" s="57">
+      <c r="F197" s="56">
         <v>13</v>
       </c>
-      <c r="G197" s="101"/>
-      <c r="H197" s="65" t="s">
+      <c r="G197" s="100"/>
+      <c r="H197" s="64" t="s">
         <v>287</v>
       </c>
       <c r="I197" s="50"/>
       <c r="J197" s="50"/>
       <c r="K197" s="50"/>
       <c r="L197" s="50"/>
-      <c r="M197" s="63"/>
+      <c r="M197" s="62"/>
       <c r="O197" s="35"/>
       <c r="P197" s="35"/>
     </row>
     <row r="198" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="63"/>
+      <c r="A198" s="62"/>
       <c r="B198" s="30" t="s">
         <v>289</v>
       </c>
@@ -10722,7 +10685,7 @@
       <c r="J198" s="50"/>
       <c r="K198" s="50"/>
       <c r="L198" s="50"/>
-      <c r="M198" s="105"/>
+      <c r="M198" s="104"/>
       <c r="N198" s="48" t="s">
         <v>243</v>
       </c>
@@ -10730,8 +10693,8 @@
       <c r="P198" s="35"/>
     </row>
     <row r="199" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="63"/>
-      <c r="B199" s="65" t="s">
+      <c r="A199" s="62"/>
+      <c r="B199" s="64" t="s">
         <v>288</v>
       </c>
       <c r="C199" s="50"/>
@@ -10744,13 +10707,13 @@
         <v>39</v>
       </c>
       <c r="H199" s="50"/>
-      <c r="I199" s="65" t="s">
+      <c r="I199" s="64" t="s">
         <v>288</v>
       </c>
       <c r="J199" s="50"/>
       <c r="K199" s="50"/>
       <c r="L199" s="50"/>
-      <c r="M199" s="70" t="s">
+      <c r="M199" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N199" s="51" t="s">
@@ -10758,22 +10721,20 @@
       </c>
       <c r="O199" s="35"/>
       <c r="P199" s="35"/>
-      <c r="Q199" s="51" t="s">
-        <v>301</v>
-      </c>
+      <c r="Q199" s="51"/>
     </row>
     <row r="200" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="63" t="s">
+      <c r="A200" s="62" t="s">
         <v>290</v>
       </c>
       <c r="B200" s="50"/>
       <c r="C200" s="50"/>
       <c r="D200" s="50"/>
       <c r="E200" s="50"/>
-      <c r="F200" s="57">
+      <c r="F200" s="56">
         <v>13</v>
       </c>
-      <c r="G200" s="101"/>
+      <c r="G200" s="100"/>
       <c r="H200" s="50" t="s">
         <v>290</v>
       </c>
@@ -10781,12 +10742,12 @@
       <c r="J200" s="50"/>
       <c r="K200" s="50"/>
       <c r="L200" s="50"/>
-      <c r="M200" s="63"/>
+      <c r="M200" s="62"/>
       <c r="O200" s="35"/>
       <c r="P200" s="35"/>
     </row>
     <row r="201" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="63"/>
+      <c r="A201" s="62"/>
       <c r="B201" s="50" t="s">
         <v>291</v>
       </c>
@@ -10806,7 +10767,7 @@
       <c r="J201" s="50"/>
       <c r="K201" s="50"/>
       <c r="L201" s="50"/>
-      <c r="M201" s="105"/>
+      <c r="M201" s="104"/>
       <c r="N201" s="48" t="s">
         <v>243</v>
       </c>
@@ -10814,9 +10775,9 @@
       <c r="P201" s="35"/>
     </row>
     <row r="202" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="63"/>
-      <c r="B202" s="65" t="s">
-        <v>300</v>
+      <c r="A202" s="62"/>
+      <c r="B202" s="64" t="s">
+        <v>299</v>
       </c>
       <c r="C202" s="50"/>
       <c r="D202" s="50"/>
@@ -10828,13 +10789,13 @@
         <v>38</v>
       </c>
       <c r="H202" s="50"/>
-      <c r="I202" s="65" t="s">
-        <v>300</v>
+      <c r="I202" s="64" t="s">
+        <v>299</v>
       </c>
       <c r="J202" s="50"/>
       <c r="K202" s="50"/>
       <c r="L202" s="50"/>
-      <c r="M202" s="70" t="s">
+      <c r="M202" s="69" t="s">
         <v>278</v>
       </c>
       <c r="N202" s="51" t="s">
